--- a/交通費申請一覧機能/設計書/マッパー設計書_ユーザマスタ.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_ユーザマスタ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL43\Desktop\詳細設計書_交通費一覧\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\新フォーマット格納所\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D28DC2-B724-4174-BE04-CE23799AAF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF72354F-6B60-4BB5-9CB7-589F2649E293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="620" yWindow="410" windowWidth="11870" windowHeight="8960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_ユーザマスターマッパー" sheetId="10" r:id="rId1"/>
@@ -345,13 +345,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>詳細設計書_ユーザマスタマッパー</t>
-    <rPh sb="0" eb="5">
-      <t>ショウサイセッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>ユーザ取得</t>
     <rPh sb="3" eb="5">
       <t>シュトク</t>
@@ -491,6 +484,13 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>マッパー設計書_ユーザマスタ</t>
+    <rPh sb="4" eb="7">
+      <t>セッケイショ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -1359,7 +1359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B70D8C-054F-4519-8336-22893221A19C}">
   <dimension ref="A1:AMW48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -1461,7 +1461,7 @@
       <c r="G2" s="65"/>
       <c r="H2" s="65"/>
       <c r="I2" s="66" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="J2" s="66"/>
       <c r="K2" s="66"/>
@@ -1675,7 +1675,7 @@
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="C6" s="61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="61"/>
       <c r="E6" s="61"/>
@@ -1972,7 +1972,7 @@
       <c r="AG11" s="49"/>
       <c r="AH11" s="49"/>
       <c r="AI11" s="53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ11" s="53"/>
       <c r="AK11" s="53"/>
@@ -2855,7 +2855,7 @@
       <c r="M26" s="49"/>
       <c r="N26" s="49"/>
       <c r="O26" s="51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P26" s="51"/>
       <c r="Q26" s="51"/>
@@ -2873,7 +2873,7 @@
       <c r="AC26" s="51"/>
       <c r="AD26" s="51"/>
       <c r="AE26" s="49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF26" s="49"/>
       <c r="AG26" s="49"/>
@@ -4432,7 +4432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E3FF34-AE25-40C3-ADE9-72B98019CF4C}">
   <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -4538,7 +4538,7 @@
       <c r="G2" s="65"/>
       <c r="H2" s="65"/>
       <c r="I2" s="58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" s="58"/>
       <c r="K2" s="58"/>
@@ -4800,7 +4800,7 @@
       <c r="K7" s="49"/>
       <c r="L7" s="49"/>
       <c r="M7" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
@@ -4839,7 +4839,7 @@
       <c r="AT7" s="49"/>
       <c r="AU7" s="49"/>
       <c r="AV7" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AW7" s="49"/>
       <c r="AX7" s="49"/>
@@ -4899,7 +4899,7 @@
       <c r="U10" s="69"/>
       <c r="V10" s="69"/>
       <c r="W10" s="73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X10" s="74"/>
       <c r="Y10" s="74"/>
@@ -4958,7 +4958,7 @@
       <c r="E11" s="68"/>
       <c r="F11" s="68"/>
       <c r="G11" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -4978,7 +4978,7 @@
       <c r="U11" s="69"/>
       <c r="V11" s="72"/>
       <c r="W11" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X11" s="39"/>
       <c r="Y11" s="39"/>
@@ -5393,7 +5393,7 @@
       <c r="E19" s="68"/>
       <c r="F19" s="68"/>
       <c r="G19" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
@@ -5413,7 +5413,7 @@
       <c r="U19" s="69"/>
       <c r="V19" s="69"/>
       <c r="W19" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X19" s="18"/>
       <c r="Y19" s="18"/>
@@ -5698,7 +5698,7 @@
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C26" s="29"/>
       <c r="I26" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD26" s="13"/>
       <c r="AG26" s="16"/>
@@ -5722,7 +5722,7 @@
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C29" s="29"/>
       <c r="I29" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD29" s="13"/>
       <c r="AG29" s="16"/>
@@ -5747,7 +5747,7 @@
       <c r="A32" s="12"/>
       <c r="C32" s="29"/>
       <c r="I32" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG32" s="16"/>
       <c r="BP32" s="30"/>
@@ -5816,7 +5816,7 @@
     <row r="42" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C42" s="29"/>
       <c r="G42" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD42" s="13"/>
       <c r="AG42" s="16"/>
@@ -6068,12 +6068,12 @@
   <sheetData>
     <row r="2" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="84" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="85"/>
       <c r="D3" s="85"/>
@@ -6085,14 +6085,14 @@
       <c r="J3" s="85"/>
       <c r="K3" s="86"/>
       <c r="L3" s="84" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M3" s="85"/>
       <c r="N3" s="85"/>
       <c r="O3" s="85"/>
       <c r="P3" s="86"/>
       <c r="Q3" s="84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R3" s="85"/>
       <c r="S3" s="85"/>
@@ -6129,10 +6129,10 @@
     </row>
     <row r="4" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>74</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>75</v>
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="43"/>
@@ -6143,14 +6143,14 @@
       <c r="J4" s="43"/>
       <c r="K4" s="43"/>
       <c r="L4" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M4" s="43"/>
       <c r="N4" s="43"/>
       <c r="O4" s="43"/>
       <c r="P4" s="45"/>
       <c r="Q4" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R4" s="43"/>
       <c r="S4" s="43"/>
@@ -6237,10 +6237,10 @@
     </row>
     <row r="6" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
@@ -6251,14 +6251,14 @@
       <c r="J6" s="43"/>
       <c r="K6" s="43"/>
       <c r="L6" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M6" s="43"/>
       <c r="N6" s="43"/>
       <c r="O6" s="43"/>
       <c r="P6" s="45"/>
       <c r="Q6" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R6" s="43"/>
       <c r="S6" s="43"/>

--- a/交通費申請一覧機能/設計書/マッパー設計書_ユーザマスタ.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_ユーザマスタ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\新フォーマット格納所\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF72354F-6B60-4BB5-9CB7-589F2649E293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98041C9-3AC4-4ADC-A31A-DB3BE3EB999C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="410" windowWidth="11870" windowHeight="8960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7490" yWindow="590" windowWidth="11460" windowHeight="9910" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_ユーザマスターマッパー" sheetId="10" r:id="rId1"/>
@@ -467,30 +467,30 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>ユーザマスタテーブル a</t>
+    <t>マッパー設計書_ユーザマスタ</t>
+    <rPh sb="4" eb="7">
+      <t>セッケイショ</t>
+    </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>a.全項目</t>
-    <rPh sb="2" eb="5">
+    <t>ユーザマスタテーブル AS UserMTable</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>UserMTable.全項目</t>
+    <rPh sb="11" eb="14">
       <t>ゼンコウモク</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>a.社員ID=引数.社員ID</t>
-    <rPh sb="2" eb="4">
+    <t>UserMTable.社員ID=引数.社員ID</t>
+    <rPh sb="11" eb="13">
       <t>シャイン</t>
     </rPh>
-    <rPh sb="7" eb="9">
+    <rPh sb="16" eb="18">
       <t>ヒキスウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>マッパー設計書_ユーザマスタ</t>
-    <rPh sb="4" eb="7">
-      <t>セッケイショ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -1048,45 +1048,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="4" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1102,32 +1063,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1137,6 +1112,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1149,6 +1127,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
@@ -1371,243 +1371,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="64" t="s">
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="64"/>
-      <c r="BC1" s="64"/>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="64"/>
-      <c r="BF1" s="64"/>
-      <c r="BG1" s="64"/>
-      <c r="BH1" s="64"/>
-      <c r="BI1" s="64"/>
-      <c r="BJ1" s="64"/>
-      <c r="BK1" s="64"/>
-      <c r="BL1" s="64"/>
-      <c r="BM1" s="64"/>
-      <c r="BN1" s="64"/>
-      <c r="BO1" s="64"/>
-      <c r="BP1" s="64"/>
-      <c r="BQ1" s="64"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="51"/>
+      <c r="BB1" s="51"/>
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51"/>
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="51"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
+      <c r="BJ1" s="51"/>
+      <c r="BK1" s="51"/>
+      <c r="BL1" s="51"/>
+      <c r="BM1" s="51"/>
+      <c r="BN1" s="51"/>
+      <c r="BO1" s="51"/>
+      <c r="BP1" s="51"/>
+      <c r="BQ1" s="51"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="50" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="50" t="s">
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="50"/>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="50" t="s">
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="50"/>
-      <c r="BD2" s="50"/>
-      <c r="BE2" s="50"/>
-      <c r="BF2" s="50"/>
-      <c r="BG2" s="50"/>
-      <c r="BH2" s="50"/>
-      <c r="BI2" s="50"/>
-      <c r="BJ2" s="67"/>
-      <c r="BK2" s="67"/>
-      <c r="BL2" s="67"/>
-      <c r="BM2" s="67"/>
-      <c r="BN2" s="67"/>
-      <c r="BO2" s="67"/>
-      <c r="BP2" s="67"/>
-      <c r="BQ2" s="67"/>
+      <c r="BC2" s="54"/>
+      <c r="BD2" s="54"/>
+      <c r="BE2" s="54"/>
+      <c r="BF2" s="54"/>
+      <c r="BG2" s="54"/>
+      <c r="BH2" s="54"/>
+      <c r="BI2" s="54"/>
+      <c r="BJ2" s="55"/>
+      <c r="BK2" s="55"/>
+      <c r="BL2" s="55"/>
+      <c r="BM2" s="55"/>
+      <c r="BN2" s="55"/>
+      <c r="BO2" s="55"/>
+      <c r="BP2" s="55"/>
+      <c r="BQ2" s="55"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="58" t="s">
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="58"/>
-      <c r="AP3" s="58"/>
-      <c r="AQ3" s="58"/>
-      <c r="AR3" s="58"/>
-      <c r="AS3" s="58"/>
-      <c r="AT3" s="59">
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="60"/>
+      <c r="AR3" s="60"/>
+      <c r="AS3" s="60"/>
+      <c r="AT3" s="61">
         <v>45511</v>
       </c>
-      <c r="AU3" s="59"/>
-      <c r="AV3" s="59"/>
-      <c r="AW3" s="59"/>
-      <c r="AX3" s="59"/>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="59"/>
-      <c r="BA3" s="59"/>
-      <c r="BB3" s="58" t="s">
+      <c r="AU3" s="61"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="61"/>
+      <c r="AX3" s="61"/>
+      <c r="AY3" s="61"/>
+      <c r="AZ3" s="61"/>
+      <c r="BA3" s="61"/>
+      <c r="BB3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="58"/>
-      <c r="BD3" s="58"/>
-      <c r="BE3" s="58"/>
-      <c r="BF3" s="58"/>
-      <c r="BG3" s="58"/>
-      <c r="BH3" s="58"/>
-      <c r="BI3" s="58"/>
-      <c r="BJ3" s="60"/>
-      <c r="BK3" s="60"/>
-      <c r="BL3" s="60"/>
-      <c r="BM3" s="60"/>
-      <c r="BN3" s="60"/>
-      <c r="BO3" s="60"/>
-      <c r="BP3" s="60"/>
-      <c r="BQ3" s="60"/>
+      <c r="BC3" s="60"/>
+      <c r="BD3" s="60"/>
+      <c r="BE3" s="60"/>
+      <c r="BF3" s="60"/>
+      <c r="BG3" s="60"/>
+      <c r="BH3" s="60"/>
+      <c r="BI3" s="60"/>
+      <c r="BJ3" s="62"/>
+      <c r="BK3" s="62"/>
+      <c r="BL3" s="62"/>
+      <c r="BM3" s="62"/>
+      <c r="BN3" s="62"/>
+      <c r="BO3" s="62"/>
+      <c r="BP3" s="62"/>
+      <c r="BQ3" s="62"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -1674,213 +1674,213 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="61"/>
-      <c r="AG6" s="61"/>
-      <c r="AH6" s="61"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="61"/>
-      <c r="AK6" s="61"/>
-      <c r="AL6" s="61"/>
-      <c r="AM6" s="61"/>
-      <c r="AN6" s="61"/>
-      <c r="AO6" s="61"/>
-      <c r="AP6" s="61"/>
-      <c r="AQ6" s="61"/>
-      <c r="AR6" s="61"/>
-      <c r="AS6" s="61"/>
-      <c r="AT6" s="61"/>
-      <c r="AU6" s="61"/>
-      <c r="AV6" s="61"/>
-      <c r="AW6" s="61"/>
-      <c r="AX6" s="61"/>
-      <c r="AY6" s="61"/>
-      <c r="AZ6" s="61"/>
-      <c r="BA6" s="61"/>
-      <c r="BB6" s="61"/>
-      <c r="BC6" s="61"/>
-      <c r="BD6" s="61"/>
-      <c r="BE6" s="61"/>
-      <c r="BF6" s="61"/>
-      <c r="BG6" s="61"/>
-      <c r="BH6" s="61"/>
-      <c r="BI6" s="61"/>
-      <c r="BJ6" s="61"/>
-      <c r="BK6" s="61"/>
-      <c r="BL6" s="61"/>
-      <c r="BM6" s="61"/>
-      <c r="BN6" s="61"/>
-      <c r="BO6" s="61"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="63"/>
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="63"/>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="63"/>
+      <c r="AG6" s="63"/>
+      <c r="AH6" s="63"/>
+      <c r="AI6" s="63"/>
+      <c r="AJ6" s="63"/>
+      <c r="AK6" s="63"/>
+      <c r="AL6" s="63"/>
+      <c r="AM6" s="63"/>
+      <c r="AN6" s="63"/>
+      <c r="AO6" s="63"/>
+      <c r="AP6" s="63"/>
+      <c r="AQ6" s="63"/>
+      <c r="AR6" s="63"/>
+      <c r="AS6" s="63"/>
+      <c r="AT6" s="63"/>
+      <c r="AU6" s="63"/>
+      <c r="AV6" s="63"/>
+      <c r="AW6" s="63"/>
+      <c r="AX6" s="63"/>
+      <c r="AY6" s="63"/>
+      <c r="AZ6" s="63"/>
+      <c r="BA6" s="63"/>
+      <c r="BB6" s="63"/>
+      <c r="BC6" s="63"/>
+      <c r="BD6" s="63"/>
+      <c r="BE6" s="63"/>
+      <c r="BF6" s="63"/>
+      <c r="BG6" s="63"/>
+      <c r="BH6" s="63"/>
+      <c r="BI6" s="63"/>
+      <c r="BJ6" s="63"/>
+      <c r="BK6" s="63"/>
+      <c r="BL6" s="63"/>
+      <c r="BM6" s="63"/>
+      <c r="BN6" s="63"/>
+      <c r="BO6" s="63"/>
       <c r="BP6"/>
       <c r="BQ6" s="4"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="61"/>
-      <c r="AF7" s="61"/>
-      <c r="AG7" s="61"/>
-      <c r="AH7" s="61"/>
-      <c r="AI7" s="61"/>
-      <c r="AJ7" s="61"/>
-      <c r="AK7" s="61"/>
-      <c r="AL7" s="61"/>
-      <c r="AM7" s="61"/>
-      <c r="AN7" s="61"/>
-      <c r="AO7" s="61"/>
-      <c r="AP7" s="61"/>
-      <c r="AQ7" s="61"/>
-      <c r="AR7" s="61"/>
-      <c r="AS7" s="61"/>
-      <c r="AT7" s="61"/>
-      <c r="AU7" s="61"/>
-      <c r="AV7" s="61"/>
-      <c r="AW7" s="61"/>
-      <c r="AX7" s="61"/>
-      <c r="AY7" s="61"/>
-      <c r="AZ7" s="61"/>
-      <c r="BA7" s="61"/>
-      <c r="BB7" s="61"/>
-      <c r="BC7" s="61"/>
-      <c r="BD7" s="61"/>
-      <c r="BE7" s="61"/>
-      <c r="BF7" s="61"/>
-      <c r="BG7" s="61"/>
-      <c r="BH7" s="61"/>
-      <c r="BI7" s="61"/>
-      <c r="BJ7" s="61"/>
-      <c r="BK7" s="61"/>
-      <c r="BL7" s="61"/>
-      <c r="BM7" s="61"/>
-      <c r="BN7" s="61"/>
-      <c r="BO7" s="61"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="63"/>
+      <c r="AD7" s="63"/>
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="63"/>
+      <c r="AG7" s="63"/>
+      <c r="AH7" s="63"/>
+      <c r="AI7" s="63"/>
+      <c r="AJ7" s="63"/>
+      <c r="AK7" s="63"/>
+      <c r="AL7" s="63"/>
+      <c r="AM7" s="63"/>
+      <c r="AN7" s="63"/>
+      <c r="AO7" s="63"/>
+      <c r="AP7" s="63"/>
+      <c r="AQ7" s="63"/>
+      <c r="AR7" s="63"/>
+      <c r="AS7" s="63"/>
+      <c r="AT7" s="63"/>
+      <c r="AU7" s="63"/>
+      <c r="AV7" s="63"/>
+      <c r="AW7" s="63"/>
+      <c r="AX7" s="63"/>
+      <c r="AY7" s="63"/>
+      <c r="AZ7" s="63"/>
+      <c r="BA7" s="63"/>
+      <c r="BB7" s="63"/>
+      <c r="BC7" s="63"/>
+      <c r="BD7" s="63"/>
+      <c r="BE7" s="63"/>
+      <c r="BF7" s="63"/>
+      <c r="BG7" s="63"/>
+      <c r="BH7" s="63"/>
+      <c r="BI7" s="63"/>
+      <c r="BJ7" s="63"/>
+      <c r="BK7" s="63"/>
+      <c r="BL7" s="63"/>
+      <c r="BM7" s="63"/>
+      <c r="BN7" s="63"/>
+      <c r="BO7" s="63"/>
       <c r="BP7"/>
       <c r="BQ7" s="4"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="57"/>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="57"/>
-      <c r="AF8" s="57"/>
-      <c r="AG8" s="57"/>
-      <c r="AH8" s="57"/>
-      <c r="AI8" s="57"/>
-      <c r="AJ8" s="57"/>
-      <c r="AK8" s="57"/>
-      <c r="AL8" s="57"/>
-      <c r="AM8" s="57"/>
-      <c r="AN8" s="57"/>
-      <c r="AO8" s="57"/>
-      <c r="AP8" s="57"/>
-      <c r="AQ8" s="57"/>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="57"/>
-      <c r="AT8" s="57"/>
-      <c r="AU8" s="57"/>
-      <c r="AV8" s="57"/>
-      <c r="AW8" s="57"/>
-      <c r="AX8" s="57"/>
-      <c r="AY8" s="57"/>
-      <c r="AZ8" s="57"/>
-      <c r="BA8" s="57"/>
-      <c r="BB8" s="57"/>
-      <c r="BC8" s="57"/>
-      <c r="BD8" s="57"/>
-      <c r="BE8" s="57"/>
-      <c r="BF8" s="57"/>
-      <c r="BG8" s="57"/>
-      <c r="BH8" s="57"/>
-      <c r="BI8" s="57"/>
-      <c r="BJ8" s="57"/>
-      <c r="BK8" s="57"/>
-      <c r="BL8" s="57"/>
-      <c r="BM8" s="57"/>
-      <c r="BN8" s="57"/>
-      <c r="BO8" s="57"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
+      <c r="AN8" s="56"/>
+      <c r="AO8" s="56"/>
+      <c r="AP8" s="56"/>
+      <c r="AQ8" s="56"/>
+      <c r="AR8" s="56"/>
+      <c r="AS8" s="56"/>
+      <c r="AT8" s="56"/>
+      <c r="AU8" s="56"/>
+      <c r="AV8" s="56"/>
+      <c r="AW8" s="56"/>
+      <c r="AX8" s="56"/>
+      <c r="AY8" s="56"/>
+      <c r="AZ8" s="56"/>
+      <c r="BA8" s="56"/>
+      <c r="BB8" s="56"/>
+      <c r="BC8" s="56"/>
+      <c r="BD8" s="56"/>
+      <c r="BE8" s="56"/>
+      <c r="BF8" s="56"/>
+      <c r="BG8" s="56"/>
+      <c r="BH8" s="56"/>
+      <c r="BI8" s="56"/>
+      <c r="BJ8" s="56"/>
+      <c r="BK8" s="56"/>
+      <c r="BL8" s="56"/>
+      <c r="BM8" s="56"/>
+      <c r="BN8" s="56"/>
+      <c r="BO8" s="56"/>
       <c r="BP8"/>
       <c r="BQ8" s="4"/>
     </row>
@@ -1933,787 +1933,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="50" t="s">
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="49" t="s">
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="49"/>
-      <c r="AH11" s="49"/>
-      <c r="AI11" s="53" t="s">
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="57"/>
+      <c r="AI11" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AJ11" s="53"/>
-      <c r="AK11" s="53"/>
-      <c r="AL11" s="53"/>
-      <c r="AM11" s="53"/>
-      <c r="AN11" s="53"/>
-      <c r="AO11" s="53"/>
-      <c r="AP11" s="53"/>
-      <c r="AQ11" s="53"/>
-      <c r="AR11" s="53"/>
-      <c r="AS11" s="53"/>
-      <c r="AT11" s="53"/>
-      <c r="AU11" s="53"/>
-      <c r="AV11" s="53"/>
-      <c r="AW11" s="53"/>
-      <c r="AX11" s="53"/>
-      <c r="AY11" s="53"/>
-      <c r="AZ11" s="53"/>
-      <c r="BA11" s="53"/>
-      <c r="BB11" s="53"/>
-      <c r="BC11" s="53"/>
-      <c r="BD11" s="53"/>
-      <c r="BE11" s="53"/>
-      <c r="BF11" s="53"/>
-      <c r="BG11" s="53"/>
-      <c r="BH11" s="53"/>
-      <c r="BI11" s="53"/>
-      <c r="BJ11" s="53"/>
-      <c r="BK11" s="53"/>
-      <c r="BL11" s="53"/>
-      <c r="BM11" s="53"/>
-      <c r="BN11" s="53"/>
-      <c r="BO11" s="53"/>
+      <c r="AJ11" s="58"/>
+      <c r="AK11" s="58"/>
+      <c r="AL11" s="58"/>
+      <c r="AM11" s="58"/>
+      <c r="AN11" s="58"/>
+      <c r="AO11" s="58"/>
+      <c r="AP11" s="58"/>
+      <c r="AQ11" s="58"/>
+      <c r="AR11" s="58"/>
+      <c r="AS11" s="58"/>
+      <c r="AT11" s="58"/>
+      <c r="AU11" s="58"/>
+      <c r="AV11" s="58"/>
+      <c r="AW11" s="58"/>
+      <c r="AX11" s="58"/>
+      <c r="AY11" s="58"/>
+      <c r="AZ11" s="58"/>
+      <c r="BA11" s="58"/>
+      <c r="BB11" s="58"/>
+      <c r="BC11" s="58"/>
+      <c r="BD11" s="58"/>
+      <c r="BE11" s="58"/>
+      <c r="BF11" s="58"/>
+      <c r="BG11" s="58"/>
+      <c r="BH11" s="58"/>
+      <c r="BI11" s="58"/>
+      <c r="BJ11" s="58"/>
+      <c r="BK11" s="58"/>
+      <c r="BL11" s="58"/>
+      <c r="BM11" s="58"/>
+      <c r="BN11" s="58"/>
+      <c r="BO11" s="58"/>
       <c r="BP11"/>
       <c r="BQ11" s="4"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="51"/>
-      <c r="AF12" s="51"/>
-      <c r="AG12" s="51"/>
-      <c r="AH12" s="51"/>
-      <c r="AI12" s="51"/>
-      <c r="AJ12" s="51"/>
-      <c r="AK12" s="51"/>
-      <c r="AL12" s="51"/>
-      <c r="AM12" s="51"/>
-      <c r="AN12" s="51"/>
-      <c r="AO12" s="51"/>
-      <c r="AP12" s="51"/>
-      <c r="AQ12" s="51"/>
-      <c r="AR12" s="51"/>
-      <c r="AS12" s="51"/>
-      <c r="AT12" s="51"/>
-      <c r="AU12" s="51"/>
-      <c r="AV12" s="51"/>
-      <c r="AW12" s="51"/>
-      <c r="AX12" s="51"/>
-      <c r="AY12" s="51"/>
-      <c r="AZ12" s="51"/>
-      <c r="BA12" s="51"/>
-      <c r="BB12" s="51"/>
-      <c r="BC12" s="51"/>
-      <c r="BD12" s="51"/>
-      <c r="BE12" s="51"/>
-      <c r="BF12" s="51"/>
-      <c r="BG12" s="51"/>
-      <c r="BH12" s="51"/>
-      <c r="BI12" s="51"/>
-      <c r="BJ12" s="51"/>
-      <c r="BK12" s="51"/>
-      <c r="BL12" s="51"/>
-      <c r="BM12" s="51"/>
-      <c r="BN12" s="51"/>
-      <c r="BO12" s="51"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="59"/>
+      <c r="AJ12" s="59"/>
+      <c r="AK12" s="59"/>
+      <c r="AL12" s="59"/>
+      <c r="AM12" s="59"/>
+      <c r="AN12" s="59"/>
+      <c r="AO12" s="59"/>
+      <c r="AP12" s="59"/>
+      <c r="AQ12" s="59"/>
+      <c r="AR12" s="59"/>
+      <c r="AS12" s="59"/>
+      <c r="AT12" s="59"/>
+      <c r="AU12" s="59"/>
+      <c r="AV12" s="59"/>
+      <c r="AW12" s="59"/>
+      <c r="AX12" s="59"/>
+      <c r="AY12" s="59"/>
+      <c r="AZ12" s="59"/>
+      <c r="BA12" s="59"/>
+      <c r="BB12" s="59"/>
+      <c r="BC12" s="59"/>
+      <c r="BD12" s="59"/>
+      <c r="BE12" s="59"/>
+      <c r="BF12" s="59"/>
+      <c r="BG12" s="59"/>
+      <c r="BH12" s="59"/>
+      <c r="BI12" s="59"/>
+      <c r="BJ12" s="59"/>
+      <c r="BK12" s="59"/>
+      <c r="BL12" s="59"/>
+      <c r="BM12" s="59"/>
+      <c r="BN12" s="59"/>
+      <c r="BO12" s="59"/>
       <c r="BP12"/>
       <c r="BQ12" s="4"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="51"/>
-      <c r="AF13" s="51"/>
-      <c r="AG13" s="51"/>
-      <c r="AH13" s="51"/>
-      <c r="AI13" s="51"/>
-      <c r="AJ13" s="51"/>
-      <c r="AK13" s="51"/>
-      <c r="AL13" s="51"/>
-      <c r="AM13" s="51"/>
-      <c r="AN13" s="51"/>
-      <c r="AO13" s="51"/>
-      <c r="AP13" s="51"/>
-      <c r="AQ13" s="51"/>
-      <c r="AR13" s="51"/>
-      <c r="AS13" s="51"/>
-      <c r="AT13" s="51"/>
-      <c r="AU13" s="51"/>
-      <c r="AV13" s="51"/>
-      <c r="AW13" s="51"/>
-      <c r="AX13" s="51"/>
-      <c r="AY13" s="51"/>
-      <c r="AZ13" s="51"/>
-      <c r="BA13" s="51"/>
-      <c r="BB13" s="51"/>
-      <c r="BC13" s="51"/>
-      <c r="BD13" s="51"/>
-      <c r="BE13" s="51"/>
-      <c r="BF13" s="51"/>
-      <c r="BG13" s="51"/>
-      <c r="BH13" s="51"/>
-      <c r="BI13" s="51"/>
-      <c r="BJ13" s="51"/>
-      <c r="BK13" s="51"/>
-      <c r="BL13" s="51"/>
-      <c r="BM13" s="51"/>
-      <c r="BN13" s="51"/>
-      <c r="BO13" s="51"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="59"/>
+      <c r="AJ13" s="59"/>
+      <c r="AK13" s="59"/>
+      <c r="AL13" s="59"/>
+      <c r="AM13" s="59"/>
+      <c r="AN13" s="59"/>
+      <c r="AO13" s="59"/>
+      <c r="AP13" s="59"/>
+      <c r="AQ13" s="59"/>
+      <c r="AR13" s="59"/>
+      <c r="AS13" s="59"/>
+      <c r="AT13" s="59"/>
+      <c r="AU13" s="59"/>
+      <c r="AV13" s="59"/>
+      <c r="AW13" s="59"/>
+      <c r="AX13" s="59"/>
+      <c r="AY13" s="59"/>
+      <c r="AZ13" s="59"/>
+      <c r="BA13" s="59"/>
+      <c r="BB13" s="59"/>
+      <c r="BC13" s="59"/>
+      <c r="BD13" s="59"/>
+      <c r="BE13" s="59"/>
+      <c r="BF13" s="59"/>
+      <c r="BG13" s="59"/>
+      <c r="BH13" s="59"/>
+      <c r="BI13" s="59"/>
+      <c r="BJ13" s="59"/>
+      <c r="BK13" s="59"/>
+      <c r="BL13" s="59"/>
+      <c r="BM13" s="59"/>
+      <c r="BN13" s="59"/>
+      <c r="BO13" s="59"/>
       <c r="BP13"/>
       <c r="BQ13" s="4"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="55" t="s">
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="55"/>
-      <c r="AD14" s="55"/>
-      <c r="AE14" s="55"/>
-      <c r="AF14" s="55"/>
-      <c r="AG14" s="55"/>
-      <c r="AH14" s="55"/>
-      <c r="AI14" s="55"/>
-      <c r="AJ14" s="55"/>
-      <c r="AK14" s="55"/>
-      <c r="AL14" s="55"/>
-      <c r="AM14" s="55"/>
-      <c r="AN14" s="55"/>
-      <c r="AO14" s="55"/>
-      <c r="AP14" s="55"/>
-      <c r="AQ14" s="55"/>
-      <c r="AR14" s="55"/>
-      <c r="AS14" s="55"/>
-      <c r="AT14" s="55"/>
-      <c r="AU14" s="55"/>
-      <c r="AV14" s="55"/>
-      <c r="AW14" s="55"/>
-      <c r="AX14" s="55"/>
-      <c r="AY14" s="55"/>
-      <c r="AZ14" s="55"/>
-      <c r="BA14" s="55"/>
-      <c r="BB14" s="55"/>
-      <c r="BC14" s="55"/>
-      <c r="BD14" s="55"/>
-      <c r="BE14" s="55"/>
-      <c r="BF14" s="55"/>
-      <c r="BG14" s="55"/>
-      <c r="BH14" s="55"/>
-      <c r="BI14" s="55"/>
-      <c r="BJ14" s="55"/>
-      <c r="BK14" s="55"/>
-      <c r="BL14" s="55"/>
-      <c r="BM14" s="55"/>
-      <c r="BN14" s="55"/>
-      <c r="BO14" s="55"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="64"/>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="64"/>
+      <c r="AF14" s="64"/>
+      <c r="AG14" s="64"/>
+      <c r="AH14" s="64"/>
+      <c r="AI14" s="64"/>
+      <c r="AJ14" s="64"/>
+      <c r="AK14" s="64"/>
+      <c r="AL14" s="64"/>
+      <c r="AM14" s="64"/>
+      <c r="AN14" s="64"/>
+      <c r="AO14" s="64"/>
+      <c r="AP14" s="64"/>
+      <c r="AQ14" s="64"/>
+      <c r="AR14" s="64"/>
+      <c r="AS14" s="64"/>
+      <c r="AT14" s="64"/>
+      <c r="AU14" s="64"/>
+      <c r="AV14" s="64"/>
+      <c r="AW14" s="64"/>
+      <c r="AX14" s="64"/>
+      <c r="AY14" s="64"/>
+      <c r="AZ14" s="64"/>
+      <c r="BA14" s="64"/>
+      <c r="BB14" s="64"/>
+      <c r="BC14" s="64"/>
+      <c r="BD14" s="64"/>
+      <c r="BE14" s="64"/>
+      <c r="BF14" s="64"/>
+      <c r="BG14" s="64"/>
+      <c r="BH14" s="64"/>
+      <c r="BI14" s="64"/>
+      <c r="BJ14" s="64"/>
+      <c r="BK14" s="64"/>
+      <c r="BL14" s="64"/>
+      <c r="BM14" s="64"/>
+      <c r="BN14" s="64"/>
+      <c r="BO14" s="64"/>
       <c r="BP14"/>
       <c r="BQ14" s="4"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56"/>
-      <c r="AB15" s="56"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="56"/>
-      <c r="AF15" s="56"/>
-      <c r="AG15" s="56"/>
-      <c r="AH15" s="56"/>
-      <c r="AI15" s="56"/>
-      <c r="AJ15" s="56"/>
-      <c r="AK15" s="56"/>
-      <c r="AL15" s="56"/>
-      <c r="AM15" s="56"/>
-      <c r="AN15" s="56"/>
-      <c r="AO15" s="56"/>
-      <c r="AP15" s="56"/>
-      <c r="AQ15" s="56"/>
-      <c r="AR15" s="56"/>
-      <c r="AS15" s="56"/>
-      <c r="AT15" s="56"/>
-      <c r="AU15" s="56"/>
-      <c r="AV15" s="56"/>
-      <c r="AW15" s="56"/>
-      <c r="AX15" s="56"/>
-      <c r="AY15" s="56"/>
-      <c r="AZ15" s="56"/>
-      <c r="BA15" s="56"/>
-      <c r="BB15" s="56"/>
-      <c r="BC15" s="56"/>
-      <c r="BD15" s="56"/>
-      <c r="BE15" s="56"/>
-      <c r="BF15" s="56"/>
-      <c r="BG15" s="56"/>
-      <c r="BH15" s="56"/>
-      <c r="BI15" s="56"/>
-      <c r="BJ15" s="56"/>
-      <c r="BK15" s="56"/>
-      <c r="BL15" s="56"/>
-      <c r="BM15" s="56"/>
-      <c r="BN15" s="56"/>
-      <c r="BO15" s="56"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="65"/>
+      <c r="AF15" s="65"/>
+      <c r="AG15" s="65"/>
+      <c r="AH15" s="65"/>
+      <c r="AI15" s="65"/>
+      <c r="AJ15" s="65"/>
+      <c r="AK15" s="65"/>
+      <c r="AL15" s="65"/>
+      <c r="AM15" s="65"/>
+      <c r="AN15" s="65"/>
+      <c r="AO15" s="65"/>
+      <c r="AP15" s="65"/>
+      <c r="AQ15" s="65"/>
+      <c r="AR15" s="65"/>
+      <c r="AS15" s="65"/>
+      <c r="AT15" s="65"/>
+      <c r="AU15" s="65"/>
+      <c r="AV15" s="65"/>
+      <c r="AW15" s="65"/>
+      <c r="AX15" s="65"/>
+      <c r="AY15" s="65"/>
+      <c r="AZ15" s="65"/>
+      <c r="BA15" s="65"/>
+      <c r="BB15" s="65"/>
+      <c r="BC15" s="65"/>
+      <c r="BD15" s="65"/>
+      <c r="BE15" s="65"/>
+      <c r="BF15" s="65"/>
+      <c r="BG15" s="65"/>
+      <c r="BH15" s="65"/>
+      <c r="BI15" s="65"/>
+      <c r="BJ15" s="65"/>
+      <c r="BK15" s="65"/>
+      <c r="BL15" s="65"/>
+      <c r="BM15" s="65"/>
+      <c r="BN15" s="65"/>
+      <c r="BO15" s="65"/>
       <c r="BP15"/>
       <c r="BQ15" s="4"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="56"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="56"/>
-      <c r="AJ16" s="56"/>
-      <c r="AK16" s="56"/>
-      <c r="AL16" s="56"/>
-      <c r="AM16" s="56"/>
-      <c r="AN16" s="56"/>
-      <c r="AO16" s="56"/>
-      <c r="AP16" s="56"/>
-      <c r="AQ16" s="56"/>
-      <c r="AR16" s="56"/>
-      <c r="AS16" s="56"/>
-      <c r="AT16" s="56"/>
-      <c r="AU16" s="56"/>
-      <c r="AV16" s="56"/>
-      <c r="AW16" s="56"/>
-      <c r="AX16" s="56"/>
-      <c r="AY16" s="56"/>
-      <c r="AZ16" s="56"/>
-      <c r="BA16" s="56"/>
-      <c r="BB16" s="56"/>
-      <c r="BC16" s="56"/>
-      <c r="BD16" s="56"/>
-      <c r="BE16" s="56"/>
-      <c r="BF16" s="56"/>
-      <c r="BG16" s="56"/>
-      <c r="BH16" s="56"/>
-      <c r="BI16" s="56"/>
-      <c r="BJ16" s="56"/>
-      <c r="BK16" s="56"/>
-      <c r="BL16" s="56"/>
-      <c r="BM16" s="56"/>
-      <c r="BN16" s="56"/>
-      <c r="BO16" s="56"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="65"/>
+      <c r="AE16" s="65"/>
+      <c r="AF16" s="65"/>
+      <c r="AG16" s="65"/>
+      <c r="AH16" s="65"/>
+      <c r="AI16" s="65"/>
+      <c r="AJ16" s="65"/>
+      <c r="AK16" s="65"/>
+      <c r="AL16" s="65"/>
+      <c r="AM16" s="65"/>
+      <c r="AN16" s="65"/>
+      <c r="AO16" s="65"/>
+      <c r="AP16" s="65"/>
+      <c r="AQ16" s="65"/>
+      <c r="AR16" s="65"/>
+      <c r="AS16" s="65"/>
+      <c r="AT16" s="65"/>
+      <c r="AU16" s="65"/>
+      <c r="AV16" s="65"/>
+      <c r="AW16" s="65"/>
+      <c r="AX16" s="65"/>
+      <c r="AY16" s="65"/>
+      <c r="AZ16" s="65"/>
+      <c r="BA16" s="65"/>
+      <c r="BB16" s="65"/>
+      <c r="BC16" s="65"/>
+      <c r="BD16" s="65"/>
+      <c r="BE16" s="65"/>
+      <c r="BF16" s="65"/>
+      <c r="BG16" s="65"/>
+      <c r="BH16" s="65"/>
+      <c r="BI16" s="65"/>
+      <c r="BJ16" s="65"/>
+      <c r="BK16" s="65"/>
+      <c r="BL16" s="65"/>
+      <c r="BM16" s="65"/>
+      <c r="BN16" s="65"/>
+      <c r="BO16" s="65"/>
       <c r="BP16"/>
       <c r="BQ16" s="4"/>
     </row>
     <row r="17" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="56"/>
-      <c r="AF17" s="56"/>
-      <c r="AG17" s="56"/>
-      <c r="AH17" s="56"/>
-      <c r="AI17" s="56"/>
-      <c r="AJ17" s="56"/>
-      <c r="AK17" s="56"/>
-      <c r="AL17" s="56"/>
-      <c r="AM17" s="56"/>
-      <c r="AN17" s="56"/>
-      <c r="AO17" s="56"/>
-      <c r="AP17" s="56"/>
-      <c r="AQ17" s="56"/>
-      <c r="AR17" s="56"/>
-      <c r="AS17" s="56"/>
-      <c r="AT17" s="56"/>
-      <c r="AU17" s="56"/>
-      <c r="AV17" s="56"/>
-      <c r="AW17" s="56"/>
-      <c r="AX17" s="56"/>
-      <c r="AY17" s="56"/>
-      <c r="AZ17" s="56"/>
-      <c r="BA17" s="56"/>
-      <c r="BB17" s="56"/>
-      <c r="BC17" s="56"/>
-      <c r="BD17" s="56"/>
-      <c r="BE17" s="56"/>
-      <c r="BF17" s="56"/>
-      <c r="BG17" s="56"/>
-      <c r="BH17" s="56"/>
-      <c r="BI17" s="56"/>
-      <c r="BJ17" s="56"/>
-      <c r="BK17" s="56"/>
-      <c r="BL17" s="56"/>
-      <c r="BM17" s="56"/>
-      <c r="BN17" s="56"/>
-      <c r="BO17" s="56"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="65"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="65"/>
+      <c r="AF17" s="65"/>
+      <c r="AG17" s="65"/>
+      <c r="AH17" s="65"/>
+      <c r="AI17" s="65"/>
+      <c r="AJ17" s="65"/>
+      <c r="AK17" s="65"/>
+      <c r="AL17" s="65"/>
+      <c r="AM17" s="65"/>
+      <c r="AN17" s="65"/>
+      <c r="AO17" s="65"/>
+      <c r="AP17" s="65"/>
+      <c r="AQ17" s="65"/>
+      <c r="AR17" s="65"/>
+      <c r="AS17" s="65"/>
+      <c r="AT17" s="65"/>
+      <c r="AU17" s="65"/>
+      <c r="AV17" s="65"/>
+      <c r="AW17" s="65"/>
+      <c r="AX17" s="65"/>
+      <c r="AY17" s="65"/>
+      <c r="AZ17" s="65"/>
+      <c r="BA17" s="65"/>
+      <c r="BB17" s="65"/>
+      <c r="BC17" s="65"/>
+      <c r="BD17" s="65"/>
+      <c r="BE17" s="65"/>
+      <c r="BF17" s="65"/>
+      <c r="BG17" s="65"/>
+      <c r="BH17" s="65"/>
+      <c r="BI17" s="65"/>
+      <c r="BJ17" s="65"/>
+      <c r="BK17" s="65"/>
+      <c r="BL17" s="65"/>
+      <c r="BM17" s="65"/>
+      <c r="BN17" s="65"/>
+      <c r="BO17" s="65"/>
       <c r="BP17"/>
       <c r="BQ17" s="4"/>
     </row>
     <row r="18" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="56"/>
-      <c r="AF18" s="56"/>
-      <c r="AG18" s="56"/>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="56"/>
-      <c r="AJ18" s="56"/>
-      <c r="AK18" s="56"/>
-      <c r="AL18" s="56"/>
-      <c r="AM18" s="56"/>
-      <c r="AN18" s="56"/>
-      <c r="AO18" s="56"/>
-      <c r="AP18" s="56"/>
-      <c r="AQ18" s="56"/>
-      <c r="AR18" s="56"/>
-      <c r="AS18" s="56"/>
-      <c r="AT18" s="56"/>
-      <c r="AU18" s="56"/>
-      <c r="AV18" s="56"/>
-      <c r="AW18" s="56"/>
-      <c r="AX18" s="56"/>
-      <c r="AY18" s="56"/>
-      <c r="AZ18" s="56"/>
-      <c r="BA18" s="56"/>
-      <c r="BB18" s="56"/>
-      <c r="BC18" s="56"/>
-      <c r="BD18" s="56"/>
-      <c r="BE18" s="56"/>
-      <c r="BF18" s="56"/>
-      <c r="BG18" s="56"/>
-      <c r="BH18" s="56"/>
-      <c r="BI18" s="56"/>
-      <c r="BJ18" s="56"/>
-      <c r="BK18" s="56"/>
-      <c r="BL18" s="56"/>
-      <c r="BM18" s="56"/>
-      <c r="BN18" s="56"/>
-      <c r="BO18" s="56"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="65"/>
+      <c r="AE18" s="65"/>
+      <c r="AF18" s="65"/>
+      <c r="AG18" s="65"/>
+      <c r="AH18" s="65"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="65"/>
+      <c r="AK18" s="65"/>
+      <c r="AL18" s="65"/>
+      <c r="AM18" s="65"/>
+      <c r="AN18" s="65"/>
+      <c r="AO18" s="65"/>
+      <c r="AP18" s="65"/>
+      <c r="AQ18" s="65"/>
+      <c r="AR18" s="65"/>
+      <c r="AS18" s="65"/>
+      <c r="AT18" s="65"/>
+      <c r="AU18" s="65"/>
+      <c r="AV18" s="65"/>
+      <c r="AW18" s="65"/>
+      <c r="AX18" s="65"/>
+      <c r="AY18" s="65"/>
+      <c r="AZ18" s="65"/>
+      <c r="BA18" s="65"/>
+      <c r="BB18" s="65"/>
+      <c r="BC18" s="65"/>
+      <c r="BD18" s="65"/>
+      <c r="BE18" s="65"/>
+      <c r="BF18" s="65"/>
+      <c r="BG18" s="65"/>
+      <c r="BH18" s="65"/>
+      <c r="BI18" s="65"/>
+      <c r="BJ18" s="65"/>
+      <c r="BK18" s="65"/>
+      <c r="BL18" s="65"/>
+      <c r="BM18" s="65"/>
+      <c r="BN18" s="65"/>
+      <c r="BO18" s="65"/>
       <c r="BP18"/>
       <c r="BQ18" s="4"/>
     </row>
     <row r="19" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="56"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="56"/>
-      <c r="AJ19" s="56"/>
-      <c r="AK19" s="56"/>
-      <c r="AL19" s="56"/>
-      <c r="AM19" s="56"/>
-      <c r="AN19" s="56"/>
-      <c r="AO19" s="56"/>
-      <c r="AP19" s="56"/>
-      <c r="AQ19" s="56"/>
-      <c r="AR19" s="56"/>
-      <c r="AS19" s="56"/>
-      <c r="AT19" s="56"/>
-      <c r="AU19" s="56"/>
-      <c r="AV19" s="56"/>
-      <c r="AW19" s="56"/>
-      <c r="AX19" s="56"/>
-      <c r="AY19" s="56"/>
-      <c r="AZ19" s="56"/>
-      <c r="BA19" s="56"/>
-      <c r="BB19" s="56"/>
-      <c r="BC19" s="56"/>
-      <c r="BD19" s="56"/>
-      <c r="BE19" s="56"/>
-      <c r="BF19" s="56"/>
-      <c r="BG19" s="56"/>
-      <c r="BH19" s="56"/>
-      <c r="BI19" s="56"/>
-      <c r="BJ19" s="56"/>
-      <c r="BK19" s="56"/>
-      <c r="BL19" s="56"/>
-      <c r="BM19" s="56"/>
-      <c r="BN19" s="56"/>
-      <c r="BO19" s="56"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="65"/>
+      <c r="AE19" s="65"/>
+      <c r="AF19" s="65"/>
+      <c r="AG19" s="65"/>
+      <c r="AH19" s="65"/>
+      <c r="AI19" s="65"/>
+      <c r="AJ19" s="65"/>
+      <c r="AK19" s="65"/>
+      <c r="AL19" s="65"/>
+      <c r="AM19" s="65"/>
+      <c r="AN19" s="65"/>
+      <c r="AO19" s="65"/>
+      <c r="AP19" s="65"/>
+      <c r="AQ19" s="65"/>
+      <c r="AR19" s="65"/>
+      <c r="AS19" s="65"/>
+      <c r="AT19" s="65"/>
+      <c r="AU19" s="65"/>
+      <c r="AV19" s="65"/>
+      <c r="AW19" s="65"/>
+      <c r="AX19" s="65"/>
+      <c r="AY19" s="65"/>
+      <c r="AZ19" s="65"/>
+      <c r="BA19" s="65"/>
+      <c r="BB19" s="65"/>
+      <c r="BC19" s="65"/>
+      <c r="BD19" s="65"/>
+      <c r="BE19" s="65"/>
+      <c r="BF19" s="65"/>
+      <c r="BG19" s="65"/>
+      <c r="BH19" s="65"/>
+      <c r="BI19" s="65"/>
+      <c r="BJ19" s="65"/>
+      <c r="BK19" s="65"/>
+      <c r="BL19" s="65"/>
+      <c r="BM19" s="65"/>
+      <c r="BN19" s="65"/>
+      <c r="BO19" s="65"/>
       <c r="BP19"/>
       <c r="BQ19" s="4"/>
     </row>
     <row r="20" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="56"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="56"/>
-      <c r="AK20" s="56"/>
-      <c r="AL20" s="56"/>
-      <c r="AM20" s="56"/>
-      <c r="AN20" s="56"/>
-      <c r="AO20" s="56"/>
-      <c r="AP20" s="56"/>
-      <c r="AQ20" s="56"/>
-      <c r="AR20" s="56"/>
-      <c r="AS20" s="56"/>
-      <c r="AT20" s="56"/>
-      <c r="AU20" s="56"/>
-      <c r="AV20" s="56"/>
-      <c r="AW20" s="56"/>
-      <c r="AX20" s="56"/>
-      <c r="AY20" s="56"/>
-      <c r="AZ20" s="56"/>
-      <c r="BA20" s="56"/>
-      <c r="BB20" s="56"/>
-      <c r="BC20" s="56"/>
-      <c r="BD20" s="56"/>
-      <c r="BE20" s="56"/>
-      <c r="BF20" s="56"/>
-      <c r="BG20" s="56"/>
-      <c r="BH20" s="56"/>
-      <c r="BI20" s="56"/>
-      <c r="BJ20" s="56"/>
-      <c r="BK20" s="56"/>
-      <c r="BL20" s="56"/>
-      <c r="BM20" s="56"/>
-      <c r="BN20" s="56"/>
-      <c r="BO20" s="56"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="65"/>
+      <c r="AF20" s="65"/>
+      <c r="AG20" s="65"/>
+      <c r="AH20" s="65"/>
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="65"/>
+      <c r="AK20" s="65"/>
+      <c r="AL20" s="65"/>
+      <c r="AM20" s="65"/>
+      <c r="AN20" s="65"/>
+      <c r="AO20" s="65"/>
+      <c r="AP20" s="65"/>
+      <c r="AQ20" s="65"/>
+      <c r="AR20" s="65"/>
+      <c r="AS20" s="65"/>
+      <c r="AT20" s="65"/>
+      <c r="AU20" s="65"/>
+      <c r="AV20" s="65"/>
+      <c r="AW20" s="65"/>
+      <c r="AX20" s="65"/>
+      <c r="AY20" s="65"/>
+      <c r="AZ20" s="65"/>
+      <c r="BA20" s="65"/>
+      <c r="BB20" s="65"/>
+      <c r="BC20" s="65"/>
+      <c r="BD20" s="65"/>
+      <c r="BE20" s="65"/>
+      <c r="BF20" s="65"/>
+      <c r="BG20" s="65"/>
+      <c r="BH20" s="65"/>
+      <c r="BI20" s="65"/>
+      <c r="BJ20" s="65"/>
+      <c r="BK20" s="65"/>
+      <c r="BL20" s="65"/>
+      <c r="BM20" s="65"/>
+      <c r="BN20" s="65"/>
+      <c r="BO20" s="65"/>
       <c r="BP20"/>
       <c r="BQ20" s="4"/>
     </row>
     <row r="21" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="54"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="54"/>
-      <c r="AJ21" s="54"/>
-      <c r="AK21" s="54"/>
-      <c r="AL21" s="54"/>
-      <c r="AM21" s="54"/>
-      <c r="AN21" s="54"/>
-      <c r="AO21" s="54"/>
-      <c r="AP21" s="54"/>
-      <c r="AQ21" s="54"/>
-      <c r="AR21" s="54"/>
-      <c r="AS21" s="54"/>
-      <c r="AT21" s="54"/>
-      <c r="AU21" s="54"/>
-      <c r="AV21" s="54"/>
-      <c r="AW21" s="54"/>
-      <c r="AX21" s="54"/>
-      <c r="AY21" s="54"/>
-      <c r="AZ21" s="54"/>
-      <c r="BA21" s="54"/>
-      <c r="BB21" s="54"/>
-      <c r="BC21" s="54"/>
-      <c r="BD21" s="54"/>
-      <c r="BE21" s="54"/>
-      <c r="BF21" s="54"/>
-      <c r="BG21" s="54"/>
-      <c r="BH21" s="54"/>
-      <c r="BI21" s="54"/>
-      <c r="BJ21" s="54"/>
-      <c r="BK21" s="54"/>
-      <c r="BL21" s="54"/>
-      <c r="BM21" s="54"/>
-      <c r="BN21" s="54"/>
-      <c r="BO21" s="54"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="66"/>
+      <c r="AL21" s="66"/>
+      <c r="AM21" s="66"/>
+      <c r="AN21" s="66"/>
+      <c r="AO21" s="66"/>
+      <c r="AP21" s="66"/>
+      <c r="AQ21" s="66"/>
+      <c r="AR21" s="66"/>
+      <c r="AS21" s="66"/>
+      <c r="AT21" s="66"/>
+      <c r="AU21" s="66"/>
+      <c r="AV21" s="66"/>
+      <c r="AW21" s="66"/>
+      <c r="AX21" s="66"/>
+      <c r="AY21" s="66"/>
+      <c r="AZ21" s="66"/>
+      <c r="BA21" s="66"/>
+      <c r="BB21" s="66"/>
+      <c r="BC21" s="66"/>
+      <c r="BD21" s="66"/>
+      <c r="BE21" s="66"/>
+      <c r="BF21" s="66"/>
+      <c r="BG21" s="66"/>
+      <c r="BH21" s="66"/>
+      <c r="BI21" s="66"/>
+      <c r="BJ21" s="66"/>
+      <c r="BK21" s="66"/>
+      <c r="BL21" s="66"/>
+      <c r="BM21" s="66"/>
+      <c r="BN21" s="66"/>
+      <c r="BO21" s="66"/>
       <c r="BP21"/>
       <c r="BQ21" s="4"/>
     </row>
@@ -2743,85 +2743,85 @@
     </row>
     <row r="25" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50" t="s">
+      <c r="D25" s="54"/>
+      <c r="E25" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50" t="s">
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="51" t="s">
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="51"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="49" t="s">
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="49"/>
-      <c r="AG25" s="49"/>
-      <c r="AH25" s="49"/>
-      <c r="AI25" s="49"/>
-      <c r="AJ25" s="49"/>
-      <c r="AK25" s="49"/>
-      <c r="AL25" s="49"/>
-      <c r="AM25" s="49"/>
-      <c r="AN25" s="49"/>
-      <c r="AO25" s="49"/>
-      <c r="AP25" s="49"/>
-      <c r="AQ25" s="49"/>
-      <c r="AR25" s="49"/>
-      <c r="AS25" s="49"/>
-      <c r="AT25" s="49"/>
-      <c r="AU25" s="49"/>
-      <c r="AV25" s="49"/>
-      <c r="AW25" s="49"/>
-      <c r="AX25" s="49"/>
-      <c r="AY25" s="49"/>
-      <c r="AZ25" s="49"/>
-      <c r="BA25" s="49"/>
-      <c r="BB25" s="49"/>
-      <c r="BC25" s="49"/>
-      <c r="BD25" s="49" t="s">
+      <c r="AF25" s="57"/>
+      <c r="AG25" s="57"/>
+      <c r="AH25" s="57"/>
+      <c r="AI25" s="57"/>
+      <c r="AJ25" s="57"/>
+      <c r="AK25" s="57"/>
+      <c r="AL25" s="57"/>
+      <c r="AM25" s="57"/>
+      <c r="AN25" s="57"/>
+      <c r="AO25" s="57"/>
+      <c r="AP25" s="57"/>
+      <c r="AQ25" s="57"/>
+      <c r="AR25" s="57"/>
+      <c r="AS25" s="57"/>
+      <c r="AT25" s="57"/>
+      <c r="AU25" s="57"/>
+      <c r="AV25" s="57"/>
+      <c r="AW25" s="57"/>
+      <c r="AX25" s="57"/>
+      <c r="AY25" s="57"/>
+      <c r="AZ25" s="57"/>
+      <c r="BA25" s="57"/>
+      <c r="BB25" s="57"/>
+      <c r="BC25" s="57"/>
+      <c r="BD25" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="BE25" s="49"/>
-      <c r="BF25" s="49"/>
-      <c r="BG25" s="49"/>
-      <c r="BH25" s="49"/>
-      <c r="BI25" s="49"/>
-      <c r="BJ25" s="49"/>
-      <c r="BK25" s="49" t="s">
+      <c r="BE25" s="57"/>
+      <c r="BF25" s="57"/>
+      <c r="BG25" s="57"/>
+      <c r="BH25" s="57"/>
+      <c r="BI25" s="57"/>
+      <c r="BJ25" s="57"/>
+      <c r="BK25" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="BL25" s="49"/>
-      <c r="BM25" s="49"/>
-      <c r="BN25" s="49"/>
-      <c r="BO25" s="49"/>
+      <c r="BL25" s="57"/>
+      <c r="BM25" s="57"/>
+      <c r="BN25" s="57"/>
+      <c r="BO25" s="57"/>
       <c r="BP25"/>
       <c r="BQ25" s="4"/>
       <c r="AMM25"/>
@@ -2838,81 +2838,81 @@
     </row>
     <row r="26" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="C26" s="50">
+      <c r="C26" s="54">
         <v>1</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="49" t="s">
+      <c r="D26" s="54"/>
+      <c r="E26" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="51" t="s">
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="51"/>
-      <c r="AC26" s="51"/>
-      <c r="AD26" s="51"/>
-      <c r="AE26" s="49" t="s">
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="59"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="AF26" s="49"/>
-      <c r="AG26" s="49"/>
-      <c r="AH26" s="49"/>
-      <c r="AI26" s="49"/>
-      <c r="AJ26" s="49"/>
-      <c r="AK26" s="49"/>
-      <c r="AL26" s="49"/>
-      <c r="AM26" s="49"/>
-      <c r="AN26" s="49"/>
-      <c r="AO26" s="49"/>
-      <c r="AP26" s="49"/>
-      <c r="AQ26" s="49"/>
-      <c r="AR26" s="49"/>
-      <c r="AS26" s="49"/>
-      <c r="AT26" s="49"/>
-      <c r="AU26" s="49"/>
-      <c r="AV26" s="49"/>
-      <c r="AW26" s="49"/>
-      <c r="AX26" s="49"/>
-      <c r="AY26" s="49"/>
-      <c r="AZ26" s="49"/>
-      <c r="BA26" s="49"/>
-      <c r="BB26" s="49"/>
-      <c r="BC26" s="49"/>
-      <c r="BD26" s="49" t="s">
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
+      <c r="AJ26" s="57"/>
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="57"/>
+      <c r="AM26" s="57"/>
+      <c r="AN26" s="57"/>
+      <c r="AO26" s="57"/>
+      <c r="AP26" s="57"/>
+      <c r="AQ26" s="57"/>
+      <c r="AR26" s="57"/>
+      <c r="AS26" s="57"/>
+      <c r="AT26" s="57"/>
+      <c r="AU26" s="57"/>
+      <c r="AV26" s="57"/>
+      <c r="AW26" s="57"/>
+      <c r="AX26" s="57"/>
+      <c r="AY26" s="57"/>
+      <c r="AZ26" s="57"/>
+      <c r="BA26" s="57"/>
+      <c r="BB26" s="57"/>
+      <c r="BC26" s="57"/>
+      <c r="BD26" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="BE26" s="49"/>
-      <c r="BF26" s="49"/>
-      <c r="BG26" s="49"/>
-      <c r="BH26" s="49"/>
-      <c r="BI26" s="49"/>
-      <c r="BJ26" s="49"/>
-      <c r="BK26" s="49"/>
-      <c r="BL26" s="49"/>
-      <c r="BM26" s="49"/>
-      <c r="BN26" s="49"/>
-      <c r="BO26" s="49"/>
+      <c r="BE26" s="57"/>
+      <c r="BF26" s="57"/>
+      <c r="BG26" s="57"/>
+      <c r="BH26" s="57"/>
+      <c r="BI26" s="57"/>
+      <c r="BJ26" s="57"/>
+      <c r="BK26" s="57"/>
+      <c r="BL26" s="57"/>
+      <c r="BM26" s="57"/>
+      <c r="BN26" s="57"/>
+      <c r="BO26" s="57"/>
       <c r="BQ26" s="4"/>
       <c r="AMM26"/>
       <c r="AMN26"/>
@@ -2928,73 +2928,73 @@
     </row>
     <row r="27" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="C27" s="50">
+      <c r="C27" s="54">
         <v>2</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="53"/>
-      <c r="AC27" s="53"/>
-      <c r="AD27" s="53"/>
-      <c r="AE27" s="49"/>
-      <c r="AF27" s="49"/>
-      <c r="AG27" s="49"/>
-      <c r="AH27" s="49"/>
-      <c r="AI27" s="49"/>
-      <c r="AJ27" s="49"/>
-      <c r="AK27" s="49"/>
-      <c r="AL27" s="49"/>
-      <c r="AM27" s="49"/>
-      <c r="AN27" s="49"/>
-      <c r="AO27" s="49"/>
-      <c r="AP27" s="49"/>
-      <c r="AQ27" s="49"/>
-      <c r="AR27" s="49"/>
-      <c r="AS27" s="49"/>
-      <c r="AT27" s="49"/>
-      <c r="AU27" s="49"/>
-      <c r="AV27" s="49"/>
-      <c r="AW27" s="49"/>
-      <c r="AX27" s="49"/>
-      <c r="AY27" s="49"/>
-      <c r="AZ27" s="49"/>
-      <c r="BA27" s="49"/>
-      <c r="BB27" s="49"/>
-      <c r="BC27" s="49"/>
-      <c r="BD27" s="49"/>
-      <c r="BE27" s="49"/>
-      <c r="BF27" s="49"/>
-      <c r="BG27" s="49"/>
-      <c r="BH27" s="49"/>
-      <c r="BI27" s="49"/>
-      <c r="BJ27" s="49"/>
-      <c r="BK27" s="49"/>
-      <c r="BL27" s="49"/>
-      <c r="BM27" s="49"/>
-      <c r="BN27" s="49"/>
-      <c r="BO27" s="49"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="57"/>
+      <c r="AG27" s="57"/>
+      <c r="AH27" s="57"/>
+      <c r="AI27" s="57"/>
+      <c r="AJ27" s="57"/>
+      <c r="AK27" s="57"/>
+      <c r="AL27" s="57"/>
+      <c r="AM27" s="57"/>
+      <c r="AN27" s="57"/>
+      <c r="AO27" s="57"/>
+      <c r="AP27" s="57"/>
+      <c r="AQ27" s="57"/>
+      <c r="AR27" s="57"/>
+      <c r="AS27" s="57"/>
+      <c r="AT27" s="57"/>
+      <c r="AU27" s="57"/>
+      <c r="AV27" s="57"/>
+      <c r="AW27" s="57"/>
+      <c r="AX27" s="57"/>
+      <c r="AY27" s="57"/>
+      <c r="AZ27" s="57"/>
+      <c r="BA27" s="57"/>
+      <c r="BB27" s="57"/>
+      <c r="BC27" s="57"/>
+      <c r="BD27" s="57"/>
+      <c r="BE27" s="57"/>
+      <c r="BF27" s="57"/>
+      <c r="BG27" s="57"/>
+      <c r="BH27" s="57"/>
+      <c r="BI27" s="57"/>
+      <c r="BJ27" s="57"/>
+      <c r="BK27" s="57"/>
+      <c r="BL27" s="57"/>
+      <c r="BM27" s="57"/>
+      <c r="BN27" s="57"/>
+      <c r="BO27" s="57"/>
       <c r="BQ27" s="4"/>
       <c r="AMM27"/>
       <c r="AMN27"/>
@@ -3010,73 +3010,73 @@
     </row>
     <row r="28" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="C28" s="50">
+      <c r="C28" s="54">
         <v>3</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="51"/>
-      <c r="AC28" s="51"/>
-      <c r="AD28" s="51"/>
-      <c r="AE28" s="49"/>
-      <c r="AF28" s="49"/>
-      <c r="AG28" s="49"/>
-      <c r="AH28" s="49"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="49"/>
-      <c r="AK28" s="49"/>
-      <c r="AL28" s="49"/>
-      <c r="AM28" s="49"/>
-      <c r="AN28" s="49"/>
-      <c r="AO28" s="49"/>
-      <c r="AP28" s="49"/>
-      <c r="AQ28" s="49"/>
-      <c r="AR28" s="49"/>
-      <c r="AS28" s="49"/>
-      <c r="AT28" s="49"/>
-      <c r="AU28" s="49"/>
-      <c r="AV28" s="49"/>
-      <c r="AW28" s="49"/>
-      <c r="AX28" s="49"/>
-      <c r="AY28" s="49"/>
-      <c r="AZ28" s="49"/>
-      <c r="BA28" s="49"/>
-      <c r="BB28" s="49"/>
-      <c r="BC28" s="49"/>
-      <c r="BD28" s="49"/>
-      <c r="BE28" s="49"/>
-      <c r="BF28" s="49"/>
-      <c r="BG28" s="49"/>
-      <c r="BH28" s="49"/>
-      <c r="BI28" s="49"/>
-      <c r="BJ28" s="49"/>
-      <c r="BK28" s="49"/>
-      <c r="BL28" s="49"/>
-      <c r="BM28" s="49"/>
-      <c r="BN28" s="49"/>
-      <c r="BO28" s="49"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="59"/>
+      <c r="Z28" s="59"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="57"/>
+      <c r="AJ28" s="57"/>
+      <c r="AK28" s="57"/>
+      <c r="AL28" s="57"/>
+      <c r="AM28" s="57"/>
+      <c r="AN28" s="57"/>
+      <c r="AO28" s="57"/>
+      <c r="AP28" s="57"/>
+      <c r="AQ28" s="57"/>
+      <c r="AR28" s="57"/>
+      <c r="AS28" s="57"/>
+      <c r="AT28" s="57"/>
+      <c r="AU28" s="57"/>
+      <c r="AV28" s="57"/>
+      <c r="AW28" s="57"/>
+      <c r="AX28" s="57"/>
+      <c r="AY28" s="57"/>
+      <c r="AZ28" s="57"/>
+      <c r="BA28" s="57"/>
+      <c r="BB28" s="57"/>
+      <c r="BC28" s="57"/>
+      <c r="BD28" s="57"/>
+      <c r="BE28" s="57"/>
+      <c r="BF28" s="57"/>
+      <c r="BG28" s="57"/>
+      <c r="BH28" s="57"/>
+      <c r="BI28" s="57"/>
+      <c r="BJ28" s="57"/>
+      <c r="BK28" s="57"/>
+      <c r="BL28" s="57"/>
+      <c r="BM28" s="57"/>
+      <c r="BN28" s="57"/>
+      <c r="BO28" s="57"/>
       <c r="BP28"/>
       <c r="BQ28" s="4"/>
       <c r="AMM28"/>
@@ -3093,73 +3093,73 @@
     </row>
     <row r="29" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="C29" s="50">
+      <c r="C29" s="54">
         <v>4</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="49"/>
-      <c r="AF29" s="49"/>
-      <c r="AG29" s="49"/>
-      <c r="AH29" s="49"/>
-      <c r="AI29" s="49"/>
-      <c r="AJ29" s="49"/>
-      <c r="AK29" s="49"/>
-      <c r="AL29" s="49"/>
-      <c r="AM29" s="49"/>
-      <c r="AN29" s="49"/>
-      <c r="AO29" s="49"/>
-      <c r="AP29" s="49"/>
-      <c r="AQ29" s="49"/>
-      <c r="AR29" s="49"/>
-      <c r="AS29" s="49"/>
-      <c r="AT29" s="49"/>
-      <c r="AU29" s="49"/>
-      <c r="AV29" s="49"/>
-      <c r="AW29" s="49"/>
-      <c r="AX29" s="49"/>
-      <c r="AY29" s="49"/>
-      <c r="AZ29" s="49"/>
-      <c r="BA29" s="49"/>
-      <c r="BB29" s="49"/>
-      <c r="BC29" s="49"/>
-      <c r="BD29" s="49"/>
-      <c r="BE29" s="49"/>
-      <c r="BF29" s="49"/>
-      <c r="BG29" s="49"/>
-      <c r="BH29" s="49"/>
-      <c r="BI29" s="49"/>
-      <c r="BJ29" s="49"/>
-      <c r="BK29" s="49"/>
-      <c r="BL29" s="49"/>
-      <c r="BM29" s="49"/>
-      <c r="BN29" s="49"/>
-      <c r="BO29" s="49"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="59"/>
+      <c r="AA29" s="59"/>
+      <c r="AB29" s="59"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="59"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="57"/>
+      <c r="AG29" s="57"/>
+      <c r="AH29" s="57"/>
+      <c r="AI29" s="57"/>
+      <c r="AJ29" s="57"/>
+      <c r="AK29" s="57"/>
+      <c r="AL29" s="57"/>
+      <c r="AM29" s="57"/>
+      <c r="AN29" s="57"/>
+      <c r="AO29" s="57"/>
+      <c r="AP29" s="57"/>
+      <c r="AQ29" s="57"/>
+      <c r="AR29" s="57"/>
+      <c r="AS29" s="57"/>
+      <c r="AT29" s="57"/>
+      <c r="AU29" s="57"/>
+      <c r="AV29" s="57"/>
+      <c r="AW29" s="57"/>
+      <c r="AX29" s="57"/>
+      <c r="AY29" s="57"/>
+      <c r="AZ29" s="57"/>
+      <c r="BA29" s="57"/>
+      <c r="BB29" s="57"/>
+      <c r="BC29" s="57"/>
+      <c r="BD29" s="57"/>
+      <c r="BE29" s="57"/>
+      <c r="BF29" s="57"/>
+      <c r="BG29" s="57"/>
+      <c r="BH29" s="57"/>
+      <c r="BI29" s="57"/>
+      <c r="BJ29" s="57"/>
+      <c r="BK29" s="57"/>
+      <c r="BL29" s="57"/>
+      <c r="BM29" s="57"/>
+      <c r="BN29" s="57"/>
+      <c r="BO29" s="57"/>
       <c r="BP29"/>
       <c r="BQ29" s="4"/>
       <c r="AMM29"/>
@@ -3176,73 +3176,73 @@
     </row>
     <row r="30" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="C30" s="50">
+      <c r="C30" s="54">
         <v>5</v>
       </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AB30" s="51"/>
-      <c r="AC30" s="51"/>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="49"/>
-      <c r="AF30" s="49"/>
-      <c r="AG30" s="49"/>
-      <c r="AH30" s="49"/>
-      <c r="AI30" s="49"/>
-      <c r="AJ30" s="49"/>
-      <c r="AK30" s="49"/>
-      <c r="AL30" s="49"/>
-      <c r="AM30" s="49"/>
-      <c r="AN30" s="49"/>
-      <c r="AO30" s="49"/>
-      <c r="AP30" s="49"/>
-      <c r="AQ30" s="49"/>
-      <c r="AR30" s="49"/>
-      <c r="AS30" s="49"/>
-      <c r="AT30" s="49"/>
-      <c r="AU30" s="49"/>
-      <c r="AV30" s="49"/>
-      <c r="AW30" s="49"/>
-      <c r="AX30" s="49"/>
-      <c r="AY30" s="49"/>
-      <c r="AZ30" s="49"/>
-      <c r="BA30" s="49"/>
-      <c r="BB30" s="49"/>
-      <c r="BC30" s="49"/>
-      <c r="BD30" s="49"/>
-      <c r="BE30" s="49"/>
-      <c r="BF30" s="49"/>
-      <c r="BG30" s="49"/>
-      <c r="BH30" s="49"/>
-      <c r="BI30" s="49"/>
-      <c r="BJ30" s="49"/>
-      <c r="BK30" s="49"/>
-      <c r="BL30" s="49"/>
-      <c r="BM30" s="49"/>
-      <c r="BN30" s="49"/>
-      <c r="BO30" s="49"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
+      <c r="Y30" s="59"/>
+      <c r="Z30" s="59"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="59"/>
+      <c r="AC30" s="59"/>
+      <c r="AD30" s="59"/>
+      <c r="AE30" s="57"/>
+      <c r="AF30" s="57"/>
+      <c r="AG30" s="57"/>
+      <c r="AH30" s="57"/>
+      <c r="AI30" s="57"/>
+      <c r="AJ30" s="57"/>
+      <c r="AK30" s="57"/>
+      <c r="AL30" s="57"/>
+      <c r="AM30" s="57"/>
+      <c r="AN30" s="57"/>
+      <c r="AO30" s="57"/>
+      <c r="AP30" s="57"/>
+      <c r="AQ30" s="57"/>
+      <c r="AR30" s="57"/>
+      <c r="AS30" s="57"/>
+      <c r="AT30" s="57"/>
+      <c r="AU30" s="57"/>
+      <c r="AV30" s="57"/>
+      <c r="AW30" s="57"/>
+      <c r="AX30" s="57"/>
+      <c r="AY30" s="57"/>
+      <c r="AZ30" s="57"/>
+      <c r="BA30" s="57"/>
+      <c r="BB30" s="57"/>
+      <c r="BC30" s="57"/>
+      <c r="BD30" s="57"/>
+      <c r="BE30" s="57"/>
+      <c r="BF30" s="57"/>
+      <c r="BG30" s="57"/>
+      <c r="BH30" s="57"/>
+      <c r="BI30" s="57"/>
+      <c r="BJ30" s="57"/>
+      <c r="BK30" s="57"/>
+      <c r="BL30" s="57"/>
+      <c r="BM30" s="57"/>
+      <c r="BN30" s="57"/>
+      <c r="BO30" s="57"/>
       <c r="BP30"/>
       <c r="BQ30" s="4"/>
       <c r="AMM30"/>
@@ -3259,73 +3259,73 @@
     </row>
     <row r="31" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="C31" s="50">
+      <c r="C31" s="54">
         <v>6</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="51"/>
-      <c r="AA31" s="51"/>
-      <c r="AB31" s="51"/>
-      <c r="AC31" s="51"/>
-      <c r="AD31" s="51"/>
-      <c r="AE31" s="49"/>
-      <c r="AF31" s="49"/>
-      <c r="AG31" s="49"/>
-      <c r="AH31" s="49"/>
-      <c r="AI31" s="49"/>
-      <c r="AJ31" s="49"/>
-      <c r="AK31" s="49"/>
-      <c r="AL31" s="49"/>
-      <c r="AM31" s="49"/>
-      <c r="AN31" s="49"/>
-      <c r="AO31" s="49"/>
-      <c r="AP31" s="49"/>
-      <c r="AQ31" s="49"/>
-      <c r="AR31" s="49"/>
-      <c r="AS31" s="49"/>
-      <c r="AT31" s="49"/>
-      <c r="AU31" s="49"/>
-      <c r="AV31" s="49"/>
-      <c r="AW31" s="49"/>
-      <c r="AX31" s="49"/>
-      <c r="AY31" s="49"/>
-      <c r="AZ31" s="49"/>
-      <c r="BA31" s="49"/>
-      <c r="BB31" s="49"/>
-      <c r="BC31" s="49"/>
-      <c r="BD31" s="49"/>
-      <c r="BE31" s="49"/>
-      <c r="BF31" s="49"/>
-      <c r="BG31" s="49"/>
-      <c r="BH31" s="49"/>
-      <c r="BI31" s="49"/>
-      <c r="BJ31" s="49"/>
-      <c r="BK31" s="49"/>
-      <c r="BL31" s="49"/>
-      <c r="BM31" s="49"/>
-      <c r="BN31" s="49"/>
-      <c r="BO31" s="49"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="59"/>
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="57"/>
+      <c r="AG31" s="57"/>
+      <c r="AH31" s="57"/>
+      <c r="AI31" s="57"/>
+      <c r="AJ31" s="57"/>
+      <c r="AK31" s="57"/>
+      <c r="AL31" s="57"/>
+      <c r="AM31" s="57"/>
+      <c r="AN31" s="57"/>
+      <c r="AO31" s="57"/>
+      <c r="AP31" s="57"/>
+      <c r="AQ31" s="57"/>
+      <c r="AR31" s="57"/>
+      <c r="AS31" s="57"/>
+      <c r="AT31" s="57"/>
+      <c r="AU31" s="57"/>
+      <c r="AV31" s="57"/>
+      <c r="AW31" s="57"/>
+      <c r="AX31" s="57"/>
+      <c r="AY31" s="57"/>
+      <c r="AZ31" s="57"/>
+      <c r="BA31" s="57"/>
+      <c r="BB31" s="57"/>
+      <c r="BC31" s="57"/>
+      <c r="BD31" s="57"/>
+      <c r="BE31" s="57"/>
+      <c r="BF31" s="57"/>
+      <c r="BG31" s="57"/>
+      <c r="BH31" s="57"/>
+      <c r="BI31" s="57"/>
+      <c r="BJ31" s="57"/>
+      <c r="BK31" s="57"/>
+      <c r="BL31" s="57"/>
+      <c r="BM31" s="57"/>
+      <c r="BN31" s="57"/>
+      <c r="BO31" s="57"/>
       <c r="BP31"/>
       <c r="BQ31" s="4"/>
       <c r="AMM31"/>
@@ -3342,73 +3342,73 @@
     </row>
     <row r="32" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="C32" s="50">
+      <c r="C32" s="54">
         <v>7</v>
       </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="51"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="51"/>
-      <c r="Z32" s="51"/>
-      <c r="AA32" s="51"/>
-      <c r="AB32" s="51"/>
-      <c r="AC32" s="51"/>
-      <c r="AD32" s="51"/>
-      <c r="AE32" s="49"/>
-      <c r="AF32" s="49"/>
-      <c r="AG32" s="49"/>
-      <c r="AH32" s="49"/>
-      <c r="AI32" s="49"/>
-      <c r="AJ32" s="49"/>
-      <c r="AK32" s="49"/>
-      <c r="AL32" s="49"/>
-      <c r="AM32" s="49"/>
-      <c r="AN32" s="49"/>
-      <c r="AO32" s="49"/>
-      <c r="AP32" s="49"/>
-      <c r="AQ32" s="49"/>
-      <c r="AR32" s="49"/>
-      <c r="AS32" s="49"/>
-      <c r="AT32" s="49"/>
-      <c r="AU32" s="49"/>
-      <c r="AV32" s="49"/>
-      <c r="AW32" s="49"/>
-      <c r="AX32" s="49"/>
-      <c r="AY32" s="49"/>
-      <c r="AZ32" s="49"/>
-      <c r="BA32" s="49"/>
-      <c r="BB32" s="49"/>
-      <c r="BC32" s="49"/>
-      <c r="BD32" s="49"/>
-      <c r="BE32" s="49"/>
-      <c r="BF32" s="49"/>
-      <c r="BG32" s="49"/>
-      <c r="BH32" s="49"/>
-      <c r="BI32" s="49"/>
-      <c r="BJ32" s="49"/>
-      <c r="BK32" s="49"/>
-      <c r="BL32" s="49"/>
-      <c r="BM32" s="49"/>
-      <c r="BN32" s="49"/>
-      <c r="BO32" s="49"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="59"/>
+      <c r="AE32" s="57"/>
+      <c r="AF32" s="57"/>
+      <c r="AG32" s="57"/>
+      <c r="AH32" s="57"/>
+      <c r="AI32" s="57"/>
+      <c r="AJ32" s="57"/>
+      <c r="AK32" s="57"/>
+      <c r="AL32" s="57"/>
+      <c r="AM32" s="57"/>
+      <c r="AN32" s="57"/>
+      <c r="AO32" s="57"/>
+      <c r="AP32" s="57"/>
+      <c r="AQ32" s="57"/>
+      <c r="AR32" s="57"/>
+      <c r="AS32" s="57"/>
+      <c r="AT32" s="57"/>
+      <c r="AU32" s="57"/>
+      <c r="AV32" s="57"/>
+      <c r="AW32" s="57"/>
+      <c r="AX32" s="57"/>
+      <c r="AY32" s="57"/>
+      <c r="AZ32" s="57"/>
+      <c r="BA32" s="57"/>
+      <c r="BB32" s="57"/>
+      <c r="BC32" s="57"/>
+      <c r="BD32" s="57"/>
+      <c r="BE32" s="57"/>
+      <c r="BF32" s="57"/>
+      <c r="BG32" s="57"/>
+      <c r="BH32" s="57"/>
+      <c r="BI32" s="57"/>
+      <c r="BJ32" s="57"/>
+      <c r="BK32" s="57"/>
+      <c r="BL32" s="57"/>
+      <c r="BM32" s="57"/>
+      <c r="BN32" s="57"/>
+      <c r="BO32" s="57"/>
       <c r="BP32"/>
       <c r="BQ32" s="4"/>
       <c r="AMM32"/>
@@ -3425,73 +3425,73 @@
     </row>
     <row r="33" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="C33" s="50">
+      <c r="C33" s="54">
         <v>8</v>
       </c>
-      <c r="D33" s="50"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="51"/>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="51"/>
-      <c r="Z33" s="51"/>
-      <c r="AA33" s="51"/>
-      <c r="AB33" s="51"/>
-      <c r="AC33" s="51"/>
-      <c r="AD33" s="51"/>
-      <c r="AE33" s="49"/>
-      <c r="AF33" s="49"/>
-      <c r="AG33" s="49"/>
-      <c r="AH33" s="49"/>
-      <c r="AI33" s="49"/>
-      <c r="AJ33" s="49"/>
-      <c r="AK33" s="49"/>
-      <c r="AL33" s="49"/>
-      <c r="AM33" s="49"/>
-      <c r="AN33" s="49"/>
-      <c r="AO33" s="49"/>
-      <c r="AP33" s="49"/>
-      <c r="AQ33" s="49"/>
-      <c r="AR33" s="49"/>
-      <c r="AS33" s="49"/>
-      <c r="AT33" s="49"/>
-      <c r="AU33" s="49"/>
-      <c r="AV33" s="49"/>
-      <c r="AW33" s="49"/>
-      <c r="AX33" s="49"/>
-      <c r="AY33" s="49"/>
-      <c r="AZ33" s="49"/>
-      <c r="BA33" s="49"/>
-      <c r="BB33" s="49"/>
-      <c r="BC33" s="49"/>
-      <c r="BD33" s="49"/>
-      <c r="BE33" s="49"/>
-      <c r="BF33" s="49"/>
-      <c r="BG33" s="49"/>
-      <c r="BH33" s="49"/>
-      <c r="BI33" s="49"/>
-      <c r="BJ33" s="49"/>
-      <c r="BK33" s="49"/>
-      <c r="BL33" s="49"/>
-      <c r="BM33" s="49"/>
-      <c r="BN33" s="49"/>
-      <c r="BO33" s="49"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="59"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="59"/>
+      <c r="AE33" s="57"/>
+      <c r="AF33" s="57"/>
+      <c r="AG33" s="57"/>
+      <c r="AH33" s="57"/>
+      <c r="AI33" s="57"/>
+      <c r="AJ33" s="57"/>
+      <c r="AK33" s="57"/>
+      <c r="AL33" s="57"/>
+      <c r="AM33" s="57"/>
+      <c r="AN33" s="57"/>
+      <c r="AO33" s="57"/>
+      <c r="AP33" s="57"/>
+      <c r="AQ33" s="57"/>
+      <c r="AR33" s="57"/>
+      <c r="AS33" s="57"/>
+      <c r="AT33" s="57"/>
+      <c r="AU33" s="57"/>
+      <c r="AV33" s="57"/>
+      <c r="AW33" s="57"/>
+      <c r="AX33" s="57"/>
+      <c r="AY33" s="57"/>
+      <c r="AZ33" s="57"/>
+      <c r="BA33" s="57"/>
+      <c r="BB33" s="57"/>
+      <c r="BC33" s="57"/>
+      <c r="BD33" s="57"/>
+      <c r="BE33" s="57"/>
+      <c r="BF33" s="57"/>
+      <c r="BG33" s="57"/>
+      <c r="BH33" s="57"/>
+      <c r="BI33" s="57"/>
+      <c r="BJ33" s="57"/>
+      <c r="BK33" s="57"/>
+      <c r="BL33" s="57"/>
+      <c r="BM33" s="57"/>
+      <c r="BN33" s="57"/>
+      <c r="BO33" s="57"/>
       <c r="BP33"/>
       <c r="BQ33" s="4"/>
       <c r="AMM33"/>
@@ -3508,73 +3508,73 @@
     </row>
     <row r="34" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="C34" s="50">
+      <c r="C34" s="54">
         <v>9</v>
       </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="51"/>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="51"/>
-      <c r="AB34" s="51"/>
-      <c r="AC34" s="51"/>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="49"/>
-      <c r="AF34" s="49"/>
-      <c r="AG34" s="49"/>
-      <c r="AH34" s="49"/>
-      <c r="AI34" s="49"/>
-      <c r="AJ34" s="49"/>
-      <c r="AK34" s="49"/>
-      <c r="AL34" s="49"/>
-      <c r="AM34" s="49"/>
-      <c r="AN34" s="49"/>
-      <c r="AO34" s="49"/>
-      <c r="AP34" s="49"/>
-      <c r="AQ34" s="49"/>
-      <c r="AR34" s="49"/>
-      <c r="AS34" s="49"/>
-      <c r="AT34" s="49"/>
-      <c r="AU34" s="49"/>
-      <c r="AV34" s="49"/>
-      <c r="AW34" s="49"/>
-      <c r="AX34" s="49"/>
-      <c r="AY34" s="49"/>
-      <c r="AZ34" s="49"/>
-      <c r="BA34" s="49"/>
-      <c r="BB34" s="49"/>
-      <c r="BC34" s="49"/>
-      <c r="BD34" s="49"/>
-      <c r="BE34" s="49"/>
-      <c r="BF34" s="49"/>
-      <c r="BG34" s="49"/>
-      <c r="BH34" s="49"/>
-      <c r="BI34" s="49"/>
-      <c r="BJ34" s="49"/>
-      <c r="BK34" s="49"/>
-      <c r="BL34" s="49"/>
-      <c r="BM34" s="49"/>
-      <c r="BN34" s="49"/>
-      <c r="BO34" s="49"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="57"/>
+      <c r="AF34" s="57"/>
+      <c r="AG34" s="57"/>
+      <c r="AH34" s="57"/>
+      <c r="AI34" s="57"/>
+      <c r="AJ34" s="57"/>
+      <c r="AK34" s="57"/>
+      <c r="AL34" s="57"/>
+      <c r="AM34" s="57"/>
+      <c r="AN34" s="57"/>
+      <c r="AO34" s="57"/>
+      <c r="AP34" s="57"/>
+      <c r="AQ34" s="57"/>
+      <c r="AR34" s="57"/>
+      <c r="AS34" s="57"/>
+      <c r="AT34" s="57"/>
+      <c r="AU34" s="57"/>
+      <c r="AV34" s="57"/>
+      <c r="AW34" s="57"/>
+      <c r="AX34" s="57"/>
+      <c r="AY34" s="57"/>
+      <c r="AZ34" s="57"/>
+      <c r="BA34" s="57"/>
+      <c r="BB34" s="57"/>
+      <c r="BC34" s="57"/>
+      <c r="BD34" s="57"/>
+      <c r="BE34" s="57"/>
+      <c r="BF34" s="57"/>
+      <c r="BG34" s="57"/>
+      <c r="BH34" s="57"/>
+      <c r="BI34" s="57"/>
+      <c r="BJ34" s="57"/>
+      <c r="BK34" s="57"/>
+      <c r="BL34" s="57"/>
+      <c r="BM34" s="57"/>
+      <c r="BN34" s="57"/>
+      <c r="BO34" s="57"/>
       <c r="BP34"/>
       <c r="BQ34" s="4"/>
       <c r="AMM34"/>
@@ -3592,73 +3592,73 @@
     <row r="35" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="50">
+      <c r="C35" s="54">
         <v>10</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="51"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="51"/>
-      <c r="Z35" s="51"/>
-      <c r="AA35" s="51"/>
-      <c r="AB35" s="51"/>
-      <c r="AC35" s="51"/>
-      <c r="AD35" s="51"/>
-      <c r="AE35" s="49"/>
-      <c r="AF35" s="49"/>
-      <c r="AG35" s="49"/>
-      <c r="AH35" s="49"/>
-      <c r="AI35" s="49"/>
-      <c r="AJ35" s="49"/>
-      <c r="AK35" s="49"/>
-      <c r="AL35" s="49"/>
-      <c r="AM35" s="49"/>
-      <c r="AN35" s="49"/>
-      <c r="AO35" s="49"/>
-      <c r="AP35" s="49"/>
-      <c r="AQ35" s="49"/>
-      <c r="AR35" s="49"/>
-      <c r="AS35" s="49"/>
-      <c r="AT35" s="49"/>
-      <c r="AU35" s="49"/>
-      <c r="AV35" s="49"/>
-      <c r="AW35" s="49"/>
-      <c r="AX35" s="49"/>
-      <c r="AY35" s="49"/>
-      <c r="AZ35" s="49"/>
-      <c r="BA35" s="49"/>
-      <c r="BB35" s="49"/>
-      <c r="BC35" s="49"/>
-      <c r="BD35" s="49"/>
-      <c r="BE35" s="49"/>
-      <c r="BF35" s="49"/>
-      <c r="BG35" s="49"/>
-      <c r="BH35" s="49"/>
-      <c r="BI35" s="49"/>
-      <c r="BJ35" s="49"/>
-      <c r="BK35" s="49"/>
-      <c r="BL35" s="49"/>
-      <c r="BM35" s="49"/>
-      <c r="BN35" s="49"/>
-      <c r="BO35" s="49"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="57"/>
+      <c r="AF35" s="57"/>
+      <c r="AG35" s="57"/>
+      <c r="AH35" s="57"/>
+      <c r="AI35" s="57"/>
+      <c r="AJ35" s="57"/>
+      <c r="AK35" s="57"/>
+      <c r="AL35" s="57"/>
+      <c r="AM35" s="57"/>
+      <c r="AN35" s="57"/>
+      <c r="AO35" s="57"/>
+      <c r="AP35" s="57"/>
+      <c r="AQ35" s="57"/>
+      <c r="AR35" s="57"/>
+      <c r="AS35" s="57"/>
+      <c r="AT35" s="57"/>
+      <c r="AU35" s="57"/>
+      <c r="AV35" s="57"/>
+      <c r="AW35" s="57"/>
+      <c r="AX35" s="57"/>
+      <c r="AY35" s="57"/>
+      <c r="AZ35" s="57"/>
+      <c r="BA35" s="57"/>
+      <c r="BB35" s="57"/>
+      <c r="BC35" s="57"/>
+      <c r="BD35" s="57"/>
+      <c r="BE35" s="57"/>
+      <c r="BF35" s="57"/>
+      <c r="BG35" s="57"/>
+      <c r="BH35" s="57"/>
+      <c r="BI35" s="57"/>
+      <c r="BJ35" s="57"/>
+      <c r="BK35" s="57"/>
+      <c r="BL35" s="57"/>
+      <c r="BM35" s="57"/>
+      <c r="BN35" s="57"/>
+      <c r="BO35" s="57"/>
       <c r="BP35"/>
       <c r="BQ35" s="4"/>
       <c r="AMM35"/>
@@ -4267,51 +4267,48 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="BD26:BJ26"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="BD25:BJ25"/>
-    <mergeCell ref="BK25:BO25"/>
+    <mergeCell ref="BK34:BO34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="O35:AD35"/>
+    <mergeCell ref="AE35:BC35"/>
+    <mergeCell ref="BD35:BJ35"/>
+    <mergeCell ref="BK35:BO35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="BK32:BO32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BJ33"/>
+    <mergeCell ref="BK33:BO33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD32:BJ32"/>
+    <mergeCell ref="BK30:BO30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BJ31"/>
+    <mergeCell ref="BK31:BO31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BJ30"/>
     <mergeCell ref="BK27:BO27"/>
     <mergeCell ref="BK26:BO26"/>
     <mergeCell ref="BK28:BO28"/>
@@ -4336,48 +4333,51 @@
     <mergeCell ref="BD27:BJ27"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:I26"/>
-    <mergeCell ref="BK30:BO30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BJ31"/>
-    <mergeCell ref="BK31:BO31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BJ30"/>
-    <mergeCell ref="BK32:BO32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BJ33"/>
-    <mergeCell ref="BK33:BO33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD32:BJ32"/>
-    <mergeCell ref="BK34:BO34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="O35:AD35"/>
-    <mergeCell ref="AE35:BC35"/>
-    <mergeCell ref="BD35:BJ35"/>
-    <mergeCell ref="BK35:BO35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="BD26:BJ26"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="BD25:BJ25"/>
+    <mergeCell ref="BK25:BO25"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -4448,243 +4448,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78" t="s">
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="79" t="s">
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AT1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="79"/>
-      <c r="AV1" s="79"/>
-      <c r="AW1" s="79"/>
-      <c r="AX1" s="79"/>
-      <c r="AY1" s="79"/>
-      <c r="AZ1" s="79"/>
-      <c r="BA1" s="79"/>
-      <c r="BB1" s="79"/>
-      <c r="BC1" s="79"/>
-      <c r="BD1" s="79"/>
-      <c r="BE1" s="79"/>
-      <c r="BF1" s="79"/>
-      <c r="BG1" s="79"/>
-      <c r="BH1" s="79"/>
-      <c r="BI1" s="79"/>
-      <c r="BJ1" s="79"/>
-      <c r="BK1" s="79"/>
-      <c r="BL1" s="79"/>
-      <c r="BM1" s="79"/>
-      <c r="BN1" s="79"/>
-      <c r="BO1" s="79"/>
-      <c r="BP1" s="79"/>
-      <c r="BQ1" s="79"/>
+      <c r="AU1" s="70"/>
+      <c r="AV1" s="70"/>
+      <c r="AW1" s="70"/>
+      <c r="AX1" s="70"/>
+      <c r="AY1" s="70"/>
+      <c r="AZ1" s="70"/>
+      <c r="BA1" s="70"/>
+      <c r="BB1" s="70"/>
+      <c r="BC1" s="70"/>
+      <c r="BD1" s="70"/>
+      <c r="BE1" s="70"/>
+      <c r="BF1" s="70"/>
+      <c r="BG1" s="70"/>
+      <c r="BH1" s="70"/>
+      <c r="BI1" s="70"/>
+      <c r="BJ1" s="70"/>
+      <c r="BK1" s="70"/>
+      <c r="BL1" s="70"/>
+      <c r="BM1" s="70"/>
+      <c r="BN1" s="70"/>
+      <c r="BO1" s="70"/>
+      <c r="BP1" s="70"/>
+      <c r="BQ1" s="70"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="58" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="69" t="s">
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69" t="s">
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71"/>
+      <c r="AR2" s="71"/>
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="69"/>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69" t="s">
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="71"/>
+      <c r="AY2" s="71"/>
+      <c r="AZ2" s="71"/>
+      <c r="BA2" s="71"/>
+      <c r="BB2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="69"/>
-      <c r="BD2" s="69"/>
-      <c r="BE2" s="69"/>
-      <c r="BF2" s="69"/>
-      <c r="BG2" s="69"/>
-      <c r="BH2" s="69"/>
-      <c r="BI2" s="69"/>
-      <c r="BJ2" s="80"/>
-      <c r="BK2" s="80"/>
-      <c r="BL2" s="80"/>
-      <c r="BM2" s="80"/>
-      <c r="BN2" s="80"/>
-      <c r="BO2" s="80"/>
-      <c r="BP2" s="80"/>
-      <c r="BQ2" s="80"/>
+      <c r="BC2" s="71"/>
+      <c r="BD2" s="71"/>
+      <c r="BE2" s="71"/>
+      <c r="BF2" s="71"/>
+      <c r="BG2" s="71"/>
+      <c r="BH2" s="71"/>
+      <c r="BI2" s="71"/>
+      <c r="BJ2" s="72"/>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="72"/>
+      <c r="BO2" s="72"/>
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="72"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="81" t="s">
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="81"/>
-      <c r="AM3" s="81"/>
-      <c r="AN3" s="81"/>
-      <c r="AO3" s="81"/>
-      <c r="AP3" s="81"/>
-      <c r="AQ3" s="81"/>
-      <c r="AR3" s="81"/>
-      <c r="AS3" s="81"/>
-      <c r="AT3" s="82">
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="74">
         <v>45510</v>
       </c>
-      <c r="AU3" s="82"/>
-      <c r="AV3" s="82"/>
-      <c r="AW3" s="82"/>
-      <c r="AX3" s="82"/>
-      <c r="AY3" s="82"/>
-      <c r="AZ3" s="82"/>
-      <c r="BA3" s="82"/>
-      <c r="BB3" s="81" t="s">
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="74"/>
+      <c r="AW3" s="74"/>
+      <c r="AX3" s="74"/>
+      <c r="AY3" s="74"/>
+      <c r="AZ3" s="74"/>
+      <c r="BA3" s="74"/>
+      <c r="BB3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="81"/>
-      <c r="BD3" s="81"/>
-      <c r="BE3" s="81"/>
-      <c r="BF3" s="81"/>
-      <c r="BG3" s="81"/>
-      <c r="BH3" s="81"/>
-      <c r="BI3" s="81"/>
-      <c r="BJ3" s="83"/>
-      <c r="BK3" s="83"/>
-      <c r="BL3" s="83"/>
-      <c r="BM3" s="83"/>
-      <c r="BN3" s="83"/>
-      <c r="BO3" s="83"/>
-      <c r="BP3" s="83"/>
-      <c r="BQ3" s="83"/>
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="73"/>
+      <c r="BE3" s="73"/>
+      <c r="BF3" s="73"/>
+      <c r="BG3" s="73"/>
+      <c r="BH3" s="73"/>
+      <c r="BI3" s="73"/>
+      <c r="BJ3" s="75"/>
+      <c r="BK3" s="75"/>
+      <c r="BL3" s="75"/>
+      <c r="BM3" s="75"/>
+      <c r="BN3" s="75"/>
+      <c r="BO3" s="75"/>
+      <c r="BP3" s="75"/>
+      <c r="BQ3" s="75"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -4709,20 +4709,20 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50" t="s">
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
       <c r="M6" s="76" t="s">
         <v>28</v>
       </c>
@@ -4753,52 +4753,52 @@
       <c r="AL6" s="76"/>
       <c r="AM6" s="76"/>
       <c r="AN6" s="76"/>
-      <c r="AO6" s="49" t="s">
+      <c r="AO6" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="49"/>
-      <c r="AQ6" s="49"/>
-      <c r="AR6" s="49"/>
-      <c r="AS6" s="49"/>
-      <c r="AT6" s="49"/>
-      <c r="AU6" s="49"/>
-      <c r="AV6" s="49" t="s">
+      <c r="AP6" s="57"/>
+      <c r="AQ6" s="57"/>
+      <c r="AR6" s="57"/>
+      <c r="AS6" s="57"/>
+      <c r="AT6" s="57"/>
+      <c r="AU6" s="57"/>
+      <c r="AV6" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="49"/>
-      <c r="AX6" s="49"/>
-      <c r="AY6" s="49"/>
-      <c r="AZ6" s="49"/>
-      <c r="BA6" s="49"/>
-      <c r="BB6" s="49"/>
-      <c r="BC6" s="49"/>
-      <c r="BD6" s="49"/>
-      <c r="BE6" s="49"/>
-      <c r="BF6" s="49"/>
-      <c r="BG6" s="49"/>
-      <c r="BH6" s="49"/>
-      <c r="BI6" s="49"/>
-      <c r="BJ6" s="49"/>
-      <c r="BK6" s="49"/>
-      <c r="BL6" s="49"/>
-      <c r="BM6" s="49"/>
-      <c r="BN6" s="49"/>
-      <c r="BO6" s="49"/>
-      <c r="BP6" s="49"/>
+      <c r="AW6" s="57"/>
+      <c r="AX6" s="57"/>
+      <c r="AY6" s="57"/>
+      <c r="AZ6" s="57"/>
+      <c r="BA6" s="57"/>
+      <c r="BB6" s="57"/>
+      <c r="BC6" s="57"/>
+      <c r="BD6" s="57"/>
+      <c r="BE6" s="57"/>
+      <c r="BF6" s="57"/>
+      <c r="BG6" s="57"/>
+      <c r="BH6" s="57"/>
+      <c r="BI6" s="57"/>
+      <c r="BJ6" s="57"/>
+      <c r="BK6" s="57"/>
+      <c r="BL6" s="57"/>
+      <c r="BM6" s="57"/>
+      <c r="BN6" s="57"/>
+      <c r="BO6" s="57"/>
+      <c r="BP6" s="57"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
       <c r="M7" s="17" t="s">
         <v>58</v>
       </c>
@@ -4829,38 +4829,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="49" t="s">
+      <c r="AO7" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="49"/>
-      <c r="AQ7" s="49"/>
-      <c r="AR7" s="49"/>
-      <c r="AS7" s="49"/>
-      <c r="AT7" s="49"/>
-      <c r="AU7" s="49"/>
-      <c r="AV7" s="49" t="s">
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="AW7" s="49"/>
-      <c r="AX7" s="49"/>
-      <c r="AY7" s="49"/>
-      <c r="AZ7" s="49"/>
-      <c r="BA7" s="49"/>
-      <c r="BB7" s="49"/>
-      <c r="BC7" s="49"/>
-      <c r="BD7" s="49"/>
-      <c r="BE7" s="49"/>
-      <c r="BF7" s="49"/>
-      <c r="BG7" s="49"/>
-      <c r="BH7" s="49"/>
-      <c r="BI7" s="49"/>
-      <c r="BJ7" s="49"/>
-      <c r="BK7" s="49"/>
-      <c r="BL7" s="49"/>
-      <c r="BM7" s="49"/>
-      <c r="BN7" s="49"/>
-      <c r="BO7" s="49"/>
-      <c r="BP7" s="49"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="57"/>
+      <c r="BA7" s="57"/>
+      <c r="BB7" s="57"/>
+      <c r="BC7" s="57"/>
+      <c r="BD7" s="57"/>
+      <c r="BE7" s="57"/>
+      <c r="BF7" s="57"/>
+      <c r="BG7" s="57"/>
+      <c r="BH7" s="57"/>
+      <c r="BI7" s="57"/>
+      <c r="BJ7" s="57"/>
+      <c r="BK7" s="57"/>
+      <c r="BL7" s="57"/>
+      <c r="BM7" s="57"/>
+      <c r="BN7" s="57"/>
+      <c r="BO7" s="57"/>
+      <c r="BP7" s="57"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -4874,89 +4874,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="69" t="s">
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69" t="s">
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="73" t="s">
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="74"/>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="74"/>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="74"/>
-      <c r="AN10" s="74"/>
-      <c r="AO10" s="74"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="74"/>
-      <c r="AR10" s="74"/>
-      <c r="AS10" s="74"/>
-      <c r="AT10" s="74"/>
-      <c r="AU10" s="74"/>
-      <c r="AV10" s="74"/>
-      <c r="AW10" s="74"/>
-      <c r="AX10" s="74"/>
-      <c r="AY10" s="74"/>
-      <c r="AZ10" s="74"/>
-      <c r="BA10" s="74"/>
-      <c r="BB10" s="74"/>
-      <c r="BC10" s="74"/>
-      <c r="BD10" s="74"/>
-      <c r="BE10" s="74"/>
-      <c r="BF10" s="74"/>
-      <c r="BG10" s="74"/>
-      <c r="BH10" s="74"/>
-      <c r="BI10" s="75"/>
-      <c r="BJ10" s="50" t="s">
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="79"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="79"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="79"/>
+      <c r="AM10" s="79"/>
+      <c r="AN10" s="79"/>
+      <c r="AO10" s="79"/>
+      <c r="AP10" s="79"/>
+      <c r="AQ10" s="79"/>
+      <c r="AR10" s="79"/>
+      <c r="AS10" s="79"/>
+      <c r="AT10" s="79"/>
+      <c r="AU10" s="79"/>
+      <c r="AV10" s="79"/>
+      <c r="AW10" s="79"/>
+      <c r="AX10" s="79"/>
+      <c r="AY10" s="79"/>
+      <c r="AZ10" s="79"/>
+      <c r="BA10" s="79"/>
+      <c r="BB10" s="79"/>
+      <c r="BC10" s="79"/>
+      <c r="BD10" s="79"/>
+      <c r="BE10" s="79"/>
+      <c r="BF10" s="79"/>
+      <c r="BG10" s="79"/>
+      <c r="BH10" s="79"/>
+      <c r="BI10" s="80"/>
+      <c r="BJ10" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="50"/>
-      <c r="BL10" s="50"/>
-      <c r="BM10" s="50"/>
-      <c r="BN10" s="50"/>
-      <c r="BO10" s="50"/>
-      <c r="BP10" s="50"/>
+      <c r="BK10" s="54"/>
+      <c r="BL10" s="54"/>
+      <c r="BM10" s="54"/>
+      <c r="BN10" s="54"/>
+      <c r="BO10" s="54"/>
+      <c r="BP10" s="54"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="17" t="s">
         <v>66</v>
       </c>
@@ -4972,11 +4972,11 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="69" t="s">
+      <c r="T11" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="69"/>
-      <c r="V11" s="72"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="38" t="s">
         <v>65</v>
       </c>
@@ -5028,10 +5028,10 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -5044,9 +5044,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
       <c r="W12" s="38"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -5095,10 +5095,10 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -5112,9 +5112,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
       <c r="W13" s="38"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -5163,10 +5163,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -5180,9 +5180,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
       <c r="W14" s="38"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -5231,10 +5231,10 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -5248,9 +5248,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
       <c r="W15" s="38"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -5310,88 +5310,88 @@
       <c r="AG17" s="16"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="69" t="s">
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69" t="s">
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="50" t="s">
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="50"/>
-      <c r="AH18" s="50"/>
-      <c r="AI18" s="50"/>
-      <c r="AJ18" s="50"/>
-      <c r="AK18" s="50"/>
-      <c r="AL18" s="50"/>
-      <c r="AM18" s="50"/>
-      <c r="AN18" s="50"/>
-      <c r="AO18" s="50"/>
-      <c r="AP18" s="50"/>
-      <c r="AQ18" s="50"/>
-      <c r="AR18" s="50"/>
-      <c r="AS18" s="50"/>
-      <c r="AT18" s="50"/>
-      <c r="AU18" s="50"/>
-      <c r="AV18" s="50"/>
-      <c r="AW18" s="50"/>
-      <c r="AX18" s="50"/>
-      <c r="AY18" s="50"/>
-      <c r="AZ18" s="50"/>
-      <c r="BA18" s="50"/>
-      <c r="BB18" s="50"/>
-      <c r="BC18" s="50"/>
-      <c r="BD18" s="50"/>
-      <c r="BE18" s="50"/>
-      <c r="BF18" s="50"/>
-      <c r="BG18" s="50"/>
-      <c r="BH18" s="50"/>
-      <c r="BI18" s="50"/>
-      <c r="BJ18" s="50" t="s">
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54"/>
+      <c r="AF18" s="54"/>
+      <c r="AG18" s="54"/>
+      <c r="AH18" s="54"/>
+      <c r="AI18" s="54"/>
+      <c r="AJ18" s="54"/>
+      <c r="AK18" s="54"/>
+      <c r="AL18" s="54"/>
+      <c r="AM18" s="54"/>
+      <c r="AN18" s="54"/>
+      <c r="AO18" s="54"/>
+      <c r="AP18" s="54"/>
+      <c r="AQ18" s="54"/>
+      <c r="AR18" s="54"/>
+      <c r="AS18" s="54"/>
+      <c r="AT18" s="54"/>
+      <c r="AU18" s="54"/>
+      <c r="AV18" s="54"/>
+      <c r="AW18" s="54"/>
+      <c r="AX18" s="54"/>
+      <c r="AY18" s="54"/>
+      <c r="AZ18" s="54"/>
+      <c r="BA18" s="54"/>
+      <c r="BB18" s="54"/>
+      <c r="BC18" s="54"/>
+      <c r="BD18" s="54"/>
+      <c r="BE18" s="54"/>
+      <c r="BF18" s="54"/>
+      <c r="BG18" s="54"/>
+      <c r="BH18" s="54"/>
+      <c r="BI18" s="54"/>
+      <c r="BJ18" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="BK18" s="50"/>
-      <c r="BL18" s="50"/>
-      <c r="BM18" s="50"/>
-      <c r="BN18" s="50"/>
-      <c r="BO18" s="50"/>
-      <c r="BP18" s="50"/>
+      <c r="BK18" s="54"/>
+      <c r="BL18" s="54"/>
+      <c r="BM18" s="54"/>
+      <c r="BN18" s="54"/>
+      <c r="BO18" s="54"/>
+      <c r="BP18" s="54"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
       <c r="G19" s="17" t="s">
         <v>63</v>
       </c>
@@ -5407,11 +5407,11 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="69" t="s">
+      <c r="T19" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
       <c r="W19" s="21" t="s">
         <v>67</v>
       </c>
@@ -5698,7 +5698,7 @@
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C26" s="29"/>
       <c r="I26" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD26" s="13"/>
       <c r="AG26" s="16"/>
@@ -5722,7 +5722,7 @@
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C29" s="29"/>
       <c r="I29" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD29" s="13"/>
       <c r="AG29" s="16"/>
@@ -5747,7 +5747,7 @@
       <c r="A32" s="12"/>
       <c r="C32" s="29"/>
       <c r="I32" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG32" s="16"/>
       <c r="BP32" s="30"/>
@@ -5960,6 +5960,37 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -5974,37 +6005,6 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">

--- a/交通費申請一覧機能/設計書/マッパー設計書_ユーザマスタ.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_ユーザマスタ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\新フォーマット格納所\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98041C9-3AC4-4ADC-A31A-DB3BE3EB999C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B07899-4920-4A69-B21C-2C718EBA1B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7490" yWindow="590" windowWidth="11460" windowHeight="9910" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_ユーザマスターマッパー" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
   <si>
     <t>システム名</t>
   </si>
@@ -491,6 +491,13 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>嵯峨</t>
+    <rPh sb="0" eb="2">
+      <t>サガ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -1048,6 +1055,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="4" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1063,46 +1109,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1112,9 +1144,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1127,28 +1156,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
@@ -1371,243 +1378,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50" t="s">
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="51" t="s">
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="51"/>
-      <c r="BB1" s="51"/>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="51"/>
-      <c r="BE1" s="51"/>
-      <c r="BF1" s="51"/>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
-      <c r="BJ1" s="51"/>
-      <c r="BK1" s="51"/>
-      <c r="BL1" s="51"/>
-      <c r="BM1" s="51"/>
-      <c r="BN1" s="51"/>
-      <c r="BO1" s="51"/>
-      <c r="BP1" s="51"/>
-      <c r="BQ1" s="51"/>
+      <c r="AU1" s="64"/>
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="64"/>
+      <c r="BB1" s="64"/>
+      <c r="BC1" s="64"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="64"/>
+      <c r="BF1" s="64"/>
+      <c r="BG1" s="64"/>
+      <c r="BH1" s="64"/>
+      <c r="BI1" s="64"/>
+      <c r="BJ1" s="64"/>
+      <c r="BK1" s="64"/>
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="64"/>
+      <c r="BN1" s="64"/>
+      <c r="BO1" s="64"/>
+      <c r="BP1" s="64"/>
+      <c r="BQ1" s="64"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="54" t="s">
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="54"/>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54" t="s">
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="50"/>
+      <c r="AT2" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="54"/>
-      <c r="BB2" s="54" t="s">
+      <c r="AU2" s="50"/>
+      <c r="AV2" s="50"/>
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="50"/>
+      <c r="BA2" s="50"/>
+      <c r="BB2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="54"/>
-      <c r="BD2" s="54"/>
-      <c r="BE2" s="54"/>
-      <c r="BF2" s="54"/>
-      <c r="BG2" s="54"/>
-      <c r="BH2" s="54"/>
-      <c r="BI2" s="54"/>
-      <c r="BJ2" s="55"/>
-      <c r="BK2" s="55"/>
-      <c r="BL2" s="55"/>
-      <c r="BM2" s="55"/>
-      <c r="BN2" s="55"/>
-      <c r="BO2" s="55"/>
-      <c r="BP2" s="55"/>
-      <c r="BQ2" s="55"/>
+      <c r="BC2" s="50"/>
+      <c r="BD2" s="50"/>
+      <c r="BE2" s="50"/>
+      <c r="BF2" s="50"/>
+      <c r="BG2" s="50"/>
+      <c r="BH2" s="50"/>
+      <c r="BI2" s="50"/>
+      <c r="BJ2" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="BK2" s="67"/>
+      <c r="BL2" s="67"/>
+      <c r="BM2" s="67"/>
+      <c r="BN2" s="67"/>
+      <c r="BO2" s="67"/>
+      <c r="BP2" s="67"/>
+      <c r="BQ2" s="67"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="60" t="s">
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="60"/>
-      <c r="AM3" s="60"/>
-      <c r="AN3" s="60"/>
-      <c r="AO3" s="60"/>
-      <c r="AP3" s="60"/>
-      <c r="AQ3" s="60"/>
-      <c r="AR3" s="60"/>
-      <c r="AS3" s="60"/>
-      <c r="AT3" s="61">
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="58"/>
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="58"/>
+      <c r="AT3" s="59">
         <v>45511</v>
       </c>
-      <c r="AU3" s="61"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="61"/>
-      <c r="AX3" s="61"/>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="61"/>
-      <c r="BA3" s="61"/>
-      <c r="BB3" s="60" t="s">
+      <c r="AU3" s="59"/>
+      <c r="AV3" s="59"/>
+      <c r="AW3" s="59"/>
+      <c r="AX3" s="59"/>
+      <c r="AY3" s="59"/>
+      <c r="AZ3" s="59"/>
+      <c r="BA3" s="59"/>
+      <c r="BB3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="60"/>
-      <c r="BD3" s="60"/>
-      <c r="BE3" s="60"/>
-      <c r="BF3" s="60"/>
-      <c r="BG3" s="60"/>
-      <c r="BH3" s="60"/>
-      <c r="BI3" s="60"/>
-      <c r="BJ3" s="62"/>
-      <c r="BK3" s="62"/>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="62"/>
-      <c r="BN3" s="62"/>
-      <c r="BO3" s="62"/>
-      <c r="BP3" s="62"/>
-      <c r="BQ3" s="62"/>
+      <c r="BC3" s="58"/>
+      <c r="BD3" s="58"/>
+      <c r="BE3" s="58"/>
+      <c r="BF3" s="58"/>
+      <c r="BG3" s="58"/>
+      <c r="BH3" s="58"/>
+      <c r="BI3" s="58"/>
+      <c r="BJ3" s="60">
+        <v>45548</v>
+      </c>
+      <c r="BK3" s="60"/>
+      <c r="BL3" s="60"/>
+      <c r="BM3" s="60"/>
+      <c r="BN3" s="60"/>
+      <c r="BO3" s="60"/>
+      <c r="BP3" s="60"/>
+      <c r="BQ3" s="60"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -1674,213 +1685,213 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="63"/>
-      <c r="Z6" s="63"/>
-      <c r="AA6" s="63"/>
-      <c r="AB6" s="63"/>
-      <c r="AC6" s="63"/>
-      <c r="AD6" s="63"/>
-      <c r="AE6" s="63"/>
-      <c r="AF6" s="63"/>
-      <c r="AG6" s="63"/>
-      <c r="AH6" s="63"/>
-      <c r="AI6" s="63"/>
-      <c r="AJ6" s="63"/>
-      <c r="AK6" s="63"/>
-      <c r="AL6" s="63"/>
-      <c r="AM6" s="63"/>
-      <c r="AN6" s="63"/>
-      <c r="AO6" s="63"/>
-      <c r="AP6" s="63"/>
-      <c r="AQ6" s="63"/>
-      <c r="AR6" s="63"/>
-      <c r="AS6" s="63"/>
-      <c r="AT6" s="63"/>
-      <c r="AU6" s="63"/>
-      <c r="AV6" s="63"/>
-      <c r="AW6" s="63"/>
-      <c r="AX6" s="63"/>
-      <c r="AY6" s="63"/>
-      <c r="AZ6" s="63"/>
-      <c r="BA6" s="63"/>
-      <c r="BB6" s="63"/>
-      <c r="BC6" s="63"/>
-      <c r="BD6" s="63"/>
-      <c r="BE6" s="63"/>
-      <c r="BF6" s="63"/>
-      <c r="BG6" s="63"/>
-      <c r="BH6" s="63"/>
-      <c r="BI6" s="63"/>
-      <c r="BJ6" s="63"/>
-      <c r="BK6" s="63"/>
-      <c r="BL6" s="63"/>
-      <c r="BM6" s="63"/>
-      <c r="BN6" s="63"/>
-      <c r="BO6" s="63"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="61"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="61"/>
+      <c r="AK6" s="61"/>
+      <c r="AL6" s="61"/>
+      <c r="AM6" s="61"/>
+      <c r="AN6" s="61"/>
+      <c r="AO6" s="61"/>
+      <c r="AP6" s="61"/>
+      <c r="AQ6" s="61"/>
+      <c r="AR6" s="61"/>
+      <c r="AS6" s="61"/>
+      <c r="AT6" s="61"/>
+      <c r="AU6" s="61"/>
+      <c r="AV6" s="61"/>
+      <c r="AW6" s="61"/>
+      <c r="AX6" s="61"/>
+      <c r="AY6" s="61"/>
+      <c r="AZ6" s="61"/>
+      <c r="BA6" s="61"/>
+      <c r="BB6" s="61"/>
+      <c r="BC6" s="61"/>
+      <c r="BD6" s="61"/>
+      <c r="BE6" s="61"/>
+      <c r="BF6" s="61"/>
+      <c r="BG6" s="61"/>
+      <c r="BH6" s="61"/>
+      <c r="BI6" s="61"/>
+      <c r="BJ6" s="61"/>
+      <c r="BK6" s="61"/>
+      <c r="BL6" s="61"/>
+      <c r="BM6" s="61"/>
+      <c r="BN6" s="61"/>
+      <c r="BO6" s="61"/>
       <c r="BP6"/>
       <c r="BQ6" s="4"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
-      <c r="X7" s="63"/>
-      <c r="Y7" s="63"/>
-      <c r="Z7" s="63"/>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="63"/>
-      <c r="AC7" s="63"/>
-      <c r="AD7" s="63"/>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="63"/>
-      <c r="AG7" s="63"/>
-      <c r="AH7" s="63"/>
-      <c r="AI7" s="63"/>
-      <c r="AJ7" s="63"/>
-      <c r="AK7" s="63"/>
-      <c r="AL7" s="63"/>
-      <c r="AM7" s="63"/>
-      <c r="AN7" s="63"/>
-      <c r="AO7" s="63"/>
-      <c r="AP7" s="63"/>
-      <c r="AQ7" s="63"/>
-      <c r="AR7" s="63"/>
-      <c r="AS7" s="63"/>
-      <c r="AT7" s="63"/>
-      <c r="AU7" s="63"/>
-      <c r="AV7" s="63"/>
-      <c r="AW7" s="63"/>
-      <c r="AX7" s="63"/>
-      <c r="AY7" s="63"/>
-      <c r="AZ7" s="63"/>
-      <c r="BA7" s="63"/>
-      <c r="BB7" s="63"/>
-      <c r="BC7" s="63"/>
-      <c r="BD7" s="63"/>
-      <c r="BE7" s="63"/>
-      <c r="BF7" s="63"/>
-      <c r="BG7" s="63"/>
-      <c r="BH7" s="63"/>
-      <c r="BI7" s="63"/>
-      <c r="BJ7" s="63"/>
-      <c r="BK7" s="63"/>
-      <c r="BL7" s="63"/>
-      <c r="BM7" s="63"/>
-      <c r="BN7" s="63"/>
-      <c r="BO7" s="63"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="61"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="61"/>
+      <c r="AI7" s="61"/>
+      <c r="AJ7" s="61"/>
+      <c r="AK7" s="61"/>
+      <c r="AL7" s="61"/>
+      <c r="AM7" s="61"/>
+      <c r="AN7" s="61"/>
+      <c r="AO7" s="61"/>
+      <c r="AP7" s="61"/>
+      <c r="AQ7" s="61"/>
+      <c r="AR7" s="61"/>
+      <c r="AS7" s="61"/>
+      <c r="AT7" s="61"/>
+      <c r="AU7" s="61"/>
+      <c r="AV7" s="61"/>
+      <c r="AW7" s="61"/>
+      <c r="AX7" s="61"/>
+      <c r="AY7" s="61"/>
+      <c r="AZ7" s="61"/>
+      <c r="BA7" s="61"/>
+      <c r="BB7" s="61"/>
+      <c r="BC7" s="61"/>
+      <c r="BD7" s="61"/>
+      <c r="BE7" s="61"/>
+      <c r="BF7" s="61"/>
+      <c r="BG7" s="61"/>
+      <c r="BH7" s="61"/>
+      <c r="BI7" s="61"/>
+      <c r="BJ7" s="61"/>
+      <c r="BK7" s="61"/>
+      <c r="BL7" s="61"/>
+      <c r="BM7" s="61"/>
+      <c r="BN7" s="61"/>
+      <c r="BO7" s="61"/>
       <c r="BP7"/>
       <c r="BQ7" s="4"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="56"/>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="56"/>
-      <c r="AF8" s="56"/>
-      <c r="AG8" s="56"/>
-      <c r="AH8" s="56"/>
-      <c r="AI8" s="56"/>
-      <c r="AJ8" s="56"/>
-      <c r="AK8" s="56"/>
-      <c r="AL8" s="56"/>
-      <c r="AM8" s="56"/>
-      <c r="AN8" s="56"/>
-      <c r="AO8" s="56"/>
-      <c r="AP8" s="56"/>
-      <c r="AQ8" s="56"/>
-      <c r="AR8" s="56"/>
-      <c r="AS8" s="56"/>
-      <c r="AT8" s="56"/>
-      <c r="AU8" s="56"/>
-      <c r="AV8" s="56"/>
-      <c r="AW8" s="56"/>
-      <c r="AX8" s="56"/>
-      <c r="AY8" s="56"/>
-      <c r="AZ8" s="56"/>
-      <c r="BA8" s="56"/>
-      <c r="BB8" s="56"/>
-      <c r="BC8" s="56"/>
-      <c r="BD8" s="56"/>
-      <c r="BE8" s="56"/>
-      <c r="BF8" s="56"/>
-      <c r="BG8" s="56"/>
-      <c r="BH8" s="56"/>
-      <c r="BI8" s="56"/>
-      <c r="BJ8" s="56"/>
-      <c r="BK8" s="56"/>
-      <c r="BL8" s="56"/>
-      <c r="BM8" s="56"/>
-      <c r="BN8" s="56"/>
-      <c r="BO8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="57"/>
+      <c r="AJ8" s="57"/>
+      <c r="AK8" s="57"/>
+      <c r="AL8" s="57"/>
+      <c r="AM8" s="57"/>
+      <c r="AN8" s="57"/>
+      <c r="AO8" s="57"/>
+      <c r="AP8" s="57"/>
+      <c r="AQ8" s="57"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="57"/>
+      <c r="AT8" s="57"/>
+      <c r="AU8" s="57"/>
+      <c r="AV8" s="57"/>
+      <c r="AW8" s="57"/>
+      <c r="AX8" s="57"/>
+      <c r="AY8" s="57"/>
+      <c r="AZ8" s="57"/>
+      <c r="BA8" s="57"/>
+      <c r="BB8" s="57"/>
+      <c r="BC8" s="57"/>
+      <c r="BD8" s="57"/>
+      <c r="BE8" s="57"/>
+      <c r="BF8" s="57"/>
+      <c r="BG8" s="57"/>
+      <c r="BH8" s="57"/>
+      <c r="BI8" s="57"/>
+      <c r="BJ8" s="57"/>
+      <c r="BK8" s="57"/>
+      <c r="BL8" s="57"/>
+      <c r="BM8" s="57"/>
+      <c r="BN8" s="57"/>
+      <c r="BO8" s="57"/>
       <c r="BP8"/>
       <c r="BQ8" s="4"/>
     </row>
@@ -1933,787 +1944,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="54" t="s">
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="57" t="s">
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="57"/>
-      <c r="AG11" s="57"/>
-      <c r="AH11" s="57"/>
-      <c r="AI11" s="58" t="s">
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="AJ11" s="58"/>
-      <c r="AK11" s="58"/>
-      <c r="AL11" s="58"/>
-      <c r="AM11" s="58"/>
-      <c r="AN11" s="58"/>
-      <c r="AO11" s="58"/>
-      <c r="AP11" s="58"/>
-      <c r="AQ11" s="58"/>
-      <c r="AR11" s="58"/>
-      <c r="AS11" s="58"/>
-      <c r="AT11" s="58"/>
-      <c r="AU11" s="58"/>
-      <c r="AV11" s="58"/>
-      <c r="AW11" s="58"/>
-      <c r="AX11" s="58"/>
-      <c r="AY11" s="58"/>
-      <c r="AZ11" s="58"/>
-      <c r="BA11" s="58"/>
-      <c r="BB11" s="58"/>
-      <c r="BC11" s="58"/>
-      <c r="BD11" s="58"/>
-      <c r="BE11" s="58"/>
-      <c r="BF11" s="58"/>
-      <c r="BG11" s="58"/>
-      <c r="BH11" s="58"/>
-      <c r="BI11" s="58"/>
-      <c r="BJ11" s="58"/>
-      <c r="BK11" s="58"/>
-      <c r="BL11" s="58"/>
-      <c r="BM11" s="58"/>
-      <c r="BN11" s="58"/>
-      <c r="BO11" s="58"/>
+      <c r="AJ11" s="53"/>
+      <c r="AK11" s="53"/>
+      <c r="AL11" s="53"/>
+      <c r="AM11" s="53"/>
+      <c r="AN11" s="53"/>
+      <c r="AO11" s="53"/>
+      <c r="AP11" s="53"/>
+      <c r="AQ11" s="53"/>
+      <c r="AR11" s="53"/>
+      <c r="AS11" s="53"/>
+      <c r="AT11" s="53"/>
+      <c r="AU11" s="53"/>
+      <c r="AV11" s="53"/>
+      <c r="AW11" s="53"/>
+      <c r="AX11" s="53"/>
+      <c r="AY11" s="53"/>
+      <c r="AZ11" s="53"/>
+      <c r="BA11" s="53"/>
+      <c r="BB11" s="53"/>
+      <c r="BC11" s="53"/>
+      <c r="BD11" s="53"/>
+      <c r="BE11" s="53"/>
+      <c r="BF11" s="53"/>
+      <c r="BG11" s="53"/>
+      <c r="BH11" s="53"/>
+      <c r="BI11" s="53"/>
+      <c r="BJ11" s="53"/>
+      <c r="BK11" s="53"/>
+      <c r="BL11" s="53"/>
+      <c r="BM11" s="53"/>
+      <c r="BN11" s="53"/>
+      <c r="BO11" s="53"/>
       <c r="BP11"/>
       <c r="BQ11" s="4"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="59"/>
-      <c r="AJ12" s="59"/>
-      <c r="AK12" s="59"/>
-      <c r="AL12" s="59"/>
-      <c r="AM12" s="59"/>
-      <c r="AN12" s="59"/>
-      <c r="AO12" s="59"/>
-      <c r="AP12" s="59"/>
-      <c r="AQ12" s="59"/>
-      <c r="AR12" s="59"/>
-      <c r="AS12" s="59"/>
-      <c r="AT12" s="59"/>
-      <c r="AU12" s="59"/>
-      <c r="AV12" s="59"/>
-      <c r="AW12" s="59"/>
-      <c r="AX12" s="59"/>
-      <c r="AY12" s="59"/>
-      <c r="AZ12" s="59"/>
-      <c r="BA12" s="59"/>
-      <c r="BB12" s="59"/>
-      <c r="BC12" s="59"/>
-      <c r="BD12" s="59"/>
-      <c r="BE12" s="59"/>
-      <c r="BF12" s="59"/>
-      <c r="BG12" s="59"/>
-      <c r="BH12" s="59"/>
-      <c r="BI12" s="59"/>
-      <c r="BJ12" s="59"/>
-      <c r="BK12" s="59"/>
-      <c r="BL12" s="59"/>
-      <c r="BM12" s="59"/>
-      <c r="BN12" s="59"/>
-      <c r="BO12" s="59"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="51"/>
+      <c r="AI12" s="51"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="51"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="51"/>
+      <c r="AN12" s="51"/>
+      <c r="AO12" s="51"/>
+      <c r="AP12" s="51"/>
+      <c r="AQ12" s="51"/>
+      <c r="AR12" s="51"/>
+      <c r="AS12" s="51"/>
+      <c r="AT12" s="51"/>
+      <c r="AU12" s="51"/>
+      <c r="AV12" s="51"/>
+      <c r="AW12" s="51"/>
+      <c r="AX12" s="51"/>
+      <c r="AY12" s="51"/>
+      <c r="AZ12" s="51"/>
+      <c r="BA12" s="51"/>
+      <c r="BB12" s="51"/>
+      <c r="BC12" s="51"/>
+      <c r="BD12" s="51"/>
+      <c r="BE12" s="51"/>
+      <c r="BF12" s="51"/>
+      <c r="BG12" s="51"/>
+      <c r="BH12" s="51"/>
+      <c r="BI12" s="51"/>
+      <c r="BJ12" s="51"/>
+      <c r="BK12" s="51"/>
+      <c r="BL12" s="51"/>
+      <c r="BM12" s="51"/>
+      <c r="BN12" s="51"/>
+      <c r="BO12" s="51"/>
       <c r="BP12"/>
       <c r="BQ12" s="4"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="59"/>
-      <c r="AJ13" s="59"/>
-      <c r="AK13" s="59"/>
-      <c r="AL13" s="59"/>
-      <c r="AM13" s="59"/>
-      <c r="AN13" s="59"/>
-      <c r="AO13" s="59"/>
-      <c r="AP13" s="59"/>
-      <c r="AQ13" s="59"/>
-      <c r="AR13" s="59"/>
-      <c r="AS13" s="59"/>
-      <c r="AT13" s="59"/>
-      <c r="AU13" s="59"/>
-      <c r="AV13" s="59"/>
-      <c r="AW13" s="59"/>
-      <c r="AX13" s="59"/>
-      <c r="AY13" s="59"/>
-      <c r="AZ13" s="59"/>
-      <c r="BA13" s="59"/>
-      <c r="BB13" s="59"/>
-      <c r="BC13" s="59"/>
-      <c r="BD13" s="59"/>
-      <c r="BE13" s="59"/>
-      <c r="BF13" s="59"/>
-      <c r="BG13" s="59"/>
-      <c r="BH13" s="59"/>
-      <c r="BI13" s="59"/>
-      <c r="BJ13" s="59"/>
-      <c r="BK13" s="59"/>
-      <c r="BL13" s="59"/>
-      <c r="BM13" s="59"/>
-      <c r="BN13" s="59"/>
-      <c r="BO13" s="59"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="51"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="51"/>
+      <c r="AI13" s="51"/>
+      <c r="AJ13" s="51"/>
+      <c r="AK13" s="51"/>
+      <c r="AL13" s="51"/>
+      <c r="AM13" s="51"/>
+      <c r="AN13" s="51"/>
+      <c r="AO13" s="51"/>
+      <c r="AP13" s="51"/>
+      <c r="AQ13" s="51"/>
+      <c r="AR13" s="51"/>
+      <c r="AS13" s="51"/>
+      <c r="AT13" s="51"/>
+      <c r="AU13" s="51"/>
+      <c r="AV13" s="51"/>
+      <c r="AW13" s="51"/>
+      <c r="AX13" s="51"/>
+      <c r="AY13" s="51"/>
+      <c r="AZ13" s="51"/>
+      <c r="BA13" s="51"/>
+      <c r="BB13" s="51"/>
+      <c r="BC13" s="51"/>
+      <c r="BD13" s="51"/>
+      <c r="BE13" s="51"/>
+      <c r="BF13" s="51"/>
+      <c r="BG13" s="51"/>
+      <c r="BH13" s="51"/>
+      <c r="BI13" s="51"/>
+      <c r="BJ13" s="51"/>
+      <c r="BK13" s="51"/>
+      <c r="BL13" s="51"/>
+      <c r="BM13" s="51"/>
+      <c r="BN13" s="51"/>
+      <c r="BO13" s="51"/>
       <c r="BP13"/>
       <c r="BQ13" s="4"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="64" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="64"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="64"/>
-      <c r="AH14" s="64"/>
-      <c r="AI14" s="64"/>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="64"/>
-      <c r="AL14" s="64"/>
-      <c r="AM14" s="64"/>
-      <c r="AN14" s="64"/>
-      <c r="AO14" s="64"/>
-      <c r="AP14" s="64"/>
-      <c r="AQ14" s="64"/>
-      <c r="AR14" s="64"/>
-      <c r="AS14" s="64"/>
-      <c r="AT14" s="64"/>
-      <c r="AU14" s="64"/>
-      <c r="AV14" s="64"/>
-      <c r="AW14" s="64"/>
-      <c r="AX14" s="64"/>
-      <c r="AY14" s="64"/>
-      <c r="AZ14" s="64"/>
-      <c r="BA14" s="64"/>
-      <c r="BB14" s="64"/>
-      <c r="BC14" s="64"/>
-      <c r="BD14" s="64"/>
-      <c r="BE14" s="64"/>
-      <c r="BF14" s="64"/>
-      <c r="BG14" s="64"/>
-      <c r="BH14" s="64"/>
-      <c r="BI14" s="64"/>
-      <c r="BJ14" s="64"/>
-      <c r="BK14" s="64"/>
-      <c r="BL14" s="64"/>
-      <c r="BM14" s="64"/>
-      <c r="BN14" s="64"/>
-      <c r="BO14" s="64"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="55"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="55"/>
+      <c r="AG14" s="55"/>
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="55"/>
+      <c r="AJ14" s="55"/>
+      <c r="AK14" s="55"/>
+      <c r="AL14" s="55"/>
+      <c r="AM14" s="55"/>
+      <c r="AN14" s="55"/>
+      <c r="AO14" s="55"/>
+      <c r="AP14" s="55"/>
+      <c r="AQ14" s="55"/>
+      <c r="AR14" s="55"/>
+      <c r="AS14" s="55"/>
+      <c r="AT14" s="55"/>
+      <c r="AU14" s="55"/>
+      <c r="AV14" s="55"/>
+      <c r="AW14" s="55"/>
+      <c r="AX14" s="55"/>
+      <c r="AY14" s="55"/>
+      <c r="AZ14" s="55"/>
+      <c r="BA14" s="55"/>
+      <c r="BB14" s="55"/>
+      <c r="BC14" s="55"/>
+      <c r="BD14" s="55"/>
+      <c r="BE14" s="55"/>
+      <c r="BF14" s="55"/>
+      <c r="BG14" s="55"/>
+      <c r="BH14" s="55"/>
+      <c r="BI14" s="55"/>
+      <c r="BJ14" s="55"/>
+      <c r="BK14" s="55"/>
+      <c r="BL14" s="55"/>
+      <c r="BM14" s="55"/>
+      <c r="BN14" s="55"/>
+      <c r="BO14" s="55"/>
       <c r="BP14"/>
       <c r="BQ14" s="4"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="65"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="65"/>
-      <c r="AI15" s="65"/>
-      <c r="AJ15" s="65"/>
-      <c r="AK15" s="65"/>
-      <c r="AL15" s="65"/>
-      <c r="AM15" s="65"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="65"/>
-      <c r="AQ15" s="65"/>
-      <c r="AR15" s="65"/>
-      <c r="AS15" s="65"/>
-      <c r="AT15" s="65"/>
-      <c r="AU15" s="65"/>
-      <c r="AV15" s="65"/>
-      <c r="AW15" s="65"/>
-      <c r="AX15" s="65"/>
-      <c r="AY15" s="65"/>
-      <c r="AZ15" s="65"/>
-      <c r="BA15" s="65"/>
-      <c r="BB15" s="65"/>
-      <c r="BC15" s="65"/>
-      <c r="BD15" s="65"/>
-      <c r="BE15" s="65"/>
-      <c r="BF15" s="65"/>
-      <c r="BG15" s="65"/>
-      <c r="BH15" s="65"/>
-      <c r="BI15" s="65"/>
-      <c r="BJ15" s="65"/>
-      <c r="BK15" s="65"/>
-      <c r="BL15" s="65"/>
-      <c r="BM15" s="65"/>
-      <c r="BN15" s="65"/>
-      <c r="BO15" s="65"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="56"/>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="56"/>
+      <c r="AH15" s="56"/>
+      <c r="AI15" s="56"/>
+      <c r="AJ15" s="56"/>
+      <c r="AK15" s="56"/>
+      <c r="AL15" s="56"/>
+      <c r="AM15" s="56"/>
+      <c r="AN15" s="56"/>
+      <c r="AO15" s="56"/>
+      <c r="AP15" s="56"/>
+      <c r="AQ15" s="56"/>
+      <c r="AR15" s="56"/>
+      <c r="AS15" s="56"/>
+      <c r="AT15" s="56"/>
+      <c r="AU15" s="56"/>
+      <c r="AV15" s="56"/>
+      <c r="AW15" s="56"/>
+      <c r="AX15" s="56"/>
+      <c r="AY15" s="56"/>
+      <c r="AZ15" s="56"/>
+      <c r="BA15" s="56"/>
+      <c r="BB15" s="56"/>
+      <c r="BC15" s="56"/>
+      <c r="BD15" s="56"/>
+      <c r="BE15" s="56"/>
+      <c r="BF15" s="56"/>
+      <c r="BG15" s="56"/>
+      <c r="BH15" s="56"/>
+      <c r="BI15" s="56"/>
+      <c r="BJ15" s="56"/>
+      <c r="BK15" s="56"/>
+      <c r="BL15" s="56"/>
+      <c r="BM15" s="56"/>
+      <c r="BN15" s="56"/>
+      <c r="BO15" s="56"/>
       <c r="BP15"/>
       <c r="BQ15" s="4"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
-      <c r="AA16" s="65"/>
-      <c r="AB16" s="65"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="65"/>
-      <c r="AE16" s="65"/>
-      <c r="AF16" s="65"/>
-      <c r="AG16" s="65"/>
-      <c r="AH16" s="65"/>
-      <c r="AI16" s="65"/>
-      <c r="AJ16" s="65"/>
-      <c r="AK16" s="65"/>
-      <c r="AL16" s="65"/>
-      <c r="AM16" s="65"/>
-      <c r="AN16" s="65"/>
-      <c r="AO16" s="65"/>
-      <c r="AP16" s="65"/>
-      <c r="AQ16" s="65"/>
-      <c r="AR16" s="65"/>
-      <c r="AS16" s="65"/>
-      <c r="AT16" s="65"/>
-      <c r="AU16" s="65"/>
-      <c r="AV16" s="65"/>
-      <c r="AW16" s="65"/>
-      <c r="AX16" s="65"/>
-      <c r="AY16" s="65"/>
-      <c r="AZ16" s="65"/>
-      <c r="BA16" s="65"/>
-      <c r="BB16" s="65"/>
-      <c r="BC16" s="65"/>
-      <c r="BD16" s="65"/>
-      <c r="BE16" s="65"/>
-      <c r="BF16" s="65"/>
-      <c r="BG16" s="65"/>
-      <c r="BH16" s="65"/>
-      <c r="BI16" s="65"/>
-      <c r="BJ16" s="65"/>
-      <c r="BK16" s="65"/>
-      <c r="BL16" s="65"/>
-      <c r="BM16" s="65"/>
-      <c r="BN16" s="65"/>
-      <c r="BO16" s="65"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="56"/>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="56"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="56"/>
+      <c r="AP16" s="56"/>
+      <c r="AQ16" s="56"/>
+      <c r="AR16" s="56"/>
+      <c r="AS16" s="56"/>
+      <c r="AT16" s="56"/>
+      <c r="AU16" s="56"/>
+      <c r="AV16" s="56"/>
+      <c r="AW16" s="56"/>
+      <c r="AX16" s="56"/>
+      <c r="AY16" s="56"/>
+      <c r="AZ16" s="56"/>
+      <c r="BA16" s="56"/>
+      <c r="BB16" s="56"/>
+      <c r="BC16" s="56"/>
+      <c r="BD16" s="56"/>
+      <c r="BE16" s="56"/>
+      <c r="BF16" s="56"/>
+      <c r="BG16" s="56"/>
+      <c r="BH16" s="56"/>
+      <c r="BI16" s="56"/>
+      <c r="BJ16" s="56"/>
+      <c r="BK16" s="56"/>
+      <c r="BL16" s="56"/>
+      <c r="BM16" s="56"/>
+      <c r="BN16" s="56"/>
+      <c r="BO16" s="56"/>
       <c r="BP16"/>
       <c r="BQ16" s="4"/>
     </row>
     <row r="17" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="65"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="65"/>
-      <c r="AE17" s="65"/>
-      <c r="AF17" s="65"/>
-      <c r="AG17" s="65"/>
-      <c r="AH17" s="65"/>
-      <c r="AI17" s="65"/>
-      <c r="AJ17" s="65"/>
-      <c r="AK17" s="65"/>
-      <c r="AL17" s="65"/>
-      <c r="AM17" s="65"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="65"/>
-      <c r="AP17" s="65"/>
-      <c r="AQ17" s="65"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="65"/>
-      <c r="AT17" s="65"/>
-      <c r="AU17" s="65"/>
-      <c r="AV17" s="65"/>
-      <c r="AW17" s="65"/>
-      <c r="AX17" s="65"/>
-      <c r="AY17" s="65"/>
-      <c r="AZ17" s="65"/>
-      <c r="BA17" s="65"/>
-      <c r="BB17" s="65"/>
-      <c r="BC17" s="65"/>
-      <c r="BD17" s="65"/>
-      <c r="BE17" s="65"/>
-      <c r="BF17" s="65"/>
-      <c r="BG17" s="65"/>
-      <c r="BH17" s="65"/>
-      <c r="BI17" s="65"/>
-      <c r="BJ17" s="65"/>
-      <c r="BK17" s="65"/>
-      <c r="BL17" s="65"/>
-      <c r="BM17" s="65"/>
-      <c r="BN17" s="65"/>
-      <c r="BO17" s="65"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="56"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="56"/>
+      <c r="AM17" s="56"/>
+      <c r="AN17" s="56"/>
+      <c r="AO17" s="56"/>
+      <c r="AP17" s="56"/>
+      <c r="AQ17" s="56"/>
+      <c r="AR17" s="56"/>
+      <c r="AS17" s="56"/>
+      <c r="AT17" s="56"/>
+      <c r="AU17" s="56"/>
+      <c r="AV17" s="56"/>
+      <c r="AW17" s="56"/>
+      <c r="AX17" s="56"/>
+      <c r="AY17" s="56"/>
+      <c r="AZ17" s="56"/>
+      <c r="BA17" s="56"/>
+      <c r="BB17" s="56"/>
+      <c r="BC17" s="56"/>
+      <c r="BD17" s="56"/>
+      <c r="BE17" s="56"/>
+      <c r="BF17" s="56"/>
+      <c r="BG17" s="56"/>
+      <c r="BH17" s="56"/>
+      <c r="BI17" s="56"/>
+      <c r="BJ17" s="56"/>
+      <c r="BK17" s="56"/>
+      <c r="BL17" s="56"/>
+      <c r="BM17" s="56"/>
+      <c r="BN17" s="56"/>
+      <c r="BO17" s="56"/>
       <c r="BP17"/>
       <c r="BQ17" s="4"/>
     </row>
     <row r="18" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="65"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="65"/>
-      <c r="AG18" s="65"/>
-      <c r="AH18" s="65"/>
-      <c r="AI18" s="65"/>
-      <c r="AJ18" s="65"/>
-      <c r="AK18" s="65"/>
-      <c r="AL18" s="65"/>
-      <c r="AM18" s="65"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="65"/>
-      <c r="AP18" s="65"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="65"/>
-      <c r="AT18" s="65"/>
-      <c r="AU18" s="65"/>
-      <c r="AV18" s="65"/>
-      <c r="AW18" s="65"/>
-      <c r="AX18" s="65"/>
-      <c r="AY18" s="65"/>
-      <c r="AZ18" s="65"/>
-      <c r="BA18" s="65"/>
-      <c r="BB18" s="65"/>
-      <c r="BC18" s="65"/>
-      <c r="BD18" s="65"/>
-      <c r="BE18" s="65"/>
-      <c r="BF18" s="65"/>
-      <c r="BG18" s="65"/>
-      <c r="BH18" s="65"/>
-      <c r="BI18" s="65"/>
-      <c r="BJ18" s="65"/>
-      <c r="BK18" s="65"/>
-      <c r="BL18" s="65"/>
-      <c r="BM18" s="65"/>
-      <c r="BN18" s="65"/>
-      <c r="BO18" s="65"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="56"/>
+      <c r="AF18" s="56"/>
+      <c r="AG18" s="56"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="56"/>
+      <c r="AJ18" s="56"/>
+      <c r="AK18" s="56"/>
+      <c r="AL18" s="56"/>
+      <c r="AM18" s="56"/>
+      <c r="AN18" s="56"/>
+      <c r="AO18" s="56"/>
+      <c r="AP18" s="56"/>
+      <c r="AQ18" s="56"/>
+      <c r="AR18" s="56"/>
+      <c r="AS18" s="56"/>
+      <c r="AT18" s="56"/>
+      <c r="AU18" s="56"/>
+      <c r="AV18" s="56"/>
+      <c r="AW18" s="56"/>
+      <c r="AX18" s="56"/>
+      <c r="AY18" s="56"/>
+      <c r="AZ18" s="56"/>
+      <c r="BA18" s="56"/>
+      <c r="BB18" s="56"/>
+      <c r="BC18" s="56"/>
+      <c r="BD18" s="56"/>
+      <c r="BE18" s="56"/>
+      <c r="BF18" s="56"/>
+      <c r="BG18" s="56"/>
+      <c r="BH18" s="56"/>
+      <c r="BI18" s="56"/>
+      <c r="BJ18" s="56"/>
+      <c r="BK18" s="56"/>
+      <c r="BL18" s="56"/>
+      <c r="BM18" s="56"/>
+      <c r="BN18" s="56"/>
+      <c r="BO18" s="56"/>
       <c r="BP18"/>
       <c r="BQ18" s="4"/>
     </row>
     <row r="19" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="65"/>
-      <c r="AA19" s="65"/>
-      <c r="AB19" s="65"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="65"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="65"/>
-      <c r="AG19" s="65"/>
-      <c r="AH19" s="65"/>
-      <c r="AI19" s="65"/>
-      <c r="AJ19" s="65"/>
-      <c r="AK19" s="65"/>
-      <c r="AL19" s="65"/>
-      <c r="AM19" s="65"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="65"/>
-      <c r="AT19" s="65"/>
-      <c r="AU19" s="65"/>
-      <c r="AV19" s="65"/>
-      <c r="AW19" s="65"/>
-      <c r="AX19" s="65"/>
-      <c r="AY19" s="65"/>
-      <c r="AZ19" s="65"/>
-      <c r="BA19" s="65"/>
-      <c r="BB19" s="65"/>
-      <c r="BC19" s="65"/>
-      <c r="BD19" s="65"/>
-      <c r="BE19" s="65"/>
-      <c r="BF19" s="65"/>
-      <c r="BG19" s="65"/>
-      <c r="BH19" s="65"/>
-      <c r="BI19" s="65"/>
-      <c r="BJ19" s="65"/>
-      <c r="BK19" s="65"/>
-      <c r="BL19" s="65"/>
-      <c r="BM19" s="65"/>
-      <c r="BN19" s="65"/>
-      <c r="BO19" s="65"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="56"/>
+      <c r="AG19" s="56"/>
+      <c r="AH19" s="56"/>
+      <c r="AI19" s="56"/>
+      <c r="AJ19" s="56"/>
+      <c r="AK19" s="56"/>
+      <c r="AL19" s="56"/>
+      <c r="AM19" s="56"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="56"/>
+      <c r="AP19" s="56"/>
+      <c r="AQ19" s="56"/>
+      <c r="AR19" s="56"/>
+      <c r="AS19" s="56"/>
+      <c r="AT19" s="56"/>
+      <c r="AU19" s="56"/>
+      <c r="AV19" s="56"/>
+      <c r="AW19" s="56"/>
+      <c r="AX19" s="56"/>
+      <c r="AY19" s="56"/>
+      <c r="AZ19" s="56"/>
+      <c r="BA19" s="56"/>
+      <c r="BB19" s="56"/>
+      <c r="BC19" s="56"/>
+      <c r="BD19" s="56"/>
+      <c r="BE19" s="56"/>
+      <c r="BF19" s="56"/>
+      <c r="BG19" s="56"/>
+      <c r="BH19" s="56"/>
+      <c r="BI19" s="56"/>
+      <c r="BJ19" s="56"/>
+      <c r="BK19" s="56"/>
+      <c r="BL19" s="56"/>
+      <c r="BM19" s="56"/>
+      <c r="BN19" s="56"/>
+      <c r="BO19" s="56"/>
       <c r="BP19"/>
       <c r="BQ19" s="4"/>
     </row>
     <row r="20" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="65"/>
-      <c r="AF20" s="65"/>
-      <c r="AG20" s="65"/>
-      <c r="AH20" s="65"/>
-      <c r="AI20" s="65"/>
-      <c r="AJ20" s="65"/>
-      <c r="AK20" s="65"/>
-      <c r="AL20" s="65"/>
-      <c r="AM20" s="65"/>
-      <c r="AN20" s="65"/>
-      <c r="AO20" s="65"/>
-      <c r="AP20" s="65"/>
-      <c r="AQ20" s="65"/>
-      <c r="AR20" s="65"/>
-      <c r="AS20" s="65"/>
-      <c r="AT20" s="65"/>
-      <c r="AU20" s="65"/>
-      <c r="AV20" s="65"/>
-      <c r="AW20" s="65"/>
-      <c r="AX20" s="65"/>
-      <c r="AY20" s="65"/>
-      <c r="AZ20" s="65"/>
-      <c r="BA20" s="65"/>
-      <c r="BB20" s="65"/>
-      <c r="BC20" s="65"/>
-      <c r="BD20" s="65"/>
-      <c r="BE20" s="65"/>
-      <c r="BF20" s="65"/>
-      <c r="BG20" s="65"/>
-      <c r="BH20" s="65"/>
-      <c r="BI20" s="65"/>
-      <c r="BJ20" s="65"/>
-      <c r="BK20" s="65"/>
-      <c r="BL20" s="65"/>
-      <c r="BM20" s="65"/>
-      <c r="BN20" s="65"/>
-      <c r="BO20" s="65"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="56"/>
+      <c r="AL20" s="56"/>
+      <c r="AM20" s="56"/>
+      <c r="AN20" s="56"/>
+      <c r="AO20" s="56"/>
+      <c r="AP20" s="56"/>
+      <c r="AQ20" s="56"/>
+      <c r="AR20" s="56"/>
+      <c r="AS20" s="56"/>
+      <c r="AT20" s="56"/>
+      <c r="AU20" s="56"/>
+      <c r="AV20" s="56"/>
+      <c r="AW20" s="56"/>
+      <c r="AX20" s="56"/>
+      <c r="AY20" s="56"/>
+      <c r="AZ20" s="56"/>
+      <c r="BA20" s="56"/>
+      <c r="BB20" s="56"/>
+      <c r="BC20" s="56"/>
+      <c r="BD20" s="56"/>
+      <c r="BE20" s="56"/>
+      <c r="BF20" s="56"/>
+      <c r="BG20" s="56"/>
+      <c r="BH20" s="56"/>
+      <c r="BI20" s="56"/>
+      <c r="BJ20" s="56"/>
+      <c r="BK20" s="56"/>
+      <c r="BL20" s="56"/>
+      <c r="BM20" s="56"/>
+      <c r="BN20" s="56"/>
+      <c r="BO20" s="56"/>
       <c r="BP20"/>
       <c r="BQ20" s="4"/>
     </row>
     <row r="21" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="66"/>
-      <c r="AM21" s="66"/>
-      <c r="AN21" s="66"/>
-      <c r="AO21" s="66"/>
-      <c r="AP21" s="66"/>
-      <c r="AQ21" s="66"/>
-      <c r="AR21" s="66"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="66"/>
-      <c r="AU21" s="66"/>
-      <c r="AV21" s="66"/>
-      <c r="AW21" s="66"/>
-      <c r="AX21" s="66"/>
-      <c r="AY21" s="66"/>
-      <c r="AZ21" s="66"/>
-      <c r="BA21" s="66"/>
-      <c r="BB21" s="66"/>
-      <c r="BC21" s="66"/>
-      <c r="BD21" s="66"/>
-      <c r="BE21" s="66"/>
-      <c r="BF21" s="66"/>
-      <c r="BG21" s="66"/>
-      <c r="BH21" s="66"/>
-      <c r="BI21" s="66"/>
-      <c r="BJ21" s="66"/>
-      <c r="BK21" s="66"/>
-      <c r="BL21" s="66"/>
-      <c r="BM21" s="66"/>
-      <c r="BN21" s="66"/>
-      <c r="BO21" s="66"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="54"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="54"/>
+      <c r="AE21" s="54"/>
+      <c r="AF21" s="54"/>
+      <c r="AG21" s="54"/>
+      <c r="AH21" s="54"/>
+      <c r="AI21" s="54"/>
+      <c r="AJ21" s="54"/>
+      <c r="AK21" s="54"/>
+      <c r="AL21" s="54"/>
+      <c r="AM21" s="54"/>
+      <c r="AN21" s="54"/>
+      <c r="AO21" s="54"/>
+      <c r="AP21" s="54"/>
+      <c r="AQ21" s="54"/>
+      <c r="AR21" s="54"/>
+      <c r="AS21" s="54"/>
+      <c r="AT21" s="54"/>
+      <c r="AU21" s="54"/>
+      <c r="AV21" s="54"/>
+      <c r="AW21" s="54"/>
+      <c r="AX21" s="54"/>
+      <c r="AY21" s="54"/>
+      <c r="AZ21" s="54"/>
+      <c r="BA21" s="54"/>
+      <c r="BB21" s="54"/>
+      <c r="BC21" s="54"/>
+      <c r="BD21" s="54"/>
+      <c r="BE21" s="54"/>
+      <c r="BF21" s="54"/>
+      <c r="BG21" s="54"/>
+      <c r="BH21" s="54"/>
+      <c r="BI21" s="54"/>
+      <c r="BJ21" s="54"/>
+      <c r="BK21" s="54"/>
+      <c r="BL21" s="54"/>
+      <c r="BM21" s="54"/>
+      <c r="BN21" s="54"/>
+      <c r="BO21" s="54"/>
       <c r="BP21"/>
       <c r="BQ21" s="4"/>
     </row>
@@ -2743,85 +2754,85 @@
     </row>
     <row r="25" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54" t="s">
+      <c r="D25" s="50"/>
+      <c r="E25" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54" t="s">
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="59" t="s">
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="57" t="s">
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="51"/>
+      <c r="AB25" s="51"/>
+      <c r="AC25" s="51"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="57"/>
-      <c r="AG25" s="57"/>
-      <c r="AH25" s="57"/>
-      <c r="AI25" s="57"/>
-      <c r="AJ25" s="57"/>
-      <c r="AK25" s="57"/>
-      <c r="AL25" s="57"/>
-      <c r="AM25" s="57"/>
-      <c r="AN25" s="57"/>
-      <c r="AO25" s="57"/>
-      <c r="AP25" s="57"/>
-      <c r="AQ25" s="57"/>
-      <c r="AR25" s="57"/>
-      <c r="AS25" s="57"/>
-      <c r="AT25" s="57"/>
-      <c r="AU25" s="57"/>
-      <c r="AV25" s="57"/>
-      <c r="AW25" s="57"/>
-      <c r="AX25" s="57"/>
-      <c r="AY25" s="57"/>
-      <c r="AZ25" s="57"/>
-      <c r="BA25" s="57"/>
-      <c r="BB25" s="57"/>
-      <c r="BC25" s="57"/>
-      <c r="BD25" s="57" t="s">
+      <c r="AF25" s="49"/>
+      <c r="AG25" s="49"/>
+      <c r="AH25" s="49"/>
+      <c r="AI25" s="49"/>
+      <c r="AJ25" s="49"/>
+      <c r="AK25" s="49"/>
+      <c r="AL25" s="49"/>
+      <c r="AM25" s="49"/>
+      <c r="AN25" s="49"/>
+      <c r="AO25" s="49"/>
+      <c r="AP25" s="49"/>
+      <c r="AQ25" s="49"/>
+      <c r="AR25" s="49"/>
+      <c r="AS25" s="49"/>
+      <c r="AT25" s="49"/>
+      <c r="AU25" s="49"/>
+      <c r="AV25" s="49"/>
+      <c r="AW25" s="49"/>
+      <c r="AX25" s="49"/>
+      <c r="AY25" s="49"/>
+      <c r="AZ25" s="49"/>
+      <c r="BA25" s="49"/>
+      <c r="BB25" s="49"/>
+      <c r="BC25" s="49"/>
+      <c r="BD25" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="BE25" s="57"/>
-      <c r="BF25" s="57"/>
-      <c r="BG25" s="57"/>
-      <c r="BH25" s="57"/>
-      <c r="BI25" s="57"/>
-      <c r="BJ25" s="57"/>
-      <c r="BK25" s="57" t="s">
+      <c r="BE25" s="49"/>
+      <c r="BF25" s="49"/>
+      <c r="BG25" s="49"/>
+      <c r="BH25" s="49"/>
+      <c r="BI25" s="49"/>
+      <c r="BJ25" s="49"/>
+      <c r="BK25" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="BL25" s="57"/>
-      <c r="BM25" s="57"/>
-      <c r="BN25" s="57"/>
-      <c r="BO25" s="57"/>
+      <c r="BL25" s="49"/>
+      <c r="BM25" s="49"/>
+      <c r="BN25" s="49"/>
+      <c r="BO25" s="49"/>
       <c r="BP25"/>
       <c r="BQ25" s="4"/>
       <c r="AMM25"/>
@@ -2838,81 +2849,81 @@
     </row>
     <row r="26" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="C26" s="54">
+      <c r="C26" s="50">
         <v>1</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="57" t="s">
+      <c r="D26" s="50"/>
+      <c r="E26" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="59" t="s">
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="57" t="s">
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
-      <c r="AJ26" s="57"/>
-      <c r="AK26" s="57"/>
-      <c r="AL26" s="57"/>
-      <c r="AM26" s="57"/>
-      <c r="AN26" s="57"/>
-      <c r="AO26" s="57"/>
-      <c r="AP26" s="57"/>
-      <c r="AQ26" s="57"/>
-      <c r="AR26" s="57"/>
-      <c r="AS26" s="57"/>
-      <c r="AT26" s="57"/>
-      <c r="AU26" s="57"/>
-      <c r="AV26" s="57"/>
-      <c r="AW26" s="57"/>
-      <c r="AX26" s="57"/>
-      <c r="AY26" s="57"/>
-      <c r="AZ26" s="57"/>
-      <c r="BA26" s="57"/>
-      <c r="BB26" s="57"/>
-      <c r="BC26" s="57"/>
-      <c r="BD26" s="57" t="s">
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="49"/>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="49"/>
+      <c r="AK26" s="49"/>
+      <c r="AL26" s="49"/>
+      <c r="AM26" s="49"/>
+      <c r="AN26" s="49"/>
+      <c r="AO26" s="49"/>
+      <c r="AP26" s="49"/>
+      <c r="AQ26" s="49"/>
+      <c r="AR26" s="49"/>
+      <c r="AS26" s="49"/>
+      <c r="AT26" s="49"/>
+      <c r="AU26" s="49"/>
+      <c r="AV26" s="49"/>
+      <c r="AW26" s="49"/>
+      <c r="AX26" s="49"/>
+      <c r="AY26" s="49"/>
+      <c r="AZ26" s="49"/>
+      <c r="BA26" s="49"/>
+      <c r="BB26" s="49"/>
+      <c r="BC26" s="49"/>
+      <c r="BD26" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="BE26" s="57"/>
-      <c r="BF26" s="57"/>
-      <c r="BG26" s="57"/>
-      <c r="BH26" s="57"/>
-      <c r="BI26" s="57"/>
-      <c r="BJ26" s="57"/>
-      <c r="BK26" s="57"/>
-      <c r="BL26" s="57"/>
-      <c r="BM26" s="57"/>
-      <c r="BN26" s="57"/>
-      <c r="BO26" s="57"/>
+      <c r="BE26" s="49"/>
+      <c r="BF26" s="49"/>
+      <c r="BG26" s="49"/>
+      <c r="BH26" s="49"/>
+      <c r="BI26" s="49"/>
+      <c r="BJ26" s="49"/>
+      <c r="BK26" s="49"/>
+      <c r="BL26" s="49"/>
+      <c r="BM26" s="49"/>
+      <c r="BN26" s="49"/>
+      <c r="BO26" s="49"/>
       <c r="BQ26" s="4"/>
       <c r="AMM26"/>
       <c r="AMN26"/>
@@ -2928,73 +2939,73 @@
     </row>
     <row r="27" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="C27" s="54">
+      <c r="C27" s="50">
         <v>2</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="57"/>
-      <c r="AG27" s="57"/>
-      <c r="AH27" s="57"/>
-      <c r="AI27" s="57"/>
-      <c r="AJ27" s="57"/>
-      <c r="AK27" s="57"/>
-      <c r="AL27" s="57"/>
-      <c r="AM27" s="57"/>
-      <c r="AN27" s="57"/>
-      <c r="AO27" s="57"/>
-      <c r="AP27" s="57"/>
-      <c r="AQ27" s="57"/>
-      <c r="AR27" s="57"/>
-      <c r="AS27" s="57"/>
-      <c r="AT27" s="57"/>
-      <c r="AU27" s="57"/>
-      <c r="AV27" s="57"/>
-      <c r="AW27" s="57"/>
-      <c r="AX27" s="57"/>
-      <c r="AY27" s="57"/>
-      <c r="AZ27" s="57"/>
-      <c r="BA27" s="57"/>
-      <c r="BB27" s="57"/>
-      <c r="BC27" s="57"/>
-      <c r="BD27" s="57"/>
-      <c r="BE27" s="57"/>
-      <c r="BF27" s="57"/>
-      <c r="BG27" s="57"/>
-      <c r="BH27" s="57"/>
-      <c r="BI27" s="57"/>
-      <c r="BJ27" s="57"/>
-      <c r="BK27" s="57"/>
-      <c r="BL27" s="57"/>
-      <c r="BM27" s="57"/>
-      <c r="BN27" s="57"/>
-      <c r="BO27" s="57"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="53"/>
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="49"/>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="49"/>
+      <c r="AI27" s="49"/>
+      <c r="AJ27" s="49"/>
+      <c r="AK27" s="49"/>
+      <c r="AL27" s="49"/>
+      <c r="AM27" s="49"/>
+      <c r="AN27" s="49"/>
+      <c r="AO27" s="49"/>
+      <c r="AP27" s="49"/>
+      <c r="AQ27" s="49"/>
+      <c r="AR27" s="49"/>
+      <c r="AS27" s="49"/>
+      <c r="AT27" s="49"/>
+      <c r="AU27" s="49"/>
+      <c r="AV27" s="49"/>
+      <c r="AW27" s="49"/>
+      <c r="AX27" s="49"/>
+      <c r="AY27" s="49"/>
+      <c r="AZ27" s="49"/>
+      <c r="BA27" s="49"/>
+      <c r="BB27" s="49"/>
+      <c r="BC27" s="49"/>
+      <c r="BD27" s="49"/>
+      <c r="BE27" s="49"/>
+      <c r="BF27" s="49"/>
+      <c r="BG27" s="49"/>
+      <c r="BH27" s="49"/>
+      <c r="BI27" s="49"/>
+      <c r="BJ27" s="49"/>
+      <c r="BK27" s="49"/>
+      <c r="BL27" s="49"/>
+      <c r="BM27" s="49"/>
+      <c r="BN27" s="49"/>
+      <c r="BO27" s="49"/>
       <c r="BQ27" s="4"/>
       <c r="AMM27"/>
       <c r="AMN27"/>
@@ -3010,73 +3021,73 @@
     </row>
     <row r="28" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="C28" s="54">
+      <c r="C28" s="50">
         <v>3</v>
       </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="57"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="57"/>
-      <c r="AJ28" s="57"/>
-      <c r="AK28" s="57"/>
-      <c r="AL28" s="57"/>
-      <c r="AM28" s="57"/>
-      <c r="AN28" s="57"/>
-      <c r="AO28" s="57"/>
-      <c r="AP28" s="57"/>
-      <c r="AQ28" s="57"/>
-      <c r="AR28" s="57"/>
-      <c r="AS28" s="57"/>
-      <c r="AT28" s="57"/>
-      <c r="AU28" s="57"/>
-      <c r="AV28" s="57"/>
-      <c r="AW28" s="57"/>
-      <c r="AX28" s="57"/>
-      <c r="AY28" s="57"/>
-      <c r="AZ28" s="57"/>
-      <c r="BA28" s="57"/>
-      <c r="BB28" s="57"/>
-      <c r="BC28" s="57"/>
-      <c r="BD28" s="57"/>
-      <c r="BE28" s="57"/>
-      <c r="BF28" s="57"/>
-      <c r="BG28" s="57"/>
-      <c r="BH28" s="57"/>
-      <c r="BI28" s="57"/>
-      <c r="BJ28" s="57"/>
-      <c r="BK28" s="57"/>
-      <c r="BL28" s="57"/>
-      <c r="BM28" s="57"/>
-      <c r="BN28" s="57"/>
-      <c r="BO28" s="57"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="51"/>
+      <c r="AB28" s="51"/>
+      <c r="AC28" s="51"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="49"/>
+      <c r="AF28" s="49"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="49"/>
+      <c r="AM28" s="49"/>
+      <c r="AN28" s="49"/>
+      <c r="AO28" s="49"/>
+      <c r="AP28" s="49"/>
+      <c r="AQ28" s="49"/>
+      <c r="AR28" s="49"/>
+      <c r="AS28" s="49"/>
+      <c r="AT28" s="49"/>
+      <c r="AU28" s="49"/>
+      <c r="AV28" s="49"/>
+      <c r="AW28" s="49"/>
+      <c r="AX28" s="49"/>
+      <c r="AY28" s="49"/>
+      <c r="AZ28" s="49"/>
+      <c r="BA28" s="49"/>
+      <c r="BB28" s="49"/>
+      <c r="BC28" s="49"/>
+      <c r="BD28" s="49"/>
+      <c r="BE28" s="49"/>
+      <c r="BF28" s="49"/>
+      <c r="BG28" s="49"/>
+      <c r="BH28" s="49"/>
+      <c r="BI28" s="49"/>
+      <c r="BJ28" s="49"/>
+      <c r="BK28" s="49"/>
+      <c r="BL28" s="49"/>
+      <c r="BM28" s="49"/>
+      <c r="BN28" s="49"/>
+      <c r="BO28" s="49"/>
       <c r="BP28"/>
       <c r="BQ28" s="4"/>
       <c r="AMM28"/>
@@ -3093,73 +3104,73 @@
     </row>
     <row r="29" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="C29" s="54">
+      <c r="C29" s="50">
         <v>4</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
-      <c r="AA29" s="59"/>
-      <c r="AB29" s="59"/>
-      <c r="AC29" s="59"/>
-      <c r="AD29" s="59"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="57"/>
-      <c r="AG29" s="57"/>
-      <c r="AH29" s="57"/>
-      <c r="AI29" s="57"/>
-      <c r="AJ29" s="57"/>
-      <c r="AK29" s="57"/>
-      <c r="AL29" s="57"/>
-      <c r="AM29" s="57"/>
-      <c r="AN29" s="57"/>
-      <c r="AO29" s="57"/>
-      <c r="AP29" s="57"/>
-      <c r="AQ29" s="57"/>
-      <c r="AR29" s="57"/>
-      <c r="AS29" s="57"/>
-      <c r="AT29" s="57"/>
-      <c r="AU29" s="57"/>
-      <c r="AV29" s="57"/>
-      <c r="AW29" s="57"/>
-      <c r="AX29" s="57"/>
-      <c r="AY29" s="57"/>
-      <c r="AZ29" s="57"/>
-      <c r="BA29" s="57"/>
-      <c r="BB29" s="57"/>
-      <c r="BC29" s="57"/>
-      <c r="BD29" s="57"/>
-      <c r="BE29" s="57"/>
-      <c r="BF29" s="57"/>
-      <c r="BG29" s="57"/>
-      <c r="BH29" s="57"/>
-      <c r="BI29" s="57"/>
-      <c r="BJ29" s="57"/>
-      <c r="BK29" s="57"/>
-      <c r="BL29" s="57"/>
-      <c r="BM29" s="57"/>
-      <c r="BN29" s="57"/>
-      <c r="BO29" s="57"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="49"/>
+      <c r="AF29" s="49"/>
+      <c r="AG29" s="49"/>
+      <c r="AH29" s="49"/>
+      <c r="AI29" s="49"/>
+      <c r="AJ29" s="49"/>
+      <c r="AK29" s="49"/>
+      <c r="AL29" s="49"/>
+      <c r="AM29" s="49"/>
+      <c r="AN29" s="49"/>
+      <c r="AO29" s="49"/>
+      <c r="AP29" s="49"/>
+      <c r="AQ29" s="49"/>
+      <c r="AR29" s="49"/>
+      <c r="AS29" s="49"/>
+      <c r="AT29" s="49"/>
+      <c r="AU29" s="49"/>
+      <c r="AV29" s="49"/>
+      <c r="AW29" s="49"/>
+      <c r="AX29" s="49"/>
+      <c r="AY29" s="49"/>
+      <c r="AZ29" s="49"/>
+      <c r="BA29" s="49"/>
+      <c r="BB29" s="49"/>
+      <c r="BC29" s="49"/>
+      <c r="BD29" s="49"/>
+      <c r="BE29" s="49"/>
+      <c r="BF29" s="49"/>
+      <c r="BG29" s="49"/>
+      <c r="BH29" s="49"/>
+      <c r="BI29" s="49"/>
+      <c r="BJ29" s="49"/>
+      <c r="BK29" s="49"/>
+      <c r="BL29" s="49"/>
+      <c r="BM29" s="49"/>
+      <c r="BN29" s="49"/>
+      <c r="BO29" s="49"/>
       <c r="BP29"/>
       <c r="BQ29" s="4"/>
       <c r="AMM29"/>
@@ -3176,73 +3187,73 @@
     </row>
     <row r="30" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="C30" s="54">
+      <c r="C30" s="50">
         <v>5</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="59"/>
-      <c r="AA30" s="59"/>
-      <c r="AB30" s="59"/>
-      <c r="AC30" s="59"/>
-      <c r="AD30" s="59"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="57"/>
-      <c r="AG30" s="57"/>
-      <c r="AH30" s="57"/>
-      <c r="AI30" s="57"/>
-      <c r="AJ30" s="57"/>
-      <c r="AK30" s="57"/>
-      <c r="AL30" s="57"/>
-      <c r="AM30" s="57"/>
-      <c r="AN30" s="57"/>
-      <c r="AO30" s="57"/>
-      <c r="AP30" s="57"/>
-      <c r="AQ30" s="57"/>
-      <c r="AR30" s="57"/>
-      <c r="AS30" s="57"/>
-      <c r="AT30" s="57"/>
-      <c r="AU30" s="57"/>
-      <c r="AV30" s="57"/>
-      <c r="AW30" s="57"/>
-      <c r="AX30" s="57"/>
-      <c r="AY30" s="57"/>
-      <c r="AZ30" s="57"/>
-      <c r="BA30" s="57"/>
-      <c r="BB30" s="57"/>
-      <c r="BC30" s="57"/>
-      <c r="BD30" s="57"/>
-      <c r="BE30" s="57"/>
-      <c r="BF30" s="57"/>
-      <c r="BG30" s="57"/>
-      <c r="BH30" s="57"/>
-      <c r="BI30" s="57"/>
-      <c r="BJ30" s="57"/>
-      <c r="BK30" s="57"/>
-      <c r="BL30" s="57"/>
-      <c r="BM30" s="57"/>
-      <c r="BN30" s="57"/>
-      <c r="BO30" s="57"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="49"/>
+      <c r="AF30" s="49"/>
+      <c r="AG30" s="49"/>
+      <c r="AH30" s="49"/>
+      <c r="AI30" s="49"/>
+      <c r="AJ30" s="49"/>
+      <c r="AK30" s="49"/>
+      <c r="AL30" s="49"/>
+      <c r="AM30" s="49"/>
+      <c r="AN30" s="49"/>
+      <c r="AO30" s="49"/>
+      <c r="AP30" s="49"/>
+      <c r="AQ30" s="49"/>
+      <c r="AR30" s="49"/>
+      <c r="AS30" s="49"/>
+      <c r="AT30" s="49"/>
+      <c r="AU30" s="49"/>
+      <c r="AV30" s="49"/>
+      <c r="AW30" s="49"/>
+      <c r="AX30" s="49"/>
+      <c r="AY30" s="49"/>
+      <c r="AZ30" s="49"/>
+      <c r="BA30" s="49"/>
+      <c r="BB30" s="49"/>
+      <c r="BC30" s="49"/>
+      <c r="BD30" s="49"/>
+      <c r="BE30" s="49"/>
+      <c r="BF30" s="49"/>
+      <c r="BG30" s="49"/>
+      <c r="BH30" s="49"/>
+      <c r="BI30" s="49"/>
+      <c r="BJ30" s="49"/>
+      <c r="BK30" s="49"/>
+      <c r="BL30" s="49"/>
+      <c r="BM30" s="49"/>
+      <c r="BN30" s="49"/>
+      <c r="BO30" s="49"/>
       <c r="BP30"/>
       <c r="BQ30" s="4"/>
       <c r="AMM30"/>
@@ -3259,73 +3270,73 @@
     </row>
     <row r="31" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="C31" s="54">
+      <c r="C31" s="50">
         <v>6</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="59"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="57"/>
-      <c r="AG31" s="57"/>
-      <c r="AH31" s="57"/>
-      <c r="AI31" s="57"/>
-      <c r="AJ31" s="57"/>
-      <c r="AK31" s="57"/>
-      <c r="AL31" s="57"/>
-      <c r="AM31" s="57"/>
-      <c r="AN31" s="57"/>
-      <c r="AO31" s="57"/>
-      <c r="AP31" s="57"/>
-      <c r="AQ31" s="57"/>
-      <c r="AR31" s="57"/>
-      <c r="AS31" s="57"/>
-      <c r="AT31" s="57"/>
-      <c r="AU31" s="57"/>
-      <c r="AV31" s="57"/>
-      <c r="AW31" s="57"/>
-      <c r="AX31" s="57"/>
-      <c r="AY31" s="57"/>
-      <c r="AZ31" s="57"/>
-      <c r="BA31" s="57"/>
-      <c r="BB31" s="57"/>
-      <c r="BC31" s="57"/>
-      <c r="BD31" s="57"/>
-      <c r="BE31" s="57"/>
-      <c r="BF31" s="57"/>
-      <c r="BG31" s="57"/>
-      <c r="BH31" s="57"/>
-      <c r="BI31" s="57"/>
-      <c r="BJ31" s="57"/>
-      <c r="BK31" s="57"/>
-      <c r="BL31" s="57"/>
-      <c r="BM31" s="57"/>
-      <c r="BN31" s="57"/>
-      <c r="BO31" s="57"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="49"/>
+      <c r="AF31" s="49"/>
+      <c r="AG31" s="49"/>
+      <c r="AH31" s="49"/>
+      <c r="AI31" s="49"/>
+      <c r="AJ31" s="49"/>
+      <c r="AK31" s="49"/>
+      <c r="AL31" s="49"/>
+      <c r="AM31" s="49"/>
+      <c r="AN31" s="49"/>
+      <c r="AO31" s="49"/>
+      <c r="AP31" s="49"/>
+      <c r="AQ31" s="49"/>
+      <c r="AR31" s="49"/>
+      <c r="AS31" s="49"/>
+      <c r="AT31" s="49"/>
+      <c r="AU31" s="49"/>
+      <c r="AV31" s="49"/>
+      <c r="AW31" s="49"/>
+      <c r="AX31" s="49"/>
+      <c r="AY31" s="49"/>
+      <c r="AZ31" s="49"/>
+      <c r="BA31" s="49"/>
+      <c r="BB31" s="49"/>
+      <c r="BC31" s="49"/>
+      <c r="BD31" s="49"/>
+      <c r="BE31" s="49"/>
+      <c r="BF31" s="49"/>
+      <c r="BG31" s="49"/>
+      <c r="BH31" s="49"/>
+      <c r="BI31" s="49"/>
+      <c r="BJ31" s="49"/>
+      <c r="BK31" s="49"/>
+      <c r="BL31" s="49"/>
+      <c r="BM31" s="49"/>
+      <c r="BN31" s="49"/>
+      <c r="BO31" s="49"/>
       <c r="BP31"/>
       <c r="BQ31" s="4"/>
       <c r="AMM31"/>
@@ -3342,73 +3353,73 @@
     </row>
     <row r="32" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="C32" s="54">
+      <c r="C32" s="50">
         <v>7</v>
       </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="59"/>
-      <c r="AE32" s="57"/>
-      <c r="AF32" s="57"/>
-      <c r="AG32" s="57"/>
-      <c r="AH32" s="57"/>
-      <c r="AI32" s="57"/>
-      <c r="AJ32" s="57"/>
-      <c r="AK32" s="57"/>
-      <c r="AL32" s="57"/>
-      <c r="AM32" s="57"/>
-      <c r="AN32" s="57"/>
-      <c r="AO32" s="57"/>
-      <c r="AP32" s="57"/>
-      <c r="AQ32" s="57"/>
-      <c r="AR32" s="57"/>
-      <c r="AS32" s="57"/>
-      <c r="AT32" s="57"/>
-      <c r="AU32" s="57"/>
-      <c r="AV32" s="57"/>
-      <c r="AW32" s="57"/>
-      <c r="AX32" s="57"/>
-      <c r="AY32" s="57"/>
-      <c r="AZ32" s="57"/>
-      <c r="BA32" s="57"/>
-      <c r="BB32" s="57"/>
-      <c r="BC32" s="57"/>
-      <c r="BD32" s="57"/>
-      <c r="BE32" s="57"/>
-      <c r="BF32" s="57"/>
-      <c r="BG32" s="57"/>
-      <c r="BH32" s="57"/>
-      <c r="BI32" s="57"/>
-      <c r="BJ32" s="57"/>
-      <c r="BK32" s="57"/>
-      <c r="BL32" s="57"/>
-      <c r="BM32" s="57"/>
-      <c r="BN32" s="57"/>
-      <c r="BO32" s="57"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="49"/>
+      <c r="AF32" s="49"/>
+      <c r="AG32" s="49"/>
+      <c r="AH32" s="49"/>
+      <c r="AI32" s="49"/>
+      <c r="AJ32" s="49"/>
+      <c r="AK32" s="49"/>
+      <c r="AL32" s="49"/>
+      <c r="AM32" s="49"/>
+      <c r="AN32" s="49"/>
+      <c r="AO32" s="49"/>
+      <c r="AP32" s="49"/>
+      <c r="AQ32" s="49"/>
+      <c r="AR32" s="49"/>
+      <c r="AS32" s="49"/>
+      <c r="AT32" s="49"/>
+      <c r="AU32" s="49"/>
+      <c r="AV32" s="49"/>
+      <c r="AW32" s="49"/>
+      <c r="AX32" s="49"/>
+      <c r="AY32" s="49"/>
+      <c r="AZ32" s="49"/>
+      <c r="BA32" s="49"/>
+      <c r="BB32" s="49"/>
+      <c r="BC32" s="49"/>
+      <c r="BD32" s="49"/>
+      <c r="BE32" s="49"/>
+      <c r="BF32" s="49"/>
+      <c r="BG32" s="49"/>
+      <c r="BH32" s="49"/>
+      <c r="BI32" s="49"/>
+      <c r="BJ32" s="49"/>
+      <c r="BK32" s="49"/>
+      <c r="BL32" s="49"/>
+      <c r="BM32" s="49"/>
+      <c r="BN32" s="49"/>
+      <c r="BO32" s="49"/>
       <c r="BP32"/>
       <c r="BQ32" s="4"/>
       <c r="AMM32"/>
@@ -3425,73 +3436,73 @@
     </row>
     <row r="33" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="C33" s="54">
+      <c r="C33" s="50">
         <v>8</v>
       </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="59"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="59"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="57"/>
-      <c r="AG33" s="57"/>
-      <c r="AH33" s="57"/>
-      <c r="AI33" s="57"/>
-      <c r="AJ33" s="57"/>
-      <c r="AK33" s="57"/>
-      <c r="AL33" s="57"/>
-      <c r="AM33" s="57"/>
-      <c r="AN33" s="57"/>
-      <c r="AO33" s="57"/>
-      <c r="AP33" s="57"/>
-      <c r="AQ33" s="57"/>
-      <c r="AR33" s="57"/>
-      <c r="AS33" s="57"/>
-      <c r="AT33" s="57"/>
-      <c r="AU33" s="57"/>
-      <c r="AV33" s="57"/>
-      <c r="AW33" s="57"/>
-      <c r="AX33" s="57"/>
-      <c r="AY33" s="57"/>
-      <c r="AZ33" s="57"/>
-      <c r="BA33" s="57"/>
-      <c r="BB33" s="57"/>
-      <c r="BC33" s="57"/>
-      <c r="BD33" s="57"/>
-      <c r="BE33" s="57"/>
-      <c r="BF33" s="57"/>
-      <c r="BG33" s="57"/>
-      <c r="BH33" s="57"/>
-      <c r="BI33" s="57"/>
-      <c r="BJ33" s="57"/>
-      <c r="BK33" s="57"/>
-      <c r="BL33" s="57"/>
-      <c r="BM33" s="57"/>
-      <c r="BN33" s="57"/>
-      <c r="BO33" s="57"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="49"/>
+      <c r="AF33" s="49"/>
+      <c r="AG33" s="49"/>
+      <c r="AH33" s="49"/>
+      <c r="AI33" s="49"/>
+      <c r="AJ33" s="49"/>
+      <c r="AK33" s="49"/>
+      <c r="AL33" s="49"/>
+      <c r="AM33" s="49"/>
+      <c r="AN33" s="49"/>
+      <c r="AO33" s="49"/>
+      <c r="AP33" s="49"/>
+      <c r="AQ33" s="49"/>
+      <c r="AR33" s="49"/>
+      <c r="AS33" s="49"/>
+      <c r="AT33" s="49"/>
+      <c r="AU33" s="49"/>
+      <c r="AV33" s="49"/>
+      <c r="AW33" s="49"/>
+      <c r="AX33" s="49"/>
+      <c r="AY33" s="49"/>
+      <c r="AZ33" s="49"/>
+      <c r="BA33" s="49"/>
+      <c r="BB33" s="49"/>
+      <c r="BC33" s="49"/>
+      <c r="BD33" s="49"/>
+      <c r="BE33" s="49"/>
+      <c r="BF33" s="49"/>
+      <c r="BG33" s="49"/>
+      <c r="BH33" s="49"/>
+      <c r="BI33" s="49"/>
+      <c r="BJ33" s="49"/>
+      <c r="BK33" s="49"/>
+      <c r="BL33" s="49"/>
+      <c r="BM33" s="49"/>
+      <c r="BN33" s="49"/>
+      <c r="BO33" s="49"/>
       <c r="BP33"/>
       <c r="BQ33" s="4"/>
       <c r="AMM33"/>
@@ -3508,73 +3519,73 @@
     </row>
     <row r="34" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="C34" s="54">
+      <c r="C34" s="50">
         <v>9</v>
       </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="59"/>
-      <c r="AE34" s="57"/>
-      <c r="AF34" s="57"/>
-      <c r="AG34" s="57"/>
-      <c r="AH34" s="57"/>
-      <c r="AI34" s="57"/>
-      <c r="AJ34" s="57"/>
-      <c r="AK34" s="57"/>
-      <c r="AL34" s="57"/>
-      <c r="AM34" s="57"/>
-      <c r="AN34" s="57"/>
-      <c r="AO34" s="57"/>
-      <c r="AP34" s="57"/>
-      <c r="AQ34" s="57"/>
-      <c r="AR34" s="57"/>
-      <c r="AS34" s="57"/>
-      <c r="AT34" s="57"/>
-      <c r="AU34" s="57"/>
-      <c r="AV34" s="57"/>
-      <c r="AW34" s="57"/>
-      <c r="AX34" s="57"/>
-      <c r="AY34" s="57"/>
-      <c r="AZ34" s="57"/>
-      <c r="BA34" s="57"/>
-      <c r="BB34" s="57"/>
-      <c r="BC34" s="57"/>
-      <c r="BD34" s="57"/>
-      <c r="BE34" s="57"/>
-      <c r="BF34" s="57"/>
-      <c r="BG34" s="57"/>
-      <c r="BH34" s="57"/>
-      <c r="BI34" s="57"/>
-      <c r="BJ34" s="57"/>
-      <c r="BK34" s="57"/>
-      <c r="BL34" s="57"/>
-      <c r="BM34" s="57"/>
-      <c r="BN34" s="57"/>
-      <c r="BO34" s="57"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="51"/>
+      <c r="AB34" s="51"/>
+      <c r="AC34" s="51"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="49"/>
+      <c r="AF34" s="49"/>
+      <c r="AG34" s="49"/>
+      <c r="AH34" s="49"/>
+      <c r="AI34" s="49"/>
+      <c r="AJ34" s="49"/>
+      <c r="AK34" s="49"/>
+      <c r="AL34" s="49"/>
+      <c r="AM34" s="49"/>
+      <c r="AN34" s="49"/>
+      <c r="AO34" s="49"/>
+      <c r="AP34" s="49"/>
+      <c r="AQ34" s="49"/>
+      <c r="AR34" s="49"/>
+      <c r="AS34" s="49"/>
+      <c r="AT34" s="49"/>
+      <c r="AU34" s="49"/>
+      <c r="AV34" s="49"/>
+      <c r="AW34" s="49"/>
+      <c r="AX34" s="49"/>
+      <c r="AY34" s="49"/>
+      <c r="AZ34" s="49"/>
+      <c r="BA34" s="49"/>
+      <c r="BB34" s="49"/>
+      <c r="BC34" s="49"/>
+      <c r="BD34" s="49"/>
+      <c r="BE34" s="49"/>
+      <c r="BF34" s="49"/>
+      <c r="BG34" s="49"/>
+      <c r="BH34" s="49"/>
+      <c r="BI34" s="49"/>
+      <c r="BJ34" s="49"/>
+      <c r="BK34" s="49"/>
+      <c r="BL34" s="49"/>
+      <c r="BM34" s="49"/>
+      <c r="BN34" s="49"/>
+      <c r="BO34" s="49"/>
       <c r="BP34"/>
       <c r="BQ34" s="4"/>
       <c r="AMM34"/>
@@ -3592,73 +3603,73 @@
     <row r="35" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="54">
+      <c r="C35" s="50">
         <v>10</v>
       </c>
-      <c r="D35" s="54"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
-      <c r="AA35" s="59"/>
-      <c r="AB35" s="59"/>
-      <c r="AC35" s="59"/>
-      <c r="AD35" s="59"/>
-      <c r="AE35" s="57"/>
-      <c r="AF35" s="57"/>
-      <c r="AG35" s="57"/>
-      <c r="AH35" s="57"/>
-      <c r="AI35" s="57"/>
-      <c r="AJ35" s="57"/>
-      <c r="AK35" s="57"/>
-      <c r="AL35" s="57"/>
-      <c r="AM35" s="57"/>
-      <c r="AN35" s="57"/>
-      <c r="AO35" s="57"/>
-      <c r="AP35" s="57"/>
-      <c r="AQ35" s="57"/>
-      <c r="AR35" s="57"/>
-      <c r="AS35" s="57"/>
-      <c r="AT35" s="57"/>
-      <c r="AU35" s="57"/>
-      <c r="AV35" s="57"/>
-      <c r="AW35" s="57"/>
-      <c r="AX35" s="57"/>
-      <c r="AY35" s="57"/>
-      <c r="AZ35" s="57"/>
-      <c r="BA35" s="57"/>
-      <c r="BB35" s="57"/>
-      <c r="BC35" s="57"/>
-      <c r="BD35" s="57"/>
-      <c r="BE35" s="57"/>
-      <c r="BF35" s="57"/>
-      <c r="BG35" s="57"/>
-      <c r="BH35" s="57"/>
-      <c r="BI35" s="57"/>
-      <c r="BJ35" s="57"/>
-      <c r="BK35" s="57"/>
-      <c r="BL35" s="57"/>
-      <c r="BM35" s="57"/>
-      <c r="BN35" s="57"/>
-      <c r="BO35" s="57"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="51"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="49"/>
+      <c r="AF35" s="49"/>
+      <c r="AG35" s="49"/>
+      <c r="AH35" s="49"/>
+      <c r="AI35" s="49"/>
+      <c r="AJ35" s="49"/>
+      <c r="AK35" s="49"/>
+      <c r="AL35" s="49"/>
+      <c r="AM35" s="49"/>
+      <c r="AN35" s="49"/>
+      <c r="AO35" s="49"/>
+      <c r="AP35" s="49"/>
+      <c r="AQ35" s="49"/>
+      <c r="AR35" s="49"/>
+      <c r="AS35" s="49"/>
+      <c r="AT35" s="49"/>
+      <c r="AU35" s="49"/>
+      <c r="AV35" s="49"/>
+      <c r="AW35" s="49"/>
+      <c r="AX35" s="49"/>
+      <c r="AY35" s="49"/>
+      <c r="AZ35" s="49"/>
+      <c r="BA35" s="49"/>
+      <c r="BB35" s="49"/>
+      <c r="BC35" s="49"/>
+      <c r="BD35" s="49"/>
+      <c r="BE35" s="49"/>
+      <c r="BF35" s="49"/>
+      <c r="BG35" s="49"/>
+      <c r="BH35" s="49"/>
+      <c r="BI35" s="49"/>
+      <c r="BJ35" s="49"/>
+      <c r="BK35" s="49"/>
+      <c r="BL35" s="49"/>
+      <c r="BM35" s="49"/>
+      <c r="BN35" s="49"/>
+      <c r="BO35" s="49"/>
       <c r="BP35"/>
       <c r="BQ35" s="4"/>
       <c r="AMM35"/>
@@ -4267,48 +4278,51 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="BK34:BO34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="O35:AD35"/>
-    <mergeCell ref="AE35:BC35"/>
-    <mergeCell ref="BD35:BJ35"/>
-    <mergeCell ref="BK35:BO35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD34:BJ34"/>
-    <mergeCell ref="BK32:BO32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BJ33"/>
-    <mergeCell ref="BK33:BO33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD32:BJ32"/>
-    <mergeCell ref="BK30:BO30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BJ31"/>
-    <mergeCell ref="BK31:BO31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BJ30"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="BD26:BJ26"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="BD25:BJ25"/>
+    <mergeCell ref="BK25:BO25"/>
     <mergeCell ref="BK27:BO27"/>
     <mergeCell ref="BK26:BO26"/>
     <mergeCell ref="BK28:BO28"/>
@@ -4333,51 +4347,48 @@
     <mergeCell ref="BD27:BJ27"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="BD26:BJ26"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="BD25:BJ25"/>
-    <mergeCell ref="BK25:BO25"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BK30:BO30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BJ31"/>
+    <mergeCell ref="BK31:BO31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BJ30"/>
+    <mergeCell ref="BK32:BO32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BJ33"/>
+    <mergeCell ref="BK33:BO33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD32:BJ32"/>
+    <mergeCell ref="BK34:BO34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="O35:AD35"/>
+    <mergeCell ref="AE35:BC35"/>
+    <mergeCell ref="BD35:BJ35"/>
+    <mergeCell ref="BK35:BO35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD34:BJ34"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -4448,243 +4459,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69" t="s">
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="70" t="s">
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="70"/>
-      <c r="AV1" s="70"/>
-      <c r="AW1" s="70"/>
-      <c r="AX1" s="70"/>
-      <c r="AY1" s="70"/>
-      <c r="AZ1" s="70"/>
-      <c r="BA1" s="70"/>
-      <c r="BB1" s="70"/>
-      <c r="BC1" s="70"/>
-      <c r="BD1" s="70"/>
-      <c r="BE1" s="70"/>
-      <c r="BF1" s="70"/>
-      <c r="BG1" s="70"/>
-      <c r="BH1" s="70"/>
-      <c r="BI1" s="70"/>
-      <c r="BJ1" s="70"/>
-      <c r="BK1" s="70"/>
-      <c r="BL1" s="70"/>
-      <c r="BM1" s="70"/>
-      <c r="BN1" s="70"/>
-      <c r="BO1" s="70"/>
-      <c r="BP1" s="70"/>
-      <c r="BQ1" s="70"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79"/>
+      <c r="AY1" s="79"/>
+      <c r="AZ1" s="79"/>
+      <c r="BA1" s="79"/>
+      <c r="BB1" s="79"/>
+      <c r="BC1" s="79"/>
+      <c r="BD1" s="79"/>
+      <c r="BE1" s="79"/>
+      <c r="BF1" s="79"/>
+      <c r="BG1" s="79"/>
+      <c r="BH1" s="79"/>
+      <c r="BI1" s="79"/>
+      <c r="BJ1" s="79"/>
+      <c r="BK1" s="79"/>
+      <c r="BL1" s="79"/>
+      <c r="BM1" s="79"/>
+      <c r="BN1" s="79"/>
+      <c r="BO1" s="79"/>
+      <c r="BP1" s="79"/>
+      <c r="BQ1" s="79"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="60" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="71" t="s">
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="71"/>
-      <c r="AP2" s="71"/>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="71"/>
-      <c r="AS2" s="71"/>
-      <c r="AT2" s="71" t="s">
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="AU2" s="71"/>
-      <c r="AV2" s="71"/>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="71"/>
-      <c r="AY2" s="71"/>
-      <c r="AZ2" s="71"/>
-      <c r="BA2" s="71"/>
-      <c r="BB2" s="71" t="s">
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="71"/>
-      <c r="BD2" s="71"/>
-      <c r="BE2" s="71"/>
-      <c r="BF2" s="71"/>
-      <c r="BG2" s="71"/>
-      <c r="BH2" s="71"/>
-      <c r="BI2" s="71"/>
-      <c r="BJ2" s="72"/>
-      <c r="BK2" s="72"/>
-      <c r="BL2" s="72"/>
-      <c r="BM2" s="72"/>
-      <c r="BN2" s="72"/>
-      <c r="BO2" s="72"/>
-      <c r="BP2" s="72"/>
-      <c r="BQ2" s="72"/>
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="69"/>
+      <c r="BH2" s="69"/>
+      <c r="BI2" s="69"/>
+      <c r="BJ2" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="BK2" s="80"/>
+      <c r="BL2" s="80"/>
+      <c r="BM2" s="80"/>
+      <c r="BN2" s="80"/>
+      <c r="BO2" s="80"/>
+      <c r="BP2" s="80"/>
+      <c r="BQ2" s="80"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="73" t="s">
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="73"/>
-      <c r="AP3" s="73"/>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="73"/>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="74">
+      <c r="AL3" s="81"/>
+      <c r="AM3" s="81"/>
+      <c r="AN3" s="81"/>
+      <c r="AO3" s="81"/>
+      <c r="AP3" s="81"/>
+      <c r="AQ3" s="81"/>
+      <c r="AR3" s="81"/>
+      <c r="AS3" s="81"/>
+      <c r="AT3" s="82">
         <v>45510</v>
       </c>
-      <c r="AU3" s="74"/>
-      <c r="AV3" s="74"/>
-      <c r="AW3" s="74"/>
-      <c r="AX3" s="74"/>
-      <c r="AY3" s="74"/>
-      <c r="AZ3" s="74"/>
-      <c r="BA3" s="74"/>
-      <c r="BB3" s="73" t="s">
+      <c r="AU3" s="82"/>
+      <c r="AV3" s="82"/>
+      <c r="AW3" s="82"/>
+      <c r="AX3" s="82"/>
+      <c r="AY3" s="82"/>
+      <c r="AZ3" s="82"/>
+      <c r="BA3" s="82"/>
+      <c r="BB3" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="73"/>
-      <c r="BD3" s="73"/>
-      <c r="BE3" s="73"/>
-      <c r="BF3" s="73"/>
-      <c r="BG3" s="73"/>
-      <c r="BH3" s="73"/>
-      <c r="BI3" s="73"/>
-      <c r="BJ3" s="75"/>
-      <c r="BK3" s="75"/>
-      <c r="BL3" s="75"/>
-      <c r="BM3" s="75"/>
-      <c r="BN3" s="75"/>
-      <c r="BO3" s="75"/>
-      <c r="BP3" s="75"/>
-      <c r="BQ3" s="75"/>
+      <c r="BC3" s="81"/>
+      <c r="BD3" s="81"/>
+      <c r="BE3" s="81"/>
+      <c r="BF3" s="81"/>
+      <c r="BG3" s="81"/>
+      <c r="BH3" s="81"/>
+      <c r="BI3" s="81"/>
+      <c r="BJ3" s="83">
+        <v>45548</v>
+      </c>
+      <c r="BK3" s="83"/>
+      <c r="BL3" s="83"/>
+      <c r="BM3" s="83"/>
+      <c r="BN3" s="83"/>
+      <c r="BO3" s="83"/>
+      <c r="BP3" s="83"/>
+      <c r="BQ3" s="83"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -4709,20 +4724,20 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54" t="s">
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
       <c r="M6" s="76" t="s">
         <v>28</v>
       </c>
@@ -4753,52 +4768,52 @@
       <c r="AL6" s="76"/>
       <c r="AM6" s="76"/>
       <c r="AN6" s="76"/>
-      <c r="AO6" s="57" t="s">
+      <c r="AO6" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="57"/>
-      <c r="AQ6" s="57"/>
-      <c r="AR6" s="57"/>
-      <c r="AS6" s="57"/>
-      <c r="AT6" s="57"/>
-      <c r="AU6" s="57"/>
-      <c r="AV6" s="57" t="s">
+      <c r="AP6" s="49"/>
+      <c r="AQ6" s="49"/>
+      <c r="AR6" s="49"/>
+      <c r="AS6" s="49"/>
+      <c r="AT6" s="49"/>
+      <c r="AU6" s="49"/>
+      <c r="AV6" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="57"/>
-      <c r="AX6" s="57"/>
-      <c r="AY6" s="57"/>
-      <c r="AZ6" s="57"/>
-      <c r="BA6" s="57"/>
-      <c r="BB6" s="57"/>
-      <c r="BC6" s="57"/>
-      <c r="BD6" s="57"/>
-      <c r="BE6" s="57"/>
-      <c r="BF6" s="57"/>
-      <c r="BG6" s="57"/>
-      <c r="BH6" s="57"/>
-      <c r="BI6" s="57"/>
-      <c r="BJ6" s="57"/>
-      <c r="BK6" s="57"/>
-      <c r="BL6" s="57"/>
-      <c r="BM6" s="57"/>
-      <c r="BN6" s="57"/>
-      <c r="BO6" s="57"/>
-      <c r="BP6" s="57"/>
+      <c r="AW6" s="49"/>
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="49"/>
+      <c r="AZ6" s="49"/>
+      <c r="BA6" s="49"/>
+      <c r="BB6" s="49"/>
+      <c r="BC6" s="49"/>
+      <c r="BD6" s="49"/>
+      <c r="BE6" s="49"/>
+      <c r="BF6" s="49"/>
+      <c r="BG6" s="49"/>
+      <c r="BH6" s="49"/>
+      <c r="BI6" s="49"/>
+      <c r="BJ6" s="49"/>
+      <c r="BK6" s="49"/>
+      <c r="BL6" s="49"/>
+      <c r="BM6" s="49"/>
+      <c r="BN6" s="49"/>
+      <c r="BO6" s="49"/>
+      <c r="BP6" s="49"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
       <c r="M7" s="17" t="s">
         <v>58</v>
       </c>
@@ -4829,38 +4844,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="57" t="s">
+      <c r="AO7" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="57"/>
-      <c r="AU7" s="57"/>
-      <c r="AV7" s="57" t="s">
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="49"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="AW7" s="57"/>
-      <c r="AX7" s="57"/>
-      <c r="AY7" s="57"/>
-      <c r="AZ7" s="57"/>
-      <c r="BA7" s="57"/>
-      <c r="BB7" s="57"/>
-      <c r="BC7" s="57"/>
-      <c r="BD7" s="57"/>
-      <c r="BE7" s="57"/>
-      <c r="BF7" s="57"/>
-      <c r="BG7" s="57"/>
-      <c r="BH7" s="57"/>
-      <c r="BI7" s="57"/>
-      <c r="BJ7" s="57"/>
-      <c r="BK7" s="57"/>
-      <c r="BL7" s="57"/>
-      <c r="BM7" s="57"/>
-      <c r="BN7" s="57"/>
-      <c r="BO7" s="57"/>
-      <c r="BP7" s="57"/>
+      <c r="AW7" s="49"/>
+      <c r="AX7" s="49"/>
+      <c r="AY7" s="49"/>
+      <c r="AZ7" s="49"/>
+      <c r="BA7" s="49"/>
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="49"/>
+      <c r="BD7" s="49"/>
+      <c r="BE7" s="49"/>
+      <c r="BF7" s="49"/>
+      <c r="BG7" s="49"/>
+      <c r="BH7" s="49"/>
+      <c r="BI7" s="49"/>
+      <c r="BJ7" s="49"/>
+      <c r="BK7" s="49"/>
+      <c r="BL7" s="49"/>
+      <c r="BM7" s="49"/>
+      <c r="BN7" s="49"/>
+      <c r="BO7" s="49"/>
+      <c r="BP7" s="49"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -4874,89 +4889,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="71" t="s">
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71" t="s">
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="78" t="s">
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="79"/>
-      <c r="AM10" s="79"/>
-      <c r="AN10" s="79"/>
-      <c r="AO10" s="79"/>
-      <c r="AP10" s="79"/>
-      <c r="AQ10" s="79"/>
-      <c r="AR10" s="79"/>
-      <c r="AS10" s="79"/>
-      <c r="AT10" s="79"/>
-      <c r="AU10" s="79"/>
-      <c r="AV10" s="79"/>
-      <c r="AW10" s="79"/>
-      <c r="AX10" s="79"/>
-      <c r="AY10" s="79"/>
-      <c r="AZ10" s="79"/>
-      <c r="BA10" s="79"/>
-      <c r="BB10" s="79"/>
-      <c r="BC10" s="79"/>
-      <c r="BD10" s="79"/>
-      <c r="BE10" s="79"/>
-      <c r="BF10" s="79"/>
-      <c r="BG10" s="79"/>
-      <c r="BH10" s="79"/>
-      <c r="BI10" s="80"/>
-      <c r="BJ10" s="54" t="s">
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="74"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="74"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="74"/>
+      <c r="AX10" s="74"/>
+      <c r="AY10" s="74"/>
+      <c r="AZ10" s="74"/>
+      <c r="BA10" s="74"/>
+      <c r="BB10" s="74"/>
+      <c r="BC10" s="74"/>
+      <c r="BD10" s="74"/>
+      <c r="BE10" s="74"/>
+      <c r="BF10" s="74"/>
+      <c r="BG10" s="74"/>
+      <c r="BH10" s="74"/>
+      <c r="BI10" s="75"/>
+      <c r="BJ10" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="54"/>
-      <c r="BL10" s="54"/>
-      <c r="BM10" s="54"/>
-      <c r="BN10" s="54"/>
-      <c r="BO10" s="54"/>
-      <c r="BP10" s="54"/>
+      <c r="BK10" s="50"/>
+      <c r="BL10" s="50"/>
+      <c r="BM10" s="50"/>
+      <c r="BN10" s="50"/>
+      <c r="BO10" s="50"/>
+      <c r="BP10" s="50"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="17" t="s">
         <v>66</v>
       </c>
@@ -4972,11 +4987,11 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="71" t="s">
+      <c r="T11" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="71"/>
-      <c r="V11" s="82"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="72"/>
       <c r="W11" s="38" t="s">
         <v>65</v>
       </c>
@@ -5028,10 +5043,10 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -5044,9 +5059,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
       <c r="W12" s="38"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -5095,10 +5110,10 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -5112,9 +5127,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
       <c r="W13" s="38"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -5163,10 +5178,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -5180,9 +5195,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
       <c r="W14" s="38"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -5231,10 +5246,10 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -5248,9 +5263,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
       <c r="W15" s="38"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -5310,88 +5325,88 @@
       <c r="AG17" s="16"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="71" t="s">
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71" t="s">
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="54" t="s">
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="54"/>
-      <c r="AF18" s="54"/>
-      <c r="AG18" s="54"/>
-      <c r="AH18" s="54"/>
-      <c r="AI18" s="54"/>
-      <c r="AJ18" s="54"/>
-      <c r="AK18" s="54"/>
-      <c r="AL18" s="54"/>
-      <c r="AM18" s="54"/>
-      <c r="AN18" s="54"/>
-      <c r="AO18" s="54"/>
-      <c r="AP18" s="54"/>
-      <c r="AQ18" s="54"/>
-      <c r="AR18" s="54"/>
-      <c r="AS18" s="54"/>
-      <c r="AT18" s="54"/>
-      <c r="AU18" s="54"/>
-      <c r="AV18" s="54"/>
-      <c r="AW18" s="54"/>
-      <c r="AX18" s="54"/>
-      <c r="AY18" s="54"/>
-      <c r="AZ18" s="54"/>
-      <c r="BA18" s="54"/>
-      <c r="BB18" s="54"/>
-      <c r="BC18" s="54"/>
-      <c r="BD18" s="54"/>
-      <c r="BE18" s="54"/>
-      <c r="BF18" s="54"/>
-      <c r="BG18" s="54"/>
-      <c r="BH18" s="54"/>
-      <c r="BI18" s="54"/>
-      <c r="BJ18" s="54" t="s">
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="50"/>
+      <c r="AI18" s="50"/>
+      <c r="AJ18" s="50"/>
+      <c r="AK18" s="50"/>
+      <c r="AL18" s="50"/>
+      <c r="AM18" s="50"/>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="50"/>
+      <c r="AU18" s="50"/>
+      <c r="AV18" s="50"/>
+      <c r="AW18" s="50"/>
+      <c r="AX18" s="50"/>
+      <c r="AY18" s="50"/>
+      <c r="AZ18" s="50"/>
+      <c r="BA18" s="50"/>
+      <c r="BB18" s="50"/>
+      <c r="BC18" s="50"/>
+      <c r="BD18" s="50"/>
+      <c r="BE18" s="50"/>
+      <c r="BF18" s="50"/>
+      <c r="BG18" s="50"/>
+      <c r="BH18" s="50"/>
+      <c r="BI18" s="50"/>
+      <c r="BJ18" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="BK18" s="54"/>
-      <c r="BL18" s="54"/>
-      <c r="BM18" s="54"/>
-      <c r="BN18" s="54"/>
-      <c r="BO18" s="54"/>
-      <c r="BP18" s="54"/>
+      <c r="BK18" s="50"/>
+      <c r="BL18" s="50"/>
+      <c r="BM18" s="50"/>
+      <c r="BN18" s="50"/>
+      <c r="BO18" s="50"/>
+      <c r="BP18" s="50"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
       <c r="G19" s="17" t="s">
         <v>63</v>
       </c>
@@ -5407,11 +5422,11 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="71" t="s">
+      <c r="T19" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="U19" s="71"/>
-      <c r="V19" s="71"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
       <c r="W19" s="21" t="s">
         <v>67</v>
       </c>
@@ -5960,37 +5975,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -6005,6 +5989,37 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">

--- a/交通費申請一覧機能/設計書/マッパー設計書_ユーザマスタ.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_ユーザマスタ.xlsx
@@ -5,23 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\新フォーマット格納所\交通費申請一覧機能\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B07899-4920-4A69-B21C-2C718EBA1B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BD8454-4AB1-4F8A-9AC9-82A5E7A3AEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_ユーザマスターマッパー" sheetId="10" r:id="rId1"/>
     <sheet name="ユーザ取得" sheetId="14" r:id="rId2"/>
-    <sheet name="表示用Id名前クラス" sheetId="15" r:id="rId3"/>
-    <sheet name="マスタ" sheetId="6" r:id="rId4"/>
+    <sheet name="全社員情報取得" sheetId="17" r:id="rId3"/>
+    <sheet name="表示用Id名前クラス" sheetId="15" r:id="rId4"/>
+    <sheet name="マスタ" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">クラス概要_ユーザマスターマッパー!$A$1:$BQ$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">ユーザ取得!$A$1:$BQ$32</definedName>
-    <definedName name="範囲１" localSheetId="2">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">全社員情報取得!$A$1:$BQ$32</definedName>
+    <definedName name="範囲１" localSheetId="3">#REF!</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="88">
   <si>
     <t>システム名</t>
   </si>
@@ -498,6 +500,37 @@
     <t>嵯峨</t>
     <rPh sb="0" eb="2">
       <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>全社員情報取得</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンシャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>全社員情報取得</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>全社員の全項目レコードデータ</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンシャイン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ゼンコウモク</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -1055,45 +1088,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="4" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1109,32 +1103,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1144,6 +1152,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1156,6 +1167,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
@@ -1378,247 +1411,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="64" t="s">
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="64"/>
-      <c r="BC1" s="64"/>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="64"/>
-      <c r="BF1" s="64"/>
-      <c r="BG1" s="64"/>
-      <c r="BH1" s="64"/>
-      <c r="BI1" s="64"/>
-      <c r="BJ1" s="64"/>
-      <c r="BK1" s="64"/>
-      <c r="BL1" s="64"/>
-      <c r="BM1" s="64"/>
-      <c r="BN1" s="64"/>
-      <c r="BO1" s="64"/>
-      <c r="BP1" s="64"/>
-      <c r="BQ1" s="64"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="51"/>
+      <c r="BB1" s="51"/>
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51"/>
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="51"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
+      <c r="BJ1" s="51"/>
+      <c r="BK1" s="51"/>
+      <c r="BL1" s="51"/>
+      <c r="BM1" s="51"/>
+      <c r="BN1" s="51"/>
+      <c r="BO1" s="51"/>
+      <c r="BP1" s="51"/>
+      <c r="BQ1" s="51"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="50" t="s">
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="50" t="s">
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="50"/>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="50" t="s">
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="50"/>
-      <c r="BD2" s="50"/>
-      <c r="BE2" s="50"/>
-      <c r="BF2" s="50"/>
-      <c r="BG2" s="50"/>
-      <c r="BH2" s="50"/>
-      <c r="BI2" s="50"/>
-      <c r="BJ2" s="67" t="s">
+      <c r="BC2" s="54"/>
+      <c r="BD2" s="54"/>
+      <c r="BE2" s="54"/>
+      <c r="BF2" s="54"/>
+      <c r="BG2" s="54"/>
+      <c r="BH2" s="54"/>
+      <c r="BI2" s="54"/>
+      <c r="BJ2" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="BK2" s="67"/>
-      <c r="BL2" s="67"/>
-      <c r="BM2" s="67"/>
-      <c r="BN2" s="67"/>
-      <c r="BO2" s="67"/>
-      <c r="BP2" s="67"/>
-      <c r="BQ2" s="67"/>
+      <c r="BK2" s="55"/>
+      <c r="BL2" s="55"/>
+      <c r="BM2" s="55"/>
+      <c r="BN2" s="55"/>
+      <c r="BO2" s="55"/>
+      <c r="BP2" s="55"/>
+      <c r="BQ2" s="55"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="58" t="s">
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="58"/>
-      <c r="AP3" s="58"/>
-      <c r="AQ3" s="58"/>
-      <c r="AR3" s="58"/>
-      <c r="AS3" s="58"/>
-      <c r="AT3" s="59">
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="60"/>
+      <c r="AR3" s="60"/>
+      <c r="AS3" s="60"/>
+      <c r="AT3" s="61">
         <v>45511</v>
       </c>
-      <c r="AU3" s="59"/>
-      <c r="AV3" s="59"/>
-      <c r="AW3" s="59"/>
-      <c r="AX3" s="59"/>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="59"/>
-      <c r="BA3" s="59"/>
-      <c r="BB3" s="58" t="s">
+      <c r="AU3" s="61"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="61"/>
+      <c r="AX3" s="61"/>
+      <c r="AY3" s="61"/>
+      <c r="AZ3" s="61"/>
+      <c r="BA3" s="61"/>
+      <c r="BB3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="58"/>
-      <c r="BD3" s="58"/>
-      <c r="BE3" s="58"/>
-      <c r="BF3" s="58"/>
-      <c r="BG3" s="58"/>
-      <c r="BH3" s="58"/>
-      <c r="BI3" s="58"/>
-      <c r="BJ3" s="60">
+      <c r="BC3" s="60"/>
+      <c r="BD3" s="60"/>
+      <c r="BE3" s="60"/>
+      <c r="BF3" s="60"/>
+      <c r="BG3" s="60"/>
+      <c r="BH3" s="60"/>
+      <c r="BI3" s="60"/>
+      <c r="BJ3" s="62">
         <v>45548</v>
       </c>
-      <c r="BK3" s="60"/>
-      <c r="BL3" s="60"/>
-      <c r="BM3" s="60"/>
-      <c r="BN3" s="60"/>
-      <c r="BO3" s="60"/>
-      <c r="BP3" s="60"/>
-      <c r="BQ3" s="60"/>
+      <c r="BK3" s="62"/>
+      <c r="BL3" s="62"/>
+      <c r="BM3" s="62"/>
+      <c r="BN3" s="62"/>
+      <c r="BO3" s="62"/>
+      <c r="BP3" s="62"/>
+      <c r="BQ3" s="62"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -1685,213 +1718,213 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="61"/>
-      <c r="AG6" s="61"/>
-      <c r="AH6" s="61"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="61"/>
-      <c r="AK6" s="61"/>
-      <c r="AL6" s="61"/>
-      <c r="AM6" s="61"/>
-      <c r="AN6" s="61"/>
-      <c r="AO6" s="61"/>
-      <c r="AP6" s="61"/>
-      <c r="AQ6" s="61"/>
-      <c r="AR6" s="61"/>
-      <c r="AS6" s="61"/>
-      <c r="AT6" s="61"/>
-      <c r="AU6" s="61"/>
-      <c r="AV6" s="61"/>
-      <c r="AW6" s="61"/>
-      <c r="AX6" s="61"/>
-      <c r="AY6" s="61"/>
-      <c r="AZ6" s="61"/>
-      <c r="BA6" s="61"/>
-      <c r="BB6" s="61"/>
-      <c r="BC6" s="61"/>
-      <c r="BD6" s="61"/>
-      <c r="BE6" s="61"/>
-      <c r="BF6" s="61"/>
-      <c r="BG6" s="61"/>
-      <c r="BH6" s="61"/>
-      <c r="BI6" s="61"/>
-      <c r="BJ6" s="61"/>
-      <c r="BK6" s="61"/>
-      <c r="BL6" s="61"/>
-      <c r="BM6" s="61"/>
-      <c r="BN6" s="61"/>
-      <c r="BO6" s="61"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="63"/>
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="63"/>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="63"/>
+      <c r="AG6" s="63"/>
+      <c r="AH6" s="63"/>
+      <c r="AI6" s="63"/>
+      <c r="AJ6" s="63"/>
+      <c r="AK6" s="63"/>
+      <c r="AL6" s="63"/>
+      <c r="AM6" s="63"/>
+      <c r="AN6" s="63"/>
+      <c r="AO6" s="63"/>
+      <c r="AP6" s="63"/>
+      <c r="AQ6" s="63"/>
+      <c r="AR6" s="63"/>
+      <c r="AS6" s="63"/>
+      <c r="AT6" s="63"/>
+      <c r="AU6" s="63"/>
+      <c r="AV6" s="63"/>
+      <c r="AW6" s="63"/>
+      <c r="AX6" s="63"/>
+      <c r="AY6" s="63"/>
+      <c r="AZ6" s="63"/>
+      <c r="BA6" s="63"/>
+      <c r="BB6" s="63"/>
+      <c r="BC6" s="63"/>
+      <c r="BD6" s="63"/>
+      <c r="BE6" s="63"/>
+      <c r="BF6" s="63"/>
+      <c r="BG6" s="63"/>
+      <c r="BH6" s="63"/>
+      <c r="BI6" s="63"/>
+      <c r="BJ6" s="63"/>
+      <c r="BK6" s="63"/>
+      <c r="BL6" s="63"/>
+      <c r="BM6" s="63"/>
+      <c r="BN6" s="63"/>
+      <c r="BO6" s="63"/>
       <c r="BP6"/>
       <c r="BQ6" s="4"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="61"/>
-      <c r="AF7" s="61"/>
-      <c r="AG7" s="61"/>
-      <c r="AH7" s="61"/>
-      <c r="AI7" s="61"/>
-      <c r="AJ7" s="61"/>
-      <c r="AK7" s="61"/>
-      <c r="AL7" s="61"/>
-      <c r="AM7" s="61"/>
-      <c r="AN7" s="61"/>
-      <c r="AO7" s="61"/>
-      <c r="AP7" s="61"/>
-      <c r="AQ7" s="61"/>
-      <c r="AR7" s="61"/>
-      <c r="AS7" s="61"/>
-      <c r="AT7" s="61"/>
-      <c r="AU7" s="61"/>
-      <c r="AV7" s="61"/>
-      <c r="AW7" s="61"/>
-      <c r="AX7" s="61"/>
-      <c r="AY7" s="61"/>
-      <c r="AZ7" s="61"/>
-      <c r="BA7" s="61"/>
-      <c r="BB7" s="61"/>
-      <c r="BC7" s="61"/>
-      <c r="BD7" s="61"/>
-      <c r="BE7" s="61"/>
-      <c r="BF7" s="61"/>
-      <c r="BG7" s="61"/>
-      <c r="BH7" s="61"/>
-      <c r="BI7" s="61"/>
-      <c r="BJ7" s="61"/>
-      <c r="BK7" s="61"/>
-      <c r="BL7" s="61"/>
-      <c r="BM7" s="61"/>
-      <c r="BN7" s="61"/>
-      <c r="BO7" s="61"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="63"/>
+      <c r="AD7" s="63"/>
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="63"/>
+      <c r="AG7" s="63"/>
+      <c r="AH7" s="63"/>
+      <c r="AI7" s="63"/>
+      <c r="AJ7" s="63"/>
+      <c r="AK7" s="63"/>
+      <c r="AL7" s="63"/>
+      <c r="AM7" s="63"/>
+      <c r="AN7" s="63"/>
+      <c r="AO7" s="63"/>
+      <c r="AP7" s="63"/>
+      <c r="AQ7" s="63"/>
+      <c r="AR7" s="63"/>
+      <c r="AS7" s="63"/>
+      <c r="AT7" s="63"/>
+      <c r="AU7" s="63"/>
+      <c r="AV7" s="63"/>
+      <c r="AW7" s="63"/>
+      <c r="AX7" s="63"/>
+      <c r="AY7" s="63"/>
+      <c r="AZ7" s="63"/>
+      <c r="BA7" s="63"/>
+      <c r="BB7" s="63"/>
+      <c r="BC7" s="63"/>
+      <c r="BD7" s="63"/>
+      <c r="BE7" s="63"/>
+      <c r="BF7" s="63"/>
+      <c r="BG7" s="63"/>
+      <c r="BH7" s="63"/>
+      <c r="BI7" s="63"/>
+      <c r="BJ7" s="63"/>
+      <c r="BK7" s="63"/>
+      <c r="BL7" s="63"/>
+      <c r="BM7" s="63"/>
+      <c r="BN7" s="63"/>
+      <c r="BO7" s="63"/>
       <c r="BP7"/>
       <c r="BQ7" s="4"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="57"/>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="57"/>
-      <c r="AF8" s="57"/>
-      <c r="AG8" s="57"/>
-      <c r="AH8" s="57"/>
-      <c r="AI8" s="57"/>
-      <c r="AJ8" s="57"/>
-      <c r="AK8" s="57"/>
-      <c r="AL8" s="57"/>
-      <c r="AM8" s="57"/>
-      <c r="AN8" s="57"/>
-      <c r="AO8" s="57"/>
-      <c r="AP8" s="57"/>
-      <c r="AQ8" s="57"/>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="57"/>
-      <c r="AT8" s="57"/>
-      <c r="AU8" s="57"/>
-      <c r="AV8" s="57"/>
-      <c r="AW8" s="57"/>
-      <c r="AX8" s="57"/>
-      <c r="AY8" s="57"/>
-      <c r="AZ8" s="57"/>
-      <c r="BA8" s="57"/>
-      <c r="BB8" s="57"/>
-      <c r="BC8" s="57"/>
-      <c r="BD8" s="57"/>
-      <c r="BE8" s="57"/>
-      <c r="BF8" s="57"/>
-      <c r="BG8" s="57"/>
-      <c r="BH8" s="57"/>
-      <c r="BI8" s="57"/>
-      <c r="BJ8" s="57"/>
-      <c r="BK8" s="57"/>
-      <c r="BL8" s="57"/>
-      <c r="BM8" s="57"/>
-      <c r="BN8" s="57"/>
-      <c r="BO8" s="57"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
+      <c r="AN8" s="56"/>
+      <c r="AO8" s="56"/>
+      <c r="AP8" s="56"/>
+      <c r="AQ8" s="56"/>
+      <c r="AR8" s="56"/>
+      <c r="AS8" s="56"/>
+      <c r="AT8" s="56"/>
+      <c r="AU8" s="56"/>
+      <c r="AV8" s="56"/>
+      <c r="AW8" s="56"/>
+      <c r="AX8" s="56"/>
+      <c r="AY8" s="56"/>
+      <c r="AZ8" s="56"/>
+      <c r="BA8" s="56"/>
+      <c r="BB8" s="56"/>
+      <c r="BC8" s="56"/>
+      <c r="BD8" s="56"/>
+      <c r="BE8" s="56"/>
+      <c r="BF8" s="56"/>
+      <c r="BG8" s="56"/>
+      <c r="BH8" s="56"/>
+      <c r="BI8" s="56"/>
+      <c r="BJ8" s="56"/>
+      <c r="BK8" s="56"/>
+      <c r="BL8" s="56"/>
+      <c r="BM8" s="56"/>
+      <c r="BN8" s="56"/>
+      <c r="BO8" s="56"/>
       <c r="BP8"/>
       <c r="BQ8" s="4"/>
     </row>
@@ -1944,787 +1977,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="50" t="s">
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="49" t="s">
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="49"/>
-      <c r="AH11" s="49"/>
-      <c r="AI11" s="53" t="s">
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="57"/>
+      <c r="AI11" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AJ11" s="53"/>
-      <c r="AK11" s="53"/>
-      <c r="AL11" s="53"/>
-      <c r="AM11" s="53"/>
-      <c r="AN11" s="53"/>
-      <c r="AO11" s="53"/>
-      <c r="AP11" s="53"/>
-      <c r="AQ11" s="53"/>
-      <c r="AR11" s="53"/>
-      <c r="AS11" s="53"/>
-      <c r="AT11" s="53"/>
-      <c r="AU11" s="53"/>
-      <c r="AV11" s="53"/>
-      <c r="AW11" s="53"/>
-      <c r="AX11" s="53"/>
-      <c r="AY11" s="53"/>
-      <c r="AZ11" s="53"/>
-      <c r="BA11" s="53"/>
-      <c r="BB11" s="53"/>
-      <c r="BC11" s="53"/>
-      <c r="BD11" s="53"/>
-      <c r="BE11" s="53"/>
-      <c r="BF11" s="53"/>
-      <c r="BG11" s="53"/>
-      <c r="BH11" s="53"/>
-      <c r="BI11" s="53"/>
-      <c r="BJ11" s="53"/>
-      <c r="BK11" s="53"/>
-      <c r="BL11" s="53"/>
-      <c r="BM11" s="53"/>
-      <c r="BN11" s="53"/>
-      <c r="BO11" s="53"/>
+      <c r="AJ11" s="58"/>
+      <c r="AK11" s="58"/>
+      <c r="AL11" s="58"/>
+      <c r="AM11" s="58"/>
+      <c r="AN11" s="58"/>
+      <c r="AO11" s="58"/>
+      <c r="AP11" s="58"/>
+      <c r="AQ11" s="58"/>
+      <c r="AR11" s="58"/>
+      <c r="AS11" s="58"/>
+      <c r="AT11" s="58"/>
+      <c r="AU11" s="58"/>
+      <c r="AV11" s="58"/>
+      <c r="AW11" s="58"/>
+      <c r="AX11" s="58"/>
+      <c r="AY11" s="58"/>
+      <c r="AZ11" s="58"/>
+      <c r="BA11" s="58"/>
+      <c r="BB11" s="58"/>
+      <c r="BC11" s="58"/>
+      <c r="BD11" s="58"/>
+      <c r="BE11" s="58"/>
+      <c r="BF11" s="58"/>
+      <c r="BG11" s="58"/>
+      <c r="BH11" s="58"/>
+      <c r="BI11" s="58"/>
+      <c r="BJ11" s="58"/>
+      <c r="BK11" s="58"/>
+      <c r="BL11" s="58"/>
+      <c r="BM11" s="58"/>
+      <c r="BN11" s="58"/>
+      <c r="BO11" s="58"/>
       <c r="BP11"/>
       <c r="BQ11" s="4"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="51"/>
-      <c r="AF12" s="51"/>
-      <c r="AG12" s="51"/>
-      <c r="AH12" s="51"/>
-      <c r="AI12" s="51"/>
-      <c r="AJ12" s="51"/>
-      <c r="AK12" s="51"/>
-      <c r="AL12" s="51"/>
-      <c r="AM12" s="51"/>
-      <c r="AN12" s="51"/>
-      <c r="AO12" s="51"/>
-      <c r="AP12" s="51"/>
-      <c r="AQ12" s="51"/>
-      <c r="AR12" s="51"/>
-      <c r="AS12" s="51"/>
-      <c r="AT12" s="51"/>
-      <c r="AU12" s="51"/>
-      <c r="AV12" s="51"/>
-      <c r="AW12" s="51"/>
-      <c r="AX12" s="51"/>
-      <c r="AY12" s="51"/>
-      <c r="AZ12" s="51"/>
-      <c r="BA12" s="51"/>
-      <c r="BB12" s="51"/>
-      <c r="BC12" s="51"/>
-      <c r="BD12" s="51"/>
-      <c r="BE12" s="51"/>
-      <c r="BF12" s="51"/>
-      <c r="BG12" s="51"/>
-      <c r="BH12" s="51"/>
-      <c r="BI12" s="51"/>
-      <c r="BJ12" s="51"/>
-      <c r="BK12" s="51"/>
-      <c r="BL12" s="51"/>
-      <c r="BM12" s="51"/>
-      <c r="BN12" s="51"/>
-      <c r="BO12" s="51"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="59"/>
+      <c r="AJ12" s="59"/>
+      <c r="AK12" s="59"/>
+      <c r="AL12" s="59"/>
+      <c r="AM12" s="59"/>
+      <c r="AN12" s="59"/>
+      <c r="AO12" s="59"/>
+      <c r="AP12" s="59"/>
+      <c r="AQ12" s="59"/>
+      <c r="AR12" s="59"/>
+      <c r="AS12" s="59"/>
+      <c r="AT12" s="59"/>
+      <c r="AU12" s="59"/>
+      <c r="AV12" s="59"/>
+      <c r="AW12" s="59"/>
+      <c r="AX12" s="59"/>
+      <c r="AY12" s="59"/>
+      <c r="AZ12" s="59"/>
+      <c r="BA12" s="59"/>
+      <c r="BB12" s="59"/>
+      <c r="BC12" s="59"/>
+      <c r="BD12" s="59"/>
+      <c r="BE12" s="59"/>
+      <c r="BF12" s="59"/>
+      <c r="BG12" s="59"/>
+      <c r="BH12" s="59"/>
+      <c r="BI12" s="59"/>
+      <c r="BJ12" s="59"/>
+      <c r="BK12" s="59"/>
+      <c r="BL12" s="59"/>
+      <c r="BM12" s="59"/>
+      <c r="BN12" s="59"/>
+      <c r="BO12" s="59"/>
       <c r="BP12"/>
       <c r="BQ12" s="4"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="51"/>
-      <c r="AF13" s="51"/>
-      <c r="AG13" s="51"/>
-      <c r="AH13" s="51"/>
-      <c r="AI13" s="51"/>
-      <c r="AJ13" s="51"/>
-      <c r="AK13" s="51"/>
-      <c r="AL13" s="51"/>
-      <c r="AM13" s="51"/>
-      <c r="AN13" s="51"/>
-      <c r="AO13" s="51"/>
-      <c r="AP13" s="51"/>
-      <c r="AQ13" s="51"/>
-      <c r="AR13" s="51"/>
-      <c r="AS13" s="51"/>
-      <c r="AT13" s="51"/>
-      <c r="AU13" s="51"/>
-      <c r="AV13" s="51"/>
-      <c r="AW13" s="51"/>
-      <c r="AX13" s="51"/>
-      <c r="AY13" s="51"/>
-      <c r="AZ13" s="51"/>
-      <c r="BA13" s="51"/>
-      <c r="BB13" s="51"/>
-      <c r="BC13" s="51"/>
-      <c r="BD13" s="51"/>
-      <c r="BE13" s="51"/>
-      <c r="BF13" s="51"/>
-      <c r="BG13" s="51"/>
-      <c r="BH13" s="51"/>
-      <c r="BI13" s="51"/>
-      <c r="BJ13" s="51"/>
-      <c r="BK13" s="51"/>
-      <c r="BL13" s="51"/>
-      <c r="BM13" s="51"/>
-      <c r="BN13" s="51"/>
-      <c r="BO13" s="51"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="59"/>
+      <c r="AJ13" s="59"/>
+      <c r="AK13" s="59"/>
+      <c r="AL13" s="59"/>
+      <c r="AM13" s="59"/>
+      <c r="AN13" s="59"/>
+      <c r="AO13" s="59"/>
+      <c r="AP13" s="59"/>
+      <c r="AQ13" s="59"/>
+      <c r="AR13" s="59"/>
+      <c r="AS13" s="59"/>
+      <c r="AT13" s="59"/>
+      <c r="AU13" s="59"/>
+      <c r="AV13" s="59"/>
+      <c r="AW13" s="59"/>
+      <c r="AX13" s="59"/>
+      <c r="AY13" s="59"/>
+      <c r="AZ13" s="59"/>
+      <c r="BA13" s="59"/>
+      <c r="BB13" s="59"/>
+      <c r="BC13" s="59"/>
+      <c r="BD13" s="59"/>
+      <c r="BE13" s="59"/>
+      <c r="BF13" s="59"/>
+      <c r="BG13" s="59"/>
+      <c r="BH13" s="59"/>
+      <c r="BI13" s="59"/>
+      <c r="BJ13" s="59"/>
+      <c r="BK13" s="59"/>
+      <c r="BL13" s="59"/>
+      <c r="BM13" s="59"/>
+      <c r="BN13" s="59"/>
+      <c r="BO13" s="59"/>
       <c r="BP13"/>
       <c r="BQ13" s="4"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="55" t="s">
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="55"/>
-      <c r="AD14" s="55"/>
-      <c r="AE14" s="55"/>
-      <c r="AF14" s="55"/>
-      <c r="AG14" s="55"/>
-      <c r="AH14" s="55"/>
-      <c r="AI14" s="55"/>
-      <c r="AJ14" s="55"/>
-      <c r="AK14" s="55"/>
-      <c r="AL14" s="55"/>
-      <c r="AM14" s="55"/>
-      <c r="AN14" s="55"/>
-      <c r="AO14" s="55"/>
-      <c r="AP14" s="55"/>
-      <c r="AQ14" s="55"/>
-      <c r="AR14" s="55"/>
-      <c r="AS14" s="55"/>
-      <c r="AT14" s="55"/>
-      <c r="AU14" s="55"/>
-      <c r="AV14" s="55"/>
-      <c r="AW14" s="55"/>
-      <c r="AX14" s="55"/>
-      <c r="AY14" s="55"/>
-      <c r="AZ14" s="55"/>
-      <c r="BA14" s="55"/>
-      <c r="BB14" s="55"/>
-      <c r="BC14" s="55"/>
-      <c r="BD14" s="55"/>
-      <c r="BE14" s="55"/>
-      <c r="BF14" s="55"/>
-      <c r="BG14" s="55"/>
-      <c r="BH14" s="55"/>
-      <c r="BI14" s="55"/>
-      <c r="BJ14" s="55"/>
-      <c r="BK14" s="55"/>
-      <c r="BL14" s="55"/>
-      <c r="BM14" s="55"/>
-      <c r="BN14" s="55"/>
-      <c r="BO14" s="55"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="64"/>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="64"/>
+      <c r="AF14" s="64"/>
+      <c r="AG14" s="64"/>
+      <c r="AH14" s="64"/>
+      <c r="AI14" s="64"/>
+      <c r="AJ14" s="64"/>
+      <c r="AK14" s="64"/>
+      <c r="AL14" s="64"/>
+      <c r="AM14" s="64"/>
+      <c r="AN14" s="64"/>
+      <c r="AO14" s="64"/>
+      <c r="AP14" s="64"/>
+      <c r="AQ14" s="64"/>
+      <c r="AR14" s="64"/>
+      <c r="AS14" s="64"/>
+      <c r="AT14" s="64"/>
+      <c r="AU14" s="64"/>
+      <c r="AV14" s="64"/>
+      <c r="AW14" s="64"/>
+      <c r="AX14" s="64"/>
+      <c r="AY14" s="64"/>
+      <c r="AZ14" s="64"/>
+      <c r="BA14" s="64"/>
+      <c r="BB14" s="64"/>
+      <c r="BC14" s="64"/>
+      <c r="BD14" s="64"/>
+      <c r="BE14" s="64"/>
+      <c r="BF14" s="64"/>
+      <c r="BG14" s="64"/>
+      <c r="BH14" s="64"/>
+      <c r="BI14" s="64"/>
+      <c r="BJ14" s="64"/>
+      <c r="BK14" s="64"/>
+      <c r="BL14" s="64"/>
+      <c r="BM14" s="64"/>
+      <c r="BN14" s="64"/>
+      <c r="BO14" s="64"/>
       <c r="BP14"/>
       <c r="BQ14" s="4"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56"/>
-      <c r="AB15" s="56"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="56"/>
-      <c r="AF15" s="56"/>
-      <c r="AG15" s="56"/>
-      <c r="AH15" s="56"/>
-      <c r="AI15" s="56"/>
-      <c r="AJ15" s="56"/>
-      <c r="AK15" s="56"/>
-      <c r="AL15" s="56"/>
-      <c r="AM15" s="56"/>
-      <c r="AN15" s="56"/>
-      <c r="AO15" s="56"/>
-      <c r="AP15" s="56"/>
-      <c r="AQ15" s="56"/>
-      <c r="AR15" s="56"/>
-      <c r="AS15" s="56"/>
-      <c r="AT15" s="56"/>
-      <c r="AU15" s="56"/>
-      <c r="AV15" s="56"/>
-      <c r="AW15" s="56"/>
-      <c r="AX15" s="56"/>
-      <c r="AY15" s="56"/>
-      <c r="AZ15" s="56"/>
-      <c r="BA15" s="56"/>
-      <c r="BB15" s="56"/>
-      <c r="BC15" s="56"/>
-      <c r="BD15" s="56"/>
-      <c r="BE15" s="56"/>
-      <c r="BF15" s="56"/>
-      <c r="BG15" s="56"/>
-      <c r="BH15" s="56"/>
-      <c r="BI15" s="56"/>
-      <c r="BJ15" s="56"/>
-      <c r="BK15" s="56"/>
-      <c r="BL15" s="56"/>
-      <c r="BM15" s="56"/>
-      <c r="BN15" s="56"/>
-      <c r="BO15" s="56"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="65"/>
+      <c r="AF15" s="65"/>
+      <c r="AG15" s="65"/>
+      <c r="AH15" s="65"/>
+      <c r="AI15" s="65"/>
+      <c r="AJ15" s="65"/>
+      <c r="AK15" s="65"/>
+      <c r="AL15" s="65"/>
+      <c r="AM15" s="65"/>
+      <c r="AN15" s="65"/>
+      <c r="AO15" s="65"/>
+      <c r="AP15" s="65"/>
+      <c r="AQ15" s="65"/>
+      <c r="AR15" s="65"/>
+      <c r="AS15" s="65"/>
+      <c r="AT15" s="65"/>
+      <c r="AU15" s="65"/>
+      <c r="AV15" s="65"/>
+      <c r="AW15" s="65"/>
+      <c r="AX15" s="65"/>
+      <c r="AY15" s="65"/>
+      <c r="AZ15" s="65"/>
+      <c r="BA15" s="65"/>
+      <c r="BB15" s="65"/>
+      <c r="BC15" s="65"/>
+      <c r="BD15" s="65"/>
+      <c r="BE15" s="65"/>
+      <c r="BF15" s="65"/>
+      <c r="BG15" s="65"/>
+      <c r="BH15" s="65"/>
+      <c r="BI15" s="65"/>
+      <c r="BJ15" s="65"/>
+      <c r="BK15" s="65"/>
+      <c r="BL15" s="65"/>
+      <c r="BM15" s="65"/>
+      <c r="BN15" s="65"/>
+      <c r="BO15" s="65"/>
       <c r="BP15"/>
       <c r="BQ15" s="4"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="56"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="56"/>
-      <c r="AJ16" s="56"/>
-      <c r="AK16" s="56"/>
-      <c r="AL16" s="56"/>
-      <c r="AM16" s="56"/>
-      <c r="AN16" s="56"/>
-      <c r="AO16" s="56"/>
-      <c r="AP16" s="56"/>
-      <c r="AQ16" s="56"/>
-      <c r="AR16" s="56"/>
-      <c r="AS16" s="56"/>
-      <c r="AT16" s="56"/>
-      <c r="AU16" s="56"/>
-      <c r="AV16" s="56"/>
-      <c r="AW16" s="56"/>
-      <c r="AX16" s="56"/>
-      <c r="AY16" s="56"/>
-      <c r="AZ16" s="56"/>
-      <c r="BA16" s="56"/>
-      <c r="BB16" s="56"/>
-      <c r="BC16" s="56"/>
-      <c r="BD16" s="56"/>
-      <c r="BE16" s="56"/>
-      <c r="BF16" s="56"/>
-      <c r="BG16" s="56"/>
-      <c r="BH16" s="56"/>
-      <c r="BI16" s="56"/>
-      <c r="BJ16" s="56"/>
-      <c r="BK16" s="56"/>
-      <c r="BL16" s="56"/>
-      <c r="BM16" s="56"/>
-      <c r="BN16" s="56"/>
-      <c r="BO16" s="56"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="65"/>
+      <c r="AE16" s="65"/>
+      <c r="AF16" s="65"/>
+      <c r="AG16" s="65"/>
+      <c r="AH16" s="65"/>
+      <c r="AI16" s="65"/>
+      <c r="AJ16" s="65"/>
+      <c r="AK16" s="65"/>
+      <c r="AL16" s="65"/>
+      <c r="AM16" s="65"/>
+      <c r="AN16" s="65"/>
+      <c r="AO16" s="65"/>
+      <c r="AP16" s="65"/>
+      <c r="AQ16" s="65"/>
+      <c r="AR16" s="65"/>
+      <c r="AS16" s="65"/>
+      <c r="AT16" s="65"/>
+      <c r="AU16" s="65"/>
+      <c r="AV16" s="65"/>
+      <c r="AW16" s="65"/>
+      <c r="AX16" s="65"/>
+      <c r="AY16" s="65"/>
+      <c r="AZ16" s="65"/>
+      <c r="BA16" s="65"/>
+      <c r="BB16" s="65"/>
+      <c r="BC16" s="65"/>
+      <c r="BD16" s="65"/>
+      <c r="BE16" s="65"/>
+      <c r="BF16" s="65"/>
+      <c r="BG16" s="65"/>
+      <c r="BH16" s="65"/>
+      <c r="BI16" s="65"/>
+      <c r="BJ16" s="65"/>
+      <c r="BK16" s="65"/>
+      <c r="BL16" s="65"/>
+      <c r="BM16" s="65"/>
+      <c r="BN16" s="65"/>
+      <c r="BO16" s="65"/>
       <c r="BP16"/>
       <c r="BQ16" s="4"/>
     </row>
     <row r="17" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="56"/>
-      <c r="AF17" s="56"/>
-      <c r="AG17" s="56"/>
-      <c r="AH17" s="56"/>
-      <c r="AI17" s="56"/>
-      <c r="AJ17" s="56"/>
-      <c r="AK17" s="56"/>
-      <c r="AL17" s="56"/>
-      <c r="AM17" s="56"/>
-      <c r="AN17" s="56"/>
-      <c r="AO17" s="56"/>
-      <c r="AP17" s="56"/>
-      <c r="AQ17" s="56"/>
-      <c r="AR17" s="56"/>
-      <c r="AS17" s="56"/>
-      <c r="AT17" s="56"/>
-      <c r="AU17" s="56"/>
-      <c r="AV17" s="56"/>
-      <c r="AW17" s="56"/>
-      <c r="AX17" s="56"/>
-      <c r="AY17" s="56"/>
-      <c r="AZ17" s="56"/>
-      <c r="BA17" s="56"/>
-      <c r="BB17" s="56"/>
-      <c r="BC17" s="56"/>
-      <c r="BD17" s="56"/>
-      <c r="BE17" s="56"/>
-      <c r="BF17" s="56"/>
-      <c r="BG17" s="56"/>
-      <c r="BH17" s="56"/>
-      <c r="BI17" s="56"/>
-      <c r="BJ17" s="56"/>
-      <c r="BK17" s="56"/>
-      <c r="BL17" s="56"/>
-      <c r="BM17" s="56"/>
-      <c r="BN17" s="56"/>
-      <c r="BO17" s="56"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="65"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="65"/>
+      <c r="AF17" s="65"/>
+      <c r="AG17" s="65"/>
+      <c r="AH17" s="65"/>
+      <c r="AI17" s="65"/>
+      <c r="AJ17" s="65"/>
+      <c r="AK17" s="65"/>
+      <c r="AL17" s="65"/>
+      <c r="AM17" s="65"/>
+      <c r="AN17" s="65"/>
+      <c r="AO17" s="65"/>
+      <c r="AP17" s="65"/>
+      <c r="AQ17" s="65"/>
+      <c r="AR17" s="65"/>
+      <c r="AS17" s="65"/>
+      <c r="AT17" s="65"/>
+      <c r="AU17" s="65"/>
+      <c r="AV17" s="65"/>
+      <c r="AW17" s="65"/>
+      <c r="AX17" s="65"/>
+      <c r="AY17" s="65"/>
+      <c r="AZ17" s="65"/>
+      <c r="BA17" s="65"/>
+      <c r="BB17" s="65"/>
+      <c r="BC17" s="65"/>
+      <c r="BD17" s="65"/>
+      <c r="BE17" s="65"/>
+      <c r="BF17" s="65"/>
+      <c r="BG17" s="65"/>
+      <c r="BH17" s="65"/>
+      <c r="BI17" s="65"/>
+      <c r="BJ17" s="65"/>
+      <c r="BK17" s="65"/>
+      <c r="BL17" s="65"/>
+      <c r="BM17" s="65"/>
+      <c r="BN17" s="65"/>
+      <c r="BO17" s="65"/>
       <c r="BP17"/>
       <c r="BQ17" s="4"/>
     </row>
     <row r="18" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="56"/>
-      <c r="AF18" s="56"/>
-      <c r="AG18" s="56"/>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="56"/>
-      <c r="AJ18" s="56"/>
-      <c r="AK18" s="56"/>
-      <c r="AL18" s="56"/>
-      <c r="AM18" s="56"/>
-      <c r="AN18" s="56"/>
-      <c r="AO18" s="56"/>
-      <c r="AP18" s="56"/>
-      <c r="AQ18" s="56"/>
-      <c r="AR18" s="56"/>
-      <c r="AS18" s="56"/>
-      <c r="AT18" s="56"/>
-      <c r="AU18" s="56"/>
-      <c r="AV18" s="56"/>
-      <c r="AW18" s="56"/>
-      <c r="AX18" s="56"/>
-      <c r="AY18" s="56"/>
-      <c r="AZ18" s="56"/>
-      <c r="BA18" s="56"/>
-      <c r="BB18" s="56"/>
-      <c r="BC18" s="56"/>
-      <c r="BD18" s="56"/>
-      <c r="BE18" s="56"/>
-      <c r="BF18" s="56"/>
-      <c r="BG18" s="56"/>
-      <c r="BH18" s="56"/>
-      <c r="BI18" s="56"/>
-      <c r="BJ18" s="56"/>
-      <c r="BK18" s="56"/>
-      <c r="BL18" s="56"/>
-      <c r="BM18" s="56"/>
-      <c r="BN18" s="56"/>
-      <c r="BO18" s="56"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="65"/>
+      <c r="AE18" s="65"/>
+      <c r="AF18" s="65"/>
+      <c r="AG18" s="65"/>
+      <c r="AH18" s="65"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="65"/>
+      <c r="AK18" s="65"/>
+      <c r="AL18" s="65"/>
+      <c r="AM18" s="65"/>
+      <c r="AN18" s="65"/>
+      <c r="AO18" s="65"/>
+      <c r="AP18" s="65"/>
+      <c r="AQ18" s="65"/>
+      <c r="AR18" s="65"/>
+      <c r="AS18" s="65"/>
+      <c r="AT18" s="65"/>
+      <c r="AU18" s="65"/>
+      <c r="AV18" s="65"/>
+      <c r="AW18" s="65"/>
+      <c r="AX18" s="65"/>
+      <c r="AY18" s="65"/>
+      <c r="AZ18" s="65"/>
+      <c r="BA18" s="65"/>
+      <c r="BB18" s="65"/>
+      <c r="BC18" s="65"/>
+      <c r="BD18" s="65"/>
+      <c r="BE18" s="65"/>
+      <c r="BF18" s="65"/>
+      <c r="BG18" s="65"/>
+      <c r="BH18" s="65"/>
+      <c r="BI18" s="65"/>
+      <c r="BJ18" s="65"/>
+      <c r="BK18" s="65"/>
+      <c r="BL18" s="65"/>
+      <c r="BM18" s="65"/>
+      <c r="BN18" s="65"/>
+      <c r="BO18" s="65"/>
       <c r="BP18"/>
       <c r="BQ18" s="4"/>
     </row>
     <row r="19" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="56"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="56"/>
-      <c r="AJ19" s="56"/>
-      <c r="AK19" s="56"/>
-      <c r="AL19" s="56"/>
-      <c r="AM19" s="56"/>
-      <c r="AN19" s="56"/>
-      <c r="AO19" s="56"/>
-      <c r="AP19" s="56"/>
-      <c r="AQ19" s="56"/>
-      <c r="AR19" s="56"/>
-      <c r="AS19" s="56"/>
-      <c r="AT19" s="56"/>
-      <c r="AU19" s="56"/>
-      <c r="AV19" s="56"/>
-      <c r="AW19" s="56"/>
-      <c r="AX19" s="56"/>
-      <c r="AY19" s="56"/>
-      <c r="AZ19" s="56"/>
-      <c r="BA19" s="56"/>
-      <c r="BB19" s="56"/>
-      <c r="BC19" s="56"/>
-      <c r="BD19" s="56"/>
-      <c r="BE19" s="56"/>
-      <c r="BF19" s="56"/>
-      <c r="BG19" s="56"/>
-      <c r="BH19" s="56"/>
-      <c r="BI19" s="56"/>
-      <c r="BJ19" s="56"/>
-      <c r="BK19" s="56"/>
-      <c r="BL19" s="56"/>
-      <c r="BM19" s="56"/>
-      <c r="BN19" s="56"/>
-      <c r="BO19" s="56"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="65"/>
+      <c r="AE19" s="65"/>
+      <c r="AF19" s="65"/>
+      <c r="AG19" s="65"/>
+      <c r="AH19" s="65"/>
+      <c r="AI19" s="65"/>
+      <c r="AJ19" s="65"/>
+      <c r="AK19" s="65"/>
+      <c r="AL19" s="65"/>
+      <c r="AM19" s="65"/>
+      <c r="AN19" s="65"/>
+      <c r="AO19" s="65"/>
+      <c r="AP19" s="65"/>
+      <c r="AQ19" s="65"/>
+      <c r="AR19" s="65"/>
+      <c r="AS19" s="65"/>
+      <c r="AT19" s="65"/>
+      <c r="AU19" s="65"/>
+      <c r="AV19" s="65"/>
+      <c r="AW19" s="65"/>
+      <c r="AX19" s="65"/>
+      <c r="AY19" s="65"/>
+      <c r="AZ19" s="65"/>
+      <c r="BA19" s="65"/>
+      <c r="BB19" s="65"/>
+      <c r="BC19" s="65"/>
+      <c r="BD19" s="65"/>
+      <c r="BE19" s="65"/>
+      <c r="BF19" s="65"/>
+      <c r="BG19" s="65"/>
+      <c r="BH19" s="65"/>
+      <c r="BI19" s="65"/>
+      <c r="BJ19" s="65"/>
+      <c r="BK19" s="65"/>
+      <c r="BL19" s="65"/>
+      <c r="BM19" s="65"/>
+      <c r="BN19" s="65"/>
+      <c r="BO19" s="65"/>
       <c r="BP19"/>
       <c r="BQ19" s="4"/>
     </row>
     <row r="20" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="56"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="56"/>
-      <c r="AK20" s="56"/>
-      <c r="AL20" s="56"/>
-      <c r="AM20" s="56"/>
-      <c r="AN20" s="56"/>
-      <c r="AO20" s="56"/>
-      <c r="AP20" s="56"/>
-      <c r="AQ20" s="56"/>
-      <c r="AR20" s="56"/>
-      <c r="AS20" s="56"/>
-      <c r="AT20" s="56"/>
-      <c r="AU20" s="56"/>
-      <c r="AV20" s="56"/>
-      <c r="AW20" s="56"/>
-      <c r="AX20" s="56"/>
-      <c r="AY20" s="56"/>
-      <c r="AZ20" s="56"/>
-      <c r="BA20" s="56"/>
-      <c r="BB20" s="56"/>
-      <c r="BC20" s="56"/>
-      <c r="BD20" s="56"/>
-      <c r="BE20" s="56"/>
-      <c r="BF20" s="56"/>
-      <c r="BG20" s="56"/>
-      <c r="BH20" s="56"/>
-      <c r="BI20" s="56"/>
-      <c r="BJ20" s="56"/>
-      <c r="BK20" s="56"/>
-      <c r="BL20" s="56"/>
-      <c r="BM20" s="56"/>
-      <c r="BN20" s="56"/>
-      <c r="BO20" s="56"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="65"/>
+      <c r="AF20" s="65"/>
+      <c r="AG20" s="65"/>
+      <c r="AH20" s="65"/>
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="65"/>
+      <c r="AK20" s="65"/>
+      <c r="AL20" s="65"/>
+      <c r="AM20" s="65"/>
+      <c r="AN20" s="65"/>
+      <c r="AO20" s="65"/>
+      <c r="AP20" s="65"/>
+      <c r="AQ20" s="65"/>
+      <c r="AR20" s="65"/>
+      <c r="AS20" s="65"/>
+      <c r="AT20" s="65"/>
+      <c r="AU20" s="65"/>
+      <c r="AV20" s="65"/>
+      <c r="AW20" s="65"/>
+      <c r="AX20" s="65"/>
+      <c r="AY20" s="65"/>
+      <c r="AZ20" s="65"/>
+      <c r="BA20" s="65"/>
+      <c r="BB20" s="65"/>
+      <c r="BC20" s="65"/>
+      <c r="BD20" s="65"/>
+      <c r="BE20" s="65"/>
+      <c r="BF20" s="65"/>
+      <c r="BG20" s="65"/>
+      <c r="BH20" s="65"/>
+      <c r="BI20" s="65"/>
+      <c r="BJ20" s="65"/>
+      <c r="BK20" s="65"/>
+      <c r="BL20" s="65"/>
+      <c r="BM20" s="65"/>
+      <c r="BN20" s="65"/>
+      <c r="BO20" s="65"/>
       <c r="BP20"/>
       <c r="BQ20" s="4"/>
     </row>
     <row r="21" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="54"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="54"/>
-      <c r="AJ21" s="54"/>
-      <c r="AK21" s="54"/>
-      <c r="AL21" s="54"/>
-      <c r="AM21" s="54"/>
-      <c r="AN21" s="54"/>
-      <c r="AO21" s="54"/>
-      <c r="AP21" s="54"/>
-      <c r="AQ21" s="54"/>
-      <c r="AR21" s="54"/>
-      <c r="AS21" s="54"/>
-      <c r="AT21" s="54"/>
-      <c r="AU21" s="54"/>
-      <c r="AV21" s="54"/>
-      <c r="AW21" s="54"/>
-      <c r="AX21" s="54"/>
-      <c r="AY21" s="54"/>
-      <c r="AZ21" s="54"/>
-      <c r="BA21" s="54"/>
-      <c r="BB21" s="54"/>
-      <c r="BC21" s="54"/>
-      <c r="BD21" s="54"/>
-      <c r="BE21" s="54"/>
-      <c r="BF21" s="54"/>
-      <c r="BG21" s="54"/>
-      <c r="BH21" s="54"/>
-      <c r="BI21" s="54"/>
-      <c r="BJ21" s="54"/>
-      <c r="BK21" s="54"/>
-      <c r="BL21" s="54"/>
-      <c r="BM21" s="54"/>
-      <c r="BN21" s="54"/>
-      <c r="BO21" s="54"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="66"/>
+      <c r="AL21" s="66"/>
+      <c r="AM21" s="66"/>
+      <c r="AN21" s="66"/>
+      <c r="AO21" s="66"/>
+      <c r="AP21" s="66"/>
+      <c r="AQ21" s="66"/>
+      <c r="AR21" s="66"/>
+      <c r="AS21" s="66"/>
+      <c r="AT21" s="66"/>
+      <c r="AU21" s="66"/>
+      <c r="AV21" s="66"/>
+      <c r="AW21" s="66"/>
+      <c r="AX21" s="66"/>
+      <c r="AY21" s="66"/>
+      <c r="AZ21" s="66"/>
+      <c r="BA21" s="66"/>
+      <c r="BB21" s="66"/>
+      <c r="BC21" s="66"/>
+      <c r="BD21" s="66"/>
+      <c r="BE21" s="66"/>
+      <c r="BF21" s="66"/>
+      <c r="BG21" s="66"/>
+      <c r="BH21" s="66"/>
+      <c r="BI21" s="66"/>
+      <c r="BJ21" s="66"/>
+      <c r="BK21" s="66"/>
+      <c r="BL21" s="66"/>
+      <c r="BM21" s="66"/>
+      <c r="BN21" s="66"/>
+      <c r="BO21" s="66"/>
       <c r="BP21"/>
       <c r="BQ21" s="4"/>
     </row>
@@ -2754,85 +2787,85 @@
     </row>
     <row r="25" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50" t="s">
+      <c r="D25" s="54"/>
+      <c r="E25" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50" t="s">
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="51" t="s">
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="51"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="49" t="s">
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="49"/>
-      <c r="AG25" s="49"/>
-      <c r="AH25" s="49"/>
-      <c r="AI25" s="49"/>
-      <c r="AJ25" s="49"/>
-      <c r="AK25" s="49"/>
-      <c r="AL25" s="49"/>
-      <c r="AM25" s="49"/>
-      <c r="AN25" s="49"/>
-      <c r="AO25" s="49"/>
-      <c r="AP25" s="49"/>
-      <c r="AQ25" s="49"/>
-      <c r="AR25" s="49"/>
-      <c r="AS25" s="49"/>
-      <c r="AT25" s="49"/>
-      <c r="AU25" s="49"/>
-      <c r="AV25" s="49"/>
-      <c r="AW25" s="49"/>
-      <c r="AX25" s="49"/>
-      <c r="AY25" s="49"/>
-      <c r="AZ25" s="49"/>
-      <c r="BA25" s="49"/>
-      <c r="BB25" s="49"/>
-      <c r="BC25" s="49"/>
-      <c r="BD25" s="49" t="s">
+      <c r="AF25" s="57"/>
+      <c r="AG25" s="57"/>
+      <c r="AH25" s="57"/>
+      <c r="AI25" s="57"/>
+      <c r="AJ25" s="57"/>
+      <c r="AK25" s="57"/>
+      <c r="AL25" s="57"/>
+      <c r="AM25" s="57"/>
+      <c r="AN25" s="57"/>
+      <c r="AO25" s="57"/>
+      <c r="AP25" s="57"/>
+      <c r="AQ25" s="57"/>
+      <c r="AR25" s="57"/>
+      <c r="AS25" s="57"/>
+      <c r="AT25" s="57"/>
+      <c r="AU25" s="57"/>
+      <c r="AV25" s="57"/>
+      <c r="AW25" s="57"/>
+      <c r="AX25" s="57"/>
+      <c r="AY25" s="57"/>
+      <c r="AZ25" s="57"/>
+      <c r="BA25" s="57"/>
+      <c r="BB25" s="57"/>
+      <c r="BC25" s="57"/>
+      <c r="BD25" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="BE25" s="49"/>
-      <c r="BF25" s="49"/>
-      <c r="BG25" s="49"/>
-      <c r="BH25" s="49"/>
-      <c r="BI25" s="49"/>
-      <c r="BJ25" s="49"/>
-      <c r="BK25" s="49" t="s">
+      <c r="BE25" s="57"/>
+      <c r="BF25" s="57"/>
+      <c r="BG25" s="57"/>
+      <c r="BH25" s="57"/>
+      <c r="BI25" s="57"/>
+      <c r="BJ25" s="57"/>
+      <c r="BK25" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="BL25" s="49"/>
-      <c r="BM25" s="49"/>
-      <c r="BN25" s="49"/>
-      <c r="BO25" s="49"/>
+      <c r="BL25" s="57"/>
+      <c r="BM25" s="57"/>
+      <c r="BN25" s="57"/>
+      <c r="BO25" s="57"/>
       <c r="BP25"/>
       <c r="BQ25" s="4"/>
       <c r="AMM25"/>
@@ -2849,81 +2882,81 @@
     </row>
     <row r="26" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="C26" s="50">
+      <c r="C26" s="54">
         <v>1</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="49" t="s">
+      <c r="D26" s="54"/>
+      <c r="E26" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="51" t="s">
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="51"/>
-      <c r="AC26" s="51"/>
-      <c r="AD26" s="51"/>
-      <c r="AE26" s="49" t="s">
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="59"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="AF26" s="49"/>
-      <c r="AG26" s="49"/>
-      <c r="AH26" s="49"/>
-      <c r="AI26" s="49"/>
-      <c r="AJ26" s="49"/>
-      <c r="AK26" s="49"/>
-      <c r="AL26" s="49"/>
-      <c r="AM26" s="49"/>
-      <c r="AN26" s="49"/>
-      <c r="AO26" s="49"/>
-      <c r="AP26" s="49"/>
-      <c r="AQ26" s="49"/>
-      <c r="AR26" s="49"/>
-      <c r="AS26" s="49"/>
-      <c r="AT26" s="49"/>
-      <c r="AU26" s="49"/>
-      <c r="AV26" s="49"/>
-      <c r="AW26" s="49"/>
-      <c r="AX26" s="49"/>
-      <c r="AY26" s="49"/>
-      <c r="AZ26" s="49"/>
-      <c r="BA26" s="49"/>
-      <c r="BB26" s="49"/>
-      <c r="BC26" s="49"/>
-      <c r="BD26" s="49" t="s">
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
+      <c r="AJ26" s="57"/>
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="57"/>
+      <c r="AM26" s="57"/>
+      <c r="AN26" s="57"/>
+      <c r="AO26" s="57"/>
+      <c r="AP26" s="57"/>
+      <c r="AQ26" s="57"/>
+      <c r="AR26" s="57"/>
+      <c r="AS26" s="57"/>
+      <c r="AT26" s="57"/>
+      <c r="AU26" s="57"/>
+      <c r="AV26" s="57"/>
+      <c r="AW26" s="57"/>
+      <c r="AX26" s="57"/>
+      <c r="AY26" s="57"/>
+      <c r="AZ26" s="57"/>
+      <c r="BA26" s="57"/>
+      <c r="BB26" s="57"/>
+      <c r="BC26" s="57"/>
+      <c r="BD26" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="BE26" s="49"/>
-      <c r="BF26" s="49"/>
-      <c r="BG26" s="49"/>
-      <c r="BH26" s="49"/>
-      <c r="BI26" s="49"/>
-      <c r="BJ26" s="49"/>
-      <c r="BK26" s="49"/>
-      <c r="BL26" s="49"/>
-      <c r="BM26" s="49"/>
-      <c r="BN26" s="49"/>
-      <c r="BO26" s="49"/>
+      <c r="BE26" s="57"/>
+      <c r="BF26" s="57"/>
+      <c r="BG26" s="57"/>
+      <c r="BH26" s="57"/>
+      <c r="BI26" s="57"/>
+      <c r="BJ26" s="57"/>
+      <c r="BK26" s="57"/>
+      <c r="BL26" s="57"/>
+      <c r="BM26" s="57"/>
+      <c r="BN26" s="57"/>
+      <c r="BO26" s="57"/>
       <c r="BQ26" s="4"/>
       <c r="AMM26"/>
       <c r="AMN26"/>
@@ -2939,73 +2972,73 @@
     </row>
     <row r="27" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="C27" s="50">
+      <c r="C27" s="54">
         <v>2</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="53"/>
-      <c r="AC27" s="53"/>
-      <c r="AD27" s="53"/>
-      <c r="AE27" s="49"/>
-      <c r="AF27" s="49"/>
-      <c r="AG27" s="49"/>
-      <c r="AH27" s="49"/>
-      <c r="AI27" s="49"/>
-      <c r="AJ27" s="49"/>
-      <c r="AK27" s="49"/>
-      <c r="AL27" s="49"/>
-      <c r="AM27" s="49"/>
-      <c r="AN27" s="49"/>
-      <c r="AO27" s="49"/>
-      <c r="AP27" s="49"/>
-      <c r="AQ27" s="49"/>
-      <c r="AR27" s="49"/>
-      <c r="AS27" s="49"/>
-      <c r="AT27" s="49"/>
-      <c r="AU27" s="49"/>
-      <c r="AV27" s="49"/>
-      <c r="AW27" s="49"/>
-      <c r="AX27" s="49"/>
-      <c r="AY27" s="49"/>
-      <c r="AZ27" s="49"/>
-      <c r="BA27" s="49"/>
-      <c r="BB27" s="49"/>
-      <c r="BC27" s="49"/>
-      <c r="BD27" s="49"/>
-      <c r="BE27" s="49"/>
-      <c r="BF27" s="49"/>
-      <c r="BG27" s="49"/>
-      <c r="BH27" s="49"/>
-      <c r="BI27" s="49"/>
-      <c r="BJ27" s="49"/>
-      <c r="BK27" s="49"/>
-      <c r="BL27" s="49"/>
-      <c r="BM27" s="49"/>
-      <c r="BN27" s="49"/>
-      <c r="BO27" s="49"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="57"/>
+      <c r="AG27" s="57"/>
+      <c r="AH27" s="57"/>
+      <c r="AI27" s="57"/>
+      <c r="AJ27" s="57"/>
+      <c r="AK27" s="57"/>
+      <c r="AL27" s="57"/>
+      <c r="AM27" s="57"/>
+      <c r="AN27" s="57"/>
+      <c r="AO27" s="57"/>
+      <c r="AP27" s="57"/>
+      <c r="AQ27" s="57"/>
+      <c r="AR27" s="57"/>
+      <c r="AS27" s="57"/>
+      <c r="AT27" s="57"/>
+      <c r="AU27" s="57"/>
+      <c r="AV27" s="57"/>
+      <c r="AW27" s="57"/>
+      <c r="AX27" s="57"/>
+      <c r="AY27" s="57"/>
+      <c r="AZ27" s="57"/>
+      <c r="BA27" s="57"/>
+      <c r="BB27" s="57"/>
+      <c r="BC27" s="57"/>
+      <c r="BD27" s="57"/>
+      <c r="BE27" s="57"/>
+      <c r="BF27" s="57"/>
+      <c r="BG27" s="57"/>
+      <c r="BH27" s="57"/>
+      <c r="BI27" s="57"/>
+      <c r="BJ27" s="57"/>
+      <c r="BK27" s="57"/>
+      <c r="BL27" s="57"/>
+      <c r="BM27" s="57"/>
+      <c r="BN27" s="57"/>
+      <c r="BO27" s="57"/>
       <c r="BQ27" s="4"/>
       <c r="AMM27"/>
       <c r="AMN27"/>
@@ -3021,73 +3054,73 @@
     </row>
     <row r="28" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="C28" s="50">
+      <c r="C28" s="54">
         <v>3</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="51"/>
-      <c r="AC28" s="51"/>
-      <c r="AD28" s="51"/>
-      <c r="AE28" s="49"/>
-      <c r="AF28" s="49"/>
-      <c r="AG28" s="49"/>
-      <c r="AH28" s="49"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="49"/>
-      <c r="AK28" s="49"/>
-      <c r="AL28" s="49"/>
-      <c r="AM28" s="49"/>
-      <c r="AN28" s="49"/>
-      <c r="AO28" s="49"/>
-      <c r="AP28" s="49"/>
-      <c r="AQ28" s="49"/>
-      <c r="AR28" s="49"/>
-      <c r="AS28" s="49"/>
-      <c r="AT28" s="49"/>
-      <c r="AU28" s="49"/>
-      <c r="AV28" s="49"/>
-      <c r="AW28" s="49"/>
-      <c r="AX28" s="49"/>
-      <c r="AY28" s="49"/>
-      <c r="AZ28" s="49"/>
-      <c r="BA28" s="49"/>
-      <c r="BB28" s="49"/>
-      <c r="BC28" s="49"/>
-      <c r="BD28" s="49"/>
-      <c r="BE28" s="49"/>
-      <c r="BF28" s="49"/>
-      <c r="BG28" s="49"/>
-      <c r="BH28" s="49"/>
-      <c r="BI28" s="49"/>
-      <c r="BJ28" s="49"/>
-      <c r="BK28" s="49"/>
-      <c r="BL28" s="49"/>
-      <c r="BM28" s="49"/>
-      <c r="BN28" s="49"/>
-      <c r="BO28" s="49"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="59"/>
+      <c r="Z28" s="59"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="57"/>
+      <c r="AJ28" s="57"/>
+      <c r="AK28" s="57"/>
+      <c r="AL28" s="57"/>
+      <c r="AM28" s="57"/>
+      <c r="AN28" s="57"/>
+      <c r="AO28" s="57"/>
+      <c r="AP28" s="57"/>
+      <c r="AQ28" s="57"/>
+      <c r="AR28" s="57"/>
+      <c r="AS28" s="57"/>
+      <c r="AT28" s="57"/>
+      <c r="AU28" s="57"/>
+      <c r="AV28" s="57"/>
+      <c r="AW28" s="57"/>
+      <c r="AX28" s="57"/>
+      <c r="AY28" s="57"/>
+      <c r="AZ28" s="57"/>
+      <c r="BA28" s="57"/>
+      <c r="BB28" s="57"/>
+      <c r="BC28" s="57"/>
+      <c r="BD28" s="57"/>
+      <c r="BE28" s="57"/>
+      <c r="BF28" s="57"/>
+      <c r="BG28" s="57"/>
+      <c r="BH28" s="57"/>
+      <c r="BI28" s="57"/>
+      <c r="BJ28" s="57"/>
+      <c r="BK28" s="57"/>
+      <c r="BL28" s="57"/>
+      <c r="BM28" s="57"/>
+      <c r="BN28" s="57"/>
+      <c r="BO28" s="57"/>
       <c r="BP28"/>
       <c r="BQ28" s="4"/>
       <c r="AMM28"/>
@@ -3104,73 +3137,73 @@
     </row>
     <row r="29" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="C29" s="50">
+      <c r="C29" s="54">
         <v>4</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="49"/>
-      <c r="AF29" s="49"/>
-      <c r="AG29" s="49"/>
-      <c r="AH29" s="49"/>
-      <c r="AI29" s="49"/>
-      <c r="AJ29" s="49"/>
-      <c r="AK29" s="49"/>
-      <c r="AL29" s="49"/>
-      <c r="AM29" s="49"/>
-      <c r="AN29" s="49"/>
-      <c r="AO29" s="49"/>
-      <c r="AP29" s="49"/>
-      <c r="AQ29" s="49"/>
-      <c r="AR29" s="49"/>
-      <c r="AS29" s="49"/>
-      <c r="AT29" s="49"/>
-      <c r="AU29" s="49"/>
-      <c r="AV29" s="49"/>
-      <c r="AW29" s="49"/>
-      <c r="AX29" s="49"/>
-      <c r="AY29" s="49"/>
-      <c r="AZ29" s="49"/>
-      <c r="BA29" s="49"/>
-      <c r="BB29" s="49"/>
-      <c r="BC29" s="49"/>
-      <c r="BD29" s="49"/>
-      <c r="BE29" s="49"/>
-      <c r="BF29" s="49"/>
-      <c r="BG29" s="49"/>
-      <c r="BH29" s="49"/>
-      <c r="BI29" s="49"/>
-      <c r="BJ29" s="49"/>
-      <c r="BK29" s="49"/>
-      <c r="BL29" s="49"/>
-      <c r="BM29" s="49"/>
-      <c r="BN29" s="49"/>
-      <c r="BO29" s="49"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="59"/>
+      <c r="AA29" s="59"/>
+      <c r="AB29" s="59"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="59"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="57"/>
+      <c r="AG29" s="57"/>
+      <c r="AH29" s="57"/>
+      <c r="AI29" s="57"/>
+      <c r="AJ29" s="57"/>
+      <c r="AK29" s="57"/>
+      <c r="AL29" s="57"/>
+      <c r="AM29" s="57"/>
+      <c r="AN29" s="57"/>
+      <c r="AO29" s="57"/>
+      <c r="AP29" s="57"/>
+      <c r="AQ29" s="57"/>
+      <c r="AR29" s="57"/>
+      <c r="AS29" s="57"/>
+      <c r="AT29" s="57"/>
+      <c r="AU29" s="57"/>
+      <c r="AV29" s="57"/>
+      <c r="AW29" s="57"/>
+      <c r="AX29" s="57"/>
+      <c r="AY29" s="57"/>
+      <c r="AZ29" s="57"/>
+      <c r="BA29" s="57"/>
+      <c r="BB29" s="57"/>
+      <c r="BC29" s="57"/>
+      <c r="BD29" s="57"/>
+      <c r="BE29" s="57"/>
+      <c r="BF29" s="57"/>
+      <c r="BG29" s="57"/>
+      <c r="BH29" s="57"/>
+      <c r="BI29" s="57"/>
+      <c r="BJ29" s="57"/>
+      <c r="BK29" s="57"/>
+      <c r="BL29" s="57"/>
+      <c r="BM29" s="57"/>
+      <c r="BN29" s="57"/>
+      <c r="BO29" s="57"/>
       <c r="BP29"/>
       <c r="BQ29" s="4"/>
       <c r="AMM29"/>
@@ -3187,73 +3220,73 @@
     </row>
     <row r="30" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="C30" s="50">
+      <c r="C30" s="54">
         <v>5</v>
       </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AB30" s="51"/>
-      <c r="AC30" s="51"/>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="49"/>
-      <c r="AF30" s="49"/>
-      <c r="AG30" s="49"/>
-      <c r="AH30" s="49"/>
-      <c r="AI30" s="49"/>
-      <c r="AJ30" s="49"/>
-      <c r="AK30" s="49"/>
-      <c r="AL30" s="49"/>
-      <c r="AM30" s="49"/>
-      <c r="AN30" s="49"/>
-      <c r="AO30" s="49"/>
-      <c r="AP30" s="49"/>
-      <c r="AQ30" s="49"/>
-      <c r="AR30" s="49"/>
-      <c r="AS30" s="49"/>
-      <c r="AT30" s="49"/>
-      <c r="AU30" s="49"/>
-      <c r="AV30" s="49"/>
-      <c r="AW30" s="49"/>
-      <c r="AX30" s="49"/>
-      <c r="AY30" s="49"/>
-      <c r="AZ30" s="49"/>
-      <c r="BA30" s="49"/>
-      <c r="BB30" s="49"/>
-      <c r="BC30" s="49"/>
-      <c r="BD30" s="49"/>
-      <c r="BE30" s="49"/>
-      <c r="BF30" s="49"/>
-      <c r="BG30" s="49"/>
-      <c r="BH30" s="49"/>
-      <c r="BI30" s="49"/>
-      <c r="BJ30" s="49"/>
-      <c r="BK30" s="49"/>
-      <c r="BL30" s="49"/>
-      <c r="BM30" s="49"/>
-      <c r="BN30" s="49"/>
-      <c r="BO30" s="49"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
+      <c r="Y30" s="59"/>
+      <c r="Z30" s="59"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="59"/>
+      <c r="AC30" s="59"/>
+      <c r="AD30" s="59"/>
+      <c r="AE30" s="57"/>
+      <c r="AF30" s="57"/>
+      <c r="AG30" s="57"/>
+      <c r="AH30" s="57"/>
+      <c r="AI30" s="57"/>
+      <c r="AJ30" s="57"/>
+      <c r="AK30" s="57"/>
+      <c r="AL30" s="57"/>
+      <c r="AM30" s="57"/>
+      <c r="AN30" s="57"/>
+      <c r="AO30" s="57"/>
+      <c r="AP30" s="57"/>
+      <c r="AQ30" s="57"/>
+      <c r="AR30" s="57"/>
+      <c r="AS30" s="57"/>
+      <c r="AT30" s="57"/>
+      <c r="AU30" s="57"/>
+      <c r="AV30" s="57"/>
+      <c r="AW30" s="57"/>
+      <c r="AX30" s="57"/>
+      <c r="AY30" s="57"/>
+      <c r="AZ30" s="57"/>
+      <c r="BA30" s="57"/>
+      <c r="BB30" s="57"/>
+      <c r="BC30" s="57"/>
+      <c r="BD30" s="57"/>
+      <c r="BE30" s="57"/>
+      <c r="BF30" s="57"/>
+      <c r="BG30" s="57"/>
+      <c r="BH30" s="57"/>
+      <c r="BI30" s="57"/>
+      <c r="BJ30" s="57"/>
+      <c r="BK30" s="57"/>
+      <c r="BL30" s="57"/>
+      <c r="BM30" s="57"/>
+      <c r="BN30" s="57"/>
+      <c r="BO30" s="57"/>
       <c r="BP30"/>
       <c r="BQ30" s="4"/>
       <c r="AMM30"/>
@@ -3270,73 +3303,73 @@
     </row>
     <row r="31" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="C31" s="50">
+      <c r="C31" s="54">
         <v>6</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="51"/>
-      <c r="AA31" s="51"/>
-      <c r="AB31" s="51"/>
-      <c r="AC31" s="51"/>
-      <c r="AD31" s="51"/>
-      <c r="AE31" s="49"/>
-      <c r="AF31" s="49"/>
-      <c r="AG31" s="49"/>
-      <c r="AH31" s="49"/>
-      <c r="AI31" s="49"/>
-      <c r="AJ31" s="49"/>
-      <c r="AK31" s="49"/>
-      <c r="AL31" s="49"/>
-      <c r="AM31" s="49"/>
-      <c r="AN31" s="49"/>
-      <c r="AO31" s="49"/>
-      <c r="AP31" s="49"/>
-      <c r="AQ31" s="49"/>
-      <c r="AR31" s="49"/>
-      <c r="AS31" s="49"/>
-      <c r="AT31" s="49"/>
-      <c r="AU31" s="49"/>
-      <c r="AV31" s="49"/>
-      <c r="AW31" s="49"/>
-      <c r="AX31" s="49"/>
-      <c r="AY31" s="49"/>
-      <c r="AZ31" s="49"/>
-      <c r="BA31" s="49"/>
-      <c r="BB31" s="49"/>
-      <c r="BC31" s="49"/>
-      <c r="BD31" s="49"/>
-      <c r="BE31" s="49"/>
-      <c r="BF31" s="49"/>
-      <c r="BG31" s="49"/>
-      <c r="BH31" s="49"/>
-      <c r="BI31" s="49"/>
-      <c r="BJ31" s="49"/>
-      <c r="BK31" s="49"/>
-      <c r="BL31" s="49"/>
-      <c r="BM31" s="49"/>
-      <c r="BN31" s="49"/>
-      <c r="BO31" s="49"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="59"/>
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="57"/>
+      <c r="AG31" s="57"/>
+      <c r="AH31" s="57"/>
+      <c r="AI31" s="57"/>
+      <c r="AJ31" s="57"/>
+      <c r="AK31" s="57"/>
+      <c r="AL31" s="57"/>
+      <c r="AM31" s="57"/>
+      <c r="AN31" s="57"/>
+      <c r="AO31" s="57"/>
+      <c r="AP31" s="57"/>
+      <c r="AQ31" s="57"/>
+      <c r="AR31" s="57"/>
+      <c r="AS31" s="57"/>
+      <c r="AT31" s="57"/>
+      <c r="AU31" s="57"/>
+      <c r="AV31" s="57"/>
+      <c r="AW31" s="57"/>
+      <c r="AX31" s="57"/>
+      <c r="AY31" s="57"/>
+      <c r="AZ31" s="57"/>
+      <c r="BA31" s="57"/>
+      <c r="BB31" s="57"/>
+      <c r="BC31" s="57"/>
+      <c r="BD31" s="57"/>
+      <c r="BE31" s="57"/>
+      <c r="BF31" s="57"/>
+      <c r="BG31" s="57"/>
+      <c r="BH31" s="57"/>
+      <c r="BI31" s="57"/>
+      <c r="BJ31" s="57"/>
+      <c r="BK31" s="57"/>
+      <c r="BL31" s="57"/>
+      <c r="BM31" s="57"/>
+      <c r="BN31" s="57"/>
+      <c r="BO31" s="57"/>
       <c r="BP31"/>
       <c r="BQ31" s="4"/>
       <c r="AMM31"/>
@@ -3353,73 +3386,73 @@
     </row>
     <row r="32" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="C32" s="50">
+      <c r="C32" s="54">
         <v>7</v>
       </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="51"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="51"/>
-      <c r="Z32" s="51"/>
-      <c r="AA32" s="51"/>
-      <c r="AB32" s="51"/>
-      <c r="AC32" s="51"/>
-      <c r="AD32" s="51"/>
-      <c r="AE32" s="49"/>
-      <c r="AF32" s="49"/>
-      <c r="AG32" s="49"/>
-      <c r="AH32" s="49"/>
-      <c r="AI32" s="49"/>
-      <c r="AJ32" s="49"/>
-      <c r="AK32" s="49"/>
-      <c r="AL32" s="49"/>
-      <c r="AM32" s="49"/>
-      <c r="AN32" s="49"/>
-      <c r="AO32" s="49"/>
-      <c r="AP32" s="49"/>
-      <c r="AQ32" s="49"/>
-      <c r="AR32" s="49"/>
-      <c r="AS32" s="49"/>
-      <c r="AT32" s="49"/>
-      <c r="AU32" s="49"/>
-      <c r="AV32" s="49"/>
-      <c r="AW32" s="49"/>
-      <c r="AX32" s="49"/>
-      <c r="AY32" s="49"/>
-      <c r="AZ32" s="49"/>
-      <c r="BA32" s="49"/>
-      <c r="BB32" s="49"/>
-      <c r="BC32" s="49"/>
-      <c r="BD32" s="49"/>
-      <c r="BE32" s="49"/>
-      <c r="BF32" s="49"/>
-      <c r="BG32" s="49"/>
-      <c r="BH32" s="49"/>
-      <c r="BI32" s="49"/>
-      <c r="BJ32" s="49"/>
-      <c r="BK32" s="49"/>
-      <c r="BL32" s="49"/>
-      <c r="BM32" s="49"/>
-      <c r="BN32" s="49"/>
-      <c r="BO32" s="49"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="59"/>
+      <c r="AE32" s="57"/>
+      <c r="AF32" s="57"/>
+      <c r="AG32" s="57"/>
+      <c r="AH32" s="57"/>
+      <c r="AI32" s="57"/>
+      <c r="AJ32" s="57"/>
+      <c r="AK32" s="57"/>
+      <c r="AL32" s="57"/>
+      <c r="AM32" s="57"/>
+      <c r="AN32" s="57"/>
+      <c r="AO32" s="57"/>
+      <c r="AP32" s="57"/>
+      <c r="AQ32" s="57"/>
+      <c r="AR32" s="57"/>
+      <c r="AS32" s="57"/>
+      <c r="AT32" s="57"/>
+      <c r="AU32" s="57"/>
+      <c r="AV32" s="57"/>
+      <c r="AW32" s="57"/>
+      <c r="AX32" s="57"/>
+      <c r="AY32" s="57"/>
+      <c r="AZ32" s="57"/>
+      <c r="BA32" s="57"/>
+      <c r="BB32" s="57"/>
+      <c r="BC32" s="57"/>
+      <c r="BD32" s="57"/>
+      <c r="BE32" s="57"/>
+      <c r="BF32" s="57"/>
+      <c r="BG32" s="57"/>
+      <c r="BH32" s="57"/>
+      <c r="BI32" s="57"/>
+      <c r="BJ32" s="57"/>
+      <c r="BK32" s="57"/>
+      <c r="BL32" s="57"/>
+      <c r="BM32" s="57"/>
+      <c r="BN32" s="57"/>
+      <c r="BO32" s="57"/>
       <c r="BP32"/>
       <c r="BQ32" s="4"/>
       <c r="AMM32"/>
@@ -3436,73 +3469,73 @@
     </row>
     <row r="33" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="C33" s="50">
+      <c r="C33" s="54">
         <v>8</v>
       </c>
-      <c r="D33" s="50"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="51"/>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="51"/>
-      <c r="Z33" s="51"/>
-      <c r="AA33" s="51"/>
-      <c r="AB33" s="51"/>
-      <c r="AC33" s="51"/>
-      <c r="AD33" s="51"/>
-      <c r="AE33" s="49"/>
-      <c r="AF33" s="49"/>
-      <c r="AG33" s="49"/>
-      <c r="AH33" s="49"/>
-      <c r="AI33" s="49"/>
-      <c r="AJ33" s="49"/>
-      <c r="AK33" s="49"/>
-      <c r="AL33" s="49"/>
-      <c r="AM33" s="49"/>
-      <c r="AN33" s="49"/>
-      <c r="AO33" s="49"/>
-      <c r="AP33" s="49"/>
-      <c r="AQ33" s="49"/>
-      <c r="AR33" s="49"/>
-      <c r="AS33" s="49"/>
-      <c r="AT33" s="49"/>
-      <c r="AU33" s="49"/>
-      <c r="AV33" s="49"/>
-      <c r="AW33" s="49"/>
-      <c r="AX33" s="49"/>
-      <c r="AY33" s="49"/>
-      <c r="AZ33" s="49"/>
-      <c r="BA33" s="49"/>
-      <c r="BB33" s="49"/>
-      <c r="BC33" s="49"/>
-      <c r="BD33" s="49"/>
-      <c r="BE33" s="49"/>
-      <c r="BF33" s="49"/>
-      <c r="BG33" s="49"/>
-      <c r="BH33" s="49"/>
-      <c r="BI33" s="49"/>
-      <c r="BJ33" s="49"/>
-      <c r="BK33" s="49"/>
-      <c r="BL33" s="49"/>
-      <c r="BM33" s="49"/>
-      <c r="BN33" s="49"/>
-      <c r="BO33" s="49"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="59"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="59"/>
+      <c r="AE33" s="57"/>
+      <c r="AF33" s="57"/>
+      <c r="AG33" s="57"/>
+      <c r="AH33" s="57"/>
+      <c r="AI33" s="57"/>
+      <c r="AJ33" s="57"/>
+      <c r="AK33" s="57"/>
+      <c r="AL33" s="57"/>
+      <c r="AM33" s="57"/>
+      <c r="AN33" s="57"/>
+      <c r="AO33" s="57"/>
+      <c r="AP33" s="57"/>
+      <c r="AQ33" s="57"/>
+      <c r="AR33" s="57"/>
+      <c r="AS33" s="57"/>
+      <c r="AT33" s="57"/>
+      <c r="AU33" s="57"/>
+      <c r="AV33" s="57"/>
+      <c r="AW33" s="57"/>
+      <c r="AX33" s="57"/>
+      <c r="AY33" s="57"/>
+      <c r="AZ33" s="57"/>
+      <c r="BA33" s="57"/>
+      <c r="BB33" s="57"/>
+      <c r="BC33" s="57"/>
+      <c r="BD33" s="57"/>
+      <c r="BE33" s="57"/>
+      <c r="BF33" s="57"/>
+      <c r="BG33" s="57"/>
+      <c r="BH33" s="57"/>
+      <c r="BI33" s="57"/>
+      <c r="BJ33" s="57"/>
+      <c r="BK33" s="57"/>
+      <c r="BL33" s="57"/>
+      <c r="BM33" s="57"/>
+      <c r="BN33" s="57"/>
+      <c r="BO33" s="57"/>
       <c r="BP33"/>
       <c r="BQ33" s="4"/>
       <c r="AMM33"/>
@@ -3519,73 +3552,73 @@
     </row>
     <row r="34" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="C34" s="50">
+      <c r="C34" s="54">
         <v>9</v>
       </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="51"/>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="51"/>
-      <c r="AB34" s="51"/>
-      <c r="AC34" s="51"/>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="49"/>
-      <c r="AF34" s="49"/>
-      <c r="AG34" s="49"/>
-      <c r="AH34" s="49"/>
-      <c r="AI34" s="49"/>
-      <c r="AJ34" s="49"/>
-      <c r="AK34" s="49"/>
-      <c r="AL34" s="49"/>
-      <c r="AM34" s="49"/>
-      <c r="AN34" s="49"/>
-      <c r="AO34" s="49"/>
-      <c r="AP34" s="49"/>
-      <c r="AQ34" s="49"/>
-      <c r="AR34" s="49"/>
-      <c r="AS34" s="49"/>
-      <c r="AT34" s="49"/>
-      <c r="AU34" s="49"/>
-      <c r="AV34" s="49"/>
-      <c r="AW34" s="49"/>
-      <c r="AX34" s="49"/>
-      <c r="AY34" s="49"/>
-      <c r="AZ34" s="49"/>
-      <c r="BA34" s="49"/>
-      <c r="BB34" s="49"/>
-      <c r="BC34" s="49"/>
-      <c r="BD34" s="49"/>
-      <c r="BE34" s="49"/>
-      <c r="BF34" s="49"/>
-      <c r="BG34" s="49"/>
-      <c r="BH34" s="49"/>
-      <c r="BI34" s="49"/>
-      <c r="BJ34" s="49"/>
-      <c r="BK34" s="49"/>
-      <c r="BL34" s="49"/>
-      <c r="BM34" s="49"/>
-      <c r="BN34" s="49"/>
-      <c r="BO34" s="49"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="57"/>
+      <c r="AF34" s="57"/>
+      <c r="AG34" s="57"/>
+      <c r="AH34" s="57"/>
+      <c r="AI34" s="57"/>
+      <c r="AJ34" s="57"/>
+      <c r="AK34" s="57"/>
+      <c r="AL34" s="57"/>
+      <c r="AM34" s="57"/>
+      <c r="AN34" s="57"/>
+      <c r="AO34" s="57"/>
+      <c r="AP34" s="57"/>
+      <c r="AQ34" s="57"/>
+      <c r="AR34" s="57"/>
+      <c r="AS34" s="57"/>
+      <c r="AT34" s="57"/>
+      <c r="AU34" s="57"/>
+      <c r="AV34" s="57"/>
+      <c r="AW34" s="57"/>
+      <c r="AX34" s="57"/>
+      <c r="AY34" s="57"/>
+      <c r="AZ34" s="57"/>
+      <c r="BA34" s="57"/>
+      <c r="BB34" s="57"/>
+      <c r="BC34" s="57"/>
+      <c r="BD34" s="57"/>
+      <c r="BE34" s="57"/>
+      <c r="BF34" s="57"/>
+      <c r="BG34" s="57"/>
+      <c r="BH34" s="57"/>
+      <c r="BI34" s="57"/>
+      <c r="BJ34" s="57"/>
+      <c r="BK34" s="57"/>
+      <c r="BL34" s="57"/>
+      <c r="BM34" s="57"/>
+      <c r="BN34" s="57"/>
+      <c r="BO34" s="57"/>
       <c r="BP34"/>
       <c r="BQ34" s="4"/>
       <c r="AMM34"/>
@@ -3603,73 +3636,73 @@
     <row r="35" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="50">
+      <c r="C35" s="54">
         <v>10</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="51"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="51"/>
-      <c r="Z35" s="51"/>
-      <c r="AA35" s="51"/>
-      <c r="AB35" s="51"/>
-      <c r="AC35" s="51"/>
-      <c r="AD35" s="51"/>
-      <c r="AE35" s="49"/>
-      <c r="AF35" s="49"/>
-      <c r="AG35" s="49"/>
-      <c r="AH35" s="49"/>
-      <c r="AI35" s="49"/>
-      <c r="AJ35" s="49"/>
-      <c r="AK35" s="49"/>
-      <c r="AL35" s="49"/>
-      <c r="AM35" s="49"/>
-      <c r="AN35" s="49"/>
-      <c r="AO35" s="49"/>
-      <c r="AP35" s="49"/>
-      <c r="AQ35" s="49"/>
-      <c r="AR35" s="49"/>
-      <c r="AS35" s="49"/>
-      <c r="AT35" s="49"/>
-      <c r="AU35" s="49"/>
-      <c r="AV35" s="49"/>
-      <c r="AW35" s="49"/>
-      <c r="AX35" s="49"/>
-      <c r="AY35" s="49"/>
-      <c r="AZ35" s="49"/>
-      <c r="BA35" s="49"/>
-      <c r="BB35" s="49"/>
-      <c r="BC35" s="49"/>
-      <c r="BD35" s="49"/>
-      <c r="BE35" s="49"/>
-      <c r="BF35" s="49"/>
-      <c r="BG35" s="49"/>
-      <c r="BH35" s="49"/>
-      <c r="BI35" s="49"/>
-      <c r="BJ35" s="49"/>
-      <c r="BK35" s="49"/>
-      <c r="BL35" s="49"/>
-      <c r="BM35" s="49"/>
-      <c r="BN35" s="49"/>
-      <c r="BO35" s="49"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="57"/>
+      <c r="AF35" s="57"/>
+      <c r="AG35" s="57"/>
+      <c r="AH35" s="57"/>
+      <c r="AI35" s="57"/>
+      <c r="AJ35" s="57"/>
+      <c r="AK35" s="57"/>
+      <c r="AL35" s="57"/>
+      <c r="AM35" s="57"/>
+      <c r="AN35" s="57"/>
+      <c r="AO35" s="57"/>
+      <c r="AP35" s="57"/>
+      <c r="AQ35" s="57"/>
+      <c r="AR35" s="57"/>
+      <c r="AS35" s="57"/>
+      <c r="AT35" s="57"/>
+      <c r="AU35" s="57"/>
+      <c r="AV35" s="57"/>
+      <c r="AW35" s="57"/>
+      <c r="AX35" s="57"/>
+      <c r="AY35" s="57"/>
+      <c r="AZ35" s="57"/>
+      <c r="BA35" s="57"/>
+      <c r="BB35" s="57"/>
+      <c r="BC35" s="57"/>
+      <c r="BD35" s="57"/>
+      <c r="BE35" s="57"/>
+      <c r="BF35" s="57"/>
+      <c r="BG35" s="57"/>
+      <c r="BH35" s="57"/>
+      <c r="BI35" s="57"/>
+      <c r="BJ35" s="57"/>
+      <c r="BK35" s="57"/>
+      <c r="BL35" s="57"/>
+      <c r="BM35" s="57"/>
+      <c r="BN35" s="57"/>
+      <c r="BO35" s="57"/>
       <c r="BP35"/>
       <c r="BQ35" s="4"/>
       <c r="AMM35"/>
@@ -4278,51 +4311,48 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="BD26:BJ26"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="BD25:BJ25"/>
-    <mergeCell ref="BK25:BO25"/>
+    <mergeCell ref="BK34:BO34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="O35:AD35"/>
+    <mergeCell ref="AE35:BC35"/>
+    <mergeCell ref="BD35:BJ35"/>
+    <mergeCell ref="BK35:BO35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="BK32:BO32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BJ33"/>
+    <mergeCell ref="BK33:BO33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD32:BJ32"/>
+    <mergeCell ref="BK30:BO30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BJ31"/>
+    <mergeCell ref="BK31:BO31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BJ30"/>
     <mergeCell ref="BK27:BO27"/>
     <mergeCell ref="BK26:BO26"/>
     <mergeCell ref="BK28:BO28"/>
@@ -4347,48 +4377,51 @@
     <mergeCell ref="BD27:BJ27"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:I26"/>
-    <mergeCell ref="BK30:BO30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BJ31"/>
-    <mergeCell ref="BK31:BO31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BJ30"/>
-    <mergeCell ref="BK32:BO32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BJ33"/>
-    <mergeCell ref="BK33:BO33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD32:BJ32"/>
-    <mergeCell ref="BK34:BO34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="O35:AD35"/>
-    <mergeCell ref="AE35:BC35"/>
-    <mergeCell ref="BD35:BJ35"/>
-    <mergeCell ref="BK35:BO35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="BD26:BJ26"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="BD25:BJ25"/>
+    <mergeCell ref="BK25:BO25"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -4459,247 +4492,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78" t="s">
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="79" t="s">
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AT1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="79"/>
-      <c r="AV1" s="79"/>
-      <c r="AW1" s="79"/>
-      <c r="AX1" s="79"/>
-      <c r="AY1" s="79"/>
-      <c r="AZ1" s="79"/>
-      <c r="BA1" s="79"/>
-      <c r="BB1" s="79"/>
-      <c r="BC1" s="79"/>
-      <c r="BD1" s="79"/>
-      <c r="BE1" s="79"/>
-      <c r="BF1" s="79"/>
-      <c r="BG1" s="79"/>
-      <c r="BH1" s="79"/>
-      <c r="BI1" s="79"/>
-      <c r="BJ1" s="79"/>
-      <c r="BK1" s="79"/>
-      <c r="BL1" s="79"/>
-      <c r="BM1" s="79"/>
-      <c r="BN1" s="79"/>
-      <c r="BO1" s="79"/>
-      <c r="BP1" s="79"/>
-      <c r="BQ1" s="79"/>
+      <c r="AU1" s="70"/>
+      <c r="AV1" s="70"/>
+      <c r="AW1" s="70"/>
+      <c r="AX1" s="70"/>
+      <c r="AY1" s="70"/>
+      <c r="AZ1" s="70"/>
+      <c r="BA1" s="70"/>
+      <c r="BB1" s="70"/>
+      <c r="BC1" s="70"/>
+      <c r="BD1" s="70"/>
+      <c r="BE1" s="70"/>
+      <c r="BF1" s="70"/>
+      <c r="BG1" s="70"/>
+      <c r="BH1" s="70"/>
+      <c r="BI1" s="70"/>
+      <c r="BJ1" s="70"/>
+      <c r="BK1" s="70"/>
+      <c r="BL1" s="70"/>
+      <c r="BM1" s="70"/>
+      <c r="BN1" s="70"/>
+      <c r="BO1" s="70"/>
+      <c r="BP1" s="70"/>
+      <c r="BQ1" s="70"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="58" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="69" t="s">
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69" t="s">
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71"/>
+      <c r="AR2" s="71"/>
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="69"/>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69" t="s">
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="71"/>
+      <c r="AY2" s="71"/>
+      <c r="AZ2" s="71"/>
+      <c r="BA2" s="71"/>
+      <c r="BB2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="69"/>
-      <c r="BD2" s="69"/>
-      <c r="BE2" s="69"/>
-      <c r="BF2" s="69"/>
-      <c r="BG2" s="69"/>
-      <c r="BH2" s="69"/>
-      <c r="BI2" s="69"/>
-      <c r="BJ2" s="80" t="s">
+      <c r="BC2" s="71"/>
+      <c r="BD2" s="71"/>
+      <c r="BE2" s="71"/>
+      <c r="BF2" s="71"/>
+      <c r="BG2" s="71"/>
+      <c r="BH2" s="71"/>
+      <c r="BI2" s="71"/>
+      <c r="BJ2" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="BK2" s="80"/>
-      <c r="BL2" s="80"/>
-      <c r="BM2" s="80"/>
-      <c r="BN2" s="80"/>
-      <c r="BO2" s="80"/>
-      <c r="BP2" s="80"/>
-      <c r="BQ2" s="80"/>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="72"/>
+      <c r="BO2" s="72"/>
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="72"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="81" t="s">
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="81"/>
-      <c r="AM3" s="81"/>
-      <c r="AN3" s="81"/>
-      <c r="AO3" s="81"/>
-      <c r="AP3" s="81"/>
-      <c r="AQ3" s="81"/>
-      <c r="AR3" s="81"/>
-      <c r="AS3" s="81"/>
-      <c r="AT3" s="82">
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="74">
         <v>45510</v>
       </c>
-      <c r="AU3" s="82"/>
-      <c r="AV3" s="82"/>
-      <c r="AW3" s="82"/>
-      <c r="AX3" s="82"/>
-      <c r="AY3" s="82"/>
-      <c r="AZ3" s="82"/>
-      <c r="BA3" s="82"/>
-      <c r="BB3" s="81" t="s">
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="74"/>
+      <c r="AW3" s="74"/>
+      <c r="AX3" s="74"/>
+      <c r="AY3" s="74"/>
+      <c r="AZ3" s="74"/>
+      <c r="BA3" s="74"/>
+      <c r="BB3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="81"/>
-      <c r="BD3" s="81"/>
-      <c r="BE3" s="81"/>
-      <c r="BF3" s="81"/>
-      <c r="BG3" s="81"/>
-      <c r="BH3" s="81"/>
-      <c r="BI3" s="81"/>
-      <c r="BJ3" s="83">
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="73"/>
+      <c r="BE3" s="73"/>
+      <c r="BF3" s="73"/>
+      <c r="BG3" s="73"/>
+      <c r="BH3" s="73"/>
+      <c r="BI3" s="73"/>
+      <c r="BJ3" s="75">
         <v>45548</v>
       </c>
-      <c r="BK3" s="83"/>
-      <c r="BL3" s="83"/>
-      <c r="BM3" s="83"/>
-      <c r="BN3" s="83"/>
-      <c r="BO3" s="83"/>
-      <c r="BP3" s="83"/>
-      <c r="BQ3" s="83"/>
+      <c r="BK3" s="75"/>
+      <c r="BL3" s="75"/>
+      <c r="BM3" s="75"/>
+      <c r="BN3" s="75"/>
+      <c r="BO3" s="75"/>
+      <c r="BP3" s="75"/>
+      <c r="BQ3" s="75"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -4724,20 +4757,20 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50" t="s">
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
       <c r="M6" s="76" t="s">
         <v>28</v>
       </c>
@@ -4768,52 +4801,52 @@
       <c r="AL6" s="76"/>
       <c r="AM6" s="76"/>
       <c r="AN6" s="76"/>
-      <c r="AO6" s="49" t="s">
+      <c r="AO6" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="49"/>
-      <c r="AQ6" s="49"/>
-      <c r="AR6" s="49"/>
-      <c r="AS6" s="49"/>
-      <c r="AT6" s="49"/>
-      <c r="AU6" s="49"/>
-      <c r="AV6" s="49" t="s">
+      <c r="AP6" s="57"/>
+      <c r="AQ6" s="57"/>
+      <c r="AR6" s="57"/>
+      <c r="AS6" s="57"/>
+      <c r="AT6" s="57"/>
+      <c r="AU6" s="57"/>
+      <c r="AV6" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="49"/>
-      <c r="AX6" s="49"/>
-      <c r="AY6" s="49"/>
-      <c r="AZ6" s="49"/>
-      <c r="BA6" s="49"/>
-      <c r="BB6" s="49"/>
-      <c r="BC6" s="49"/>
-      <c r="BD6" s="49"/>
-      <c r="BE6" s="49"/>
-      <c r="BF6" s="49"/>
-      <c r="BG6" s="49"/>
-      <c r="BH6" s="49"/>
-      <c r="BI6" s="49"/>
-      <c r="BJ6" s="49"/>
-      <c r="BK6" s="49"/>
-      <c r="BL6" s="49"/>
-      <c r="BM6" s="49"/>
-      <c r="BN6" s="49"/>
-      <c r="BO6" s="49"/>
-      <c r="BP6" s="49"/>
+      <c r="AW6" s="57"/>
+      <c r="AX6" s="57"/>
+      <c r="AY6" s="57"/>
+      <c r="AZ6" s="57"/>
+      <c r="BA6" s="57"/>
+      <c r="BB6" s="57"/>
+      <c r="BC6" s="57"/>
+      <c r="BD6" s="57"/>
+      <c r="BE6" s="57"/>
+      <c r="BF6" s="57"/>
+      <c r="BG6" s="57"/>
+      <c r="BH6" s="57"/>
+      <c r="BI6" s="57"/>
+      <c r="BJ6" s="57"/>
+      <c r="BK6" s="57"/>
+      <c r="BL6" s="57"/>
+      <c r="BM6" s="57"/>
+      <c r="BN6" s="57"/>
+      <c r="BO6" s="57"/>
+      <c r="BP6" s="57"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
       <c r="M7" s="17" t="s">
         <v>58</v>
       </c>
@@ -4844,38 +4877,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="49" t="s">
+      <c r="AO7" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="49"/>
-      <c r="AQ7" s="49"/>
-      <c r="AR7" s="49"/>
-      <c r="AS7" s="49"/>
-      <c r="AT7" s="49"/>
-      <c r="AU7" s="49"/>
-      <c r="AV7" s="49" t="s">
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="AW7" s="49"/>
-      <c r="AX7" s="49"/>
-      <c r="AY7" s="49"/>
-      <c r="AZ7" s="49"/>
-      <c r="BA7" s="49"/>
-      <c r="BB7" s="49"/>
-      <c r="BC7" s="49"/>
-      <c r="BD7" s="49"/>
-      <c r="BE7" s="49"/>
-      <c r="BF7" s="49"/>
-      <c r="BG7" s="49"/>
-      <c r="BH7" s="49"/>
-      <c r="BI7" s="49"/>
-      <c r="BJ7" s="49"/>
-      <c r="BK7" s="49"/>
-      <c r="BL7" s="49"/>
-      <c r="BM7" s="49"/>
-      <c r="BN7" s="49"/>
-      <c r="BO7" s="49"/>
-      <c r="BP7" s="49"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="57"/>
+      <c r="BA7" s="57"/>
+      <c r="BB7" s="57"/>
+      <c r="BC7" s="57"/>
+      <c r="BD7" s="57"/>
+      <c r="BE7" s="57"/>
+      <c r="BF7" s="57"/>
+      <c r="BG7" s="57"/>
+      <c r="BH7" s="57"/>
+      <c r="BI7" s="57"/>
+      <c r="BJ7" s="57"/>
+      <c r="BK7" s="57"/>
+      <c r="BL7" s="57"/>
+      <c r="BM7" s="57"/>
+      <c r="BN7" s="57"/>
+      <c r="BO7" s="57"/>
+      <c r="BP7" s="57"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -4889,89 +4922,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="69" t="s">
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69" t="s">
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="73" t="s">
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="74"/>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="74"/>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="74"/>
-      <c r="AN10" s="74"/>
-      <c r="AO10" s="74"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="74"/>
-      <c r="AR10" s="74"/>
-      <c r="AS10" s="74"/>
-      <c r="AT10" s="74"/>
-      <c r="AU10" s="74"/>
-      <c r="AV10" s="74"/>
-      <c r="AW10" s="74"/>
-      <c r="AX10" s="74"/>
-      <c r="AY10" s="74"/>
-      <c r="AZ10" s="74"/>
-      <c r="BA10" s="74"/>
-      <c r="BB10" s="74"/>
-      <c r="BC10" s="74"/>
-      <c r="BD10" s="74"/>
-      <c r="BE10" s="74"/>
-      <c r="BF10" s="74"/>
-      <c r="BG10" s="74"/>
-      <c r="BH10" s="74"/>
-      <c r="BI10" s="75"/>
-      <c r="BJ10" s="50" t="s">
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="79"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="79"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="79"/>
+      <c r="AM10" s="79"/>
+      <c r="AN10" s="79"/>
+      <c r="AO10" s="79"/>
+      <c r="AP10" s="79"/>
+      <c r="AQ10" s="79"/>
+      <c r="AR10" s="79"/>
+      <c r="AS10" s="79"/>
+      <c r="AT10" s="79"/>
+      <c r="AU10" s="79"/>
+      <c r="AV10" s="79"/>
+      <c r="AW10" s="79"/>
+      <c r="AX10" s="79"/>
+      <c r="AY10" s="79"/>
+      <c r="AZ10" s="79"/>
+      <c r="BA10" s="79"/>
+      <c r="BB10" s="79"/>
+      <c r="BC10" s="79"/>
+      <c r="BD10" s="79"/>
+      <c r="BE10" s="79"/>
+      <c r="BF10" s="79"/>
+      <c r="BG10" s="79"/>
+      <c r="BH10" s="79"/>
+      <c r="BI10" s="80"/>
+      <c r="BJ10" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="50"/>
-      <c r="BL10" s="50"/>
-      <c r="BM10" s="50"/>
-      <c r="BN10" s="50"/>
-      <c r="BO10" s="50"/>
-      <c r="BP10" s="50"/>
+      <c r="BK10" s="54"/>
+      <c r="BL10" s="54"/>
+      <c r="BM10" s="54"/>
+      <c r="BN10" s="54"/>
+      <c r="BO10" s="54"/>
+      <c r="BP10" s="54"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="17" t="s">
         <v>66</v>
       </c>
@@ -4987,11 +5020,11 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="69" t="s">
+      <c r="T11" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="69"/>
-      <c r="V11" s="72"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="38" t="s">
         <v>65</v>
       </c>
@@ -5043,10 +5076,10 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -5059,9 +5092,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
       <c r="W12" s="38"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -5110,10 +5143,10 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -5127,9 +5160,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
       <c r="W13" s="38"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -5178,10 +5211,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -5195,9 +5228,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
       <c r="W14" s="38"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -5246,10 +5279,10 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -5263,9 +5296,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
       <c r="W15" s="38"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -5325,88 +5358,88 @@
       <c r="AG17" s="16"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="69" t="s">
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69" t="s">
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="50" t="s">
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="50"/>
-      <c r="AH18" s="50"/>
-      <c r="AI18" s="50"/>
-      <c r="AJ18" s="50"/>
-      <c r="AK18" s="50"/>
-      <c r="AL18" s="50"/>
-      <c r="AM18" s="50"/>
-      <c r="AN18" s="50"/>
-      <c r="AO18" s="50"/>
-      <c r="AP18" s="50"/>
-      <c r="AQ18" s="50"/>
-      <c r="AR18" s="50"/>
-      <c r="AS18" s="50"/>
-      <c r="AT18" s="50"/>
-      <c r="AU18" s="50"/>
-      <c r="AV18" s="50"/>
-      <c r="AW18" s="50"/>
-      <c r="AX18" s="50"/>
-      <c r="AY18" s="50"/>
-      <c r="AZ18" s="50"/>
-      <c r="BA18" s="50"/>
-      <c r="BB18" s="50"/>
-      <c r="BC18" s="50"/>
-      <c r="BD18" s="50"/>
-      <c r="BE18" s="50"/>
-      <c r="BF18" s="50"/>
-      <c r="BG18" s="50"/>
-      <c r="BH18" s="50"/>
-      <c r="BI18" s="50"/>
-      <c r="BJ18" s="50" t="s">
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54"/>
+      <c r="AF18" s="54"/>
+      <c r="AG18" s="54"/>
+      <c r="AH18" s="54"/>
+      <c r="AI18" s="54"/>
+      <c r="AJ18" s="54"/>
+      <c r="AK18" s="54"/>
+      <c r="AL18" s="54"/>
+      <c r="AM18" s="54"/>
+      <c r="AN18" s="54"/>
+      <c r="AO18" s="54"/>
+      <c r="AP18" s="54"/>
+      <c r="AQ18" s="54"/>
+      <c r="AR18" s="54"/>
+      <c r="AS18" s="54"/>
+      <c r="AT18" s="54"/>
+      <c r="AU18" s="54"/>
+      <c r="AV18" s="54"/>
+      <c r="AW18" s="54"/>
+      <c r="AX18" s="54"/>
+      <c r="AY18" s="54"/>
+      <c r="AZ18" s="54"/>
+      <c r="BA18" s="54"/>
+      <c r="BB18" s="54"/>
+      <c r="BC18" s="54"/>
+      <c r="BD18" s="54"/>
+      <c r="BE18" s="54"/>
+      <c r="BF18" s="54"/>
+      <c r="BG18" s="54"/>
+      <c r="BH18" s="54"/>
+      <c r="BI18" s="54"/>
+      <c r="BJ18" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="BK18" s="50"/>
-      <c r="BL18" s="50"/>
-      <c r="BM18" s="50"/>
-      <c r="BN18" s="50"/>
-      <c r="BO18" s="50"/>
-      <c r="BP18" s="50"/>
+      <c r="BK18" s="54"/>
+      <c r="BL18" s="54"/>
+      <c r="BM18" s="54"/>
+      <c r="BN18" s="54"/>
+      <c r="BO18" s="54"/>
+      <c r="BP18" s="54"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
       <c r="G19" s="17" t="s">
         <v>63</v>
       </c>
@@ -5422,11 +5455,11 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="69" t="s">
+      <c r="T19" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
       <c r="W19" s="21" t="s">
         <v>67</v>
       </c>
@@ -5975,6 +6008,37 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -5989,37 +6053,6 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -6071,6 +6104,1627 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE19C390-29E1-421F-802B-4C94FFCB0FB9}">
+  <dimension ref="A1:AMK55"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.08984375" style="12" customWidth="1"/>
+    <col min="2" max="29" width="2.08984375" style="13" customWidth="1"/>
+    <col min="30" max="30" width="2.08984375" style="14" customWidth="1"/>
+    <col min="31" max="68" width="2.08984375" style="13" customWidth="1"/>
+    <col min="69" max="69" width="2.08984375" style="15" customWidth="1"/>
+    <col min="70" max="70" width="2.08984375" style="13" customWidth="1"/>
+    <col min="71" max="1025" width="2.08984375" style="13" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="A1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AT1" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU1" s="70"/>
+      <c r="AV1" s="70"/>
+      <c r="AW1" s="70"/>
+      <c r="AX1" s="70"/>
+      <c r="AY1" s="70"/>
+      <c r="AZ1" s="70"/>
+      <c r="BA1" s="70"/>
+      <c r="BB1" s="70"/>
+      <c r="BC1" s="70"/>
+      <c r="BD1" s="70"/>
+      <c r="BE1" s="70"/>
+      <c r="BF1" s="70"/>
+      <c r="BG1" s="70"/>
+      <c r="BH1" s="70"/>
+      <c r="BI1" s="70"/>
+      <c r="BJ1" s="70"/>
+      <c r="BK1" s="70"/>
+      <c r="BL1" s="70"/>
+      <c r="BM1" s="70"/>
+      <c r="BN1" s="70"/>
+      <c r="BO1" s="70"/>
+      <c r="BP1" s="70"/>
+      <c r="BQ1" s="70"/>
+    </row>
+    <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71"/>
+      <c r="AR2" s="71"/>
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="71"/>
+      <c r="AY2" s="71"/>
+      <c r="AZ2" s="71"/>
+      <c r="BA2" s="71"/>
+      <c r="BB2" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="BC2" s="71"/>
+      <c r="BD2" s="71"/>
+      <c r="BE2" s="71"/>
+      <c r="BF2" s="71"/>
+      <c r="BG2" s="71"/>
+      <c r="BH2" s="71"/>
+      <c r="BI2" s="71"/>
+      <c r="BJ2" s="72"/>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="72"/>
+      <c r="BO2" s="72"/>
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="72"/>
+    </row>
+    <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="74">
+        <v>45554</v>
+      </c>
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="74"/>
+      <c r="AW3" s="74"/>
+      <c r="AX3" s="74"/>
+      <c r="AY3" s="74"/>
+      <c r="AZ3" s="74"/>
+      <c r="BA3" s="74"/>
+      <c r="BB3" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="73"/>
+      <c r="BE3" s="73"/>
+      <c r="BF3" s="73"/>
+      <c r="BG3" s="73"/>
+      <c r="BH3" s="73"/>
+      <c r="BI3" s="73"/>
+      <c r="BJ3" s="75"/>
+      <c r="BK3" s="75"/>
+      <c r="BL3" s="75"/>
+      <c r="BM3" s="75"/>
+      <c r="BN3" s="75"/>
+      <c r="BO3" s="75"/>
+      <c r="BP3" s="75"/>
+      <c r="BQ3" s="75"/>
+    </row>
+    <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AD4" s="13"/>
+      <c r="AG4" s="16"/>
+    </row>
+    <row r="5" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="AD5" s="13"/>
+      <c r="AG5" s="16"/>
+    </row>
+    <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="76"/>
+      <c r="AK6" s="76"/>
+      <c r="AL6" s="76"/>
+      <c r="AM6" s="76"/>
+      <c r="AN6" s="76"/>
+      <c r="AO6" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP6" s="57"/>
+      <c r="AQ6" s="57"/>
+      <c r="AR6" s="57"/>
+      <c r="AS6" s="57"/>
+      <c r="AT6" s="57"/>
+      <c r="AU6" s="57"/>
+      <c r="AV6" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW6" s="57"/>
+      <c r="AX6" s="57"/>
+      <c r="AY6" s="57"/>
+      <c r="AZ6" s="57"/>
+      <c r="BA6" s="57"/>
+      <c r="BB6" s="57"/>
+      <c r="BC6" s="57"/>
+      <c r="BD6" s="57"/>
+      <c r="BE6" s="57"/>
+      <c r="BF6" s="57"/>
+      <c r="BG6" s="57"/>
+      <c r="BH6" s="57"/>
+      <c r="BI6" s="57"/>
+      <c r="BJ6" s="57"/>
+      <c r="BK6" s="57"/>
+      <c r="BL6" s="57"/>
+      <c r="BM6" s="57"/>
+      <c r="BN6" s="57"/>
+      <c r="BO6" s="57"/>
+      <c r="BP6" s="57"/>
+    </row>
+    <row r="7" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C7" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="20"/>
+      <c r="AO7" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="57"/>
+      <c r="BA7" s="57"/>
+      <c r="BB7" s="57"/>
+      <c r="BC7" s="57"/>
+      <c r="BD7" s="57"/>
+      <c r="BE7" s="57"/>
+      <c r="BF7" s="57"/>
+      <c r="BG7" s="57"/>
+      <c r="BH7" s="57"/>
+      <c r="BI7" s="57"/>
+      <c r="BJ7" s="57"/>
+      <c r="BK7" s="57"/>
+      <c r="BL7" s="57"/>
+      <c r="BM7" s="57"/>
+      <c r="BN7" s="57"/>
+      <c r="BO7" s="57"/>
+      <c r="BP7" s="57"/>
+    </row>
+    <row r="8" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="AD8" s="13"/>
+      <c r="AG8" s="16"/>
+    </row>
+    <row r="9" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="B9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD9" s="13"/>
+      <c r="AG9" s="16"/>
+    </row>
+    <row r="10" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="79"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="79"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="79"/>
+      <c r="AM10" s="79"/>
+      <c r="AN10" s="79"/>
+      <c r="AO10" s="79"/>
+      <c r="AP10" s="79"/>
+      <c r="AQ10" s="79"/>
+      <c r="AR10" s="79"/>
+      <c r="AS10" s="79"/>
+      <c r="AT10" s="79"/>
+      <c r="AU10" s="79"/>
+      <c r="AV10" s="79"/>
+      <c r="AW10" s="79"/>
+      <c r="AX10" s="79"/>
+      <c r="AY10" s="79"/>
+      <c r="AZ10" s="79"/>
+      <c r="BA10" s="79"/>
+      <c r="BB10" s="79"/>
+      <c r="BC10" s="79"/>
+      <c r="BD10" s="79"/>
+      <c r="BE10" s="79"/>
+      <c r="BF10" s="79"/>
+      <c r="BG10" s="79"/>
+      <c r="BH10" s="79"/>
+      <c r="BI10" s="80"/>
+      <c r="BJ10" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK10" s="54"/>
+      <c r="BL10" s="54"/>
+      <c r="BM10" s="54"/>
+      <c r="BN10" s="54"/>
+      <c r="BO10" s="54"/>
+      <c r="BP10" s="54"/>
+    </row>
+    <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="C11" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="18"/>
+      <c r="AM11" s="18"/>
+      <c r="AN11" s="18"/>
+      <c r="AO11" s="18"/>
+      <c r="AP11" s="18"/>
+      <c r="AQ11" s="18"/>
+      <c r="AR11" s="18"/>
+      <c r="AS11" s="18"/>
+      <c r="AT11" s="18"/>
+      <c r="AU11" s="18"/>
+      <c r="AV11" s="18"/>
+      <c r="AW11" s="18"/>
+      <c r="AX11" s="18"/>
+      <c r="AY11" s="18"/>
+      <c r="AZ11" s="18"/>
+      <c r="BA11" s="18"/>
+      <c r="BB11" s="18"/>
+      <c r="BC11" s="18"/>
+      <c r="BD11" s="18"/>
+      <c r="BE11" s="18"/>
+      <c r="BF11" s="18"/>
+      <c r="BG11" s="18"/>
+      <c r="BH11" s="18"/>
+      <c r="BI11" s="20"/>
+      <c r="BJ11" s="22"/>
+      <c r="BK11" s="23"/>
+      <c r="BL11" s="23"/>
+      <c r="BM11" s="23"/>
+      <c r="BN11" s="23"/>
+      <c r="BO11" s="23"/>
+      <c r="BP11" s="24"/>
+      <c r="BQ11" s="15"/>
+    </row>
+    <row r="12" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="32"/>
+      <c r="AI12" s="32"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="32"/>
+      <c r="AN12" s="32"/>
+      <c r="AO12" s="32"/>
+      <c r="AP12" s="32"/>
+      <c r="AQ12" s="32"/>
+      <c r="AR12" s="32"/>
+      <c r="AS12" s="32"/>
+      <c r="AT12" s="32"/>
+      <c r="AU12" s="32"/>
+      <c r="AV12" s="32"/>
+      <c r="AW12" s="32"/>
+      <c r="AX12" s="32"/>
+      <c r="AY12" s="32"/>
+      <c r="AZ12" s="32"/>
+      <c r="BA12" s="32"/>
+      <c r="BB12" s="32"/>
+      <c r="BC12" s="32"/>
+      <c r="BD12" s="32"/>
+      <c r="BE12" s="32"/>
+      <c r="BF12" s="32"/>
+      <c r="BG12" s="32"/>
+      <c r="BH12" s="32"/>
+      <c r="BI12" s="34"/>
+      <c r="BJ12" s="22"/>
+      <c r="BK12" s="23"/>
+      <c r="BL12" s="23"/>
+      <c r="BM12" s="23"/>
+      <c r="BN12" s="23"/>
+      <c r="BO12" s="23"/>
+      <c r="BP12" s="24"/>
+    </row>
+    <row r="13" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="18"/>
+      <c r="AK13" s="18"/>
+      <c r="AL13" s="18"/>
+      <c r="AM13" s="18"/>
+      <c r="AN13" s="18"/>
+      <c r="AO13" s="18"/>
+      <c r="AP13" s="18"/>
+      <c r="AQ13" s="18"/>
+      <c r="AR13" s="18"/>
+      <c r="AS13" s="18"/>
+      <c r="AT13" s="18"/>
+      <c r="AU13" s="18"/>
+      <c r="AV13" s="18"/>
+      <c r="AW13" s="18"/>
+      <c r="AX13" s="18"/>
+      <c r="AY13" s="18"/>
+      <c r="AZ13" s="18"/>
+      <c r="BA13" s="18"/>
+      <c r="BB13" s="18"/>
+      <c r="BC13" s="18"/>
+      <c r="BD13" s="18"/>
+      <c r="BE13" s="18"/>
+      <c r="BF13" s="18"/>
+      <c r="BG13" s="18"/>
+      <c r="BH13" s="18"/>
+      <c r="BI13" s="20"/>
+      <c r="BJ13" s="22"/>
+      <c r="BK13" s="23"/>
+      <c r="BL13" s="23"/>
+      <c r="BM13" s="23"/>
+      <c r="BN13" s="23"/>
+      <c r="BO13" s="23"/>
+      <c r="BP13" s="24"/>
+    </row>
+    <row r="14" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="18"/>
+      <c r="AL14" s="18"/>
+      <c r="AM14" s="18"/>
+      <c r="AN14" s="18"/>
+      <c r="AO14" s="18"/>
+      <c r="AP14" s="18"/>
+      <c r="AQ14" s="18"/>
+      <c r="AR14" s="18"/>
+      <c r="AS14" s="18"/>
+      <c r="AT14" s="18"/>
+      <c r="AU14" s="18"/>
+      <c r="AV14" s="18"/>
+      <c r="AW14" s="18"/>
+      <c r="AX14" s="18"/>
+      <c r="AY14" s="18"/>
+      <c r="AZ14" s="18"/>
+      <c r="BA14" s="18"/>
+      <c r="BB14" s="18"/>
+      <c r="BC14" s="18"/>
+      <c r="BD14" s="18"/>
+      <c r="BE14" s="18"/>
+      <c r="BF14" s="18"/>
+      <c r="BG14" s="18"/>
+      <c r="BH14" s="18"/>
+      <c r="BI14" s="20"/>
+      <c r="BJ14" s="22"/>
+      <c r="BK14" s="23"/>
+      <c r="BL14" s="23"/>
+      <c r="BM14" s="23"/>
+      <c r="BN14" s="23"/>
+      <c r="BO14" s="23"/>
+      <c r="BP14" s="24"/>
+    </row>
+    <row r="15" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="39"/>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="18"/>
+      <c r="AJ15" s="18"/>
+      <c r="AK15" s="18"/>
+      <c r="AL15" s="18"/>
+      <c r="AM15" s="18"/>
+      <c r="AN15" s="18"/>
+      <c r="AO15" s="18"/>
+      <c r="AP15" s="18"/>
+      <c r="AQ15" s="18"/>
+      <c r="AR15" s="18"/>
+      <c r="AS15" s="18"/>
+      <c r="AT15" s="18"/>
+      <c r="AU15" s="18"/>
+      <c r="AV15" s="18"/>
+      <c r="AW15" s="18"/>
+      <c r="AX15" s="18"/>
+      <c r="AY15" s="18"/>
+      <c r="AZ15" s="18"/>
+      <c r="BA15" s="18"/>
+      <c r="BB15" s="18"/>
+      <c r="BC15" s="18"/>
+      <c r="BD15" s="18"/>
+      <c r="BE15" s="18"/>
+      <c r="BF15" s="18"/>
+      <c r="BG15" s="18"/>
+      <c r="BH15" s="18"/>
+      <c r="BI15" s="20"/>
+      <c r="BJ15" s="22"/>
+      <c r="BK15" s="23"/>
+      <c r="BL15" s="23"/>
+      <c r="BM15" s="23"/>
+      <c r="BN15" s="23"/>
+      <c r="BO15" s="23"/>
+      <c r="BP15" s="24"/>
+    </row>
+    <row r="16" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="AD16" s="13"/>
+      <c r="AG16" s="16"/>
+    </row>
+    <row r="17" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="B17" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD17" s="13"/>
+      <c r="AG17" s="16"/>
+    </row>
+    <row r="18" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54"/>
+      <c r="AF18" s="54"/>
+      <c r="AG18" s="54"/>
+      <c r="AH18" s="54"/>
+      <c r="AI18" s="54"/>
+      <c r="AJ18" s="54"/>
+      <c r="AK18" s="54"/>
+      <c r="AL18" s="54"/>
+      <c r="AM18" s="54"/>
+      <c r="AN18" s="54"/>
+      <c r="AO18" s="54"/>
+      <c r="AP18" s="54"/>
+      <c r="AQ18" s="54"/>
+      <c r="AR18" s="54"/>
+      <c r="AS18" s="54"/>
+      <c r="AT18" s="54"/>
+      <c r="AU18" s="54"/>
+      <c r="AV18" s="54"/>
+      <c r="AW18" s="54"/>
+      <c r="AX18" s="54"/>
+      <c r="AY18" s="54"/>
+      <c r="AZ18" s="54"/>
+      <c r="BA18" s="54"/>
+      <c r="BB18" s="54"/>
+      <c r="BC18" s="54"/>
+      <c r="BD18" s="54"/>
+      <c r="BE18" s="54"/>
+      <c r="BF18" s="54"/>
+      <c r="BG18" s="54"/>
+      <c r="BH18" s="54"/>
+      <c r="BI18" s="54"/>
+      <c r="BJ18" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK18" s="54"/>
+      <c r="BL18" s="54"/>
+      <c r="BM18" s="54"/>
+      <c r="BN18" s="54"/>
+      <c r="BO18" s="54"/>
+      <c r="BP18" s="54"/>
+    </row>
+    <row r="19" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C19" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="18"/>
+      <c r="AO19" s="18"/>
+      <c r="AP19" s="18"/>
+      <c r="AQ19" s="18"/>
+      <c r="AR19" s="18"/>
+      <c r="AS19" s="18"/>
+      <c r="AT19" s="18"/>
+      <c r="AU19" s="18"/>
+      <c r="AV19" s="18"/>
+      <c r="AW19" s="18"/>
+      <c r="AX19" s="18"/>
+      <c r="AY19" s="18"/>
+      <c r="AZ19" s="18"/>
+      <c r="BA19" s="18"/>
+      <c r="BB19" s="18"/>
+      <c r="BC19" s="18"/>
+      <c r="BD19" s="18"/>
+      <c r="BE19" s="18"/>
+      <c r="BF19" s="18"/>
+      <c r="BG19" s="18"/>
+      <c r="BH19" s="18"/>
+      <c r="BI19" s="20"/>
+      <c r="BJ19" s="22"/>
+      <c r="BK19" s="23"/>
+      <c r="BL19" s="23"/>
+      <c r="BM19" s="23"/>
+      <c r="BN19" s="23"/>
+      <c r="BO19" s="23"/>
+      <c r="BP19" s="24"/>
+    </row>
+    <row r="20" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="AG20" s="16"/>
+      <c r="BQ20" s="15"/>
+    </row>
+    <row r="21" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+      <c r="AQ21"/>
+      <c r="AR21"/>
+      <c r="AS21"/>
+      <c r="AT21"/>
+      <c r="AU21"/>
+      <c r="AV21"/>
+      <c r="AW21"/>
+      <c r="AX21"/>
+      <c r="AY21"/>
+      <c r="AZ21"/>
+      <c r="BA21"/>
+      <c r="BB21"/>
+      <c r="BC21"/>
+      <c r="BD21"/>
+      <c r="BE21"/>
+      <c r="BF21"/>
+      <c r="BG21"/>
+      <c r="BH21"/>
+      <c r="BI21"/>
+      <c r="BJ21"/>
+      <c r="BK21"/>
+      <c r="BL21"/>
+      <c r="BM21"/>
+      <c r="BN21"/>
+      <c r="BO21"/>
+      <c r="BP21"/>
+      <c r="BQ21" s="15"/>
+    </row>
+    <row r="22" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22"/>
+      <c r="AL22"/>
+      <c r="AM22"/>
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22"/>
+      <c r="AQ22"/>
+      <c r="AR22"/>
+      <c r="AS22"/>
+      <c r="AT22"/>
+      <c r="AU22"/>
+      <c r="AV22"/>
+      <c r="AW22"/>
+      <c r="AX22"/>
+      <c r="AY22"/>
+      <c r="AZ22"/>
+      <c r="BA22"/>
+      <c r="BB22"/>
+      <c r="BC22"/>
+      <c r="BD22"/>
+      <c r="BE22"/>
+      <c r="BF22"/>
+      <c r="BG22"/>
+      <c r="BH22"/>
+      <c r="BI22"/>
+      <c r="BJ22"/>
+      <c r="BK22"/>
+      <c r="BL22"/>
+      <c r="BM22"/>
+      <c r="BN22"/>
+      <c r="BO22"/>
+      <c r="BP22"/>
+      <c r="BQ22" s="15"/>
+    </row>
+    <row r="23" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="26"/>
+      <c r="AM23" s="26"/>
+      <c r="AN23" s="26"/>
+      <c r="AO23" s="26"/>
+      <c r="AP23" s="26"/>
+      <c r="AQ23" s="26"/>
+      <c r="AR23" s="26"/>
+      <c r="AS23" s="26"/>
+      <c r="AT23" s="26"/>
+      <c r="AU23" s="26"/>
+      <c r="AV23" s="26"/>
+      <c r="AW23" s="26"/>
+      <c r="AX23" s="26"/>
+      <c r="AY23" s="26"/>
+      <c r="AZ23" s="26"/>
+      <c r="BA23" s="26"/>
+      <c r="BB23" s="26"/>
+      <c r="BC23" s="26"/>
+      <c r="BD23" s="26"/>
+      <c r="BE23" s="26"/>
+      <c r="BF23" s="26"/>
+      <c r="BG23" s="26"/>
+      <c r="BH23" s="26"/>
+      <c r="BI23" s="26"/>
+      <c r="BJ23" s="26"/>
+      <c r="BK23" s="26"/>
+      <c r="BL23" s="26"/>
+      <c r="BM23" s="26"/>
+      <c r="BN23" s="26"/>
+      <c r="BO23" s="26"/>
+      <c r="BP23" s="28"/>
+    </row>
+    <row r="24" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C24" s="29"/>
+      <c r="D24" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD24" s="13"/>
+      <c r="AG24" s="16"/>
+      <c r="BP24" s="30"/>
+    </row>
+    <row r="25" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C25" s="29"/>
+      <c r="D25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD25" s="13"/>
+      <c r="AG25" s="16"/>
+      <c r="BP25" s="30"/>
+    </row>
+    <row r="26" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C26" s="29"/>
+      <c r="I26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD26" s="13"/>
+      <c r="AG26" s="16"/>
+      <c r="BP26" s="30"/>
+    </row>
+    <row r="27" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C27" s="29"/>
+      <c r="AD27" s="13"/>
+      <c r="AG27" s="16"/>
+      <c r="BP27" s="30"/>
+    </row>
+    <row r="28" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C28" s="29"/>
+      <c r="D28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD28" s="13"/>
+      <c r="AG28" s="16"/>
+      <c r="BP28" s="30"/>
+    </row>
+    <row r="29" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C29" s="29"/>
+      <c r="I29" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD29" s="13"/>
+      <c r="AG29" s="16"/>
+      <c r="BP29" s="30"/>
+    </row>
+    <row r="30" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C30" s="29"/>
+      <c r="AD30" s="13"/>
+      <c r="AG30" s="16"/>
+      <c r="BP30" s="30"/>
+    </row>
+    <row r="31" spans="1:69" x14ac:dyDescent="0.2">
+      <c r="C31" s="29"/>
+      <c r="D31" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD31" s="13"/>
+      <c r="AG31" s="16"/>
+      <c r="BP31" s="30"/>
+    </row>
+    <row r="32" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="C32" s="29"/>
+      <c r="I32" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG32" s="16"/>
+      <c r="BP32" s="30"/>
+      <c r="BQ32" s="15"/>
+    </row>
+    <row r="33" spans="3:68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="29"/>
+      <c r="AD33" s="13"/>
+      <c r="AG33" s="16"/>
+      <c r="BP33" s="30"/>
+    </row>
+    <row r="34" spans="3:68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="29"/>
+      <c r="AD34" s="13"/>
+      <c r="AG34" s="16"/>
+      <c r="BP34" s="30"/>
+    </row>
+    <row r="35" spans="3:68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="29"/>
+      <c r="D35" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD35" s="13"/>
+      <c r="AG35" s="16"/>
+      <c r="BP35" s="30"/>
+    </row>
+    <row r="36" spans="3:68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="29"/>
+      <c r="AD36" s="13"/>
+      <c r="AG36" s="16"/>
+      <c r="BP36" s="30"/>
+    </row>
+    <row r="37" spans="3:68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="29"/>
+      <c r="AD37" s="13"/>
+      <c r="AG37" s="16"/>
+      <c r="BP37" s="30"/>
+    </row>
+    <row r="38" spans="3:68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="29"/>
+      <c r="AD38" s="13"/>
+      <c r="AG38" s="16"/>
+      <c r="BP38" s="30"/>
+    </row>
+    <row r="39" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C39" s="29"/>
+      <c r="AD39" s="13"/>
+      <c r="AG39" s="16"/>
+      <c r="BP39" s="30"/>
+    </row>
+    <row r="40" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C40" s="29"/>
+      <c r="D40" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD40" s="13"/>
+      <c r="AG40" s="16"/>
+      <c r="BP40" s="30"/>
+    </row>
+    <row r="41" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C41" s="29"/>
+      <c r="AD41" s="13"/>
+      <c r="AG41" s="16"/>
+      <c r="BP41" s="30"/>
+    </row>
+    <row r="42" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C42" s="29"/>
+      <c r="I42" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD42" s="13"/>
+      <c r="AG42" s="16"/>
+      <c r="BP42" s="30"/>
+    </row>
+    <row r="43" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C43" s="29"/>
+      <c r="AD43" s="13"/>
+      <c r="AG43" s="16"/>
+      <c r="BP43" s="30"/>
+    </row>
+    <row r="44" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C44" s="29"/>
+      <c r="AD44" s="13"/>
+      <c r="AG44" s="16"/>
+      <c r="BP44" s="30"/>
+    </row>
+    <row r="45" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C45" s="29"/>
+      <c r="AD45" s="13"/>
+      <c r="AG45" s="16"/>
+      <c r="BP45" s="30"/>
+    </row>
+    <row r="46" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C46" s="29"/>
+      <c r="AD46" s="13"/>
+      <c r="AG46" s="16"/>
+      <c r="BP46" s="30"/>
+    </row>
+    <row r="47" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C47" s="29"/>
+      <c r="AD47" s="13"/>
+      <c r="AG47" s="16"/>
+      <c r="BP47" s="30"/>
+    </row>
+    <row r="48" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C48" s="29"/>
+      <c r="AD48" s="13"/>
+      <c r="AG48" s="16"/>
+      <c r="BP48" s="30"/>
+    </row>
+    <row r="49" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C49" s="29"/>
+      <c r="AD49" s="13"/>
+      <c r="AG49" s="16"/>
+      <c r="BP49" s="30"/>
+    </row>
+    <row r="50" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C50" s="29"/>
+      <c r="AD50" s="13"/>
+      <c r="AG50" s="16"/>
+      <c r="BP50" s="30"/>
+    </row>
+    <row r="51" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C51" s="29"/>
+      <c r="AD51" s="13"/>
+      <c r="AG51" s="16"/>
+      <c r="BP51" s="30"/>
+    </row>
+    <row r="52" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C52" s="29"/>
+      <c r="AD52" s="13"/>
+      <c r="AG52" s="16"/>
+      <c r="BP52" s="30"/>
+    </row>
+    <row r="53" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C53" s="29"/>
+      <c r="AD53" s="13"/>
+      <c r="AG53" s="16"/>
+      <c r="BP53" s="30"/>
+    </row>
+    <row r="54" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C54" s="29"/>
+      <c r="AD54" s="13"/>
+      <c r="AG54" s="16"/>
+      <c r="BP54" s="30"/>
+    </row>
+    <row r="55" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C55" s="31"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="32"/>
+      <c r="V55" s="32"/>
+      <c r="W55" s="32"/>
+      <c r="X55" s="32"/>
+      <c r="Y55" s="32"/>
+      <c r="Z55" s="32"/>
+      <c r="AA55" s="32"/>
+      <c r="AB55" s="32"/>
+      <c r="AC55" s="32"/>
+      <c r="AD55" s="32"/>
+      <c r="AE55" s="32"/>
+      <c r="AF55" s="32"/>
+      <c r="AG55" s="33"/>
+      <c r="AH55" s="32"/>
+      <c r="AI55" s="32"/>
+      <c r="AJ55" s="32"/>
+      <c r="AK55" s="32"/>
+      <c r="AL55" s="32"/>
+      <c r="AM55" s="32"/>
+      <c r="AN55" s="32"/>
+      <c r="AO55" s="32"/>
+      <c r="AP55" s="32"/>
+      <c r="AQ55" s="32"/>
+      <c r="AR55" s="32"/>
+      <c r="AS55" s="32"/>
+      <c r="AT55" s="32"/>
+      <c r="AU55" s="32"/>
+      <c r="AV55" s="32"/>
+      <c r="AW55" s="32"/>
+      <c r="AX55" s="32"/>
+      <c r="AY55" s="32"/>
+      <c r="AZ55" s="32"/>
+      <c r="BA55" s="32"/>
+      <c r="BB55" s="32"/>
+      <c r="BC55" s="32"/>
+      <c r="BD55" s="32"/>
+      <c r="BE55" s="32"/>
+      <c r="BF55" s="32"/>
+      <c r="BG55" s="32"/>
+      <c r="BH55" s="32"/>
+      <c r="BI55" s="32"/>
+      <c r="BJ55" s="32"/>
+      <c r="BK55" s="32"/>
+      <c r="BL55" s="32"/>
+      <c r="BM55" s="32"/>
+      <c r="BN55" s="32"/>
+      <c r="BO55" s="32"/>
+      <c r="BP55" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+  </mergeCells>
+  <phoneticPr fontId="7"/>
+  <dataValidations count="1">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="T11:T15 T19" xr:uid="{F622269C-0CDD-430F-AA36-2DF3F63BDD73}">
+      <formula1>"◯,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{E80F7E9B-CE94-4BE2-9DC6-B83F39497D44}">
+          <x14:formula1>
+            <xm:f>マスタ!$C$2:$C$5</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>AO7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{F055F595-8AAB-47D8-9484-0EB34F13C8E4}">
+          <x14:formula1>
+            <xm:f>マスタ!$B$2:$B$5</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>H7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{4FE00FF9-F4AB-4306-A081-6C9364BBECBA}">
+          <x14:formula1>
+            <xm:f>マスタ!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>C7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAC679A-4EC1-4C10-8A98-7CFBD70D81D5}">
   <dimension ref="B2:AW7"/>
   <sheetViews>
@@ -6369,7 +8023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>

--- a/交通費申請一覧機能/設計書/マッパー設計書_ユーザマスタ.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_ユーザマスタ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BD8454-4AB1-4F8A-9AC9-82A5E7A3AEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B73F67B-5443-464E-BDAD-1C27D5454438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5660" yWindow="250" windowWidth="13280" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_ユーザマスターマッパー" sheetId="10" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="90">
   <si>
     <t>システム名</t>
   </si>
@@ -531,6 +531,20 @@
     </rPh>
     <rPh sb="4" eb="7">
       <t>ゼンコウモク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>AND UserMTable.削除フラグ = "0"</t>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>UserMTable.削除フラグ = "0"</t>
+    <rPh sb="11" eb="13">
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -1088,6 +1102,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="4" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1103,46 +1156,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1152,9 +1191,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1167,28 +1203,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
@@ -1411,247 +1425,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50" t="s">
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="51" t="s">
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="51"/>
-      <c r="BB1" s="51"/>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="51"/>
-      <c r="BE1" s="51"/>
-      <c r="BF1" s="51"/>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
-      <c r="BJ1" s="51"/>
-      <c r="BK1" s="51"/>
-      <c r="BL1" s="51"/>
-      <c r="BM1" s="51"/>
-      <c r="BN1" s="51"/>
-      <c r="BO1" s="51"/>
-      <c r="BP1" s="51"/>
-      <c r="BQ1" s="51"/>
+      <c r="AU1" s="64"/>
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="64"/>
+      <c r="BB1" s="64"/>
+      <c r="BC1" s="64"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="64"/>
+      <c r="BF1" s="64"/>
+      <c r="BG1" s="64"/>
+      <c r="BH1" s="64"/>
+      <c r="BI1" s="64"/>
+      <c r="BJ1" s="64"/>
+      <c r="BK1" s="64"/>
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="64"/>
+      <c r="BN1" s="64"/>
+      <c r="BO1" s="64"/>
+      <c r="BP1" s="64"/>
+      <c r="BQ1" s="64"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="54" t="s">
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="54"/>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54" t="s">
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="50"/>
+      <c r="AT2" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="54"/>
-      <c r="BB2" s="54" t="s">
+      <c r="AU2" s="50"/>
+      <c r="AV2" s="50"/>
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="50"/>
+      <c r="BA2" s="50"/>
+      <c r="BB2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="54"/>
-      <c r="BD2" s="54"/>
-      <c r="BE2" s="54"/>
-      <c r="BF2" s="54"/>
-      <c r="BG2" s="54"/>
-      <c r="BH2" s="54"/>
-      <c r="BI2" s="54"/>
-      <c r="BJ2" s="55" t="s">
+      <c r="BC2" s="50"/>
+      <c r="BD2" s="50"/>
+      <c r="BE2" s="50"/>
+      <c r="BF2" s="50"/>
+      <c r="BG2" s="50"/>
+      <c r="BH2" s="50"/>
+      <c r="BI2" s="50"/>
+      <c r="BJ2" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="BK2" s="55"/>
-      <c r="BL2" s="55"/>
-      <c r="BM2" s="55"/>
-      <c r="BN2" s="55"/>
-      <c r="BO2" s="55"/>
-      <c r="BP2" s="55"/>
-      <c r="BQ2" s="55"/>
+      <c r="BK2" s="67"/>
+      <c r="BL2" s="67"/>
+      <c r="BM2" s="67"/>
+      <c r="BN2" s="67"/>
+      <c r="BO2" s="67"/>
+      <c r="BP2" s="67"/>
+      <c r="BQ2" s="67"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="60" t="s">
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="60"/>
-      <c r="AM3" s="60"/>
-      <c r="AN3" s="60"/>
-      <c r="AO3" s="60"/>
-      <c r="AP3" s="60"/>
-      <c r="AQ3" s="60"/>
-      <c r="AR3" s="60"/>
-      <c r="AS3" s="60"/>
-      <c r="AT3" s="61">
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="58"/>
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="58"/>
+      <c r="AT3" s="59">
         <v>45511</v>
       </c>
-      <c r="AU3" s="61"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="61"/>
-      <c r="AX3" s="61"/>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="61"/>
-      <c r="BA3" s="61"/>
-      <c r="BB3" s="60" t="s">
+      <c r="AU3" s="59"/>
+      <c r="AV3" s="59"/>
+      <c r="AW3" s="59"/>
+      <c r="AX3" s="59"/>
+      <c r="AY3" s="59"/>
+      <c r="AZ3" s="59"/>
+      <c r="BA3" s="59"/>
+      <c r="BB3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="60"/>
-      <c r="BD3" s="60"/>
-      <c r="BE3" s="60"/>
-      <c r="BF3" s="60"/>
-      <c r="BG3" s="60"/>
-      <c r="BH3" s="60"/>
-      <c r="BI3" s="60"/>
-      <c r="BJ3" s="62">
+      <c r="BC3" s="58"/>
+      <c r="BD3" s="58"/>
+      <c r="BE3" s="58"/>
+      <c r="BF3" s="58"/>
+      <c r="BG3" s="58"/>
+      <c r="BH3" s="58"/>
+      <c r="BI3" s="58"/>
+      <c r="BJ3" s="60">
         <v>45548</v>
       </c>
-      <c r="BK3" s="62"/>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="62"/>
-      <c r="BN3" s="62"/>
-      <c r="BO3" s="62"/>
-      <c r="BP3" s="62"/>
-      <c r="BQ3" s="62"/>
+      <c r="BK3" s="60"/>
+      <c r="BL3" s="60"/>
+      <c r="BM3" s="60"/>
+      <c r="BN3" s="60"/>
+      <c r="BO3" s="60"/>
+      <c r="BP3" s="60"/>
+      <c r="BQ3" s="60"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -1718,213 +1732,213 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="63"/>
-      <c r="Z6" s="63"/>
-      <c r="AA6" s="63"/>
-      <c r="AB6" s="63"/>
-      <c r="AC6" s="63"/>
-      <c r="AD6" s="63"/>
-      <c r="AE6" s="63"/>
-      <c r="AF6" s="63"/>
-      <c r="AG6" s="63"/>
-      <c r="AH6" s="63"/>
-      <c r="AI6" s="63"/>
-      <c r="AJ6" s="63"/>
-      <c r="AK6" s="63"/>
-      <c r="AL6" s="63"/>
-      <c r="AM6" s="63"/>
-      <c r="AN6" s="63"/>
-      <c r="AO6" s="63"/>
-      <c r="AP6" s="63"/>
-      <c r="AQ6" s="63"/>
-      <c r="AR6" s="63"/>
-      <c r="AS6" s="63"/>
-      <c r="AT6" s="63"/>
-      <c r="AU6" s="63"/>
-      <c r="AV6" s="63"/>
-      <c r="AW6" s="63"/>
-      <c r="AX6" s="63"/>
-      <c r="AY6" s="63"/>
-      <c r="AZ6" s="63"/>
-      <c r="BA6" s="63"/>
-      <c r="BB6" s="63"/>
-      <c r="BC6" s="63"/>
-      <c r="BD6" s="63"/>
-      <c r="BE6" s="63"/>
-      <c r="BF6" s="63"/>
-      <c r="BG6" s="63"/>
-      <c r="BH6" s="63"/>
-      <c r="BI6" s="63"/>
-      <c r="BJ6" s="63"/>
-      <c r="BK6" s="63"/>
-      <c r="BL6" s="63"/>
-      <c r="BM6" s="63"/>
-      <c r="BN6" s="63"/>
-      <c r="BO6" s="63"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="61"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="61"/>
+      <c r="AK6" s="61"/>
+      <c r="AL6" s="61"/>
+      <c r="AM6" s="61"/>
+      <c r="AN6" s="61"/>
+      <c r="AO6" s="61"/>
+      <c r="AP6" s="61"/>
+      <c r="AQ6" s="61"/>
+      <c r="AR6" s="61"/>
+      <c r="AS6" s="61"/>
+      <c r="AT6" s="61"/>
+      <c r="AU6" s="61"/>
+      <c r="AV6" s="61"/>
+      <c r="AW6" s="61"/>
+      <c r="AX6" s="61"/>
+      <c r="AY6" s="61"/>
+      <c r="AZ6" s="61"/>
+      <c r="BA6" s="61"/>
+      <c r="BB6" s="61"/>
+      <c r="BC6" s="61"/>
+      <c r="BD6" s="61"/>
+      <c r="BE6" s="61"/>
+      <c r="BF6" s="61"/>
+      <c r="BG6" s="61"/>
+      <c r="BH6" s="61"/>
+      <c r="BI6" s="61"/>
+      <c r="BJ6" s="61"/>
+      <c r="BK6" s="61"/>
+      <c r="BL6" s="61"/>
+      <c r="BM6" s="61"/>
+      <c r="BN6" s="61"/>
+      <c r="BO6" s="61"/>
       <c r="BP6"/>
       <c r="BQ6" s="4"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
-      <c r="X7" s="63"/>
-      <c r="Y7" s="63"/>
-      <c r="Z7" s="63"/>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="63"/>
-      <c r="AC7" s="63"/>
-      <c r="AD7" s="63"/>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="63"/>
-      <c r="AG7" s="63"/>
-      <c r="AH7" s="63"/>
-      <c r="AI7" s="63"/>
-      <c r="AJ7" s="63"/>
-      <c r="AK7" s="63"/>
-      <c r="AL7" s="63"/>
-      <c r="AM7" s="63"/>
-      <c r="AN7" s="63"/>
-      <c r="AO7" s="63"/>
-      <c r="AP7" s="63"/>
-      <c r="AQ7" s="63"/>
-      <c r="AR7" s="63"/>
-      <c r="AS7" s="63"/>
-      <c r="AT7" s="63"/>
-      <c r="AU7" s="63"/>
-      <c r="AV7" s="63"/>
-      <c r="AW7" s="63"/>
-      <c r="AX7" s="63"/>
-      <c r="AY7" s="63"/>
-      <c r="AZ7" s="63"/>
-      <c r="BA7" s="63"/>
-      <c r="BB7" s="63"/>
-      <c r="BC7" s="63"/>
-      <c r="BD7" s="63"/>
-      <c r="BE7" s="63"/>
-      <c r="BF7" s="63"/>
-      <c r="BG7" s="63"/>
-      <c r="BH7" s="63"/>
-      <c r="BI7" s="63"/>
-      <c r="BJ7" s="63"/>
-      <c r="BK7" s="63"/>
-      <c r="BL7" s="63"/>
-      <c r="BM7" s="63"/>
-      <c r="BN7" s="63"/>
-      <c r="BO7" s="63"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="61"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="61"/>
+      <c r="AI7" s="61"/>
+      <c r="AJ7" s="61"/>
+      <c r="AK7" s="61"/>
+      <c r="AL7" s="61"/>
+      <c r="AM7" s="61"/>
+      <c r="AN7" s="61"/>
+      <c r="AO7" s="61"/>
+      <c r="AP7" s="61"/>
+      <c r="AQ7" s="61"/>
+      <c r="AR7" s="61"/>
+      <c r="AS7" s="61"/>
+      <c r="AT7" s="61"/>
+      <c r="AU7" s="61"/>
+      <c r="AV7" s="61"/>
+      <c r="AW7" s="61"/>
+      <c r="AX7" s="61"/>
+      <c r="AY7" s="61"/>
+      <c r="AZ7" s="61"/>
+      <c r="BA7" s="61"/>
+      <c r="BB7" s="61"/>
+      <c r="BC7" s="61"/>
+      <c r="BD7" s="61"/>
+      <c r="BE7" s="61"/>
+      <c r="BF7" s="61"/>
+      <c r="BG7" s="61"/>
+      <c r="BH7" s="61"/>
+      <c r="BI7" s="61"/>
+      <c r="BJ7" s="61"/>
+      <c r="BK7" s="61"/>
+      <c r="BL7" s="61"/>
+      <c r="BM7" s="61"/>
+      <c r="BN7" s="61"/>
+      <c r="BO7" s="61"/>
       <c r="BP7"/>
       <c r="BQ7" s="4"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="56"/>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="56"/>
-      <c r="AF8" s="56"/>
-      <c r="AG8" s="56"/>
-      <c r="AH8" s="56"/>
-      <c r="AI8" s="56"/>
-      <c r="AJ8" s="56"/>
-      <c r="AK8" s="56"/>
-      <c r="AL8" s="56"/>
-      <c r="AM8" s="56"/>
-      <c r="AN8" s="56"/>
-      <c r="AO8" s="56"/>
-      <c r="AP8" s="56"/>
-      <c r="AQ8" s="56"/>
-      <c r="AR8" s="56"/>
-      <c r="AS8" s="56"/>
-      <c r="AT8" s="56"/>
-      <c r="AU8" s="56"/>
-      <c r="AV8" s="56"/>
-      <c r="AW8" s="56"/>
-      <c r="AX8" s="56"/>
-      <c r="AY8" s="56"/>
-      <c r="AZ8" s="56"/>
-      <c r="BA8" s="56"/>
-      <c r="BB8" s="56"/>
-      <c r="BC8" s="56"/>
-      <c r="BD8" s="56"/>
-      <c r="BE8" s="56"/>
-      <c r="BF8" s="56"/>
-      <c r="BG8" s="56"/>
-      <c r="BH8" s="56"/>
-      <c r="BI8" s="56"/>
-      <c r="BJ8" s="56"/>
-      <c r="BK8" s="56"/>
-      <c r="BL8" s="56"/>
-      <c r="BM8" s="56"/>
-      <c r="BN8" s="56"/>
-      <c r="BO8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="57"/>
+      <c r="AJ8" s="57"/>
+      <c r="AK8" s="57"/>
+      <c r="AL8" s="57"/>
+      <c r="AM8" s="57"/>
+      <c r="AN8" s="57"/>
+      <c r="AO8" s="57"/>
+      <c r="AP8" s="57"/>
+      <c r="AQ8" s="57"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="57"/>
+      <c r="AT8" s="57"/>
+      <c r="AU8" s="57"/>
+      <c r="AV8" s="57"/>
+      <c r="AW8" s="57"/>
+      <c r="AX8" s="57"/>
+      <c r="AY8" s="57"/>
+      <c r="AZ8" s="57"/>
+      <c r="BA8" s="57"/>
+      <c r="BB8" s="57"/>
+      <c r="BC8" s="57"/>
+      <c r="BD8" s="57"/>
+      <c r="BE8" s="57"/>
+      <c r="BF8" s="57"/>
+      <c r="BG8" s="57"/>
+      <c r="BH8" s="57"/>
+      <c r="BI8" s="57"/>
+      <c r="BJ8" s="57"/>
+      <c r="BK8" s="57"/>
+      <c r="BL8" s="57"/>
+      <c r="BM8" s="57"/>
+      <c r="BN8" s="57"/>
+      <c r="BO8" s="57"/>
       <c r="BP8"/>
       <c r="BQ8" s="4"/>
     </row>
@@ -1977,787 +1991,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="54" t="s">
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="57" t="s">
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="57"/>
-      <c r="AG11" s="57"/>
-      <c r="AH11" s="57"/>
-      <c r="AI11" s="58" t="s">
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="AJ11" s="58"/>
-      <c r="AK11" s="58"/>
-      <c r="AL11" s="58"/>
-      <c r="AM11" s="58"/>
-      <c r="AN11" s="58"/>
-      <c r="AO11" s="58"/>
-      <c r="AP11" s="58"/>
-      <c r="AQ11" s="58"/>
-      <c r="AR11" s="58"/>
-      <c r="AS11" s="58"/>
-      <c r="AT11" s="58"/>
-      <c r="AU11" s="58"/>
-      <c r="AV11" s="58"/>
-      <c r="AW11" s="58"/>
-      <c r="AX11" s="58"/>
-      <c r="AY11" s="58"/>
-      <c r="AZ11" s="58"/>
-      <c r="BA11" s="58"/>
-      <c r="BB11" s="58"/>
-      <c r="BC11" s="58"/>
-      <c r="BD11" s="58"/>
-      <c r="BE11" s="58"/>
-      <c r="BF11" s="58"/>
-      <c r="BG11" s="58"/>
-      <c r="BH11" s="58"/>
-      <c r="BI11" s="58"/>
-      <c r="BJ11" s="58"/>
-      <c r="BK11" s="58"/>
-      <c r="BL11" s="58"/>
-      <c r="BM11" s="58"/>
-      <c r="BN11" s="58"/>
-      <c r="BO11" s="58"/>
+      <c r="AJ11" s="53"/>
+      <c r="AK11" s="53"/>
+      <c r="AL11" s="53"/>
+      <c r="AM11" s="53"/>
+      <c r="AN11" s="53"/>
+      <c r="AO11" s="53"/>
+      <c r="AP11" s="53"/>
+      <c r="AQ11" s="53"/>
+      <c r="AR11" s="53"/>
+      <c r="AS11" s="53"/>
+      <c r="AT11" s="53"/>
+      <c r="AU11" s="53"/>
+      <c r="AV11" s="53"/>
+      <c r="AW11" s="53"/>
+      <c r="AX11" s="53"/>
+      <c r="AY11" s="53"/>
+      <c r="AZ11" s="53"/>
+      <c r="BA11" s="53"/>
+      <c r="BB11" s="53"/>
+      <c r="BC11" s="53"/>
+      <c r="BD11" s="53"/>
+      <c r="BE11" s="53"/>
+      <c r="BF11" s="53"/>
+      <c r="BG11" s="53"/>
+      <c r="BH11" s="53"/>
+      <c r="BI11" s="53"/>
+      <c r="BJ11" s="53"/>
+      <c r="BK11" s="53"/>
+      <c r="BL11" s="53"/>
+      <c r="BM11" s="53"/>
+      <c r="BN11" s="53"/>
+      <c r="BO11" s="53"/>
       <c r="BP11"/>
       <c r="BQ11" s="4"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="59"/>
-      <c r="AJ12" s="59"/>
-      <c r="AK12" s="59"/>
-      <c r="AL12" s="59"/>
-      <c r="AM12" s="59"/>
-      <c r="AN12" s="59"/>
-      <c r="AO12" s="59"/>
-      <c r="AP12" s="59"/>
-      <c r="AQ12" s="59"/>
-      <c r="AR12" s="59"/>
-      <c r="AS12" s="59"/>
-      <c r="AT12" s="59"/>
-      <c r="AU12" s="59"/>
-      <c r="AV12" s="59"/>
-      <c r="AW12" s="59"/>
-      <c r="AX12" s="59"/>
-      <c r="AY12" s="59"/>
-      <c r="AZ12" s="59"/>
-      <c r="BA12" s="59"/>
-      <c r="BB12" s="59"/>
-      <c r="BC12" s="59"/>
-      <c r="BD12" s="59"/>
-      <c r="BE12" s="59"/>
-      <c r="BF12" s="59"/>
-      <c r="BG12" s="59"/>
-      <c r="BH12" s="59"/>
-      <c r="BI12" s="59"/>
-      <c r="BJ12" s="59"/>
-      <c r="BK12" s="59"/>
-      <c r="BL12" s="59"/>
-      <c r="BM12" s="59"/>
-      <c r="BN12" s="59"/>
-      <c r="BO12" s="59"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="51"/>
+      <c r="AI12" s="51"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="51"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="51"/>
+      <c r="AN12" s="51"/>
+      <c r="AO12" s="51"/>
+      <c r="AP12" s="51"/>
+      <c r="AQ12" s="51"/>
+      <c r="AR12" s="51"/>
+      <c r="AS12" s="51"/>
+      <c r="AT12" s="51"/>
+      <c r="AU12" s="51"/>
+      <c r="AV12" s="51"/>
+      <c r="AW12" s="51"/>
+      <c r="AX12" s="51"/>
+      <c r="AY12" s="51"/>
+      <c r="AZ12" s="51"/>
+      <c r="BA12" s="51"/>
+      <c r="BB12" s="51"/>
+      <c r="BC12" s="51"/>
+      <c r="BD12" s="51"/>
+      <c r="BE12" s="51"/>
+      <c r="BF12" s="51"/>
+      <c r="BG12" s="51"/>
+      <c r="BH12" s="51"/>
+      <c r="BI12" s="51"/>
+      <c r="BJ12" s="51"/>
+      <c r="BK12" s="51"/>
+      <c r="BL12" s="51"/>
+      <c r="BM12" s="51"/>
+      <c r="BN12" s="51"/>
+      <c r="BO12" s="51"/>
       <c r="BP12"/>
       <c r="BQ12" s="4"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="59"/>
-      <c r="AJ13" s="59"/>
-      <c r="AK13" s="59"/>
-      <c r="AL13" s="59"/>
-      <c r="AM13" s="59"/>
-      <c r="AN13" s="59"/>
-      <c r="AO13" s="59"/>
-      <c r="AP13" s="59"/>
-      <c r="AQ13" s="59"/>
-      <c r="AR13" s="59"/>
-      <c r="AS13" s="59"/>
-      <c r="AT13" s="59"/>
-      <c r="AU13" s="59"/>
-      <c r="AV13" s="59"/>
-      <c r="AW13" s="59"/>
-      <c r="AX13" s="59"/>
-      <c r="AY13" s="59"/>
-      <c r="AZ13" s="59"/>
-      <c r="BA13" s="59"/>
-      <c r="BB13" s="59"/>
-      <c r="BC13" s="59"/>
-      <c r="BD13" s="59"/>
-      <c r="BE13" s="59"/>
-      <c r="BF13" s="59"/>
-      <c r="BG13" s="59"/>
-      <c r="BH13" s="59"/>
-      <c r="BI13" s="59"/>
-      <c r="BJ13" s="59"/>
-      <c r="BK13" s="59"/>
-      <c r="BL13" s="59"/>
-      <c r="BM13" s="59"/>
-      <c r="BN13" s="59"/>
-      <c r="BO13" s="59"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="51"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="51"/>
+      <c r="AI13" s="51"/>
+      <c r="AJ13" s="51"/>
+      <c r="AK13" s="51"/>
+      <c r="AL13" s="51"/>
+      <c r="AM13" s="51"/>
+      <c r="AN13" s="51"/>
+      <c r="AO13" s="51"/>
+      <c r="AP13" s="51"/>
+      <c r="AQ13" s="51"/>
+      <c r="AR13" s="51"/>
+      <c r="AS13" s="51"/>
+      <c r="AT13" s="51"/>
+      <c r="AU13" s="51"/>
+      <c r="AV13" s="51"/>
+      <c r="AW13" s="51"/>
+      <c r="AX13" s="51"/>
+      <c r="AY13" s="51"/>
+      <c r="AZ13" s="51"/>
+      <c r="BA13" s="51"/>
+      <c r="BB13" s="51"/>
+      <c r="BC13" s="51"/>
+      <c r="BD13" s="51"/>
+      <c r="BE13" s="51"/>
+      <c r="BF13" s="51"/>
+      <c r="BG13" s="51"/>
+      <c r="BH13" s="51"/>
+      <c r="BI13" s="51"/>
+      <c r="BJ13" s="51"/>
+      <c r="BK13" s="51"/>
+      <c r="BL13" s="51"/>
+      <c r="BM13" s="51"/>
+      <c r="BN13" s="51"/>
+      <c r="BO13" s="51"/>
       <c r="BP13"/>
       <c r="BQ13" s="4"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="64" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="64"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="64"/>
-      <c r="AH14" s="64"/>
-      <c r="AI14" s="64"/>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="64"/>
-      <c r="AL14" s="64"/>
-      <c r="AM14" s="64"/>
-      <c r="AN14" s="64"/>
-      <c r="AO14" s="64"/>
-      <c r="AP14" s="64"/>
-      <c r="AQ14" s="64"/>
-      <c r="AR14" s="64"/>
-      <c r="AS14" s="64"/>
-      <c r="AT14" s="64"/>
-      <c r="AU14" s="64"/>
-      <c r="AV14" s="64"/>
-      <c r="AW14" s="64"/>
-      <c r="AX14" s="64"/>
-      <c r="AY14" s="64"/>
-      <c r="AZ14" s="64"/>
-      <c r="BA14" s="64"/>
-      <c r="BB14" s="64"/>
-      <c r="BC14" s="64"/>
-      <c r="BD14" s="64"/>
-      <c r="BE14" s="64"/>
-      <c r="BF14" s="64"/>
-      <c r="BG14" s="64"/>
-      <c r="BH14" s="64"/>
-      <c r="BI14" s="64"/>
-      <c r="BJ14" s="64"/>
-      <c r="BK14" s="64"/>
-      <c r="BL14" s="64"/>
-      <c r="BM14" s="64"/>
-      <c r="BN14" s="64"/>
-      <c r="BO14" s="64"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="55"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="55"/>
+      <c r="AG14" s="55"/>
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="55"/>
+      <c r="AJ14" s="55"/>
+      <c r="AK14" s="55"/>
+      <c r="AL14" s="55"/>
+      <c r="AM14" s="55"/>
+      <c r="AN14" s="55"/>
+      <c r="AO14" s="55"/>
+      <c r="AP14" s="55"/>
+      <c r="AQ14" s="55"/>
+      <c r="AR14" s="55"/>
+      <c r="AS14" s="55"/>
+      <c r="AT14" s="55"/>
+      <c r="AU14" s="55"/>
+      <c r="AV14" s="55"/>
+      <c r="AW14" s="55"/>
+      <c r="AX14" s="55"/>
+      <c r="AY14" s="55"/>
+      <c r="AZ14" s="55"/>
+      <c r="BA14" s="55"/>
+      <c r="BB14" s="55"/>
+      <c r="BC14" s="55"/>
+      <c r="BD14" s="55"/>
+      <c r="BE14" s="55"/>
+      <c r="BF14" s="55"/>
+      <c r="BG14" s="55"/>
+      <c r="BH14" s="55"/>
+      <c r="BI14" s="55"/>
+      <c r="BJ14" s="55"/>
+      <c r="BK14" s="55"/>
+      <c r="BL14" s="55"/>
+      <c r="BM14" s="55"/>
+      <c r="BN14" s="55"/>
+      <c r="BO14" s="55"/>
       <c r="BP14"/>
       <c r="BQ14" s="4"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="65"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="65"/>
-      <c r="AI15" s="65"/>
-      <c r="AJ15" s="65"/>
-      <c r="AK15" s="65"/>
-      <c r="AL15" s="65"/>
-      <c r="AM15" s="65"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="65"/>
-      <c r="AQ15" s="65"/>
-      <c r="AR15" s="65"/>
-      <c r="AS15" s="65"/>
-      <c r="AT15" s="65"/>
-      <c r="AU15" s="65"/>
-      <c r="AV15" s="65"/>
-      <c r="AW15" s="65"/>
-      <c r="AX15" s="65"/>
-      <c r="AY15" s="65"/>
-      <c r="AZ15" s="65"/>
-      <c r="BA15" s="65"/>
-      <c r="BB15" s="65"/>
-      <c r="BC15" s="65"/>
-      <c r="BD15" s="65"/>
-      <c r="BE15" s="65"/>
-      <c r="BF15" s="65"/>
-      <c r="BG15" s="65"/>
-      <c r="BH15" s="65"/>
-      <c r="BI15" s="65"/>
-      <c r="BJ15" s="65"/>
-      <c r="BK15" s="65"/>
-      <c r="BL15" s="65"/>
-      <c r="BM15" s="65"/>
-      <c r="BN15" s="65"/>
-      <c r="BO15" s="65"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="56"/>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="56"/>
+      <c r="AH15" s="56"/>
+      <c r="AI15" s="56"/>
+      <c r="AJ15" s="56"/>
+      <c r="AK15" s="56"/>
+      <c r="AL15" s="56"/>
+      <c r="AM15" s="56"/>
+      <c r="AN15" s="56"/>
+      <c r="AO15" s="56"/>
+      <c r="AP15" s="56"/>
+      <c r="AQ15" s="56"/>
+      <c r="AR15" s="56"/>
+      <c r="AS15" s="56"/>
+      <c r="AT15" s="56"/>
+      <c r="AU15" s="56"/>
+      <c r="AV15" s="56"/>
+      <c r="AW15" s="56"/>
+      <c r="AX15" s="56"/>
+      <c r="AY15" s="56"/>
+      <c r="AZ15" s="56"/>
+      <c r="BA15" s="56"/>
+      <c r="BB15" s="56"/>
+      <c r="BC15" s="56"/>
+      <c r="BD15" s="56"/>
+      <c r="BE15" s="56"/>
+      <c r="BF15" s="56"/>
+      <c r="BG15" s="56"/>
+      <c r="BH15" s="56"/>
+      <c r="BI15" s="56"/>
+      <c r="BJ15" s="56"/>
+      <c r="BK15" s="56"/>
+      <c r="BL15" s="56"/>
+      <c r="BM15" s="56"/>
+      <c r="BN15" s="56"/>
+      <c r="BO15" s="56"/>
       <c r="BP15"/>
       <c r="BQ15" s="4"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
-      <c r="AA16" s="65"/>
-      <c r="AB16" s="65"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="65"/>
-      <c r="AE16" s="65"/>
-      <c r="AF16" s="65"/>
-      <c r="AG16" s="65"/>
-      <c r="AH16" s="65"/>
-      <c r="AI16" s="65"/>
-      <c r="AJ16" s="65"/>
-      <c r="AK16" s="65"/>
-      <c r="AL16" s="65"/>
-      <c r="AM16" s="65"/>
-      <c r="AN16" s="65"/>
-      <c r="AO16" s="65"/>
-      <c r="AP16" s="65"/>
-      <c r="AQ16" s="65"/>
-      <c r="AR16" s="65"/>
-      <c r="AS16" s="65"/>
-      <c r="AT16" s="65"/>
-      <c r="AU16" s="65"/>
-      <c r="AV16" s="65"/>
-      <c r="AW16" s="65"/>
-      <c r="AX16" s="65"/>
-      <c r="AY16" s="65"/>
-      <c r="AZ16" s="65"/>
-      <c r="BA16" s="65"/>
-      <c r="BB16" s="65"/>
-      <c r="BC16" s="65"/>
-      <c r="BD16" s="65"/>
-      <c r="BE16" s="65"/>
-      <c r="BF16" s="65"/>
-      <c r="BG16" s="65"/>
-      <c r="BH16" s="65"/>
-      <c r="BI16" s="65"/>
-      <c r="BJ16" s="65"/>
-      <c r="BK16" s="65"/>
-      <c r="BL16" s="65"/>
-      <c r="BM16" s="65"/>
-      <c r="BN16" s="65"/>
-      <c r="BO16" s="65"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="56"/>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="56"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="56"/>
+      <c r="AP16" s="56"/>
+      <c r="AQ16" s="56"/>
+      <c r="AR16" s="56"/>
+      <c r="AS16" s="56"/>
+      <c r="AT16" s="56"/>
+      <c r="AU16" s="56"/>
+      <c r="AV16" s="56"/>
+      <c r="AW16" s="56"/>
+      <c r="AX16" s="56"/>
+      <c r="AY16" s="56"/>
+      <c r="AZ16" s="56"/>
+      <c r="BA16" s="56"/>
+      <c r="BB16" s="56"/>
+      <c r="BC16" s="56"/>
+      <c r="BD16" s="56"/>
+      <c r="BE16" s="56"/>
+      <c r="BF16" s="56"/>
+      <c r="BG16" s="56"/>
+      <c r="BH16" s="56"/>
+      <c r="BI16" s="56"/>
+      <c r="BJ16" s="56"/>
+      <c r="BK16" s="56"/>
+      <c r="BL16" s="56"/>
+      <c r="BM16" s="56"/>
+      <c r="BN16" s="56"/>
+      <c r="BO16" s="56"/>
       <c r="BP16"/>
       <c r="BQ16" s="4"/>
     </row>
     <row r="17" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="65"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="65"/>
-      <c r="AE17" s="65"/>
-      <c r="AF17" s="65"/>
-      <c r="AG17" s="65"/>
-      <c r="AH17" s="65"/>
-      <c r="AI17" s="65"/>
-      <c r="AJ17" s="65"/>
-      <c r="AK17" s="65"/>
-      <c r="AL17" s="65"/>
-      <c r="AM17" s="65"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="65"/>
-      <c r="AP17" s="65"/>
-      <c r="AQ17" s="65"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="65"/>
-      <c r="AT17" s="65"/>
-      <c r="AU17" s="65"/>
-      <c r="AV17" s="65"/>
-      <c r="AW17" s="65"/>
-      <c r="AX17" s="65"/>
-      <c r="AY17" s="65"/>
-      <c r="AZ17" s="65"/>
-      <c r="BA17" s="65"/>
-      <c r="BB17" s="65"/>
-      <c r="BC17" s="65"/>
-      <c r="BD17" s="65"/>
-      <c r="BE17" s="65"/>
-      <c r="BF17" s="65"/>
-      <c r="BG17" s="65"/>
-      <c r="BH17" s="65"/>
-      <c r="BI17" s="65"/>
-      <c r="BJ17" s="65"/>
-      <c r="BK17" s="65"/>
-      <c r="BL17" s="65"/>
-      <c r="BM17" s="65"/>
-      <c r="BN17" s="65"/>
-      <c r="BO17" s="65"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="56"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="56"/>
+      <c r="AM17" s="56"/>
+      <c r="AN17" s="56"/>
+      <c r="AO17" s="56"/>
+      <c r="AP17" s="56"/>
+      <c r="AQ17" s="56"/>
+      <c r="AR17" s="56"/>
+      <c r="AS17" s="56"/>
+      <c r="AT17" s="56"/>
+      <c r="AU17" s="56"/>
+      <c r="AV17" s="56"/>
+      <c r="AW17" s="56"/>
+      <c r="AX17" s="56"/>
+      <c r="AY17" s="56"/>
+      <c r="AZ17" s="56"/>
+      <c r="BA17" s="56"/>
+      <c r="BB17" s="56"/>
+      <c r="BC17" s="56"/>
+      <c r="BD17" s="56"/>
+      <c r="BE17" s="56"/>
+      <c r="BF17" s="56"/>
+      <c r="BG17" s="56"/>
+      <c r="BH17" s="56"/>
+      <c r="BI17" s="56"/>
+      <c r="BJ17" s="56"/>
+      <c r="BK17" s="56"/>
+      <c r="BL17" s="56"/>
+      <c r="BM17" s="56"/>
+      <c r="BN17" s="56"/>
+      <c r="BO17" s="56"/>
       <c r="BP17"/>
       <c r="BQ17" s="4"/>
     </row>
     <row r="18" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="65"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="65"/>
-      <c r="AG18" s="65"/>
-      <c r="AH18" s="65"/>
-      <c r="AI18" s="65"/>
-      <c r="AJ18" s="65"/>
-      <c r="AK18" s="65"/>
-      <c r="AL18" s="65"/>
-      <c r="AM18" s="65"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="65"/>
-      <c r="AP18" s="65"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="65"/>
-      <c r="AT18" s="65"/>
-      <c r="AU18" s="65"/>
-      <c r="AV18" s="65"/>
-      <c r="AW18" s="65"/>
-      <c r="AX18" s="65"/>
-      <c r="AY18" s="65"/>
-      <c r="AZ18" s="65"/>
-      <c r="BA18" s="65"/>
-      <c r="BB18" s="65"/>
-      <c r="BC18" s="65"/>
-      <c r="BD18" s="65"/>
-      <c r="BE18" s="65"/>
-      <c r="BF18" s="65"/>
-      <c r="BG18" s="65"/>
-      <c r="BH18" s="65"/>
-      <c r="BI18" s="65"/>
-      <c r="BJ18" s="65"/>
-      <c r="BK18" s="65"/>
-      <c r="BL18" s="65"/>
-      <c r="BM18" s="65"/>
-      <c r="BN18" s="65"/>
-      <c r="BO18" s="65"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="56"/>
+      <c r="AF18" s="56"/>
+      <c r="AG18" s="56"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="56"/>
+      <c r="AJ18" s="56"/>
+      <c r="AK18" s="56"/>
+      <c r="AL18" s="56"/>
+      <c r="AM18" s="56"/>
+      <c r="AN18" s="56"/>
+      <c r="AO18" s="56"/>
+      <c r="AP18" s="56"/>
+      <c r="AQ18" s="56"/>
+      <c r="AR18" s="56"/>
+      <c r="AS18" s="56"/>
+      <c r="AT18" s="56"/>
+      <c r="AU18" s="56"/>
+      <c r="AV18" s="56"/>
+      <c r="AW18" s="56"/>
+      <c r="AX18" s="56"/>
+      <c r="AY18" s="56"/>
+      <c r="AZ18" s="56"/>
+      <c r="BA18" s="56"/>
+      <c r="BB18" s="56"/>
+      <c r="BC18" s="56"/>
+      <c r="BD18" s="56"/>
+      <c r="BE18" s="56"/>
+      <c r="BF18" s="56"/>
+      <c r="BG18" s="56"/>
+      <c r="BH18" s="56"/>
+      <c r="BI18" s="56"/>
+      <c r="BJ18" s="56"/>
+      <c r="BK18" s="56"/>
+      <c r="BL18" s="56"/>
+      <c r="BM18" s="56"/>
+      <c r="BN18" s="56"/>
+      <c r="BO18" s="56"/>
       <c r="BP18"/>
       <c r="BQ18" s="4"/>
     </row>
     <row r="19" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="65"/>
-      <c r="AA19" s="65"/>
-      <c r="AB19" s="65"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="65"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="65"/>
-      <c r="AG19" s="65"/>
-      <c r="AH19" s="65"/>
-      <c r="AI19" s="65"/>
-      <c r="AJ19" s="65"/>
-      <c r="AK19" s="65"/>
-      <c r="AL19" s="65"/>
-      <c r="AM19" s="65"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="65"/>
-      <c r="AT19" s="65"/>
-      <c r="AU19" s="65"/>
-      <c r="AV19" s="65"/>
-      <c r="AW19" s="65"/>
-      <c r="AX19" s="65"/>
-      <c r="AY19" s="65"/>
-      <c r="AZ19" s="65"/>
-      <c r="BA19" s="65"/>
-      <c r="BB19" s="65"/>
-      <c r="BC19" s="65"/>
-      <c r="BD19" s="65"/>
-      <c r="BE19" s="65"/>
-      <c r="BF19" s="65"/>
-      <c r="BG19" s="65"/>
-      <c r="BH19" s="65"/>
-      <c r="BI19" s="65"/>
-      <c r="BJ19" s="65"/>
-      <c r="BK19" s="65"/>
-      <c r="BL19" s="65"/>
-      <c r="BM19" s="65"/>
-      <c r="BN19" s="65"/>
-      <c r="BO19" s="65"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="56"/>
+      <c r="AG19" s="56"/>
+      <c r="AH19" s="56"/>
+      <c r="AI19" s="56"/>
+      <c r="AJ19" s="56"/>
+      <c r="AK19" s="56"/>
+      <c r="AL19" s="56"/>
+      <c r="AM19" s="56"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="56"/>
+      <c r="AP19" s="56"/>
+      <c r="AQ19" s="56"/>
+      <c r="AR19" s="56"/>
+      <c r="AS19" s="56"/>
+      <c r="AT19" s="56"/>
+      <c r="AU19" s="56"/>
+      <c r="AV19" s="56"/>
+      <c r="AW19" s="56"/>
+      <c r="AX19" s="56"/>
+      <c r="AY19" s="56"/>
+      <c r="AZ19" s="56"/>
+      <c r="BA19" s="56"/>
+      <c r="BB19" s="56"/>
+      <c r="BC19" s="56"/>
+      <c r="BD19" s="56"/>
+      <c r="BE19" s="56"/>
+      <c r="BF19" s="56"/>
+      <c r="BG19" s="56"/>
+      <c r="BH19" s="56"/>
+      <c r="BI19" s="56"/>
+      <c r="BJ19" s="56"/>
+      <c r="BK19" s="56"/>
+      <c r="BL19" s="56"/>
+      <c r="BM19" s="56"/>
+      <c r="BN19" s="56"/>
+      <c r="BO19" s="56"/>
       <c r="BP19"/>
       <c r="BQ19" s="4"/>
     </row>
     <row r="20" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="65"/>
-      <c r="AF20" s="65"/>
-      <c r="AG20" s="65"/>
-      <c r="AH20" s="65"/>
-      <c r="AI20" s="65"/>
-      <c r="AJ20" s="65"/>
-      <c r="AK20" s="65"/>
-      <c r="AL20" s="65"/>
-      <c r="AM20" s="65"/>
-      <c r="AN20" s="65"/>
-      <c r="AO20" s="65"/>
-      <c r="AP20" s="65"/>
-      <c r="AQ20" s="65"/>
-      <c r="AR20" s="65"/>
-      <c r="AS20" s="65"/>
-      <c r="AT20" s="65"/>
-      <c r="AU20" s="65"/>
-      <c r="AV20" s="65"/>
-      <c r="AW20" s="65"/>
-      <c r="AX20" s="65"/>
-      <c r="AY20" s="65"/>
-      <c r="AZ20" s="65"/>
-      <c r="BA20" s="65"/>
-      <c r="BB20" s="65"/>
-      <c r="BC20" s="65"/>
-      <c r="BD20" s="65"/>
-      <c r="BE20" s="65"/>
-      <c r="BF20" s="65"/>
-      <c r="BG20" s="65"/>
-      <c r="BH20" s="65"/>
-      <c r="BI20" s="65"/>
-      <c r="BJ20" s="65"/>
-      <c r="BK20" s="65"/>
-      <c r="BL20" s="65"/>
-      <c r="BM20" s="65"/>
-      <c r="BN20" s="65"/>
-      <c r="BO20" s="65"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="56"/>
+      <c r="AL20" s="56"/>
+      <c r="AM20" s="56"/>
+      <c r="AN20" s="56"/>
+      <c r="AO20" s="56"/>
+      <c r="AP20" s="56"/>
+      <c r="AQ20" s="56"/>
+      <c r="AR20" s="56"/>
+      <c r="AS20" s="56"/>
+      <c r="AT20" s="56"/>
+      <c r="AU20" s="56"/>
+      <c r="AV20" s="56"/>
+      <c r="AW20" s="56"/>
+      <c r="AX20" s="56"/>
+      <c r="AY20" s="56"/>
+      <c r="AZ20" s="56"/>
+      <c r="BA20" s="56"/>
+      <c r="BB20" s="56"/>
+      <c r="BC20" s="56"/>
+      <c r="BD20" s="56"/>
+      <c r="BE20" s="56"/>
+      <c r="BF20" s="56"/>
+      <c r="BG20" s="56"/>
+      <c r="BH20" s="56"/>
+      <c r="BI20" s="56"/>
+      <c r="BJ20" s="56"/>
+      <c r="BK20" s="56"/>
+      <c r="BL20" s="56"/>
+      <c r="BM20" s="56"/>
+      <c r="BN20" s="56"/>
+      <c r="BO20" s="56"/>
       <c r="BP20"/>
       <c r="BQ20" s="4"/>
     </row>
     <row r="21" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="66"/>
-      <c r="AM21" s="66"/>
-      <c r="AN21" s="66"/>
-      <c r="AO21" s="66"/>
-      <c r="AP21" s="66"/>
-      <c r="AQ21" s="66"/>
-      <c r="AR21" s="66"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="66"/>
-      <c r="AU21" s="66"/>
-      <c r="AV21" s="66"/>
-      <c r="AW21" s="66"/>
-      <c r="AX21" s="66"/>
-      <c r="AY21" s="66"/>
-      <c r="AZ21" s="66"/>
-      <c r="BA21" s="66"/>
-      <c r="BB21" s="66"/>
-      <c r="BC21" s="66"/>
-      <c r="BD21" s="66"/>
-      <c r="BE21" s="66"/>
-      <c r="BF21" s="66"/>
-      <c r="BG21" s="66"/>
-      <c r="BH21" s="66"/>
-      <c r="BI21" s="66"/>
-      <c r="BJ21" s="66"/>
-      <c r="BK21" s="66"/>
-      <c r="BL21" s="66"/>
-      <c r="BM21" s="66"/>
-      <c r="BN21" s="66"/>
-      <c r="BO21" s="66"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="54"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="54"/>
+      <c r="AE21" s="54"/>
+      <c r="AF21" s="54"/>
+      <c r="AG21" s="54"/>
+      <c r="AH21" s="54"/>
+      <c r="AI21" s="54"/>
+      <c r="AJ21" s="54"/>
+      <c r="AK21" s="54"/>
+      <c r="AL21" s="54"/>
+      <c r="AM21" s="54"/>
+      <c r="AN21" s="54"/>
+      <c r="AO21" s="54"/>
+      <c r="AP21" s="54"/>
+      <c r="AQ21" s="54"/>
+      <c r="AR21" s="54"/>
+      <c r="AS21" s="54"/>
+      <c r="AT21" s="54"/>
+      <c r="AU21" s="54"/>
+      <c r="AV21" s="54"/>
+      <c r="AW21" s="54"/>
+      <c r="AX21" s="54"/>
+      <c r="AY21" s="54"/>
+      <c r="AZ21" s="54"/>
+      <c r="BA21" s="54"/>
+      <c r="BB21" s="54"/>
+      <c r="BC21" s="54"/>
+      <c r="BD21" s="54"/>
+      <c r="BE21" s="54"/>
+      <c r="BF21" s="54"/>
+      <c r="BG21" s="54"/>
+      <c r="BH21" s="54"/>
+      <c r="BI21" s="54"/>
+      <c r="BJ21" s="54"/>
+      <c r="BK21" s="54"/>
+      <c r="BL21" s="54"/>
+      <c r="BM21" s="54"/>
+      <c r="BN21" s="54"/>
+      <c r="BO21" s="54"/>
       <c r="BP21"/>
       <c r="BQ21" s="4"/>
     </row>
@@ -2787,85 +2801,85 @@
     </row>
     <row r="25" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54" t="s">
+      <c r="D25" s="50"/>
+      <c r="E25" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54" t="s">
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="59" t="s">
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="57" t="s">
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="51"/>
+      <c r="AB25" s="51"/>
+      <c r="AC25" s="51"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="57"/>
-      <c r="AG25" s="57"/>
-      <c r="AH25" s="57"/>
-      <c r="AI25" s="57"/>
-      <c r="AJ25" s="57"/>
-      <c r="AK25" s="57"/>
-      <c r="AL25" s="57"/>
-      <c r="AM25" s="57"/>
-      <c r="AN25" s="57"/>
-      <c r="AO25" s="57"/>
-      <c r="AP25" s="57"/>
-      <c r="AQ25" s="57"/>
-      <c r="AR25" s="57"/>
-      <c r="AS25" s="57"/>
-      <c r="AT25" s="57"/>
-      <c r="AU25" s="57"/>
-      <c r="AV25" s="57"/>
-      <c r="AW25" s="57"/>
-      <c r="AX25" s="57"/>
-      <c r="AY25" s="57"/>
-      <c r="AZ25" s="57"/>
-      <c r="BA25" s="57"/>
-      <c r="BB25" s="57"/>
-      <c r="BC25" s="57"/>
-      <c r="BD25" s="57" t="s">
+      <c r="AF25" s="49"/>
+      <c r="AG25" s="49"/>
+      <c r="AH25" s="49"/>
+      <c r="AI25" s="49"/>
+      <c r="AJ25" s="49"/>
+      <c r="AK25" s="49"/>
+      <c r="AL25" s="49"/>
+      <c r="AM25" s="49"/>
+      <c r="AN25" s="49"/>
+      <c r="AO25" s="49"/>
+      <c r="AP25" s="49"/>
+      <c r="AQ25" s="49"/>
+      <c r="AR25" s="49"/>
+      <c r="AS25" s="49"/>
+      <c r="AT25" s="49"/>
+      <c r="AU25" s="49"/>
+      <c r="AV25" s="49"/>
+      <c r="AW25" s="49"/>
+      <c r="AX25" s="49"/>
+      <c r="AY25" s="49"/>
+      <c r="AZ25" s="49"/>
+      <c r="BA25" s="49"/>
+      <c r="BB25" s="49"/>
+      <c r="BC25" s="49"/>
+      <c r="BD25" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="BE25" s="57"/>
-      <c r="BF25" s="57"/>
-      <c r="BG25" s="57"/>
-      <c r="BH25" s="57"/>
-      <c r="BI25" s="57"/>
-      <c r="BJ25" s="57"/>
-      <c r="BK25" s="57" t="s">
+      <c r="BE25" s="49"/>
+      <c r="BF25" s="49"/>
+      <c r="BG25" s="49"/>
+      <c r="BH25" s="49"/>
+      <c r="BI25" s="49"/>
+      <c r="BJ25" s="49"/>
+      <c r="BK25" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="BL25" s="57"/>
-      <c r="BM25" s="57"/>
-      <c r="BN25" s="57"/>
-      <c r="BO25" s="57"/>
+      <c r="BL25" s="49"/>
+      <c r="BM25" s="49"/>
+      <c r="BN25" s="49"/>
+      <c r="BO25" s="49"/>
       <c r="BP25"/>
       <c r="BQ25" s="4"/>
       <c r="AMM25"/>
@@ -2882,81 +2896,81 @@
     </row>
     <row r="26" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="C26" s="54">
+      <c r="C26" s="50">
         <v>1</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="57" t="s">
+      <c r="D26" s="50"/>
+      <c r="E26" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="59" t="s">
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="57" t="s">
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
-      <c r="AJ26" s="57"/>
-      <c r="AK26" s="57"/>
-      <c r="AL26" s="57"/>
-      <c r="AM26" s="57"/>
-      <c r="AN26" s="57"/>
-      <c r="AO26" s="57"/>
-      <c r="AP26" s="57"/>
-      <c r="AQ26" s="57"/>
-      <c r="AR26" s="57"/>
-      <c r="AS26" s="57"/>
-      <c r="AT26" s="57"/>
-      <c r="AU26" s="57"/>
-      <c r="AV26" s="57"/>
-      <c r="AW26" s="57"/>
-      <c r="AX26" s="57"/>
-      <c r="AY26" s="57"/>
-      <c r="AZ26" s="57"/>
-      <c r="BA26" s="57"/>
-      <c r="BB26" s="57"/>
-      <c r="BC26" s="57"/>
-      <c r="BD26" s="57" t="s">
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="49"/>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="49"/>
+      <c r="AK26" s="49"/>
+      <c r="AL26" s="49"/>
+      <c r="AM26" s="49"/>
+      <c r="AN26" s="49"/>
+      <c r="AO26" s="49"/>
+      <c r="AP26" s="49"/>
+      <c r="AQ26" s="49"/>
+      <c r="AR26" s="49"/>
+      <c r="AS26" s="49"/>
+      <c r="AT26" s="49"/>
+      <c r="AU26" s="49"/>
+      <c r="AV26" s="49"/>
+      <c r="AW26" s="49"/>
+      <c r="AX26" s="49"/>
+      <c r="AY26" s="49"/>
+      <c r="AZ26" s="49"/>
+      <c r="BA26" s="49"/>
+      <c r="BB26" s="49"/>
+      <c r="BC26" s="49"/>
+      <c r="BD26" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="BE26" s="57"/>
-      <c r="BF26" s="57"/>
-      <c r="BG26" s="57"/>
-      <c r="BH26" s="57"/>
-      <c r="BI26" s="57"/>
-      <c r="BJ26" s="57"/>
-      <c r="BK26" s="57"/>
-      <c r="BL26" s="57"/>
-      <c r="BM26" s="57"/>
-      <c r="BN26" s="57"/>
-      <c r="BO26" s="57"/>
+      <c r="BE26" s="49"/>
+      <c r="BF26" s="49"/>
+      <c r="BG26" s="49"/>
+      <c r="BH26" s="49"/>
+      <c r="BI26" s="49"/>
+      <c r="BJ26" s="49"/>
+      <c r="BK26" s="49"/>
+      <c r="BL26" s="49"/>
+      <c r="BM26" s="49"/>
+      <c r="BN26" s="49"/>
+      <c r="BO26" s="49"/>
       <c r="BQ26" s="4"/>
       <c r="AMM26"/>
       <c r="AMN26"/>
@@ -2972,73 +2986,73 @@
     </row>
     <row r="27" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="C27" s="54">
+      <c r="C27" s="50">
         <v>2</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="57"/>
-      <c r="AG27" s="57"/>
-      <c r="AH27" s="57"/>
-      <c r="AI27" s="57"/>
-      <c r="AJ27" s="57"/>
-      <c r="AK27" s="57"/>
-      <c r="AL27" s="57"/>
-      <c r="AM27" s="57"/>
-      <c r="AN27" s="57"/>
-      <c r="AO27" s="57"/>
-      <c r="AP27" s="57"/>
-      <c r="AQ27" s="57"/>
-      <c r="AR27" s="57"/>
-      <c r="AS27" s="57"/>
-      <c r="AT27" s="57"/>
-      <c r="AU27" s="57"/>
-      <c r="AV27" s="57"/>
-      <c r="AW27" s="57"/>
-      <c r="AX27" s="57"/>
-      <c r="AY27" s="57"/>
-      <c r="AZ27" s="57"/>
-      <c r="BA27" s="57"/>
-      <c r="BB27" s="57"/>
-      <c r="BC27" s="57"/>
-      <c r="BD27" s="57"/>
-      <c r="BE27" s="57"/>
-      <c r="BF27" s="57"/>
-      <c r="BG27" s="57"/>
-      <c r="BH27" s="57"/>
-      <c r="BI27" s="57"/>
-      <c r="BJ27" s="57"/>
-      <c r="BK27" s="57"/>
-      <c r="BL27" s="57"/>
-      <c r="BM27" s="57"/>
-      <c r="BN27" s="57"/>
-      <c r="BO27" s="57"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="53"/>
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="49"/>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="49"/>
+      <c r="AI27" s="49"/>
+      <c r="AJ27" s="49"/>
+      <c r="AK27" s="49"/>
+      <c r="AL27" s="49"/>
+      <c r="AM27" s="49"/>
+      <c r="AN27" s="49"/>
+      <c r="AO27" s="49"/>
+      <c r="AP27" s="49"/>
+      <c r="AQ27" s="49"/>
+      <c r="AR27" s="49"/>
+      <c r="AS27" s="49"/>
+      <c r="AT27" s="49"/>
+      <c r="AU27" s="49"/>
+      <c r="AV27" s="49"/>
+      <c r="AW27" s="49"/>
+      <c r="AX27" s="49"/>
+      <c r="AY27" s="49"/>
+      <c r="AZ27" s="49"/>
+      <c r="BA27" s="49"/>
+      <c r="BB27" s="49"/>
+      <c r="BC27" s="49"/>
+      <c r="BD27" s="49"/>
+      <c r="BE27" s="49"/>
+      <c r="BF27" s="49"/>
+      <c r="BG27" s="49"/>
+      <c r="BH27" s="49"/>
+      <c r="BI27" s="49"/>
+      <c r="BJ27" s="49"/>
+      <c r="BK27" s="49"/>
+      <c r="BL27" s="49"/>
+      <c r="BM27" s="49"/>
+      <c r="BN27" s="49"/>
+      <c r="BO27" s="49"/>
       <c r="BQ27" s="4"/>
       <c r="AMM27"/>
       <c r="AMN27"/>
@@ -3054,73 +3068,73 @@
     </row>
     <row r="28" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="C28" s="54">
+      <c r="C28" s="50">
         <v>3</v>
       </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="57"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="57"/>
-      <c r="AJ28" s="57"/>
-      <c r="AK28" s="57"/>
-      <c r="AL28" s="57"/>
-      <c r="AM28" s="57"/>
-      <c r="AN28" s="57"/>
-      <c r="AO28" s="57"/>
-      <c r="AP28" s="57"/>
-      <c r="AQ28" s="57"/>
-      <c r="AR28" s="57"/>
-      <c r="AS28" s="57"/>
-      <c r="AT28" s="57"/>
-      <c r="AU28" s="57"/>
-      <c r="AV28" s="57"/>
-      <c r="AW28" s="57"/>
-      <c r="AX28" s="57"/>
-      <c r="AY28" s="57"/>
-      <c r="AZ28" s="57"/>
-      <c r="BA28" s="57"/>
-      <c r="BB28" s="57"/>
-      <c r="BC28" s="57"/>
-      <c r="BD28" s="57"/>
-      <c r="BE28" s="57"/>
-      <c r="BF28" s="57"/>
-      <c r="BG28" s="57"/>
-      <c r="BH28" s="57"/>
-      <c r="BI28" s="57"/>
-      <c r="BJ28" s="57"/>
-      <c r="BK28" s="57"/>
-      <c r="BL28" s="57"/>
-      <c r="BM28" s="57"/>
-      <c r="BN28" s="57"/>
-      <c r="BO28" s="57"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="51"/>
+      <c r="AB28" s="51"/>
+      <c r="AC28" s="51"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="49"/>
+      <c r="AF28" s="49"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="49"/>
+      <c r="AM28" s="49"/>
+      <c r="AN28" s="49"/>
+      <c r="AO28" s="49"/>
+      <c r="AP28" s="49"/>
+      <c r="AQ28" s="49"/>
+      <c r="AR28" s="49"/>
+      <c r="AS28" s="49"/>
+      <c r="AT28" s="49"/>
+      <c r="AU28" s="49"/>
+      <c r="AV28" s="49"/>
+      <c r="AW28" s="49"/>
+      <c r="AX28" s="49"/>
+      <c r="AY28" s="49"/>
+      <c r="AZ28" s="49"/>
+      <c r="BA28" s="49"/>
+      <c r="BB28" s="49"/>
+      <c r="BC28" s="49"/>
+      <c r="BD28" s="49"/>
+      <c r="BE28" s="49"/>
+      <c r="BF28" s="49"/>
+      <c r="BG28" s="49"/>
+      <c r="BH28" s="49"/>
+      <c r="BI28" s="49"/>
+      <c r="BJ28" s="49"/>
+      <c r="BK28" s="49"/>
+      <c r="BL28" s="49"/>
+      <c r="BM28" s="49"/>
+      <c r="BN28" s="49"/>
+      <c r="BO28" s="49"/>
       <c r="BP28"/>
       <c r="BQ28" s="4"/>
       <c r="AMM28"/>
@@ -3137,73 +3151,73 @@
     </row>
     <row r="29" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="C29" s="54">
+      <c r="C29" s="50">
         <v>4</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
-      <c r="AA29" s="59"/>
-      <c r="AB29" s="59"/>
-      <c r="AC29" s="59"/>
-      <c r="AD29" s="59"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="57"/>
-      <c r="AG29" s="57"/>
-      <c r="AH29" s="57"/>
-      <c r="AI29" s="57"/>
-      <c r="AJ29" s="57"/>
-      <c r="AK29" s="57"/>
-      <c r="AL29" s="57"/>
-      <c r="AM29" s="57"/>
-      <c r="AN29" s="57"/>
-      <c r="AO29" s="57"/>
-      <c r="AP29" s="57"/>
-      <c r="AQ29" s="57"/>
-      <c r="AR29" s="57"/>
-      <c r="AS29" s="57"/>
-      <c r="AT29" s="57"/>
-      <c r="AU29" s="57"/>
-      <c r="AV29" s="57"/>
-      <c r="AW29" s="57"/>
-      <c r="AX29" s="57"/>
-      <c r="AY29" s="57"/>
-      <c r="AZ29" s="57"/>
-      <c r="BA29" s="57"/>
-      <c r="BB29" s="57"/>
-      <c r="BC29" s="57"/>
-      <c r="BD29" s="57"/>
-      <c r="BE29" s="57"/>
-      <c r="BF29" s="57"/>
-      <c r="BG29" s="57"/>
-      <c r="BH29" s="57"/>
-      <c r="BI29" s="57"/>
-      <c r="BJ29" s="57"/>
-      <c r="BK29" s="57"/>
-      <c r="BL29" s="57"/>
-      <c r="BM29" s="57"/>
-      <c r="BN29" s="57"/>
-      <c r="BO29" s="57"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="49"/>
+      <c r="AF29" s="49"/>
+      <c r="AG29" s="49"/>
+      <c r="AH29" s="49"/>
+      <c r="AI29" s="49"/>
+      <c r="AJ29" s="49"/>
+      <c r="AK29" s="49"/>
+      <c r="AL29" s="49"/>
+      <c r="AM29" s="49"/>
+      <c r="AN29" s="49"/>
+      <c r="AO29" s="49"/>
+      <c r="AP29" s="49"/>
+      <c r="AQ29" s="49"/>
+      <c r="AR29" s="49"/>
+      <c r="AS29" s="49"/>
+      <c r="AT29" s="49"/>
+      <c r="AU29" s="49"/>
+      <c r="AV29" s="49"/>
+      <c r="AW29" s="49"/>
+      <c r="AX29" s="49"/>
+      <c r="AY29" s="49"/>
+      <c r="AZ29" s="49"/>
+      <c r="BA29" s="49"/>
+      <c r="BB29" s="49"/>
+      <c r="BC29" s="49"/>
+      <c r="BD29" s="49"/>
+      <c r="BE29" s="49"/>
+      <c r="BF29" s="49"/>
+      <c r="BG29" s="49"/>
+      <c r="BH29" s="49"/>
+      <c r="BI29" s="49"/>
+      <c r="BJ29" s="49"/>
+      <c r="BK29" s="49"/>
+      <c r="BL29" s="49"/>
+      <c r="BM29" s="49"/>
+      <c r="BN29" s="49"/>
+      <c r="BO29" s="49"/>
       <c r="BP29"/>
       <c r="BQ29" s="4"/>
       <c r="AMM29"/>
@@ -3220,73 +3234,73 @@
     </row>
     <row r="30" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="C30" s="54">
+      <c r="C30" s="50">
         <v>5</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="59"/>
-      <c r="AA30" s="59"/>
-      <c r="AB30" s="59"/>
-      <c r="AC30" s="59"/>
-      <c r="AD30" s="59"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="57"/>
-      <c r="AG30" s="57"/>
-      <c r="AH30" s="57"/>
-      <c r="AI30" s="57"/>
-      <c r="AJ30" s="57"/>
-      <c r="AK30" s="57"/>
-      <c r="AL30" s="57"/>
-      <c r="AM30" s="57"/>
-      <c r="AN30" s="57"/>
-      <c r="AO30" s="57"/>
-      <c r="AP30" s="57"/>
-      <c r="AQ30" s="57"/>
-      <c r="AR30" s="57"/>
-      <c r="AS30" s="57"/>
-      <c r="AT30" s="57"/>
-      <c r="AU30" s="57"/>
-      <c r="AV30" s="57"/>
-      <c r="AW30" s="57"/>
-      <c r="AX30" s="57"/>
-      <c r="AY30" s="57"/>
-      <c r="AZ30" s="57"/>
-      <c r="BA30" s="57"/>
-      <c r="BB30" s="57"/>
-      <c r="BC30" s="57"/>
-      <c r="BD30" s="57"/>
-      <c r="BE30" s="57"/>
-      <c r="BF30" s="57"/>
-      <c r="BG30" s="57"/>
-      <c r="BH30" s="57"/>
-      <c r="BI30" s="57"/>
-      <c r="BJ30" s="57"/>
-      <c r="BK30" s="57"/>
-      <c r="BL30" s="57"/>
-      <c r="BM30" s="57"/>
-      <c r="BN30" s="57"/>
-      <c r="BO30" s="57"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="49"/>
+      <c r="AF30" s="49"/>
+      <c r="AG30" s="49"/>
+      <c r="AH30" s="49"/>
+      <c r="AI30" s="49"/>
+      <c r="AJ30" s="49"/>
+      <c r="AK30" s="49"/>
+      <c r="AL30" s="49"/>
+      <c r="AM30" s="49"/>
+      <c r="AN30" s="49"/>
+      <c r="AO30" s="49"/>
+      <c r="AP30" s="49"/>
+      <c r="AQ30" s="49"/>
+      <c r="AR30" s="49"/>
+      <c r="AS30" s="49"/>
+      <c r="AT30" s="49"/>
+      <c r="AU30" s="49"/>
+      <c r="AV30" s="49"/>
+      <c r="AW30" s="49"/>
+      <c r="AX30" s="49"/>
+      <c r="AY30" s="49"/>
+      <c r="AZ30" s="49"/>
+      <c r="BA30" s="49"/>
+      <c r="BB30" s="49"/>
+      <c r="BC30" s="49"/>
+      <c r="BD30" s="49"/>
+      <c r="BE30" s="49"/>
+      <c r="BF30" s="49"/>
+      <c r="BG30" s="49"/>
+      <c r="BH30" s="49"/>
+      <c r="BI30" s="49"/>
+      <c r="BJ30" s="49"/>
+      <c r="BK30" s="49"/>
+      <c r="BL30" s="49"/>
+      <c r="BM30" s="49"/>
+      <c r="BN30" s="49"/>
+      <c r="BO30" s="49"/>
       <c r="BP30"/>
       <c r="BQ30" s="4"/>
       <c r="AMM30"/>
@@ -3303,73 +3317,73 @@
     </row>
     <row r="31" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="C31" s="54">
+      <c r="C31" s="50">
         <v>6</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="59"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="57"/>
-      <c r="AG31" s="57"/>
-      <c r="AH31" s="57"/>
-      <c r="AI31" s="57"/>
-      <c r="AJ31" s="57"/>
-      <c r="AK31" s="57"/>
-      <c r="AL31" s="57"/>
-      <c r="AM31" s="57"/>
-      <c r="AN31" s="57"/>
-      <c r="AO31" s="57"/>
-      <c r="AP31" s="57"/>
-      <c r="AQ31" s="57"/>
-      <c r="AR31" s="57"/>
-      <c r="AS31" s="57"/>
-      <c r="AT31" s="57"/>
-      <c r="AU31" s="57"/>
-      <c r="AV31" s="57"/>
-      <c r="AW31" s="57"/>
-      <c r="AX31" s="57"/>
-      <c r="AY31" s="57"/>
-      <c r="AZ31" s="57"/>
-      <c r="BA31" s="57"/>
-      <c r="BB31" s="57"/>
-      <c r="BC31" s="57"/>
-      <c r="BD31" s="57"/>
-      <c r="BE31" s="57"/>
-      <c r="BF31" s="57"/>
-      <c r="BG31" s="57"/>
-      <c r="BH31" s="57"/>
-      <c r="BI31" s="57"/>
-      <c r="BJ31" s="57"/>
-      <c r="BK31" s="57"/>
-      <c r="BL31" s="57"/>
-      <c r="BM31" s="57"/>
-      <c r="BN31" s="57"/>
-      <c r="BO31" s="57"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="49"/>
+      <c r="AF31" s="49"/>
+      <c r="AG31" s="49"/>
+      <c r="AH31" s="49"/>
+      <c r="AI31" s="49"/>
+      <c r="AJ31" s="49"/>
+      <c r="AK31" s="49"/>
+      <c r="AL31" s="49"/>
+      <c r="AM31" s="49"/>
+      <c r="AN31" s="49"/>
+      <c r="AO31" s="49"/>
+      <c r="AP31" s="49"/>
+      <c r="AQ31" s="49"/>
+      <c r="AR31" s="49"/>
+      <c r="AS31" s="49"/>
+      <c r="AT31" s="49"/>
+      <c r="AU31" s="49"/>
+      <c r="AV31" s="49"/>
+      <c r="AW31" s="49"/>
+      <c r="AX31" s="49"/>
+      <c r="AY31" s="49"/>
+      <c r="AZ31" s="49"/>
+      <c r="BA31" s="49"/>
+      <c r="BB31" s="49"/>
+      <c r="BC31" s="49"/>
+      <c r="BD31" s="49"/>
+      <c r="BE31" s="49"/>
+      <c r="BF31" s="49"/>
+      <c r="BG31" s="49"/>
+      <c r="BH31" s="49"/>
+      <c r="BI31" s="49"/>
+      <c r="BJ31" s="49"/>
+      <c r="BK31" s="49"/>
+      <c r="BL31" s="49"/>
+      <c r="BM31" s="49"/>
+      <c r="BN31" s="49"/>
+      <c r="BO31" s="49"/>
       <c r="BP31"/>
       <c r="BQ31" s="4"/>
       <c r="AMM31"/>
@@ -3386,73 +3400,73 @@
     </row>
     <row r="32" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="C32" s="54">
+      <c r="C32" s="50">
         <v>7</v>
       </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="59"/>
-      <c r="AE32" s="57"/>
-      <c r="AF32" s="57"/>
-      <c r="AG32" s="57"/>
-      <c r="AH32" s="57"/>
-      <c r="AI32" s="57"/>
-      <c r="AJ32" s="57"/>
-      <c r="AK32" s="57"/>
-      <c r="AL32" s="57"/>
-      <c r="AM32" s="57"/>
-      <c r="AN32" s="57"/>
-      <c r="AO32" s="57"/>
-      <c r="AP32" s="57"/>
-      <c r="AQ32" s="57"/>
-      <c r="AR32" s="57"/>
-      <c r="AS32" s="57"/>
-      <c r="AT32" s="57"/>
-      <c r="AU32" s="57"/>
-      <c r="AV32" s="57"/>
-      <c r="AW32" s="57"/>
-      <c r="AX32" s="57"/>
-      <c r="AY32" s="57"/>
-      <c r="AZ32" s="57"/>
-      <c r="BA32" s="57"/>
-      <c r="BB32" s="57"/>
-      <c r="BC32" s="57"/>
-      <c r="BD32" s="57"/>
-      <c r="BE32" s="57"/>
-      <c r="BF32" s="57"/>
-      <c r="BG32" s="57"/>
-      <c r="BH32" s="57"/>
-      <c r="BI32" s="57"/>
-      <c r="BJ32" s="57"/>
-      <c r="BK32" s="57"/>
-      <c r="BL32" s="57"/>
-      <c r="BM32" s="57"/>
-      <c r="BN32" s="57"/>
-      <c r="BO32" s="57"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="49"/>
+      <c r="AF32" s="49"/>
+      <c r="AG32" s="49"/>
+      <c r="AH32" s="49"/>
+      <c r="AI32" s="49"/>
+      <c r="AJ32" s="49"/>
+      <c r="AK32" s="49"/>
+      <c r="AL32" s="49"/>
+      <c r="AM32" s="49"/>
+      <c r="AN32" s="49"/>
+      <c r="AO32" s="49"/>
+      <c r="AP32" s="49"/>
+      <c r="AQ32" s="49"/>
+      <c r="AR32" s="49"/>
+      <c r="AS32" s="49"/>
+      <c r="AT32" s="49"/>
+      <c r="AU32" s="49"/>
+      <c r="AV32" s="49"/>
+      <c r="AW32" s="49"/>
+      <c r="AX32" s="49"/>
+      <c r="AY32" s="49"/>
+      <c r="AZ32" s="49"/>
+      <c r="BA32" s="49"/>
+      <c r="BB32" s="49"/>
+      <c r="BC32" s="49"/>
+      <c r="BD32" s="49"/>
+      <c r="BE32" s="49"/>
+      <c r="BF32" s="49"/>
+      <c r="BG32" s="49"/>
+      <c r="BH32" s="49"/>
+      <c r="BI32" s="49"/>
+      <c r="BJ32" s="49"/>
+      <c r="BK32" s="49"/>
+      <c r="BL32" s="49"/>
+      <c r="BM32" s="49"/>
+      <c r="BN32" s="49"/>
+      <c r="BO32" s="49"/>
       <c r="BP32"/>
       <c r="BQ32" s="4"/>
       <c r="AMM32"/>
@@ -3469,73 +3483,73 @@
     </row>
     <row r="33" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="C33" s="54">
+      <c r="C33" s="50">
         <v>8</v>
       </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="59"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="59"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="57"/>
-      <c r="AG33" s="57"/>
-      <c r="AH33" s="57"/>
-      <c r="AI33" s="57"/>
-      <c r="AJ33" s="57"/>
-      <c r="AK33" s="57"/>
-      <c r="AL33" s="57"/>
-      <c r="AM33" s="57"/>
-      <c r="AN33" s="57"/>
-      <c r="AO33" s="57"/>
-      <c r="AP33" s="57"/>
-      <c r="AQ33" s="57"/>
-      <c r="AR33" s="57"/>
-      <c r="AS33" s="57"/>
-      <c r="AT33" s="57"/>
-      <c r="AU33" s="57"/>
-      <c r="AV33" s="57"/>
-      <c r="AW33" s="57"/>
-      <c r="AX33" s="57"/>
-      <c r="AY33" s="57"/>
-      <c r="AZ33" s="57"/>
-      <c r="BA33" s="57"/>
-      <c r="BB33" s="57"/>
-      <c r="BC33" s="57"/>
-      <c r="BD33" s="57"/>
-      <c r="BE33" s="57"/>
-      <c r="BF33" s="57"/>
-      <c r="BG33" s="57"/>
-      <c r="BH33" s="57"/>
-      <c r="BI33" s="57"/>
-      <c r="BJ33" s="57"/>
-      <c r="BK33" s="57"/>
-      <c r="BL33" s="57"/>
-      <c r="BM33" s="57"/>
-      <c r="BN33" s="57"/>
-      <c r="BO33" s="57"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="49"/>
+      <c r="AF33" s="49"/>
+      <c r="AG33" s="49"/>
+      <c r="AH33" s="49"/>
+      <c r="AI33" s="49"/>
+      <c r="AJ33" s="49"/>
+      <c r="AK33" s="49"/>
+      <c r="AL33" s="49"/>
+      <c r="AM33" s="49"/>
+      <c r="AN33" s="49"/>
+      <c r="AO33" s="49"/>
+      <c r="AP33" s="49"/>
+      <c r="AQ33" s="49"/>
+      <c r="AR33" s="49"/>
+      <c r="AS33" s="49"/>
+      <c r="AT33" s="49"/>
+      <c r="AU33" s="49"/>
+      <c r="AV33" s="49"/>
+      <c r="AW33" s="49"/>
+      <c r="AX33" s="49"/>
+      <c r="AY33" s="49"/>
+      <c r="AZ33" s="49"/>
+      <c r="BA33" s="49"/>
+      <c r="BB33" s="49"/>
+      <c r="BC33" s="49"/>
+      <c r="BD33" s="49"/>
+      <c r="BE33" s="49"/>
+      <c r="BF33" s="49"/>
+      <c r="BG33" s="49"/>
+      <c r="BH33" s="49"/>
+      <c r="BI33" s="49"/>
+      <c r="BJ33" s="49"/>
+      <c r="BK33" s="49"/>
+      <c r="BL33" s="49"/>
+      <c r="BM33" s="49"/>
+      <c r="BN33" s="49"/>
+      <c r="BO33" s="49"/>
       <c r="BP33"/>
       <c r="BQ33" s="4"/>
       <c r="AMM33"/>
@@ -3552,73 +3566,73 @@
     </row>
     <row r="34" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="C34" s="54">
+      <c r="C34" s="50">
         <v>9</v>
       </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="59"/>
-      <c r="AE34" s="57"/>
-      <c r="AF34" s="57"/>
-      <c r="AG34" s="57"/>
-      <c r="AH34" s="57"/>
-      <c r="AI34" s="57"/>
-      <c r="AJ34" s="57"/>
-      <c r="AK34" s="57"/>
-      <c r="AL34" s="57"/>
-      <c r="AM34" s="57"/>
-      <c r="AN34" s="57"/>
-      <c r="AO34" s="57"/>
-      <c r="AP34" s="57"/>
-      <c r="AQ34" s="57"/>
-      <c r="AR34" s="57"/>
-      <c r="AS34" s="57"/>
-      <c r="AT34" s="57"/>
-      <c r="AU34" s="57"/>
-      <c r="AV34" s="57"/>
-      <c r="AW34" s="57"/>
-      <c r="AX34" s="57"/>
-      <c r="AY34" s="57"/>
-      <c r="AZ34" s="57"/>
-      <c r="BA34" s="57"/>
-      <c r="BB34" s="57"/>
-      <c r="BC34" s="57"/>
-      <c r="BD34" s="57"/>
-      <c r="BE34" s="57"/>
-      <c r="BF34" s="57"/>
-      <c r="BG34" s="57"/>
-      <c r="BH34" s="57"/>
-      <c r="BI34" s="57"/>
-      <c r="BJ34" s="57"/>
-      <c r="BK34" s="57"/>
-      <c r="BL34" s="57"/>
-      <c r="BM34" s="57"/>
-      <c r="BN34" s="57"/>
-      <c r="BO34" s="57"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="51"/>
+      <c r="AB34" s="51"/>
+      <c r="AC34" s="51"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="49"/>
+      <c r="AF34" s="49"/>
+      <c r="AG34" s="49"/>
+      <c r="AH34" s="49"/>
+      <c r="AI34" s="49"/>
+      <c r="AJ34" s="49"/>
+      <c r="AK34" s="49"/>
+      <c r="AL34" s="49"/>
+      <c r="AM34" s="49"/>
+      <c r="AN34" s="49"/>
+      <c r="AO34" s="49"/>
+      <c r="AP34" s="49"/>
+      <c r="AQ34" s="49"/>
+      <c r="AR34" s="49"/>
+      <c r="AS34" s="49"/>
+      <c r="AT34" s="49"/>
+      <c r="AU34" s="49"/>
+      <c r="AV34" s="49"/>
+      <c r="AW34" s="49"/>
+      <c r="AX34" s="49"/>
+      <c r="AY34" s="49"/>
+      <c r="AZ34" s="49"/>
+      <c r="BA34" s="49"/>
+      <c r="BB34" s="49"/>
+      <c r="BC34" s="49"/>
+      <c r="BD34" s="49"/>
+      <c r="BE34" s="49"/>
+      <c r="BF34" s="49"/>
+      <c r="BG34" s="49"/>
+      <c r="BH34" s="49"/>
+      <c r="BI34" s="49"/>
+      <c r="BJ34" s="49"/>
+      <c r="BK34" s="49"/>
+      <c r="BL34" s="49"/>
+      <c r="BM34" s="49"/>
+      <c r="BN34" s="49"/>
+      <c r="BO34" s="49"/>
       <c r="BP34"/>
       <c r="BQ34" s="4"/>
       <c r="AMM34"/>
@@ -3636,73 +3650,73 @@
     <row r="35" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="54">
+      <c r="C35" s="50">
         <v>10</v>
       </c>
-      <c r="D35" s="54"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
-      <c r="AA35" s="59"/>
-      <c r="AB35" s="59"/>
-      <c r="AC35" s="59"/>
-      <c r="AD35" s="59"/>
-      <c r="AE35" s="57"/>
-      <c r="AF35" s="57"/>
-      <c r="AG35" s="57"/>
-      <c r="AH35" s="57"/>
-      <c r="AI35" s="57"/>
-      <c r="AJ35" s="57"/>
-      <c r="AK35" s="57"/>
-      <c r="AL35" s="57"/>
-      <c r="AM35" s="57"/>
-      <c r="AN35" s="57"/>
-      <c r="AO35" s="57"/>
-      <c r="AP35" s="57"/>
-      <c r="AQ35" s="57"/>
-      <c r="AR35" s="57"/>
-      <c r="AS35" s="57"/>
-      <c r="AT35" s="57"/>
-      <c r="AU35" s="57"/>
-      <c r="AV35" s="57"/>
-      <c r="AW35" s="57"/>
-      <c r="AX35" s="57"/>
-      <c r="AY35" s="57"/>
-      <c r="AZ35" s="57"/>
-      <c r="BA35" s="57"/>
-      <c r="BB35" s="57"/>
-      <c r="BC35" s="57"/>
-      <c r="BD35" s="57"/>
-      <c r="BE35" s="57"/>
-      <c r="BF35" s="57"/>
-      <c r="BG35" s="57"/>
-      <c r="BH35" s="57"/>
-      <c r="BI35" s="57"/>
-      <c r="BJ35" s="57"/>
-      <c r="BK35" s="57"/>
-      <c r="BL35" s="57"/>
-      <c r="BM35" s="57"/>
-      <c r="BN35" s="57"/>
-      <c r="BO35" s="57"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="51"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="49"/>
+      <c r="AF35" s="49"/>
+      <c r="AG35" s="49"/>
+      <c r="AH35" s="49"/>
+      <c r="AI35" s="49"/>
+      <c r="AJ35" s="49"/>
+      <c r="AK35" s="49"/>
+      <c r="AL35" s="49"/>
+      <c r="AM35" s="49"/>
+      <c r="AN35" s="49"/>
+      <c r="AO35" s="49"/>
+      <c r="AP35" s="49"/>
+      <c r="AQ35" s="49"/>
+      <c r="AR35" s="49"/>
+      <c r="AS35" s="49"/>
+      <c r="AT35" s="49"/>
+      <c r="AU35" s="49"/>
+      <c r="AV35" s="49"/>
+      <c r="AW35" s="49"/>
+      <c r="AX35" s="49"/>
+      <c r="AY35" s="49"/>
+      <c r="AZ35" s="49"/>
+      <c r="BA35" s="49"/>
+      <c r="BB35" s="49"/>
+      <c r="BC35" s="49"/>
+      <c r="BD35" s="49"/>
+      <c r="BE35" s="49"/>
+      <c r="BF35" s="49"/>
+      <c r="BG35" s="49"/>
+      <c r="BH35" s="49"/>
+      <c r="BI35" s="49"/>
+      <c r="BJ35" s="49"/>
+      <c r="BK35" s="49"/>
+      <c r="BL35" s="49"/>
+      <c r="BM35" s="49"/>
+      <c r="BN35" s="49"/>
+      <c r="BO35" s="49"/>
       <c r="BP35"/>
       <c r="BQ35" s="4"/>
       <c r="AMM35"/>
@@ -4311,48 +4325,51 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="BK34:BO34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="O35:AD35"/>
-    <mergeCell ref="AE35:BC35"/>
-    <mergeCell ref="BD35:BJ35"/>
-    <mergeCell ref="BK35:BO35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD34:BJ34"/>
-    <mergeCell ref="BK32:BO32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BJ33"/>
-    <mergeCell ref="BK33:BO33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD32:BJ32"/>
-    <mergeCell ref="BK30:BO30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BJ31"/>
-    <mergeCell ref="BK31:BO31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BJ30"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="BD26:BJ26"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="BD25:BJ25"/>
+    <mergeCell ref="BK25:BO25"/>
     <mergeCell ref="BK27:BO27"/>
     <mergeCell ref="BK26:BO26"/>
     <mergeCell ref="BK28:BO28"/>
@@ -4377,51 +4394,48 @@
     <mergeCell ref="BD27:BJ27"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="BD26:BJ26"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="BD25:BJ25"/>
-    <mergeCell ref="BK25:BO25"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BK30:BO30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BJ31"/>
+    <mergeCell ref="BK31:BO31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BJ30"/>
+    <mergeCell ref="BK32:BO32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BJ33"/>
+    <mergeCell ref="BK33:BO33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD32:BJ32"/>
+    <mergeCell ref="BK34:BO34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="O35:AD35"/>
+    <mergeCell ref="AE35:BC35"/>
+    <mergeCell ref="BD35:BJ35"/>
+    <mergeCell ref="BK35:BO35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD34:BJ34"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -4474,7 +4488,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E3FF34-AE25-40C3-ADE9-72B98019CF4C}">
-  <dimension ref="A1:AMK55"/>
+  <dimension ref="A1:AMK56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -4492,247 +4506,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69" t="s">
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="70" t="s">
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="70"/>
-      <c r="AV1" s="70"/>
-      <c r="AW1" s="70"/>
-      <c r="AX1" s="70"/>
-      <c r="AY1" s="70"/>
-      <c r="AZ1" s="70"/>
-      <c r="BA1" s="70"/>
-      <c r="BB1" s="70"/>
-      <c r="BC1" s="70"/>
-      <c r="BD1" s="70"/>
-      <c r="BE1" s="70"/>
-      <c r="BF1" s="70"/>
-      <c r="BG1" s="70"/>
-      <c r="BH1" s="70"/>
-      <c r="BI1" s="70"/>
-      <c r="BJ1" s="70"/>
-      <c r="BK1" s="70"/>
-      <c r="BL1" s="70"/>
-      <c r="BM1" s="70"/>
-      <c r="BN1" s="70"/>
-      <c r="BO1" s="70"/>
-      <c r="BP1" s="70"/>
-      <c r="BQ1" s="70"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79"/>
+      <c r="AY1" s="79"/>
+      <c r="AZ1" s="79"/>
+      <c r="BA1" s="79"/>
+      <c r="BB1" s="79"/>
+      <c r="BC1" s="79"/>
+      <c r="BD1" s="79"/>
+      <c r="BE1" s="79"/>
+      <c r="BF1" s="79"/>
+      <c r="BG1" s="79"/>
+      <c r="BH1" s="79"/>
+      <c r="BI1" s="79"/>
+      <c r="BJ1" s="79"/>
+      <c r="BK1" s="79"/>
+      <c r="BL1" s="79"/>
+      <c r="BM1" s="79"/>
+      <c r="BN1" s="79"/>
+      <c r="BO1" s="79"/>
+      <c r="BP1" s="79"/>
+      <c r="BQ1" s="79"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="60" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="71" t="s">
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="71"/>
-      <c r="AP2" s="71"/>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="71"/>
-      <c r="AS2" s="71"/>
-      <c r="AT2" s="71" t="s">
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="AU2" s="71"/>
-      <c r="AV2" s="71"/>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="71"/>
-      <c r="AY2" s="71"/>
-      <c r="AZ2" s="71"/>
-      <c r="BA2" s="71"/>
-      <c r="BB2" s="71" t="s">
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="71"/>
-      <c r="BD2" s="71"/>
-      <c r="BE2" s="71"/>
-      <c r="BF2" s="71"/>
-      <c r="BG2" s="71"/>
-      <c r="BH2" s="71"/>
-      <c r="BI2" s="71"/>
-      <c r="BJ2" s="72" t="s">
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="69"/>
+      <c r="BH2" s="69"/>
+      <c r="BI2" s="69"/>
+      <c r="BJ2" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="BK2" s="72"/>
-      <c r="BL2" s="72"/>
-      <c r="BM2" s="72"/>
-      <c r="BN2" s="72"/>
-      <c r="BO2" s="72"/>
-      <c r="BP2" s="72"/>
-      <c r="BQ2" s="72"/>
+      <c r="BK2" s="80"/>
+      <c r="BL2" s="80"/>
+      <c r="BM2" s="80"/>
+      <c r="BN2" s="80"/>
+      <c r="BO2" s="80"/>
+      <c r="BP2" s="80"/>
+      <c r="BQ2" s="80"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="73" t="s">
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="73"/>
-      <c r="AP3" s="73"/>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="73"/>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="74">
+      <c r="AL3" s="81"/>
+      <c r="AM3" s="81"/>
+      <c r="AN3" s="81"/>
+      <c r="AO3" s="81"/>
+      <c r="AP3" s="81"/>
+      <c r="AQ3" s="81"/>
+      <c r="AR3" s="81"/>
+      <c r="AS3" s="81"/>
+      <c r="AT3" s="82">
         <v>45510</v>
       </c>
-      <c r="AU3" s="74"/>
-      <c r="AV3" s="74"/>
-      <c r="AW3" s="74"/>
-      <c r="AX3" s="74"/>
-      <c r="AY3" s="74"/>
-      <c r="AZ3" s="74"/>
-      <c r="BA3" s="74"/>
-      <c r="BB3" s="73" t="s">
+      <c r="AU3" s="82"/>
+      <c r="AV3" s="82"/>
+      <c r="AW3" s="82"/>
+      <c r="AX3" s="82"/>
+      <c r="AY3" s="82"/>
+      <c r="AZ3" s="82"/>
+      <c r="BA3" s="82"/>
+      <c r="BB3" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="73"/>
-      <c r="BD3" s="73"/>
-      <c r="BE3" s="73"/>
-      <c r="BF3" s="73"/>
-      <c r="BG3" s="73"/>
-      <c r="BH3" s="73"/>
-      <c r="BI3" s="73"/>
-      <c r="BJ3" s="75">
+      <c r="BC3" s="81"/>
+      <c r="BD3" s="81"/>
+      <c r="BE3" s="81"/>
+      <c r="BF3" s="81"/>
+      <c r="BG3" s="81"/>
+      <c r="BH3" s="81"/>
+      <c r="BI3" s="81"/>
+      <c r="BJ3" s="83">
         <v>45548</v>
       </c>
-      <c r="BK3" s="75"/>
-      <c r="BL3" s="75"/>
-      <c r="BM3" s="75"/>
-      <c r="BN3" s="75"/>
-      <c r="BO3" s="75"/>
-      <c r="BP3" s="75"/>
-      <c r="BQ3" s="75"/>
+      <c r="BK3" s="83"/>
+      <c r="BL3" s="83"/>
+      <c r="BM3" s="83"/>
+      <c r="BN3" s="83"/>
+      <c r="BO3" s="83"/>
+      <c r="BP3" s="83"/>
+      <c r="BQ3" s="83"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -4757,20 +4771,20 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54" t="s">
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
       <c r="M6" s="76" t="s">
         <v>28</v>
       </c>
@@ -4801,52 +4815,52 @@
       <c r="AL6" s="76"/>
       <c r="AM6" s="76"/>
       <c r="AN6" s="76"/>
-      <c r="AO6" s="57" t="s">
+      <c r="AO6" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="57"/>
-      <c r="AQ6" s="57"/>
-      <c r="AR6" s="57"/>
-      <c r="AS6" s="57"/>
-      <c r="AT6" s="57"/>
-      <c r="AU6" s="57"/>
-      <c r="AV6" s="57" t="s">
+      <c r="AP6" s="49"/>
+      <c r="AQ6" s="49"/>
+      <c r="AR6" s="49"/>
+      <c r="AS6" s="49"/>
+      <c r="AT6" s="49"/>
+      <c r="AU6" s="49"/>
+      <c r="AV6" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="57"/>
-      <c r="AX6" s="57"/>
-      <c r="AY6" s="57"/>
-      <c r="AZ6" s="57"/>
-      <c r="BA6" s="57"/>
-      <c r="BB6" s="57"/>
-      <c r="BC6" s="57"/>
-      <c r="BD6" s="57"/>
-      <c r="BE6" s="57"/>
-      <c r="BF6" s="57"/>
-      <c r="BG6" s="57"/>
-      <c r="BH6" s="57"/>
-      <c r="BI6" s="57"/>
-      <c r="BJ6" s="57"/>
-      <c r="BK6" s="57"/>
-      <c r="BL6" s="57"/>
-      <c r="BM6" s="57"/>
-      <c r="BN6" s="57"/>
-      <c r="BO6" s="57"/>
-      <c r="BP6" s="57"/>
+      <c r="AW6" s="49"/>
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="49"/>
+      <c r="AZ6" s="49"/>
+      <c r="BA6" s="49"/>
+      <c r="BB6" s="49"/>
+      <c r="BC6" s="49"/>
+      <c r="BD6" s="49"/>
+      <c r="BE6" s="49"/>
+      <c r="BF6" s="49"/>
+      <c r="BG6" s="49"/>
+      <c r="BH6" s="49"/>
+      <c r="BI6" s="49"/>
+      <c r="BJ6" s="49"/>
+      <c r="BK6" s="49"/>
+      <c r="BL6" s="49"/>
+      <c r="BM6" s="49"/>
+      <c r="BN6" s="49"/>
+      <c r="BO6" s="49"/>
+      <c r="BP6" s="49"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
       <c r="M7" s="17" t="s">
         <v>58</v>
       </c>
@@ -4877,38 +4891,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="57" t="s">
+      <c r="AO7" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="57"/>
-      <c r="AU7" s="57"/>
-      <c r="AV7" s="57" t="s">
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="49"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="AW7" s="57"/>
-      <c r="AX7" s="57"/>
-      <c r="AY7" s="57"/>
-      <c r="AZ7" s="57"/>
-      <c r="BA7" s="57"/>
-      <c r="BB7" s="57"/>
-      <c r="BC7" s="57"/>
-      <c r="BD7" s="57"/>
-      <c r="BE7" s="57"/>
-      <c r="BF7" s="57"/>
-      <c r="BG7" s="57"/>
-      <c r="BH7" s="57"/>
-      <c r="BI7" s="57"/>
-      <c r="BJ7" s="57"/>
-      <c r="BK7" s="57"/>
-      <c r="BL7" s="57"/>
-      <c r="BM7" s="57"/>
-      <c r="BN7" s="57"/>
-      <c r="BO7" s="57"/>
-      <c r="BP7" s="57"/>
+      <c r="AW7" s="49"/>
+      <c r="AX7" s="49"/>
+      <c r="AY7" s="49"/>
+      <c r="AZ7" s="49"/>
+      <c r="BA7" s="49"/>
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="49"/>
+      <c r="BD7" s="49"/>
+      <c r="BE7" s="49"/>
+      <c r="BF7" s="49"/>
+      <c r="BG7" s="49"/>
+      <c r="BH7" s="49"/>
+      <c r="BI7" s="49"/>
+      <c r="BJ7" s="49"/>
+      <c r="BK7" s="49"/>
+      <c r="BL7" s="49"/>
+      <c r="BM7" s="49"/>
+      <c r="BN7" s="49"/>
+      <c r="BO7" s="49"/>
+      <c r="BP7" s="49"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -4922,89 +4936,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="71" t="s">
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71" t="s">
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="78" t="s">
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="79"/>
-      <c r="AM10" s="79"/>
-      <c r="AN10" s="79"/>
-      <c r="AO10" s="79"/>
-      <c r="AP10" s="79"/>
-      <c r="AQ10" s="79"/>
-      <c r="AR10" s="79"/>
-      <c r="AS10" s="79"/>
-      <c r="AT10" s="79"/>
-      <c r="AU10" s="79"/>
-      <c r="AV10" s="79"/>
-      <c r="AW10" s="79"/>
-      <c r="AX10" s="79"/>
-      <c r="AY10" s="79"/>
-      <c r="AZ10" s="79"/>
-      <c r="BA10" s="79"/>
-      <c r="BB10" s="79"/>
-      <c r="BC10" s="79"/>
-      <c r="BD10" s="79"/>
-      <c r="BE10" s="79"/>
-      <c r="BF10" s="79"/>
-      <c r="BG10" s="79"/>
-      <c r="BH10" s="79"/>
-      <c r="BI10" s="80"/>
-      <c r="BJ10" s="54" t="s">
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="74"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="74"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="74"/>
+      <c r="AX10" s="74"/>
+      <c r="AY10" s="74"/>
+      <c r="AZ10" s="74"/>
+      <c r="BA10" s="74"/>
+      <c r="BB10" s="74"/>
+      <c r="BC10" s="74"/>
+      <c r="BD10" s="74"/>
+      <c r="BE10" s="74"/>
+      <c r="BF10" s="74"/>
+      <c r="BG10" s="74"/>
+      <c r="BH10" s="74"/>
+      <c r="BI10" s="75"/>
+      <c r="BJ10" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="54"/>
-      <c r="BL10" s="54"/>
-      <c r="BM10" s="54"/>
-      <c r="BN10" s="54"/>
-      <c r="BO10" s="54"/>
-      <c r="BP10" s="54"/>
+      <c r="BK10" s="50"/>
+      <c r="BL10" s="50"/>
+      <c r="BM10" s="50"/>
+      <c r="BN10" s="50"/>
+      <c r="BO10" s="50"/>
+      <c r="BP10" s="50"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="17" t="s">
         <v>66</v>
       </c>
@@ -5020,11 +5034,11 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="71" t="s">
+      <c r="T11" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="71"/>
-      <c r="V11" s="82"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="72"/>
       <c r="W11" s="38" t="s">
         <v>65</v>
       </c>
@@ -5076,10 +5090,10 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -5092,9 +5106,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
       <c r="W12" s="38"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -5143,10 +5157,10 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -5160,9 +5174,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
       <c r="W13" s="38"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -5211,10 +5225,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -5228,9 +5242,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
       <c r="W14" s="38"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -5279,10 +5293,10 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -5296,9 +5310,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
       <c r="W15" s="38"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -5358,88 +5372,88 @@
       <c r="AG17" s="16"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="71" t="s">
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71" t="s">
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="54" t="s">
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="54"/>
-      <c r="AF18" s="54"/>
-      <c r="AG18" s="54"/>
-      <c r="AH18" s="54"/>
-      <c r="AI18" s="54"/>
-      <c r="AJ18" s="54"/>
-      <c r="AK18" s="54"/>
-      <c r="AL18" s="54"/>
-      <c r="AM18" s="54"/>
-      <c r="AN18" s="54"/>
-      <c r="AO18" s="54"/>
-      <c r="AP18" s="54"/>
-      <c r="AQ18" s="54"/>
-      <c r="AR18" s="54"/>
-      <c r="AS18" s="54"/>
-      <c r="AT18" s="54"/>
-      <c r="AU18" s="54"/>
-      <c r="AV18" s="54"/>
-      <c r="AW18" s="54"/>
-      <c r="AX18" s="54"/>
-      <c r="AY18" s="54"/>
-      <c r="AZ18" s="54"/>
-      <c r="BA18" s="54"/>
-      <c r="BB18" s="54"/>
-      <c r="BC18" s="54"/>
-      <c r="BD18" s="54"/>
-      <c r="BE18" s="54"/>
-      <c r="BF18" s="54"/>
-      <c r="BG18" s="54"/>
-      <c r="BH18" s="54"/>
-      <c r="BI18" s="54"/>
-      <c r="BJ18" s="54" t="s">
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="50"/>
+      <c r="AI18" s="50"/>
+      <c r="AJ18" s="50"/>
+      <c r="AK18" s="50"/>
+      <c r="AL18" s="50"/>
+      <c r="AM18" s="50"/>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="50"/>
+      <c r="AU18" s="50"/>
+      <c r="AV18" s="50"/>
+      <c r="AW18" s="50"/>
+      <c r="AX18" s="50"/>
+      <c r="AY18" s="50"/>
+      <c r="AZ18" s="50"/>
+      <c r="BA18" s="50"/>
+      <c r="BB18" s="50"/>
+      <c r="BC18" s="50"/>
+      <c r="BD18" s="50"/>
+      <c r="BE18" s="50"/>
+      <c r="BF18" s="50"/>
+      <c r="BG18" s="50"/>
+      <c r="BH18" s="50"/>
+      <c r="BI18" s="50"/>
+      <c r="BJ18" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="BK18" s="54"/>
-      <c r="BL18" s="54"/>
-      <c r="BM18" s="54"/>
-      <c r="BN18" s="54"/>
-      <c r="BO18" s="54"/>
-      <c r="BP18" s="54"/>
+      <c r="BK18" s="50"/>
+      <c r="BL18" s="50"/>
+      <c r="BM18" s="50"/>
+      <c r="BN18" s="50"/>
+      <c r="BO18" s="50"/>
+      <c r="BP18" s="50"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
       <c r="G19" s="17" t="s">
         <v>63</v>
       </c>
@@ -5455,11 +5469,11 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="71" t="s">
+      <c r="T19" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="U19" s="71"/>
-      <c r="V19" s="71"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
       <c r="W19" s="21" t="s">
         <v>67</v>
       </c>
@@ -5842,36 +5856,39 @@
     </row>
     <row r="39" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C39" s="29"/>
+      <c r="I39" s="13" t="s">
+        <v>88</v>
+      </c>
       <c r="AD39" s="13"/>
       <c r="AG39" s="16"/>
       <c r="BP39" s="30"/>
     </row>
     <row r="40" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C40" s="29"/>
-      <c r="D40" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="AD40" s="13"/>
       <c r="AG40" s="16"/>
       <c r="BP40" s="30"/>
     </row>
     <row r="41" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C41" s="29"/>
+      <c r="D41" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="AD41" s="13"/>
       <c r="AG41" s="16"/>
       <c r="BP41" s="30"/>
     </row>
     <row r="42" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C42" s="29"/>
-      <c r="G42" s="13" t="s">
-        <v>68</v>
-      </c>
       <c r="AD42" s="13"/>
       <c r="AG42" s="16"/>
       <c r="BP42" s="30"/>
     </row>
     <row r="43" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C43" s="29"/>
+      <c r="G43" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="AD43" s="13"/>
       <c r="AG43" s="16"/>
       <c r="BP43" s="30"/>
@@ -5943,102 +5960,77 @@
       <c r="BP54" s="30"/>
     </row>
     <row r="55" spans="3:68" x14ac:dyDescent="0.2">
-      <c r="C55" s="31"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="32"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="32"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="32"/>
-      <c r="U55" s="32"/>
-      <c r="V55" s="32"/>
-      <c r="W55" s="32"/>
-      <c r="X55" s="32"/>
-      <c r="Y55" s="32"/>
-      <c r="Z55" s="32"/>
-      <c r="AA55" s="32"/>
-      <c r="AB55" s="32"/>
-      <c r="AC55" s="32"/>
-      <c r="AD55" s="32"/>
-      <c r="AE55" s="32"/>
-      <c r="AF55" s="32"/>
-      <c r="AG55" s="33"/>
-      <c r="AH55" s="32"/>
-      <c r="AI55" s="32"/>
-      <c r="AJ55" s="32"/>
-      <c r="AK55" s="32"/>
-      <c r="AL55" s="32"/>
-      <c r="AM55" s="32"/>
-      <c r="AN55" s="32"/>
-      <c r="AO55" s="32"/>
-      <c r="AP55" s="32"/>
-      <c r="AQ55" s="32"/>
-      <c r="AR55" s="32"/>
-      <c r="AS55" s="32"/>
-      <c r="AT55" s="32"/>
-      <c r="AU55" s="32"/>
-      <c r="AV55" s="32"/>
-      <c r="AW55" s="32"/>
-      <c r="AX55" s="32"/>
-      <c r="AY55" s="32"/>
-      <c r="AZ55" s="32"/>
-      <c r="BA55" s="32"/>
-      <c r="BB55" s="32"/>
-      <c r="BC55" s="32"/>
-      <c r="BD55" s="32"/>
-      <c r="BE55" s="32"/>
-      <c r="BF55" s="32"/>
-      <c r="BG55" s="32"/>
-      <c r="BH55" s="32"/>
-      <c r="BI55" s="32"/>
-      <c r="BJ55" s="32"/>
-      <c r="BK55" s="32"/>
-      <c r="BL55" s="32"/>
-      <c r="BM55" s="32"/>
-      <c r="BN55" s="32"/>
-      <c r="BO55" s="32"/>
-      <c r="BP55" s="34"/>
+      <c r="C55" s="29"/>
+      <c r="AD55" s="13"/>
+      <c r="AG55" s="16"/>
+      <c r="BP55" s="30"/>
+    </row>
+    <row r="56" spans="3:68" x14ac:dyDescent="0.2">
+      <c r="C56" s="31"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="32"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="32"/>
+      <c r="X56" s="32"/>
+      <c r="Y56" s="32"/>
+      <c r="Z56" s="32"/>
+      <c r="AA56" s="32"/>
+      <c r="AB56" s="32"/>
+      <c r="AC56" s="32"/>
+      <c r="AD56" s="32"/>
+      <c r="AE56" s="32"/>
+      <c r="AF56" s="32"/>
+      <c r="AG56" s="33"/>
+      <c r="AH56" s="32"/>
+      <c r="AI56" s="32"/>
+      <c r="AJ56" s="32"/>
+      <c r="AK56" s="32"/>
+      <c r="AL56" s="32"/>
+      <c r="AM56" s="32"/>
+      <c r="AN56" s="32"/>
+      <c r="AO56" s="32"/>
+      <c r="AP56" s="32"/>
+      <c r="AQ56" s="32"/>
+      <c r="AR56" s="32"/>
+      <c r="AS56" s="32"/>
+      <c r="AT56" s="32"/>
+      <c r="AU56" s="32"/>
+      <c r="AV56" s="32"/>
+      <c r="AW56" s="32"/>
+      <c r="AX56" s="32"/>
+      <c r="AY56" s="32"/>
+      <c r="AZ56" s="32"/>
+      <c r="BA56" s="32"/>
+      <c r="BB56" s="32"/>
+      <c r="BC56" s="32"/>
+      <c r="BD56" s="32"/>
+      <c r="BE56" s="32"/>
+      <c r="BF56" s="32"/>
+      <c r="BG56" s="32"/>
+      <c r="BH56" s="32"/>
+      <c r="BI56" s="32"/>
+      <c r="BJ56" s="32"/>
+      <c r="BK56" s="32"/>
+      <c r="BL56" s="32"/>
+      <c r="BM56" s="32"/>
+      <c r="BN56" s="32"/>
+      <c r="BO56" s="32"/>
+      <c r="BP56" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -6053,6 +6045,37 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -6123,243 +6146,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69" t="s">
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="70" t="s">
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="70"/>
-      <c r="AV1" s="70"/>
-      <c r="AW1" s="70"/>
-      <c r="AX1" s="70"/>
-      <c r="AY1" s="70"/>
-      <c r="AZ1" s="70"/>
-      <c r="BA1" s="70"/>
-      <c r="BB1" s="70"/>
-      <c r="BC1" s="70"/>
-      <c r="BD1" s="70"/>
-      <c r="BE1" s="70"/>
-      <c r="BF1" s="70"/>
-      <c r="BG1" s="70"/>
-      <c r="BH1" s="70"/>
-      <c r="BI1" s="70"/>
-      <c r="BJ1" s="70"/>
-      <c r="BK1" s="70"/>
-      <c r="BL1" s="70"/>
-      <c r="BM1" s="70"/>
-      <c r="BN1" s="70"/>
-      <c r="BO1" s="70"/>
-      <c r="BP1" s="70"/>
-      <c r="BQ1" s="70"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79"/>
+      <c r="AY1" s="79"/>
+      <c r="AZ1" s="79"/>
+      <c r="BA1" s="79"/>
+      <c r="BB1" s="79"/>
+      <c r="BC1" s="79"/>
+      <c r="BD1" s="79"/>
+      <c r="BE1" s="79"/>
+      <c r="BF1" s="79"/>
+      <c r="BG1" s="79"/>
+      <c r="BH1" s="79"/>
+      <c r="BI1" s="79"/>
+      <c r="BJ1" s="79"/>
+      <c r="BK1" s="79"/>
+      <c r="BL1" s="79"/>
+      <c r="BM1" s="79"/>
+      <c r="BN1" s="79"/>
+      <c r="BO1" s="79"/>
+      <c r="BP1" s="79"/>
+      <c r="BQ1" s="79"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="60" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="71" t="s">
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="71"/>
-      <c r="AP2" s="71"/>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="71"/>
-      <c r="AS2" s="71"/>
-      <c r="AT2" s="71" t="s">
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="AU2" s="71"/>
-      <c r="AV2" s="71"/>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="71"/>
-      <c r="AY2" s="71"/>
-      <c r="AZ2" s="71"/>
-      <c r="BA2" s="71"/>
-      <c r="BB2" s="71" t="s">
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="71"/>
-      <c r="BD2" s="71"/>
-      <c r="BE2" s="71"/>
-      <c r="BF2" s="71"/>
-      <c r="BG2" s="71"/>
-      <c r="BH2" s="71"/>
-      <c r="BI2" s="71"/>
-      <c r="BJ2" s="72"/>
-      <c r="BK2" s="72"/>
-      <c r="BL2" s="72"/>
-      <c r="BM2" s="72"/>
-      <c r="BN2" s="72"/>
-      <c r="BO2" s="72"/>
-      <c r="BP2" s="72"/>
-      <c r="BQ2" s="72"/>
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="69"/>
+      <c r="BH2" s="69"/>
+      <c r="BI2" s="69"/>
+      <c r="BJ2" s="80"/>
+      <c r="BK2" s="80"/>
+      <c r="BL2" s="80"/>
+      <c r="BM2" s="80"/>
+      <c r="BN2" s="80"/>
+      <c r="BO2" s="80"/>
+      <c r="BP2" s="80"/>
+      <c r="BQ2" s="80"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="73" t="s">
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="73"/>
-      <c r="AP3" s="73"/>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="73"/>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="74">
+      <c r="AL3" s="81"/>
+      <c r="AM3" s="81"/>
+      <c r="AN3" s="81"/>
+      <c r="AO3" s="81"/>
+      <c r="AP3" s="81"/>
+      <c r="AQ3" s="81"/>
+      <c r="AR3" s="81"/>
+      <c r="AS3" s="81"/>
+      <c r="AT3" s="82">
         <v>45554</v>
       </c>
-      <c r="AU3" s="74"/>
-      <c r="AV3" s="74"/>
-      <c r="AW3" s="74"/>
-      <c r="AX3" s="74"/>
-      <c r="AY3" s="74"/>
-      <c r="AZ3" s="74"/>
-      <c r="BA3" s="74"/>
-      <c r="BB3" s="73" t="s">
+      <c r="AU3" s="82"/>
+      <c r="AV3" s="82"/>
+      <c r="AW3" s="82"/>
+      <c r="AX3" s="82"/>
+      <c r="AY3" s="82"/>
+      <c r="AZ3" s="82"/>
+      <c r="BA3" s="82"/>
+      <c r="BB3" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="73"/>
-      <c r="BD3" s="73"/>
-      <c r="BE3" s="73"/>
-      <c r="BF3" s="73"/>
-      <c r="BG3" s="73"/>
-      <c r="BH3" s="73"/>
-      <c r="BI3" s="73"/>
-      <c r="BJ3" s="75"/>
-      <c r="BK3" s="75"/>
-      <c r="BL3" s="75"/>
-      <c r="BM3" s="75"/>
-      <c r="BN3" s="75"/>
-      <c r="BO3" s="75"/>
-      <c r="BP3" s="75"/>
-      <c r="BQ3" s="75"/>
+      <c r="BC3" s="81"/>
+      <c r="BD3" s="81"/>
+      <c r="BE3" s="81"/>
+      <c r="BF3" s="81"/>
+      <c r="BG3" s="81"/>
+      <c r="BH3" s="81"/>
+      <c r="BI3" s="81"/>
+      <c r="BJ3" s="83"/>
+      <c r="BK3" s="83"/>
+      <c r="BL3" s="83"/>
+      <c r="BM3" s="83"/>
+      <c r="BN3" s="83"/>
+      <c r="BO3" s="83"/>
+      <c r="BP3" s="83"/>
+      <c r="BQ3" s="83"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -6384,20 +6407,20 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54" t="s">
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
       <c r="M6" s="76" t="s">
         <v>28</v>
       </c>
@@ -6428,52 +6451,52 @@
       <c r="AL6" s="76"/>
       <c r="AM6" s="76"/>
       <c r="AN6" s="76"/>
-      <c r="AO6" s="57" t="s">
+      <c r="AO6" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="57"/>
-      <c r="AQ6" s="57"/>
-      <c r="AR6" s="57"/>
-      <c r="AS6" s="57"/>
-      <c r="AT6" s="57"/>
-      <c r="AU6" s="57"/>
-      <c r="AV6" s="57" t="s">
+      <c r="AP6" s="49"/>
+      <c r="AQ6" s="49"/>
+      <c r="AR6" s="49"/>
+      <c r="AS6" s="49"/>
+      <c r="AT6" s="49"/>
+      <c r="AU6" s="49"/>
+      <c r="AV6" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="57"/>
-      <c r="AX6" s="57"/>
-      <c r="AY6" s="57"/>
-      <c r="AZ6" s="57"/>
-      <c r="BA6" s="57"/>
-      <c r="BB6" s="57"/>
-      <c r="BC6" s="57"/>
-      <c r="BD6" s="57"/>
-      <c r="BE6" s="57"/>
-      <c r="BF6" s="57"/>
-      <c r="BG6" s="57"/>
-      <c r="BH6" s="57"/>
-      <c r="BI6" s="57"/>
-      <c r="BJ6" s="57"/>
-      <c r="BK6" s="57"/>
-      <c r="BL6" s="57"/>
-      <c r="BM6" s="57"/>
-      <c r="BN6" s="57"/>
-      <c r="BO6" s="57"/>
-      <c r="BP6" s="57"/>
+      <c r="AW6" s="49"/>
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="49"/>
+      <c r="AZ6" s="49"/>
+      <c r="BA6" s="49"/>
+      <c r="BB6" s="49"/>
+      <c r="BC6" s="49"/>
+      <c r="BD6" s="49"/>
+      <c r="BE6" s="49"/>
+      <c r="BF6" s="49"/>
+      <c r="BG6" s="49"/>
+      <c r="BH6" s="49"/>
+      <c r="BI6" s="49"/>
+      <c r="BJ6" s="49"/>
+      <c r="BK6" s="49"/>
+      <c r="BL6" s="49"/>
+      <c r="BM6" s="49"/>
+      <c r="BN6" s="49"/>
+      <c r="BO6" s="49"/>
+      <c r="BP6" s="49"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
       <c r="M7" s="17" t="s">
         <v>84</v>
       </c>
@@ -6504,38 +6527,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="57" t="s">
+      <c r="AO7" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="57"/>
-      <c r="AU7" s="57"/>
-      <c r="AV7" s="57" t="s">
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="49"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="AW7" s="57"/>
-      <c r="AX7" s="57"/>
-      <c r="AY7" s="57"/>
-      <c r="AZ7" s="57"/>
-      <c r="BA7" s="57"/>
-      <c r="BB7" s="57"/>
-      <c r="BC7" s="57"/>
-      <c r="BD7" s="57"/>
-      <c r="BE7" s="57"/>
-      <c r="BF7" s="57"/>
-      <c r="BG7" s="57"/>
-      <c r="BH7" s="57"/>
-      <c r="BI7" s="57"/>
-      <c r="BJ7" s="57"/>
-      <c r="BK7" s="57"/>
-      <c r="BL7" s="57"/>
-      <c r="BM7" s="57"/>
-      <c r="BN7" s="57"/>
-      <c r="BO7" s="57"/>
-      <c r="BP7" s="57"/>
+      <c r="AW7" s="49"/>
+      <c r="AX7" s="49"/>
+      <c r="AY7" s="49"/>
+      <c r="AZ7" s="49"/>
+      <c r="BA7" s="49"/>
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="49"/>
+      <c r="BD7" s="49"/>
+      <c r="BE7" s="49"/>
+      <c r="BF7" s="49"/>
+      <c r="BG7" s="49"/>
+      <c r="BH7" s="49"/>
+      <c r="BI7" s="49"/>
+      <c r="BJ7" s="49"/>
+      <c r="BK7" s="49"/>
+      <c r="BL7" s="49"/>
+      <c r="BM7" s="49"/>
+      <c r="BN7" s="49"/>
+      <c r="BO7" s="49"/>
+      <c r="BP7" s="49"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -6549,89 +6572,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="71" t="s">
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71" t="s">
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="78" t="s">
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="79"/>
-      <c r="AM10" s="79"/>
-      <c r="AN10" s="79"/>
-      <c r="AO10" s="79"/>
-      <c r="AP10" s="79"/>
-      <c r="AQ10" s="79"/>
-      <c r="AR10" s="79"/>
-      <c r="AS10" s="79"/>
-      <c r="AT10" s="79"/>
-      <c r="AU10" s="79"/>
-      <c r="AV10" s="79"/>
-      <c r="AW10" s="79"/>
-      <c r="AX10" s="79"/>
-      <c r="AY10" s="79"/>
-      <c r="AZ10" s="79"/>
-      <c r="BA10" s="79"/>
-      <c r="BB10" s="79"/>
-      <c r="BC10" s="79"/>
-      <c r="BD10" s="79"/>
-      <c r="BE10" s="79"/>
-      <c r="BF10" s="79"/>
-      <c r="BG10" s="79"/>
-      <c r="BH10" s="79"/>
-      <c r="BI10" s="80"/>
-      <c r="BJ10" s="54" t="s">
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="74"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="74"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="74"/>
+      <c r="AX10" s="74"/>
+      <c r="AY10" s="74"/>
+      <c r="AZ10" s="74"/>
+      <c r="BA10" s="74"/>
+      <c r="BB10" s="74"/>
+      <c r="BC10" s="74"/>
+      <c r="BD10" s="74"/>
+      <c r="BE10" s="74"/>
+      <c r="BF10" s="74"/>
+      <c r="BG10" s="74"/>
+      <c r="BH10" s="74"/>
+      <c r="BI10" s="75"/>
+      <c r="BJ10" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="54"/>
-      <c r="BL10" s="54"/>
-      <c r="BM10" s="54"/>
-      <c r="BN10" s="54"/>
-      <c r="BO10" s="54"/>
-      <c r="BP10" s="54"/>
+      <c r="BK10" s="50"/>
+      <c r="BL10" s="50"/>
+      <c r="BM10" s="50"/>
+      <c r="BN10" s="50"/>
+      <c r="BO10" s="50"/>
+      <c r="BP10" s="50"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="17" t="s">
         <v>86</v>
       </c>
@@ -6647,9 +6670,9 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="82"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="72"/>
       <c r="W11" s="38"/>
       <c r="X11" s="39"/>
       <c r="Y11" s="39"/>
@@ -6699,10 +6722,10 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -6715,9 +6738,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
       <c r="W12" s="38"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -6766,10 +6789,10 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -6783,9 +6806,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
       <c r="W13" s="38"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -6834,10 +6857,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -6851,9 +6874,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
       <c r="W14" s="38"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -6902,10 +6925,10 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -6919,9 +6942,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
       <c r="W15" s="38"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -6981,88 +7004,88 @@
       <c r="AG17" s="16"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="71" t="s">
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71" t="s">
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="54" t="s">
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="54"/>
-      <c r="AF18" s="54"/>
-      <c r="AG18" s="54"/>
-      <c r="AH18" s="54"/>
-      <c r="AI18" s="54"/>
-      <c r="AJ18" s="54"/>
-      <c r="AK18" s="54"/>
-      <c r="AL18" s="54"/>
-      <c r="AM18" s="54"/>
-      <c r="AN18" s="54"/>
-      <c r="AO18" s="54"/>
-      <c r="AP18" s="54"/>
-      <c r="AQ18" s="54"/>
-      <c r="AR18" s="54"/>
-      <c r="AS18" s="54"/>
-      <c r="AT18" s="54"/>
-      <c r="AU18" s="54"/>
-      <c r="AV18" s="54"/>
-      <c r="AW18" s="54"/>
-      <c r="AX18" s="54"/>
-      <c r="AY18" s="54"/>
-      <c r="AZ18" s="54"/>
-      <c r="BA18" s="54"/>
-      <c r="BB18" s="54"/>
-      <c r="BC18" s="54"/>
-      <c r="BD18" s="54"/>
-      <c r="BE18" s="54"/>
-      <c r="BF18" s="54"/>
-      <c r="BG18" s="54"/>
-      <c r="BH18" s="54"/>
-      <c r="BI18" s="54"/>
-      <c r="BJ18" s="54" t="s">
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="50"/>
+      <c r="AI18" s="50"/>
+      <c r="AJ18" s="50"/>
+      <c r="AK18" s="50"/>
+      <c r="AL18" s="50"/>
+      <c r="AM18" s="50"/>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="50"/>
+      <c r="AU18" s="50"/>
+      <c r="AV18" s="50"/>
+      <c r="AW18" s="50"/>
+      <c r="AX18" s="50"/>
+      <c r="AY18" s="50"/>
+      <c r="AZ18" s="50"/>
+      <c r="BA18" s="50"/>
+      <c r="BB18" s="50"/>
+      <c r="BC18" s="50"/>
+      <c r="BD18" s="50"/>
+      <c r="BE18" s="50"/>
+      <c r="BF18" s="50"/>
+      <c r="BG18" s="50"/>
+      <c r="BH18" s="50"/>
+      <c r="BI18" s="50"/>
+      <c r="BJ18" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="BK18" s="54"/>
-      <c r="BL18" s="54"/>
-      <c r="BM18" s="54"/>
-      <c r="BN18" s="54"/>
-      <c r="BO18" s="54"/>
-      <c r="BP18" s="54"/>
+      <c r="BK18" s="50"/>
+      <c r="BL18" s="50"/>
+      <c r="BM18" s="50"/>
+      <c r="BN18" s="50"/>
+      <c r="BO18" s="50"/>
+      <c r="BP18" s="50"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
       <c r="G19" s="17" t="s">
         <v>63</v>
       </c>
@@ -7078,9 +7101,9 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="71"/>
-      <c r="V19" s="71"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
       <c r="W19" s="21" t="s">
         <v>87</v>
       </c>
@@ -7416,7 +7439,7 @@
       <c r="A32" s="12"/>
       <c r="C32" s="29"/>
       <c r="I32" s="13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AG32" s="16"/>
       <c r="BP32" s="30"/>
@@ -7629,6 +7652,40 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
     <mergeCell ref="W18:BI18"/>
     <mergeCell ref="BJ18:BP18"/>
     <mergeCell ref="C19:F19"/>
@@ -7640,40 +7697,6 @@
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="G18:S18"/>
     <mergeCell ref="T18:V18"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">

--- a/交通費申請一覧機能/設計書/マッパー設計書_ユーザマスタ.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_ユーザマスタ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B73F67B-5443-464E-BDAD-1C27D5454438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2AF0C2-2AA3-4E8F-B539-2F9E7C1D9E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="250" windowWidth="13280" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_ユーザマスターマッパー" sheetId="10" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="90">
   <si>
     <t>システム名</t>
   </si>
@@ -1413,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B70D8C-054F-4519-8336-22893221A19C}">
   <dimension ref="A1:AMW48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:BO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -5886,7 +5886,7 @@
     </row>
     <row r="43" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C43" s="29"/>
-      <c r="G43" s="13" t="s">
+      <c r="I43" s="13" t="s">
         <v>68</v>
       </c>
       <c r="AD43" s="13"/>
@@ -6130,7 +6130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE19C390-29E1-421F-802B-4C94FFCB0FB9}">
   <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -7101,7 +7101,9 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="69"/>
+      <c r="T19" s="69" t="s">
+        <v>44</v>
+      </c>
       <c r="U19" s="69"/>
       <c r="V19" s="69"/>
       <c r="W19" s="21" t="s">

--- a/交通費申請一覧機能/設計書/マッパー設計書_ユーザマスタ.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_ユーザマスタ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2AF0C2-2AA3-4E8F-B539-2F9E7C1D9E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639C1D39-ACDD-4676-9786-95604F0D339E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1450" yWindow="20" windowWidth="13280" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_ユーザマスターマッパー" sheetId="10" r:id="rId1"/>
@@ -1102,45 +1102,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="4" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1156,32 +1117,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1191,6 +1166,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1203,6 +1181,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
@@ -1413,7 +1413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B70D8C-054F-4519-8336-22893221A19C}">
   <dimension ref="A1:AMW48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6:BO6"/>
     </sheetView>
   </sheetViews>
@@ -1425,247 +1425,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="64" t="s">
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="64"/>
-      <c r="BC1" s="64"/>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="64"/>
-      <c r="BF1" s="64"/>
-      <c r="BG1" s="64"/>
-      <c r="BH1" s="64"/>
-      <c r="BI1" s="64"/>
-      <c r="BJ1" s="64"/>
-      <c r="BK1" s="64"/>
-      <c r="BL1" s="64"/>
-      <c r="BM1" s="64"/>
-      <c r="BN1" s="64"/>
-      <c r="BO1" s="64"/>
-      <c r="BP1" s="64"/>
-      <c r="BQ1" s="64"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="51"/>
+      <c r="BB1" s="51"/>
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51"/>
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="51"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
+      <c r="BJ1" s="51"/>
+      <c r="BK1" s="51"/>
+      <c r="BL1" s="51"/>
+      <c r="BM1" s="51"/>
+      <c r="BN1" s="51"/>
+      <c r="BO1" s="51"/>
+      <c r="BP1" s="51"/>
+      <c r="BQ1" s="51"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="50" t="s">
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="50" t="s">
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="50"/>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="50" t="s">
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="50"/>
-      <c r="BD2" s="50"/>
-      <c r="BE2" s="50"/>
-      <c r="BF2" s="50"/>
-      <c r="BG2" s="50"/>
-      <c r="BH2" s="50"/>
-      <c r="BI2" s="50"/>
-      <c r="BJ2" s="67" t="s">
+      <c r="BC2" s="54"/>
+      <c r="BD2" s="54"/>
+      <c r="BE2" s="54"/>
+      <c r="BF2" s="54"/>
+      <c r="BG2" s="54"/>
+      <c r="BH2" s="54"/>
+      <c r="BI2" s="54"/>
+      <c r="BJ2" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="BK2" s="67"/>
-      <c r="BL2" s="67"/>
-      <c r="BM2" s="67"/>
-      <c r="BN2" s="67"/>
-      <c r="BO2" s="67"/>
-      <c r="BP2" s="67"/>
-      <c r="BQ2" s="67"/>
+      <c r="BK2" s="55"/>
+      <c r="BL2" s="55"/>
+      <c r="BM2" s="55"/>
+      <c r="BN2" s="55"/>
+      <c r="BO2" s="55"/>
+      <c r="BP2" s="55"/>
+      <c r="BQ2" s="55"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="58" t="s">
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="58"/>
-      <c r="AP3" s="58"/>
-      <c r="AQ3" s="58"/>
-      <c r="AR3" s="58"/>
-      <c r="AS3" s="58"/>
-      <c r="AT3" s="59">
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="60"/>
+      <c r="AR3" s="60"/>
+      <c r="AS3" s="60"/>
+      <c r="AT3" s="61">
         <v>45511</v>
       </c>
-      <c r="AU3" s="59"/>
-      <c r="AV3" s="59"/>
-      <c r="AW3" s="59"/>
-      <c r="AX3" s="59"/>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="59"/>
-      <c r="BA3" s="59"/>
-      <c r="BB3" s="58" t="s">
+      <c r="AU3" s="61"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="61"/>
+      <c r="AX3" s="61"/>
+      <c r="AY3" s="61"/>
+      <c r="AZ3" s="61"/>
+      <c r="BA3" s="61"/>
+      <c r="BB3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="58"/>
-      <c r="BD3" s="58"/>
-      <c r="BE3" s="58"/>
-      <c r="BF3" s="58"/>
-      <c r="BG3" s="58"/>
-      <c r="BH3" s="58"/>
-      <c r="BI3" s="58"/>
-      <c r="BJ3" s="60">
+      <c r="BC3" s="60"/>
+      <c r="BD3" s="60"/>
+      <c r="BE3" s="60"/>
+      <c r="BF3" s="60"/>
+      <c r="BG3" s="60"/>
+      <c r="BH3" s="60"/>
+      <c r="BI3" s="60"/>
+      <c r="BJ3" s="62">
         <v>45548</v>
       </c>
-      <c r="BK3" s="60"/>
-      <c r="BL3" s="60"/>
-      <c r="BM3" s="60"/>
-      <c r="BN3" s="60"/>
-      <c r="BO3" s="60"/>
-      <c r="BP3" s="60"/>
-      <c r="BQ3" s="60"/>
+      <c r="BK3" s="62"/>
+      <c r="BL3" s="62"/>
+      <c r="BM3" s="62"/>
+      <c r="BN3" s="62"/>
+      <c r="BO3" s="62"/>
+      <c r="BP3" s="62"/>
+      <c r="BQ3" s="62"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -1732,213 +1732,213 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="61"/>
-      <c r="AG6" s="61"/>
-      <c r="AH6" s="61"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="61"/>
-      <c r="AK6" s="61"/>
-      <c r="AL6" s="61"/>
-      <c r="AM6" s="61"/>
-      <c r="AN6" s="61"/>
-      <c r="AO6" s="61"/>
-      <c r="AP6" s="61"/>
-      <c r="AQ6" s="61"/>
-      <c r="AR6" s="61"/>
-      <c r="AS6" s="61"/>
-      <c r="AT6" s="61"/>
-      <c r="AU6" s="61"/>
-      <c r="AV6" s="61"/>
-      <c r="AW6" s="61"/>
-      <c r="AX6" s="61"/>
-      <c r="AY6" s="61"/>
-      <c r="AZ6" s="61"/>
-      <c r="BA6" s="61"/>
-      <c r="BB6" s="61"/>
-      <c r="BC6" s="61"/>
-      <c r="BD6" s="61"/>
-      <c r="BE6" s="61"/>
-      <c r="BF6" s="61"/>
-      <c r="BG6" s="61"/>
-      <c r="BH6" s="61"/>
-      <c r="BI6" s="61"/>
-      <c r="BJ6" s="61"/>
-      <c r="BK6" s="61"/>
-      <c r="BL6" s="61"/>
-      <c r="BM6" s="61"/>
-      <c r="BN6" s="61"/>
-      <c r="BO6" s="61"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="63"/>
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="63"/>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="63"/>
+      <c r="AG6" s="63"/>
+      <c r="AH6" s="63"/>
+      <c r="AI6" s="63"/>
+      <c r="AJ6" s="63"/>
+      <c r="AK6" s="63"/>
+      <c r="AL6" s="63"/>
+      <c r="AM6" s="63"/>
+      <c r="AN6" s="63"/>
+      <c r="AO6" s="63"/>
+      <c r="AP6" s="63"/>
+      <c r="AQ6" s="63"/>
+      <c r="AR6" s="63"/>
+      <c r="AS6" s="63"/>
+      <c r="AT6" s="63"/>
+      <c r="AU6" s="63"/>
+      <c r="AV6" s="63"/>
+      <c r="AW6" s="63"/>
+      <c r="AX6" s="63"/>
+      <c r="AY6" s="63"/>
+      <c r="AZ6" s="63"/>
+      <c r="BA6" s="63"/>
+      <c r="BB6" s="63"/>
+      <c r="BC6" s="63"/>
+      <c r="BD6" s="63"/>
+      <c r="BE6" s="63"/>
+      <c r="BF6" s="63"/>
+      <c r="BG6" s="63"/>
+      <c r="BH6" s="63"/>
+      <c r="BI6" s="63"/>
+      <c r="BJ6" s="63"/>
+      <c r="BK6" s="63"/>
+      <c r="BL6" s="63"/>
+      <c r="BM6" s="63"/>
+      <c r="BN6" s="63"/>
+      <c r="BO6" s="63"/>
       <c r="BP6"/>
       <c r="BQ6" s="4"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="61"/>
-      <c r="AF7" s="61"/>
-      <c r="AG7" s="61"/>
-      <c r="AH7" s="61"/>
-      <c r="AI7" s="61"/>
-      <c r="AJ7" s="61"/>
-      <c r="AK7" s="61"/>
-      <c r="AL7" s="61"/>
-      <c r="AM7" s="61"/>
-      <c r="AN7" s="61"/>
-      <c r="AO7" s="61"/>
-      <c r="AP7" s="61"/>
-      <c r="AQ7" s="61"/>
-      <c r="AR7" s="61"/>
-      <c r="AS7" s="61"/>
-      <c r="AT7" s="61"/>
-      <c r="AU7" s="61"/>
-      <c r="AV7" s="61"/>
-      <c r="AW7" s="61"/>
-      <c r="AX7" s="61"/>
-      <c r="AY7" s="61"/>
-      <c r="AZ7" s="61"/>
-      <c r="BA7" s="61"/>
-      <c r="BB7" s="61"/>
-      <c r="BC7" s="61"/>
-      <c r="BD7" s="61"/>
-      <c r="BE7" s="61"/>
-      <c r="BF7" s="61"/>
-      <c r="BG7" s="61"/>
-      <c r="BH7" s="61"/>
-      <c r="BI7" s="61"/>
-      <c r="BJ7" s="61"/>
-      <c r="BK7" s="61"/>
-      <c r="BL7" s="61"/>
-      <c r="BM7" s="61"/>
-      <c r="BN7" s="61"/>
-      <c r="BO7" s="61"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="63"/>
+      <c r="AD7" s="63"/>
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="63"/>
+      <c r="AG7" s="63"/>
+      <c r="AH7" s="63"/>
+      <c r="AI7" s="63"/>
+      <c r="AJ7" s="63"/>
+      <c r="AK7" s="63"/>
+      <c r="AL7" s="63"/>
+      <c r="AM7" s="63"/>
+      <c r="AN7" s="63"/>
+      <c r="AO7" s="63"/>
+      <c r="AP7" s="63"/>
+      <c r="AQ7" s="63"/>
+      <c r="AR7" s="63"/>
+      <c r="AS7" s="63"/>
+      <c r="AT7" s="63"/>
+      <c r="AU7" s="63"/>
+      <c r="AV7" s="63"/>
+      <c r="AW7" s="63"/>
+      <c r="AX7" s="63"/>
+      <c r="AY7" s="63"/>
+      <c r="AZ7" s="63"/>
+      <c r="BA7" s="63"/>
+      <c r="BB7" s="63"/>
+      <c r="BC7" s="63"/>
+      <c r="BD7" s="63"/>
+      <c r="BE7" s="63"/>
+      <c r="BF7" s="63"/>
+      <c r="BG7" s="63"/>
+      <c r="BH7" s="63"/>
+      <c r="BI7" s="63"/>
+      <c r="BJ7" s="63"/>
+      <c r="BK7" s="63"/>
+      <c r="BL7" s="63"/>
+      <c r="BM7" s="63"/>
+      <c r="BN7" s="63"/>
+      <c r="BO7" s="63"/>
       <c r="BP7"/>
       <c r="BQ7" s="4"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="57"/>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="57"/>
-      <c r="AF8" s="57"/>
-      <c r="AG8" s="57"/>
-      <c r="AH8" s="57"/>
-      <c r="AI8" s="57"/>
-      <c r="AJ8" s="57"/>
-      <c r="AK8" s="57"/>
-      <c r="AL8" s="57"/>
-      <c r="AM8" s="57"/>
-      <c r="AN8" s="57"/>
-      <c r="AO8" s="57"/>
-      <c r="AP8" s="57"/>
-      <c r="AQ8" s="57"/>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="57"/>
-      <c r="AT8" s="57"/>
-      <c r="AU8" s="57"/>
-      <c r="AV8" s="57"/>
-      <c r="AW8" s="57"/>
-      <c r="AX8" s="57"/>
-      <c r="AY8" s="57"/>
-      <c r="AZ8" s="57"/>
-      <c r="BA8" s="57"/>
-      <c r="BB8" s="57"/>
-      <c r="BC8" s="57"/>
-      <c r="BD8" s="57"/>
-      <c r="BE8" s="57"/>
-      <c r="BF8" s="57"/>
-      <c r="BG8" s="57"/>
-      <c r="BH8" s="57"/>
-      <c r="BI8" s="57"/>
-      <c r="BJ8" s="57"/>
-      <c r="BK8" s="57"/>
-      <c r="BL8" s="57"/>
-      <c r="BM8" s="57"/>
-      <c r="BN8" s="57"/>
-      <c r="BO8" s="57"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
+      <c r="AN8" s="56"/>
+      <c r="AO8" s="56"/>
+      <c r="AP8" s="56"/>
+      <c r="AQ8" s="56"/>
+      <c r="AR8" s="56"/>
+      <c r="AS8" s="56"/>
+      <c r="AT8" s="56"/>
+      <c r="AU8" s="56"/>
+      <c r="AV8" s="56"/>
+      <c r="AW8" s="56"/>
+      <c r="AX8" s="56"/>
+      <c r="AY8" s="56"/>
+      <c r="AZ8" s="56"/>
+      <c r="BA8" s="56"/>
+      <c r="BB8" s="56"/>
+      <c r="BC8" s="56"/>
+      <c r="BD8" s="56"/>
+      <c r="BE8" s="56"/>
+      <c r="BF8" s="56"/>
+      <c r="BG8" s="56"/>
+      <c r="BH8" s="56"/>
+      <c r="BI8" s="56"/>
+      <c r="BJ8" s="56"/>
+      <c r="BK8" s="56"/>
+      <c r="BL8" s="56"/>
+      <c r="BM8" s="56"/>
+      <c r="BN8" s="56"/>
+      <c r="BO8" s="56"/>
       <c r="BP8"/>
       <c r="BQ8" s="4"/>
     </row>
@@ -1991,787 +1991,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="50" t="s">
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="49" t="s">
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="49"/>
-      <c r="AH11" s="49"/>
-      <c r="AI11" s="53" t="s">
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="57"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="57"/>
+      <c r="AI11" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="AJ11" s="53"/>
-      <c r="AK11" s="53"/>
-      <c r="AL11" s="53"/>
-      <c r="AM11" s="53"/>
-      <c r="AN11" s="53"/>
-      <c r="AO11" s="53"/>
-      <c r="AP11" s="53"/>
-      <c r="AQ11" s="53"/>
-      <c r="AR11" s="53"/>
-      <c r="AS11" s="53"/>
-      <c r="AT11" s="53"/>
-      <c r="AU11" s="53"/>
-      <c r="AV11" s="53"/>
-      <c r="AW11" s="53"/>
-      <c r="AX11" s="53"/>
-      <c r="AY11" s="53"/>
-      <c r="AZ11" s="53"/>
-      <c r="BA11" s="53"/>
-      <c r="BB11" s="53"/>
-      <c r="BC11" s="53"/>
-      <c r="BD11" s="53"/>
-      <c r="BE11" s="53"/>
-      <c r="BF11" s="53"/>
-      <c r="BG11" s="53"/>
-      <c r="BH11" s="53"/>
-      <c r="BI11" s="53"/>
-      <c r="BJ11" s="53"/>
-      <c r="BK11" s="53"/>
-      <c r="BL11" s="53"/>
-      <c r="BM11" s="53"/>
-      <c r="BN11" s="53"/>
-      <c r="BO11" s="53"/>
+      <c r="AJ11" s="58"/>
+      <c r="AK11" s="58"/>
+      <c r="AL11" s="58"/>
+      <c r="AM11" s="58"/>
+      <c r="AN11" s="58"/>
+      <c r="AO11" s="58"/>
+      <c r="AP11" s="58"/>
+      <c r="AQ11" s="58"/>
+      <c r="AR11" s="58"/>
+      <c r="AS11" s="58"/>
+      <c r="AT11" s="58"/>
+      <c r="AU11" s="58"/>
+      <c r="AV11" s="58"/>
+      <c r="AW11" s="58"/>
+      <c r="AX11" s="58"/>
+      <c r="AY11" s="58"/>
+      <c r="AZ11" s="58"/>
+      <c r="BA11" s="58"/>
+      <c r="BB11" s="58"/>
+      <c r="BC11" s="58"/>
+      <c r="BD11" s="58"/>
+      <c r="BE11" s="58"/>
+      <c r="BF11" s="58"/>
+      <c r="BG11" s="58"/>
+      <c r="BH11" s="58"/>
+      <c r="BI11" s="58"/>
+      <c r="BJ11" s="58"/>
+      <c r="BK11" s="58"/>
+      <c r="BL11" s="58"/>
+      <c r="BM11" s="58"/>
+      <c r="BN11" s="58"/>
+      <c r="BO11" s="58"/>
       <c r="BP11"/>
       <c r="BQ11" s="4"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="51"/>
-      <c r="AF12" s="51"/>
-      <c r="AG12" s="51"/>
-      <c r="AH12" s="51"/>
-      <c r="AI12" s="51"/>
-      <c r="AJ12" s="51"/>
-      <c r="AK12" s="51"/>
-      <c r="AL12" s="51"/>
-      <c r="AM12" s="51"/>
-      <c r="AN12" s="51"/>
-      <c r="AO12" s="51"/>
-      <c r="AP12" s="51"/>
-      <c r="AQ12" s="51"/>
-      <c r="AR12" s="51"/>
-      <c r="AS12" s="51"/>
-      <c r="AT12" s="51"/>
-      <c r="AU12" s="51"/>
-      <c r="AV12" s="51"/>
-      <c r="AW12" s="51"/>
-      <c r="AX12" s="51"/>
-      <c r="AY12" s="51"/>
-      <c r="AZ12" s="51"/>
-      <c r="BA12" s="51"/>
-      <c r="BB12" s="51"/>
-      <c r="BC12" s="51"/>
-      <c r="BD12" s="51"/>
-      <c r="BE12" s="51"/>
-      <c r="BF12" s="51"/>
-      <c r="BG12" s="51"/>
-      <c r="BH12" s="51"/>
-      <c r="BI12" s="51"/>
-      <c r="BJ12" s="51"/>
-      <c r="BK12" s="51"/>
-      <c r="BL12" s="51"/>
-      <c r="BM12" s="51"/>
-      <c r="BN12" s="51"/>
-      <c r="BO12" s="51"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="59"/>
+      <c r="AJ12" s="59"/>
+      <c r="AK12" s="59"/>
+      <c r="AL12" s="59"/>
+      <c r="AM12" s="59"/>
+      <c r="AN12" s="59"/>
+      <c r="AO12" s="59"/>
+      <c r="AP12" s="59"/>
+      <c r="AQ12" s="59"/>
+      <c r="AR12" s="59"/>
+      <c r="AS12" s="59"/>
+      <c r="AT12" s="59"/>
+      <c r="AU12" s="59"/>
+      <c r="AV12" s="59"/>
+      <c r="AW12" s="59"/>
+      <c r="AX12" s="59"/>
+      <c r="AY12" s="59"/>
+      <c r="AZ12" s="59"/>
+      <c r="BA12" s="59"/>
+      <c r="BB12" s="59"/>
+      <c r="BC12" s="59"/>
+      <c r="BD12" s="59"/>
+      <c r="BE12" s="59"/>
+      <c r="BF12" s="59"/>
+      <c r="BG12" s="59"/>
+      <c r="BH12" s="59"/>
+      <c r="BI12" s="59"/>
+      <c r="BJ12" s="59"/>
+      <c r="BK12" s="59"/>
+      <c r="BL12" s="59"/>
+      <c r="BM12" s="59"/>
+      <c r="BN12" s="59"/>
+      <c r="BO12" s="59"/>
       <c r="BP12"/>
       <c r="BQ12" s="4"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="51"/>
-      <c r="AF13" s="51"/>
-      <c r="AG13" s="51"/>
-      <c r="AH13" s="51"/>
-      <c r="AI13" s="51"/>
-      <c r="AJ13" s="51"/>
-      <c r="AK13" s="51"/>
-      <c r="AL13" s="51"/>
-      <c r="AM13" s="51"/>
-      <c r="AN13" s="51"/>
-      <c r="AO13" s="51"/>
-      <c r="AP13" s="51"/>
-      <c r="AQ13" s="51"/>
-      <c r="AR13" s="51"/>
-      <c r="AS13" s="51"/>
-      <c r="AT13" s="51"/>
-      <c r="AU13" s="51"/>
-      <c r="AV13" s="51"/>
-      <c r="AW13" s="51"/>
-      <c r="AX13" s="51"/>
-      <c r="AY13" s="51"/>
-      <c r="AZ13" s="51"/>
-      <c r="BA13" s="51"/>
-      <c r="BB13" s="51"/>
-      <c r="BC13" s="51"/>
-      <c r="BD13" s="51"/>
-      <c r="BE13" s="51"/>
-      <c r="BF13" s="51"/>
-      <c r="BG13" s="51"/>
-      <c r="BH13" s="51"/>
-      <c r="BI13" s="51"/>
-      <c r="BJ13" s="51"/>
-      <c r="BK13" s="51"/>
-      <c r="BL13" s="51"/>
-      <c r="BM13" s="51"/>
-      <c r="BN13" s="51"/>
-      <c r="BO13" s="51"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="59"/>
+      <c r="AI13" s="59"/>
+      <c r="AJ13" s="59"/>
+      <c r="AK13" s="59"/>
+      <c r="AL13" s="59"/>
+      <c r="AM13" s="59"/>
+      <c r="AN13" s="59"/>
+      <c r="AO13" s="59"/>
+      <c r="AP13" s="59"/>
+      <c r="AQ13" s="59"/>
+      <c r="AR13" s="59"/>
+      <c r="AS13" s="59"/>
+      <c r="AT13" s="59"/>
+      <c r="AU13" s="59"/>
+      <c r="AV13" s="59"/>
+      <c r="AW13" s="59"/>
+      <c r="AX13" s="59"/>
+      <c r="AY13" s="59"/>
+      <c r="AZ13" s="59"/>
+      <c r="BA13" s="59"/>
+      <c r="BB13" s="59"/>
+      <c r="BC13" s="59"/>
+      <c r="BD13" s="59"/>
+      <c r="BE13" s="59"/>
+      <c r="BF13" s="59"/>
+      <c r="BG13" s="59"/>
+      <c r="BH13" s="59"/>
+      <c r="BI13" s="59"/>
+      <c r="BJ13" s="59"/>
+      <c r="BK13" s="59"/>
+      <c r="BL13" s="59"/>
+      <c r="BM13" s="59"/>
+      <c r="BN13" s="59"/>
+      <c r="BO13" s="59"/>
       <c r="BP13"/>
       <c r="BQ13" s="4"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="55" t="s">
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="55"/>
-      <c r="AD14" s="55"/>
-      <c r="AE14" s="55"/>
-      <c r="AF14" s="55"/>
-      <c r="AG14" s="55"/>
-      <c r="AH14" s="55"/>
-      <c r="AI14" s="55"/>
-      <c r="AJ14" s="55"/>
-      <c r="AK14" s="55"/>
-      <c r="AL14" s="55"/>
-      <c r="AM14" s="55"/>
-      <c r="AN14" s="55"/>
-      <c r="AO14" s="55"/>
-      <c r="AP14" s="55"/>
-      <c r="AQ14" s="55"/>
-      <c r="AR14" s="55"/>
-      <c r="AS14" s="55"/>
-      <c r="AT14" s="55"/>
-      <c r="AU14" s="55"/>
-      <c r="AV14" s="55"/>
-      <c r="AW14" s="55"/>
-      <c r="AX14" s="55"/>
-      <c r="AY14" s="55"/>
-      <c r="AZ14" s="55"/>
-      <c r="BA14" s="55"/>
-      <c r="BB14" s="55"/>
-      <c r="BC14" s="55"/>
-      <c r="BD14" s="55"/>
-      <c r="BE14" s="55"/>
-      <c r="BF14" s="55"/>
-      <c r="BG14" s="55"/>
-      <c r="BH14" s="55"/>
-      <c r="BI14" s="55"/>
-      <c r="BJ14" s="55"/>
-      <c r="BK14" s="55"/>
-      <c r="BL14" s="55"/>
-      <c r="BM14" s="55"/>
-      <c r="BN14" s="55"/>
-      <c r="BO14" s="55"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="64"/>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="64"/>
+      <c r="AF14" s="64"/>
+      <c r="AG14" s="64"/>
+      <c r="AH14" s="64"/>
+      <c r="AI14" s="64"/>
+      <c r="AJ14" s="64"/>
+      <c r="AK14" s="64"/>
+      <c r="AL14" s="64"/>
+      <c r="AM14" s="64"/>
+      <c r="AN14" s="64"/>
+      <c r="AO14" s="64"/>
+      <c r="AP14" s="64"/>
+      <c r="AQ14" s="64"/>
+      <c r="AR14" s="64"/>
+      <c r="AS14" s="64"/>
+      <c r="AT14" s="64"/>
+      <c r="AU14" s="64"/>
+      <c r="AV14" s="64"/>
+      <c r="AW14" s="64"/>
+      <c r="AX14" s="64"/>
+      <c r="AY14" s="64"/>
+      <c r="AZ14" s="64"/>
+      <c r="BA14" s="64"/>
+      <c r="BB14" s="64"/>
+      <c r="BC14" s="64"/>
+      <c r="BD14" s="64"/>
+      <c r="BE14" s="64"/>
+      <c r="BF14" s="64"/>
+      <c r="BG14" s="64"/>
+      <c r="BH14" s="64"/>
+      <c r="BI14" s="64"/>
+      <c r="BJ14" s="64"/>
+      <c r="BK14" s="64"/>
+      <c r="BL14" s="64"/>
+      <c r="BM14" s="64"/>
+      <c r="BN14" s="64"/>
+      <c r="BO14" s="64"/>
       <c r="BP14"/>
       <c r="BQ14" s="4"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56"/>
-      <c r="AB15" s="56"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="56"/>
-      <c r="AF15" s="56"/>
-      <c r="AG15" s="56"/>
-      <c r="AH15" s="56"/>
-      <c r="AI15" s="56"/>
-      <c r="AJ15" s="56"/>
-      <c r="AK15" s="56"/>
-      <c r="AL15" s="56"/>
-      <c r="AM15" s="56"/>
-      <c r="AN15" s="56"/>
-      <c r="AO15" s="56"/>
-      <c r="AP15" s="56"/>
-      <c r="AQ15" s="56"/>
-      <c r="AR15" s="56"/>
-      <c r="AS15" s="56"/>
-      <c r="AT15" s="56"/>
-      <c r="AU15" s="56"/>
-      <c r="AV15" s="56"/>
-      <c r="AW15" s="56"/>
-      <c r="AX15" s="56"/>
-      <c r="AY15" s="56"/>
-      <c r="AZ15" s="56"/>
-      <c r="BA15" s="56"/>
-      <c r="BB15" s="56"/>
-      <c r="BC15" s="56"/>
-      <c r="BD15" s="56"/>
-      <c r="BE15" s="56"/>
-      <c r="BF15" s="56"/>
-      <c r="BG15" s="56"/>
-      <c r="BH15" s="56"/>
-      <c r="BI15" s="56"/>
-      <c r="BJ15" s="56"/>
-      <c r="BK15" s="56"/>
-      <c r="BL15" s="56"/>
-      <c r="BM15" s="56"/>
-      <c r="BN15" s="56"/>
-      <c r="BO15" s="56"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="65"/>
+      <c r="AF15" s="65"/>
+      <c r="AG15" s="65"/>
+      <c r="AH15" s="65"/>
+      <c r="AI15" s="65"/>
+      <c r="AJ15" s="65"/>
+      <c r="AK15" s="65"/>
+      <c r="AL15" s="65"/>
+      <c r="AM15" s="65"/>
+      <c r="AN15" s="65"/>
+      <c r="AO15" s="65"/>
+      <c r="AP15" s="65"/>
+      <c r="AQ15" s="65"/>
+      <c r="AR15" s="65"/>
+      <c r="AS15" s="65"/>
+      <c r="AT15" s="65"/>
+      <c r="AU15" s="65"/>
+      <c r="AV15" s="65"/>
+      <c r="AW15" s="65"/>
+      <c r="AX15" s="65"/>
+      <c r="AY15" s="65"/>
+      <c r="AZ15" s="65"/>
+      <c r="BA15" s="65"/>
+      <c r="BB15" s="65"/>
+      <c r="BC15" s="65"/>
+      <c r="BD15" s="65"/>
+      <c r="BE15" s="65"/>
+      <c r="BF15" s="65"/>
+      <c r="BG15" s="65"/>
+      <c r="BH15" s="65"/>
+      <c r="BI15" s="65"/>
+      <c r="BJ15" s="65"/>
+      <c r="BK15" s="65"/>
+      <c r="BL15" s="65"/>
+      <c r="BM15" s="65"/>
+      <c r="BN15" s="65"/>
+      <c r="BO15" s="65"/>
       <c r="BP15"/>
       <c r="BQ15" s="4"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="56"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="56"/>
-      <c r="AJ16" s="56"/>
-      <c r="AK16" s="56"/>
-      <c r="AL16" s="56"/>
-      <c r="AM16" s="56"/>
-      <c r="AN16" s="56"/>
-      <c r="AO16" s="56"/>
-      <c r="AP16" s="56"/>
-      <c r="AQ16" s="56"/>
-      <c r="AR16" s="56"/>
-      <c r="AS16" s="56"/>
-      <c r="AT16" s="56"/>
-      <c r="AU16" s="56"/>
-      <c r="AV16" s="56"/>
-      <c r="AW16" s="56"/>
-      <c r="AX16" s="56"/>
-      <c r="AY16" s="56"/>
-      <c r="AZ16" s="56"/>
-      <c r="BA16" s="56"/>
-      <c r="BB16" s="56"/>
-      <c r="BC16" s="56"/>
-      <c r="BD16" s="56"/>
-      <c r="BE16" s="56"/>
-      <c r="BF16" s="56"/>
-      <c r="BG16" s="56"/>
-      <c r="BH16" s="56"/>
-      <c r="BI16" s="56"/>
-      <c r="BJ16" s="56"/>
-      <c r="BK16" s="56"/>
-      <c r="BL16" s="56"/>
-      <c r="BM16" s="56"/>
-      <c r="BN16" s="56"/>
-      <c r="BO16" s="56"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="65"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="65"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="65"/>
+      <c r="AE16" s="65"/>
+      <c r="AF16" s="65"/>
+      <c r="AG16" s="65"/>
+      <c r="AH16" s="65"/>
+      <c r="AI16" s="65"/>
+      <c r="AJ16" s="65"/>
+      <c r="AK16" s="65"/>
+      <c r="AL16" s="65"/>
+      <c r="AM16" s="65"/>
+      <c r="AN16" s="65"/>
+      <c r="AO16" s="65"/>
+      <c r="AP16" s="65"/>
+      <c r="AQ16" s="65"/>
+      <c r="AR16" s="65"/>
+      <c r="AS16" s="65"/>
+      <c r="AT16" s="65"/>
+      <c r="AU16" s="65"/>
+      <c r="AV16" s="65"/>
+      <c r="AW16" s="65"/>
+      <c r="AX16" s="65"/>
+      <c r="AY16" s="65"/>
+      <c r="AZ16" s="65"/>
+      <c r="BA16" s="65"/>
+      <c r="BB16" s="65"/>
+      <c r="BC16" s="65"/>
+      <c r="BD16" s="65"/>
+      <c r="BE16" s="65"/>
+      <c r="BF16" s="65"/>
+      <c r="BG16" s="65"/>
+      <c r="BH16" s="65"/>
+      <c r="BI16" s="65"/>
+      <c r="BJ16" s="65"/>
+      <c r="BK16" s="65"/>
+      <c r="BL16" s="65"/>
+      <c r="BM16" s="65"/>
+      <c r="BN16" s="65"/>
+      <c r="BO16" s="65"/>
       <c r="BP16"/>
       <c r="BQ16" s="4"/>
     </row>
     <row r="17" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="56"/>
-      <c r="AF17" s="56"/>
-      <c r="AG17" s="56"/>
-      <c r="AH17" s="56"/>
-      <c r="AI17" s="56"/>
-      <c r="AJ17" s="56"/>
-      <c r="AK17" s="56"/>
-      <c r="AL17" s="56"/>
-      <c r="AM17" s="56"/>
-      <c r="AN17" s="56"/>
-      <c r="AO17" s="56"/>
-      <c r="AP17" s="56"/>
-      <c r="AQ17" s="56"/>
-      <c r="AR17" s="56"/>
-      <c r="AS17" s="56"/>
-      <c r="AT17" s="56"/>
-      <c r="AU17" s="56"/>
-      <c r="AV17" s="56"/>
-      <c r="AW17" s="56"/>
-      <c r="AX17" s="56"/>
-      <c r="AY17" s="56"/>
-      <c r="AZ17" s="56"/>
-      <c r="BA17" s="56"/>
-      <c r="BB17" s="56"/>
-      <c r="BC17" s="56"/>
-      <c r="BD17" s="56"/>
-      <c r="BE17" s="56"/>
-      <c r="BF17" s="56"/>
-      <c r="BG17" s="56"/>
-      <c r="BH17" s="56"/>
-      <c r="BI17" s="56"/>
-      <c r="BJ17" s="56"/>
-      <c r="BK17" s="56"/>
-      <c r="BL17" s="56"/>
-      <c r="BM17" s="56"/>
-      <c r="BN17" s="56"/>
-      <c r="BO17" s="56"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="65"/>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="65"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="65"/>
+      <c r="AF17" s="65"/>
+      <c r="AG17" s="65"/>
+      <c r="AH17" s="65"/>
+      <c r="AI17" s="65"/>
+      <c r="AJ17" s="65"/>
+      <c r="AK17" s="65"/>
+      <c r="AL17" s="65"/>
+      <c r="AM17" s="65"/>
+      <c r="AN17" s="65"/>
+      <c r="AO17" s="65"/>
+      <c r="AP17" s="65"/>
+      <c r="AQ17" s="65"/>
+      <c r="AR17" s="65"/>
+      <c r="AS17" s="65"/>
+      <c r="AT17" s="65"/>
+      <c r="AU17" s="65"/>
+      <c r="AV17" s="65"/>
+      <c r="AW17" s="65"/>
+      <c r="AX17" s="65"/>
+      <c r="AY17" s="65"/>
+      <c r="AZ17" s="65"/>
+      <c r="BA17" s="65"/>
+      <c r="BB17" s="65"/>
+      <c r="BC17" s="65"/>
+      <c r="BD17" s="65"/>
+      <c r="BE17" s="65"/>
+      <c r="BF17" s="65"/>
+      <c r="BG17" s="65"/>
+      <c r="BH17" s="65"/>
+      <c r="BI17" s="65"/>
+      <c r="BJ17" s="65"/>
+      <c r="BK17" s="65"/>
+      <c r="BL17" s="65"/>
+      <c r="BM17" s="65"/>
+      <c r="BN17" s="65"/>
+      <c r="BO17" s="65"/>
       <c r="BP17"/>
       <c r="BQ17" s="4"/>
     </row>
     <row r="18" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="56"/>
-      <c r="AF18" s="56"/>
-      <c r="AG18" s="56"/>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="56"/>
-      <c r="AJ18" s="56"/>
-      <c r="AK18" s="56"/>
-      <c r="AL18" s="56"/>
-      <c r="AM18" s="56"/>
-      <c r="AN18" s="56"/>
-      <c r="AO18" s="56"/>
-      <c r="AP18" s="56"/>
-      <c r="AQ18" s="56"/>
-      <c r="AR18" s="56"/>
-      <c r="AS18" s="56"/>
-      <c r="AT18" s="56"/>
-      <c r="AU18" s="56"/>
-      <c r="AV18" s="56"/>
-      <c r="AW18" s="56"/>
-      <c r="AX18" s="56"/>
-      <c r="AY18" s="56"/>
-      <c r="AZ18" s="56"/>
-      <c r="BA18" s="56"/>
-      <c r="BB18" s="56"/>
-      <c r="BC18" s="56"/>
-      <c r="BD18" s="56"/>
-      <c r="BE18" s="56"/>
-      <c r="BF18" s="56"/>
-      <c r="BG18" s="56"/>
-      <c r="BH18" s="56"/>
-      <c r="BI18" s="56"/>
-      <c r="BJ18" s="56"/>
-      <c r="BK18" s="56"/>
-      <c r="BL18" s="56"/>
-      <c r="BM18" s="56"/>
-      <c r="BN18" s="56"/>
-      <c r="BO18" s="56"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="65"/>
+      <c r="AE18" s="65"/>
+      <c r="AF18" s="65"/>
+      <c r="AG18" s="65"/>
+      <c r="AH18" s="65"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="65"/>
+      <c r="AK18" s="65"/>
+      <c r="AL18" s="65"/>
+      <c r="AM18" s="65"/>
+      <c r="AN18" s="65"/>
+      <c r="AO18" s="65"/>
+      <c r="AP18" s="65"/>
+      <c r="AQ18" s="65"/>
+      <c r="AR18" s="65"/>
+      <c r="AS18" s="65"/>
+      <c r="AT18" s="65"/>
+      <c r="AU18" s="65"/>
+      <c r="AV18" s="65"/>
+      <c r="AW18" s="65"/>
+      <c r="AX18" s="65"/>
+      <c r="AY18" s="65"/>
+      <c r="AZ18" s="65"/>
+      <c r="BA18" s="65"/>
+      <c r="BB18" s="65"/>
+      <c r="BC18" s="65"/>
+      <c r="BD18" s="65"/>
+      <c r="BE18" s="65"/>
+      <c r="BF18" s="65"/>
+      <c r="BG18" s="65"/>
+      <c r="BH18" s="65"/>
+      <c r="BI18" s="65"/>
+      <c r="BJ18" s="65"/>
+      <c r="BK18" s="65"/>
+      <c r="BL18" s="65"/>
+      <c r="BM18" s="65"/>
+      <c r="BN18" s="65"/>
+      <c r="BO18" s="65"/>
       <c r="BP18"/>
       <c r="BQ18" s="4"/>
     </row>
     <row r="19" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="56"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="56"/>
-      <c r="AJ19" s="56"/>
-      <c r="AK19" s="56"/>
-      <c r="AL19" s="56"/>
-      <c r="AM19" s="56"/>
-      <c r="AN19" s="56"/>
-      <c r="AO19" s="56"/>
-      <c r="AP19" s="56"/>
-      <c r="AQ19" s="56"/>
-      <c r="AR19" s="56"/>
-      <c r="AS19" s="56"/>
-      <c r="AT19" s="56"/>
-      <c r="AU19" s="56"/>
-      <c r="AV19" s="56"/>
-      <c r="AW19" s="56"/>
-      <c r="AX19" s="56"/>
-      <c r="AY19" s="56"/>
-      <c r="AZ19" s="56"/>
-      <c r="BA19" s="56"/>
-      <c r="BB19" s="56"/>
-      <c r="BC19" s="56"/>
-      <c r="BD19" s="56"/>
-      <c r="BE19" s="56"/>
-      <c r="BF19" s="56"/>
-      <c r="BG19" s="56"/>
-      <c r="BH19" s="56"/>
-      <c r="BI19" s="56"/>
-      <c r="BJ19" s="56"/>
-      <c r="BK19" s="56"/>
-      <c r="BL19" s="56"/>
-      <c r="BM19" s="56"/>
-      <c r="BN19" s="56"/>
-      <c r="BO19" s="56"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="65"/>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="65"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="65"/>
+      <c r="AE19" s="65"/>
+      <c r="AF19" s="65"/>
+      <c r="AG19" s="65"/>
+      <c r="AH19" s="65"/>
+      <c r="AI19" s="65"/>
+      <c r="AJ19" s="65"/>
+      <c r="AK19" s="65"/>
+      <c r="AL19" s="65"/>
+      <c r="AM19" s="65"/>
+      <c r="AN19" s="65"/>
+      <c r="AO19" s="65"/>
+      <c r="AP19" s="65"/>
+      <c r="AQ19" s="65"/>
+      <c r="AR19" s="65"/>
+      <c r="AS19" s="65"/>
+      <c r="AT19" s="65"/>
+      <c r="AU19" s="65"/>
+      <c r="AV19" s="65"/>
+      <c r="AW19" s="65"/>
+      <c r="AX19" s="65"/>
+      <c r="AY19" s="65"/>
+      <c r="AZ19" s="65"/>
+      <c r="BA19" s="65"/>
+      <c r="BB19" s="65"/>
+      <c r="BC19" s="65"/>
+      <c r="BD19" s="65"/>
+      <c r="BE19" s="65"/>
+      <c r="BF19" s="65"/>
+      <c r="BG19" s="65"/>
+      <c r="BH19" s="65"/>
+      <c r="BI19" s="65"/>
+      <c r="BJ19" s="65"/>
+      <c r="BK19" s="65"/>
+      <c r="BL19" s="65"/>
+      <c r="BM19" s="65"/>
+      <c r="BN19" s="65"/>
+      <c r="BO19" s="65"/>
       <c r="BP19"/>
       <c r="BQ19" s="4"/>
     </row>
     <row r="20" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="56"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="56"/>
-      <c r="AK20" s="56"/>
-      <c r="AL20" s="56"/>
-      <c r="AM20" s="56"/>
-      <c r="AN20" s="56"/>
-      <c r="AO20" s="56"/>
-      <c r="AP20" s="56"/>
-      <c r="AQ20" s="56"/>
-      <c r="AR20" s="56"/>
-      <c r="AS20" s="56"/>
-      <c r="AT20" s="56"/>
-      <c r="AU20" s="56"/>
-      <c r="AV20" s="56"/>
-      <c r="AW20" s="56"/>
-      <c r="AX20" s="56"/>
-      <c r="AY20" s="56"/>
-      <c r="AZ20" s="56"/>
-      <c r="BA20" s="56"/>
-      <c r="BB20" s="56"/>
-      <c r="BC20" s="56"/>
-      <c r="BD20" s="56"/>
-      <c r="BE20" s="56"/>
-      <c r="BF20" s="56"/>
-      <c r="BG20" s="56"/>
-      <c r="BH20" s="56"/>
-      <c r="BI20" s="56"/>
-      <c r="BJ20" s="56"/>
-      <c r="BK20" s="56"/>
-      <c r="BL20" s="56"/>
-      <c r="BM20" s="56"/>
-      <c r="BN20" s="56"/>
-      <c r="BO20" s="56"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="65"/>
+      <c r="AF20" s="65"/>
+      <c r="AG20" s="65"/>
+      <c r="AH20" s="65"/>
+      <c r="AI20" s="65"/>
+      <c r="AJ20" s="65"/>
+      <c r="AK20" s="65"/>
+      <c r="AL20" s="65"/>
+      <c r="AM20" s="65"/>
+      <c r="AN20" s="65"/>
+      <c r="AO20" s="65"/>
+      <c r="AP20" s="65"/>
+      <c r="AQ20" s="65"/>
+      <c r="AR20" s="65"/>
+      <c r="AS20" s="65"/>
+      <c r="AT20" s="65"/>
+      <c r="AU20" s="65"/>
+      <c r="AV20" s="65"/>
+      <c r="AW20" s="65"/>
+      <c r="AX20" s="65"/>
+      <c r="AY20" s="65"/>
+      <c r="AZ20" s="65"/>
+      <c r="BA20" s="65"/>
+      <c r="BB20" s="65"/>
+      <c r="BC20" s="65"/>
+      <c r="BD20" s="65"/>
+      <c r="BE20" s="65"/>
+      <c r="BF20" s="65"/>
+      <c r="BG20" s="65"/>
+      <c r="BH20" s="65"/>
+      <c r="BI20" s="65"/>
+      <c r="BJ20" s="65"/>
+      <c r="BK20" s="65"/>
+      <c r="BL20" s="65"/>
+      <c r="BM20" s="65"/>
+      <c r="BN20" s="65"/>
+      <c r="BO20" s="65"/>
       <c r="BP20"/>
       <c r="BQ20" s="4"/>
     </row>
     <row r="21" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="54"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="54"/>
-      <c r="AJ21" s="54"/>
-      <c r="AK21" s="54"/>
-      <c r="AL21" s="54"/>
-      <c r="AM21" s="54"/>
-      <c r="AN21" s="54"/>
-      <c r="AO21" s="54"/>
-      <c r="AP21" s="54"/>
-      <c r="AQ21" s="54"/>
-      <c r="AR21" s="54"/>
-      <c r="AS21" s="54"/>
-      <c r="AT21" s="54"/>
-      <c r="AU21" s="54"/>
-      <c r="AV21" s="54"/>
-      <c r="AW21" s="54"/>
-      <c r="AX21" s="54"/>
-      <c r="AY21" s="54"/>
-      <c r="AZ21" s="54"/>
-      <c r="BA21" s="54"/>
-      <c r="BB21" s="54"/>
-      <c r="BC21" s="54"/>
-      <c r="BD21" s="54"/>
-      <c r="BE21" s="54"/>
-      <c r="BF21" s="54"/>
-      <c r="BG21" s="54"/>
-      <c r="BH21" s="54"/>
-      <c r="BI21" s="54"/>
-      <c r="BJ21" s="54"/>
-      <c r="BK21" s="54"/>
-      <c r="BL21" s="54"/>
-      <c r="BM21" s="54"/>
-      <c r="BN21" s="54"/>
-      <c r="BO21" s="54"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="66"/>
+      <c r="AL21" s="66"/>
+      <c r="AM21" s="66"/>
+      <c r="AN21" s="66"/>
+      <c r="AO21" s="66"/>
+      <c r="AP21" s="66"/>
+      <c r="AQ21" s="66"/>
+      <c r="AR21" s="66"/>
+      <c r="AS21" s="66"/>
+      <c r="AT21" s="66"/>
+      <c r="AU21" s="66"/>
+      <c r="AV21" s="66"/>
+      <c r="AW21" s="66"/>
+      <c r="AX21" s="66"/>
+      <c r="AY21" s="66"/>
+      <c r="AZ21" s="66"/>
+      <c r="BA21" s="66"/>
+      <c r="BB21" s="66"/>
+      <c r="BC21" s="66"/>
+      <c r="BD21" s="66"/>
+      <c r="BE21" s="66"/>
+      <c r="BF21" s="66"/>
+      <c r="BG21" s="66"/>
+      <c r="BH21" s="66"/>
+      <c r="BI21" s="66"/>
+      <c r="BJ21" s="66"/>
+      <c r="BK21" s="66"/>
+      <c r="BL21" s="66"/>
+      <c r="BM21" s="66"/>
+      <c r="BN21" s="66"/>
+      <c r="BO21" s="66"/>
       <c r="BP21"/>
       <c r="BQ21" s="4"/>
     </row>
@@ -2801,85 +2801,85 @@
     </row>
     <row r="25" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50" t="s">
+      <c r="D25" s="54"/>
+      <c r="E25" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50" t="s">
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="51" t="s">
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="51"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="49" t="s">
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="49"/>
-      <c r="AG25" s="49"/>
-      <c r="AH25" s="49"/>
-      <c r="AI25" s="49"/>
-      <c r="AJ25" s="49"/>
-      <c r="AK25" s="49"/>
-      <c r="AL25" s="49"/>
-      <c r="AM25" s="49"/>
-      <c r="AN25" s="49"/>
-      <c r="AO25" s="49"/>
-      <c r="AP25" s="49"/>
-      <c r="AQ25" s="49"/>
-      <c r="AR25" s="49"/>
-      <c r="AS25" s="49"/>
-      <c r="AT25" s="49"/>
-      <c r="AU25" s="49"/>
-      <c r="AV25" s="49"/>
-      <c r="AW25" s="49"/>
-      <c r="AX25" s="49"/>
-      <c r="AY25" s="49"/>
-      <c r="AZ25" s="49"/>
-      <c r="BA25" s="49"/>
-      <c r="BB25" s="49"/>
-      <c r="BC25" s="49"/>
-      <c r="BD25" s="49" t="s">
+      <c r="AF25" s="57"/>
+      <c r="AG25" s="57"/>
+      <c r="AH25" s="57"/>
+      <c r="AI25" s="57"/>
+      <c r="AJ25" s="57"/>
+      <c r="AK25" s="57"/>
+      <c r="AL25" s="57"/>
+      <c r="AM25" s="57"/>
+      <c r="AN25" s="57"/>
+      <c r="AO25" s="57"/>
+      <c r="AP25" s="57"/>
+      <c r="AQ25" s="57"/>
+      <c r="AR25" s="57"/>
+      <c r="AS25" s="57"/>
+      <c r="AT25" s="57"/>
+      <c r="AU25" s="57"/>
+      <c r="AV25" s="57"/>
+      <c r="AW25" s="57"/>
+      <c r="AX25" s="57"/>
+      <c r="AY25" s="57"/>
+      <c r="AZ25" s="57"/>
+      <c r="BA25" s="57"/>
+      <c r="BB25" s="57"/>
+      <c r="BC25" s="57"/>
+      <c r="BD25" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="BE25" s="49"/>
-      <c r="BF25" s="49"/>
-      <c r="BG25" s="49"/>
-      <c r="BH25" s="49"/>
-      <c r="BI25" s="49"/>
-      <c r="BJ25" s="49"/>
-      <c r="BK25" s="49" t="s">
+      <c r="BE25" s="57"/>
+      <c r="BF25" s="57"/>
+      <c r="BG25" s="57"/>
+      <c r="BH25" s="57"/>
+      <c r="BI25" s="57"/>
+      <c r="BJ25" s="57"/>
+      <c r="BK25" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="BL25" s="49"/>
-      <c r="BM25" s="49"/>
-      <c r="BN25" s="49"/>
-      <c r="BO25" s="49"/>
+      <c r="BL25" s="57"/>
+      <c r="BM25" s="57"/>
+      <c r="BN25" s="57"/>
+      <c r="BO25" s="57"/>
       <c r="BP25"/>
       <c r="BQ25" s="4"/>
       <c r="AMM25"/>
@@ -2896,81 +2896,81 @@
     </row>
     <row r="26" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="C26" s="50">
+      <c r="C26" s="54">
         <v>1</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="49" t="s">
+      <c r="D26" s="54"/>
+      <c r="E26" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="51" t="s">
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="51"/>
-      <c r="AC26" s="51"/>
-      <c r="AD26" s="51"/>
-      <c r="AE26" s="49" t="s">
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="59"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="AF26" s="49"/>
-      <c r="AG26" s="49"/>
-      <c r="AH26" s="49"/>
-      <c r="AI26" s="49"/>
-      <c r="AJ26" s="49"/>
-      <c r="AK26" s="49"/>
-      <c r="AL26" s="49"/>
-      <c r="AM26" s="49"/>
-      <c r="AN26" s="49"/>
-      <c r="AO26" s="49"/>
-      <c r="AP26" s="49"/>
-      <c r="AQ26" s="49"/>
-      <c r="AR26" s="49"/>
-      <c r="AS26" s="49"/>
-      <c r="AT26" s="49"/>
-      <c r="AU26" s="49"/>
-      <c r="AV26" s="49"/>
-      <c r="AW26" s="49"/>
-      <c r="AX26" s="49"/>
-      <c r="AY26" s="49"/>
-      <c r="AZ26" s="49"/>
-      <c r="BA26" s="49"/>
-      <c r="BB26" s="49"/>
-      <c r="BC26" s="49"/>
-      <c r="BD26" s="49" t="s">
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
+      <c r="AJ26" s="57"/>
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="57"/>
+      <c r="AM26" s="57"/>
+      <c r="AN26" s="57"/>
+      <c r="AO26" s="57"/>
+      <c r="AP26" s="57"/>
+      <c r="AQ26" s="57"/>
+      <c r="AR26" s="57"/>
+      <c r="AS26" s="57"/>
+      <c r="AT26" s="57"/>
+      <c r="AU26" s="57"/>
+      <c r="AV26" s="57"/>
+      <c r="AW26" s="57"/>
+      <c r="AX26" s="57"/>
+      <c r="AY26" s="57"/>
+      <c r="AZ26" s="57"/>
+      <c r="BA26" s="57"/>
+      <c r="BB26" s="57"/>
+      <c r="BC26" s="57"/>
+      <c r="BD26" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="BE26" s="49"/>
-      <c r="BF26" s="49"/>
-      <c r="BG26" s="49"/>
-      <c r="BH26" s="49"/>
-      <c r="BI26" s="49"/>
-      <c r="BJ26" s="49"/>
-      <c r="BK26" s="49"/>
-      <c r="BL26" s="49"/>
-      <c r="BM26" s="49"/>
-      <c r="BN26" s="49"/>
-      <c r="BO26" s="49"/>
+      <c r="BE26" s="57"/>
+      <c r="BF26" s="57"/>
+      <c r="BG26" s="57"/>
+      <c r="BH26" s="57"/>
+      <c r="BI26" s="57"/>
+      <c r="BJ26" s="57"/>
+      <c r="BK26" s="57"/>
+      <c r="BL26" s="57"/>
+      <c r="BM26" s="57"/>
+      <c r="BN26" s="57"/>
+      <c r="BO26" s="57"/>
       <c r="BQ26" s="4"/>
       <c r="AMM26"/>
       <c r="AMN26"/>
@@ -2986,73 +2986,73 @@
     </row>
     <row r="27" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="C27" s="50">
+      <c r="C27" s="54">
         <v>2</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="53"/>
-      <c r="AC27" s="53"/>
-      <c r="AD27" s="53"/>
-      <c r="AE27" s="49"/>
-      <c r="AF27" s="49"/>
-      <c r="AG27" s="49"/>
-      <c r="AH27" s="49"/>
-      <c r="AI27" s="49"/>
-      <c r="AJ27" s="49"/>
-      <c r="AK27" s="49"/>
-      <c r="AL27" s="49"/>
-      <c r="AM27" s="49"/>
-      <c r="AN27" s="49"/>
-      <c r="AO27" s="49"/>
-      <c r="AP27" s="49"/>
-      <c r="AQ27" s="49"/>
-      <c r="AR27" s="49"/>
-      <c r="AS27" s="49"/>
-      <c r="AT27" s="49"/>
-      <c r="AU27" s="49"/>
-      <c r="AV27" s="49"/>
-      <c r="AW27" s="49"/>
-      <c r="AX27" s="49"/>
-      <c r="AY27" s="49"/>
-      <c r="AZ27" s="49"/>
-      <c r="BA27" s="49"/>
-      <c r="BB27" s="49"/>
-      <c r="BC27" s="49"/>
-      <c r="BD27" s="49"/>
-      <c r="BE27" s="49"/>
-      <c r="BF27" s="49"/>
-      <c r="BG27" s="49"/>
-      <c r="BH27" s="49"/>
-      <c r="BI27" s="49"/>
-      <c r="BJ27" s="49"/>
-      <c r="BK27" s="49"/>
-      <c r="BL27" s="49"/>
-      <c r="BM27" s="49"/>
-      <c r="BN27" s="49"/>
-      <c r="BO27" s="49"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="57"/>
+      <c r="AG27" s="57"/>
+      <c r="AH27" s="57"/>
+      <c r="AI27" s="57"/>
+      <c r="AJ27" s="57"/>
+      <c r="AK27" s="57"/>
+      <c r="AL27" s="57"/>
+      <c r="AM27" s="57"/>
+      <c r="AN27" s="57"/>
+      <c r="AO27" s="57"/>
+      <c r="AP27" s="57"/>
+      <c r="AQ27" s="57"/>
+      <c r="AR27" s="57"/>
+      <c r="AS27" s="57"/>
+      <c r="AT27" s="57"/>
+      <c r="AU27" s="57"/>
+      <c r="AV27" s="57"/>
+      <c r="AW27" s="57"/>
+      <c r="AX27" s="57"/>
+      <c r="AY27" s="57"/>
+      <c r="AZ27" s="57"/>
+      <c r="BA27" s="57"/>
+      <c r="BB27" s="57"/>
+      <c r="BC27" s="57"/>
+      <c r="BD27" s="57"/>
+      <c r="BE27" s="57"/>
+      <c r="BF27" s="57"/>
+      <c r="BG27" s="57"/>
+      <c r="BH27" s="57"/>
+      <c r="BI27" s="57"/>
+      <c r="BJ27" s="57"/>
+      <c r="BK27" s="57"/>
+      <c r="BL27" s="57"/>
+      <c r="BM27" s="57"/>
+      <c r="BN27" s="57"/>
+      <c r="BO27" s="57"/>
       <c r="BQ27" s="4"/>
       <c r="AMM27"/>
       <c r="AMN27"/>
@@ -3068,73 +3068,73 @@
     </row>
     <row r="28" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="C28" s="50">
+      <c r="C28" s="54">
         <v>3</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="51"/>
-      <c r="AC28" s="51"/>
-      <c r="AD28" s="51"/>
-      <c r="AE28" s="49"/>
-      <c r="AF28" s="49"/>
-      <c r="AG28" s="49"/>
-      <c r="AH28" s="49"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="49"/>
-      <c r="AK28" s="49"/>
-      <c r="AL28" s="49"/>
-      <c r="AM28" s="49"/>
-      <c r="AN28" s="49"/>
-      <c r="AO28" s="49"/>
-      <c r="AP28" s="49"/>
-      <c r="AQ28" s="49"/>
-      <c r="AR28" s="49"/>
-      <c r="AS28" s="49"/>
-      <c r="AT28" s="49"/>
-      <c r="AU28" s="49"/>
-      <c r="AV28" s="49"/>
-      <c r="AW28" s="49"/>
-      <c r="AX28" s="49"/>
-      <c r="AY28" s="49"/>
-      <c r="AZ28" s="49"/>
-      <c r="BA28" s="49"/>
-      <c r="BB28" s="49"/>
-      <c r="BC28" s="49"/>
-      <c r="BD28" s="49"/>
-      <c r="BE28" s="49"/>
-      <c r="BF28" s="49"/>
-      <c r="BG28" s="49"/>
-      <c r="BH28" s="49"/>
-      <c r="BI28" s="49"/>
-      <c r="BJ28" s="49"/>
-      <c r="BK28" s="49"/>
-      <c r="BL28" s="49"/>
-      <c r="BM28" s="49"/>
-      <c r="BN28" s="49"/>
-      <c r="BO28" s="49"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="59"/>
+      <c r="Z28" s="59"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="57"/>
+      <c r="AJ28" s="57"/>
+      <c r="AK28" s="57"/>
+      <c r="AL28" s="57"/>
+      <c r="AM28" s="57"/>
+      <c r="AN28" s="57"/>
+      <c r="AO28" s="57"/>
+      <c r="AP28" s="57"/>
+      <c r="AQ28" s="57"/>
+      <c r="AR28" s="57"/>
+      <c r="AS28" s="57"/>
+      <c r="AT28" s="57"/>
+      <c r="AU28" s="57"/>
+      <c r="AV28" s="57"/>
+      <c r="AW28" s="57"/>
+      <c r="AX28" s="57"/>
+      <c r="AY28" s="57"/>
+      <c r="AZ28" s="57"/>
+      <c r="BA28" s="57"/>
+      <c r="BB28" s="57"/>
+      <c r="BC28" s="57"/>
+      <c r="BD28" s="57"/>
+      <c r="BE28" s="57"/>
+      <c r="BF28" s="57"/>
+      <c r="BG28" s="57"/>
+      <c r="BH28" s="57"/>
+      <c r="BI28" s="57"/>
+      <c r="BJ28" s="57"/>
+      <c r="BK28" s="57"/>
+      <c r="BL28" s="57"/>
+      <c r="BM28" s="57"/>
+      <c r="BN28" s="57"/>
+      <c r="BO28" s="57"/>
       <c r="BP28"/>
       <c r="BQ28" s="4"/>
       <c r="AMM28"/>
@@ -3151,73 +3151,73 @@
     </row>
     <row r="29" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="C29" s="50">
+      <c r="C29" s="54">
         <v>4</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="49"/>
-      <c r="AF29" s="49"/>
-      <c r="AG29" s="49"/>
-      <c r="AH29" s="49"/>
-      <c r="AI29" s="49"/>
-      <c r="AJ29" s="49"/>
-      <c r="AK29" s="49"/>
-      <c r="AL29" s="49"/>
-      <c r="AM29" s="49"/>
-      <c r="AN29" s="49"/>
-      <c r="AO29" s="49"/>
-      <c r="AP29" s="49"/>
-      <c r="AQ29" s="49"/>
-      <c r="AR29" s="49"/>
-      <c r="AS29" s="49"/>
-      <c r="AT29" s="49"/>
-      <c r="AU29" s="49"/>
-      <c r="AV29" s="49"/>
-      <c r="AW29" s="49"/>
-      <c r="AX29" s="49"/>
-      <c r="AY29" s="49"/>
-      <c r="AZ29" s="49"/>
-      <c r="BA29" s="49"/>
-      <c r="BB29" s="49"/>
-      <c r="BC29" s="49"/>
-      <c r="BD29" s="49"/>
-      <c r="BE29" s="49"/>
-      <c r="BF29" s="49"/>
-      <c r="BG29" s="49"/>
-      <c r="BH29" s="49"/>
-      <c r="BI29" s="49"/>
-      <c r="BJ29" s="49"/>
-      <c r="BK29" s="49"/>
-      <c r="BL29" s="49"/>
-      <c r="BM29" s="49"/>
-      <c r="BN29" s="49"/>
-      <c r="BO29" s="49"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="59"/>
+      <c r="AA29" s="59"/>
+      <c r="AB29" s="59"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="59"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="57"/>
+      <c r="AG29" s="57"/>
+      <c r="AH29" s="57"/>
+      <c r="AI29" s="57"/>
+      <c r="AJ29" s="57"/>
+      <c r="AK29" s="57"/>
+      <c r="AL29" s="57"/>
+      <c r="AM29" s="57"/>
+      <c r="AN29" s="57"/>
+      <c r="AO29" s="57"/>
+      <c r="AP29" s="57"/>
+      <c r="AQ29" s="57"/>
+      <c r="AR29" s="57"/>
+      <c r="AS29" s="57"/>
+      <c r="AT29" s="57"/>
+      <c r="AU29" s="57"/>
+      <c r="AV29" s="57"/>
+      <c r="AW29" s="57"/>
+      <c r="AX29" s="57"/>
+      <c r="AY29" s="57"/>
+      <c r="AZ29" s="57"/>
+      <c r="BA29" s="57"/>
+      <c r="BB29" s="57"/>
+      <c r="BC29" s="57"/>
+      <c r="BD29" s="57"/>
+      <c r="BE29" s="57"/>
+      <c r="BF29" s="57"/>
+      <c r="BG29" s="57"/>
+      <c r="BH29" s="57"/>
+      <c r="BI29" s="57"/>
+      <c r="BJ29" s="57"/>
+      <c r="BK29" s="57"/>
+      <c r="BL29" s="57"/>
+      <c r="BM29" s="57"/>
+      <c r="BN29" s="57"/>
+      <c r="BO29" s="57"/>
       <c r="BP29"/>
       <c r="BQ29" s="4"/>
       <c r="AMM29"/>
@@ -3234,73 +3234,73 @@
     </row>
     <row r="30" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="C30" s="50">
+      <c r="C30" s="54">
         <v>5</v>
       </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AB30" s="51"/>
-      <c r="AC30" s="51"/>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="49"/>
-      <c r="AF30" s="49"/>
-      <c r="AG30" s="49"/>
-      <c r="AH30" s="49"/>
-      <c r="AI30" s="49"/>
-      <c r="AJ30" s="49"/>
-      <c r="AK30" s="49"/>
-      <c r="AL30" s="49"/>
-      <c r="AM30" s="49"/>
-      <c r="AN30" s="49"/>
-      <c r="AO30" s="49"/>
-      <c r="AP30" s="49"/>
-      <c r="AQ30" s="49"/>
-      <c r="AR30" s="49"/>
-      <c r="AS30" s="49"/>
-      <c r="AT30" s="49"/>
-      <c r="AU30" s="49"/>
-      <c r="AV30" s="49"/>
-      <c r="AW30" s="49"/>
-      <c r="AX30" s="49"/>
-      <c r="AY30" s="49"/>
-      <c r="AZ30" s="49"/>
-      <c r="BA30" s="49"/>
-      <c r="BB30" s="49"/>
-      <c r="BC30" s="49"/>
-      <c r="BD30" s="49"/>
-      <c r="BE30" s="49"/>
-      <c r="BF30" s="49"/>
-      <c r="BG30" s="49"/>
-      <c r="BH30" s="49"/>
-      <c r="BI30" s="49"/>
-      <c r="BJ30" s="49"/>
-      <c r="BK30" s="49"/>
-      <c r="BL30" s="49"/>
-      <c r="BM30" s="49"/>
-      <c r="BN30" s="49"/>
-      <c r="BO30" s="49"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
+      <c r="Y30" s="59"/>
+      <c r="Z30" s="59"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="59"/>
+      <c r="AC30" s="59"/>
+      <c r="AD30" s="59"/>
+      <c r="AE30" s="57"/>
+      <c r="AF30" s="57"/>
+      <c r="AG30" s="57"/>
+      <c r="AH30" s="57"/>
+      <c r="AI30" s="57"/>
+      <c r="AJ30" s="57"/>
+      <c r="AK30" s="57"/>
+      <c r="AL30" s="57"/>
+      <c r="AM30" s="57"/>
+      <c r="AN30" s="57"/>
+      <c r="AO30" s="57"/>
+      <c r="AP30" s="57"/>
+      <c r="AQ30" s="57"/>
+      <c r="AR30" s="57"/>
+      <c r="AS30" s="57"/>
+      <c r="AT30" s="57"/>
+      <c r="AU30" s="57"/>
+      <c r="AV30" s="57"/>
+      <c r="AW30" s="57"/>
+      <c r="AX30" s="57"/>
+      <c r="AY30" s="57"/>
+      <c r="AZ30" s="57"/>
+      <c r="BA30" s="57"/>
+      <c r="BB30" s="57"/>
+      <c r="BC30" s="57"/>
+      <c r="BD30" s="57"/>
+      <c r="BE30" s="57"/>
+      <c r="BF30" s="57"/>
+      <c r="BG30" s="57"/>
+      <c r="BH30" s="57"/>
+      <c r="BI30" s="57"/>
+      <c r="BJ30" s="57"/>
+      <c r="BK30" s="57"/>
+      <c r="BL30" s="57"/>
+      <c r="BM30" s="57"/>
+      <c r="BN30" s="57"/>
+      <c r="BO30" s="57"/>
       <c r="BP30"/>
       <c r="BQ30" s="4"/>
       <c r="AMM30"/>
@@ -3317,73 +3317,73 @@
     </row>
     <row r="31" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="C31" s="50">
+      <c r="C31" s="54">
         <v>6</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="51"/>
-      <c r="AA31" s="51"/>
-      <c r="AB31" s="51"/>
-      <c r="AC31" s="51"/>
-      <c r="AD31" s="51"/>
-      <c r="AE31" s="49"/>
-      <c r="AF31" s="49"/>
-      <c r="AG31" s="49"/>
-      <c r="AH31" s="49"/>
-      <c r="AI31" s="49"/>
-      <c r="AJ31" s="49"/>
-      <c r="AK31" s="49"/>
-      <c r="AL31" s="49"/>
-      <c r="AM31" s="49"/>
-      <c r="AN31" s="49"/>
-      <c r="AO31" s="49"/>
-      <c r="AP31" s="49"/>
-      <c r="AQ31" s="49"/>
-      <c r="AR31" s="49"/>
-      <c r="AS31" s="49"/>
-      <c r="AT31" s="49"/>
-      <c r="AU31" s="49"/>
-      <c r="AV31" s="49"/>
-      <c r="AW31" s="49"/>
-      <c r="AX31" s="49"/>
-      <c r="AY31" s="49"/>
-      <c r="AZ31" s="49"/>
-      <c r="BA31" s="49"/>
-      <c r="BB31" s="49"/>
-      <c r="BC31" s="49"/>
-      <c r="BD31" s="49"/>
-      <c r="BE31" s="49"/>
-      <c r="BF31" s="49"/>
-      <c r="BG31" s="49"/>
-      <c r="BH31" s="49"/>
-      <c r="BI31" s="49"/>
-      <c r="BJ31" s="49"/>
-      <c r="BK31" s="49"/>
-      <c r="BL31" s="49"/>
-      <c r="BM31" s="49"/>
-      <c r="BN31" s="49"/>
-      <c r="BO31" s="49"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="59"/>
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="57"/>
+      <c r="AG31" s="57"/>
+      <c r="AH31" s="57"/>
+      <c r="AI31" s="57"/>
+      <c r="AJ31" s="57"/>
+      <c r="AK31" s="57"/>
+      <c r="AL31" s="57"/>
+      <c r="AM31" s="57"/>
+      <c r="AN31" s="57"/>
+      <c r="AO31" s="57"/>
+      <c r="AP31" s="57"/>
+      <c r="AQ31" s="57"/>
+      <c r="AR31" s="57"/>
+      <c r="AS31" s="57"/>
+      <c r="AT31" s="57"/>
+      <c r="AU31" s="57"/>
+      <c r="AV31" s="57"/>
+      <c r="AW31" s="57"/>
+      <c r="AX31" s="57"/>
+      <c r="AY31" s="57"/>
+      <c r="AZ31" s="57"/>
+      <c r="BA31" s="57"/>
+      <c r="BB31" s="57"/>
+      <c r="BC31" s="57"/>
+      <c r="BD31" s="57"/>
+      <c r="BE31" s="57"/>
+      <c r="BF31" s="57"/>
+      <c r="BG31" s="57"/>
+      <c r="BH31" s="57"/>
+      <c r="BI31" s="57"/>
+      <c r="BJ31" s="57"/>
+      <c r="BK31" s="57"/>
+      <c r="BL31" s="57"/>
+      <c r="BM31" s="57"/>
+      <c r="BN31" s="57"/>
+      <c r="BO31" s="57"/>
       <c r="BP31"/>
       <c r="BQ31" s="4"/>
       <c r="AMM31"/>
@@ -3400,73 +3400,73 @@
     </row>
     <row r="32" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="C32" s="50">
+      <c r="C32" s="54">
         <v>7</v>
       </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="51"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="51"/>
-      <c r="Z32" s="51"/>
-      <c r="AA32" s="51"/>
-      <c r="AB32" s="51"/>
-      <c r="AC32" s="51"/>
-      <c r="AD32" s="51"/>
-      <c r="AE32" s="49"/>
-      <c r="AF32" s="49"/>
-      <c r="AG32" s="49"/>
-      <c r="AH32" s="49"/>
-      <c r="AI32" s="49"/>
-      <c r="AJ32" s="49"/>
-      <c r="AK32" s="49"/>
-      <c r="AL32" s="49"/>
-      <c r="AM32" s="49"/>
-      <c r="AN32" s="49"/>
-      <c r="AO32" s="49"/>
-      <c r="AP32" s="49"/>
-      <c r="AQ32" s="49"/>
-      <c r="AR32" s="49"/>
-      <c r="AS32" s="49"/>
-      <c r="AT32" s="49"/>
-      <c r="AU32" s="49"/>
-      <c r="AV32" s="49"/>
-      <c r="AW32" s="49"/>
-      <c r="AX32" s="49"/>
-      <c r="AY32" s="49"/>
-      <c r="AZ32" s="49"/>
-      <c r="BA32" s="49"/>
-      <c r="BB32" s="49"/>
-      <c r="BC32" s="49"/>
-      <c r="BD32" s="49"/>
-      <c r="BE32" s="49"/>
-      <c r="BF32" s="49"/>
-      <c r="BG32" s="49"/>
-      <c r="BH32" s="49"/>
-      <c r="BI32" s="49"/>
-      <c r="BJ32" s="49"/>
-      <c r="BK32" s="49"/>
-      <c r="BL32" s="49"/>
-      <c r="BM32" s="49"/>
-      <c r="BN32" s="49"/>
-      <c r="BO32" s="49"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="59"/>
+      <c r="AE32" s="57"/>
+      <c r="AF32" s="57"/>
+      <c r="AG32" s="57"/>
+      <c r="AH32" s="57"/>
+      <c r="AI32" s="57"/>
+      <c r="AJ32" s="57"/>
+      <c r="AK32" s="57"/>
+      <c r="AL32" s="57"/>
+      <c r="AM32" s="57"/>
+      <c r="AN32" s="57"/>
+      <c r="AO32" s="57"/>
+      <c r="AP32" s="57"/>
+      <c r="AQ32" s="57"/>
+      <c r="AR32" s="57"/>
+      <c r="AS32" s="57"/>
+      <c r="AT32" s="57"/>
+      <c r="AU32" s="57"/>
+      <c r="AV32" s="57"/>
+      <c r="AW32" s="57"/>
+      <c r="AX32" s="57"/>
+      <c r="AY32" s="57"/>
+      <c r="AZ32" s="57"/>
+      <c r="BA32" s="57"/>
+      <c r="BB32" s="57"/>
+      <c r="BC32" s="57"/>
+      <c r="BD32" s="57"/>
+      <c r="BE32" s="57"/>
+      <c r="BF32" s="57"/>
+      <c r="BG32" s="57"/>
+      <c r="BH32" s="57"/>
+      <c r="BI32" s="57"/>
+      <c r="BJ32" s="57"/>
+      <c r="BK32" s="57"/>
+      <c r="BL32" s="57"/>
+      <c r="BM32" s="57"/>
+      <c r="BN32" s="57"/>
+      <c r="BO32" s="57"/>
       <c r="BP32"/>
       <c r="BQ32" s="4"/>
       <c r="AMM32"/>
@@ -3483,73 +3483,73 @@
     </row>
     <row r="33" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="C33" s="50">
+      <c r="C33" s="54">
         <v>8</v>
       </c>
-      <c r="D33" s="50"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="51"/>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="51"/>
-      <c r="Z33" s="51"/>
-      <c r="AA33" s="51"/>
-      <c r="AB33" s="51"/>
-      <c r="AC33" s="51"/>
-      <c r="AD33" s="51"/>
-      <c r="AE33" s="49"/>
-      <c r="AF33" s="49"/>
-      <c r="AG33" s="49"/>
-      <c r="AH33" s="49"/>
-      <c r="AI33" s="49"/>
-      <c r="AJ33" s="49"/>
-      <c r="AK33" s="49"/>
-      <c r="AL33" s="49"/>
-      <c r="AM33" s="49"/>
-      <c r="AN33" s="49"/>
-      <c r="AO33" s="49"/>
-      <c r="AP33" s="49"/>
-      <c r="AQ33" s="49"/>
-      <c r="AR33" s="49"/>
-      <c r="AS33" s="49"/>
-      <c r="AT33" s="49"/>
-      <c r="AU33" s="49"/>
-      <c r="AV33" s="49"/>
-      <c r="AW33" s="49"/>
-      <c r="AX33" s="49"/>
-      <c r="AY33" s="49"/>
-      <c r="AZ33" s="49"/>
-      <c r="BA33" s="49"/>
-      <c r="BB33" s="49"/>
-      <c r="BC33" s="49"/>
-      <c r="BD33" s="49"/>
-      <c r="BE33" s="49"/>
-      <c r="BF33" s="49"/>
-      <c r="BG33" s="49"/>
-      <c r="BH33" s="49"/>
-      <c r="BI33" s="49"/>
-      <c r="BJ33" s="49"/>
-      <c r="BK33" s="49"/>
-      <c r="BL33" s="49"/>
-      <c r="BM33" s="49"/>
-      <c r="BN33" s="49"/>
-      <c r="BO33" s="49"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="59"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="59"/>
+      <c r="AE33" s="57"/>
+      <c r="AF33" s="57"/>
+      <c r="AG33" s="57"/>
+      <c r="AH33" s="57"/>
+      <c r="AI33" s="57"/>
+      <c r="AJ33" s="57"/>
+      <c r="AK33" s="57"/>
+      <c r="AL33" s="57"/>
+      <c r="AM33" s="57"/>
+      <c r="AN33" s="57"/>
+      <c r="AO33" s="57"/>
+      <c r="AP33" s="57"/>
+      <c r="AQ33" s="57"/>
+      <c r="AR33" s="57"/>
+      <c r="AS33" s="57"/>
+      <c r="AT33" s="57"/>
+      <c r="AU33" s="57"/>
+      <c r="AV33" s="57"/>
+      <c r="AW33" s="57"/>
+      <c r="AX33" s="57"/>
+      <c r="AY33" s="57"/>
+      <c r="AZ33" s="57"/>
+      <c r="BA33" s="57"/>
+      <c r="BB33" s="57"/>
+      <c r="BC33" s="57"/>
+      <c r="BD33" s="57"/>
+      <c r="BE33" s="57"/>
+      <c r="BF33" s="57"/>
+      <c r="BG33" s="57"/>
+      <c r="BH33" s="57"/>
+      <c r="BI33" s="57"/>
+      <c r="BJ33" s="57"/>
+      <c r="BK33" s="57"/>
+      <c r="BL33" s="57"/>
+      <c r="BM33" s="57"/>
+      <c r="BN33" s="57"/>
+      <c r="BO33" s="57"/>
       <c r="BP33"/>
       <c r="BQ33" s="4"/>
       <c r="AMM33"/>
@@ -3566,73 +3566,73 @@
     </row>
     <row r="34" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="C34" s="50">
+      <c r="C34" s="54">
         <v>9</v>
       </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="51"/>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="51"/>
-      <c r="AB34" s="51"/>
-      <c r="AC34" s="51"/>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="49"/>
-      <c r="AF34" s="49"/>
-      <c r="AG34" s="49"/>
-      <c r="AH34" s="49"/>
-      <c r="AI34" s="49"/>
-      <c r="AJ34" s="49"/>
-      <c r="AK34" s="49"/>
-      <c r="AL34" s="49"/>
-      <c r="AM34" s="49"/>
-      <c r="AN34" s="49"/>
-      <c r="AO34" s="49"/>
-      <c r="AP34" s="49"/>
-      <c r="AQ34" s="49"/>
-      <c r="AR34" s="49"/>
-      <c r="AS34" s="49"/>
-      <c r="AT34" s="49"/>
-      <c r="AU34" s="49"/>
-      <c r="AV34" s="49"/>
-      <c r="AW34" s="49"/>
-      <c r="AX34" s="49"/>
-      <c r="AY34" s="49"/>
-      <c r="AZ34" s="49"/>
-      <c r="BA34" s="49"/>
-      <c r="BB34" s="49"/>
-      <c r="BC34" s="49"/>
-      <c r="BD34" s="49"/>
-      <c r="BE34" s="49"/>
-      <c r="BF34" s="49"/>
-      <c r="BG34" s="49"/>
-      <c r="BH34" s="49"/>
-      <c r="BI34" s="49"/>
-      <c r="BJ34" s="49"/>
-      <c r="BK34" s="49"/>
-      <c r="BL34" s="49"/>
-      <c r="BM34" s="49"/>
-      <c r="BN34" s="49"/>
-      <c r="BO34" s="49"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="57"/>
+      <c r="AF34" s="57"/>
+      <c r="AG34" s="57"/>
+      <c r="AH34" s="57"/>
+      <c r="AI34" s="57"/>
+      <c r="AJ34" s="57"/>
+      <c r="AK34" s="57"/>
+      <c r="AL34" s="57"/>
+      <c r="AM34" s="57"/>
+      <c r="AN34" s="57"/>
+      <c r="AO34" s="57"/>
+      <c r="AP34" s="57"/>
+      <c r="AQ34" s="57"/>
+      <c r="AR34" s="57"/>
+      <c r="AS34" s="57"/>
+      <c r="AT34" s="57"/>
+      <c r="AU34" s="57"/>
+      <c r="AV34" s="57"/>
+      <c r="AW34" s="57"/>
+      <c r="AX34" s="57"/>
+      <c r="AY34" s="57"/>
+      <c r="AZ34" s="57"/>
+      <c r="BA34" s="57"/>
+      <c r="BB34" s="57"/>
+      <c r="BC34" s="57"/>
+      <c r="BD34" s="57"/>
+      <c r="BE34" s="57"/>
+      <c r="BF34" s="57"/>
+      <c r="BG34" s="57"/>
+      <c r="BH34" s="57"/>
+      <c r="BI34" s="57"/>
+      <c r="BJ34" s="57"/>
+      <c r="BK34" s="57"/>
+      <c r="BL34" s="57"/>
+      <c r="BM34" s="57"/>
+      <c r="BN34" s="57"/>
+      <c r="BO34" s="57"/>
       <c r="BP34"/>
       <c r="BQ34" s="4"/>
       <c r="AMM34"/>
@@ -3650,73 +3650,73 @@
     <row r="35" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="50">
+      <c r="C35" s="54">
         <v>10</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="51"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="51"/>
-      <c r="Z35" s="51"/>
-      <c r="AA35" s="51"/>
-      <c r="AB35" s="51"/>
-      <c r="AC35" s="51"/>
-      <c r="AD35" s="51"/>
-      <c r="AE35" s="49"/>
-      <c r="AF35" s="49"/>
-      <c r="AG35" s="49"/>
-      <c r="AH35" s="49"/>
-      <c r="AI35" s="49"/>
-      <c r="AJ35" s="49"/>
-      <c r="AK35" s="49"/>
-      <c r="AL35" s="49"/>
-      <c r="AM35" s="49"/>
-      <c r="AN35" s="49"/>
-      <c r="AO35" s="49"/>
-      <c r="AP35" s="49"/>
-      <c r="AQ35" s="49"/>
-      <c r="AR35" s="49"/>
-      <c r="AS35" s="49"/>
-      <c r="AT35" s="49"/>
-      <c r="AU35" s="49"/>
-      <c r="AV35" s="49"/>
-      <c r="AW35" s="49"/>
-      <c r="AX35" s="49"/>
-      <c r="AY35" s="49"/>
-      <c r="AZ35" s="49"/>
-      <c r="BA35" s="49"/>
-      <c r="BB35" s="49"/>
-      <c r="BC35" s="49"/>
-      <c r="BD35" s="49"/>
-      <c r="BE35" s="49"/>
-      <c r="BF35" s="49"/>
-      <c r="BG35" s="49"/>
-      <c r="BH35" s="49"/>
-      <c r="BI35" s="49"/>
-      <c r="BJ35" s="49"/>
-      <c r="BK35" s="49"/>
-      <c r="BL35" s="49"/>
-      <c r="BM35" s="49"/>
-      <c r="BN35" s="49"/>
-      <c r="BO35" s="49"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="57"/>
+      <c r="AF35" s="57"/>
+      <c r="AG35" s="57"/>
+      <c r="AH35" s="57"/>
+      <c r="AI35" s="57"/>
+      <c r="AJ35" s="57"/>
+      <c r="AK35" s="57"/>
+      <c r="AL35" s="57"/>
+      <c r="AM35" s="57"/>
+      <c r="AN35" s="57"/>
+      <c r="AO35" s="57"/>
+      <c r="AP35" s="57"/>
+      <c r="AQ35" s="57"/>
+      <c r="AR35" s="57"/>
+      <c r="AS35" s="57"/>
+      <c r="AT35" s="57"/>
+      <c r="AU35" s="57"/>
+      <c r="AV35" s="57"/>
+      <c r="AW35" s="57"/>
+      <c r="AX35" s="57"/>
+      <c r="AY35" s="57"/>
+      <c r="AZ35" s="57"/>
+      <c r="BA35" s="57"/>
+      <c r="BB35" s="57"/>
+      <c r="BC35" s="57"/>
+      <c r="BD35" s="57"/>
+      <c r="BE35" s="57"/>
+      <c r="BF35" s="57"/>
+      <c r="BG35" s="57"/>
+      <c r="BH35" s="57"/>
+      <c r="BI35" s="57"/>
+      <c r="BJ35" s="57"/>
+      <c r="BK35" s="57"/>
+      <c r="BL35" s="57"/>
+      <c r="BM35" s="57"/>
+      <c r="BN35" s="57"/>
+      <c r="BO35" s="57"/>
       <c r="BP35"/>
       <c r="BQ35" s="4"/>
       <c r="AMM35"/>
@@ -4325,51 +4325,48 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="BD26:BJ26"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="BD25:BJ25"/>
-    <mergeCell ref="BK25:BO25"/>
+    <mergeCell ref="BK34:BO34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="O35:AD35"/>
+    <mergeCell ref="AE35:BC35"/>
+    <mergeCell ref="BD35:BJ35"/>
+    <mergeCell ref="BK35:BO35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="BK32:BO32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BJ33"/>
+    <mergeCell ref="BK33:BO33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD32:BJ32"/>
+    <mergeCell ref="BK30:BO30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BJ31"/>
+    <mergeCell ref="BK31:BO31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BJ30"/>
     <mergeCell ref="BK27:BO27"/>
     <mergeCell ref="BK26:BO26"/>
     <mergeCell ref="BK28:BO28"/>
@@ -4394,48 +4391,51 @@
     <mergeCell ref="BD27:BJ27"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:I26"/>
-    <mergeCell ref="BK30:BO30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BJ31"/>
-    <mergeCell ref="BK31:BO31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BJ30"/>
-    <mergeCell ref="BK32:BO32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BJ33"/>
-    <mergeCell ref="BK33:BO33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD32:BJ32"/>
-    <mergeCell ref="BK34:BO34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="O35:AD35"/>
-    <mergeCell ref="AE35:BC35"/>
-    <mergeCell ref="BD35:BJ35"/>
-    <mergeCell ref="BK35:BO35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="BD26:BJ26"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="BD25:BJ25"/>
+    <mergeCell ref="BK25:BO25"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -4506,247 +4506,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78" t="s">
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="79" t="s">
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AT1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="79"/>
-      <c r="AV1" s="79"/>
-      <c r="AW1" s="79"/>
-      <c r="AX1" s="79"/>
-      <c r="AY1" s="79"/>
-      <c r="AZ1" s="79"/>
-      <c r="BA1" s="79"/>
-      <c r="BB1" s="79"/>
-      <c r="BC1" s="79"/>
-      <c r="BD1" s="79"/>
-      <c r="BE1" s="79"/>
-      <c r="BF1" s="79"/>
-      <c r="BG1" s="79"/>
-      <c r="BH1" s="79"/>
-      <c r="BI1" s="79"/>
-      <c r="BJ1" s="79"/>
-      <c r="BK1" s="79"/>
-      <c r="BL1" s="79"/>
-      <c r="BM1" s="79"/>
-      <c r="BN1" s="79"/>
-      <c r="BO1" s="79"/>
-      <c r="BP1" s="79"/>
-      <c r="BQ1" s="79"/>
+      <c r="AU1" s="70"/>
+      <c r="AV1" s="70"/>
+      <c r="AW1" s="70"/>
+      <c r="AX1" s="70"/>
+      <c r="AY1" s="70"/>
+      <c r="AZ1" s="70"/>
+      <c r="BA1" s="70"/>
+      <c r="BB1" s="70"/>
+      <c r="BC1" s="70"/>
+      <c r="BD1" s="70"/>
+      <c r="BE1" s="70"/>
+      <c r="BF1" s="70"/>
+      <c r="BG1" s="70"/>
+      <c r="BH1" s="70"/>
+      <c r="BI1" s="70"/>
+      <c r="BJ1" s="70"/>
+      <c r="BK1" s="70"/>
+      <c r="BL1" s="70"/>
+      <c r="BM1" s="70"/>
+      <c r="BN1" s="70"/>
+      <c r="BO1" s="70"/>
+      <c r="BP1" s="70"/>
+      <c r="BQ1" s="70"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="58" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="69" t="s">
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69" t="s">
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71"/>
+      <c r="AR2" s="71"/>
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="69"/>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69" t="s">
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="71"/>
+      <c r="AY2" s="71"/>
+      <c r="AZ2" s="71"/>
+      <c r="BA2" s="71"/>
+      <c r="BB2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="69"/>
-      <c r="BD2" s="69"/>
-      <c r="BE2" s="69"/>
-      <c r="BF2" s="69"/>
-      <c r="BG2" s="69"/>
-      <c r="BH2" s="69"/>
-      <c r="BI2" s="69"/>
-      <c r="BJ2" s="80" t="s">
+      <c r="BC2" s="71"/>
+      <c r="BD2" s="71"/>
+      <c r="BE2" s="71"/>
+      <c r="BF2" s="71"/>
+      <c r="BG2" s="71"/>
+      <c r="BH2" s="71"/>
+      <c r="BI2" s="71"/>
+      <c r="BJ2" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="BK2" s="80"/>
-      <c r="BL2" s="80"/>
-      <c r="BM2" s="80"/>
-      <c r="BN2" s="80"/>
-      <c r="BO2" s="80"/>
-      <c r="BP2" s="80"/>
-      <c r="BQ2" s="80"/>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="72"/>
+      <c r="BO2" s="72"/>
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="72"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="81" t="s">
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="81"/>
-      <c r="AM3" s="81"/>
-      <c r="AN3" s="81"/>
-      <c r="AO3" s="81"/>
-      <c r="AP3" s="81"/>
-      <c r="AQ3" s="81"/>
-      <c r="AR3" s="81"/>
-      <c r="AS3" s="81"/>
-      <c r="AT3" s="82">
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="74">
         <v>45510</v>
       </c>
-      <c r="AU3" s="82"/>
-      <c r="AV3" s="82"/>
-      <c r="AW3" s="82"/>
-      <c r="AX3" s="82"/>
-      <c r="AY3" s="82"/>
-      <c r="AZ3" s="82"/>
-      <c r="BA3" s="82"/>
-      <c r="BB3" s="81" t="s">
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="74"/>
+      <c r="AW3" s="74"/>
+      <c r="AX3" s="74"/>
+      <c r="AY3" s="74"/>
+      <c r="AZ3" s="74"/>
+      <c r="BA3" s="74"/>
+      <c r="BB3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="81"/>
-      <c r="BD3" s="81"/>
-      <c r="BE3" s="81"/>
-      <c r="BF3" s="81"/>
-      <c r="BG3" s="81"/>
-      <c r="BH3" s="81"/>
-      <c r="BI3" s="81"/>
-      <c r="BJ3" s="83">
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="73"/>
+      <c r="BE3" s="73"/>
+      <c r="BF3" s="73"/>
+      <c r="BG3" s="73"/>
+      <c r="BH3" s="73"/>
+      <c r="BI3" s="73"/>
+      <c r="BJ3" s="75">
         <v>45548</v>
       </c>
-      <c r="BK3" s="83"/>
-      <c r="BL3" s="83"/>
-      <c r="BM3" s="83"/>
-      <c r="BN3" s="83"/>
-      <c r="BO3" s="83"/>
-      <c r="BP3" s="83"/>
-      <c r="BQ3" s="83"/>
+      <c r="BK3" s="75"/>
+      <c r="BL3" s="75"/>
+      <c r="BM3" s="75"/>
+      <c r="BN3" s="75"/>
+      <c r="BO3" s="75"/>
+      <c r="BP3" s="75"/>
+      <c r="BQ3" s="75"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -4771,20 +4771,20 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50" t="s">
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
       <c r="M6" s="76" t="s">
         <v>28</v>
       </c>
@@ -4815,52 +4815,52 @@
       <c r="AL6" s="76"/>
       <c r="AM6" s="76"/>
       <c r="AN6" s="76"/>
-      <c r="AO6" s="49" t="s">
+      <c r="AO6" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="49"/>
-      <c r="AQ6" s="49"/>
-      <c r="AR6" s="49"/>
-      <c r="AS6" s="49"/>
-      <c r="AT6" s="49"/>
-      <c r="AU6" s="49"/>
-      <c r="AV6" s="49" t="s">
+      <c r="AP6" s="57"/>
+      <c r="AQ6" s="57"/>
+      <c r="AR6" s="57"/>
+      <c r="AS6" s="57"/>
+      <c r="AT6" s="57"/>
+      <c r="AU6" s="57"/>
+      <c r="AV6" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="49"/>
-      <c r="AX6" s="49"/>
-      <c r="AY6" s="49"/>
-      <c r="AZ6" s="49"/>
-      <c r="BA6" s="49"/>
-      <c r="BB6" s="49"/>
-      <c r="BC6" s="49"/>
-      <c r="BD6" s="49"/>
-      <c r="BE6" s="49"/>
-      <c r="BF6" s="49"/>
-      <c r="BG6" s="49"/>
-      <c r="BH6" s="49"/>
-      <c r="BI6" s="49"/>
-      <c r="BJ6" s="49"/>
-      <c r="BK6" s="49"/>
-      <c r="BL6" s="49"/>
-      <c r="BM6" s="49"/>
-      <c r="BN6" s="49"/>
-      <c r="BO6" s="49"/>
-      <c r="BP6" s="49"/>
+      <c r="AW6" s="57"/>
+      <c r="AX6" s="57"/>
+      <c r="AY6" s="57"/>
+      <c r="AZ6" s="57"/>
+      <c r="BA6" s="57"/>
+      <c r="BB6" s="57"/>
+      <c r="BC6" s="57"/>
+      <c r="BD6" s="57"/>
+      <c r="BE6" s="57"/>
+      <c r="BF6" s="57"/>
+      <c r="BG6" s="57"/>
+      <c r="BH6" s="57"/>
+      <c r="BI6" s="57"/>
+      <c r="BJ6" s="57"/>
+      <c r="BK6" s="57"/>
+      <c r="BL6" s="57"/>
+      <c r="BM6" s="57"/>
+      <c r="BN6" s="57"/>
+      <c r="BO6" s="57"/>
+      <c r="BP6" s="57"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
       <c r="M7" s="17" t="s">
         <v>58</v>
       </c>
@@ -4891,38 +4891,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="49" t="s">
+      <c r="AO7" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="49"/>
-      <c r="AQ7" s="49"/>
-      <c r="AR7" s="49"/>
-      <c r="AS7" s="49"/>
-      <c r="AT7" s="49"/>
-      <c r="AU7" s="49"/>
-      <c r="AV7" s="49" t="s">
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="AW7" s="49"/>
-      <c r="AX7" s="49"/>
-      <c r="AY7" s="49"/>
-      <c r="AZ7" s="49"/>
-      <c r="BA7" s="49"/>
-      <c r="BB7" s="49"/>
-      <c r="BC7" s="49"/>
-      <c r="BD7" s="49"/>
-      <c r="BE7" s="49"/>
-      <c r="BF7" s="49"/>
-      <c r="BG7" s="49"/>
-      <c r="BH7" s="49"/>
-      <c r="BI7" s="49"/>
-      <c r="BJ7" s="49"/>
-      <c r="BK7" s="49"/>
-      <c r="BL7" s="49"/>
-      <c r="BM7" s="49"/>
-      <c r="BN7" s="49"/>
-      <c r="BO7" s="49"/>
-      <c r="BP7" s="49"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="57"/>
+      <c r="BA7" s="57"/>
+      <c r="BB7" s="57"/>
+      <c r="BC7" s="57"/>
+      <c r="BD7" s="57"/>
+      <c r="BE7" s="57"/>
+      <c r="BF7" s="57"/>
+      <c r="BG7" s="57"/>
+      <c r="BH7" s="57"/>
+      <c r="BI7" s="57"/>
+      <c r="BJ7" s="57"/>
+      <c r="BK7" s="57"/>
+      <c r="BL7" s="57"/>
+      <c r="BM7" s="57"/>
+      <c r="BN7" s="57"/>
+      <c r="BO7" s="57"/>
+      <c r="BP7" s="57"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -4936,89 +4936,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="69" t="s">
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69" t="s">
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="73" t="s">
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="74"/>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="74"/>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="74"/>
-      <c r="AN10" s="74"/>
-      <c r="AO10" s="74"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="74"/>
-      <c r="AR10" s="74"/>
-      <c r="AS10" s="74"/>
-      <c r="AT10" s="74"/>
-      <c r="AU10" s="74"/>
-      <c r="AV10" s="74"/>
-      <c r="AW10" s="74"/>
-      <c r="AX10" s="74"/>
-      <c r="AY10" s="74"/>
-      <c r="AZ10" s="74"/>
-      <c r="BA10" s="74"/>
-      <c r="BB10" s="74"/>
-      <c r="BC10" s="74"/>
-      <c r="BD10" s="74"/>
-      <c r="BE10" s="74"/>
-      <c r="BF10" s="74"/>
-      <c r="BG10" s="74"/>
-      <c r="BH10" s="74"/>
-      <c r="BI10" s="75"/>
-      <c r="BJ10" s="50" t="s">
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="79"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="79"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="79"/>
+      <c r="AM10" s="79"/>
+      <c r="AN10" s="79"/>
+      <c r="AO10" s="79"/>
+      <c r="AP10" s="79"/>
+      <c r="AQ10" s="79"/>
+      <c r="AR10" s="79"/>
+      <c r="AS10" s="79"/>
+      <c r="AT10" s="79"/>
+      <c r="AU10" s="79"/>
+      <c r="AV10" s="79"/>
+      <c r="AW10" s="79"/>
+      <c r="AX10" s="79"/>
+      <c r="AY10" s="79"/>
+      <c r="AZ10" s="79"/>
+      <c r="BA10" s="79"/>
+      <c r="BB10" s="79"/>
+      <c r="BC10" s="79"/>
+      <c r="BD10" s="79"/>
+      <c r="BE10" s="79"/>
+      <c r="BF10" s="79"/>
+      <c r="BG10" s="79"/>
+      <c r="BH10" s="79"/>
+      <c r="BI10" s="80"/>
+      <c r="BJ10" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="50"/>
-      <c r="BL10" s="50"/>
-      <c r="BM10" s="50"/>
-      <c r="BN10" s="50"/>
-      <c r="BO10" s="50"/>
-      <c r="BP10" s="50"/>
+      <c r="BK10" s="54"/>
+      <c r="BL10" s="54"/>
+      <c r="BM10" s="54"/>
+      <c r="BN10" s="54"/>
+      <c r="BO10" s="54"/>
+      <c r="BP10" s="54"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="17" t="s">
         <v>66</v>
       </c>
@@ -5034,11 +5034,11 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="69" t="s">
+      <c r="T11" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="69"/>
-      <c r="V11" s="72"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="38" t="s">
         <v>65</v>
       </c>
@@ -5090,10 +5090,10 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -5106,9 +5106,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
       <c r="W12" s="38"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -5157,10 +5157,10 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -5174,9 +5174,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
       <c r="W13" s="38"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -5225,10 +5225,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -5242,9 +5242,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
       <c r="W14" s="38"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -5293,10 +5293,10 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -5310,9 +5310,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
       <c r="W15" s="38"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -5372,88 +5372,88 @@
       <c r="AG17" s="16"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="69" t="s">
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69" t="s">
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="50" t="s">
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="50"/>
-      <c r="AH18" s="50"/>
-      <c r="AI18" s="50"/>
-      <c r="AJ18" s="50"/>
-      <c r="AK18" s="50"/>
-      <c r="AL18" s="50"/>
-      <c r="AM18" s="50"/>
-      <c r="AN18" s="50"/>
-      <c r="AO18" s="50"/>
-      <c r="AP18" s="50"/>
-      <c r="AQ18" s="50"/>
-      <c r="AR18" s="50"/>
-      <c r="AS18" s="50"/>
-      <c r="AT18" s="50"/>
-      <c r="AU18" s="50"/>
-      <c r="AV18" s="50"/>
-      <c r="AW18" s="50"/>
-      <c r="AX18" s="50"/>
-      <c r="AY18" s="50"/>
-      <c r="AZ18" s="50"/>
-      <c r="BA18" s="50"/>
-      <c r="BB18" s="50"/>
-      <c r="BC18" s="50"/>
-      <c r="BD18" s="50"/>
-      <c r="BE18" s="50"/>
-      <c r="BF18" s="50"/>
-      <c r="BG18" s="50"/>
-      <c r="BH18" s="50"/>
-      <c r="BI18" s="50"/>
-      <c r="BJ18" s="50" t="s">
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54"/>
+      <c r="AF18" s="54"/>
+      <c r="AG18" s="54"/>
+      <c r="AH18" s="54"/>
+      <c r="AI18" s="54"/>
+      <c r="AJ18" s="54"/>
+      <c r="AK18" s="54"/>
+      <c r="AL18" s="54"/>
+      <c r="AM18" s="54"/>
+      <c r="AN18" s="54"/>
+      <c r="AO18" s="54"/>
+      <c r="AP18" s="54"/>
+      <c r="AQ18" s="54"/>
+      <c r="AR18" s="54"/>
+      <c r="AS18" s="54"/>
+      <c r="AT18" s="54"/>
+      <c r="AU18" s="54"/>
+      <c r="AV18" s="54"/>
+      <c r="AW18" s="54"/>
+      <c r="AX18" s="54"/>
+      <c r="AY18" s="54"/>
+      <c r="AZ18" s="54"/>
+      <c r="BA18" s="54"/>
+      <c r="BB18" s="54"/>
+      <c r="BC18" s="54"/>
+      <c r="BD18" s="54"/>
+      <c r="BE18" s="54"/>
+      <c r="BF18" s="54"/>
+      <c r="BG18" s="54"/>
+      <c r="BH18" s="54"/>
+      <c r="BI18" s="54"/>
+      <c r="BJ18" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="BK18" s="50"/>
-      <c r="BL18" s="50"/>
-      <c r="BM18" s="50"/>
-      <c r="BN18" s="50"/>
-      <c r="BO18" s="50"/>
-      <c r="BP18" s="50"/>
+      <c r="BK18" s="54"/>
+      <c r="BL18" s="54"/>
+      <c r="BM18" s="54"/>
+      <c r="BN18" s="54"/>
+      <c r="BO18" s="54"/>
+      <c r="BP18" s="54"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
       <c r="G19" s="17" t="s">
         <v>63</v>
       </c>
@@ -5469,11 +5469,11 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="69" t="s">
+      <c r="T19" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
       <c r="W19" s="21" t="s">
         <v>67</v>
       </c>
@@ -6031,6 +6031,37 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -6045,37 +6076,6 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -6130,7 +6130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE19C390-29E1-421F-802B-4C94FFCB0FB9}">
   <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -6146,243 +6146,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78" t="s">
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="79" t="s">
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="69"/>
+      <c r="AQ1" s="69"/>
+      <c r="AR1" s="69"/>
+      <c r="AS1" s="69"/>
+      <c r="AT1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="79"/>
-      <c r="AV1" s="79"/>
-      <c r="AW1" s="79"/>
-      <c r="AX1" s="79"/>
-      <c r="AY1" s="79"/>
-      <c r="AZ1" s="79"/>
-      <c r="BA1" s="79"/>
-      <c r="BB1" s="79"/>
-      <c r="BC1" s="79"/>
-      <c r="BD1" s="79"/>
-      <c r="BE1" s="79"/>
-      <c r="BF1" s="79"/>
-      <c r="BG1" s="79"/>
-      <c r="BH1" s="79"/>
-      <c r="BI1" s="79"/>
-      <c r="BJ1" s="79"/>
-      <c r="BK1" s="79"/>
-      <c r="BL1" s="79"/>
-      <c r="BM1" s="79"/>
-      <c r="BN1" s="79"/>
-      <c r="BO1" s="79"/>
-      <c r="BP1" s="79"/>
-      <c r="BQ1" s="79"/>
+      <c r="AU1" s="70"/>
+      <c r="AV1" s="70"/>
+      <c r="AW1" s="70"/>
+      <c r="AX1" s="70"/>
+      <c r="AY1" s="70"/>
+      <c r="AZ1" s="70"/>
+      <c r="BA1" s="70"/>
+      <c r="BB1" s="70"/>
+      <c r="BC1" s="70"/>
+      <c r="BD1" s="70"/>
+      <c r="BE1" s="70"/>
+      <c r="BF1" s="70"/>
+      <c r="BG1" s="70"/>
+      <c r="BH1" s="70"/>
+      <c r="BI1" s="70"/>
+      <c r="BJ1" s="70"/>
+      <c r="BK1" s="70"/>
+      <c r="BL1" s="70"/>
+      <c r="BM1" s="70"/>
+      <c r="BN1" s="70"/>
+      <c r="BO1" s="70"/>
+      <c r="BP1" s="70"/>
+      <c r="BQ1" s="70"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="58" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="69" t="s">
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69" t="s">
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71"/>
+      <c r="AR2" s="71"/>
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="69"/>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69" t="s">
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="71"/>
+      <c r="AY2" s="71"/>
+      <c r="AZ2" s="71"/>
+      <c r="BA2" s="71"/>
+      <c r="BB2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="69"/>
-      <c r="BD2" s="69"/>
-      <c r="BE2" s="69"/>
-      <c r="BF2" s="69"/>
-      <c r="BG2" s="69"/>
-      <c r="BH2" s="69"/>
-      <c r="BI2" s="69"/>
-      <c r="BJ2" s="80"/>
-      <c r="BK2" s="80"/>
-      <c r="BL2" s="80"/>
-      <c r="BM2" s="80"/>
-      <c r="BN2" s="80"/>
-      <c r="BO2" s="80"/>
-      <c r="BP2" s="80"/>
-      <c r="BQ2" s="80"/>
+      <c r="BC2" s="71"/>
+      <c r="BD2" s="71"/>
+      <c r="BE2" s="71"/>
+      <c r="BF2" s="71"/>
+      <c r="BG2" s="71"/>
+      <c r="BH2" s="71"/>
+      <c r="BI2" s="71"/>
+      <c r="BJ2" s="72"/>
+      <c r="BK2" s="72"/>
+      <c r="BL2" s="72"/>
+      <c r="BM2" s="72"/>
+      <c r="BN2" s="72"/>
+      <c r="BO2" s="72"/>
+      <c r="BP2" s="72"/>
+      <c r="BQ2" s="72"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="81" t="s">
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="81"/>
-      <c r="AM3" s="81"/>
-      <c r="AN3" s="81"/>
-      <c r="AO3" s="81"/>
-      <c r="AP3" s="81"/>
-      <c r="AQ3" s="81"/>
-      <c r="AR3" s="81"/>
-      <c r="AS3" s="81"/>
-      <c r="AT3" s="82">
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="74">
         <v>45554</v>
       </c>
-      <c r="AU3" s="82"/>
-      <c r="AV3" s="82"/>
-      <c r="AW3" s="82"/>
-      <c r="AX3" s="82"/>
-      <c r="AY3" s="82"/>
-      <c r="AZ3" s="82"/>
-      <c r="BA3" s="82"/>
-      <c r="BB3" s="81" t="s">
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="74"/>
+      <c r="AW3" s="74"/>
+      <c r="AX3" s="74"/>
+      <c r="AY3" s="74"/>
+      <c r="AZ3" s="74"/>
+      <c r="BA3" s="74"/>
+      <c r="BB3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="81"/>
-      <c r="BD3" s="81"/>
-      <c r="BE3" s="81"/>
-      <c r="BF3" s="81"/>
-      <c r="BG3" s="81"/>
-      <c r="BH3" s="81"/>
-      <c r="BI3" s="81"/>
-      <c r="BJ3" s="83"/>
-      <c r="BK3" s="83"/>
-      <c r="BL3" s="83"/>
-      <c r="BM3" s="83"/>
-      <c r="BN3" s="83"/>
-      <c r="BO3" s="83"/>
-      <c r="BP3" s="83"/>
-      <c r="BQ3" s="83"/>
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="73"/>
+      <c r="BE3" s="73"/>
+      <c r="BF3" s="73"/>
+      <c r="BG3" s="73"/>
+      <c r="BH3" s="73"/>
+      <c r="BI3" s="73"/>
+      <c r="BJ3" s="75"/>
+      <c r="BK3" s="75"/>
+      <c r="BL3" s="75"/>
+      <c r="BM3" s="75"/>
+      <c r="BN3" s="75"/>
+      <c r="BO3" s="75"/>
+      <c r="BP3" s="75"/>
+      <c r="BQ3" s="75"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -6407,20 +6407,20 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50" t="s">
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
       <c r="M6" s="76" t="s">
         <v>28</v>
       </c>
@@ -6451,52 +6451,52 @@
       <c r="AL6" s="76"/>
       <c r="AM6" s="76"/>
       <c r="AN6" s="76"/>
-      <c r="AO6" s="49" t="s">
+      <c r="AO6" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="49"/>
-      <c r="AQ6" s="49"/>
-      <c r="AR6" s="49"/>
-      <c r="AS6" s="49"/>
-      <c r="AT6" s="49"/>
-      <c r="AU6" s="49"/>
-      <c r="AV6" s="49" t="s">
+      <c r="AP6" s="57"/>
+      <c r="AQ6" s="57"/>
+      <c r="AR6" s="57"/>
+      <c r="AS6" s="57"/>
+      <c r="AT6" s="57"/>
+      <c r="AU6" s="57"/>
+      <c r="AV6" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="49"/>
-      <c r="AX6" s="49"/>
-      <c r="AY6" s="49"/>
-      <c r="AZ6" s="49"/>
-      <c r="BA6" s="49"/>
-      <c r="BB6" s="49"/>
-      <c r="BC6" s="49"/>
-      <c r="BD6" s="49"/>
-      <c r="BE6" s="49"/>
-      <c r="BF6" s="49"/>
-      <c r="BG6" s="49"/>
-      <c r="BH6" s="49"/>
-      <c r="BI6" s="49"/>
-      <c r="BJ6" s="49"/>
-      <c r="BK6" s="49"/>
-      <c r="BL6" s="49"/>
-      <c r="BM6" s="49"/>
-      <c r="BN6" s="49"/>
-      <c r="BO6" s="49"/>
-      <c r="BP6" s="49"/>
+      <c r="AW6" s="57"/>
+      <c r="AX6" s="57"/>
+      <c r="AY6" s="57"/>
+      <c r="AZ6" s="57"/>
+      <c r="BA6" s="57"/>
+      <c r="BB6" s="57"/>
+      <c r="BC6" s="57"/>
+      <c r="BD6" s="57"/>
+      <c r="BE6" s="57"/>
+      <c r="BF6" s="57"/>
+      <c r="BG6" s="57"/>
+      <c r="BH6" s="57"/>
+      <c r="BI6" s="57"/>
+      <c r="BJ6" s="57"/>
+      <c r="BK6" s="57"/>
+      <c r="BL6" s="57"/>
+      <c r="BM6" s="57"/>
+      <c r="BN6" s="57"/>
+      <c r="BO6" s="57"/>
+      <c r="BP6" s="57"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
       <c r="M7" s="17" t="s">
         <v>84</v>
       </c>
@@ -6527,38 +6527,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="49" t="s">
+      <c r="AO7" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="49"/>
-      <c r="AQ7" s="49"/>
-      <c r="AR7" s="49"/>
-      <c r="AS7" s="49"/>
-      <c r="AT7" s="49"/>
-      <c r="AU7" s="49"/>
-      <c r="AV7" s="49" t="s">
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="AW7" s="49"/>
-      <c r="AX7" s="49"/>
-      <c r="AY7" s="49"/>
-      <c r="AZ7" s="49"/>
-      <c r="BA7" s="49"/>
-      <c r="BB7" s="49"/>
-      <c r="BC7" s="49"/>
-      <c r="BD7" s="49"/>
-      <c r="BE7" s="49"/>
-      <c r="BF7" s="49"/>
-      <c r="BG7" s="49"/>
-      <c r="BH7" s="49"/>
-      <c r="BI7" s="49"/>
-      <c r="BJ7" s="49"/>
-      <c r="BK7" s="49"/>
-      <c r="BL7" s="49"/>
-      <c r="BM7" s="49"/>
-      <c r="BN7" s="49"/>
-      <c r="BO7" s="49"/>
-      <c r="BP7" s="49"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="57"/>
+      <c r="BA7" s="57"/>
+      <c r="BB7" s="57"/>
+      <c r="BC7" s="57"/>
+      <c r="BD7" s="57"/>
+      <c r="BE7" s="57"/>
+      <c r="BF7" s="57"/>
+      <c r="BG7" s="57"/>
+      <c r="BH7" s="57"/>
+      <c r="BI7" s="57"/>
+      <c r="BJ7" s="57"/>
+      <c r="BK7" s="57"/>
+      <c r="BL7" s="57"/>
+      <c r="BM7" s="57"/>
+      <c r="BN7" s="57"/>
+      <c r="BO7" s="57"/>
+      <c r="BP7" s="57"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -6572,89 +6572,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="69" t="s">
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69" t="s">
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="73" t="s">
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="74"/>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="74"/>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="74"/>
-      <c r="AN10" s="74"/>
-      <c r="AO10" s="74"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="74"/>
-      <c r="AR10" s="74"/>
-      <c r="AS10" s="74"/>
-      <c r="AT10" s="74"/>
-      <c r="AU10" s="74"/>
-      <c r="AV10" s="74"/>
-      <c r="AW10" s="74"/>
-      <c r="AX10" s="74"/>
-      <c r="AY10" s="74"/>
-      <c r="AZ10" s="74"/>
-      <c r="BA10" s="74"/>
-      <c r="BB10" s="74"/>
-      <c r="BC10" s="74"/>
-      <c r="BD10" s="74"/>
-      <c r="BE10" s="74"/>
-      <c r="BF10" s="74"/>
-      <c r="BG10" s="74"/>
-      <c r="BH10" s="74"/>
-      <c r="BI10" s="75"/>
-      <c r="BJ10" s="50" t="s">
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="79"/>
+      <c r="AG10" s="79"/>
+      <c r="AH10" s="79"/>
+      <c r="AI10" s="79"/>
+      <c r="AJ10" s="79"/>
+      <c r="AK10" s="79"/>
+      <c r="AL10" s="79"/>
+      <c r="AM10" s="79"/>
+      <c r="AN10" s="79"/>
+      <c r="AO10" s="79"/>
+      <c r="AP10" s="79"/>
+      <c r="AQ10" s="79"/>
+      <c r="AR10" s="79"/>
+      <c r="AS10" s="79"/>
+      <c r="AT10" s="79"/>
+      <c r="AU10" s="79"/>
+      <c r="AV10" s="79"/>
+      <c r="AW10" s="79"/>
+      <c r="AX10" s="79"/>
+      <c r="AY10" s="79"/>
+      <c r="AZ10" s="79"/>
+      <c r="BA10" s="79"/>
+      <c r="BB10" s="79"/>
+      <c r="BC10" s="79"/>
+      <c r="BD10" s="79"/>
+      <c r="BE10" s="79"/>
+      <c r="BF10" s="79"/>
+      <c r="BG10" s="79"/>
+      <c r="BH10" s="79"/>
+      <c r="BI10" s="80"/>
+      <c r="BJ10" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="50"/>
-      <c r="BL10" s="50"/>
-      <c r="BM10" s="50"/>
-      <c r="BN10" s="50"/>
-      <c r="BO10" s="50"/>
-      <c r="BP10" s="50"/>
+      <c r="BK10" s="54"/>
+      <c r="BL10" s="54"/>
+      <c r="BM10" s="54"/>
+      <c r="BN10" s="54"/>
+      <c r="BO10" s="54"/>
+      <c r="BP10" s="54"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
       <c r="G11" s="17" t="s">
         <v>86</v>
       </c>
@@ -6670,9 +6670,9 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="72"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="82"/>
       <c r="W11" s="38"/>
       <c r="X11" s="39"/>
       <c r="Y11" s="39"/>
@@ -6722,10 +6722,10 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -6738,9 +6738,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
+      <c r="T12" s="71"/>
+      <c r="U12" s="71"/>
+      <c r="V12" s="71"/>
       <c r="W12" s="38"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -6789,10 +6789,10 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -6806,9 +6806,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
       <c r="W13" s="38"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -6857,10 +6857,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -6874,9 +6874,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
       <c r="W14" s="38"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -6925,10 +6925,10 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -6942,9 +6942,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
       <c r="W15" s="38"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -7004,88 +7004,88 @@
       <c r="AG17" s="16"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="69" t="s">
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69" t="s">
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="50" t="s">
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="50"/>
-      <c r="AH18" s="50"/>
-      <c r="AI18" s="50"/>
-      <c r="AJ18" s="50"/>
-      <c r="AK18" s="50"/>
-      <c r="AL18" s="50"/>
-      <c r="AM18" s="50"/>
-      <c r="AN18" s="50"/>
-      <c r="AO18" s="50"/>
-      <c r="AP18" s="50"/>
-      <c r="AQ18" s="50"/>
-      <c r="AR18" s="50"/>
-      <c r="AS18" s="50"/>
-      <c r="AT18" s="50"/>
-      <c r="AU18" s="50"/>
-      <c r="AV18" s="50"/>
-      <c r="AW18" s="50"/>
-      <c r="AX18" s="50"/>
-      <c r="AY18" s="50"/>
-      <c r="AZ18" s="50"/>
-      <c r="BA18" s="50"/>
-      <c r="BB18" s="50"/>
-      <c r="BC18" s="50"/>
-      <c r="BD18" s="50"/>
-      <c r="BE18" s="50"/>
-      <c r="BF18" s="50"/>
-      <c r="BG18" s="50"/>
-      <c r="BH18" s="50"/>
-      <c r="BI18" s="50"/>
-      <c r="BJ18" s="50" t="s">
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54"/>
+      <c r="AF18" s="54"/>
+      <c r="AG18" s="54"/>
+      <c r="AH18" s="54"/>
+      <c r="AI18" s="54"/>
+      <c r="AJ18" s="54"/>
+      <c r="AK18" s="54"/>
+      <c r="AL18" s="54"/>
+      <c r="AM18" s="54"/>
+      <c r="AN18" s="54"/>
+      <c r="AO18" s="54"/>
+      <c r="AP18" s="54"/>
+      <c r="AQ18" s="54"/>
+      <c r="AR18" s="54"/>
+      <c r="AS18" s="54"/>
+      <c r="AT18" s="54"/>
+      <c r="AU18" s="54"/>
+      <c r="AV18" s="54"/>
+      <c r="AW18" s="54"/>
+      <c r="AX18" s="54"/>
+      <c r="AY18" s="54"/>
+      <c r="AZ18" s="54"/>
+      <c r="BA18" s="54"/>
+      <c r="BB18" s="54"/>
+      <c r="BC18" s="54"/>
+      <c r="BD18" s="54"/>
+      <c r="BE18" s="54"/>
+      <c r="BF18" s="54"/>
+      <c r="BG18" s="54"/>
+      <c r="BH18" s="54"/>
+      <c r="BI18" s="54"/>
+      <c r="BJ18" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="BK18" s="50"/>
-      <c r="BL18" s="50"/>
-      <c r="BM18" s="50"/>
-      <c r="BN18" s="50"/>
-      <c r="BO18" s="50"/>
-      <c r="BP18" s="50"/>
+      <c r="BK18" s="54"/>
+      <c r="BL18" s="54"/>
+      <c r="BM18" s="54"/>
+      <c r="BN18" s="54"/>
+      <c r="BO18" s="54"/>
+      <c r="BP18" s="54"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
       <c r="G19" s="17" t="s">
         <v>63</v>
       </c>
@@ -7101,11 +7101,11 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="69" t="s">
+      <c r="T19" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
       <c r="W19" s="21" t="s">
         <v>87</v>
       </c>
@@ -7654,6 +7654,37 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -7668,37 +7699,6 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">

--- a/交通費申請一覧機能/設計書/マッパー設計書_ユーザマスタ.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_ユーザマスタ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639C1D39-ACDD-4676-9786-95604F0D339E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5728CC77-483F-4FE9-BB42-789B60B107AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1450" yWindow="20" windowWidth="13280" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2530" yWindow="170" windowWidth="13280" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_ユーザマスターマッパー" sheetId="10" r:id="rId1"/>
@@ -1102,6 +1102,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="4" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1117,46 +1156,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1166,9 +1191,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1181,28 +1203,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
@@ -1414,7 +1414,7 @@
   <dimension ref="A1:AMW48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:BO6"/>
+      <selection activeCell="I2" sqref="I2:AJ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1425,247 +1425,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50" t="s">
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="51" t="s">
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="51"/>
-      <c r="BB1" s="51"/>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="51"/>
-      <c r="BE1" s="51"/>
-      <c r="BF1" s="51"/>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
-      <c r="BJ1" s="51"/>
-      <c r="BK1" s="51"/>
-      <c r="BL1" s="51"/>
-      <c r="BM1" s="51"/>
-      <c r="BN1" s="51"/>
-      <c r="BO1" s="51"/>
-      <c r="BP1" s="51"/>
-      <c r="BQ1" s="51"/>
+      <c r="AU1" s="64"/>
+      <c r="AV1" s="64"/>
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64"/>
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="64"/>
+      <c r="BB1" s="64"/>
+      <c r="BC1" s="64"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="64"/>
+      <c r="BF1" s="64"/>
+      <c r="BG1" s="64"/>
+      <c r="BH1" s="64"/>
+      <c r="BI1" s="64"/>
+      <c r="BJ1" s="64"/>
+      <c r="BK1" s="64"/>
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="64"/>
+      <c r="BN1" s="64"/>
+      <c r="BO1" s="64"/>
+      <c r="BP1" s="64"/>
+      <c r="BQ1" s="64"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="54" t="s">
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="54"/>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54" t="s">
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="50"/>
+      <c r="AT2" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="54"/>
-      <c r="BB2" s="54" t="s">
+      <c r="AU2" s="50"/>
+      <c r="AV2" s="50"/>
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="50"/>
+      <c r="BA2" s="50"/>
+      <c r="BB2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="54"/>
-      <c r="BD2" s="54"/>
-      <c r="BE2" s="54"/>
-      <c r="BF2" s="54"/>
-      <c r="BG2" s="54"/>
-      <c r="BH2" s="54"/>
-      <c r="BI2" s="54"/>
-      <c r="BJ2" s="55" t="s">
+      <c r="BC2" s="50"/>
+      <c r="BD2" s="50"/>
+      <c r="BE2" s="50"/>
+      <c r="BF2" s="50"/>
+      <c r="BG2" s="50"/>
+      <c r="BH2" s="50"/>
+      <c r="BI2" s="50"/>
+      <c r="BJ2" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="BK2" s="55"/>
-      <c r="BL2" s="55"/>
-      <c r="BM2" s="55"/>
-      <c r="BN2" s="55"/>
-      <c r="BO2" s="55"/>
-      <c r="BP2" s="55"/>
-      <c r="BQ2" s="55"/>
+      <c r="BK2" s="67"/>
+      <c r="BL2" s="67"/>
+      <c r="BM2" s="67"/>
+      <c r="BN2" s="67"/>
+      <c r="BO2" s="67"/>
+      <c r="BP2" s="67"/>
+      <c r="BQ2" s="67"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="60" t="s">
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="60"/>
-      <c r="AM3" s="60"/>
-      <c r="AN3" s="60"/>
-      <c r="AO3" s="60"/>
-      <c r="AP3" s="60"/>
-      <c r="AQ3" s="60"/>
-      <c r="AR3" s="60"/>
-      <c r="AS3" s="60"/>
-      <c r="AT3" s="61">
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="58"/>
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="58"/>
+      <c r="AT3" s="59">
         <v>45511</v>
       </c>
-      <c r="AU3" s="61"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="61"/>
-      <c r="AX3" s="61"/>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="61"/>
-      <c r="BA3" s="61"/>
-      <c r="BB3" s="60" t="s">
+      <c r="AU3" s="59"/>
+      <c r="AV3" s="59"/>
+      <c r="AW3" s="59"/>
+      <c r="AX3" s="59"/>
+      <c r="AY3" s="59"/>
+      <c r="AZ3" s="59"/>
+      <c r="BA3" s="59"/>
+      <c r="BB3" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="60"/>
-      <c r="BD3" s="60"/>
-      <c r="BE3" s="60"/>
-      <c r="BF3" s="60"/>
-      <c r="BG3" s="60"/>
-      <c r="BH3" s="60"/>
-      <c r="BI3" s="60"/>
-      <c r="BJ3" s="62">
+      <c r="BC3" s="58"/>
+      <c r="BD3" s="58"/>
+      <c r="BE3" s="58"/>
+      <c r="BF3" s="58"/>
+      <c r="BG3" s="58"/>
+      <c r="BH3" s="58"/>
+      <c r="BI3" s="58"/>
+      <c r="BJ3" s="60">
         <v>45548</v>
       </c>
-      <c r="BK3" s="62"/>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="62"/>
-      <c r="BN3" s="62"/>
-      <c r="BO3" s="62"/>
-      <c r="BP3" s="62"/>
-      <c r="BQ3" s="62"/>
+      <c r="BK3" s="60"/>
+      <c r="BL3" s="60"/>
+      <c r="BM3" s="60"/>
+      <c r="BN3" s="60"/>
+      <c r="BO3" s="60"/>
+      <c r="BP3" s="60"/>
+      <c r="BQ3" s="60"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -1732,213 +1732,213 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="63"/>
-      <c r="Z6" s="63"/>
-      <c r="AA6" s="63"/>
-      <c r="AB6" s="63"/>
-      <c r="AC6" s="63"/>
-      <c r="AD6" s="63"/>
-      <c r="AE6" s="63"/>
-      <c r="AF6" s="63"/>
-      <c r="AG6" s="63"/>
-      <c r="AH6" s="63"/>
-      <c r="AI6" s="63"/>
-      <c r="AJ6" s="63"/>
-      <c r="AK6" s="63"/>
-      <c r="AL6" s="63"/>
-      <c r="AM6" s="63"/>
-      <c r="AN6" s="63"/>
-      <c r="AO6" s="63"/>
-      <c r="AP6" s="63"/>
-      <c r="AQ6" s="63"/>
-      <c r="AR6" s="63"/>
-      <c r="AS6" s="63"/>
-      <c r="AT6" s="63"/>
-      <c r="AU6" s="63"/>
-      <c r="AV6" s="63"/>
-      <c r="AW6" s="63"/>
-      <c r="AX6" s="63"/>
-      <c r="AY6" s="63"/>
-      <c r="AZ6" s="63"/>
-      <c r="BA6" s="63"/>
-      <c r="BB6" s="63"/>
-      <c r="BC6" s="63"/>
-      <c r="BD6" s="63"/>
-      <c r="BE6" s="63"/>
-      <c r="BF6" s="63"/>
-      <c r="BG6" s="63"/>
-      <c r="BH6" s="63"/>
-      <c r="BI6" s="63"/>
-      <c r="BJ6" s="63"/>
-      <c r="BK6" s="63"/>
-      <c r="BL6" s="63"/>
-      <c r="BM6" s="63"/>
-      <c r="BN6" s="63"/>
-      <c r="BO6" s="63"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="61"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="61"/>
+      <c r="AK6" s="61"/>
+      <c r="AL6" s="61"/>
+      <c r="AM6" s="61"/>
+      <c r="AN6" s="61"/>
+      <c r="AO6" s="61"/>
+      <c r="AP6" s="61"/>
+      <c r="AQ6" s="61"/>
+      <c r="AR6" s="61"/>
+      <c r="AS6" s="61"/>
+      <c r="AT6" s="61"/>
+      <c r="AU6" s="61"/>
+      <c r="AV6" s="61"/>
+      <c r="AW6" s="61"/>
+      <c r="AX6" s="61"/>
+      <c r="AY6" s="61"/>
+      <c r="AZ6" s="61"/>
+      <c r="BA6" s="61"/>
+      <c r="BB6" s="61"/>
+      <c r="BC6" s="61"/>
+      <c r="BD6" s="61"/>
+      <c r="BE6" s="61"/>
+      <c r="BF6" s="61"/>
+      <c r="BG6" s="61"/>
+      <c r="BH6" s="61"/>
+      <c r="BI6" s="61"/>
+      <c r="BJ6" s="61"/>
+      <c r="BK6" s="61"/>
+      <c r="BL6" s="61"/>
+      <c r="BM6" s="61"/>
+      <c r="BN6" s="61"/>
+      <c r="BO6" s="61"/>
       <c r="BP6"/>
       <c r="BQ6" s="4"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
-      <c r="X7" s="63"/>
-      <c r="Y7" s="63"/>
-      <c r="Z7" s="63"/>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="63"/>
-      <c r="AC7" s="63"/>
-      <c r="AD7" s="63"/>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="63"/>
-      <c r="AG7" s="63"/>
-      <c r="AH7" s="63"/>
-      <c r="AI7" s="63"/>
-      <c r="AJ7" s="63"/>
-      <c r="AK7" s="63"/>
-      <c r="AL7" s="63"/>
-      <c r="AM7" s="63"/>
-      <c r="AN7" s="63"/>
-      <c r="AO7" s="63"/>
-      <c r="AP7" s="63"/>
-      <c r="AQ7" s="63"/>
-      <c r="AR7" s="63"/>
-      <c r="AS7" s="63"/>
-      <c r="AT7" s="63"/>
-      <c r="AU7" s="63"/>
-      <c r="AV7" s="63"/>
-      <c r="AW7" s="63"/>
-      <c r="AX7" s="63"/>
-      <c r="AY7" s="63"/>
-      <c r="AZ7" s="63"/>
-      <c r="BA7" s="63"/>
-      <c r="BB7" s="63"/>
-      <c r="BC7" s="63"/>
-      <c r="BD7" s="63"/>
-      <c r="BE7" s="63"/>
-      <c r="BF7" s="63"/>
-      <c r="BG7" s="63"/>
-      <c r="BH7" s="63"/>
-      <c r="BI7" s="63"/>
-      <c r="BJ7" s="63"/>
-      <c r="BK7" s="63"/>
-      <c r="BL7" s="63"/>
-      <c r="BM7" s="63"/>
-      <c r="BN7" s="63"/>
-      <c r="BO7" s="63"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="61"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="61"/>
+      <c r="AI7" s="61"/>
+      <c r="AJ7" s="61"/>
+      <c r="AK7" s="61"/>
+      <c r="AL7" s="61"/>
+      <c r="AM7" s="61"/>
+      <c r="AN7" s="61"/>
+      <c r="AO7" s="61"/>
+      <c r="AP7" s="61"/>
+      <c r="AQ7" s="61"/>
+      <c r="AR7" s="61"/>
+      <c r="AS7" s="61"/>
+      <c r="AT7" s="61"/>
+      <c r="AU7" s="61"/>
+      <c r="AV7" s="61"/>
+      <c r="AW7" s="61"/>
+      <c r="AX7" s="61"/>
+      <c r="AY7" s="61"/>
+      <c r="AZ7" s="61"/>
+      <c r="BA7" s="61"/>
+      <c r="BB7" s="61"/>
+      <c r="BC7" s="61"/>
+      <c r="BD7" s="61"/>
+      <c r="BE7" s="61"/>
+      <c r="BF7" s="61"/>
+      <c r="BG7" s="61"/>
+      <c r="BH7" s="61"/>
+      <c r="BI7" s="61"/>
+      <c r="BJ7" s="61"/>
+      <c r="BK7" s="61"/>
+      <c r="BL7" s="61"/>
+      <c r="BM7" s="61"/>
+      <c r="BN7" s="61"/>
+      <c r="BO7" s="61"/>
       <c r="BP7"/>
       <c r="BQ7" s="4"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="56"/>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="56"/>
-      <c r="AF8" s="56"/>
-      <c r="AG8" s="56"/>
-      <c r="AH8" s="56"/>
-      <c r="AI8" s="56"/>
-      <c r="AJ8" s="56"/>
-      <c r="AK8" s="56"/>
-      <c r="AL8" s="56"/>
-      <c r="AM8" s="56"/>
-      <c r="AN8" s="56"/>
-      <c r="AO8" s="56"/>
-      <c r="AP8" s="56"/>
-      <c r="AQ8" s="56"/>
-      <c r="AR8" s="56"/>
-      <c r="AS8" s="56"/>
-      <c r="AT8" s="56"/>
-      <c r="AU8" s="56"/>
-      <c r="AV8" s="56"/>
-      <c r="AW8" s="56"/>
-      <c r="AX8" s="56"/>
-      <c r="AY8" s="56"/>
-      <c r="AZ8" s="56"/>
-      <c r="BA8" s="56"/>
-      <c r="BB8" s="56"/>
-      <c r="BC8" s="56"/>
-      <c r="BD8" s="56"/>
-      <c r="BE8" s="56"/>
-      <c r="BF8" s="56"/>
-      <c r="BG8" s="56"/>
-      <c r="BH8" s="56"/>
-      <c r="BI8" s="56"/>
-      <c r="BJ8" s="56"/>
-      <c r="BK8" s="56"/>
-      <c r="BL8" s="56"/>
-      <c r="BM8" s="56"/>
-      <c r="BN8" s="56"/>
-      <c r="BO8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="57"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="57"/>
+      <c r="AJ8" s="57"/>
+      <c r="AK8" s="57"/>
+      <c r="AL8" s="57"/>
+      <c r="AM8" s="57"/>
+      <c r="AN8" s="57"/>
+      <c r="AO8" s="57"/>
+      <c r="AP8" s="57"/>
+      <c r="AQ8" s="57"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="57"/>
+      <c r="AT8" s="57"/>
+      <c r="AU8" s="57"/>
+      <c r="AV8" s="57"/>
+      <c r="AW8" s="57"/>
+      <c r="AX8" s="57"/>
+      <c r="AY8" s="57"/>
+      <c r="AZ8" s="57"/>
+      <c r="BA8" s="57"/>
+      <c r="BB8" s="57"/>
+      <c r="BC8" s="57"/>
+      <c r="BD8" s="57"/>
+      <c r="BE8" s="57"/>
+      <c r="BF8" s="57"/>
+      <c r="BG8" s="57"/>
+      <c r="BH8" s="57"/>
+      <c r="BI8" s="57"/>
+      <c r="BJ8" s="57"/>
+      <c r="BK8" s="57"/>
+      <c r="BL8" s="57"/>
+      <c r="BM8" s="57"/>
+      <c r="BN8" s="57"/>
+      <c r="BO8" s="57"/>
       <c r="BP8"/>
       <c r="BQ8" s="4"/>
     </row>
@@ -1991,787 +1991,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="54" t="s">
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="57" t="s">
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="57"/>
-      <c r="AG11" s="57"/>
-      <c r="AH11" s="57"/>
-      <c r="AI11" s="58" t="s">
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="AJ11" s="58"/>
-      <c r="AK11" s="58"/>
-      <c r="AL11" s="58"/>
-      <c r="AM11" s="58"/>
-      <c r="AN11" s="58"/>
-      <c r="AO11" s="58"/>
-      <c r="AP11" s="58"/>
-      <c r="AQ11" s="58"/>
-      <c r="AR11" s="58"/>
-      <c r="AS11" s="58"/>
-      <c r="AT11" s="58"/>
-      <c r="AU11" s="58"/>
-      <c r="AV11" s="58"/>
-      <c r="AW11" s="58"/>
-      <c r="AX11" s="58"/>
-      <c r="AY11" s="58"/>
-      <c r="AZ11" s="58"/>
-      <c r="BA11" s="58"/>
-      <c r="BB11" s="58"/>
-      <c r="BC11" s="58"/>
-      <c r="BD11" s="58"/>
-      <c r="BE11" s="58"/>
-      <c r="BF11" s="58"/>
-      <c r="BG11" s="58"/>
-      <c r="BH11" s="58"/>
-      <c r="BI11" s="58"/>
-      <c r="BJ11" s="58"/>
-      <c r="BK11" s="58"/>
-      <c r="BL11" s="58"/>
-      <c r="BM11" s="58"/>
-      <c r="BN11" s="58"/>
-      <c r="BO11" s="58"/>
+      <c r="AJ11" s="53"/>
+      <c r="AK11" s="53"/>
+      <c r="AL11" s="53"/>
+      <c r="AM11" s="53"/>
+      <c r="AN11" s="53"/>
+      <c r="AO11" s="53"/>
+      <c r="AP11" s="53"/>
+      <c r="AQ11" s="53"/>
+      <c r="AR11" s="53"/>
+      <c r="AS11" s="53"/>
+      <c r="AT11" s="53"/>
+      <c r="AU11" s="53"/>
+      <c r="AV11" s="53"/>
+      <c r="AW11" s="53"/>
+      <c r="AX11" s="53"/>
+      <c r="AY11" s="53"/>
+      <c r="AZ11" s="53"/>
+      <c r="BA11" s="53"/>
+      <c r="BB11" s="53"/>
+      <c r="BC11" s="53"/>
+      <c r="BD11" s="53"/>
+      <c r="BE11" s="53"/>
+      <c r="BF11" s="53"/>
+      <c r="BG11" s="53"/>
+      <c r="BH11" s="53"/>
+      <c r="BI11" s="53"/>
+      <c r="BJ11" s="53"/>
+      <c r="BK11" s="53"/>
+      <c r="BL11" s="53"/>
+      <c r="BM11" s="53"/>
+      <c r="BN11" s="53"/>
+      <c r="BO11" s="53"/>
       <c r="BP11"/>
       <c r="BQ11" s="4"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="59"/>
-      <c r="AJ12" s="59"/>
-      <c r="AK12" s="59"/>
-      <c r="AL12" s="59"/>
-      <c r="AM12" s="59"/>
-      <c r="AN12" s="59"/>
-      <c r="AO12" s="59"/>
-      <c r="AP12" s="59"/>
-      <c r="AQ12" s="59"/>
-      <c r="AR12" s="59"/>
-      <c r="AS12" s="59"/>
-      <c r="AT12" s="59"/>
-      <c r="AU12" s="59"/>
-      <c r="AV12" s="59"/>
-      <c r="AW12" s="59"/>
-      <c r="AX12" s="59"/>
-      <c r="AY12" s="59"/>
-      <c r="AZ12" s="59"/>
-      <c r="BA12" s="59"/>
-      <c r="BB12" s="59"/>
-      <c r="BC12" s="59"/>
-      <c r="BD12" s="59"/>
-      <c r="BE12" s="59"/>
-      <c r="BF12" s="59"/>
-      <c r="BG12" s="59"/>
-      <c r="BH12" s="59"/>
-      <c r="BI12" s="59"/>
-      <c r="BJ12" s="59"/>
-      <c r="BK12" s="59"/>
-      <c r="BL12" s="59"/>
-      <c r="BM12" s="59"/>
-      <c r="BN12" s="59"/>
-      <c r="BO12" s="59"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="51"/>
+      <c r="AI12" s="51"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="51"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="51"/>
+      <c r="AN12" s="51"/>
+      <c r="AO12" s="51"/>
+      <c r="AP12" s="51"/>
+      <c r="AQ12" s="51"/>
+      <c r="AR12" s="51"/>
+      <c r="AS12" s="51"/>
+      <c r="AT12" s="51"/>
+      <c r="AU12" s="51"/>
+      <c r="AV12" s="51"/>
+      <c r="AW12" s="51"/>
+      <c r="AX12" s="51"/>
+      <c r="AY12" s="51"/>
+      <c r="AZ12" s="51"/>
+      <c r="BA12" s="51"/>
+      <c r="BB12" s="51"/>
+      <c r="BC12" s="51"/>
+      <c r="BD12" s="51"/>
+      <c r="BE12" s="51"/>
+      <c r="BF12" s="51"/>
+      <c r="BG12" s="51"/>
+      <c r="BH12" s="51"/>
+      <c r="BI12" s="51"/>
+      <c r="BJ12" s="51"/>
+      <c r="BK12" s="51"/>
+      <c r="BL12" s="51"/>
+      <c r="BM12" s="51"/>
+      <c r="BN12" s="51"/>
+      <c r="BO12" s="51"/>
       <c r="BP12"/>
       <c r="BQ12" s="4"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="59"/>
-      <c r="AJ13" s="59"/>
-      <c r="AK13" s="59"/>
-      <c r="AL13" s="59"/>
-      <c r="AM13" s="59"/>
-      <c r="AN13" s="59"/>
-      <c r="AO13" s="59"/>
-      <c r="AP13" s="59"/>
-      <c r="AQ13" s="59"/>
-      <c r="AR13" s="59"/>
-      <c r="AS13" s="59"/>
-      <c r="AT13" s="59"/>
-      <c r="AU13" s="59"/>
-      <c r="AV13" s="59"/>
-      <c r="AW13" s="59"/>
-      <c r="AX13" s="59"/>
-      <c r="AY13" s="59"/>
-      <c r="AZ13" s="59"/>
-      <c r="BA13" s="59"/>
-      <c r="BB13" s="59"/>
-      <c r="BC13" s="59"/>
-      <c r="BD13" s="59"/>
-      <c r="BE13" s="59"/>
-      <c r="BF13" s="59"/>
-      <c r="BG13" s="59"/>
-      <c r="BH13" s="59"/>
-      <c r="BI13" s="59"/>
-      <c r="BJ13" s="59"/>
-      <c r="BK13" s="59"/>
-      <c r="BL13" s="59"/>
-      <c r="BM13" s="59"/>
-      <c r="BN13" s="59"/>
-      <c r="BO13" s="59"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="51"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="51"/>
+      <c r="AI13" s="51"/>
+      <c r="AJ13" s="51"/>
+      <c r="AK13" s="51"/>
+      <c r="AL13" s="51"/>
+      <c r="AM13" s="51"/>
+      <c r="AN13" s="51"/>
+      <c r="AO13" s="51"/>
+      <c r="AP13" s="51"/>
+      <c r="AQ13" s="51"/>
+      <c r="AR13" s="51"/>
+      <c r="AS13" s="51"/>
+      <c r="AT13" s="51"/>
+      <c r="AU13" s="51"/>
+      <c r="AV13" s="51"/>
+      <c r="AW13" s="51"/>
+      <c r="AX13" s="51"/>
+      <c r="AY13" s="51"/>
+      <c r="AZ13" s="51"/>
+      <c r="BA13" s="51"/>
+      <c r="BB13" s="51"/>
+      <c r="BC13" s="51"/>
+      <c r="BD13" s="51"/>
+      <c r="BE13" s="51"/>
+      <c r="BF13" s="51"/>
+      <c r="BG13" s="51"/>
+      <c r="BH13" s="51"/>
+      <c r="BI13" s="51"/>
+      <c r="BJ13" s="51"/>
+      <c r="BK13" s="51"/>
+      <c r="BL13" s="51"/>
+      <c r="BM13" s="51"/>
+      <c r="BN13" s="51"/>
+      <c r="BO13" s="51"/>
       <c r="BP13"/>
       <c r="BQ13" s="4"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="64" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="64"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="64"/>
-      <c r="AH14" s="64"/>
-      <c r="AI14" s="64"/>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="64"/>
-      <c r="AL14" s="64"/>
-      <c r="AM14" s="64"/>
-      <c r="AN14" s="64"/>
-      <c r="AO14" s="64"/>
-      <c r="AP14" s="64"/>
-      <c r="AQ14" s="64"/>
-      <c r="AR14" s="64"/>
-      <c r="AS14" s="64"/>
-      <c r="AT14" s="64"/>
-      <c r="AU14" s="64"/>
-      <c r="AV14" s="64"/>
-      <c r="AW14" s="64"/>
-      <c r="AX14" s="64"/>
-      <c r="AY14" s="64"/>
-      <c r="AZ14" s="64"/>
-      <c r="BA14" s="64"/>
-      <c r="BB14" s="64"/>
-      <c r="BC14" s="64"/>
-      <c r="BD14" s="64"/>
-      <c r="BE14" s="64"/>
-      <c r="BF14" s="64"/>
-      <c r="BG14" s="64"/>
-      <c r="BH14" s="64"/>
-      <c r="BI14" s="64"/>
-      <c r="BJ14" s="64"/>
-      <c r="BK14" s="64"/>
-      <c r="BL14" s="64"/>
-      <c r="BM14" s="64"/>
-      <c r="BN14" s="64"/>
-      <c r="BO14" s="64"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="55"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="55"/>
+      <c r="AG14" s="55"/>
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="55"/>
+      <c r="AJ14" s="55"/>
+      <c r="AK14" s="55"/>
+      <c r="AL14" s="55"/>
+      <c r="AM14" s="55"/>
+      <c r="AN14" s="55"/>
+      <c r="AO14" s="55"/>
+      <c r="AP14" s="55"/>
+      <c r="AQ14" s="55"/>
+      <c r="AR14" s="55"/>
+      <c r="AS14" s="55"/>
+      <c r="AT14" s="55"/>
+      <c r="AU14" s="55"/>
+      <c r="AV14" s="55"/>
+      <c r="AW14" s="55"/>
+      <c r="AX14" s="55"/>
+      <c r="AY14" s="55"/>
+      <c r="AZ14" s="55"/>
+      <c r="BA14" s="55"/>
+      <c r="BB14" s="55"/>
+      <c r="BC14" s="55"/>
+      <c r="BD14" s="55"/>
+      <c r="BE14" s="55"/>
+      <c r="BF14" s="55"/>
+      <c r="BG14" s="55"/>
+      <c r="BH14" s="55"/>
+      <c r="BI14" s="55"/>
+      <c r="BJ14" s="55"/>
+      <c r="BK14" s="55"/>
+      <c r="BL14" s="55"/>
+      <c r="BM14" s="55"/>
+      <c r="BN14" s="55"/>
+      <c r="BO14" s="55"/>
       <c r="BP14"/>
       <c r="BQ14" s="4"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="65"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="65"/>
-      <c r="AI15" s="65"/>
-      <c r="AJ15" s="65"/>
-      <c r="AK15" s="65"/>
-      <c r="AL15" s="65"/>
-      <c r="AM15" s="65"/>
-      <c r="AN15" s="65"/>
-      <c r="AO15" s="65"/>
-      <c r="AP15" s="65"/>
-      <c r="AQ15" s="65"/>
-      <c r="AR15" s="65"/>
-      <c r="AS15" s="65"/>
-      <c r="AT15" s="65"/>
-      <c r="AU15" s="65"/>
-      <c r="AV15" s="65"/>
-      <c r="AW15" s="65"/>
-      <c r="AX15" s="65"/>
-      <c r="AY15" s="65"/>
-      <c r="AZ15" s="65"/>
-      <c r="BA15" s="65"/>
-      <c r="BB15" s="65"/>
-      <c r="BC15" s="65"/>
-      <c r="BD15" s="65"/>
-      <c r="BE15" s="65"/>
-      <c r="BF15" s="65"/>
-      <c r="BG15" s="65"/>
-      <c r="BH15" s="65"/>
-      <c r="BI15" s="65"/>
-      <c r="BJ15" s="65"/>
-      <c r="BK15" s="65"/>
-      <c r="BL15" s="65"/>
-      <c r="BM15" s="65"/>
-      <c r="BN15" s="65"/>
-      <c r="BO15" s="65"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="56"/>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="56"/>
+      <c r="AH15" s="56"/>
+      <c r="AI15" s="56"/>
+      <c r="AJ15" s="56"/>
+      <c r="AK15" s="56"/>
+      <c r="AL15" s="56"/>
+      <c r="AM15" s="56"/>
+      <c r="AN15" s="56"/>
+      <c r="AO15" s="56"/>
+      <c r="AP15" s="56"/>
+      <c r="AQ15" s="56"/>
+      <c r="AR15" s="56"/>
+      <c r="AS15" s="56"/>
+      <c r="AT15" s="56"/>
+      <c r="AU15" s="56"/>
+      <c r="AV15" s="56"/>
+      <c r="AW15" s="56"/>
+      <c r="AX15" s="56"/>
+      <c r="AY15" s="56"/>
+      <c r="AZ15" s="56"/>
+      <c r="BA15" s="56"/>
+      <c r="BB15" s="56"/>
+      <c r="BC15" s="56"/>
+      <c r="BD15" s="56"/>
+      <c r="BE15" s="56"/>
+      <c r="BF15" s="56"/>
+      <c r="BG15" s="56"/>
+      <c r="BH15" s="56"/>
+      <c r="BI15" s="56"/>
+      <c r="BJ15" s="56"/>
+      <c r="BK15" s="56"/>
+      <c r="BL15" s="56"/>
+      <c r="BM15" s="56"/>
+      <c r="BN15" s="56"/>
+      <c r="BO15" s="56"/>
       <c r="BP15"/>
       <c r="BQ15" s="4"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-      <c r="R16" s="65"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="65"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
-      <c r="AA16" s="65"/>
-      <c r="AB16" s="65"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="65"/>
-      <c r="AE16" s="65"/>
-      <c r="AF16" s="65"/>
-      <c r="AG16" s="65"/>
-      <c r="AH16" s="65"/>
-      <c r="AI16" s="65"/>
-      <c r="AJ16" s="65"/>
-      <c r="AK16" s="65"/>
-      <c r="AL16" s="65"/>
-      <c r="AM16" s="65"/>
-      <c r="AN16" s="65"/>
-      <c r="AO16" s="65"/>
-      <c r="AP16" s="65"/>
-      <c r="AQ16" s="65"/>
-      <c r="AR16" s="65"/>
-      <c r="AS16" s="65"/>
-      <c r="AT16" s="65"/>
-      <c r="AU16" s="65"/>
-      <c r="AV16" s="65"/>
-      <c r="AW16" s="65"/>
-      <c r="AX16" s="65"/>
-      <c r="AY16" s="65"/>
-      <c r="AZ16" s="65"/>
-      <c r="BA16" s="65"/>
-      <c r="BB16" s="65"/>
-      <c r="BC16" s="65"/>
-      <c r="BD16" s="65"/>
-      <c r="BE16" s="65"/>
-      <c r="BF16" s="65"/>
-      <c r="BG16" s="65"/>
-      <c r="BH16" s="65"/>
-      <c r="BI16" s="65"/>
-      <c r="BJ16" s="65"/>
-      <c r="BK16" s="65"/>
-      <c r="BL16" s="65"/>
-      <c r="BM16" s="65"/>
-      <c r="BN16" s="65"/>
-      <c r="BO16" s="65"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="56"/>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="56"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="56"/>
+      <c r="AP16" s="56"/>
+      <c r="AQ16" s="56"/>
+      <c r="AR16" s="56"/>
+      <c r="AS16" s="56"/>
+      <c r="AT16" s="56"/>
+      <c r="AU16" s="56"/>
+      <c r="AV16" s="56"/>
+      <c r="AW16" s="56"/>
+      <c r="AX16" s="56"/>
+      <c r="AY16" s="56"/>
+      <c r="AZ16" s="56"/>
+      <c r="BA16" s="56"/>
+      <c r="BB16" s="56"/>
+      <c r="BC16" s="56"/>
+      <c r="BD16" s="56"/>
+      <c r="BE16" s="56"/>
+      <c r="BF16" s="56"/>
+      <c r="BG16" s="56"/>
+      <c r="BH16" s="56"/>
+      <c r="BI16" s="56"/>
+      <c r="BJ16" s="56"/>
+      <c r="BK16" s="56"/>
+      <c r="BL16" s="56"/>
+      <c r="BM16" s="56"/>
+      <c r="BN16" s="56"/>
+      <c r="BO16" s="56"/>
       <c r="BP16"/>
       <c r="BQ16" s="4"/>
     </row>
     <row r="17" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="65"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="65"/>
-      <c r="AE17" s="65"/>
-      <c r="AF17" s="65"/>
-      <c r="AG17" s="65"/>
-      <c r="AH17" s="65"/>
-      <c r="AI17" s="65"/>
-      <c r="AJ17" s="65"/>
-      <c r="AK17" s="65"/>
-      <c r="AL17" s="65"/>
-      <c r="AM17" s="65"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="65"/>
-      <c r="AP17" s="65"/>
-      <c r="AQ17" s="65"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="65"/>
-      <c r="AT17" s="65"/>
-      <c r="AU17" s="65"/>
-      <c r="AV17" s="65"/>
-      <c r="AW17" s="65"/>
-      <c r="AX17" s="65"/>
-      <c r="AY17" s="65"/>
-      <c r="AZ17" s="65"/>
-      <c r="BA17" s="65"/>
-      <c r="BB17" s="65"/>
-      <c r="BC17" s="65"/>
-      <c r="BD17" s="65"/>
-      <c r="BE17" s="65"/>
-      <c r="BF17" s="65"/>
-      <c r="BG17" s="65"/>
-      <c r="BH17" s="65"/>
-      <c r="BI17" s="65"/>
-      <c r="BJ17" s="65"/>
-      <c r="BK17" s="65"/>
-      <c r="BL17" s="65"/>
-      <c r="BM17" s="65"/>
-      <c r="BN17" s="65"/>
-      <c r="BO17" s="65"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="56"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="56"/>
+      <c r="AM17" s="56"/>
+      <c r="AN17" s="56"/>
+      <c r="AO17" s="56"/>
+      <c r="AP17" s="56"/>
+      <c r="AQ17" s="56"/>
+      <c r="AR17" s="56"/>
+      <c r="AS17" s="56"/>
+      <c r="AT17" s="56"/>
+      <c r="AU17" s="56"/>
+      <c r="AV17" s="56"/>
+      <c r="AW17" s="56"/>
+      <c r="AX17" s="56"/>
+      <c r="AY17" s="56"/>
+      <c r="AZ17" s="56"/>
+      <c r="BA17" s="56"/>
+      <c r="BB17" s="56"/>
+      <c r="BC17" s="56"/>
+      <c r="BD17" s="56"/>
+      <c r="BE17" s="56"/>
+      <c r="BF17" s="56"/>
+      <c r="BG17" s="56"/>
+      <c r="BH17" s="56"/>
+      <c r="BI17" s="56"/>
+      <c r="BJ17" s="56"/>
+      <c r="BK17" s="56"/>
+      <c r="BL17" s="56"/>
+      <c r="BM17" s="56"/>
+      <c r="BN17" s="56"/>
+      <c r="BO17" s="56"/>
       <c r="BP17"/>
       <c r="BQ17" s="4"/>
     </row>
     <row r="18" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="65"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="65"/>
-      <c r="AG18" s="65"/>
-      <c r="AH18" s="65"/>
-      <c r="AI18" s="65"/>
-      <c r="AJ18" s="65"/>
-      <c r="AK18" s="65"/>
-      <c r="AL18" s="65"/>
-      <c r="AM18" s="65"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="65"/>
-      <c r="AP18" s="65"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="65"/>
-      <c r="AT18" s="65"/>
-      <c r="AU18" s="65"/>
-      <c r="AV18" s="65"/>
-      <c r="AW18" s="65"/>
-      <c r="AX18" s="65"/>
-      <c r="AY18" s="65"/>
-      <c r="AZ18" s="65"/>
-      <c r="BA18" s="65"/>
-      <c r="BB18" s="65"/>
-      <c r="BC18" s="65"/>
-      <c r="BD18" s="65"/>
-      <c r="BE18" s="65"/>
-      <c r="BF18" s="65"/>
-      <c r="BG18" s="65"/>
-      <c r="BH18" s="65"/>
-      <c r="BI18" s="65"/>
-      <c r="BJ18" s="65"/>
-      <c r="BK18" s="65"/>
-      <c r="BL18" s="65"/>
-      <c r="BM18" s="65"/>
-      <c r="BN18" s="65"/>
-      <c r="BO18" s="65"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="56"/>
+      <c r="AF18" s="56"/>
+      <c r="AG18" s="56"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="56"/>
+      <c r="AJ18" s="56"/>
+      <c r="AK18" s="56"/>
+      <c r="AL18" s="56"/>
+      <c r="AM18" s="56"/>
+      <c r="AN18" s="56"/>
+      <c r="AO18" s="56"/>
+      <c r="AP18" s="56"/>
+      <c r="AQ18" s="56"/>
+      <c r="AR18" s="56"/>
+      <c r="AS18" s="56"/>
+      <c r="AT18" s="56"/>
+      <c r="AU18" s="56"/>
+      <c r="AV18" s="56"/>
+      <c r="AW18" s="56"/>
+      <c r="AX18" s="56"/>
+      <c r="AY18" s="56"/>
+      <c r="AZ18" s="56"/>
+      <c r="BA18" s="56"/>
+      <c r="BB18" s="56"/>
+      <c r="BC18" s="56"/>
+      <c r="BD18" s="56"/>
+      <c r="BE18" s="56"/>
+      <c r="BF18" s="56"/>
+      <c r="BG18" s="56"/>
+      <c r="BH18" s="56"/>
+      <c r="BI18" s="56"/>
+      <c r="BJ18" s="56"/>
+      <c r="BK18" s="56"/>
+      <c r="BL18" s="56"/>
+      <c r="BM18" s="56"/>
+      <c r="BN18" s="56"/>
+      <c r="BO18" s="56"/>
       <c r="BP18"/>
       <c r="BQ18" s="4"/>
     </row>
     <row r="19" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="65"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="65"/>
-      <c r="AA19" s="65"/>
-      <c r="AB19" s="65"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="65"/>
-      <c r="AE19" s="65"/>
-      <c r="AF19" s="65"/>
-      <c r="AG19" s="65"/>
-      <c r="AH19" s="65"/>
-      <c r="AI19" s="65"/>
-      <c r="AJ19" s="65"/>
-      <c r="AK19" s="65"/>
-      <c r="AL19" s="65"/>
-      <c r="AM19" s="65"/>
-      <c r="AN19" s="65"/>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="65"/>
-      <c r="AS19" s="65"/>
-      <c r="AT19" s="65"/>
-      <c r="AU19" s="65"/>
-      <c r="AV19" s="65"/>
-      <c r="AW19" s="65"/>
-      <c r="AX19" s="65"/>
-      <c r="AY19" s="65"/>
-      <c r="AZ19" s="65"/>
-      <c r="BA19" s="65"/>
-      <c r="BB19" s="65"/>
-      <c r="BC19" s="65"/>
-      <c r="BD19" s="65"/>
-      <c r="BE19" s="65"/>
-      <c r="BF19" s="65"/>
-      <c r="BG19" s="65"/>
-      <c r="BH19" s="65"/>
-      <c r="BI19" s="65"/>
-      <c r="BJ19" s="65"/>
-      <c r="BK19" s="65"/>
-      <c r="BL19" s="65"/>
-      <c r="BM19" s="65"/>
-      <c r="BN19" s="65"/>
-      <c r="BO19" s="65"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="56"/>
+      <c r="AF19" s="56"/>
+      <c r="AG19" s="56"/>
+      <c r="AH19" s="56"/>
+      <c r="AI19" s="56"/>
+      <c r="AJ19" s="56"/>
+      <c r="AK19" s="56"/>
+      <c r="AL19" s="56"/>
+      <c r="AM19" s="56"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="56"/>
+      <c r="AP19" s="56"/>
+      <c r="AQ19" s="56"/>
+      <c r="AR19" s="56"/>
+      <c r="AS19" s="56"/>
+      <c r="AT19" s="56"/>
+      <c r="AU19" s="56"/>
+      <c r="AV19" s="56"/>
+      <c r="AW19" s="56"/>
+      <c r="AX19" s="56"/>
+      <c r="AY19" s="56"/>
+      <c r="AZ19" s="56"/>
+      <c r="BA19" s="56"/>
+      <c r="BB19" s="56"/>
+      <c r="BC19" s="56"/>
+      <c r="BD19" s="56"/>
+      <c r="BE19" s="56"/>
+      <c r="BF19" s="56"/>
+      <c r="BG19" s="56"/>
+      <c r="BH19" s="56"/>
+      <c r="BI19" s="56"/>
+      <c r="BJ19" s="56"/>
+      <c r="BK19" s="56"/>
+      <c r="BL19" s="56"/>
+      <c r="BM19" s="56"/>
+      <c r="BN19" s="56"/>
+      <c r="BO19" s="56"/>
       <c r="BP19"/>
       <c r="BQ19" s="4"/>
     </row>
     <row r="20" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="65"/>
-      <c r="AF20" s="65"/>
-      <c r="AG20" s="65"/>
-      <c r="AH20" s="65"/>
-      <c r="AI20" s="65"/>
-      <c r="AJ20" s="65"/>
-      <c r="AK20" s="65"/>
-      <c r="AL20" s="65"/>
-      <c r="AM20" s="65"/>
-      <c r="AN20" s="65"/>
-      <c r="AO20" s="65"/>
-      <c r="AP20" s="65"/>
-      <c r="AQ20" s="65"/>
-      <c r="AR20" s="65"/>
-      <c r="AS20" s="65"/>
-      <c r="AT20" s="65"/>
-      <c r="AU20" s="65"/>
-      <c r="AV20" s="65"/>
-      <c r="AW20" s="65"/>
-      <c r="AX20" s="65"/>
-      <c r="AY20" s="65"/>
-      <c r="AZ20" s="65"/>
-      <c r="BA20" s="65"/>
-      <c r="BB20" s="65"/>
-      <c r="BC20" s="65"/>
-      <c r="BD20" s="65"/>
-      <c r="BE20" s="65"/>
-      <c r="BF20" s="65"/>
-      <c r="BG20" s="65"/>
-      <c r="BH20" s="65"/>
-      <c r="BI20" s="65"/>
-      <c r="BJ20" s="65"/>
-      <c r="BK20" s="65"/>
-      <c r="BL20" s="65"/>
-      <c r="BM20" s="65"/>
-      <c r="BN20" s="65"/>
-      <c r="BO20" s="65"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="56"/>
+      <c r="AL20" s="56"/>
+      <c r="AM20" s="56"/>
+      <c r="AN20" s="56"/>
+      <c r="AO20" s="56"/>
+      <c r="AP20" s="56"/>
+      <c r="AQ20" s="56"/>
+      <c r="AR20" s="56"/>
+      <c r="AS20" s="56"/>
+      <c r="AT20" s="56"/>
+      <c r="AU20" s="56"/>
+      <c r="AV20" s="56"/>
+      <c r="AW20" s="56"/>
+      <c r="AX20" s="56"/>
+      <c r="AY20" s="56"/>
+      <c r="AZ20" s="56"/>
+      <c r="BA20" s="56"/>
+      <c r="BB20" s="56"/>
+      <c r="BC20" s="56"/>
+      <c r="BD20" s="56"/>
+      <c r="BE20" s="56"/>
+      <c r="BF20" s="56"/>
+      <c r="BG20" s="56"/>
+      <c r="BH20" s="56"/>
+      <c r="BI20" s="56"/>
+      <c r="BJ20" s="56"/>
+      <c r="BK20" s="56"/>
+      <c r="BL20" s="56"/>
+      <c r="BM20" s="56"/>
+      <c r="BN20" s="56"/>
+      <c r="BO20" s="56"/>
       <c r="BP20"/>
       <c r="BQ20" s="4"/>
     </row>
     <row r="21" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="66"/>
-      <c r="AM21" s="66"/>
-      <c r="AN21" s="66"/>
-      <c r="AO21" s="66"/>
-      <c r="AP21" s="66"/>
-      <c r="AQ21" s="66"/>
-      <c r="AR21" s="66"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="66"/>
-      <c r="AU21" s="66"/>
-      <c r="AV21" s="66"/>
-      <c r="AW21" s="66"/>
-      <c r="AX21" s="66"/>
-      <c r="AY21" s="66"/>
-      <c r="AZ21" s="66"/>
-      <c r="BA21" s="66"/>
-      <c r="BB21" s="66"/>
-      <c r="BC21" s="66"/>
-      <c r="BD21" s="66"/>
-      <c r="BE21" s="66"/>
-      <c r="BF21" s="66"/>
-      <c r="BG21" s="66"/>
-      <c r="BH21" s="66"/>
-      <c r="BI21" s="66"/>
-      <c r="BJ21" s="66"/>
-      <c r="BK21" s="66"/>
-      <c r="BL21" s="66"/>
-      <c r="BM21" s="66"/>
-      <c r="BN21" s="66"/>
-      <c r="BO21" s="66"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="54"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="54"/>
+      <c r="AE21" s="54"/>
+      <c r="AF21" s="54"/>
+      <c r="AG21" s="54"/>
+      <c r="AH21" s="54"/>
+      <c r="AI21" s="54"/>
+      <c r="AJ21" s="54"/>
+      <c r="AK21" s="54"/>
+      <c r="AL21" s="54"/>
+      <c r="AM21" s="54"/>
+      <c r="AN21" s="54"/>
+      <c r="AO21" s="54"/>
+      <c r="AP21" s="54"/>
+      <c r="AQ21" s="54"/>
+      <c r="AR21" s="54"/>
+      <c r="AS21" s="54"/>
+      <c r="AT21" s="54"/>
+      <c r="AU21" s="54"/>
+      <c r="AV21" s="54"/>
+      <c r="AW21" s="54"/>
+      <c r="AX21" s="54"/>
+      <c r="AY21" s="54"/>
+      <c r="AZ21" s="54"/>
+      <c r="BA21" s="54"/>
+      <c r="BB21" s="54"/>
+      <c r="BC21" s="54"/>
+      <c r="BD21" s="54"/>
+      <c r="BE21" s="54"/>
+      <c r="BF21" s="54"/>
+      <c r="BG21" s="54"/>
+      <c r="BH21" s="54"/>
+      <c r="BI21" s="54"/>
+      <c r="BJ21" s="54"/>
+      <c r="BK21" s="54"/>
+      <c r="BL21" s="54"/>
+      <c r="BM21" s="54"/>
+      <c r="BN21" s="54"/>
+      <c r="BO21" s="54"/>
       <c r="BP21"/>
       <c r="BQ21" s="4"/>
     </row>
@@ -2801,85 +2801,85 @@
     </row>
     <row r="25" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54" t="s">
+      <c r="D25" s="50"/>
+      <c r="E25" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54" t="s">
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="59" t="s">
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="57" t="s">
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="51"/>
+      <c r="AB25" s="51"/>
+      <c r="AC25" s="51"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="57"/>
-      <c r="AG25" s="57"/>
-      <c r="AH25" s="57"/>
-      <c r="AI25" s="57"/>
-      <c r="AJ25" s="57"/>
-      <c r="AK25" s="57"/>
-      <c r="AL25" s="57"/>
-      <c r="AM25" s="57"/>
-      <c r="AN25" s="57"/>
-      <c r="AO25" s="57"/>
-      <c r="AP25" s="57"/>
-      <c r="AQ25" s="57"/>
-      <c r="AR25" s="57"/>
-      <c r="AS25" s="57"/>
-      <c r="AT25" s="57"/>
-      <c r="AU25" s="57"/>
-      <c r="AV25" s="57"/>
-      <c r="AW25" s="57"/>
-      <c r="AX25" s="57"/>
-      <c r="AY25" s="57"/>
-      <c r="AZ25" s="57"/>
-      <c r="BA25" s="57"/>
-      <c r="BB25" s="57"/>
-      <c r="BC25" s="57"/>
-      <c r="BD25" s="57" t="s">
+      <c r="AF25" s="49"/>
+      <c r="AG25" s="49"/>
+      <c r="AH25" s="49"/>
+      <c r="AI25" s="49"/>
+      <c r="AJ25" s="49"/>
+      <c r="AK25" s="49"/>
+      <c r="AL25" s="49"/>
+      <c r="AM25" s="49"/>
+      <c r="AN25" s="49"/>
+      <c r="AO25" s="49"/>
+      <c r="AP25" s="49"/>
+      <c r="AQ25" s="49"/>
+      <c r="AR25" s="49"/>
+      <c r="AS25" s="49"/>
+      <c r="AT25" s="49"/>
+      <c r="AU25" s="49"/>
+      <c r="AV25" s="49"/>
+      <c r="AW25" s="49"/>
+      <c r="AX25" s="49"/>
+      <c r="AY25" s="49"/>
+      <c r="AZ25" s="49"/>
+      <c r="BA25" s="49"/>
+      <c r="BB25" s="49"/>
+      <c r="BC25" s="49"/>
+      <c r="BD25" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="BE25" s="57"/>
-      <c r="BF25" s="57"/>
-      <c r="BG25" s="57"/>
-      <c r="BH25" s="57"/>
-      <c r="BI25" s="57"/>
-      <c r="BJ25" s="57"/>
-      <c r="BK25" s="57" t="s">
+      <c r="BE25" s="49"/>
+      <c r="BF25" s="49"/>
+      <c r="BG25" s="49"/>
+      <c r="BH25" s="49"/>
+      <c r="BI25" s="49"/>
+      <c r="BJ25" s="49"/>
+      <c r="BK25" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="BL25" s="57"/>
-      <c r="BM25" s="57"/>
-      <c r="BN25" s="57"/>
-      <c r="BO25" s="57"/>
+      <c r="BL25" s="49"/>
+      <c r="BM25" s="49"/>
+      <c r="BN25" s="49"/>
+      <c r="BO25" s="49"/>
       <c r="BP25"/>
       <c r="BQ25" s="4"/>
       <c r="AMM25"/>
@@ -2896,81 +2896,81 @@
     </row>
     <row r="26" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="C26" s="54">
+      <c r="C26" s="50">
         <v>1</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="57" t="s">
+      <c r="D26" s="50"/>
+      <c r="E26" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="59" t="s">
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="57" t="s">
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
-      <c r="AJ26" s="57"/>
-      <c r="AK26" s="57"/>
-      <c r="AL26" s="57"/>
-      <c r="AM26" s="57"/>
-      <c r="AN26" s="57"/>
-      <c r="AO26" s="57"/>
-      <c r="AP26" s="57"/>
-      <c r="AQ26" s="57"/>
-      <c r="AR26" s="57"/>
-      <c r="AS26" s="57"/>
-      <c r="AT26" s="57"/>
-      <c r="AU26" s="57"/>
-      <c r="AV26" s="57"/>
-      <c r="AW26" s="57"/>
-      <c r="AX26" s="57"/>
-      <c r="AY26" s="57"/>
-      <c r="AZ26" s="57"/>
-      <c r="BA26" s="57"/>
-      <c r="BB26" s="57"/>
-      <c r="BC26" s="57"/>
-      <c r="BD26" s="57" t="s">
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="49"/>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="49"/>
+      <c r="AK26" s="49"/>
+      <c r="AL26" s="49"/>
+      <c r="AM26" s="49"/>
+      <c r="AN26" s="49"/>
+      <c r="AO26" s="49"/>
+      <c r="AP26" s="49"/>
+      <c r="AQ26" s="49"/>
+      <c r="AR26" s="49"/>
+      <c r="AS26" s="49"/>
+      <c r="AT26" s="49"/>
+      <c r="AU26" s="49"/>
+      <c r="AV26" s="49"/>
+      <c r="AW26" s="49"/>
+      <c r="AX26" s="49"/>
+      <c r="AY26" s="49"/>
+      <c r="AZ26" s="49"/>
+      <c r="BA26" s="49"/>
+      <c r="BB26" s="49"/>
+      <c r="BC26" s="49"/>
+      <c r="BD26" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="BE26" s="57"/>
-      <c r="BF26" s="57"/>
-      <c r="BG26" s="57"/>
-      <c r="BH26" s="57"/>
-      <c r="BI26" s="57"/>
-      <c r="BJ26" s="57"/>
-      <c r="BK26" s="57"/>
-      <c r="BL26" s="57"/>
-      <c r="BM26" s="57"/>
-      <c r="BN26" s="57"/>
-      <c r="BO26" s="57"/>
+      <c r="BE26" s="49"/>
+      <c r="BF26" s="49"/>
+      <c r="BG26" s="49"/>
+      <c r="BH26" s="49"/>
+      <c r="BI26" s="49"/>
+      <c r="BJ26" s="49"/>
+      <c r="BK26" s="49"/>
+      <c r="BL26" s="49"/>
+      <c r="BM26" s="49"/>
+      <c r="BN26" s="49"/>
+      <c r="BO26" s="49"/>
       <c r="BQ26" s="4"/>
       <c r="AMM26"/>
       <c r="AMN26"/>
@@ -2986,73 +2986,73 @@
     </row>
     <row r="27" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="C27" s="54">
+      <c r="C27" s="50">
         <v>2</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="58"/>
-      <c r="W27" s="58"/>
-      <c r="X27" s="58"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="58"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="58"/>
-      <c r="AD27" s="58"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="57"/>
-      <c r="AG27" s="57"/>
-      <c r="AH27" s="57"/>
-      <c r="AI27" s="57"/>
-      <c r="AJ27" s="57"/>
-      <c r="AK27" s="57"/>
-      <c r="AL27" s="57"/>
-      <c r="AM27" s="57"/>
-      <c r="AN27" s="57"/>
-      <c r="AO27" s="57"/>
-      <c r="AP27" s="57"/>
-      <c r="AQ27" s="57"/>
-      <c r="AR27" s="57"/>
-      <c r="AS27" s="57"/>
-      <c r="AT27" s="57"/>
-      <c r="AU27" s="57"/>
-      <c r="AV27" s="57"/>
-      <c r="AW27" s="57"/>
-      <c r="AX27" s="57"/>
-      <c r="AY27" s="57"/>
-      <c r="AZ27" s="57"/>
-      <c r="BA27" s="57"/>
-      <c r="BB27" s="57"/>
-      <c r="BC27" s="57"/>
-      <c r="BD27" s="57"/>
-      <c r="BE27" s="57"/>
-      <c r="BF27" s="57"/>
-      <c r="BG27" s="57"/>
-      <c r="BH27" s="57"/>
-      <c r="BI27" s="57"/>
-      <c r="BJ27" s="57"/>
-      <c r="BK27" s="57"/>
-      <c r="BL27" s="57"/>
-      <c r="BM27" s="57"/>
-      <c r="BN27" s="57"/>
-      <c r="BO27" s="57"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="53"/>
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="49"/>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="49"/>
+      <c r="AI27" s="49"/>
+      <c r="AJ27" s="49"/>
+      <c r="AK27" s="49"/>
+      <c r="AL27" s="49"/>
+      <c r="AM27" s="49"/>
+      <c r="AN27" s="49"/>
+      <c r="AO27" s="49"/>
+      <c r="AP27" s="49"/>
+      <c r="AQ27" s="49"/>
+      <c r="AR27" s="49"/>
+      <c r="AS27" s="49"/>
+      <c r="AT27" s="49"/>
+      <c r="AU27" s="49"/>
+      <c r="AV27" s="49"/>
+      <c r="AW27" s="49"/>
+      <c r="AX27" s="49"/>
+      <c r="AY27" s="49"/>
+      <c r="AZ27" s="49"/>
+      <c r="BA27" s="49"/>
+      <c r="BB27" s="49"/>
+      <c r="BC27" s="49"/>
+      <c r="BD27" s="49"/>
+      <c r="BE27" s="49"/>
+      <c r="BF27" s="49"/>
+      <c r="BG27" s="49"/>
+      <c r="BH27" s="49"/>
+      <c r="BI27" s="49"/>
+      <c r="BJ27" s="49"/>
+      <c r="BK27" s="49"/>
+      <c r="BL27" s="49"/>
+      <c r="BM27" s="49"/>
+      <c r="BN27" s="49"/>
+      <c r="BO27" s="49"/>
       <c r="BQ27" s="4"/>
       <c r="AMM27"/>
       <c r="AMN27"/>
@@ -3068,73 +3068,73 @@
     </row>
     <row r="28" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="C28" s="54">
+      <c r="C28" s="50">
         <v>3</v>
       </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="57"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="57"/>
-      <c r="AJ28" s="57"/>
-      <c r="AK28" s="57"/>
-      <c r="AL28" s="57"/>
-      <c r="AM28" s="57"/>
-      <c r="AN28" s="57"/>
-      <c r="AO28" s="57"/>
-      <c r="AP28" s="57"/>
-      <c r="AQ28" s="57"/>
-      <c r="AR28" s="57"/>
-      <c r="AS28" s="57"/>
-      <c r="AT28" s="57"/>
-      <c r="AU28" s="57"/>
-      <c r="AV28" s="57"/>
-      <c r="AW28" s="57"/>
-      <c r="AX28" s="57"/>
-      <c r="AY28" s="57"/>
-      <c r="AZ28" s="57"/>
-      <c r="BA28" s="57"/>
-      <c r="BB28" s="57"/>
-      <c r="BC28" s="57"/>
-      <c r="BD28" s="57"/>
-      <c r="BE28" s="57"/>
-      <c r="BF28" s="57"/>
-      <c r="BG28" s="57"/>
-      <c r="BH28" s="57"/>
-      <c r="BI28" s="57"/>
-      <c r="BJ28" s="57"/>
-      <c r="BK28" s="57"/>
-      <c r="BL28" s="57"/>
-      <c r="BM28" s="57"/>
-      <c r="BN28" s="57"/>
-      <c r="BO28" s="57"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="51"/>
+      <c r="AB28" s="51"/>
+      <c r="AC28" s="51"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="49"/>
+      <c r="AF28" s="49"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="49"/>
+      <c r="AM28" s="49"/>
+      <c r="AN28" s="49"/>
+      <c r="AO28" s="49"/>
+      <c r="AP28" s="49"/>
+      <c r="AQ28" s="49"/>
+      <c r="AR28" s="49"/>
+      <c r="AS28" s="49"/>
+      <c r="AT28" s="49"/>
+      <c r="AU28" s="49"/>
+      <c r="AV28" s="49"/>
+      <c r="AW28" s="49"/>
+      <c r="AX28" s="49"/>
+      <c r="AY28" s="49"/>
+      <c r="AZ28" s="49"/>
+      <c r="BA28" s="49"/>
+      <c r="BB28" s="49"/>
+      <c r="BC28" s="49"/>
+      <c r="BD28" s="49"/>
+      <c r="BE28" s="49"/>
+      <c r="BF28" s="49"/>
+      <c r="BG28" s="49"/>
+      <c r="BH28" s="49"/>
+      <c r="BI28" s="49"/>
+      <c r="BJ28" s="49"/>
+      <c r="BK28" s="49"/>
+      <c r="BL28" s="49"/>
+      <c r="BM28" s="49"/>
+      <c r="BN28" s="49"/>
+      <c r="BO28" s="49"/>
       <c r="BP28"/>
       <c r="BQ28" s="4"/>
       <c r="AMM28"/>
@@ -3151,73 +3151,73 @@
     </row>
     <row r="29" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="C29" s="54">
+      <c r="C29" s="50">
         <v>4</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
-      <c r="AA29" s="59"/>
-      <c r="AB29" s="59"/>
-      <c r="AC29" s="59"/>
-      <c r="AD29" s="59"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="57"/>
-      <c r="AG29" s="57"/>
-      <c r="AH29" s="57"/>
-      <c r="AI29" s="57"/>
-      <c r="AJ29" s="57"/>
-      <c r="AK29" s="57"/>
-      <c r="AL29" s="57"/>
-      <c r="AM29" s="57"/>
-      <c r="AN29" s="57"/>
-      <c r="AO29" s="57"/>
-      <c r="AP29" s="57"/>
-      <c r="AQ29" s="57"/>
-      <c r="AR29" s="57"/>
-      <c r="AS29" s="57"/>
-      <c r="AT29" s="57"/>
-      <c r="AU29" s="57"/>
-      <c r="AV29" s="57"/>
-      <c r="AW29" s="57"/>
-      <c r="AX29" s="57"/>
-      <c r="AY29" s="57"/>
-      <c r="AZ29" s="57"/>
-      <c r="BA29" s="57"/>
-      <c r="BB29" s="57"/>
-      <c r="BC29" s="57"/>
-      <c r="BD29" s="57"/>
-      <c r="BE29" s="57"/>
-      <c r="BF29" s="57"/>
-      <c r="BG29" s="57"/>
-      <c r="BH29" s="57"/>
-      <c r="BI29" s="57"/>
-      <c r="BJ29" s="57"/>
-      <c r="BK29" s="57"/>
-      <c r="BL29" s="57"/>
-      <c r="BM29" s="57"/>
-      <c r="BN29" s="57"/>
-      <c r="BO29" s="57"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="49"/>
+      <c r="AF29" s="49"/>
+      <c r="AG29" s="49"/>
+      <c r="AH29" s="49"/>
+      <c r="AI29" s="49"/>
+      <c r="AJ29" s="49"/>
+      <c r="AK29" s="49"/>
+      <c r="AL29" s="49"/>
+      <c r="AM29" s="49"/>
+      <c r="AN29" s="49"/>
+      <c r="AO29" s="49"/>
+      <c r="AP29" s="49"/>
+      <c r="AQ29" s="49"/>
+      <c r="AR29" s="49"/>
+      <c r="AS29" s="49"/>
+      <c r="AT29" s="49"/>
+      <c r="AU29" s="49"/>
+      <c r="AV29" s="49"/>
+      <c r="AW29" s="49"/>
+      <c r="AX29" s="49"/>
+      <c r="AY29" s="49"/>
+      <c r="AZ29" s="49"/>
+      <c r="BA29" s="49"/>
+      <c r="BB29" s="49"/>
+      <c r="BC29" s="49"/>
+      <c r="BD29" s="49"/>
+      <c r="BE29" s="49"/>
+      <c r="BF29" s="49"/>
+      <c r="BG29" s="49"/>
+      <c r="BH29" s="49"/>
+      <c r="BI29" s="49"/>
+      <c r="BJ29" s="49"/>
+      <c r="BK29" s="49"/>
+      <c r="BL29" s="49"/>
+      <c r="BM29" s="49"/>
+      <c r="BN29" s="49"/>
+      <c r="BO29" s="49"/>
       <c r="BP29"/>
       <c r="BQ29" s="4"/>
       <c r="AMM29"/>
@@ -3234,73 +3234,73 @@
     </row>
     <row r="30" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="C30" s="54">
+      <c r="C30" s="50">
         <v>5</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="59"/>
-      <c r="AA30" s="59"/>
-      <c r="AB30" s="59"/>
-      <c r="AC30" s="59"/>
-      <c r="AD30" s="59"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="57"/>
-      <c r="AG30" s="57"/>
-      <c r="AH30" s="57"/>
-      <c r="AI30" s="57"/>
-      <c r="AJ30" s="57"/>
-      <c r="AK30" s="57"/>
-      <c r="AL30" s="57"/>
-      <c r="AM30" s="57"/>
-      <c r="AN30" s="57"/>
-      <c r="AO30" s="57"/>
-      <c r="AP30" s="57"/>
-      <c r="AQ30" s="57"/>
-      <c r="AR30" s="57"/>
-      <c r="AS30" s="57"/>
-      <c r="AT30" s="57"/>
-      <c r="AU30" s="57"/>
-      <c r="AV30" s="57"/>
-      <c r="AW30" s="57"/>
-      <c r="AX30" s="57"/>
-      <c r="AY30" s="57"/>
-      <c r="AZ30" s="57"/>
-      <c r="BA30" s="57"/>
-      <c r="BB30" s="57"/>
-      <c r="BC30" s="57"/>
-      <c r="BD30" s="57"/>
-      <c r="BE30" s="57"/>
-      <c r="BF30" s="57"/>
-      <c r="BG30" s="57"/>
-      <c r="BH30" s="57"/>
-      <c r="BI30" s="57"/>
-      <c r="BJ30" s="57"/>
-      <c r="BK30" s="57"/>
-      <c r="BL30" s="57"/>
-      <c r="BM30" s="57"/>
-      <c r="BN30" s="57"/>
-      <c r="BO30" s="57"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="49"/>
+      <c r="AF30" s="49"/>
+      <c r="AG30" s="49"/>
+      <c r="AH30" s="49"/>
+      <c r="AI30" s="49"/>
+      <c r="AJ30" s="49"/>
+      <c r="AK30" s="49"/>
+      <c r="AL30" s="49"/>
+      <c r="AM30" s="49"/>
+      <c r="AN30" s="49"/>
+      <c r="AO30" s="49"/>
+      <c r="AP30" s="49"/>
+      <c r="AQ30" s="49"/>
+      <c r="AR30" s="49"/>
+      <c r="AS30" s="49"/>
+      <c r="AT30" s="49"/>
+      <c r="AU30" s="49"/>
+      <c r="AV30" s="49"/>
+      <c r="AW30" s="49"/>
+      <c r="AX30" s="49"/>
+      <c r="AY30" s="49"/>
+      <c r="AZ30" s="49"/>
+      <c r="BA30" s="49"/>
+      <c r="BB30" s="49"/>
+      <c r="BC30" s="49"/>
+      <c r="BD30" s="49"/>
+      <c r="BE30" s="49"/>
+      <c r="BF30" s="49"/>
+      <c r="BG30" s="49"/>
+      <c r="BH30" s="49"/>
+      <c r="BI30" s="49"/>
+      <c r="BJ30" s="49"/>
+      <c r="BK30" s="49"/>
+      <c r="BL30" s="49"/>
+      <c r="BM30" s="49"/>
+      <c r="BN30" s="49"/>
+      <c r="BO30" s="49"/>
       <c r="BP30"/>
       <c r="BQ30" s="4"/>
       <c r="AMM30"/>
@@ -3317,73 +3317,73 @@
     </row>
     <row r="31" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="C31" s="54">
+      <c r="C31" s="50">
         <v>6</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="59"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="57"/>
-      <c r="AG31" s="57"/>
-      <c r="AH31" s="57"/>
-      <c r="AI31" s="57"/>
-      <c r="AJ31" s="57"/>
-      <c r="AK31" s="57"/>
-      <c r="AL31" s="57"/>
-      <c r="AM31" s="57"/>
-      <c r="AN31" s="57"/>
-      <c r="AO31" s="57"/>
-      <c r="AP31" s="57"/>
-      <c r="AQ31" s="57"/>
-      <c r="AR31" s="57"/>
-      <c r="AS31" s="57"/>
-      <c r="AT31" s="57"/>
-      <c r="AU31" s="57"/>
-      <c r="AV31" s="57"/>
-      <c r="AW31" s="57"/>
-      <c r="AX31" s="57"/>
-      <c r="AY31" s="57"/>
-      <c r="AZ31" s="57"/>
-      <c r="BA31" s="57"/>
-      <c r="BB31" s="57"/>
-      <c r="BC31" s="57"/>
-      <c r="BD31" s="57"/>
-      <c r="BE31" s="57"/>
-      <c r="BF31" s="57"/>
-      <c r="BG31" s="57"/>
-      <c r="BH31" s="57"/>
-      <c r="BI31" s="57"/>
-      <c r="BJ31" s="57"/>
-      <c r="BK31" s="57"/>
-      <c r="BL31" s="57"/>
-      <c r="BM31" s="57"/>
-      <c r="BN31" s="57"/>
-      <c r="BO31" s="57"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="49"/>
+      <c r="AF31" s="49"/>
+      <c r="AG31" s="49"/>
+      <c r="AH31" s="49"/>
+      <c r="AI31" s="49"/>
+      <c r="AJ31" s="49"/>
+      <c r="AK31" s="49"/>
+      <c r="AL31" s="49"/>
+      <c r="AM31" s="49"/>
+      <c r="AN31" s="49"/>
+      <c r="AO31" s="49"/>
+      <c r="AP31" s="49"/>
+      <c r="AQ31" s="49"/>
+      <c r="AR31" s="49"/>
+      <c r="AS31" s="49"/>
+      <c r="AT31" s="49"/>
+      <c r="AU31" s="49"/>
+      <c r="AV31" s="49"/>
+      <c r="AW31" s="49"/>
+      <c r="AX31" s="49"/>
+      <c r="AY31" s="49"/>
+      <c r="AZ31" s="49"/>
+      <c r="BA31" s="49"/>
+      <c r="BB31" s="49"/>
+      <c r="BC31" s="49"/>
+      <c r="BD31" s="49"/>
+      <c r="BE31" s="49"/>
+      <c r="BF31" s="49"/>
+      <c r="BG31" s="49"/>
+      <c r="BH31" s="49"/>
+      <c r="BI31" s="49"/>
+      <c r="BJ31" s="49"/>
+      <c r="BK31" s="49"/>
+      <c r="BL31" s="49"/>
+      <c r="BM31" s="49"/>
+      <c r="BN31" s="49"/>
+      <c r="BO31" s="49"/>
       <c r="BP31"/>
       <c r="BQ31" s="4"/>
       <c r="AMM31"/>
@@ -3400,73 +3400,73 @@
     </row>
     <row r="32" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="C32" s="54">
+      <c r="C32" s="50">
         <v>7</v>
       </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="59"/>
-      <c r="AE32" s="57"/>
-      <c r="AF32" s="57"/>
-      <c r="AG32" s="57"/>
-      <c r="AH32" s="57"/>
-      <c r="AI32" s="57"/>
-      <c r="AJ32" s="57"/>
-      <c r="AK32" s="57"/>
-      <c r="AL32" s="57"/>
-      <c r="AM32" s="57"/>
-      <c r="AN32" s="57"/>
-      <c r="AO32" s="57"/>
-      <c r="AP32" s="57"/>
-      <c r="AQ32" s="57"/>
-      <c r="AR32" s="57"/>
-      <c r="AS32" s="57"/>
-      <c r="AT32" s="57"/>
-      <c r="AU32" s="57"/>
-      <c r="AV32" s="57"/>
-      <c r="AW32" s="57"/>
-      <c r="AX32" s="57"/>
-      <c r="AY32" s="57"/>
-      <c r="AZ32" s="57"/>
-      <c r="BA32" s="57"/>
-      <c r="BB32" s="57"/>
-      <c r="BC32" s="57"/>
-      <c r="BD32" s="57"/>
-      <c r="BE32" s="57"/>
-      <c r="BF32" s="57"/>
-      <c r="BG32" s="57"/>
-      <c r="BH32" s="57"/>
-      <c r="BI32" s="57"/>
-      <c r="BJ32" s="57"/>
-      <c r="BK32" s="57"/>
-      <c r="BL32" s="57"/>
-      <c r="BM32" s="57"/>
-      <c r="BN32" s="57"/>
-      <c r="BO32" s="57"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="49"/>
+      <c r="AF32" s="49"/>
+      <c r="AG32" s="49"/>
+      <c r="AH32" s="49"/>
+      <c r="AI32" s="49"/>
+      <c r="AJ32" s="49"/>
+      <c r="AK32" s="49"/>
+      <c r="AL32" s="49"/>
+      <c r="AM32" s="49"/>
+      <c r="AN32" s="49"/>
+      <c r="AO32" s="49"/>
+      <c r="AP32" s="49"/>
+      <c r="AQ32" s="49"/>
+      <c r="AR32" s="49"/>
+      <c r="AS32" s="49"/>
+      <c r="AT32" s="49"/>
+      <c r="AU32" s="49"/>
+      <c r="AV32" s="49"/>
+      <c r="AW32" s="49"/>
+      <c r="AX32" s="49"/>
+      <c r="AY32" s="49"/>
+      <c r="AZ32" s="49"/>
+      <c r="BA32" s="49"/>
+      <c r="BB32" s="49"/>
+      <c r="BC32" s="49"/>
+      <c r="BD32" s="49"/>
+      <c r="BE32" s="49"/>
+      <c r="BF32" s="49"/>
+      <c r="BG32" s="49"/>
+      <c r="BH32" s="49"/>
+      <c r="BI32" s="49"/>
+      <c r="BJ32" s="49"/>
+      <c r="BK32" s="49"/>
+      <c r="BL32" s="49"/>
+      <c r="BM32" s="49"/>
+      <c r="BN32" s="49"/>
+      <c r="BO32" s="49"/>
       <c r="BP32"/>
       <c r="BQ32" s="4"/>
       <c r="AMM32"/>
@@ -3483,73 +3483,73 @@
     </row>
     <row r="33" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="C33" s="54">
+      <c r="C33" s="50">
         <v>8</v>
       </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="59"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="59"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="57"/>
-      <c r="AG33" s="57"/>
-      <c r="AH33" s="57"/>
-      <c r="AI33" s="57"/>
-      <c r="AJ33" s="57"/>
-      <c r="AK33" s="57"/>
-      <c r="AL33" s="57"/>
-      <c r="AM33" s="57"/>
-      <c r="AN33" s="57"/>
-      <c r="AO33" s="57"/>
-      <c r="AP33" s="57"/>
-      <c r="AQ33" s="57"/>
-      <c r="AR33" s="57"/>
-      <c r="AS33" s="57"/>
-      <c r="AT33" s="57"/>
-      <c r="AU33" s="57"/>
-      <c r="AV33" s="57"/>
-      <c r="AW33" s="57"/>
-      <c r="AX33" s="57"/>
-      <c r="AY33" s="57"/>
-      <c r="AZ33" s="57"/>
-      <c r="BA33" s="57"/>
-      <c r="BB33" s="57"/>
-      <c r="BC33" s="57"/>
-      <c r="BD33" s="57"/>
-      <c r="BE33" s="57"/>
-      <c r="BF33" s="57"/>
-      <c r="BG33" s="57"/>
-      <c r="BH33" s="57"/>
-      <c r="BI33" s="57"/>
-      <c r="BJ33" s="57"/>
-      <c r="BK33" s="57"/>
-      <c r="BL33" s="57"/>
-      <c r="BM33" s="57"/>
-      <c r="BN33" s="57"/>
-      <c r="BO33" s="57"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="49"/>
+      <c r="AF33" s="49"/>
+      <c r="AG33" s="49"/>
+      <c r="AH33" s="49"/>
+      <c r="AI33" s="49"/>
+      <c r="AJ33" s="49"/>
+      <c r="AK33" s="49"/>
+      <c r="AL33" s="49"/>
+      <c r="AM33" s="49"/>
+      <c r="AN33" s="49"/>
+      <c r="AO33" s="49"/>
+      <c r="AP33" s="49"/>
+      <c r="AQ33" s="49"/>
+      <c r="AR33" s="49"/>
+      <c r="AS33" s="49"/>
+      <c r="AT33" s="49"/>
+      <c r="AU33" s="49"/>
+      <c r="AV33" s="49"/>
+      <c r="AW33" s="49"/>
+      <c r="AX33" s="49"/>
+      <c r="AY33" s="49"/>
+      <c r="AZ33" s="49"/>
+      <c r="BA33" s="49"/>
+      <c r="BB33" s="49"/>
+      <c r="BC33" s="49"/>
+      <c r="BD33" s="49"/>
+      <c r="BE33" s="49"/>
+      <c r="BF33" s="49"/>
+      <c r="BG33" s="49"/>
+      <c r="BH33" s="49"/>
+      <c r="BI33" s="49"/>
+      <c r="BJ33" s="49"/>
+      <c r="BK33" s="49"/>
+      <c r="BL33" s="49"/>
+      <c r="BM33" s="49"/>
+      <c r="BN33" s="49"/>
+      <c r="BO33" s="49"/>
       <c r="BP33"/>
       <c r="BQ33" s="4"/>
       <c r="AMM33"/>
@@ -3566,73 +3566,73 @@
     </row>
     <row r="34" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="C34" s="54">
+      <c r="C34" s="50">
         <v>9</v>
       </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="59"/>
-      <c r="AE34" s="57"/>
-      <c r="AF34" s="57"/>
-      <c r="AG34" s="57"/>
-      <c r="AH34" s="57"/>
-      <c r="AI34" s="57"/>
-      <c r="AJ34" s="57"/>
-      <c r="AK34" s="57"/>
-      <c r="AL34" s="57"/>
-      <c r="AM34" s="57"/>
-      <c r="AN34" s="57"/>
-      <c r="AO34" s="57"/>
-      <c r="AP34" s="57"/>
-      <c r="AQ34" s="57"/>
-      <c r="AR34" s="57"/>
-      <c r="AS34" s="57"/>
-      <c r="AT34" s="57"/>
-      <c r="AU34" s="57"/>
-      <c r="AV34" s="57"/>
-      <c r="AW34" s="57"/>
-      <c r="AX34" s="57"/>
-      <c r="AY34" s="57"/>
-      <c r="AZ34" s="57"/>
-      <c r="BA34" s="57"/>
-      <c r="BB34" s="57"/>
-      <c r="BC34" s="57"/>
-      <c r="BD34" s="57"/>
-      <c r="BE34" s="57"/>
-      <c r="BF34" s="57"/>
-      <c r="BG34" s="57"/>
-      <c r="BH34" s="57"/>
-      <c r="BI34" s="57"/>
-      <c r="BJ34" s="57"/>
-      <c r="BK34" s="57"/>
-      <c r="BL34" s="57"/>
-      <c r="BM34" s="57"/>
-      <c r="BN34" s="57"/>
-      <c r="BO34" s="57"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="51"/>
+      <c r="AB34" s="51"/>
+      <c r="AC34" s="51"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="49"/>
+      <c r="AF34" s="49"/>
+      <c r="AG34" s="49"/>
+      <c r="AH34" s="49"/>
+      <c r="AI34" s="49"/>
+      <c r="AJ34" s="49"/>
+      <c r="AK34" s="49"/>
+      <c r="AL34" s="49"/>
+      <c r="AM34" s="49"/>
+      <c r="AN34" s="49"/>
+      <c r="AO34" s="49"/>
+      <c r="AP34" s="49"/>
+      <c r="AQ34" s="49"/>
+      <c r="AR34" s="49"/>
+      <c r="AS34" s="49"/>
+      <c r="AT34" s="49"/>
+      <c r="AU34" s="49"/>
+      <c r="AV34" s="49"/>
+      <c r="AW34" s="49"/>
+      <c r="AX34" s="49"/>
+      <c r="AY34" s="49"/>
+      <c r="AZ34" s="49"/>
+      <c r="BA34" s="49"/>
+      <c r="BB34" s="49"/>
+      <c r="BC34" s="49"/>
+      <c r="BD34" s="49"/>
+      <c r="BE34" s="49"/>
+      <c r="BF34" s="49"/>
+      <c r="BG34" s="49"/>
+      <c r="BH34" s="49"/>
+      <c r="BI34" s="49"/>
+      <c r="BJ34" s="49"/>
+      <c r="BK34" s="49"/>
+      <c r="BL34" s="49"/>
+      <c r="BM34" s="49"/>
+      <c r="BN34" s="49"/>
+      <c r="BO34" s="49"/>
       <c r="BP34"/>
       <c r="BQ34" s="4"/>
       <c r="AMM34"/>
@@ -3650,73 +3650,73 @@
     <row r="35" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="54">
+      <c r="C35" s="50">
         <v>10</v>
       </c>
-      <c r="D35" s="54"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
-      <c r="W35" s="59"/>
-      <c r="X35" s="59"/>
-      <c r="Y35" s="59"/>
-      <c r="Z35" s="59"/>
-      <c r="AA35" s="59"/>
-      <c r="AB35" s="59"/>
-      <c r="AC35" s="59"/>
-      <c r="AD35" s="59"/>
-      <c r="AE35" s="57"/>
-      <c r="AF35" s="57"/>
-      <c r="AG35" s="57"/>
-      <c r="AH35" s="57"/>
-      <c r="AI35" s="57"/>
-      <c r="AJ35" s="57"/>
-      <c r="AK35" s="57"/>
-      <c r="AL35" s="57"/>
-      <c r="AM35" s="57"/>
-      <c r="AN35" s="57"/>
-      <c r="AO35" s="57"/>
-      <c r="AP35" s="57"/>
-      <c r="AQ35" s="57"/>
-      <c r="AR35" s="57"/>
-      <c r="AS35" s="57"/>
-      <c r="AT35" s="57"/>
-      <c r="AU35" s="57"/>
-      <c r="AV35" s="57"/>
-      <c r="AW35" s="57"/>
-      <c r="AX35" s="57"/>
-      <c r="AY35" s="57"/>
-      <c r="AZ35" s="57"/>
-      <c r="BA35" s="57"/>
-      <c r="BB35" s="57"/>
-      <c r="BC35" s="57"/>
-      <c r="BD35" s="57"/>
-      <c r="BE35" s="57"/>
-      <c r="BF35" s="57"/>
-      <c r="BG35" s="57"/>
-      <c r="BH35" s="57"/>
-      <c r="BI35" s="57"/>
-      <c r="BJ35" s="57"/>
-      <c r="BK35" s="57"/>
-      <c r="BL35" s="57"/>
-      <c r="BM35" s="57"/>
-      <c r="BN35" s="57"/>
-      <c r="BO35" s="57"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="51"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="49"/>
+      <c r="AF35" s="49"/>
+      <c r="AG35" s="49"/>
+      <c r="AH35" s="49"/>
+      <c r="AI35" s="49"/>
+      <c r="AJ35" s="49"/>
+      <c r="AK35" s="49"/>
+      <c r="AL35" s="49"/>
+      <c r="AM35" s="49"/>
+      <c r="AN35" s="49"/>
+      <c r="AO35" s="49"/>
+      <c r="AP35" s="49"/>
+      <c r="AQ35" s="49"/>
+      <c r="AR35" s="49"/>
+      <c r="AS35" s="49"/>
+      <c r="AT35" s="49"/>
+      <c r="AU35" s="49"/>
+      <c r="AV35" s="49"/>
+      <c r="AW35" s="49"/>
+      <c r="AX35" s="49"/>
+      <c r="AY35" s="49"/>
+      <c r="AZ35" s="49"/>
+      <c r="BA35" s="49"/>
+      <c r="BB35" s="49"/>
+      <c r="BC35" s="49"/>
+      <c r="BD35" s="49"/>
+      <c r="BE35" s="49"/>
+      <c r="BF35" s="49"/>
+      <c r="BG35" s="49"/>
+      <c r="BH35" s="49"/>
+      <c r="BI35" s="49"/>
+      <c r="BJ35" s="49"/>
+      <c r="BK35" s="49"/>
+      <c r="BL35" s="49"/>
+      <c r="BM35" s="49"/>
+      <c r="BN35" s="49"/>
+      <c r="BO35" s="49"/>
       <c r="BP35"/>
       <c r="BQ35" s="4"/>
       <c r="AMM35"/>
@@ -4325,48 +4325,51 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="BK34:BO34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="O35:AD35"/>
-    <mergeCell ref="AE35:BC35"/>
-    <mergeCell ref="BD35:BJ35"/>
-    <mergeCell ref="BK35:BO35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD34:BJ34"/>
-    <mergeCell ref="BK32:BO32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BJ33"/>
-    <mergeCell ref="BK33:BO33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD32:BJ32"/>
-    <mergeCell ref="BK30:BO30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BJ31"/>
-    <mergeCell ref="BK31:BO31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BJ30"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="BD26:BJ26"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="BD25:BJ25"/>
+    <mergeCell ref="BK25:BO25"/>
     <mergeCell ref="BK27:BO27"/>
     <mergeCell ref="BK26:BO26"/>
     <mergeCell ref="BK28:BO28"/>
@@ -4391,51 +4394,48 @@
     <mergeCell ref="BD27:BJ27"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="BD26:BJ26"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="BD25:BJ25"/>
-    <mergeCell ref="BK25:BO25"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BK30:BO30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BJ31"/>
+    <mergeCell ref="BK31:BO31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BJ30"/>
+    <mergeCell ref="BK32:BO32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BJ33"/>
+    <mergeCell ref="BK33:BO33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD32:BJ32"/>
+    <mergeCell ref="BK34:BO34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="O35:AD35"/>
+    <mergeCell ref="AE35:BC35"/>
+    <mergeCell ref="BD35:BJ35"/>
+    <mergeCell ref="BK35:BO35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD34:BJ34"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -4506,247 +4506,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69" t="s">
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="70" t="s">
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="70"/>
-      <c r="AV1" s="70"/>
-      <c r="AW1" s="70"/>
-      <c r="AX1" s="70"/>
-      <c r="AY1" s="70"/>
-      <c r="AZ1" s="70"/>
-      <c r="BA1" s="70"/>
-      <c r="BB1" s="70"/>
-      <c r="BC1" s="70"/>
-      <c r="BD1" s="70"/>
-      <c r="BE1" s="70"/>
-      <c r="BF1" s="70"/>
-      <c r="BG1" s="70"/>
-      <c r="BH1" s="70"/>
-      <c r="BI1" s="70"/>
-      <c r="BJ1" s="70"/>
-      <c r="BK1" s="70"/>
-      <c r="BL1" s="70"/>
-      <c r="BM1" s="70"/>
-      <c r="BN1" s="70"/>
-      <c r="BO1" s="70"/>
-      <c r="BP1" s="70"/>
-      <c r="BQ1" s="70"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79"/>
+      <c r="AY1" s="79"/>
+      <c r="AZ1" s="79"/>
+      <c r="BA1" s="79"/>
+      <c r="BB1" s="79"/>
+      <c r="BC1" s="79"/>
+      <c r="BD1" s="79"/>
+      <c r="BE1" s="79"/>
+      <c r="BF1" s="79"/>
+      <c r="BG1" s="79"/>
+      <c r="BH1" s="79"/>
+      <c r="BI1" s="79"/>
+      <c r="BJ1" s="79"/>
+      <c r="BK1" s="79"/>
+      <c r="BL1" s="79"/>
+      <c r="BM1" s="79"/>
+      <c r="BN1" s="79"/>
+      <c r="BO1" s="79"/>
+      <c r="BP1" s="79"/>
+      <c r="BQ1" s="79"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="60" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="71" t="s">
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="71"/>
-      <c r="AP2" s="71"/>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="71"/>
-      <c r="AS2" s="71"/>
-      <c r="AT2" s="71" t="s">
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="AU2" s="71"/>
-      <c r="AV2" s="71"/>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="71"/>
-      <c r="AY2" s="71"/>
-      <c r="AZ2" s="71"/>
-      <c r="BA2" s="71"/>
-      <c r="BB2" s="71" t="s">
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="71"/>
-      <c r="BD2" s="71"/>
-      <c r="BE2" s="71"/>
-      <c r="BF2" s="71"/>
-      <c r="BG2" s="71"/>
-      <c r="BH2" s="71"/>
-      <c r="BI2" s="71"/>
-      <c r="BJ2" s="72" t="s">
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="69"/>
+      <c r="BH2" s="69"/>
+      <c r="BI2" s="69"/>
+      <c r="BJ2" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="BK2" s="72"/>
-      <c r="BL2" s="72"/>
-      <c r="BM2" s="72"/>
-      <c r="BN2" s="72"/>
-      <c r="BO2" s="72"/>
-      <c r="BP2" s="72"/>
-      <c r="BQ2" s="72"/>
+      <c r="BK2" s="80"/>
+      <c r="BL2" s="80"/>
+      <c r="BM2" s="80"/>
+      <c r="BN2" s="80"/>
+      <c r="BO2" s="80"/>
+      <c r="BP2" s="80"/>
+      <c r="BQ2" s="80"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="73" t="s">
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="73"/>
-      <c r="AP3" s="73"/>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="73"/>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="74">
+      <c r="AL3" s="81"/>
+      <c r="AM3" s="81"/>
+      <c r="AN3" s="81"/>
+      <c r="AO3" s="81"/>
+      <c r="AP3" s="81"/>
+      <c r="AQ3" s="81"/>
+      <c r="AR3" s="81"/>
+      <c r="AS3" s="81"/>
+      <c r="AT3" s="82">
         <v>45510</v>
       </c>
-      <c r="AU3" s="74"/>
-      <c r="AV3" s="74"/>
-      <c r="AW3" s="74"/>
-      <c r="AX3" s="74"/>
-      <c r="AY3" s="74"/>
-      <c r="AZ3" s="74"/>
-      <c r="BA3" s="74"/>
-      <c r="BB3" s="73" t="s">
+      <c r="AU3" s="82"/>
+      <c r="AV3" s="82"/>
+      <c r="AW3" s="82"/>
+      <c r="AX3" s="82"/>
+      <c r="AY3" s="82"/>
+      <c r="AZ3" s="82"/>
+      <c r="BA3" s="82"/>
+      <c r="BB3" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="73"/>
-      <c r="BD3" s="73"/>
-      <c r="BE3" s="73"/>
-      <c r="BF3" s="73"/>
-      <c r="BG3" s="73"/>
-      <c r="BH3" s="73"/>
-      <c r="BI3" s="73"/>
-      <c r="BJ3" s="75">
+      <c r="BC3" s="81"/>
+      <c r="BD3" s="81"/>
+      <c r="BE3" s="81"/>
+      <c r="BF3" s="81"/>
+      <c r="BG3" s="81"/>
+      <c r="BH3" s="81"/>
+      <c r="BI3" s="81"/>
+      <c r="BJ3" s="83">
         <v>45548</v>
       </c>
-      <c r="BK3" s="75"/>
-      <c r="BL3" s="75"/>
-      <c r="BM3" s="75"/>
-      <c r="BN3" s="75"/>
-      <c r="BO3" s="75"/>
-      <c r="BP3" s="75"/>
-      <c r="BQ3" s="75"/>
+      <c r="BK3" s="83"/>
+      <c r="BL3" s="83"/>
+      <c r="BM3" s="83"/>
+      <c r="BN3" s="83"/>
+      <c r="BO3" s="83"/>
+      <c r="BP3" s="83"/>
+      <c r="BQ3" s="83"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -4771,20 +4771,20 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54" t="s">
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
       <c r="M6" s="76" t="s">
         <v>28</v>
       </c>
@@ -4815,52 +4815,52 @@
       <c r="AL6" s="76"/>
       <c r="AM6" s="76"/>
       <c r="AN6" s="76"/>
-      <c r="AO6" s="57" t="s">
+      <c r="AO6" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="57"/>
-      <c r="AQ6" s="57"/>
-      <c r="AR6" s="57"/>
-      <c r="AS6" s="57"/>
-      <c r="AT6" s="57"/>
-      <c r="AU6" s="57"/>
-      <c r="AV6" s="57" t="s">
+      <c r="AP6" s="49"/>
+      <c r="AQ6" s="49"/>
+      <c r="AR6" s="49"/>
+      <c r="AS6" s="49"/>
+      <c r="AT6" s="49"/>
+      <c r="AU6" s="49"/>
+      <c r="AV6" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="57"/>
-      <c r="AX6" s="57"/>
-      <c r="AY6" s="57"/>
-      <c r="AZ6" s="57"/>
-      <c r="BA6" s="57"/>
-      <c r="BB6" s="57"/>
-      <c r="BC6" s="57"/>
-      <c r="BD6" s="57"/>
-      <c r="BE6" s="57"/>
-      <c r="BF6" s="57"/>
-      <c r="BG6" s="57"/>
-      <c r="BH6" s="57"/>
-      <c r="BI6" s="57"/>
-      <c r="BJ6" s="57"/>
-      <c r="BK6" s="57"/>
-      <c r="BL6" s="57"/>
-      <c r="BM6" s="57"/>
-      <c r="BN6" s="57"/>
-      <c r="BO6" s="57"/>
-      <c r="BP6" s="57"/>
+      <c r="AW6" s="49"/>
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="49"/>
+      <c r="AZ6" s="49"/>
+      <c r="BA6" s="49"/>
+      <c r="BB6" s="49"/>
+      <c r="BC6" s="49"/>
+      <c r="BD6" s="49"/>
+      <c r="BE6" s="49"/>
+      <c r="BF6" s="49"/>
+      <c r="BG6" s="49"/>
+      <c r="BH6" s="49"/>
+      <c r="BI6" s="49"/>
+      <c r="BJ6" s="49"/>
+      <c r="BK6" s="49"/>
+      <c r="BL6" s="49"/>
+      <c r="BM6" s="49"/>
+      <c r="BN6" s="49"/>
+      <c r="BO6" s="49"/>
+      <c r="BP6" s="49"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
       <c r="M7" s="17" t="s">
         <v>58</v>
       </c>
@@ -4891,38 +4891,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="57" t="s">
+      <c r="AO7" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="57"/>
-      <c r="AU7" s="57"/>
-      <c r="AV7" s="57" t="s">
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="49"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="AW7" s="57"/>
-      <c r="AX7" s="57"/>
-      <c r="AY7" s="57"/>
-      <c r="AZ7" s="57"/>
-      <c r="BA7" s="57"/>
-      <c r="BB7" s="57"/>
-      <c r="BC7" s="57"/>
-      <c r="BD7" s="57"/>
-      <c r="BE7" s="57"/>
-      <c r="BF7" s="57"/>
-      <c r="BG7" s="57"/>
-      <c r="BH7" s="57"/>
-      <c r="BI7" s="57"/>
-      <c r="BJ7" s="57"/>
-      <c r="BK7" s="57"/>
-      <c r="BL7" s="57"/>
-      <c r="BM7" s="57"/>
-      <c r="BN7" s="57"/>
-      <c r="BO7" s="57"/>
-      <c r="BP7" s="57"/>
+      <c r="AW7" s="49"/>
+      <c r="AX7" s="49"/>
+      <c r="AY7" s="49"/>
+      <c r="AZ7" s="49"/>
+      <c r="BA7" s="49"/>
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="49"/>
+      <c r="BD7" s="49"/>
+      <c r="BE7" s="49"/>
+      <c r="BF7" s="49"/>
+      <c r="BG7" s="49"/>
+      <c r="BH7" s="49"/>
+      <c r="BI7" s="49"/>
+      <c r="BJ7" s="49"/>
+      <c r="BK7" s="49"/>
+      <c r="BL7" s="49"/>
+      <c r="BM7" s="49"/>
+      <c r="BN7" s="49"/>
+      <c r="BO7" s="49"/>
+      <c r="BP7" s="49"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -4936,89 +4936,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="71" t="s">
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71" t="s">
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="78" t="s">
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="79"/>
-      <c r="AM10" s="79"/>
-      <c r="AN10" s="79"/>
-      <c r="AO10" s="79"/>
-      <c r="AP10" s="79"/>
-      <c r="AQ10" s="79"/>
-      <c r="AR10" s="79"/>
-      <c r="AS10" s="79"/>
-      <c r="AT10" s="79"/>
-      <c r="AU10" s="79"/>
-      <c r="AV10" s="79"/>
-      <c r="AW10" s="79"/>
-      <c r="AX10" s="79"/>
-      <c r="AY10" s="79"/>
-      <c r="AZ10" s="79"/>
-      <c r="BA10" s="79"/>
-      <c r="BB10" s="79"/>
-      <c r="BC10" s="79"/>
-      <c r="BD10" s="79"/>
-      <c r="BE10" s="79"/>
-      <c r="BF10" s="79"/>
-      <c r="BG10" s="79"/>
-      <c r="BH10" s="79"/>
-      <c r="BI10" s="80"/>
-      <c r="BJ10" s="54" t="s">
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="74"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="74"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="74"/>
+      <c r="AX10" s="74"/>
+      <c r="AY10" s="74"/>
+      <c r="AZ10" s="74"/>
+      <c r="BA10" s="74"/>
+      <c r="BB10" s="74"/>
+      <c r="BC10" s="74"/>
+      <c r="BD10" s="74"/>
+      <c r="BE10" s="74"/>
+      <c r="BF10" s="74"/>
+      <c r="BG10" s="74"/>
+      <c r="BH10" s="74"/>
+      <c r="BI10" s="75"/>
+      <c r="BJ10" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="54"/>
-      <c r="BL10" s="54"/>
-      <c r="BM10" s="54"/>
-      <c r="BN10" s="54"/>
-      <c r="BO10" s="54"/>
-      <c r="BP10" s="54"/>
+      <c r="BK10" s="50"/>
+      <c r="BL10" s="50"/>
+      <c r="BM10" s="50"/>
+      <c r="BN10" s="50"/>
+      <c r="BO10" s="50"/>
+      <c r="BP10" s="50"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="17" t="s">
         <v>66</v>
       </c>
@@ -5034,11 +5034,11 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="71" t="s">
+      <c r="T11" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="71"/>
-      <c r="V11" s="82"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="72"/>
       <c r="W11" s="38" t="s">
         <v>65</v>
       </c>
@@ -5090,10 +5090,10 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -5106,9 +5106,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
       <c r="W12" s="38"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -5157,10 +5157,10 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -5174,9 +5174,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
       <c r="W13" s="38"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -5225,10 +5225,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -5242,9 +5242,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
       <c r="W14" s="38"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -5293,10 +5293,10 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -5310,9 +5310,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
       <c r="W15" s="38"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -5372,88 +5372,88 @@
       <c r="AG17" s="16"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="71" t="s">
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71" t="s">
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="54" t="s">
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="54"/>
-      <c r="AF18" s="54"/>
-      <c r="AG18" s="54"/>
-      <c r="AH18" s="54"/>
-      <c r="AI18" s="54"/>
-      <c r="AJ18" s="54"/>
-      <c r="AK18" s="54"/>
-      <c r="AL18" s="54"/>
-      <c r="AM18" s="54"/>
-      <c r="AN18" s="54"/>
-      <c r="AO18" s="54"/>
-      <c r="AP18" s="54"/>
-      <c r="AQ18" s="54"/>
-      <c r="AR18" s="54"/>
-      <c r="AS18" s="54"/>
-      <c r="AT18" s="54"/>
-      <c r="AU18" s="54"/>
-      <c r="AV18" s="54"/>
-      <c r="AW18" s="54"/>
-      <c r="AX18" s="54"/>
-      <c r="AY18" s="54"/>
-      <c r="AZ18" s="54"/>
-      <c r="BA18" s="54"/>
-      <c r="BB18" s="54"/>
-      <c r="BC18" s="54"/>
-      <c r="BD18" s="54"/>
-      <c r="BE18" s="54"/>
-      <c r="BF18" s="54"/>
-      <c r="BG18" s="54"/>
-      <c r="BH18" s="54"/>
-      <c r="BI18" s="54"/>
-      <c r="BJ18" s="54" t="s">
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="50"/>
+      <c r="AI18" s="50"/>
+      <c r="AJ18" s="50"/>
+      <c r="AK18" s="50"/>
+      <c r="AL18" s="50"/>
+      <c r="AM18" s="50"/>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="50"/>
+      <c r="AU18" s="50"/>
+      <c r="AV18" s="50"/>
+      <c r="AW18" s="50"/>
+      <c r="AX18" s="50"/>
+      <c r="AY18" s="50"/>
+      <c r="AZ18" s="50"/>
+      <c r="BA18" s="50"/>
+      <c r="BB18" s="50"/>
+      <c r="BC18" s="50"/>
+      <c r="BD18" s="50"/>
+      <c r="BE18" s="50"/>
+      <c r="BF18" s="50"/>
+      <c r="BG18" s="50"/>
+      <c r="BH18" s="50"/>
+      <c r="BI18" s="50"/>
+      <c r="BJ18" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="BK18" s="54"/>
-      <c r="BL18" s="54"/>
-      <c r="BM18" s="54"/>
-      <c r="BN18" s="54"/>
-      <c r="BO18" s="54"/>
-      <c r="BP18" s="54"/>
+      <c r="BK18" s="50"/>
+      <c r="BL18" s="50"/>
+      <c r="BM18" s="50"/>
+      <c r="BN18" s="50"/>
+      <c r="BO18" s="50"/>
+      <c r="BP18" s="50"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
       <c r="G19" s="17" t="s">
         <v>63</v>
       </c>
@@ -5469,11 +5469,11 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="71" t="s">
+      <c r="T19" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="U19" s="71"/>
-      <c r="V19" s="71"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
       <c r="W19" s="21" t="s">
         <v>67</v>
       </c>
@@ -6031,37 +6031,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -6076,6 +6045,37 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -6146,243 +6146,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="69" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69" t="s">
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="78"/>
+      <c r="AG1" s="78"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="78"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
-      <c r="AS1" s="69"/>
-      <c r="AT1" s="70" t="s">
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="78"/>
+      <c r="AQ1" s="78"/>
+      <c r="AR1" s="78"/>
+      <c r="AS1" s="78"/>
+      <c r="AT1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="70"/>
-      <c r="AV1" s="70"/>
-      <c r="AW1" s="70"/>
-      <c r="AX1" s="70"/>
-      <c r="AY1" s="70"/>
-      <c r="AZ1" s="70"/>
-      <c r="BA1" s="70"/>
-      <c r="BB1" s="70"/>
-      <c r="BC1" s="70"/>
-      <c r="BD1" s="70"/>
-      <c r="BE1" s="70"/>
-      <c r="BF1" s="70"/>
-      <c r="BG1" s="70"/>
-      <c r="BH1" s="70"/>
-      <c r="BI1" s="70"/>
-      <c r="BJ1" s="70"/>
-      <c r="BK1" s="70"/>
-      <c r="BL1" s="70"/>
-      <c r="BM1" s="70"/>
-      <c r="BN1" s="70"/>
-      <c r="BO1" s="70"/>
-      <c r="BP1" s="70"/>
-      <c r="BQ1" s="70"/>
+      <c r="AU1" s="79"/>
+      <c r="AV1" s="79"/>
+      <c r="AW1" s="79"/>
+      <c r="AX1" s="79"/>
+      <c r="AY1" s="79"/>
+      <c r="AZ1" s="79"/>
+      <c r="BA1" s="79"/>
+      <c r="BB1" s="79"/>
+      <c r="BC1" s="79"/>
+      <c r="BD1" s="79"/>
+      <c r="BE1" s="79"/>
+      <c r="BF1" s="79"/>
+      <c r="BG1" s="79"/>
+      <c r="BH1" s="79"/>
+      <c r="BI1" s="79"/>
+      <c r="BJ1" s="79"/>
+      <c r="BK1" s="79"/>
+      <c r="BL1" s="79"/>
+      <c r="BM1" s="79"/>
+      <c r="BN1" s="79"/>
+      <c r="BO1" s="79"/>
+      <c r="BP1" s="79"/>
+      <c r="BQ1" s="79"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="60" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="60"/>
-      <c r="AG2" s="60"/>
-      <c r="AH2" s="60"/>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="60"/>
-      <c r="AK2" s="71" t="s">
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="71"/>
-      <c r="AP2" s="71"/>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="71"/>
-      <c r="AS2" s="71"/>
-      <c r="AT2" s="71" t="s">
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="AU2" s="71"/>
-      <c r="AV2" s="71"/>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="71"/>
-      <c r="AY2" s="71"/>
-      <c r="AZ2" s="71"/>
-      <c r="BA2" s="71"/>
-      <c r="BB2" s="71" t="s">
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="71"/>
-      <c r="BD2" s="71"/>
-      <c r="BE2" s="71"/>
-      <c r="BF2" s="71"/>
-      <c r="BG2" s="71"/>
-      <c r="BH2" s="71"/>
-      <c r="BI2" s="71"/>
-      <c r="BJ2" s="72"/>
-      <c r="BK2" s="72"/>
-      <c r="BL2" s="72"/>
-      <c r="BM2" s="72"/>
-      <c r="BN2" s="72"/>
-      <c r="BO2" s="72"/>
-      <c r="BP2" s="72"/>
-      <c r="BQ2" s="72"/>
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="69"/>
+      <c r="BH2" s="69"/>
+      <c r="BI2" s="69"/>
+      <c r="BJ2" s="80"/>
+      <c r="BK2" s="80"/>
+      <c r="BL2" s="80"/>
+      <c r="BM2" s="80"/>
+      <c r="BN2" s="80"/>
+      <c r="BO2" s="80"/>
+      <c r="BP2" s="80"/>
+      <c r="BQ2" s="80"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="73" t="s">
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="58"/>
+      <c r="Z3" s="58"/>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="58"/>
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="73"/>
-      <c r="AP3" s="73"/>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="73"/>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="74">
+      <c r="AL3" s="81"/>
+      <c r="AM3" s="81"/>
+      <c r="AN3" s="81"/>
+      <c r="AO3" s="81"/>
+      <c r="AP3" s="81"/>
+      <c r="AQ3" s="81"/>
+      <c r="AR3" s="81"/>
+      <c r="AS3" s="81"/>
+      <c r="AT3" s="82">
         <v>45554</v>
       </c>
-      <c r="AU3" s="74"/>
-      <c r="AV3" s="74"/>
-      <c r="AW3" s="74"/>
-      <c r="AX3" s="74"/>
-      <c r="AY3" s="74"/>
-      <c r="AZ3" s="74"/>
-      <c r="BA3" s="74"/>
-      <c r="BB3" s="73" t="s">
+      <c r="AU3" s="82"/>
+      <c r="AV3" s="82"/>
+      <c r="AW3" s="82"/>
+      <c r="AX3" s="82"/>
+      <c r="AY3" s="82"/>
+      <c r="AZ3" s="82"/>
+      <c r="BA3" s="82"/>
+      <c r="BB3" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="73"/>
-      <c r="BD3" s="73"/>
-      <c r="BE3" s="73"/>
-      <c r="BF3" s="73"/>
-      <c r="BG3" s="73"/>
-      <c r="BH3" s="73"/>
-      <c r="BI3" s="73"/>
-      <c r="BJ3" s="75"/>
-      <c r="BK3" s="75"/>
-      <c r="BL3" s="75"/>
-      <c r="BM3" s="75"/>
-      <c r="BN3" s="75"/>
-      <c r="BO3" s="75"/>
-      <c r="BP3" s="75"/>
-      <c r="BQ3" s="75"/>
+      <c r="BC3" s="81"/>
+      <c r="BD3" s="81"/>
+      <c r="BE3" s="81"/>
+      <c r="BF3" s="81"/>
+      <c r="BG3" s="81"/>
+      <c r="BH3" s="81"/>
+      <c r="BI3" s="81"/>
+      <c r="BJ3" s="83"/>
+      <c r="BK3" s="83"/>
+      <c r="BL3" s="83"/>
+      <c r="BM3" s="83"/>
+      <c r="BN3" s="83"/>
+      <c r="BO3" s="83"/>
+      <c r="BP3" s="83"/>
+      <c r="BQ3" s="83"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -6407,20 +6407,20 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54" t="s">
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
       <c r="M6" s="76" t="s">
         <v>28</v>
       </c>
@@ -6451,52 +6451,52 @@
       <c r="AL6" s="76"/>
       <c r="AM6" s="76"/>
       <c r="AN6" s="76"/>
-      <c r="AO6" s="57" t="s">
+      <c r="AO6" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="57"/>
-      <c r="AQ6" s="57"/>
-      <c r="AR6" s="57"/>
-      <c r="AS6" s="57"/>
-      <c r="AT6" s="57"/>
-      <c r="AU6" s="57"/>
-      <c r="AV6" s="57" t="s">
+      <c r="AP6" s="49"/>
+      <c r="AQ6" s="49"/>
+      <c r="AR6" s="49"/>
+      <c r="AS6" s="49"/>
+      <c r="AT6" s="49"/>
+      <c r="AU6" s="49"/>
+      <c r="AV6" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="57"/>
-      <c r="AX6" s="57"/>
-      <c r="AY6" s="57"/>
-      <c r="AZ6" s="57"/>
-      <c r="BA6" s="57"/>
-      <c r="BB6" s="57"/>
-      <c r="BC6" s="57"/>
-      <c r="BD6" s="57"/>
-      <c r="BE6" s="57"/>
-      <c r="BF6" s="57"/>
-      <c r="BG6" s="57"/>
-      <c r="BH6" s="57"/>
-      <c r="BI6" s="57"/>
-      <c r="BJ6" s="57"/>
-      <c r="BK6" s="57"/>
-      <c r="BL6" s="57"/>
-      <c r="BM6" s="57"/>
-      <c r="BN6" s="57"/>
-      <c r="BO6" s="57"/>
-      <c r="BP6" s="57"/>
+      <c r="AW6" s="49"/>
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="49"/>
+      <c r="AZ6" s="49"/>
+      <c r="BA6" s="49"/>
+      <c r="BB6" s="49"/>
+      <c r="BC6" s="49"/>
+      <c r="BD6" s="49"/>
+      <c r="BE6" s="49"/>
+      <c r="BF6" s="49"/>
+      <c r="BG6" s="49"/>
+      <c r="BH6" s="49"/>
+      <c r="BI6" s="49"/>
+      <c r="BJ6" s="49"/>
+      <c r="BK6" s="49"/>
+      <c r="BL6" s="49"/>
+      <c r="BM6" s="49"/>
+      <c r="BN6" s="49"/>
+      <c r="BO6" s="49"/>
+      <c r="BP6" s="49"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
       <c r="M7" s="17" t="s">
         <v>84</v>
       </c>
@@ -6527,38 +6527,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="57" t="s">
+      <c r="AO7" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="57"/>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="57"/>
-      <c r="AU7" s="57"/>
-      <c r="AV7" s="57" t="s">
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="49"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="AW7" s="57"/>
-      <c r="AX7" s="57"/>
-      <c r="AY7" s="57"/>
-      <c r="AZ7" s="57"/>
-      <c r="BA7" s="57"/>
-      <c r="BB7" s="57"/>
-      <c r="BC7" s="57"/>
-      <c r="BD7" s="57"/>
-      <c r="BE7" s="57"/>
-      <c r="BF7" s="57"/>
-      <c r="BG7" s="57"/>
-      <c r="BH7" s="57"/>
-      <c r="BI7" s="57"/>
-      <c r="BJ7" s="57"/>
-      <c r="BK7" s="57"/>
-      <c r="BL7" s="57"/>
-      <c r="BM7" s="57"/>
-      <c r="BN7" s="57"/>
-      <c r="BO7" s="57"/>
-      <c r="BP7" s="57"/>
+      <c r="AW7" s="49"/>
+      <c r="AX7" s="49"/>
+      <c r="AY7" s="49"/>
+      <c r="AZ7" s="49"/>
+      <c r="BA7" s="49"/>
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="49"/>
+      <c r="BD7" s="49"/>
+      <c r="BE7" s="49"/>
+      <c r="BF7" s="49"/>
+      <c r="BG7" s="49"/>
+      <c r="BH7" s="49"/>
+      <c r="BI7" s="49"/>
+      <c r="BJ7" s="49"/>
+      <c r="BK7" s="49"/>
+      <c r="BL7" s="49"/>
+      <c r="BM7" s="49"/>
+      <c r="BN7" s="49"/>
+      <c r="BO7" s="49"/>
+      <c r="BP7" s="49"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -6572,89 +6572,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="71" t="s">
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71" t="s">
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="78" t="s">
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="79"/>
-      <c r="AB10" s="79"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="79"/>
-      <c r="AE10" s="79"/>
-      <c r="AF10" s="79"/>
-      <c r="AG10" s="79"/>
-      <c r="AH10" s="79"/>
-      <c r="AI10" s="79"/>
-      <c r="AJ10" s="79"/>
-      <c r="AK10" s="79"/>
-      <c r="AL10" s="79"/>
-      <c r="AM10" s="79"/>
-      <c r="AN10" s="79"/>
-      <c r="AO10" s="79"/>
-      <c r="AP10" s="79"/>
-      <c r="AQ10" s="79"/>
-      <c r="AR10" s="79"/>
-      <c r="AS10" s="79"/>
-      <c r="AT10" s="79"/>
-      <c r="AU10" s="79"/>
-      <c r="AV10" s="79"/>
-      <c r="AW10" s="79"/>
-      <c r="AX10" s="79"/>
-      <c r="AY10" s="79"/>
-      <c r="AZ10" s="79"/>
-      <c r="BA10" s="79"/>
-      <c r="BB10" s="79"/>
-      <c r="BC10" s="79"/>
-      <c r="BD10" s="79"/>
-      <c r="BE10" s="79"/>
-      <c r="BF10" s="79"/>
-      <c r="BG10" s="79"/>
-      <c r="BH10" s="79"/>
-      <c r="BI10" s="80"/>
-      <c r="BJ10" s="54" t="s">
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="74"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="74"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="74"/>
+      <c r="AX10" s="74"/>
+      <c r="AY10" s="74"/>
+      <c r="AZ10" s="74"/>
+      <c r="BA10" s="74"/>
+      <c r="BB10" s="74"/>
+      <c r="BC10" s="74"/>
+      <c r="BD10" s="74"/>
+      <c r="BE10" s="74"/>
+      <c r="BF10" s="74"/>
+      <c r="BG10" s="74"/>
+      <c r="BH10" s="74"/>
+      <c r="BI10" s="75"/>
+      <c r="BJ10" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="54"/>
-      <c r="BL10" s="54"/>
-      <c r="BM10" s="54"/>
-      <c r="BN10" s="54"/>
-      <c r="BO10" s="54"/>
-      <c r="BP10" s="54"/>
+      <c r="BK10" s="50"/>
+      <c r="BL10" s="50"/>
+      <c r="BM10" s="50"/>
+      <c r="BN10" s="50"/>
+      <c r="BO10" s="50"/>
+      <c r="BP10" s="50"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="17" t="s">
         <v>86</v>
       </c>
@@ -6670,9 +6670,9 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="82"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="72"/>
       <c r="W11" s="38"/>
       <c r="X11" s="39"/>
       <c r="Y11" s="39"/>
@@ -6722,10 +6722,10 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -6738,9 +6738,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
       <c r="W12" s="38"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -6789,10 +6789,10 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -6806,9 +6806,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
       <c r="W13" s="38"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -6857,10 +6857,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -6874,9 +6874,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
       <c r="W14" s="38"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -6925,10 +6925,10 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -6942,9 +6942,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
       <c r="W15" s="38"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -7004,88 +7004,88 @@
       <c r="AG17" s="16"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="71" t="s">
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71" t="s">
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="54" t="s">
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="54"/>
-      <c r="AF18" s="54"/>
-      <c r="AG18" s="54"/>
-      <c r="AH18" s="54"/>
-      <c r="AI18" s="54"/>
-      <c r="AJ18" s="54"/>
-      <c r="AK18" s="54"/>
-      <c r="AL18" s="54"/>
-      <c r="AM18" s="54"/>
-      <c r="AN18" s="54"/>
-      <c r="AO18" s="54"/>
-      <c r="AP18" s="54"/>
-      <c r="AQ18" s="54"/>
-      <c r="AR18" s="54"/>
-      <c r="AS18" s="54"/>
-      <c r="AT18" s="54"/>
-      <c r="AU18" s="54"/>
-      <c r="AV18" s="54"/>
-      <c r="AW18" s="54"/>
-      <c r="AX18" s="54"/>
-      <c r="AY18" s="54"/>
-      <c r="AZ18" s="54"/>
-      <c r="BA18" s="54"/>
-      <c r="BB18" s="54"/>
-      <c r="BC18" s="54"/>
-      <c r="BD18" s="54"/>
-      <c r="BE18" s="54"/>
-      <c r="BF18" s="54"/>
-      <c r="BG18" s="54"/>
-      <c r="BH18" s="54"/>
-      <c r="BI18" s="54"/>
-      <c r="BJ18" s="54" t="s">
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="50"/>
+      <c r="AI18" s="50"/>
+      <c r="AJ18" s="50"/>
+      <c r="AK18" s="50"/>
+      <c r="AL18" s="50"/>
+      <c r="AM18" s="50"/>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="50"/>
+      <c r="AU18" s="50"/>
+      <c r="AV18" s="50"/>
+      <c r="AW18" s="50"/>
+      <c r="AX18" s="50"/>
+      <c r="AY18" s="50"/>
+      <c r="AZ18" s="50"/>
+      <c r="BA18" s="50"/>
+      <c r="BB18" s="50"/>
+      <c r="BC18" s="50"/>
+      <c r="BD18" s="50"/>
+      <c r="BE18" s="50"/>
+      <c r="BF18" s="50"/>
+      <c r="BG18" s="50"/>
+      <c r="BH18" s="50"/>
+      <c r="BI18" s="50"/>
+      <c r="BJ18" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="BK18" s="54"/>
-      <c r="BL18" s="54"/>
-      <c r="BM18" s="54"/>
-      <c r="BN18" s="54"/>
-      <c r="BO18" s="54"/>
-      <c r="BP18" s="54"/>
+      <c r="BK18" s="50"/>
+      <c r="BL18" s="50"/>
+      <c r="BM18" s="50"/>
+      <c r="BN18" s="50"/>
+      <c r="BO18" s="50"/>
+      <c r="BP18" s="50"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
       <c r="G19" s="17" t="s">
         <v>63</v>
       </c>
@@ -7101,11 +7101,11 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="71" t="s">
+      <c r="T19" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="U19" s="71"/>
-      <c r="V19" s="71"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
       <c r="W19" s="21" t="s">
         <v>87</v>
       </c>
@@ -7654,37 +7654,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -7699,6 +7668,37 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">

--- a/交通費申請一覧機能/設計書/マッパー設計書_ユーザマスタ.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_ユーザマスタ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5728CC77-483F-4FE9-BB42-789B60B107AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6FA2B8-B7AD-4214-93E3-03DF9D4B928F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2530" yWindow="170" windowWidth="13280" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="200" windowWidth="13280" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_ユーザマスターマッパー" sheetId="10" r:id="rId1"/>
@@ -639,7 +639,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -805,30 +805,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1000,7 +976,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1026,46 +1002,46 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1073,72 +1049,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="4" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="4" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="4" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="4" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="4" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="4" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1156,32 +1093,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1191,6 +1130,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1205,13 +1147,35 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1413,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B70D8C-054F-4519-8336-22893221A19C}">
   <dimension ref="A1:AMW48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:AJ3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1425,247 +1389,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="63" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="64" t="s">
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64"/>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64"/>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="64"/>
-      <c r="BC1" s="64"/>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="64"/>
-      <c r="BF1" s="64"/>
-      <c r="BG1" s="64"/>
-      <c r="BH1" s="64"/>
-      <c r="BI1" s="64"/>
-      <c r="BJ1" s="64"/>
-      <c r="BK1" s="64"/>
-      <c r="BL1" s="64"/>
-      <c r="BM1" s="64"/>
-      <c r="BN1" s="64"/>
-      <c r="BO1" s="64"/>
-      <c r="BP1" s="64"/>
-      <c r="BQ1" s="64"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="51"/>
+      <c r="BB1" s="51"/>
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51"/>
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="51"/>
+      <c r="BG1" s="51"/>
+      <c r="BH1" s="51"/>
+      <c r="BI1" s="51"/>
+      <c r="BJ1" s="51"/>
+      <c r="BK1" s="51"/>
+      <c r="BL1" s="51"/>
+      <c r="BM1" s="51"/>
+      <c r="BN1" s="51"/>
+      <c r="BO1" s="51"/>
+      <c r="BP1" s="51"/>
+      <c r="BQ1" s="51"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="66" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="50" t="s">
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50"/>
-      <c r="AT2" s="50" t="s">
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="54"/>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="50"/>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50"/>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="50" t="s">
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="50"/>
-      <c r="BD2" s="50"/>
-      <c r="BE2" s="50"/>
-      <c r="BF2" s="50"/>
-      <c r="BG2" s="50"/>
-      <c r="BH2" s="50"/>
-      <c r="BI2" s="50"/>
-      <c r="BJ2" s="67" t="s">
+      <c r="BC2" s="54"/>
+      <c r="BD2" s="54"/>
+      <c r="BE2" s="54"/>
+      <c r="BF2" s="54"/>
+      <c r="BG2" s="54"/>
+      <c r="BH2" s="54"/>
+      <c r="BI2" s="54"/>
+      <c r="BJ2" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="BK2" s="67"/>
-      <c r="BL2" s="67"/>
-      <c r="BM2" s="67"/>
-      <c r="BN2" s="67"/>
-      <c r="BO2" s="67"/>
-      <c r="BP2" s="67"/>
-      <c r="BQ2" s="67"/>
+      <c r="BK2" s="55"/>
+      <c r="BL2" s="55"/>
+      <c r="BM2" s="55"/>
+      <c r="BN2" s="55"/>
+      <c r="BO2" s="55"/>
+      <c r="BP2" s="55"/>
+      <c r="BQ2" s="55"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="58" t="s">
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
+      <c r="AK3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="58"/>
-      <c r="AP3" s="58"/>
-      <c r="AQ3" s="58"/>
-      <c r="AR3" s="58"/>
-      <c r="AS3" s="58"/>
-      <c r="AT3" s="59">
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="59"/>
+      <c r="AP3" s="59"/>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="59"/>
+      <c r="AT3" s="60">
         <v>45511</v>
       </c>
-      <c r="AU3" s="59"/>
-      <c r="AV3" s="59"/>
-      <c r="AW3" s="59"/>
-      <c r="AX3" s="59"/>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="59"/>
-      <c r="BA3" s="59"/>
-      <c r="BB3" s="58" t="s">
+      <c r="AU3" s="60"/>
+      <c r="AV3" s="60"/>
+      <c r="AW3" s="60"/>
+      <c r="AX3" s="60"/>
+      <c r="AY3" s="60"/>
+      <c r="AZ3" s="60"/>
+      <c r="BA3" s="60"/>
+      <c r="BB3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="58"/>
-      <c r="BD3" s="58"/>
-      <c r="BE3" s="58"/>
-      <c r="BF3" s="58"/>
-      <c r="BG3" s="58"/>
-      <c r="BH3" s="58"/>
-      <c r="BI3" s="58"/>
-      <c r="BJ3" s="60">
+      <c r="BC3" s="59"/>
+      <c r="BD3" s="59"/>
+      <c r="BE3" s="59"/>
+      <c r="BF3" s="59"/>
+      <c r="BG3" s="59"/>
+      <c r="BH3" s="59"/>
+      <c r="BI3" s="59"/>
+      <c r="BJ3" s="61">
         <v>45548</v>
       </c>
-      <c r="BK3" s="60"/>
-      <c r="BL3" s="60"/>
-      <c r="BM3" s="60"/>
-      <c r="BN3" s="60"/>
-      <c r="BO3" s="60"/>
-      <c r="BP3" s="60"/>
-      <c r="BQ3" s="60"/>
+      <c r="BK3" s="61"/>
+      <c r="BL3" s="61"/>
+      <c r="BM3" s="61"/>
+      <c r="BN3" s="61"/>
+      <c r="BO3" s="61"/>
+      <c r="BP3" s="61"/>
+      <c r="BQ3" s="61"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -1732,213 +1696,213 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="61"/>
-      <c r="AG6" s="61"/>
-      <c r="AH6" s="61"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="61"/>
-      <c r="AK6" s="61"/>
-      <c r="AL6" s="61"/>
-      <c r="AM6" s="61"/>
-      <c r="AN6" s="61"/>
-      <c r="AO6" s="61"/>
-      <c r="AP6" s="61"/>
-      <c r="AQ6" s="61"/>
-      <c r="AR6" s="61"/>
-      <c r="AS6" s="61"/>
-      <c r="AT6" s="61"/>
-      <c r="AU6" s="61"/>
-      <c r="AV6" s="61"/>
-      <c r="AW6" s="61"/>
-      <c r="AX6" s="61"/>
-      <c r="AY6" s="61"/>
-      <c r="AZ6" s="61"/>
-      <c r="BA6" s="61"/>
-      <c r="BB6" s="61"/>
-      <c r="BC6" s="61"/>
-      <c r="BD6" s="61"/>
-      <c r="BE6" s="61"/>
-      <c r="BF6" s="61"/>
-      <c r="BG6" s="61"/>
-      <c r="BH6" s="61"/>
-      <c r="BI6" s="61"/>
-      <c r="BJ6" s="61"/>
-      <c r="BK6" s="61"/>
-      <c r="BL6" s="61"/>
-      <c r="BM6" s="61"/>
-      <c r="BN6" s="61"/>
-      <c r="BO6" s="61"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="63"/>
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="63"/>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="63"/>
+      <c r="AG6" s="63"/>
+      <c r="AH6" s="63"/>
+      <c r="AI6" s="63"/>
+      <c r="AJ6" s="63"/>
+      <c r="AK6" s="63"/>
+      <c r="AL6" s="63"/>
+      <c r="AM6" s="63"/>
+      <c r="AN6" s="63"/>
+      <c r="AO6" s="63"/>
+      <c r="AP6" s="63"/>
+      <c r="AQ6" s="63"/>
+      <c r="AR6" s="63"/>
+      <c r="AS6" s="63"/>
+      <c r="AT6" s="63"/>
+      <c r="AU6" s="63"/>
+      <c r="AV6" s="63"/>
+      <c r="AW6" s="63"/>
+      <c r="AX6" s="63"/>
+      <c r="AY6" s="63"/>
+      <c r="AZ6" s="63"/>
+      <c r="BA6" s="63"/>
+      <c r="BB6" s="63"/>
+      <c r="BC6" s="63"/>
+      <c r="BD6" s="63"/>
+      <c r="BE6" s="63"/>
+      <c r="BF6" s="63"/>
+      <c r="BG6" s="63"/>
+      <c r="BH6" s="63"/>
+      <c r="BI6" s="63"/>
+      <c r="BJ6" s="63"/>
+      <c r="BK6" s="63"/>
+      <c r="BL6" s="63"/>
+      <c r="BM6" s="63"/>
+      <c r="BN6" s="63"/>
+      <c r="BO6" s="63"/>
       <c r="BP6"/>
       <c r="BQ6" s="4"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="61"/>
-      <c r="AF7" s="61"/>
-      <c r="AG7" s="61"/>
-      <c r="AH7" s="61"/>
-      <c r="AI7" s="61"/>
-      <c r="AJ7" s="61"/>
-      <c r="AK7" s="61"/>
-      <c r="AL7" s="61"/>
-      <c r="AM7" s="61"/>
-      <c r="AN7" s="61"/>
-      <c r="AO7" s="61"/>
-      <c r="AP7" s="61"/>
-      <c r="AQ7" s="61"/>
-      <c r="AR7" s="61"/>
-      <c r="AS7" s="61"/>
-      <c r="AT7" s="61"/>
-      <c r="AU7" s="61"/>
-      <c r="AV7" s="61"/>
-      <c r="AW7" s="61"/>
-      <c r="AX7" s="61"/>
-      <c r="AY7" s="61"/>
-      <c r="AZ7" s="61"/>
-      <c r="BA7" s="61"/>
-      <c r="BB7" s="61"/>
-      <c r="BC7" s="61"/>
-      <c r="BD7" s="61"/>
-      <c r="BE7" s="61"/>
-      <c r="BF7" s="61"/>
-      <c r="BG7" s="61"/>
-      <c r="BH7" s="61"/>
-      <c r="BI7" s="61"/>
-      <c r="BJ7" s="61"/>
-      <c r="BK7" s="61"/>
-      <c r="BL7" s="61"/>
-      <c r="BM7" s="61"/>
-      <c r="BN7" s="61"/>
-      <c r="BO7" s="61"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="63"/>
+      <c r="AD7" s="63"/>
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="63"/>
+      <c r="AG7" s="63"/>
+      <c r="AH7" s="63"/>
+      <c r="AI7" s="63"/>
+      <c r="AJ7" s="63"/>
+      <c r="AK7" s="63"/>
+      <c r="AL7" s="63"/>
+      <c r="AM7" s="63"/>
+      <c r="AN7" s="63"/>
+      <c r="AO7" s="63"/>
+      <c r="AP7" s="63"/>
+      <c r="AQ7" s="63"/>
+      <c r="AR7" s="63"/>
+      <c r="AS7" s="63"/>
+      <c r="AT7" s="63"/>
+      <c r="AU7" s="63"/>
+      <c r="AV7" s="63"/>
+      <c r="AW7" s="63"/>
+      <c r="AX7" s="63"/>
+      <c r="AY7" s="63"/>
+      <c r="AZ7" s="63"/>
+      <c r="BA7" s="63"/>
+      <c r="BB7" s="63"/>
+      <c r="BC7" s="63"/>
+      <c r="BD7" s="63"/>
+      <c r="BE7" s="63"/>
+      <c r="BF7" s="63"/>
+      <c r="BG7" s="63"/>
+      <c r="BH7" s="63"/>
+      <c r="BI7" s="63"/>
+      <c r="BJ7" s="63"/>
+      <c r="BK7" s="63"/>
+      <c r="BL7" s="63"/>
+      <c r="BM7" s="63"/>
+      <c r="BN7" s="63"/>
+      <c r="BO7" s="63"/>
       <c r="BP7"/>
       <c r="BQ7" s="4"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="57"/>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="57"/>
-      <c r="AF8" s="57"/>
-      <c r="AG8" s="57"/>
-      <c r="AH8" s="57"/>
-      <c r="AI8" s="57"/>
-      <c r="AJ8" s="57"/>
-      <c r="AK8" s="57"/>
-      <c r="AL8" s="57"/>
-      <c r="AM8" s="57"/>
-      <c r="AN8" s="57"/>
-      <c r="AO8" s="57"/>
-      <c r="AP8" s="57"/>
-      <c r="AQ8" s="57"/>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="57"/>
-      <c r="AT8" s="57"/>
-      <c r="AU8" s="57"/>
-      <c r="AV8" s="57"/>
-      <c r="AW8" s="57"/>
-      <c r="AX8" s="57"/>
-      <c r="AY8" s="57"/>
-      <c r="AZ8" s="57"/>
-      <c r="BA8" s="57"/>
-      <c r="BB8" s="57"/>
-      <c r="BC8" s="57"/>
-      <c r="BD8" s="57"/>
-      <c r="BE8" s="57"/>
-      <c r="BF8" s="57"/>
-      <c r="BG8" s="57"/>
-      <c r="BH8" s="57"/>
-      <c r="BI8" s="57"/>
-      <c r="BJ8" s="57"/>
-      <c r="BK8" s="57"/>
-      <c r="BL8" s="57"/>
-      <c r="BM8" s="57"/>
-      <c r="BN8" s="57"/>
-      <c r="BO8" s="57"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
+      <c r="AN8" s="56"/>
+      <c r="AO8" s="56"/>
+      <c r="AP8" s="56"/>
+      <c r="AQ8" s="56"/>
+      <c r="AR8" s="56"/>
+      <c r="AS8" s="56"/>
+      <c r="AT8" s="56"/>
+      <c r="AU8" s="56"/>
+      <c r="AV8" s="56"/>
+      <c r="AW8" s="56"/>
+      <c r="AX8" s="56"/>
+      <c r="AY8" s="56"/>
+      <c r="AZ8" s="56"/>
+      <c r="BA8" s="56"/>
+      <c r="BB8" s="56"/>
+      <c r="BC8" s="56"/>
+      <c r="BD8" s="56"/>
+      <c r="BE8" s="56"/>
+      <c r="BF8" s="56"/>
+      <c r="BG8" s="56"/>
+      <c r="BH8" s="56"/>
+      <c r="BI8" s="56"/>
+      <c r="BJ8" s="56"/>
+      <c r="BK8" s="56"/>
+      <c r="BL8" s="56"/>
+      <c r="BM8" s="56"/>
+      <c r="BN8" s="56"/>
+      <c r="BO8" s="56"/>
       <c r="BP8"/>
       <c r="BQ8" s="4"/>
     </row>
@@ -1991,787 +1955,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="50" t="s">
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="49" t="s">
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="49"/>
-      <c r="AH11" s="49"/>
-      <c r="AI11" s="53" t="s">
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="AJ11" s="53"/>
-      <c r="AK11" s="53"/>
-      <c r="AL11" s="53"/>
-      <c r="AM11" s="53"/>
-      <c r="AN11" s="53"/>
-      <c r="AO11" s="53"/>
-      <c r="AP11" s="53"/>
-      <c r="AQ11" s="53"/>
-      <c r="AR11" s="53"/>
-      <c r="AS11" s="53"/>
-      <c r="AT11" s="53"/>
-      <c r="AU11" s="53"/>
-      <c r="AV11" s="53"/>
-      <c r="AW11" s="53"/>
-      <c r="AX11" s="53"/>
-      <c r="AY11" s="53"/>
-      <c r="AZ11" s="53"/>
-      <c r="BA11" s="53"/>
-      <c r="BB11" s="53"/>
-      <c r="BC11" s="53"/>
-      <c r="BD11" s="53"/>
-      <c r="BE11" s="53"/>
-      <c r="BF11" s="53"/>
-      <c r="BG11" s="53"/>
-      <c r="BH11" s="53"/>
-      <c r="BI11" s="53"/>
-      <c r="BJ11" s="53"/>
-      <c r="BK11" s="53"/>
-      <c r="BL11" s="53"/>
-      <c r="BM11" s="53"/>
-      <c r="BN11" s="53"/>
-      <c r="BO11" s="53"/>
+      <c r="AJ11" s="57"/>
+      <c r="AK11" s="57"/>
+      <c r="AL11" s="57"/>
+      <c r="AM11" s="57"/>
+      <c r="AN11" s="57"/>
+      <c r="AO11" s="57"/>
+      <c r="AP11" s="57"/>
+      <c r="AQ11" s="57"/>
+      <c r="AR11" s="57"/>
+      <c r="AS11" s="57"/>
+      <c r="AT11" s="57"/>
+      <c r="AU11" s="57"/>
+      <c r="AV11" s="57"/>
+      <c r="AW11" s="57"/>
+      <c r="AX11" s="57"/>
+      <c r="AY11" s="57"/>
+      <c r="AZ11" s="57"/>
+      <c r="BA11" s="57"/>
+      <c r="BB11" s="57"/>
+      <c r="BC11" s="57"/>
+      <c r="BD11" s="57"/>
+      <c r="BE11" s="57"/>
+      <c r="BF11" s="57"/>
+      <c r="BG11" s="57"/>
+      <c r="BH11" s="57"/>
+      <c r="BI11" s="57"/>
+      <c r="BJ11" s="57"/>
+      <c r="BK11" s="57"/>
+      <c r="BL11" s="57"/>
+      <c r="BM11" s="57"/>
+      <c r="BN11" s="57"/>
+      <c r="BO11" s="57"/>
       <c r="BP11"/>
       <c r="BQ11" s="4"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="51"/>
-      <c r="AF12" s="51"/>
-      <c r="AG12" s="51"/>
-      <c r="AH12" s="51"/>
-      <c r="AI12" s="51"/>
-      <c r="AJ12" s="51"/>
-      <c r="AK12" s="51"/>
-      <c r="AL12" s="51"/>
-      <c r="AM12" s="51"/>
-      <c r="AN12" s="51"/>
-      <c r="AO12" s="51"/>
-      <c r="AP12" s="51"/>
-      <c r="AQ12" s="51"/>
-      <c r="AR12" s="51"/>
-      <c r="AS12" s="51"/>
-      <c r="AT12" s="51"/>
-      <c r="AU12" s="51"/>
-      <c r="AV12" s="51"/>
-      <c r="AW12" s="51"/>
-      <c r="AX12" s="51"/>
-      <c r="AY12" s="51"/>
-      <c r="AZ12" s="51"/>
-      <c r="BA12" s="51"/>
-      <c r="BB12" s="51"/>
-      <c r="BC12" s="51"/>
-      <c r="BD12" s="51"/>
-      <c r="BE12" s="51"/>
-      <c r="BF12" s="51"/>
-      <c r="BG12" s="51"/>
-      <c r="BH12" s="51"/>
-      <c r="BI12" s="51"/>
-      <c r="BJ12" s="51"/>
-      <c r="BK12" s="51"/>
-      <c r="BL12" s="51"/>
-      <c r="BM12" s="51"/>
-      <c r="BN12" s="51"/>
-      <c r="BO12" s="51"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="58"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="58"/>
+      <c r="AI12" s="58"/>
+      <c r="AJ12" s="58"/>
+      <c r="AK12" s="58"/>
+      <c r="AL12" s="58"/>
+      <c r="AM12" s="58"/>
+      <c r="AN12" s="58"/>
+      <c r="AO12" s="58"/>
+      <c r="AP12" s="58"/>
+      <c r="AQ12" s="58"/>
+      <c r="AR12" s="58"/>
+      <c r="AS12" s="58"/>
+      <c r="AT12" s="58"/>
+      <c r="AU12" s="58"/>
+      <c r="AV12" s="58"/>
+      <c r="AW12" s="58"/>
+      <c r="AX12" s="58"/>
+      <c r="AY12" s="58"/>
+      <c r="AZ12" s="58"/>
+      <c r="BA12" s="58"/>
+      <c r="BB12" s="58"/>
+      <c r="BC12" s="58"/>
+      <c r="BD12" s="58"/>
+      <c r="BE12" s="58"/>
+      <c r="BF12" s="58"/>
+      <c r="BG12" s="58"/>
+      <c r="BH12" s="58"/>
+      <c r="BI12" s="58"/>
+      <c r="BJ12" s="58"/>
+      <c r="BK12" s="58"/>
+      <c r="BL12" s="58"/>
+      <c r="BM12" s="58"/>
+      <c r="BN12" s="58"/>
+      <c r="BO12" s="58"/>
       <c r="BP12"/>
       <c r="BQ12" s="4"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="51"/>
-      <c r="AF13" s="51"/>
-      <c r="AG13" s="51"/>
-      <c r="AH13" s="51"/>
-      <c r="AI13" s="51"/>
-      <c r="AJ13" s="51"/>
-      <c r="AK13" s="51"/>
-      <c r="AL13" s="51"/>
-      <c r="AM13" s="51"/>
-      <c r="AN13" s="51"/>
-      <c r="AO13" s="51"/>
-      <c r="AP13" s="51"/>
-      <c r="AQ13" s="51"/>
-      <c r="AR13" s="51"/>
-      <c r="AS13" s="51"/>
-      <c r="AT13" s="51"/>
-      <c r="AU13" s="51"/>
-      <c r="AV13" s="51"/>
-      <c r="AW13" s="51"/>
-      <c r="AX13" s="51"/>
-      <c r="AY13" s="51"/>
-      <c r="AZ13" s="51"/>
-      <c r="BA13" s="51"/>
-      <c r="BB13" s="51"/>
-      <c r="BC13" s="51"/>
-      <c r="BD13" s="51"/>
-      <c r="BE13" s="51"/>
-      <c r="BF13" s="51"/>
-      <c r="BG13" s="51"/>
-      <c r="BH13" s="51"/>
-      <c r="BI13" s="51"/>
-      <c r="BJ13" s="51"/>
-      <c r="BK13" s="51"/>
-      <c r="BL13" s="51"/>
-      <c r="BM13" s="51"/>
-      <c r="BN13" s="51"/>
-      <c r="BO13" s="51"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="58"/>
+      <c r="AI13" s="58"/>
+      <c r="AJ13" s="58"/>
+      <c r="AK13" s="58"/>
+      <c r="AL13" s="58"/>
+      <c r="AM13" s="58"/>
+      <c r="AN13" s="58"/>
+      <c r="AO13" s="58"/>
+      <c r="AP13" s="58"/>
+      <c r="AQ13" s="58"/>
+      <c r="AR13" s="58"/>
+      <c r="AS13" s="58"/>
+      <c r="AT13" s="58"/>
+      <c r="AU13" s="58"/>
+      <c r="AV13" s="58"/>
+      <c r="AW13" s="58"/>
+      <c r="AX13" s="58"/>
+      <c r="AY13" s="58"/>
+      <c r="AZ13" s="58"/>
+      <c r="BA13" s="58"/>
+      <c r="BB13" s="58"/>
+      <c r="BC13" s="58"/>
+      <c r="BD13" s="58"/>
+      <c r="BE13" s="58"/>
+      <c r="BF13" s="58"/>
+      <c r="BG13" s="58"/>
+      <c r="BH13" s="58"/>
+      <c r="BI13" s="58"/>
+      <c r="BJ13" s="58"/>
+      <c r="BK13" s="58"/>
+      <c r="BL13" s="58"/>
+      <c r="BM13" s="58"/>
+      <c r="BN13" s="58"/>
+      <c r="BO13" s="58"/>
       <c r="BP13"/>
       <c r="BQ13" s="4"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="55" t="s">
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="55"/>
-      <c r="AD14" s="55"/>
-      <c r="AE14" s="55"/>
-      <c r="AF14" s="55"/>
-      <c r="AG14" s="55"/>
-      <c r="AH14" s="55"/>
-      <c r="AI14" s="55"/>
-      <c r="AJ14" s="55"/>
-      <c r="AK14" s="55"/>
-      <c r="AL14" s="55"/>
-      <c r="AM14" s="55"/>
-      <c r="AN14" s="55"/>
-      <c r="AO14" s="55"/>
-      <c r="AP14" s="55"/>
-      <c r="AQ14" s="55"/>
-      <c r="AR14" s="55"/>
-      <c r="AS14" s="55"/>
-      <c r="AT14" s="55"/>
-      <c r="AU14" s="55"/>
-      <c r="AV14" s="55"/>
-      <c r="AW14" s="55"/>
-      <c r="AX14" s="55"/>
-      <c r="AY14" s="55"/>
-      <c r="AZ14" s="55"/>
-      <c r="BA14" s="55"/>
-      <c r="BB14" s="55"/>
-      <c r="BC14" s="55"/>
-      <c r="BD14" s="55"/>
-      <c r="BE14" s="55"/>
-      <c r="BF14" s="55"/>
-      <c r="BG14" s="55"/>
-      <c r="BH14" s="55"/>
-      <c r="BI14" s="55"/>
-      <c r="BJ14" s="55"/>
-      <c r="BK14" s="55"/>
-      <c r="BL14" s="55"/>
-      <c r="BM14" s="55"/>
-      <c r="BN14" s="55"/>
-      <c r="BO14" s="55"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="62"/>
+      <c r="AK14" s="62"/>
+      <c r="AL14" s="62"/>
+      <c r="AM14" s="62"/>
+      <c r="AN14" s="62"/>
+      <c r="AO14" s="62"/>
+      <c r="AP14" s="62"/>
+      <c r="AQ14" s="62"/>
+      <c r="AR14" s="62"/>
+      <c r="AS14" s="62"/>
+      <c r="AT14" s="62"/>
+      <c r="AU14" s="62"/>
+      <c r="AV14" s="62"/>
+      <c r="AW14" s="62"/>
+      <c r="AX14" s="62"/>
+      <c r="AY14" s="62"/>
+      <c r="AZ14" s="62"/>
+      <c r="BA14" s="62"/>
+      <c r="BB14" s="62"/>
+      <c r="BC14" s="62"/>
+      <c r="BD14" s="62"/>
+      <c r="BE14" s="62"/>
+      <c r="BF14" s="62"/>
+      <c r="BG14" s="62"/>
+      <c r="BH14" s="62"/>
+      <c r="BI14" s="62"/>
+      <c r="BJ14" s="62"/>
+      <c r="BK14" s="62"/>
+      <c r="BL14" s="62"/>
+      <c r="BM14" s="62"/>
+      <c r="BN14" s="62"/>
+      <c r="BO14" s="62"/>
       <c r="BP14"/>
       <c r="BQ14" s="4"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56"/>
-      <c r="AB15" s="56"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="56"/>
-      <c r="AF15" s="56"/>
-      <c r="AG15" s="56"/>
-      <c r="AH15" s="56"/>
-      <c r="AI15" s="56"/>
-      <c r="AJ15" s="56"/>
-      <c r="AK15" s="56"/>
-      <c r="AL15" s="56"/>
-      <c r="AM15" s="56"/>
-      <c r="AN15" s="56"/>
-      <c r="AO15" s="56"/>
-      <c r="AP15" s="56"/>
-      <c r="AQ15" s="56"/>
-      <c r="AR15" s="56"/>
-      <c r="AS15" s="56"/>
-      <c r="AT15" s="56"/>
-      <c r="AU15" s="56"/>
-      <c r="AV15" s="56"/>
-      <c r="AW15" s="56"/>
-      <c r="AX15" s="56"/>
-      <c r="AY15" s="56"/>
-      <c r="AZ15" s="56"/>
-      <c r="BA15" s="56"/>
-      <c r="BB15" s="56"/>
-      <c r="BC15" s="56"/>
-      <c r="BD15" s="56"/>
-      <c r="BE15" s="56"/>
-      <c r="BF15" s="56"/>
-      <c r="BG15" s="56"/>
-      <c r="BH15" s="56"/>
-      <c r="BI15" s="56"/>
-      <c r="BJ15" s="56"/>
-      <c r="BK15" s="56"/>
-      <c r="BL15" s="56"/>
-      <c r="BM15" s="56"/>
-      <c r="BN15" s="56"/>
-      <c r="BO15" s="56"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="58"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="58"/>
+      <c r="AE15" s="58"/>
+      <c r="AF15" s="58"/>
+      <c r="AG15" s="58"/>
+      <c r="AH15" s="58"/>
+      <c r="AI15" s="58"/>
+      <c r="AJ15" s="58"/>
+      <c r="AK15" s="58"/>
+      <c r="AL15" s="58"/>
+      <c r="AM15" s="58"/>
+      <c r="AN15" s="58"/>
+      <c r="AO15" s="58"/>
+      <c r="AP15" s="58"/>
+      <c r="AQ15" s="58"/>
+      <c r="AR15" s="58"/>
+      <c r="AS15" s="58"/>
+      <c r="AT15" s="58"/>
+      <c r="AU15" s="58"/>
+      <c r="AV15" s="58"/>
+      <c r="AW15" s="58"/>
+      <c r="AX15" s="58"/>
+      <c r="AY15" s="58"/>
+      <c r="AZ15" s="58"/>
+      <c r="BA15" s="58"/>
+      <c r="BB15" s="58"/>
+      <c r="BC15" s="58"/>
+      <c r="BD15" s="58"/>
+      <c r="BE15" s="58"/>
+      <c r="BF15" s="58"/>
+      <c r="BG15" s="58"/>
+      <c r="BH15" s="58"/>
+      <c r="BI15" s="58"/>
+      <c r="BJ15" s="58"/>
+      <c r="BK15" s="58"/>
+      <c r="BL15" s="58"/>
+      <c r="BM15" s="58"/>
+      <c r="BN15" s="58"/>
+      <c r="BO15" s="58"/>
       <c r="BP15"/>
       <c r="BQ15" s="4"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="56"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="56"/>
-      <c r="AJ16" s="56"/>
-      <c r="AK16" s="56"/>
-      <c r="AL16" s="56"/>
-      <c r="AM16" s="56"/>
-      <c r="AN16" s="56"/>
-      <c r="AO16" s="56"/>
-      <c r="AP16" s="56"/>
-      <c r="AQ16" s="56"/>
-      <c r="AR16" s="56"/>
-      <c r="AS16" s="56"/>
-      <c r="AT16" s="56"/>
-      <c r="AU16" s="56"/>
-      <c r="AV16" s="56"/>
-      <c r="AW16" s="56"/>
-      <c r="AX16" s="56"/>
-      <c r="AY16" s="56"/>
-      <c r="AZ16" s="56"/>
-      <c r="BA16" s="56"/>
-      <c r="BB16" s="56"/>
-      <c r="BC16" s="56"/>
-      <c r="BD16" s="56"/>
-      <c r="BE16" s="56"/>
-      <c r="BF16" s="56"/>
-      <c r="BG16" s="56"/>
-      <c r="BH16" s="56"/>
-      <c r="BI16" s="56"/>
-      <c r="BJ16" s="56"/>
-      <c r="BK16" s="56"/>
-      <c r="BL16" s="56"/>
-      <c r="BM16" s="56"/>
-      <c r="BN16" s="56"/>
-      <c r="BO16" s="56"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="58"/>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="58"/>
+      <c r="AE16" s="58"/>
+      <c r="AF16" s="58"/>
+      <c r="AG16" s="58"/>
+      <c r="AH16" s="58"/>
+      <c r="AI16" s="58"/>
+      <c r="AJ16" s="58"/>
+      <c r="AK16" s="58"/>
+      <c r="AL16" s="58"/>
+      <c r="AM16" s="58"/>
+      <c r="AN16" s="58"/>
+      <c r="AO16" s="58"/>
+      <c r="AP16" s="58"/>
+      <c r="AQ16" s="58"/>
+      <c r="AR16" s="58"/>
+      <c r="AS16" s="58"/>
+      <c r="AT16" s="58"/>
+      <c r="AU16" s="58"/>
+      <c r="AV16" s="58"/>
+      <c r="AW16" s="58"/>
+      <c r="AX16" s="58"/>
+      <c r="AY16" s="58"/>
+      <c r="AZ16" s="58"/>
+      <c r="BA16" s="58"/>
+      <c r="BB16" s="58"/>
+      <c r="BC16" s="58"/>
+      <c r="BD16" s="58"/>
+      <c r="BE16" s="58"/>
+      <c r="BF16" s="58"/>
+      <c r="BG16" s="58"/>
+      <c r="BH16" s="58"/>
+      <c r="BI16" s="58"/>
+      <c r="BJ16" s="58"/>
+      <c r="BK16" s="58"/>
+      <c r="BL16" s="58"/>
+      <c r="BM16" s="58"/>
+      <c r="BN16" s="58"/>
+      <c r="BO16" s="58"/>
       <c r="BP16"/>
       <c r="BQ16" s="4"/>
     </row>
     <row r="17" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="56"/>
-      <c r="AF17" s="56"/>
-      <c r="AG17" s="56"/>
-      <c r="AH17" s="56"/>
-      <c r="AI17" s="56"/>
-      <c r="AJ17" s="56"/>
-      <c r="AK17" s="56"/>
-      <c r="AL17" s="56"/>
-      <c r="AM17" s="56"/>
-      <c r="AN17" s="56"/>
-      <c r="AO17" s="56"/>
-      <c r="AP17" s="56"/>
-      <c r="AQ17" s="56"/>
-      <c r="AR17" s="56"/>
-      <c r="AS17" s="56"/>
-      <c r="AT17" s="56"/>
-      <c r="AU17" s="56"/>
-      <c r="AV17" s="56"/>
-      <c r="AW17" s="56"/>
-      <c r="AX17" s="56"/>
-      <c r="AY17" s="56"/>
-      <c r="AZ17" s="56"/>
-      <c r="BA17" s="56"/>
-      <c r="BB17" s="56"/>
-      <c r="BC17" s="56"/>
-      <c r="BD17" s="56"/>
-      <c r="BE17" s="56"/>
-      <c r="BF17" s="56"/>
-      <c r="BG17" s="56"/>
-      <c r="BH17" s="56"/>
-      <c r="BI17" s="56"/>
-      <c r="BJ17" s="56"/>
-      <c r="BK17" s="56"/>
-      <c r="BL17" s="56"/>
-      <c r="BM17" s="56"/>
-      <c r="BN17" s="56"/>
-      <c r="BO17" s="56"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="58"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="58"/>
+      <c r="AG17" s="58"/>
+      <c r="AH17" s="58"/>
+      <c r="AI17" s="58"/>
+      <c r="AJ17" s="58"/>
+      <c r="AK17" s="58"/>
+      <c r="AL17" s="58"/>
+      <c r="AM17" s="58"/>
+      <c r="AN17" s="58"/>
+      <c r="AO17" s="58"/>
+      <c r="AP17" s="58"/>
+      <c r="AQ17" s="58"/>
+      <c r="AR17" s="58"/>
+      <c r="AS17" s="58"/>
+      <c r="AT17" s="58"/>
+      <c r="AU17" s="58"/>
+      <c r="AV17" s="58"/>
+      <c r="AW17" s="58"/>
+      <c r="AX17" s="58"/>
+      <c r="AY17" s="58"/>
+      <c r="AZ17" s="58"/>
+      <c r="BA17" s="58"/>
+      <c r="BB17" s="58"/>
+      <c r="BC17" s="58"/>
+      <c r="BD17" s="58"/>
+      <c r="BE17" s="58"/>
+      <c r="BF17" s="58"/>
+      <c r="BG17" s="58"/>
+      <c r="BH17" s="58"/>
+      <c r="BI17" s="58"/>
+      <c r="BJ17" s="58"/>
+      <c r="BK17" s="58"/>
+      <c r="BL17" s="58"/>
+      <c r="BM17" s="58"/>
+      <c r="BN17" s="58"/>
+      <c r="BO17" s="58"/>
       <c r="BP17"/>
       <c r="BQ17" s="4"/>
     </row>
     <row r="18" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="56"/>
-      <c r="AF18" s="56"/>
-      <c r="AG18" s="56"/>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="56"/>
-      <c r="AJ18" s="56"/>
-      <c r="AK18" s="56"/>
-      <c r="AL18" s="56"/>
-      <c r="AM18" s="56"/>
-      <c r="AN18" s="56"/>
-      <c r="AO18" s="56"/>
-      <c r="AP18" s="56"/>
-      <c r="AQ18" s="56"/>
-      <c r="AR18" s="56"/>
-      <c r="AS18" s="56"/>
-      <c r="AT18" s="56"/>
-      <c r="AU18" s="56"/>
-      <c r="AV18" s="56"/>
-      <c r="AW18" s="56"/>
-      <c r="AX18" s="56"/>
-      <c r="AY18" s="56"/>
-      <c r="AZ18" s="56"/>
-      <c r="BA18" s="56"/>
-      <c r="BB18" s="56"/>
-      <c r="BC18" s="56"/>
-      <c r="BD18" s="56"/>
-      <c r="BE18" s="56"/>
-      <c r="BF18" s="56"/>
-      <c r="BG18" s="56"/>
-      <c r="BH18" s="56"/>
-      <c r="BI18" s="56"/>
-      <c r="BJ18" s="56"/>
-      <c r="BK18" s="56"/>
-      <c r="BL18" s="56"/>
-      <c r="BM18" s="56"/>
-      <c r="BN18" s="56"/>
-      <c r="BO18" s="56"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="58"/>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="58"/>
+      <c r="AE18" s="58"/>
+      <c r="AF18" s="58"/>
+      <c r="AG18" s="58"/>
+      <c r="AH18" s="58"/>
+      <c r="AI18" s="58"/>
+      <c r="AJ18" s="58"/>
+      <c r="AK18" s="58"/>
+      <c r="AL18" s="58"/>
+      <c r="AM18" s="58"/>
+      <c r="AN18" s="58"/>
+      <c r="AO18" s="58"/>
+      <c r="AP18" s="58"/>
+      <c r="AQ18" s="58"/>
+      <c r="AR18" s="58"/>
+      <c r="AS18" s="58"/>
+      <c r="AT18" s="58"/>
+      <c r="AU18" s="58"/>
+      <c r="AV18" s="58"/>
+      <c r="AW18" s="58"/>
+      <c r="AX18" s="58"/>
+      <c r="AY18" s="58"/>
+      <c r="AZ18" s="58"/>
+      <c r="BA18" s="58"/>
+      <c r="BB18" s="58"/>
+      <c r="BC18" s="58"/>
+      <c r="BD18" s="58"/>
+      <c r="BE18" s="58"/>
+      <c r="BF18" s="58"/>
+      <c r="BG18" s="58"/>
+      <c r="BH18" s="58"/>
+      <c r="BI18" s="58"/>
+      <c r="BJ18" s="58"/>
+      <c r="BK18" s="58"/>
+      <c r="BL18" s="58"/>
+      <c r="BM18" s="58"/>
+      <c r="BN18" s="58"/>
+      <c r="BO18" s="58"/>
       <c r="BP18"/>
       <c r="BQ18" s="4"/>
     </row>
     <row r="19" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="56"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="56"/>
-      <c r="AJ19" s="56"/>
-      <c r="AK19" s="56"/>
-      <c r="AL19" s="56"/>
-      <c r="AM19" s="56"/>
-      <c r="AN19" s="56"/>
-      <c r="AO19" s="56"/>
-      <c r="AP19" s="56"/>
-      <c r="AQ19" s="56"/>
-      <c r="AR19" s="56"/>
-      <c r="AS19" s="56"/>
-      <c r="AT19" s="56"/>
-      <c r="AU19" s="56"/>
-      <c r="AV19" s="56"/>
-      <c r="AW19" s="56"/>
-      <c r="AX19" s="56"/>
-      <c r="AY19" s="56"/>
-      <c r="AZ19" s="56"/>
-      <c r="BA19" s="56"/>
-      <c r="BB19" s="56"/>
-      <c r="BC19" s="56"/>
-      <c r="BD19" s="56"/>
-      <c r="BE19" s="56"/>
-      <c r="BF19" s="56"/>
-      <c r="BG19" s="56"/>
-      <c r="BH19" s="56"/>
-      <c r="BI19" s="56"/>
-      <c r="BJ19" s="56"/>
-      <c r="BK19" s="56"/>
-      <c r="BL19" s="56"/>
-      <c r="BM19" s="56"/>
-      <c r="BN19" s="56"/>
-      <c r="BO19" s="56"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="58"/>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="58"/>
+      <c r="AC19" s="58"/>
+      <c r="AD19" s="58"/>
+      <c r="AE19" s="58"/>
+      <c r="AF19" s="58"/>
+      <c r="AG19" s="58"/>
+      <c r="AH19" s="58"/>
+      <c r="AI19" s="58"/>
+      <c r="AJ19" s="58"/>
+      <c r="AK19" s="58"/>
+      <c r="AL19" s="58"/>
+      <c r="AM19" s="58"/>
+      <c r="AN19" s="58"/>
+      <c r="AO19" s="58"/>
+      <c r="AP19" s="58"/>
+      <c r="AQ19" s="58"/>
+      <c r="AR19" s="58"/>
+      <c r="AS19" s="58"/>
+      <c r="AT19" s="58"/>
+      <c r="AU19" s="58"/>
+      <c r="AV19" s="58"/>
+      <c r="AW19" s="58"/>
+      <c r="AX19" s="58"/>
+      <c r="AY19" s="58"/>
+      <c r="AZ19" s="58"/>
+      <c r="BA19" s="58"/>
+      <c r="BB19" s="58"/>
+      <c r="BC19" s="58"/>
+      <c r="BD19" s="58"/>
+      <c r="BE19" s="58"/>
+      <c r="BF19" s="58"/>
+      <c r="BG19" s="58"/>
+      <c r="BH19" s="58"/>
+      <c r="BI19" s="58"/>
+      <c r="BJ19" s="58"/>
+      <c r="BK19" s="58"/>
+      <c r="BL19" s="58"/>
+      <c r="BM19" s="58"/>
+      <c r="BN19" s="58"/>
+      <c r="BO19" s="58"/>
       <c r="BP19"/>
       <c r="BQ19" s="4"/>
     </row>
     <row r="20" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="56"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="56"/>
-      <c r="AK20" s="56"/>
-      <c r="AL20" s="56"/>
-      <c r="AM20" s="56"/>
-      <c r="AN20" s="56"/>
-      <c r="AO20" s="56"/>
-      <c r="AP20" s="56"/>
-      <c r="AQ20" s="56"/>
-      <c r="AR20" s="56"/>
-      <c r="AS20" s="56"/>
-      <c r="AT20" s="56"/>
-      <c r="AU20" s="56"/>
-      <c r="AV20" s="56"/>
-      <c r="AW20" s="56"/>
-      <c r="AX20" s="56"/>
-      <c r="AY20" s="56"/>
-      <c r="AZ20" s="56"/>
-      <c r="BA20" s="56"/>
-      <c r="BB20" s="56"/>
-      <c r="BC20" s="56"/>
-      <c r="BD20" s="56"/>
-      <c r="BE20" s="56"/>
-      <c r="BF20" s="56"/>
-      <c r="BG20" s="56"/>
-      <c r="BH20" s="56"/>
-      <c r="BI20" s="56"/>
-      <c r="BJ20" s="56"/>
-      <c r="BK20" s="56"/>
-      <c r="BL20" s="56"/>
-      <c r="BM20" s="56"/>
-      <c r="BN20" s="56"/>
-      <c r="BO20" s="56"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="58"/>
+      <c r="AE20" s="58"/>
+      <c r="AF20" s="58"/>
+      <c r="AG20" s="58"/>
+      <c r="AH20" s="58"/>
+      <c r="AI20" s="58"/>
+      <c r="AJ20" s="58"/>
+      <c r="AK20" s="58"/>
+      <c r="AL20" s="58"/>
+      <c r="AM20" s="58"/>
+      <c r="AN20" s="58"/>
+      <c r="AO20" s="58"/>
+      <c r="AP20" s="58"/>
+      <c r="AQ20" s="58"/>
+      <c r="AR20" s="58"/>
+      <c r="AS20" s="58"/>
+      <c r="AT20" s="58"/>
+      <c r="AU20" s="58"/>
+      <c r="AV20" s="58"/>
+      <c r="AW20" s="58"/>
+      <c r="AX20" s="58"/>
+      <c r="AY20" s="58"/>
+      <c r="AZ20" s="58"/>
+      <c r="BA20" s="58"/>
+      <c r="BB20" s="58"/>
+      <c r="BC20" s="58"/>
+      <c r="BD20" s="58"/>
+      <c r="BE20" s="58"/>
+      <c r="BF20" s="58"/>
+      <c r="BG20" s="58"/>
+      <c r="BH20" s="58"/>
+      <c r="BI20" s="58"/>
+      <c r="BJ20" s="58"/>
+      <c r="BK20" s="58"/>
+      <c r="BL20" s="58"/>
+      <c r="BM20" s="58"/>
+      <c r="BN20" s="58"/>
+      <c r="BO20" s="58"/>
       <c r="BP20"/>
       <c r="BQ20" s="4"/>
     </row>
     <row r="21" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="54"/>
-      <c r="AA21" s="54"/>
-      <c r="AB21" s="54"/>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="54"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="54"/>
-      <c r="AJ21" s="54"/>
-      <c r="AK21" s="54"/>
-      <c r="AL21" s="54"/>
-      <c r="AM21" s="54"/>
-      <c r="AN21" s="54"/>
-      <c r="AO21" s="54"/>
-      <c r="AP21" s="54"/>
-      <c r="AQ21" s="54"/>
-      <c r="AR21" s="54"/>
-      <c r="AS21" s="54"/>
-      <c r="AT21" s="54"/>
-      <c r="AU21" s="54"/>
-      <c r="AV21" s="54"/>
-      <c r="AW21" s="54"/>
-      <c r="AX21" s="54"/>
-      <c r="AY21" s="54"/>
-      <c r="AZ21" s="54"/>
-      <c r="BA21" s="54"/>
-      <c r="BB21" s="54"/>
-      <c r="BC21" s="54"/>
-      <c r="BD21" s="54"/>
-      <c r="BE21" s="54"/>
-      <c r="BF21" s="54"/>
-      <c r="BG21" s="54"/>
-      <c r="BH21" s="54"/>
-      <c r="BI21" s="54"/>
-      <c r="BJ21" s="54"/>
-      <c r="BK21" s="54"/>
-      <c r="BL21" s="54"/>
-      <c r="BM21" s="54"/>
-      <c r="BN21" s="54"/>
-      <c r="BO21" s="54"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="58"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="58"/>
+      <c r="AF21" s="58"/>
+      <c r="AG21" s="58"/>
+      <c r="AH21" s="58"/>
+      <c r="AI21" s="58"/>
+      <c r="AJ21" s="58"/>
+      <c r="AK21" s="58"/>
+      <c r="AL21" s="58"/>
+      <c r="AM21" s="58"/>
+      <c r="AN21" s="58"/>
+      <c r="AO21" s="58"/>
+      <c r="AP21" s="58"/>
+      <c r="AQ21" s="58"/>
+      <c r="AR21" s="58"/>
+      <c r="AS21" s="58"/>
+      <c r="AT21" s="58"/>
+      <c r="AU21" s="58"/>
+      <c r="AV21" s="58"/>
+      <c r="AW21" s="58"/>
+      <c r="AX21" s="58"/>
+      <c r="AY21" s="58"/>
+      <c r="AZ21" s="58"/>
+      <c r="BA21" s="58"/>
+      <c r="BB21" s="58"/>
+      <c r="BC21" s="58"/>
+      <c r="BD21" s="58"/>
+      <c r="BE21" s="58"/>
+      <c r="BF21" s="58"/>
+      <c r="BG21" s="58"/>
+      <c r="BH21" s="58"/>
+      <c r="BI21" s="58"/>
+      <c r="BJ21" s="58"/>
+      <c r="BK21" s="58"/>
+      <c r="BL21" s="58"/>
+      <c r="BM21" s="58"/>
+      <c r="BN21" s="58"/>
+      <c r="BO21" s="58"/>
       <c r="BP21"/>
       <c r="BQ21" s="4"/>
     </row>
@@ -2801,85 +2765,85 @@
     </row>
     <row r="25" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50" t="s">
+      <c r="D25" s="54"/>
+      <c r="E25" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50" t="s">
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="51" t="s">
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="51"/>
-      <c r="AD25" s="51"/>
-      <c r="AE25" s="49" t="s">
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="58"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="58"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="49"/>
-      <c r="AG25" s="49"/>
-      <c r="AH25" s="49"/>
-      <c r="AI25" s="49"/>
-      <c r="AJ25" s="49"/>
-      <c r="AK25" s="49"/>
-      <c r="AL25" s="49"/>
-      <c r="AM25" s="49"/>
-      <c r="AN25" s="49"/>
-      <c r="AO25" s="49"/>
-      <c r="AP25" s="49"/>
-      <c r="AQ25" s="49"/>
-      <c r="AR25" s="49"/>
-      <c r="AS25" s="49"/>
-      <c r="AT25" s="49"/>
-      <c r="AU25" s="49"/>
-      <c r="AV25" s="49"/>
-      <c r="AW25" s="49"/>
-      <c r="AX25" s="49"/>
-      <c r="AY25" s="49"/>
-      <c r="AZ25" s="49"/>
-      <c r="BA25" s="49"/>
-      <c r="BB25" s="49"/>
-      <c r="BC25" s="49"/>
-      <c r="BD25" s="49" t="s">
+      <c r="AF25" s="56"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="56"/>
+      <c r="AI25" s="56"/>
+      <c r="AJ25" s="56"/>
+      <c r="AK25" s="56"/>
+      <c r="AL25" s="56"/>
+      <c r="AM25" s="56"/>
+      <c r="AN25" s="56"/>
+      <c r="AO25" s="56"/>
+      <c r="AP25" s="56"/>
+      <c r="AQ25" s="56"/>
+      <c r="AR25" s="56"/>
+      <c r="AS25" s="56"/>
+      <c r="AT25" s="56"/>
+      <c r="AU25" s="56"/>
+      <c r="AV25" s="56"/>
+      <c r="AW25" s="56"/>
+      <c r="AX25" s="56"/>
+      <c r="AY25" s="56"/>
+      <c r="AZ25" s="56"/>
+      <c r="BA25" s="56"/>
+      <c r="BB25" s="56"/>
+      <c r="BC25" s="56"/>
+      <c r="BD25" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="BE25" s="49"/>
-      <c r="BF25" s="49"/>
-      <c r="BG25" s="49"/>
-      <c r="BH25" s="49"/>
-      <c r="BI25" s="49"/>
-      <c r="BJ25" s="49"/>
-      <c r="BK25" s="49" t="s">
+      <c r="BE25" s="56"/>
+      <c r="BF25" s="56"/>
+      <c r="BG25" s="56"/>
+      <c r="BH25" s="56"/>
+      <c r="BI25" s="56"/>
+      <c r="BJ25" s="56"/>
+      <c r="BK25" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="BL25" s="49"/>
-      <c r="BM25" s="49"/>
-      <c r="BN25" s="49"/>
-      <c r="BO25" s="49"/>
+      <c r="BL25" s="56"/>
+      <c r="BM25" s="56"/>
+      <c r="BN25" s="56"/>
+      <c r="BO25" s="56"/>
       <c r="BP25"/>
       <c r="BQ25" s="4"/>
       <c r="AMM25"/>
@@ -2896,81 +2860,81 @@
     </row>
     <row r="26" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="C26" s="50">
+      <c r="C26" s="54">
         <v>1</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="49" t="s">
+      <c r="D26" s="54"/>
+      <c r="E26" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="51" t="s">
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="51"/>
-      <c r="AC26" s="51"/>
-      <c r="AD26" s="51"/>
-      <c r="AE26" s="49" t="s">
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58"/>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="58"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="58"/>
+      <c r="AD26" s="58"/>
+      <c r="AE26" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="AF26" s="49"/>
-      <c r="AG26" s="49"/>
-      <c r="AH26" s="49"/>
-      <c r="AI26" s="49"/>
-      <c r="AJ26" s="49"/>
-      <c r="AK26" s="49"/>
-      <c r="AL26" s="49"/>
-      <c r="AM26" s="49"/>
-      <c r="AN26" s="49"/>
-      <c r="AO26" s="49"/>
-      <c r="AP26" s="49"/>
-      <c r="AQ26" s="49"/>
-      <c r="AR26" s="49"/>
-      <c r="AS26" s="49"/>
-      <c r="AT26" s="49"/>
-      <c r="AU26" s="49"/>
-      <c r="AV26" s="49"/>
-      <c r="AW26" s="49"/>
-      <c r="AX26" s="49"/>
-      <c r="AY26" s="49"/>
-      <c r="AZ26" s="49"/>
-      <c r="BA26" s="49"/>
-      <c r="BB26" s="49"/>
-      <c r="BC26" s="49"/>
-      <c r="BD26" s="49" t="s">
+      <c r="AF26" s="56"/>
+      <c r="AG26" s="56"/>
+      <c r="AH26" s="56"/>
+      <c r="AI26" s="56"/>
+      <c r="AJ26" s="56"/>
+      <c r="AK26" s="56"/>
+      <c r="AL26" s="56"/>
+      <c r="AM26" s="56"/>
+      <c r="AN26" s="56"/>
+      <c r="AO26" s="56"/>
+      <c r="AP26" s="56"/>
+      <c r="AQ26" s="56"/>
+      <c r="AR26" s="56"/>
+      <c r="AS26" s="56"/>
+      <c r="AT26" s="56"/>
+      <c r="AU26" s="56"/>
+      <c r="AV26" s="56"/>
+      <c r="AW26" s="56"/>
+      <c r="AX26" s="56"/>
+      <c r="AY26" s="56"/>
+      <c r="AZ26" s="56"/>
+      <c r="BA26" s="56"/>
+      <c r="BB26" s="56"/>
+      <c r="BC26" s="56"/>
+      <c r="BD26" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="BE26" s="49"/>
-      <c r="BF26" s="49"/>
-      <c r="BG26" s="49"/>
-      <c r="BH26" s="49"/>
-      <c r="BI26" s="49"/>
-      <c r="BJ26" s="49"/>
-      <c r="BK26" s="49"/>
-      <c r="BL26" s="49"/>
-      <c r="BM26" s="49"/>
-      <c r="BN26" s="49"/>
-      <c r="BO26" s="49"/>
+      <c r="BE26" s="56"/>
+      <c r="BF26" s="56"/>
+      <c r="BG26" s="56"/>
+      <c r="BH26" s="56"/>
+      <c r="BI26" s="56"/>
+      <c r="BJ26" s="56"/>
+      <c r="BK26" s="56"/>
+      <c r="BL26" s="56"/>
+      <c r="BM26" s="56"/>
+      <c r="BN26" s="56"/>
+      <c r="BO26" s="56"/>
       <c r="BQ26" s="4"/>
       <c r="AMM26"/>
       <c r="AMN26"/>
@@ -2986,73 +2950,73 @@
     </row>
     <row r="27" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="C27" s="50">
+      <c r="C27" s="54">
         <v>2</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
-      <c r="AB27" s="53"/>
-      <c r="AC27" s="53"/>
-      <c r="AD27" s="53"/>
-      <c r="AE27" s="49"/>
-      <c r="AF27" s="49"/>
-      <c r="AG27" s="49"/>
-      <c r="AH27" s="49"/>
-      <c r="AI27" s="49"/>
-      <c r="AJ27" s="49"/>
-      <c r="AK27" s="49"/>
-      <c r="AL27" s="49"/>
-      <c r="AM27" s="49"/>
-      <c r="AN27" s="49"/>
-      <c r="AO27" s="49"/>
-      <c r="AP27" s="49"/>
-      <c r="AQ27" s="49"/>
-      <c r="AR27" s="49"/>
-      <c r="AS27" s="49"/>
-      <c r="AT27" s="49"/>
-      <c r="AU27" s="49"/>
-      <c r="AV27" s="49"/>
-      <c r="AW27" s="49"/>
-      <c r="AX27" s="49"/>
-      <c r="AY27" s="49"/>
-      <c r="AZ27" s="49"/>
-      <c r="BA27" s="49"/>
-      <c r="BB27" s="49"/>
-      <c r="BC27" s="49"/>
-      <c r="BD27" s="49"/>
-      <c r="BE27" s="49"/>
-      <c r="BF27" s="49"/>
-      <c r="BG27" s="49"/>
-      <c r="BH27" s="49"/>
-      <c r="BI27" s="49"/>
-      <c r="BJ27" s="49"/>
-      <c r="BK27" s="49"/>
-      <c r="BL27" s="49"/>
-      <c r="BM27" s="49"/>
-      <c r="BN27" s="49"/>
-      <c r="BO27" s="49"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="57"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="57"/>
+      <c r="AE27" s="56"/>
+      <c r="AF27" s="56"/>
+      <c r="AG27" s="56"/>
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="56"/>
+      <c r="AJ27" s="56"/>
+      <c r="AK27" s="56"/>
+      <c r="AL27" s="56"/>
+      <c r="AM27" s="56"/>
+      <c r="AN27" s="56"/>
+      <c r="AO27" s="56"/>
+      <c r="AP27" s="56"/>
+      <c r="AQ27" s="56"/>
+      <c r="AR27" s="56"/>
+      <c r="AS27" s="56"/>
+      <c r="AT27" s="56"/>
+      <c r="AU27" s="56"/>
+      <c r="AV27" s="56"/>
+      <c r="AW27" s="56"/>
+      <c r="AX27" s="56"/>
+      <c r="AY27" s="56"/>
+      <c r="AZ27" s="56"/>
+      <c r="BA27" s="56"/>
+      <c r="BB27" s="56"/>
+      <c r="BC27" s="56"/>
+      <c r="BD27" s="56"/>
+      <c r="BE27" s="56"/>
+      <c r="BF27" s="56"/>
+      <c r="BG27" s="56"/>
+      <c r="BH27" s="56"/>
+      <c r="BI27" s="56"/>
+      <c r="BJ27" s="56"/>
+      <c r="BK27" s="56"/>
+      <c r="BL27" s="56"/>
+      <c r="BM27" s="56"/>
+      <c r="BN27" s="56"/>
+      <c r="BO27" s="56"/>
       <c r="BQ27" s="4"/>
       <c r="AMM27"/>
       <c r="AMN27"/>
@@ -3068,73 +3032,73 @@
     </row>
     <row r="28" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="C28" s="50">
+      <c r="C28" s="54">
         <v>3</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="51"/>
-      <c r="AC28" s="51"/>
-      <c r="AD28" s="51"/>
-      <c r="AE28" s="49"/>
-      <c r="AF28" s="49"/>
-      <c r="AG28" s="49"/>
-      <c r="AH28" s="49"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="49"/>
-      <c r="AK28" s="49"/>
-      <c r="AL28" s="49"/>
-      <c r="AM28" s="49"/>
-      <c r="AN28" s="49"/>
-      <c r="AO28" s="49"/>
-      <c r="AP28" s="49"/>
-      <c r="AQ28" s="49"/>
-      <c r="AR28" s="49"/>
-      <c r="AS28" s="49"/>
-      <c r="AT28" s="49"/>
-      <c r="AU28" s="49"/>
-      <c r="AV28" s="49"/>
-      <c r="AW28" s="49"/>
-      <c r="AX28" s="49"/>
-      <c r="AY28" s="49"/>
-      <c r="AZ28" s="49"/>
-      <c r="BA28" s="49"/>
-      <c r="BB28" s="49"/>
-      <c r="BC28" s="49"/>
-      <c r="BD28" s="49"/>
-      <c r="BE28" s="49"/>
-      <c r="BF28" s="49"/>
-      <c r="BG28" s="49"/>
-      <c r="BH28" s="49"/>
-      <c r="BI28" s="49"/>
-      <c r="BJ28" s="49"/>
-      <c r="BK28" s="49"/>
-      <c r="BL28" s="49"/>
-      <c r="BM28" s="49"/>
-      <c r="BN28" s="49"/>
-      <c r="BO28" s="49"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="58"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="58"/>
+      <c r="AE28" s="56"/>
+      <c r="AF28" s="56"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="56"/>
+      <c r="AM28" s="56"/>
+      <c r="AN28" s="56"/>
+      <c r="AO28" s="56"/>
+      <c r="AP28" s="56"/>
+      <c r="AQ28" s="56"/>
+      <c r="AR28" s="56"/>
+      <c r="AS28" s="56"/>
+      <c r="AT28" s="56"/>
+      <c r="AU28" s="56"/>
+      <c r="AV28" s="56"/>
+      <c r="AW28" s="56"/>
+      <c r="AX28" s="56"/>
+      <c r="AY28" s="56"/>
+      <c r="AZ28" s="56"/>
+      <c r="BA28" s="56"/>
+      <c r="BB28" s="56"/>
+      <c r="BC28" s="56"/>
+      <c r="BD28" s="56"/>
+      <c r="BE28" s="56"/>
+      <c r="BF28" s="56"/>
+      <c r="BG28" s="56"/>
+      <c r="BH28" s="56"/>
+      <c r="BI28" s="56"/>
+      <c r="BJ28" s="56"/>
+      <c r="BK28" s="56"/>
+      <c r="BL28" s="56"/>
+      <c r="BM28" s="56"/>
+      <c r="BN28" s="56"/>
+      <c r="BO28" s="56"/>
       <c r="BP28"/>
       <c r="BQ28" s="4"/>
       <c r="AMM28"/>
@@ -3151,73 +3115,73 @@
     </row>
     <row r="29" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="C29" s="50">
+      <c r="C29" s="54">
         <v>4</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="49"/>
-      <c r="AF29" s="49"/>
-      <c r="AG29" s="49"/>
-      <c r="AH29" s="49"/>
-      <c r="AI29" s="49"/>
-      <c r="AJ29" s="49"/>
-      <c r="AK29" s="49"/>
-      <c r="AL29" s="49"/>
-      <c r="AM29" s="49"/>
-      <c r="AN29" s="49"/>
-      <c r="AO29" s="49"/>
-      <c r="AP29" s="49"/>
-      <c r="AQ29" s="49"/>
-      <c r="AR29" s="49"/>
-      <c r="AS29" s="49"/>
-      <c r="AT29" s="49"/>
-      <c r="AU29" s="49"/>
-      <c r="AV29" s="49"/>
-      <c r="AW29" s="49"/>
-      <c r="AX29" s="49"/>
-      <c r="AY29" s="49"/>
-      <c r="AZ29" s="49"/>
-      <c r="BA29" s="49"/>
-      <c r="BB29" s="49"/>
-      <c r="BC29" s="49"/>
-      <c r="BD29" s="49"/>
-      <c r="BE29" s="49"/>
-      <c r="BF29" s="49"/>
-      <c r="BG29" s="49"/>
-      <c r="BH29" s="49"/>
-      <c r="BI29" s="49"/>
-      <c r="BJ29" s="49"/>
-      <c r="BK29" s="49"/>
-      <c r="BL29" s="49"/>
-      <c r="BM29" s="49"/>
-      <c r="BN29" s="49"/>
-      <c r="BO29" s="49"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="58"/>
+      <c r="AD29" s="58"/>
+      <c r="AE29" s="56"/>
+      <c r="AF29" s="56"/>
+      <c r="AG29" s="56"/>
+      <c r="AH29" s="56"/>
+      <c r="AI29" s="56"/>
+      <c r="AJ29" s="56"/>
+      <c r="AK29" s="56"/>
+      <c r="AL29" s="56"/>
+      <c r="AM29" s="56"/>
+      <c r="AN29" s="56"/>
+      <c r="AO29" s="56"/>
+      <c r="AP29" s="56"/>
+      <c r="AQ29" s="56"/>
+      <c r="AR29" s="56"/>
+      <c r="AS29" s="56"/>
+      <c r="AT29" s="56"/>
+      <c r="AU29" s="56"/>
+      <c r="AV29" s="56"/>
+      <c r="AW29" s="56"/>
+      <c r="AX29" s="56"/>
+      <c r="AY29" s="56"/>
+      <c r="AZ29" s="56"/>
+      <c r="BA29" s="56"/>
+      <c r="BB29" s="56"/>
+      <c r="BC29" s="56"/>
+      <c r="BD29" s="56"/>
+      <c r="BE29" s="56"/>
+      <c r="BF29" s="56"/>
+      <c r="BG29" s="56"/>
+      <c r="BH29" s="56"/>
+      <c r="BI29" s="56"/>
+      <c r="BJ29" s="56"/>
+      <c r="BK29" s="56"/>
+      <c r="BL29" s="56"/>
+      <c r="BM29" s="56"/>
+      <c r="BN29" s="56"/>
+      <c r="BO29" s="56"/>
       <c r="BP29"/>
       <c r="BQ29" s="4"/>
       <c r="AMM29"/>
@@ -3234,73 +3198,73 @@
     </row>
     <row r="30" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="C30" s="50">
+      <c r="C30" s="54">
         <v>5</v>
       </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AB30" s="51"/>
-      <c r="AC30" s="51"/>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="49"/>
-      <c r="AF30" s="49"/>
-      <c r="AG30" s="49"/>
-      <c r="AH30" s="49"/>
-      <c r="AI30" s="49"/>
-      <c r="AJ30" s="49"/>
-      <c r="AK30" s="49"/>
-      <c r="AL30" s="49"/>
-      <c r="AM30" s="49"/>
-      <c r="AN30" s="49"/>
-      <c r="AO30" s="49"/>
-      <c r="AP30" s="49"/>
-      <c r="AQ30" s="49"/>
-      <c r="AR30" s="49"/>
-      <c r="AS30" s="49"/>
-      <c r="AT30" s="49"/>
-      <c r="AU30" s="49"/>
-      <c r="AV30" s="49"/>
-      <c r="AW30" s="49"/>
-      <c r="AX30" s="49"/>
-      <c r="AY30" s="49"/>
-      <c r="AZ30" s="49"/>
-      <c r="BA30" s="49"/>
-      <c r="BB30" s="49"/>
-      <c r="BC30" s="49"/>
-      <c r="BD30" s="49"/>
-      <c r="BE30" s="49"/>
-      <c r="BF30" s="49"/>
-      <c r="BG30" s="49"/>
-      <c r="BH30" s="49"/>
-      <c r="BI30" s="49"/>
-      <c r="BJ30" s="49"/>
-      <c r="BK30" s="49"/>
-      <c r="BL30" s="49"/>
-      <c r="BM30" s="49"/>
-      <c r="BN30" s="49"/>
-      <c r="BO30" s="49"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="58"/>
+      <c r="AA30" s="58"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="58"/>
+      <c r="AD30" s="58"/>
+      <c r="AE30" s="56"/>
+      <c r="AF30" s="56"/>
+      <c r="AG30" s="56"/>
+      <c r="AH30" s="56"/>
+      <c r="AI30" s="56"/>
+      <c r="AJ30" s="56"/>
+      <c r="AK30" s="56"/>
+      <c r="AL30" s="56"/>
+      <c r="AM30" s="56"/>
+      <c r="AN30" s="56"/>
+      <c r="AO30" s="56"/>
+      <c r="AP30" s="56"/>
+      <c r="AQ30" s="56"/>
+      <c r="AR30" s="56"/>
+      <c r="AS30" s="56"/>
+      <c r="AT30" s="56"/>
+      <c r="AU30" s="56"/>
+      <c r="AV30" s="56"/>
+      <c r="AW30" s="56"/>
+      <c r="AX30" s="56"/>
+      <c r="AY30" s="56"/>
+      <c r="AZ30" s="56"/>
+      <c r="BA30" s="56"/>
+      <c r="BB30" s="56"/>
+      <c r="BC30" s="56"/>
+      <c r="BD30" s="56"/>
+      <c r="BE30" s="56"/>
+      <c r="BF30" s="56"/>
+      <c r="BG30" s="56"/>
+      <c r="BH30" s="56"/>
+      <c r="BI30" s="56"/>
+      <c r="BJ30" s="56"/>
+      <c r="BK30" s="56"/>
+      <c r="BL30" s="56"/>
+      <c r="BM30" s="56"/>
+      <c r="BN30" s="56"/>
+      <c r="BO30" s="56"/>
       <c r="BP30"/>
       <c r="BQ30" s="4"/>
       <c r="AMM30"/>
@@ -3317,73 +3281,73 @@
     </row>
     <row r="31" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="C31" s="50">
+      <c r="C31" s="54">
         <v>6</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="51"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="51"/>
-      <c r="AA31" s="51"/>
-      <c r="AB31" s="51"/>
-      <c r="AC31" s="51"/>
-      <c r="AD31" s="51"/>
-      <c r="AE31" s="49"/>
-      <c r="AF31" s="49"/>
-      <c r="AG31" s="49"/>
-      <c r="AH31" s="49"/>
-      <c r="AI31" s="49"/>
-      <c r="AJ31" s="49"/>
-      <c r="AK31" s="49"/>
-      <c r="AL31" s="49"/>
-      <c r="AM31" s="49"/>
-      <c r="AN31" s="49"/>
-      <c r="AO31" s="49"/>
-      <c r="AP31" s="49"/>
-      <c r="AQ31" s="49"/>
-      <c r="AR31" s="49"/>
-      <c r="AS31" s="49"/>
-      <c r="AT31" s="49"/>
-      <c r="AU31" s="49"/>
-      <c r="AV31" s="49"/>
-      <c r="AW31" s="49"/>
-      <c r="AX31" s="49"/>
-      <c r="AY31" s="49"/>
-      <c r="AZ31" s="49"/>
-      <c r="BA31" s="49"/>
-      <c r="BB31" s="49"/>
-      <c r="BC31" s="49"/>
-      <c r="BD31" s="49"/>
-      <c r="BE31" s="49"/>
-      <c r="BF31" s="49"/>
-      <c r="BG31" s="49"/>
-      <c r="BH31" s="49"/>
-      <c r="BI31" s="49"/>
-      <c r="BJ31" s="49"/>
-      <c r="BK31" s="49"/>
-      <c r="BL31" s="49"/>
-      <c r="BM31" s="49"/>
-      <c r="BN31" s="49"/>
-      <c r="BO31" s="49"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="58"/>
+      <c r="AA31" s="58"/>
+      <c r="AB31" s="58"/>
+      <c r="AC31" s="58"/>
+      <c r="AD31" s="58"/>
+      <c r="AE31" s="56"/>
+      <c r="AF31" s="56"/>
+      <c r="AG31" s="56"/>
+      <c r="AH31" s="56"/>
+      <c r="AI31" s="56"/>
+      <c r="AJ31" s="56"/>
+      <c r="AK31" s="56"/>
+      <c r="AL31" s="56"/>
+      <c r="AM31" s="56"/>
+      <c r="AN31" s="56"/>
+      <c r="AO31" s="56"/>
+      <c r="AP31" s="56"/>
+      <c r="AQ31" s="56"/>
+      <c r="AR31" s="56"/>
+      <c r="AS31" s="56"/>
+      <c r="AT31" s="56"/>
+      <c r="AU31" s="56"/>
+      <c r="AV31" s="56"/>
+      <c r="AW31" s="56"/>
+      <c r="AX31" s="56"/>
+      <c r="AY31" s="56"/>
+      <c r="AZ31" s="56"/>
+      <c r="BA31" s="56"/>
+      <c r="BB31" s="56"/>
+      <c r="BC31" s="56"/>
+      <c r="BD31" s="56"/>
+      <c r="BE31" s="56"/>
+      <c r="BF31" s="56"/>
+      <c r="BG31" s="56"/>
+      <c r="BH31" s="56"/>
+      <c r="BI31" s="56"/>
+      <c r="BJ31" s="56"/>
+      <c r="BK31" s="56"/>
+      <c r="BL31" s="56"/>
+      <c r="BM31" s="56"/>
+      <c r="BN31" s="56"/>
+      <c r="BO31" s="56"/>
       <c r="BP31"/>
       <c r="BQ31" s="4"/>
       <c r="AMM31"/>
@@ -3400,73 +3364,73 @@
     </row>
     <row r="32" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="C32" s="50">
+      <c r="C32" s="54">
         <v>7</v>
       </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="51"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="51"/>
-      <c r="Z32" s="51"/>
-      <c r="AA32" s="51"/>
-      <c r="AB32" s="51"/>
-      <c r="AC32" s="51"/>
-      <c r="AD32" s="51"/>
-      <c r="AE32" s="49"/>
-      <c r="AF32" s="49"/>
-      <c r="AG32" s="49"/>
-      <c r="AH32" s="49"/>
-      <c r="AI32" s="49"/>
-      <c r="AJ32" s="49"/>
-      <c r="AK32" s="49"/>
-      <c r="AL32" s="49"/>
-      <c r="AM32" s="49"/>
-      <c r="AN32" s="49"/>
-      <c r="AO32" s="49"/>
-      <c r="AP32" s="49"/>
-      <c r="AQ32" s="49"/>
-      <c r="AR32" s="49"/>
-      <c r="AS32" s="49"/>
-      <c r="AT32" s="49"/>
-      <c r="AU32" s="49"/>
-      <c r="AV32" s="49"/>
-      <c r="AW32" s="49"/>
-      <c r="AX32" s="49"/>
-      <c r="AY32" s="49"/>
-      <c r="AZ32" s="49"/>
-      <c r="BA32" s="49"/>
-      <c r="BB32" s="49"/>
-      <c r="BC32" s="49"/>
-      <c r="BD32" s="49"/>
-      <c r="BE32" s="49"/>
-      <c r="BF32" s="49"/>
-      <c r="BG32" s="49"/>
-      <c r="BH32" s="49"/>
-      <c r="BI32" s="49"/>
-      <c r="BJ32" s="49"/>
-      <c r="BK32" s="49"/>
-      <c r="BL32" s="49"/>
-      <c r="BM32" s="49"/>
-      <c r="BN32" s="49"/>
-      <c r="BO32" s="49"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="58"/>
+      <c r="Z32" s="58"/>
+      <c r="AA32" s="58"/>
+      <c r="AB32" s="58"/>
+      <c r="AC32" s="58"/>
+      <c r="AD32" s="58"/>
+      <c r="AE32" s="56"/>
+      <c r="AF32" s="56"/>
+      <c r="AG32" s="56"/>
+      <c r="AH32" s="56"/>
+      <c r="AI32" s="56"/>
+      <c r="AJ32" s="56"/>
+      <c r="AK32" s="56"/>
+      <c r="AL32" s="56"/>
+      <c r="AM32" s="56"/>
+      <c r="AN32" s="56"/>
+      <c r="AO32" s="56"/>
+      <c r="AP32" s="56"/>
+      <c r="AQ32" s="56"/>
+      <c r="AR32" s="56"/>
+      <c r="AS32" s="56"/>
+      <c r="AT32" s="56"/>
+      <c r="AU32" s="56"/>
+      <c r="AV32" s="56"/>
+      <c r="AW32" s="56"/>
+      <c r="AX32" s="56"/>
+      <c r="AY32" s="56"/>
+      <c r="AZ32" s="56"/>
+      <c r="BA32" s="56"/>
+      <c r="BB32" s="56"/>
+      <c r="BC32" s="56"/>
+      <c r="BD32" s="56"/>
+      <c r="BE32" s="56"/>
+      <c r="BF32" s="56"/>
+      <c r="BG32" s="56"/>
+      <c r="BH32" s="56"/>
+      <c r="BI32" s="56"/>
+      <c r="BJ32" s="56"/>
+      <c r="BK32" s="56"/>
+      <c r="BL32" s="56"/>
+      <c r="BM32" s="56"/>
+      <c r="BN32" s="56"/>
+      <c r="BO32" s="56"/>
       <c r="BP32"/>
       <c r="BQ32" s="4"/>
       <c r="AMM32"/>
@@ -3483,73 +3447,73 @@
     </row>
     <row r="33" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="C33" s="50">
+      <c r="C33" s="54">
         <v>8</v>
       </c>
-      <c r="D33" s="50"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="51"/>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="51"/>
-      <c r="Z33" s="51"/>
-      <c r="AA33" s="51"/>
-      <c r="AB33" s="51"/>
-      <c r="AC33" s="51"/>
-      <c r="AD33" s="51"/>
-      <c r="AE33" s="49"/>
-      <c r="AF33" s="49"/>
-      <c r="AG33" s="49"/>
-      <c r="AH33" s="49"/>
-      <c r="AI33" s="49"/>
-      <c r="AJ33" s="49"/>
-      <c r="AK33" s="49"/>
-      <c r="AL33" s="49"/>
-      <c r="AM33" s="49"/>
-      <c r="AN33" s="49"/>
-      <c r="AO33" s="49"/>
-      <c r="AP33" s="49"/>
-      <c r="AQ33" s="49"/>
-      <c r="AR33" s="49"/>
-      <c r="AS33" s="49"/>
-      <c r="AT33" s="49"/>
-      <c r="AU33" s="49"/>
-      <c r="AV33" s="49"/>
-      <c r="AW33" s="49"/>
-      <c r="AX33" s="49"/>
-      <c r="AY33" s="49"/>
-      <c r="AZ33" s="49"/>
-      <c r="BA33" s="49"/>
-      <c r="BB33" s="49"/>
-      <c r="BC33" s="49"/>
-      <c r="BD33" s="49"/>
-      <c r="BE33" s="49"/>
-      <c r="BF33" s="49"/>
-      <c r="BG33" s="49"/>
-      <c r="BH33" s="49"/>
-      <c r="BI33" s="49"/>
-      <c r="BJ33" s="49"/>
-      <c r="BK33" s="49"/>
-      <c r="BL33" s="49"/>
-      <c r="BM33" s="49"/>
-      <c r="BN33" s="49"/>
-      <c r="BO33" s="49"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="58"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="58"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="58"/>
+      <c r="Y33" s="58"/>
+      <c r="Z33" s="58"/>
+      <c r="AA33" s="58"/>
+      <c r="AB33" s="58"/>
+      <c r="AC33" s="58"/>
+      <c r="AD33" s="58"/>
+      <c r="AE33" s="56"/>
+      <c r="AF33" s="56"/>
+      <c r="AG33" s="56"/>
+      <c r="AH33" s="56"/>
+      <c r="AI33" s="56"/>
+      <c r="AJ33" s="56"/>
+      <c r="AK33" s="56"/>
+      <c r="AL33" s="56"/>
+      <c r="AM33" s="56"/>
+      <c r="AN33" s="56"/>
+      <c r="AO33" s="56"/>
+      <c r="AP33" s="56"/>
+      <c r="AQ33" s="56"/>
+      <c r="AR33" s="56"/>
+      <c r="AS33" s="56"/>
+      <c r="AT33" s="56"/>
+      <c r="AU33" s="56"/>
+      <c r="AV33" s="56"/>
+      <c r="AW33" s="56"/>
+      <c r="AX33" s="56"/>
+      <c r="AY33" s="56"/>
+      <c r="AZ33" s="56"/>
+      <c r="BA33" s="56"/>
+      <c r="BB33" s="56"/>
+      <c r="BC33" s="56"/>
+      <c r="BD33" s="56"/>
+      <c r="BE33" s="56"/>
+      <c r="BF33" s="56"/>
+      <c r="BG33" s="56"/>
+      <c r="BH33" s="56"/>
+      <c r="BI33" s="56"/>
+      <c r="BJ33" s="56"/>
+      <c r="BK33" s="56"/>
+      <c r="BL33" s="56"/>
+      <c r="BM33" s="56"/>
+      <c r="BN33" s="56"/>
+      <c r="BO33" s="56"/>
       <c r="BP33"/>
       <c r="BQ33" s="4"/>
       <c r="AMM33"/>
@@ -3566,73 +3530,73 @@
     </row>
     <row r="34" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="C34" s="50">
+      <c r="C34" s="54">
         <v>9</v>
       </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="51"/>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="51"/>
-      <c r="AB34" s="51"/>
-      <c r="AC34" s="51"/>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="49"/>
-      <c r="AF34" s="49"/>
-      <c r="AG34" s="49"/>
-      <c r="AH34" s="49"/>
-      <c r="AI34" s="49"/>
-      <c r="AJ34" s="49"/>
-      <c r="AK34" s="49"/>
-      <c r="AL34" s="49"/>
-      <c r="AM34" s="49"/>
-      <c r="AN34" s="49"/>
-      <c r="AO34" s="49"/>
-      <c r="AP34" s="49"/>
-      <c r="AQ34" s="49"/>
-      <c r="AR34" s="49"/>
-      <c r="AS34" s="49"/>
-      <c r="AT34" s="49"/>
-      <c r="AU34" s="49"/>
-      <c r="AV34" s="49"/>
-      <c r="AW34" s="49"/>
-      <c r="AX34" s="49"/>
-      <c r="AY34" s="49"/>
-      <c r="AZ34" s="49"/>
-      <c r="BA34" s="49"/>
-      <c r="BB34" s="49"/>
-      <c r="BC34" s="49"/>
-      <c r="BD34" s="49"/>
-      <c r="BE34" s="49"/>
-      <c r="BF34" s="49"/>
-      <c r="BG34" s="49"/>
-      <c r="BH34" s="49"/>
-      <c r="BI34" s="49"/>
-      <c r="BJ34" s="49"/>
-      <c r="BK34" s="49"/>
-      <c r="BL34" s="49"/>
-      <c r="BM34" s="49"/>
-      <c r="BN34" s="49"/>
-      <c r="BO34" s="49"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="58"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="58"/>
+      <c r="Z34" s="58"/>
+      <c r="AA34" s="58"/>
+      <c r="AB34" s="58"/>
+      <c r="AC34" s="58"/>
+      <c r="AD34" s="58"/>
+      <c r="AE34" s="56"/>
+      <c r="AF34" s="56"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="56"/>
+      <c r="AJ34" s="56"/>
+      <c r="AK34" s="56"/>
+      <c r="AL34" s="56"/>
+      <c r="AM34" s="56"/>
+      <c r="AN34" s="56"/>
+      <c r="AO34" s="56"/>
+      <c r="AP34" s="56"/>
+      <c r="AQ34" s="56"/>
+      <c r="AR34" s="56"/>
+      <c r="AS34" s="56"/>
+      <c r="AT34" s="56"/>
+      <c r="AU34" s="56"/>
+      <c r="AV34" s="56"/>
+      <c r="AW34" s="56"/>
+      <c r="AX34" s="56"/>
+      <c r="AY34" s="56"/>
+      <c r="AZ34" s="56"/>
+      <c r="BA34" s="56"/>
+      <c r="BB34" s="56"/>
+      <c r="BC34" s="56"/>
+      <c r="BD34" s="56"/>
+      <c r="BE34" s="56"/>
+      <c r="BF34" s="56"/>
+      <c r="BG34" s="56"/>
+      <c r="BH34" s="56"/>
+      <c r="BI34" s="56"/>
+      <c r="BJ34" s="56"/>
+      <c r="BK34" s="56"/>
+      <c r="BL34" s="56"/>
+      <c r="BM34" s="56"/>
+      <c r="BN34" s="56"/>
+      <c r="BO34" s="56"/>
       <c r="BP34"/>
       <c r="BQ34" s="4"/>
       <c r="AMM34"/>
@@ -3650,73 +3614,73 @@
     <row r="35" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="50">
+      <c r="C35" s="54">
         <v>10</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="51"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="51"/>
-      <c r="Z35" s="51"/>
-      <c r="AA35" s="51"/>
-      <c r="AB35" s="51"/>
-      <c r="AC35" s="51"/>
-      <c r="AD35" s="51"/>
-      <c r="AE35" s="49"/>
-      <c r="AF35" s="49"/>
-      <c r="AG35" s="49"/>
-      <c r="AH35" s="49"/>
-      <c r="AI35" s="49"/>
-      <c r="AJ35" s="49"/>
-      <c r="AK35" s="49"/>
-      <c r="AL35" s="49"/>
-      <c r="AM35" s="49"/>
-      <c r="AN35" s="49"/>
-      <c r="AO35" s="49"/>
-      <c r="AP35" s="49"/>
-      <c r="AQ35" s="49"/>
-      <c r="AR35" s="49"/>
-      <c r="AS35" s="49"/>
-      <c r="AT35" s="49"/>
-      <c r="AU35" s="49"/>
-      <c r="AV35" s="49"/>
-      <c r="AW35" s="49"/>
-      <c r="AX35" s="49"/>
-      <c r="AY35" s="49"/>
-      <c r="AZ35" s="49"/>
-      <c r="BA35" s="49"/>
-      <c r="BB35" s="49"/>
-      <c r="BC35" s="49"/>
-      <c r="BD35" s="49"/>
-      <c r="BE35" s="49"/>
-      <c r="BF35" s="49"/>
-      <c r="BG35" s="49"/>
-      <c r="BH35" s="49"/>
-      <c r="BI35" s="49"/>
-      <c r="BJ35" s="49"/>
-      <c r="BK35" s="49"/>
-      <c r="BL35" s="49"/>
-      <c r="BM35" s="49"/>
-      <c r="BN35" s="49"/>
-      <c r="BO35" s="49"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="58"/>
+      <c r="Y35" s="58"/>
+      <c r="Z35" s="58"/>
+      <c r="AA35" s="58"/>
+      <c r="AB35" s="58"/>
+      <c r="AC35" s="58"/>
+      <c r="AD35" s="58"/>
+      <c r="AE35" s="56"/>
+      <c r="AF35" s="56"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="56"/>
+      <c r="AI35" s="56"/>
+      <c r="AJ35" s="56"/>
+      <c r="AK35" s="56"/>
+      <c r="AL35" s="56"/>
+      <c r="AM35" s="56"/>
+      <c r="AN35" s="56"/>
+      <c r="AO35" s="56"/>
+      <c r="AP35" s="56"/>
+      <c r="AQ35" s="56"/>
+      <c r="AR35" s="56"/>
+      <c r="AS35" s="56"/>
+      <c r="AT35" s="56"/>
+      <c r="AU35" s="56"/>
+      <c r="AV35" s="56"/>
+      <c r="AW35" s="56"/>
+      <c r="AX35" s="56"/>
+      <c r="AY35" s="56"/>
+      <c r="AZ35" s="56"/>
+      <c r="BA35" s="56"/>
+      <c r="BB35" s="56"/>
+      <c r="BC35" s="56"/>
+      <c r="BD35" s="56"/>
+      <c r="BE35" s="56"/>
+      <c r="BF35" s="56"/>
+      <c r="BG35" s="56"/>
+      <c r="BH35" s="56"/>
+      <c r="BI35" s="56"/>
+      <c r="BJ35" s="56"/>
+      <c r="BK35" s="56"/>
+      <c r="BL35" s="56"/>
+      <c r="BM35" s="56"/>
+      <c r="BN35" s="56"/>
+      <c r="BO35" s="56"/>
       <c r="BP35"/>
       <c r="BQ35" s="4"/>
       <c r="AMM35"/>
@@ -4325,51 +4289,48 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="BD26:BJ26"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="BD25:BJ25"/>
-    <mergeCell ref="BK25:BO25"/>
+    <mergeCell ref="BK34:BO34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="O35:AD35"/>
+    <mergeCell ref="AE35:BC35"/>
+    <mergeCell ref="BD35:BJ35"/>
+    <mergeCell ref="BK35:BO35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="BK32:BO32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BJ33"/>
+    <mergeCell ref="BK33:BO33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD32:BJ32"/>
+    <mergeCell ref="BK30:BO30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BJ31"/>
+    <mergeCell ref="BK31:BO31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BJ30"/>
     <mergeCell ref="BK27:BO27"/>
     <mergeCell ref="BK26:BO26"/>
     <mergeCell ref="BK28:BO28"/>
@@ -4394,48 +4355,51 @@
     <mergeCell ref="BD27:BJ27"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:I26"/>
-    <mergeCell ref="BK30:BO30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BJ31"/>
-    <mergeCell ref="BK31:BO31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BJ30"/>
-    <mergeCell ref="BK32:BO32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BJ33"/>
-    <mergeCell ref="BK33:BO33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD32:BJ32"/>
-    <mergeCell ref="BK34:BO34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="O35:AD35"/>
-    <mergeCell ref="AE35:BC35"/>
-    <mergeCell ref="BD35:BJ35"/>
-    <mergeCell ref="BK35:BO35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD34:BJ34"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="BD26:BJ26"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="BD25:BJ25"/>
+    <mergeCell ref="BK25:BO25"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -4490,7 +4454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E3FF34-AE25-40C3-ADE9-72B98019CF4C}">
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -4506,247 +4470,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78" t="s">
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="79" t="s">
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="79"/>
-      <c r="AV1" s="79"/>
-      <c r="AW1" s="79"/>
-      <c r="AX1" s="79"/>
-      <c r="AY1" s="79"/>
-      <c r="AZ1" s="79"/>
-      <c r="BA1" s="79"/>
-      <c r="BB1" s="79"/>
-      <c r="BC1" s="79"/>
-      <c r="BD1" s="79"/>
-      <c r="BE1" s="79"/>
-      <c r="BF1" s="79"/>
-      <c r="BG1" s="79"/>
-      <c r="BH1" s="79"/>
-      <c r="BI1" s="79"/>
-      <c r="BJ1" s="79"/>
-      <c r="BK1" s="79"/>
-      <c r="BL1" s="79"/>
-      <c r="BM1" s="79"/>
-      <c r="BN1" s="79"/>
-      <c r="BO1" s="79"/>
-      <c r="BP1" s="79"/>
-      <c r="BQ1" s="79"/>
+      <c r="AU1" s="66"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="66"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="66"/>
+      <c r="BC1" s="66"/>
+      <c r="BD1" s="66"/>
+      <c r="BE1" s="66"/>
+      <c r="BF1" s="66"/>
+      <c r="BG1" s="66"/>
+      <c r="BH1" s="66"/>
+      <c r="BI1" s="66"/>
+      <c r="BJ1" s="66"/>
+      <c r="BK1" s="66"/>
+      <c r="BL1" s="66"/>
+      <c r="BM1" s="66"/>
+      <c r="BN1" s="66"/>
+      <c r="BO1" s="66"/>
+      <c r="BP1" s="66"/>
+      <c r="BQ1" s="66"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="58" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="69" t="s">
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69" t="s">
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67"/>
+      <c r="AP2" s="67"/>
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="67"/>
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="69"/>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69" t="s">
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
+      <c r="BA2" s="67"/>
+      <c r="BB2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="69"/>
-      <c r="BD2" s="69"/>
-      <c r="BE2" s="69"/>
-      <c r="BF2" s="69"/>
-      <c r="BG2" s="69"/>
-      <c r="BH2" s="69"/>
-      <c r="BI2" s="69"/>
-      <c r="BJ2" s="80" t="s">
+      <c r="BC2" s="67"/>
+      <c r="BD2" s="67"/>
+      <c r="BE2" s="67"/>
+      <c r="BF2" s="67"/>
+      <c r="BG2" s="67"/>
+      <c r="BH2" s="67"/>
+      <c r="BI2" s="67"/>
+      <c r="BJ2" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="BK2" s="80"/>
-      <c r="BL2" s="80"/>
-      <c r="BM2" s="80"/>
-      <c r="BN2" s="80"/>
-      <c r="BO2" s="80"/>
-      <c r="BP2" s="80"/>
-      <c r="BQ2" s="80"/>
+      <c r="BK2" s="68"/>
+      <c r="BL2" s="68"/>
+      <c r="BM2" s="68"/>
+      <c r="BN2" s="68"/>
+      <c r="BO2" s="68"/>
+      <c r="BP2" s="68"/>
+      <c r="BQ2" s="68"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="81" t="s">
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="81"/>
-      <c r="AM3" s="81"/>
-      <c r="AN3" s="81"/>
-      <c r="AO3" s="81"/>
-      <c r="AP3" s="81"/>
-      <c r="AQ3" s="81"/>
-      <c r="AR3" s="81"/>
-      <c r="AS3" s="81"/>
-      <c r="AT3" s="82">
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="69"/>
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="70">
         <v>45510</v>
       </c>
-      <c r="AU3" s="82"/>
-      <c r="AV3" s="82"/>
-      <c r="AW3" s="82"/>
-      <c r="AX3" s="82"/>
-      <c r="AY3" s="82"/>
-      <c r="AZ3" s="82"/>
-      <c r="BA3" s="82"/>
-      <c r="BB3" s="81" t="s">
+      <c r="AU3" s="70"/>
+      <c r="AV3" s="70"/>
+      <c r="AW3" s="70"/>
+      <c r="AX3" s="70"/>
+      <c r="AY3" s="70"/>
+      <c r="AZ3" s="70"/>
+      <c r="BA3" s="70"/>
+      <c r="BB3" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="81"/>
-      <c r="BD3" s="81"/>
-      <c r="BE3" s="81"/>
-      <c r="BF3" s="81"/>
-      <c r="BG3" s="81"/>
-      <c r="BH3" s="81"/>
-      <c r="BI3" s="81"/>
-      <c r="BJ3" s="83">
+      <c r="BC3" s="69"/>
+      <c r="BD3" s="69"/>
+      <c r="BE3" s="69"/>
+      <c r="BF3" s="69"/>
+      <c r="BG3" s="69"/>
+      <c r="BH3" s="69"/>
+      <c r="BI3" s="69"/>
+      <c r="BJ3" s="71">
         <v>45548</v>
       </c>
-      <c r="BK3" s="83"/>
-      <c r="BL3" s="83"/>
-      <c r="BM3" s="83"/>
-      <c r="BN3" s="83"/>
-      <c r="BO3" s="83"/>
-      <c r="BP3" s="83"/>
-      <c r="BQ3" s="83"/>
+      <c r="BK3" s="71"/>
+      <c r="BL3" s="71"/>
+      <c r="BM3" s="71"/>
+      <c r="BN3" s="71"/>
+      <c r="BO3" s="71"/>
+      <c r="BP3" s="71"/>
+      <c r="BQ3" s="71"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -4771,96 +4735,96 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50" t="s">
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="76" t="s">
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="76"/>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="76"/>
-      <c r="AJ6" s="76"/>
-      <c r="AK6" s="76"/>
-      <c r="AL6" s="76"/>
-      <c r="AM6" s="76"/>
-      <c r="AN6" s="76"/>
-      <c r="AO6" s="49" t="s">
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="72"/>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="72"/>
+      <c r="AL6" s="72"/>
+      <c r="AM6" s="72"/>
+      <c r="AN6" s="72"/>
+      <c r="AO6" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="49"/>
-      <c r="AQ6" s="49"/>
-      <c r="AR6" s="49"/>
-      <c r="AS6" s="49"/>
-      <c r="AT6" s="49"/>
-      <c r="AU6" s="49"/>
-      <c r="AV6" s="49" t="s">
+      <c r="AP6" s="56"/>
+      <c r="AQ6" s="56"/>
+      <c r="AR6" s="56"/>
+      <c r="AS6" s="56"/>
+      <c r="AT6" s="56"/>
+      <c r="AU6" s="56"/>
+      <c r="AV6" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="49"/>
-      <c r="AX6" s="49"/>
-      <c r="AY6" s="49"/>
-      <c r="AZ6" s="49"/>
-      <c r="BA6" s="49"/>
-      <c r="BB6" s="49"/>
-      <c r="BC6" s="49"/>
-      <c r="BD6" s="49"/>
-      <c r="BE6" s="49"/>
-      <c r="BF6" s="49"/>
-      <c r="BG6" s="49"/>
-      <c r="BH6" s="49"/>
-      <c r="BI6" s="49"/>
-      <c r="BJ6" s="49"/>
-      <c r="BK6" s="49"/>
-      <c r="BL6" s="49"/>
-      <c r="BM6" s="49"/>
-      <c r="BN6" s="49"/>
-      <c r="BO6" s="49"/>
-      <c r="BP6" s="49"/>
+      <c r="AW6" s="56"/>
+      <c r="AX6" s="56"/>
+      <c r="AY6" s="56"/>
+      <c r="AZ6" s="56"/>
+      <c r="BA6" s="56"/>
+      <c r="BB6" s="56"/>
+      <c r="BC6" s="56"/>
+      <c r="BD6" s="56"/>
+      <c r="BE6" s="56"/>
+      <c r="BF6" s="56"/>
+      <c r="BG6" s="56"/>
+      <c r="BH6" s="56"/>
+      <c r="BI6" s="56"/>
+      <c r="BJ6" s="56"/>
+      <c r="BK6" s="56"/>
+      <c r="BL6" s="56"/>
+      <c r="BM6" s="56"/>
+      <c r="BN6" s="56"/>
+      <c r="BO6" s="56"/>
+      <c r="BP6" s="56"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
       <c r="M7" s="17" t="s">
         <v>58</v>
       </c>
@@ -4891,38 +4855,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="49" t="s">
+      <c r="AO7" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="49"/>
-      <c r="AQ7" s="49"/>
-      <c r="AR7" s="49"/>
-      <c r="AS7" s="49"/>
-      <c r="AT7" s="49"/>
-      <c r="AU7" s="49"/>
-      <c r="AV7" s="49" t="s">
+      <c r="AP7" s="56"/>
+      <c r="AQ7" s="56"/>
+      <c r="AR7" s="56"/>
+      <c r="AS7" s="56"/>
+      <c r="AT7" s="56"/>
+      <c r="AU7" s="56"/>
+      <c r="AV7" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="AW7" s="49"/>
-      <c r="AX7" s="49"/>
-      <c r="AY7" s="49"/>
-      <c r="AZ7" s="49"/>
-      <c r="BA7" s="49"/>
-      <c r="BB7" s="49"/>
-      <c r="BC7" s="49"/>
-      <c r="BD7" s="49"/>
-      <c r="BE7" s="49"/>
-      <c r="BF7" s="49"/>
-      <c r="BG7" s="49"/>
-      <c r="BH7" s="49"/>
-      <c r="BI7" s="49"/>
-      <c r="BJ7" s="49"/>
-      <c r="BK7" s="49"/>
-      <c r="BL7" s="49"/>
-      <c r="BM7" s="49"/>
-      <c r="BN7" s="49"/>
-      <c r="BO7" s="49"/>
-      <c r="BP7" s="49"/>
+      <c r="AW7" s="56"/>
+      <c r="AX7" s="56"/>
+      <c r="AY7" s="56"/>
+      <c r="AZ7" s="56"/>
+      <c r="BA7" s="56"/>
+      <c r="BB7" s="56"/>
+      <c r="BC7" s="56"/>
+      <c r="BD7" s="56"/>
+      <c r="BE7" s="56"/>
+      <c r="BF7" s="56"/>
+      <c r="BG7" s="56"/>
+      <c r="BH7" s="56"/>
+      <c r="BI7" s="56"/>
+      <c r="BJ7" s="56"/>
+      <c r="BK7" s="56"/>
+      <c r="BL7" s="56"/>
+      <c r="BM7" s="56"/>
+      <c r="BN7" s="56"/>
+      <c r="BO7" s="56"/>
+      <c r="BP7" s="56"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -4936,89 +4900,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="69" t="s">
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69" t="s">
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="73" t="s">
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="74"/>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="74"/>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="74"/>
-      <c r="AN10" s="74"/>
-      <c r="AO10" s="74"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="74"/>
-      <c r="AR10" s="74"/>
-      <c r="AS10" s="74"/>
-      <c r="AT10" s="74"/>
-      <c r="AU10" s="74"/>
-      <c r="AV10" s="74"/>
-      <c r="AW10" s="74"/>
-      <c r="AX10" s="74"/>
-      <c r="AY10" s="74"/>
-      <c r="AZ10" s="74"/>
-      <c r="BA10" s="74"/>
-      <c r="BB10" s="74"/>
-      <c r="BC10" s="74"/>
-      <c r="BD10" s="74"/>
-      <c r="BE10" s="74"/>
-      <c r="BF10" s="74"/>
-      <c r="BG10" s="74"/>
-      <c r="BH10" s="74"/>
-      <c r="BI10" s="75"/>
-      <c r="BJ10" s="50" t="s">
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="75"/>
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="75"/>
+      <c r="AK10" s="75"/>
+      <c r="AL10" s="75"/>
+      <c r="AM10" s="75"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="75"/>
+      <c r="AQ10" s="75"/>
+      <c r="AR10" s="75"/>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="75"/>
+      <c r="AU10" s="75"/>
+      <c r="AV10" s="75"/>
+      <c r="AW10" s="75"/>
+      <c r="AX10" s="75"/>
+      <c r="AY10" s="75"/>
+      <c r="AZ10" s="75"/>
+      <c r="BA10" s="75"/>
+      <c r="BB10" s="75"/>
+      <c r="BC10" s="75"/>
+      <c r="BD10" s="75"/>
+      <c r="BE10" s="75"/>
+      <c r="BF10" s="75"/>
+      <c r="BG10" s="75"/>
+      <c r="BH10" s="75"/>
+      <c r="BI10" s="76"/>
+      <c r="BJ10" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="50"/>
-      <c r="BL10" s="50"/>
-      <c r="BM10" s="50"/>
-      <c r="BN10" s="50"/>
-      <c r="BO10" s="50"/>
-      <c r="BP10" s="50"/>
+      <c r="BK10" s="54"/>
+      <c r="BL10" s="54"/>
+      <c r="BM10" s="54"/>
+      <c r="BN10" s="54"/>
+      <c r="BO10" s="54"/>
+      <c r="BP10" s="54"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
       <c r="G11" s="17" t="s">
         <v>66</v>
       </c>
@@ -5034,11 +4998,11 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="69" t="s">
+      <c r="T11" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="69"/>
-      <c r="V11" s="72"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="78"/>
       <c r="W11" s="38" t="s">
         <v>65</v>
       </c>
@@ -5090,10 +5054,10 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -5106,9 +5070,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
       <c r="W12" s="38"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -5157,10 +5121,10 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -5174,9 +5138,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
       <c r="W13" s="38"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -5225,10 +5189,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -5242,9 +5206,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
       <c r="W14" s="38"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -5293,10 +5257,10 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -5310,9 +5274,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
       <c r="W15" s="38"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -5372,88 +5336,88 @@
       <c r="AG17" s="16"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="69" t="s">
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69" t="s">
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="50" t="s">
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="50"/>
-      <c r="AH18" s="50"/>
-      <c r="AI18" s="50"/>
-      <c r="AJ18" s="50"/>
-      <c r="AK18" s="50"/>
-      <c r="AL18" s="50"/>
-      <c r="AM18" s="50"/>
-      <c r="AN18" s="50"/>
-      <c r="AO18" s="50"/>
-      <c r="AP18" s="50"/>
-      <c r="AQ18" s="50"/>
-      <c r="AR18" s="50"/>
-      <c r="AS18" s="50"/>
-      <c r="AT18" s="50"/>
-      <c r="AU18" s="50"/>
-      <c r="AV18" s="50"/>
-      <c r="AW18" s="50"/>
-      <c r="AX18" s="50"/>
-      <c r="AY18" s="50"/>
-      <c r="AZ18" s="50"/>
-      <c r="BA18" s="50"/>
-      <c r="BB18" s="50"/>
-      <c r="BC18" s="50"/>
-      <c r="BD18" s="50"/>
-      <c r="BE18" s="50"/>
-      <c r="BF18" s="50"/>
-      <c r="BG18" s="50"/>
-      <c r="BH18" s="50"/>
-      <c r="BI18" s="50"/>
-      <c r="BJ18" s="50" t="s">
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54"/>
+      <c r="AF18" s="54"/>
+      <c r="AG18" s="54"/>
+      <c r="AH18" s="54"/>
+      <c r="AI18" s="54"/>
+      <c r="AJ18" s="54"/>
+      <c r="AK18" s="54"/>
+      <c r="AL18" s="54"/>
+      <c r="AM18" s="54"/>
+      <c r="AN18" s="54"/>
+      <c r="AO18" s="54"/>
+      <c r="AP18" s="54"/>
+      <c r="AQ18" s="54"/>
+      <c r="AR18" s="54"/>
+      <c r="AS18" s="54"/>
+      <c r="AT18" s="54"/>
+      <c r="AU18" s="54"/>
+      <c r="AV18" s="54"/>
+      <c r="AW18" s="54"/>
+      <c r="AX18" s="54"/>
+      <c r="AY18" s="54"/>
+      <c r="AZ18" s="54"/>
+      <c r="BA18" s="54"/>
+      <c r="BB18" s="54"/>
+      <c r="BC18" s="54"/>
+      <c r="BD18" s="54"/>
+      <c r="BE18" s="54"/>
+      <c r="BF18" s="54"/>
+      <c r="BG18" s="54"/>
+      <c r="BH18" s="54"/>
+      <c r="BI18" s="54"/>
+      <c r="BJ18" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="BK18" s="50"/>
-      <c r="BL18" s="50"/>
-      <c r="BM18" s="50"/>
-      <c r="BN18" s="50"/>
-      <c r="BO18" s="50"/>
-      <c r="BP18" s="50"/>
+      <c r="BK18" s="54"/>
+      <c r="BL18" s="54"/>
+      <c r="BM18" s="54"/>
+      <c r="BN18" s="54"/>
+      <c r="BO18" s="54"/>
+      <c r="BP18" s="54"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
       <c r="G19" s="17" t="s">
         <v>63</v>
       </c>
@@ -5469,11 +5433,11 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="69" t="s">
+      <c r="T19" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
       <c r="W19" s="21" t="s">
         <v>67</v>
       </c>
@@ -6031,6 +5995,37 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -6045,37 +6040,6 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -6130,7 +6094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE19C390-29E1-421F-802B-4C94FFCB0FB9}">
   <dimension ref="A1:AMK55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -6146,243 +6110,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="78"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="78" t="s">
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="78"/>
-      <c r="AM1" s="78"/>
-      <c r="AN1" s="78"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="78"/>
-      <c r="AQ1" s="78"/>
-      <c r="AR1" s="78"/>
-      <c r="AS1" s="78"/>
-      <c r="AT1" s="79" t="s">
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
+      <c r="AT1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="79"/>
-      <c r="AV1" s="79"/>
-      <c r="AW1" s="79"/>
-      <c r="AX1" s="79"/>
-      <c r="AY1" s="79"/>
-      <c r="AZ1" s="79"/>
-      <c r="BA1" s="79"/>
-      <c r="BB1" s="79"/>
-      <c r="BC1" s="79"/>
-      <c r="BD1" s="79"/>
-      <c r="BE1" s="79"/>
-      <c r="BF1" s="79"/>
-      <c r="BG1" s="79"/>
-      <c r="BH1" s="79"/>
-      <c r="BI1" s="79"/>
-      <c r="BJ1" s="79"/>
-      <c r="BK1" s="79"/>
-      <c r="BL1" s="79"/>
-      <c r="BM1" s="79"/>
-      <c r="BN1" s="79"/>
-      <c r="BO1" s="79"/>
-      <c r="BP1" s="79"/>
-      <c r="BQ1" s="79"/>
+      <c r="AU1" s="66"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="66"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="66"/>
+      <c r="BC1" s="66"/>
+      <c r="BD1" s="66"/>
+      <c r="BE1" s="66"/>
+      <c r="BF1" s="66"/>
+      <c r="BG1" s="66"/>
+      <c r="BH1" s="66"/>
+      <c r="BI1" s="66"/>
+      <c r="BJ1" s="66"/>
+      <c r="BK1" s="66"/>
+      <c r="BL1" s="66"/>
+      <c r="BM1" s="66"/>
+      <c r="BN1" s="66"/>
+      <c r="BO1" s="66"/>
+      <c r="BP1" s="66"/>
+      <c r="BQ1" s="66"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="58" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="58"/>
-      <c r="AC2" s="58"/>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="69" t="s">
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="69"/>
-      <c r="AQ2" s="69"/>
-      <c r="AR2" s="69"/>
-      <c r="AS2" s="69"/>
-      <c r="AT2" s="69" t="s">
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67"/>
+      <c r="AP2" s="67"/>
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="67"/>
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="AU2" s="69"/>
-      <c r="AV2" s="69"/>
-      <c r="AW2" s="69"/>
-      <c r="AX2" s="69"/>
-      <c r="AY2" s="69"/>
-      <c r="AZ2" s="69"/>
-      <c r="BA2" s="69"/>
-      <c r="BB2" s="69" t="s">
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
+      <c r="BA2" s="67"/>
+      <c r="BB2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="69"/>
-      <c r="BD2" s="69"/>
-      <c r="BE2" s="69"/>
-      <c r="BF2" s="69"/>
-      <c r="BG2" s="69"/>
-      <c r="BH2" s="69"/>
-      <c r="BI2" s="69"/>
-      <c r="BJ2" s="80"/>
-      <c r="BK2" s="80"/>
-      <c r="BL2" s="80"/>
-      <c r="BM2" s="80"/>
-      <c r="BN2" s="80"/>
-      <c r="BO2" s="80"/>
-      <c r="BP2" s="80"/>
-      <c r="BQ2" s="80"/>
+      <c r="BC2" s="67"/>
+      <c r="BD2" s="67"/>
+      <c r="BE2" s="67"/>
+      <c r="BF2" s="67"/>
+      <c r="BG2" s="67"/>
+      <c r="BH2" s="67"/>
+      <c r="BI2" s="67"/>
+      <c r="BJ2" s="68"/>
+      <c r="BK2" s="68"/>
+      <c r="BL2" s="68"/>
+      <c r="BM2" s="68"/>
+      <c r="BN2" s="68"/>
+      <c r="BO2" s="68"/>
+      <c r="BP2" s="68"/>
+      <c r="BQ2" s="68"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="81" t="s">
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="81"/>
-      <c r="AM3" s="81"/>
-      <c r="AN3" s="81"/>
-      <c r="AO3" s="81"/>
-      <c r="AP3" s="81"/>
-      <c r="AQ3" s="81"/>
-      <c r="AR3" s="81"/>
-      <c r="AS3" s="81"/>
-      <c r="AT3" s="82">
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="69"/>
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="70">
         <v>45554</v>
       </c>
-      <c r="AU3" s="82"/>
-      <c r="AV3" s="82"/>
-      <c r="AW3" s="82"/>
-      <c r="AX3" s="82"/>
-      <c r="AY3" s="82"/>
-      <c r="AZ3" s="82"/>
-      <c r="BA3" s="82"/>
-      <c r="BB3" s="81" t="s">
+      <c r="AU3" s="70"/>
+      <c r="AV3" s="70"/>
+      <c r="AW3" s="70"/>
+      <c r="AX3" s="70"/>
+      <c r="AY3" s="70"/>
+      <c r="AZ3" s="70"/>
+      <c r="BA3" s="70"/>
+      <c r="BB3" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="81"/>
-      <c r="BD3" s="81"/>
-      <c r="BE3" s="81"/>
-      <c r="BF3" s="81"/>
-      <c r="BG3" s="81"/>
-      <c r="BH3" s="81"/>
-      <c r="BI3" s="81"/>
-      <c r="BJ3" s="83"/>
-      <c r="BK3" s="83"/>
-      <c r="BL3" s="83"/>
-      <c r="BM3" s="83"/>
-      <c r="BN3" s="83"/>
-      <c r="BO3" s="83"/>
-      <c r="BP3" s="83"/>
-      <c r="BQ3" s="83"/>
+      <c r="BC3" s="69"/>
+      <c r="BD3" s="69"/>
+      <c r="BE3" s="69"/>
+      <c r="BF3" s="69"/>
+      <c r="BG3" s="69"/>
+      <c r="BH3" s="69"/>
+      <c r="BI3" s="69"/>
+      <c r="BJ3" s="71"/>
+      <c r="BK3" s="71"/>
+      <c r="BL3" s="71"/>
+      <c r="BM3" s="71"/>
+      <c r="BN3" s="71"/>
+      <c r="BO3" s="71"/>
+      <c r="BP3" s="71"/>
+      <c r="BQ3" s="71"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -6407,96 +6371,96 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50" t="s">
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="76" t="s">
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="76"/>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="76"/>
-      <c r="AJ6" s="76"/>
-      <c r="AK6" s="76"/>
-      <c r="AL6" s="76"/>
-      <c r="AM6" s="76"/>
-      <c r="AN6" s="76"/>
-      <c r="AO6" s="49" t="s">
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="72"/>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="72"/>
+      <c r="AL6" s="72"/>
+      <c r="AM6" s="72"/>
+      <c r="AN6" s="72"/>
+      <c r="AO6" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="49"/>
-      <c r="AQ6" s="49"/>
-      <c r="AR6" s="49"/>
-      <c r="AS6" s="49"/>
-      <c r="AT6" s="49"/>
-      <c r="AU6" s="49"/>
-      <c r="AV6" s="49" t="s">
+      <c r="AP6" s="56"/>
+      <c r="AQ6" s="56"/>
+      <c r="AR6" s="56"/>
+      <c r="AS6" s="56"/>
+      <c r="AT6" s="56"/>
+      <c r="AU6" s="56"/>
+      <c r="AV6" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="49"/>
-      <c r="AX6" s="49"/>
-      <c r="AY6" s="49"/>
-      <c r="AZ6" s="49"/>
-      <c r="BA6" s="49"/>
-      <c r="BB6" s="49"/>
-      <c r="BC6" s="49"/>
-      <c r="BD6" s="49"/>
-      <c r="BE6" s="49"/>
-      <c r="BF6" s="49"/>
-      <c r="BG6" s="49"/>
-      <c r="BH6" s="49"/>
-      <c r="BI6" s="49"/>
-      <c r="BJ6" s="49"/>
-      <c r="BK6" s="49"/>
-      <c r="BL6" s="49"/>
-      <c r="BM6" s="49"/>
-      <c r="BN6" s="49"/>
-      <c r="BO6" s="49"/>
-      <c r="BP6" s="49"/>
+      <c r="AW6" s="56"/>
+      <c r="AX6" s="56"/>
+      <c r="AY6" s="56"/>
+      <c r="AZ6" s="56"/>
+      <c r="BA6" s="56"/>
+      <c r="BB6" s="56"/>
+      <c r="BC6" s="56"/>
+      <c r="BD6" s="56"/>
+      <c r="BE6" s="56"/>
+      <c r="BF6" s="56"/>
+      <c r="BG6" s="56"/>
+      <c r="BH6" s="56"/>
+      <c r="BI6" s="56"/>
+      <c r="BJ6" s="56"/>
+      <c r="BK6" s="56"/>
+      <c r="BL6" s="56"/>
+      <c r="BM6" s="56"/>
+      <c r="BN6" s="56"/>
+      <c r="BO6" s="56"/>
+      <c r="BP6" s="56"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
       <c r="M7" s="17" t="s">
         <v>84</v>
       </c>
@@ -6527,38 +6491,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="49" t="s">
+      <c r="AO7" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="49"/>
-      <c r="AQ7" s="49"/>
-      <c r="AR7" s="49"/>
-      <c r="AS7" s="49"/>
-      <c r="AT7" s="49"/>
-      <c r="AU7" s="49"/>
-      <c r="AV7" s="49" t="s">
+      <c r="AP7" s="56"/>
+      <c r="AQ7" s="56"/>
+      <c r="AR7" s="56"/>
+      <c r="AS7" s="56"/>
+      <c r="AT7" s="56"/>
+      <c r="AU7" s="56"/>
+      <c r="AV7" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="AW7" s="49"/>
-      <c r="AX7" s="49"/>
-      <c r="AY7" s="49"/>
-      <c r="AZ7" s="49"/>
-      <c r="BA7" s="49"/>
-      <c r="BB7" s="49"/>
-      <c r="BC7" s="49"/>
-      <c r="BD7" s="49"/>
-      <c r="BE7" s="49"/>
-      <c r="BF7" s="49"/>
-      <c r="BG7" s="49"/>
-      <c r="BH7" s="49"/>
-      <c r="BI7" s="49"/>
-      <c r="BJ7" s="49"/>
-      <c r="BK7" s="49"/>
-      <c r="BL7" s="49"/>
-      <c r="BM7" s="49"/>
-      <c r="BN7" s="49"/>
-      <c r="BO7" s="49"/>
-      <c r="BP7" s="49"/>
+      <c r="AW7" s="56"/>
+      <c r="AX7" s="56"/>
+      <c r="AY7" s="56"/>
+      <c r="AZ7" s="56"/>
+      <c r="BA7" s="56"/>
+      <c r="BB7" s="56"/>
+      <c r="BC7" s="56"/>
+      <c r="BD7" s="56"/>
+      <c r="BE7" s="56"/>
+      <c r="BF7" s="56"/>
+      <c r="BG7" s="56"/>
+      <c r="BH7" s="56"/>
+      <c r="BI7" s="56"/>
+      <c r="BJ7" s="56"/>
+      <c r="BK7" s="56"/>
+      <c r="BL7" s="56"/>
+      <c r="BM7" s="56"/>
+      <c r="BN7" s="56"/>
+      <c r="BO7" s="56"/>
+      <c r="BP7" s="56"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -6572,89 +6536,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="69" t="s">
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69" t="s">
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="73" t="s">
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
-      <c r="AA10" s="74"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="74"/>
-      <c r="AE10" s="74"/>
-      <c r="AF10" s="74"/>
-      <c r="AG10" s="74"/>
-      <c r="AH10" s="74"/>
-      <c r="AI10" s="74"/>
-      <c r="AJ10" s="74"/>
-      <c r="AK10" s="74"/>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="74"/>
-      <c r="AN10" s="74"/>
-      <c r="AO10" s="74"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="74"/>
-      <c r="AR10" s="74"/>
-      <c r="AS10" s="74"/>
-      <c r="AT10" s="74"/>
-      <c r="AU10" s="74"/>
-      <c r="AV10" s="74"/>
-      <c r="AW10" s="74"/>
-      <c r="AX10" s="74"/>
-      <c r="AY10" s="74"/>
-      <c r="AZ10" s="74"/>
-      <c r="BA10" s="74"/>
-      <c r="BB10" s="74"/>
-      <c r="BC10" s="74"/>
-      <c r="BD10" s="74"/>
-      <c r="BE10" s="74"/>
-      <c r="BF10" s="74"/>
-      <c r="BG10" s="74"/>
-      <c r="BH10" s="74"/>
-      <c r="BI10" s="75"/>
-      <c r="BJ10" s="50" t="s">
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="75"/>
+      <c r="AB10" s="75"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="75"/>
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="75"/>
+      <c r="AK10" s="75"/>
+      <c r="AL10" s="75"/>
+      <c r="AM10" s="75"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="75"/>
+      <c r="AQ10" s="75"/>
+      <c r="AR10" s="75"/>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="75"/>
+      <c r="AU10" s="75"/>
+      <c r="AV10" s="75"/>
+      <c r="AW10" s="75"/>
+      <c r="AX10" s="75"/>
+      <c r="AY10" s="75"/>
+      <c r="AZ10" s="75"/>
+      <c r="BA10" s="75"/>
+      <c r="BB10" s="75"/>
+      <c r="BC10" s="75"/>
+      <c r="BD10" s="75"/>
+      <c r="BE10" s="75"/>
+      <c r="BF10" s="75"/>
+      <c r="BG10" s="75"/>
+      <c r="BH10" s="75"/>
+      <c r="BI10" s="76"/>
+      <c r="BJ10" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="50"/>
-      <c r="BL10" s="50"/>
-      <c r="BM10" s="50"/>
-      <c r="BN10" s="50"/>
-      <c r="BO10" s="50"/>
-      <c r="BP10" s="50"/>
+      <c r="BK10" s="54"/>
+      <c r="BL10" s="54"/>
+      <c r="BM10" s="54"/>
+      <c r="BN10" s="54"/>
+      <c r="BO10" s="54"/>
+      <c r="BP10" s="54"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
       <c r="G11" s="17" t="s">
         <v>86</v>
       </c>
@@ -6670,9 +6634,9 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="72"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="78"/>
       <c r="W11" s="38"/>
       <c r="X11" s="39"/>
       <c r="Y11" s="39"/>
@@ -6722,10 +6686,10 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -6738,9 +6702,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
       <c r="W12" s="38"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -6789,10 +6753,10 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -6806,9 +6770,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
       <c r="W13" s="38"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -6857,10 +6821,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -6874,9 +6838,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
       <c r="W14" s="38"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -6925,10 +6889,10 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -6942,9 +6906,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="67"/>
+      <c r="V15" s="67"/>
       <c r="W15" s="38"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -7004,88 +6968,88 @@
       <c r="AG17" s="16"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="69" t="s">
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="69"/>
-      <c r="R18" s="69"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69" t="s">
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="50" t="s">
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="50"/>
-      <c r="AA18" s="50"/>
-      <c r="AB18" s="50"/>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="50"/>
-      <c r="AH18" s="50"/>
-      <c r="AI18" s="50"/>
-      <c r="AJ18" s="50"/>
-      <c r="AK18" s="50"/>
-      <c r="AL18" s="50"/>
-      <c r="AM18" s="50"/>
-      <c r="AN18" s="50"/>
-      <c r="AO18" s="50"/>
-      <c r="AP18" s="50"/>
-      <c r="AQ18" s="50"/>
-      <c r="AR18" s="50"/>
-      <c r="AS18" s="50"/>
-      <c r="AT18" s="50"/>
-      <c r="AU18" s="50"/>
-      <c r="AV18" s="50"/>
-      <c r="AW18" s="50"/>
-      <c r="AX18" s="50"/>
-      <c r="AY18" s="50"/>
-      <c r="AZ18" s="50"/>
-      <c r="BA18" s="50"/>
-      <c r="BB18" s="50"/>
-      <c r="BC18" s="50"/>
-      <c r="BD18" s="50"/>
-      <c r="BE18" s="50"/>
-      <c r="BF18" s="50"/>
-      <c r="BG18" s="50"/>
-      <c r="BH18" s="50"/>
-      <c r="BI18" s="50"/>
-      <c r="BJ18" s="50" t="s">
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54"/>
+      <c r="AF18" s="54"/>
+      <c r="AG18" s="54"/>
+      <c r="AH18" s="54"/>
+      <c r="AI18" s="54"/>
+      <c r="AJ18" s="54"/>
+      <c r="AK18" s="54"/>
+      <c r="AL18" s="54"/>
+      <c r="AM18" s="54"/>
+      <c r="AN18" s="54"/>
+      <c r="AO18" s="54"/>
+      <c r="AP18" s="54"/>
+      <c r="AQ18" s="54"/>
+      <c r="AR18" s="54"/>
+      <c r="AS18" s="54"/>
+      <c r="AT18" s="54"/>
+      <c r="AU18" s="54"/>
+      <c r="AV18" s="54"/>
+      <c r="AW18" s="54"/>
+      <c r="AX18" s="54"/>
+      <c r="AY18" s="54"/>
+      <c r="AZ18" s="54"/>
+      <c r="BA18" s="54"/>
+      <c r="BB18" s="54"/>
+      <c r="BC18" s="54"/>
+      <c r="BD18" s="54"/>
+      <c r="BE18" s="54"/>
+      <c r="BF18" s="54"/>
+      <c r="BG18" s="54"/>
+      <c r="BH18" s="54"/>
+      <c r="BI18" s="54"/>
+      <c r="BJ18" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="BK18" s="50"/>
-      <c r="BL18" s="50"/>
-      <c r="BM18" s="50"/>
-      <c r="BN18" s="50"/>
-      <c r="BO18" s="50"/>
-      <c r="BP18" s="50"/>
+      <c r="BK18" s="54"/>
+      <c r="BL18" s="54"/>
+      <c r="BM18" s="54"/>
+      <c r="BN18" s="54"/>
+      <c r="BO18" s="54"/>
+      <c r="BP18" s="54"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
       <c r="G19" s="17" t="s">
         <v>63</v>
       </c>
@@ -7101,11 +7065,11 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="69" t="s">
+      <c r="T19" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
       <c r="W19" s="21" t="s">
         <v>87</v>
       </c>
@@ -7654,6 +7618,37 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -7668,37 +7663,6 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -7753,7 +7717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAC679A-4EC1-4C10-8A98-7CFBD70D81D5}">
   <dimension ref="B2:AW7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7766,60 +7730,60 @@
       </c>
     </row>
     <row r="3" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="84" t="s">
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="85"/>
-      <c r="AH3" s="85"/>
-      <c r="AI3" s="85"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="85"/>
-      <c r="AM3" s="85"/>
-      <c r="AN3" s="85"/>
-      <c r="AO3" s="85"/>
-      <c r="AP3" s="85"/>
-      <c r="AQ3" s="85"/>
-      <c r="AR3" s="85"/>
-      <c r="AS3" s="85"/>
-      <c r="AT3" s="85"/>
-      <c r="AU3" s="85"/>
-      <c r="AV3" s="85"/>
-      <c r="AW3" s="86"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="81"/>
+      <c r="AE3" s="81"/>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="81"/>
+      <c r="AH3" s="81"/>
+      <c r="AI3" s="81"/>
+      <c r="AJ3" s="81"/>
+      <c r="AK3" s="81"/>
+      <c r="AL3" s="81"/>
+      <c r="AM3" s="81"/>
+      <c r="AN3" s="81"/>
+      <c r="AO3" s="81"/>
+      <c r="AP3" s="81"/>
+      <c r="AQ3" s="81"/>
+      <c r="AR3" s="81"/>
+      <c r="AS3" s="81"/>
+      <c r="AT3" s="81"/>
+      <c r="AU3" s="81"/>
+      <c r="AV3" s="81"/>
+      <c r="AW3" s="82"/>
     </row>
     <row r="4" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="42" t="s">
@@ -8052,7 +8016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="17.5" x14ac:dyDescent="0.2"/>
   <cols>

--- a/交通費申請一覧機能/設計書/マッパー設計書_ユーザマスタ.xlsx
+++ b/交通費申請一覧機能/設計書/マッパー設計書_ユーザマスタ.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AUGCL42\Desktop\InternalSysDev2024\Internal-System-Development-2024\交通費申請一覧機能\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6FA2B8-B7AD-4214-93E3-03DF9D4B928F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64879F9D-293E-4D05-A093-0361E1822DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="200" windowWidth="13280" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1150" yWindow="30" windowWidth="13340" windowHeight="10050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス概要_ユーザマスターマッパー" sheetId="10" r:id="rId1"/>
     <sheet name="ユーザ取得" sheetId="14" r:id="rId2"/>
     <sheet name="全社員情報取得" sheetId="17" r:id="rId3"/>
-    <sheet name="表示用Id名前クラス" sheetId="15" r:id="rId4"/>
+    <sheet name="表示用Id名前DTOクラス" sheetId="15" r:id="rId4"/>
     <sheet name="マスタ" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -402,16 +402,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>表示用Id名前クラス</t>
-    <rPh sb="0" eb="3">
-      <t>ヒョウジヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>変数名</t>
     <rPh sb="0" eb="3">
       <t>ヘンスウメイ</t>
@@ -547,6 +537,16 @@
       <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>表示用Id名前DTOクラス</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウジヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
@@ -1078,6 +1078,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="4" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1093,34 +1120,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1130,9 +1155,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1145,28 +1167,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1">
@@ -1389,247 +1389,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50" t="s">
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="51" t="s">
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="59"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="59"/>
+      <c r="AT1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="51"/>
-      <c r="BB1" s="51"/>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="51"/>
-      <c r="BE1" s="51"/>
-      <c r="BF1" s="51"/>
-      <c r="BG1" s="51"/>
-      <c r="BH1" s="51"/>
-      <c r="BI1" s="51"/>
-      <c r="BJ1" s="51"/>
-      <c r="BK1" s="51"/>
-      <c r="BL1" s="51"/>
-      <c r="BM1" s="51"/>
-      <c r="BN1" s="51"/>
-      <c r="BO1" s="51"/>
-      <c r="BP1" s="51"/>
-      <c r="BQ1" s="51"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
+      <c r="BG1" s="60"/>
+      <c r="BH1" s="60"/>
+      <c r="BI1" s="60"/>
+      <c r="BJ1" s="60"/>
+      <c r="BK1" s="60"/>
+      <c r="BL1" s="60"/>
+      <c r="BM1" s="60"/>
+      <c r="BN1" s="60"/>
+      <c r="BO1" s="60"/>
+      <c r="BP1" s="60"/>
+      <c r="BQ1" s="60"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="54" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="62"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="62"/>
+      <c r="AH2" s="62"/>
+      <c r="AI2" s="62"/>
+      <c r="AJ2" s="62"/>
+      <c r="AK2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="54"/>
-      <c r="AP2" s="54"/>
-      <c r="AQ2" s="54"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="54"/>
-      <c r="AT2" s="54" t="s">
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="50"/>
+      <c r="AT2" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="54"/>
-      <c r="BB2" s="54" t="s">
+      <c r="AU2" s="50"/>
+      <c r="AV2" s="50"/>
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="50"/>
+      <c r="BA2" s="50"/>
+      <c r="BB2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="54"/>
-      <c r="BD2" s="54"/>
-      <c r="BE2" s="54"/>
-      <c r="BF2" s="54"/>
-      <c r="BG2" s="54"/>
-      <c r="BH2" s="54"/>
-      <c r="BI2" s="54"/>
-      <c r="BJ2" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="BK2" s="55"/>
-      <c r="BL2" s="55"/>
-      <c r="BM2" s="55"/>
-      <c r="BN2" s="55"/>
-      <c r="BO2" s="55"/>
-      <c r="BP2" s="55"/>
-      <c r="BQ2" s="55"/>
+      <c r="BC2" s="50"/>
+      <c r="BD2" s="50"/>
+      <c r="BE2" s="50"/>
+      <c r="BF2" s="50"/>
+      <c r="BG2" s="50"/>
+      <c r="BH2" s="50"/>
+      <c r="BI2" s="50"/>
+      <c r="BJ2" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK2" s="63"/>
+      <c r="BL2" s="63"/>
+      <c r="BM2" s="63"/>
+      <c r="BN2" s="63"/>
+      <c r="BO2" s="63"/>
+      <c r="BP2" s="63"/>
+      <c r="BQ2" s="63"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="59" t="s">
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="59"/>
-      <c r="AT3" s="60">
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
+      <c r="AO3" s="55"/>
+      <c r="AP3" s="55"/>
+      <c r="AQ3" s="55"/>
+      <c r="AR3" s="55"/>
+      <c r="AS3" s="55"/>
+      <c r="AT3" s="56">
         <v>45511</v>
       </c>
-      <c r="AU3" s="60"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="60"/>
-      <c r="AX3" s="60"/>
-      <c r="AY3" s="60"/>
-      <c r="AZ3" s="60"/>
-      <c r="BA3" s="60"/>
-      <c r="BB3" s="59" t="s">
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="56"/>
+      <c r="AZ3" s="56"/>
+      <c r="BA3" s="56"/>
+      <c r="BB3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="59"/>
-      <c r="BD3" s="59"/>
-      <c r="BE3" s="59"/>
-      <c r="BF3" s="59"/>
-      <c r="BG3" s="59"/>
-      <c r="BH3" s="59"/>
-      <c r="BI3" s="59"/>
-      <c r="BJ3" s="61">
+      <c r="BC3" s="55"/>
+      <c r="BD3" s="55"/>
+      <c r="BE3" s="55"/>
+      <c r="BF3" s="55"/>
+      <c r="BG3" s="55"/>
+      <c r="BH3" s="55"/>
+      <c r="BI3" s="55"/>
+      <c r="BJ3" s="57">
         <v>45548</v>
       </c>
-      <c r="BK3" s="61"/>
-      <c r="BL3" s="61"/>
-      <c r="BM3" s="61"/>
-      <c r="BN3" s="61"/>
-      <c r="BO3" s="61"/>
-      <c r="BP3" s="61"/>
-      <c r="BQ3" s="61"/>
+      <c r="BK3" s="57"/>
+      <c r="BL3" s="57"/>
+      <c r="BM3" s="57"/>
+      <c r="BN3" s="57"/>
+      <c r="BO3" s="57"/>
+      <c r="BP3" s="57"/>
+      <c r="BQ3" s="57"/>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -1696,213 +1696,213 @@
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="63"/>
-      <c r="Z6" s="63"/>
-      <c r="AA6" s="63"/>
-      <c r="AB6" s="63"/>
-      <c r="AC6" s="63"/>
-      <c r="AD6" s="63"/>
-      <c r="AE6" s="63"/>
-      <c r="AF6" s="63"/>
-      <c r="AG6" s="63"/>
-      <c r="AH6" s="63"/>
-      <c r="AI6" s="63"/>
-      <c r="AJ6" s="63"/>
-      <c r="AK6" s="63"/>
-      <c r="AL6" s="63"/>
-      <c r="AM6" s="63"/>
-      <c r="AN6" s="63"/>
-      <c r="AO6" s="63"/>
-      <c r="AP6" s="63"/>
-      <c r="AQ6" s="63"/>
-      <c r="AR6" s="63"/>
-      <c r="AS6" s="63"/>
-      <c r="AT6" s="63"/>
-      <c r="AU6" s="63"/>
-      <c r="AV6" s="63"/>
-      <c r="AW6" s="63"/>
-      <c r="AX6" s="63"/>
-      <c r="AY6" s="63"/>
-      <c r="AZ6" s="63"/>
-      <c r="BA6" s="63"/>
-      <c r="BB6" s="63"/>
-      <c r="BC6" s="63"/>
-      <c r="BD6" s="63"/>
-      <c r="BE6" s="63"/>
-      <c r="BF6" s="63"/>
-      <c r="BG6" s="63"/>
-      <c r="BH6" s="63"/>
-      <c r="BI6" s="63"/>
-      <c r="BJ6" s="63"/>
-      <c r="BK6" s="63"/>
-      <c r="BL6" s="63"/>
-      <c r="BM6" s="63"/>
-      <c r="BN6" s="63"/>
-      <c r="BO6" s="63"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="52"/>
+      <c r="AG6" s="52"/>
+      <c r="AH6" s="52"/>
+      <c r="AI6" s="52"/>
+      <c r="AJ6" s="52"/>
+      <c r="AK6" s="52"/>
+      <c r="AL6" s="52"/>
+      <c r="AM6" s="52"/>
+      <c r="AN6" s="52"/>
+      <c r="AO6" s="52"/>
+      <c r="AP6" s="52"/>
+      <c r="AQ6" s="52"/>
+      <c r="AR6" s="52"/>
+      <c r="AS6" s="52"/>
+      <c r="AT6" s="52"/>
+      <c r="AU6" s="52"/>
+      <c r="AV6" s="52"/>
+      <c r="AW6" s="52"/>
+      <c r="AX6" s="52"/>
+      <c r="AY6" s="52"/>
+      <c r="AZ6" s="52"/>
+      <c r="BA6" s="52"/>
+      <c r="BB6" s="52"/>
+      <c r="BC6" s="52"/>
+      <c r="BD6" s="52"/>
+      <c r="BE6" s="52"/>
+      <c r="BF6" s="52"/>
+      <c r="BG6" s="52"/>
+      <c r="BH6" s="52"/>
+      <c r="BI6" s="52"/>
+      <c r="BJ6" s="52"/>
+      <c r="BK6" s="52"/>
+      <c r="BL6" s="52"/>
+      <c r="BM6" s="52"/>
+      <c r="BN6" s="52"/>
+      <c r="BO6" s="52"/>
       <c r="BP6"/>
       <c r="BQ6" s="4"/>
     </row>
     <row r="7" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
-      <c r="X7" s="63"/>
-      <c r="Y7" s="63"/>
-      <c r="Z7" s="63"/>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="63"/>
-      <c r="AC7" s="63"/>
-      <c r="AD7" s="63"/>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="63"/>
-      <c r="AG7" s="63"/>
-      <c r="AH7" s="63"/>
-      <c r="AI7" s="63"/>
-      <c r="AJ7" s="63"/>
-      <c r="AK7" s="63"/>
-      <c r="AL7" s="63"/>
-      <c r="AM7" s="63"/>
-      <c r="AN7" s="63"/>
-      <c r="AO7" s="63"/>
-      <c r="AP7" s="63"/>
-      <c r="AQ7" s="63"/>
-      <c r="AR7" s="63"/>
-      <c r="AS7" s="63"/>
-      <c r="AT7" s="63"/>
-      <c r="AU7" s="63"/>
-      <c r="AV7" s="63"/>
-      <c r="AW7" s="63"/>
-      <c r="AX7" s="63"/>
-      <c r="AY7" s="63"/>
-      <c r="AZ7" s="63"/>
-      <c r="BA7" s="63"/>
-      <c r="BB7" s="63"/>
-      <c r="BC7" s="63"/>
-      <c r="BD7" s="63"/>
-      <c r="BE7" s="63"/>
-      <c r="BF7" s="63"/>
-      <c r="BG7" s="63"/>
-      <c r="BH7" s="63"/>
-      <c r="BI7" s="63"/>
-      <c r="BJ7" s="63"/>
-      <c r="BK7" s="63"/>
-      <c r="BL7" s="63"/>
-      <c r="BM7" s="63"/>
-      <c r="BN7" s="63"/>
-      <c r="BO7" s="63"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52"/>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="52"/>
+      <c r="AJ7" s="52"/>
+      <c r="AK7" s="52"/>
+      <c r="AL7" s="52"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="52"/>
+      <c r="AO7" s="52"/>
+      <c r="AP7" s="52"/>
+      <c r="AQ7" s="52"/>
+      <c r="AR7" s="52"/>
+      <c r="AS7" s="52"/>
+      <c r="AT7" s="52"/>
+      <c r="AU7" s="52"/>
+      <c r="AV7" s="52"/>
+      <c r="AW7" s="52"/>
+      <c r="AX7" s="52"/>
+      <c r="AY7" s="52"/>
+      <c r="AZ7" s="52"/>
+      <c r="BA7" s="52"/>
+      <c r="BB7" s="52"/>
+      <c r="BC7" s="52"/>
+      <c r="BD7" s="52"/>
+      <c r="BE7" s="52"/>
+      <c r="BF7" s="52"/>
+      <c r="BG7" s="52"/>
+      <c r="BH7" s="52"/>
+      <c r="BI7" s="52"/>
+      <c r="BJ7" s="52"/>
+      <c r="BK7" s="52"/>
+      <c r="BL7" s="52"/>
+      <c r="BM7" s="52"/>
+      <c r="BN7" s="52"/>
+      <c r="BO7" s="52"/>
       <c r="BP7"/>
       <c r="BQ7" s="4"/>
     </row>
     <row r="8" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
-      <c r="Y8" s="56"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="56"/>
-      <c r="AB8" s="56"/>
-      <c r="AC8" s="56"/>
-      <c r="AD8" s="56"/>
-      <c r="AE8" s="56"/>
-      <c r="AF8" s="56"/>
-      <c r="AG8" s="56"/>
-      <c r="AH8" s="56"/>
-      <c r="AI8" s="56"/>
-      <c r="AJ8" s="56"/>
-      <c r="AK8" s="56"/>
-      <c r="AL8" s="56"/>
-      <c r="AM8" s="56"/>
-      <c r="AN8" s="56"/>
-      <c r="AO8" s="56"/>
-      <c r="AP8" s="56"/>
-      <c r="AQ8" s="56"/>
-      <c r="AR8" s="56"/>
-      <c r="AS8" s="56"/>
-      <c r="AT8" s="56"/>
-      <c r="AU8" s="56"/>
-      <c r="AV8" s="56"/>
-      <c r="AW8" s="56"/>
-      <c r="AX8" s="56"/>
-      <c r="AY8" s="56"/>
-      <c r="AZ8" s="56"/>
-      <c r="BA8" s="56"/>
-      <c r="BB8" s="56"/>
-      <c r="BC8" s="56"/>
-      <c r="BD8" s="56"/>
-      <c r="BE8" s="56"/>
-      <c r="BF8" s="56"/>
-      <c r="BG8" s="56"/>
-      <c r="BH8" s="56"/>
-      <c r="BI8" s="56"/>
-      <c r="BJ8" s="56"/>
-      <c r="BK8" s="56"/>
-      <c r="BL8" s="56"/>
-      <c r="BM8" s="56"/>
-      <c r="BN8" s="56"/>
-      <c r="BO8" s="56"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="49"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="49"/>
+      <c r="AK8" s="49"/>
+      <c r="AL8" s="49"/>
+      <c r="AM8" s="49"/>
+      <c r="AN8" s="49"/>
+      <c r="AO8" s="49"/>
+      <c r="AP8" s="49"/>
+      <c r="AQ8" s="49"/>
+      <c r="AR8" s="49"/>
+      <c r="AS8" s="49"/>
+      <c r="AT8" s="49"/>
+      <c r="AU8" s="49"/>
+      <c r="AV8" s="49"/>
+      <c r="AW8" s="49"/>
+      <c r="AX8" s="49"/>
+      <c r="AY8" s="49"/>
+      <c r="AZ8" s="49"/>
+      <c r="BA8" s="49"/>
+      <c r="BB8" s="49"/>
+      <c r="BC8" s="49"/>
+      <c r="BD8" s="49"/>
+      <c r="BE8" s="49"/>
+      <c r="BF8" s="49"/>
+      <c r="BG8" s="49"/>
+      <c r="BH8" s="49"/>
+      <c r="BI8" s="49"/>
+      <c r="BJ8" s="49"/>
+      <c r="BK8" s="49"/>
+      <c r="BL8" s="49"/>
+      <c r="BM8" s="49"/>
+      <c r="BN8" s="49"/>
+      <c r="BO8" s="49"/>
       <c r="BP8"/>
       <c r="BQ8" s="4"/>
     </row>
@@ -1955,787 +1955,787 @@
     </row>
     <row r="11" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="54" t="s">
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="56" t="s">
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="56"/>
-      <c r="AF11" s="56"/>
-      <c r="AG11" s="56"/>
-      <c r="AH11" s="56"/>
-      <c r="AI11" s="57" t="s">
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="AJ11" s="57"/>
-      <c r="AK11" s="57"/>
-      <c r="AL11" s="57"/>
-      <c r="AM11" s="57"/>
-      <c r="AN11" s="57"/>
-      <c r="AO11" s="57"/>
-      <c r="AP11" s="57"/>
-      <c r="AQ11" s="57"/>
-      <c r="AR11" s="57"/>
-      <c r="AS11" s="57"/>
-      <c r="AT11" s="57"/>
-      <c r="AU11" s="57"/>
-      <c r="AV11" s="57"/>
-      <c r="AW11" s="57"/>
-      <c r="AX11" s="57"/>
-      <c r="AY11" s="57"/>
-      <c r="AZ11" s="57"/>
-      <c r="BA11" s="57"/>
-      <c r="BB11" s="57"/>
-      <c r="BC11" s="57"/>
-      <c r="BD11" s="57"/>
-      <c r="BE11" s="57"/>
-      <c r="BF11" s="57"/>
-      <c r="BG11" s="57"/>
-      <c r="BH11" s="57"/>
-      <c r="BI11" s="57"/>
-      <c r="BJ11" s="57"/>
-      <c r="BK11" s="57"/>
-      <c r="BL11" s="57"/>
-      <c r="BM11" s="57"/>
-      <c r="BN11" s="57"/>
-      <c r="BO11" s="57"/>
+      <c r="AJ11" s="53"/>
+      <c r="AK11" s="53"/>
+      <c r="AL11" s="53"/>
+      <c r="AM11" s="53"/>
+      <c r="AN11" s="53"/>
+      <c r="AO11" s="53"/>
+      <c r="AP11" s="53"/>
+      <c r="AQ11" s="53"/>
+      <c r="AR11" s="53"/>
+      <c r="AS11" s="53"/>
+      <c r="AT11" s="53"/>
+      <c r="AU11" s="53"/>
+      <c r="AV11" s="53"/>
+      <c r="AW11" s="53"/>
+      <c r="AX11" s="53"/>
+      <c r="AY11" s="53"/>
+      <c r="AZ11" s="53"/>
+      <c r="BA11" s="53"/>
+      <c r="BB11" s="53"/>
+      <c r="BC11" s="53"/>
+      <c r="BD11" s="53"/>
+      <c r="BE11" s="53"/>
+      <c r="BF11" s="53"/>
+      <c r="BG11" s="53"/>
+      <c r="BH11" s="53"/>
+      <c r="BI11" s="53"/>
+      <c r="BJ11" s="53"/>
+      <c r="BK11" s="53"/>
+      <c r="BL11" s="53"/>
+      <c r="BM11" s="53"/>
+      <c r="BN11" s="53"/>
+      <c r="BO11" s="53"/>
       <c r="BP11"/>
       <c r="BQ11" s="4"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="58"/>
-      <c r="W12" s="58"/>
-      <c r="X12" s="58"/>
-      <c r="Y12" s="58"/>
-      <c r="Z12" s="58"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="58"/>
-      <c r="AC12" s="58"/>
-      <c r="AD12" s="58"/>
-      <c r="AE12" s="58"/>
-      <c r="AF12" s="58"/>
-      <c r="AG12" s="58"/>
-      <c r="AH12" s="58"/>
-      <c r="AI12" s="58"/>
-      <c r="AJ12" s="58"/>
-      <c r="AK12" s="58"/>
-      <c r="AL12" s="58"/>
-      <c r="AM12" s="58"/>
-      <c r="AN12" s="58"/>
-      <c r="AO12" s="58"/>
-      <c r="AP12" s="58"/>
-      <c r="AQ12" s="58"/>
-      <c r="AR12" s="58"/>
-      <c r="AS12" s="58"/>
-      <c r="AT12" s="58"/>
-      <c r="AU12" s="58"/>
-      <c r="AV12" s="58"/>
-      <c r="AW12" s="58"/>
-      <c r="AX12" s="58"/>
-      <c r="AY12" s="58"/>
-      <c r="AZ12" s="58"/>
-      <c r="BA12" s="58"/>
-      <c r="BB12" s="58"/>
-      <c r="BC12" s="58"/>
-      <c r="BD12" s="58"/>
-      <c r="BE12" s="58"/>
-      <c r="BF12" s="58"/>
-      <c r="BG12" s="58"/>
-      <c r="BH12" s="58"/>
-      <c r="BI12" s="58"/>
-      <c r="BJ12" s="58"/>
-      <c r="BK12" s="58"/>
-      <c r="BL12" s="58"/>
-      <c r="BM12" s="58"/>
-      <c r="BN12" s="58"/>
-      <c r="BO12" s="58"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="51"/>
+      <c r="AI12" s="51"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="51"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="51"/>
+      <c r="AN12" s="51"/>
+      <c r="AO12" s="51"/>
+      <c r="AP12" s="51"/>
+      <c r="AQ12" s="51"/>
+      <c r="AR12" s="51"/>
+      <c r="AS12" s="51"/>
+      <c r="AT12" s="51"/>
+      <c r="AU12" s="51"/>
+      <c r="AV12" s="51"/>
+      <c r="AW12" s="51"/>
+      <c r="AX12" s="51"/>
+      <c r="AY12" s="51"/>
+      <c r="AZ12" s="51"/>
+      <c r="BA12" s="51"/>
+      <c r="BB12" s="51"/>
+      <c r="BC12" s="51"/>
+      <c r="BD12" s="51"/>
+      <c r="BE12" s="51"/>
+      <c r="BF12" s="51"/>
+      <c r="BG12" s="51"/>
+      <c r="BH12" s="51"/>
+      <c r="BI12" s="51"/>
+      <c r="BJ12" s="51"/>
+      <c r="BK12" s="51"/>
+      <c r="BL12" s="51"/>
+      <c r="BM12" s="51"/>
+      <c r="BN12" s="51"/>
+      <c r="BO12" s="51"/>
       <c r="BP12"/>
       <c r="BQ12" s="4"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="58"/>
-      <c r="X13" s="58"/>
-      <c r="Y13" s="58"/>
-      <c r="Z13" s="58"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="58"/>
-      <c r="AC13" s="58"/>
-      <c r="AD13" s="58"/>
-      <c r="AE13" s="58"/>
-      <c r="AF13" s="58"/>
-      <c r="AG13" s="58"/>
-      <c r="AH13" s="58"/>
-      <c r="AI13" s="58"/>
-      <c r="AJ13" s="58"/>
-      <c r="AK13" s="58"/>
-      <c r="AL13" s="58"/>
-      <c r="AM13" s="58"/>
-      <c r="AN13" s="58"/>
-      <c r="AO13" s="58"/>
-      <c r="AP13" s="58"/>
-      <c r="AQ13" s="58"/>
-      <c r="AR13" s="58"/>
-      <c r="AS13" s="58"/>
-      <c r="AT13" s="58"/>
-      <c r="AU13" s="58"/>
-      <c r="AV13" s="58"/>
-      <c r="AW13" s="58"/>
-      <c r="AX13" s="58"/>
-      <c r="AY13" s="58"/>
-      <c r="AZ13" s="58"/>
-      <c r="BA13" s="58"/>
-      <c r="BB13" s="58"/>
-      <c r="BC13" s="58"/>
-      <c r="BD13" s="58"/>
-      <c r="BE13" s="58"/>
-      <c r="BF13" s="58"/>
-      <c r="BG13" s="58"/>
-      <c r="BH13" s="58"/>
-      <c r="BI13" s="58"/>
-      <c r="BJ13" s="58"/>
-      <c r="BK13" s="58"/>
-      <c r="BL13" s="58"/>
-      <c r="BM13" s="58"/>
-      <c r="BN13" s="58"/>
-      <c r="BO13" s="58"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="51"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="51"/>
+      <c r="AI13" s="51"/>
+      <c r="AJ13" s="51"/>
+      <c r="AK13" s="51"/>
+      <c r="AL13" s="51"/>
+      <c r="AM13" s="51"/>
+      <c r="AN13" s="51"/>
+      <c r="AO13" s="51"/>
+      <c r="AP13" s="51"/>
+      <c r="AQ13" s="51"/>
+      <c r="AR13" s="51"/>
+      <c r="AS13" s="51"/>
+      <c r="AT13" s="51"/>
+      <c r="AU13" s="51"/>
+      <c r="AV13" s="51"/>
+      <c r="AW13" s="51"/>
+      <c r="AX13" s="51"/>
+      <c r="AY13" s="51"/>
+      <c r="AZ13" s="51"/>
+      <c r="BA13" s="51"/>
+      <c r="BB13" s="51"/>
+      <c r="BC13" s="51"/>
+      <c r="BD13" s="51"/>
+      <c r="BE13" s="51"/>
+      <c r="BF13" s="51"/>
+      <c r="BG13" s="51"/>
+      <c r="BH13" s="51"/>
+      <c r="BI13" s="51"/>
+      <c r="BJ13" s="51"/>
+      <c r="BK13" s="51"/>
+      <c r="BL13" s="51"/>
+      <c r="BM13" s="51"/>
+      <c r="BN13" s="51"/>
+      <c r="BO13" s="51"/>
       <c r="BP13"/>
       <c r="BQ13" s="4"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="62" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
-      <c r="AD14" s="62"/>
-      <c r="AE14" s="62"/>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="62"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="62"/>
-      <c r="AJ14" s="62"/>
-      <c r="AK14" s="62"/>
-      <c r="AL14" s="62"/>
-      <c r="AM14" s="62"/>
-      <c r="AN14" s="62"/>
-      <c r="AO14" s="62"/>
-      <c r="AP14" s="62"/>
-      <c r="AQ14" s="62"/>
-      <c r="AR14" s="62"/>
-      <c r="AS14" s="62"/>
-      <c r="AT14" s="62"/>
-      <c r="AU14" s="62"/>
-      <c r="AV14" s="62"/>
-      <c r="AW14" s="62"/>
-      <c r="AX14" s="62"/>
-      <c r="AY14" s="62"/>
-      <c r="AZ14" s="62"/>
-      <c r="BA14" s="62"/>
-      <c r="BB14" s="62"/>
-      <c r="BC14" s="62"/>
-      <c r="BD14" s="62"/>
-      <c r="BE14" s="62"/>
-      <c r="BF14" s="62"/>
-      <c r="BG14" s="62"/>
-      <c r="BH14" s="62"/>
-      <c r="BI14" s="62"/>
-      <c r="BJ14" s="62"/>
-      <c r="BK14" s="62"/>
-      <c r="BL14" s="62"/>
-      <c r="BM14" s="62"/>
-      <c r="BN14" s="62"/>
-      <c r="BO14" s="62"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="54"/>
+      <c r="AF14" s="54"/>
+      <c r="AG14" s="54"/>
+      <c r="AH14" s="54"/>
+      <c r="AI14" s="54"/>
+      <c r="AJ14" s="54"/>
+      <c r="AK14" s="54"/>
+      <c r="AL14" s="54"/>
+      <c r="AM14" s="54"/>
+      <c r="AN14" s="54"/>
+      <c r="AO14" s="54"/>
+      <c r="AP14" s="54"/>
+      <c r="AQ14" s="54"/>
+      <c r="AR14" s="54"/>
+      <c r="AS14" s="54"/>
+      <c r="AT14" s="54"/>
+      <c r="AU14" s="54"/>
+      <c r="AV14" s="54"/>
+      <c r="AW14" s="54"/>
+      <c r="AX14" s="54"/>
+      <c r="AY14" s="54"/>
+      <c r="AZ14" s="54"/>
+      <c r="BA14" s="54"/>
+      <c r="BB14" s="54"/>
+      <c r="BC14" s="54"/>
+      <c r="BD14" s="54"/>
+      <c r="BE14" s="54"/>
+      <c r="BF14" s="54"/>
+      <c r="BG14" s="54"/>
+      <c r="BH14" s="54"/>
+      <c r="BI14" s="54"/>
+      <c r="BJ14" s="54"/>
+      <c r="BK14" s="54"/>
+      <c r="BL14" s="54"/>
+      <c r="BM14" s="54"/>
+      <c r="BN14" s="54"/>
+      <c r="BO14" s="54"/>
       <c r="BP14"/>
       <c r="BQ14" s="4"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="58"/>
-      <c r="AC15" s="58"/>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="58"/>
-      <c r="AF15" s="58"/>
-      <c r="AG15" s="58"/>
-      <c r="AH15" s="58"/>
-      <c r="AI15" s="58"/>
-      <c r="AJ15" s="58"/>
-      <c r="AK15" s="58"/>
-      <c r="AL15" s="58"/>
-      <c r="AM15" s="58"/>
-      <c r="AN15" s="58"/>
-      <c r="AO15" s="58"/>
-      <c r="AP15" s="58"/>
-      <c r="AQ15" s="58"/>
-      <c r="AR15" s="58"/>
-      <c r="AS15" s="58"/>
-      <c r="AT15" s="58"/>
-      <c r="AU15" s="58"/>
-      <c r="AV15" s="58"/>
-      <c r="AW15" s="58"/>
-      <c r="AX15" s="58"/>
-      <c r="AY15" s="58"/>
-      <c r="AZ15" s="58"/>
-      <c r="BA15" s="58"/>
-      <c r="BB15" s="58"/>
-      <c r="BC15" s="58"/>
-      <c r="BD15" s="58"/>
-      <c r="BE15" s="58"/>
-      <c r="BF15" s="58"/>
-      <c r="BG15" s="58"/>
-      <c r="BH15" s="58"/>
-      <c r="BI15" s="58"/>
-      <c r="BJ15" s="58"/>
-      <c r="BK15" s="58"/>
-      <c r="BL15" s="58"/>
-      <c r="BM15" s="58"/>
-      <c r="BN15" s="58"/>
-      <c r="BO15" s="58"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="51"/>
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="51"/>
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="51"/>
+      <c r="AI15" s="51"/>
+      <c r="AJ15" s="51"/>
+      <c r="AK15" s="51"/>
+      <c r="AL15" s="51"/>
+      <c r="AM15" s="51"/>
+      <c r="AN15" s="51"/>
+      <c r="AO15" s="51"/>
+      <c r="AP15" s="51"/>
+      <c r="AQ15" s="51"/>
+      <c r="AR15" s="51"/>
+      <c r="AS15" s="51"/>
+      <c r="AT15" s="51"/>
+      <c r="AU15" s="51"/>
+      <c r="AV15" s="51"/>
+      <c r="AW15" s="51"/>
+      <c r="AX15" s="51"/>
+      <c r="AY15" s="51"/>
+      <c r="AZ15" s="51"/>
+      <c r="BA15" s="51"/>
+      <c r="BB15" s="51"/>
+      <c r="BC15" s="51"/>
+      <c r="BD15" s="51"/>
+      <c r="BE15" s="51"/>
+      <c r="BF15" s="51"/>
+      <c r="BG15" s="51"/>
+      <c r="BH15" s="51"/>
+      <c r="BI15" s="51"/>
+      <c r="BJ15" s="51"/>
+      <c r="BK15" s="51"/>
+      <c r="BL15" s="51"/>
+      <c r="BM15" s="51"/>
+      <c r="BN15" s="51"/>
+      <c r="BO15" s="51"/>
       <c r="BP15"/>
       <c r="BQ15" s="4"/>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="58"/>
-      <c r="AC16" s="58"/>
-      <c r="AD16" s="58"/>
-      <c r="AE16" s="58"/>
-      <c r="AF16" s="58"/>
-      <c r="AG16" s="58"/>
-      <c r="AH16" s="58"/>
-      <c r="AI16" s="58"/>
-      <c r="AJ16" s="58"/>
-      <c r="AK16" s="58"/>
-      <c r="AL16" s="58"/>
-      <c r="AM16" s="58"/>
-      <c r="AN16" s="58"/>
-      <c r="AO16" s="58"/>
-      <c r="AP16" s="58"/>
-      <c r="AQ16" s="58"/>
-      <c r="AR16" s="58"/>
-      <c r="AS16" s="58"/>
-      <c r="AT16" s="58"/>
-      <c r="AU16" s="58"/>
-      <c r="AV16" s="58"/>
-      <c r="AW16" s="58"/>
-      <c r="AX16" s="58"/>
-      <c r="AY16" s="58"/>
-      <c r="AZ16" s="58"/>
-      <c r="BA16" s="58"/>
-      <c r="BB16" s="58"/>
-      <c r="BC16" s="58"/>
-      <c r="BD16" s="58"/>
-      <c r="BE16" s="58"/>
-      <c r="BF16" s="58"/>
-      <c r="BG16" s="58"/>
-      <c r="BH16" s="58"/>
-      <c r="BI16" s="58"/>
-      <c r="BJ16" s="58"/>
-      <c r="BK16" s="58"/>
-      <c r="BL16" s="58"/>
-      <c r="BM16" s="58"/>
-      <c r="BN16" s="58"/>
-      <c r="BO16" s="58"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="51"/>
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="51"/>
+      <c r="AD16" s="51"/>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="51"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="51"/>
+      <c r="AI16" s="51"/>
+      <c r="AJ16" s="51"/>
+      <c r="AK16" s="51"/>
+      <c r="AL16" s="51"/>
+      <c r="AM16" s="51"/>
+      <c r="AN16" s="51"/>
+      <c r="AO16" s="51"/>
+      <c r="AP16" s="51"/>
+      <c r="AQ16" s="51"/>
+      <c r="AR16" s="51"/>
+      <c r="AS16" s="51"/>
+      <c r="AT16" s="51"/>
+      <c r="AU16" s="51"/>
+      <c r="AV16" s="51"/>
+      <c r="AW16" s="51"/>
+      <c r="AX16" s="51"/>
+      <c r="AY16" s="51"/>
+      <c r="AZ16" s="51"/>
+      <c r="BA16" s="51"/>
+      <c r="BB16" s="51"/>
+      <c r="BC16" s="51"/>
+      <c r="BD16" s="51"/>
+      <c r="BE16" s="51"/>
+      <c r="BF16" s="51"/>
+      <c r="BG16" s="51"/>
+      <c r="BH16" s="51"/>
+      <c r="BI16" s="51"/>
+      <c r="BJ16" s="51"/>
+      <c r="BK16" s="51"/>
+      <c r="BL16" s="51"/>
+      <c r="BM16" s="51"/>
+      <c r="BN16" s="51"/>
+      <c r="BO16" s="51"/>
       <c r="BP16"/>
       <c r="BQ16" s="4"/>
     </row>
     <row r="17" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="58"/>
-      <c r="Y17" s="58"/>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="58"/>
-      <c r="AG17" s="58"/>
-      <c r="AH17" s="58"/>
-      <c r="AI17" s="58"/>
-      <c r="AJ17" s="58"/>
-      <c r="AK17" s="58"/>
-      <c r="AL17" s="58"/>
-      <c r="AM17" s="58"/>
-      <c r="AN17" s="58"/>
-      <c r="AO17" s="58"/>
-      <c r="AP17" s="58"/>
-      <c r="AQ17" s="58"/>
-      <c r="AR17" s="58"/>
-      <c r="AS17" s="58"/>
-      <c r="AT17" s="58"/>
-      <c r="AU17" s="58"/>
-      <c r="AV17" s="58"/>
-      <c r="AW17" s="58"/>
-      <c r="AX17" s="58"/>
-      <c r="AY17" s="58"/>
-      <c r="AZ17" s="58"/>
-      <c r="BA17" s="58"/>
-      <c r="BB17" s="58"/>
-      <c r="BC17" s="58"/>
-      <c r="BD17" s="58"/>
-      <c r="BE17" s="58"/>
-      <c r="BF17" s="58"/>
-      <c r="BG17" s="58"/>
-      <c r="BH17" s="58"/>
-      <c r="BI17" s="58"/>
-      <c r="BJ17" s="58"/>
-      <c r="BK17" s="58"/>
-      <c r="BL17" s="58"/>
-      <c r="BM17" s="58"/>
-      <c r="BN17" s="58"/>
-      <c r="BO17" s="58"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51"/>
+      <c r="AB17" s="51"/>
+      <c r="AC17" s="51"/>
+      <c r="AD17" s="51"/>
+      <c r="AE17" s="51"/>
+      <c r="AF17" s="51"/>
+      <c r="AG17" s="51"/>
+      <c r="AH17" s="51"/>
+      <c r="AI17" s="51"/>
+      <c r="AJ17" s="51"/>
+      <c r="AK17" s="51"/>
+      <c r="AL17" s="51"/>
+      <c r="AM17" s="51"/>
+      <c r="AN17" s="51"/>
+      <c r="AO17" s="51"/>
+      <c r="AP17" s="51"/>
+      <c r="AQ17" s="51"/>
+      <c r="AR17" s="51"/>
+      <c r="AS17" s="51"/>
+      <c r="AT17" s="51"/>
+      <c r="AU17" s="51"/>
+      <c r="AV17" s="51"/>
+      <c r="AW17" s="51"/>
+      <c r="AX17" s="51"/>
+      <c r="AY17" s="51"/>
+      <c r="AZ17" s="51"/>
+      <c r="BA17" s="51"/>
+      <c r="BB17" s="51"/>
+      <c r="BC17" s="51"/>
+      <c r="BD17" s="51"/>
+      <c r="BE17" s="51"/>
+      <c r="BF17" s="51"/>
+      <c r="BG17" s="51"/>
+      <c r="BH17" s="51"/>
+      <c r="BI17" s="51"/>
+      <c r="BJ17" s="51"/>
+      <c r="BK17" s="51"/>
+      <c r="BL17" s="51"/>
+      <c r="BM17" s="51"/>
+      <c r="BN17" s="51"/>
+      <c r="BO17" s="51"/>
       <c r="BP17"/>
       <c r="BQ17" s="4"/>
     </row>
     <row r="18" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="58"/>
-      <c r="AD18" s="58"/>
-      <c r="AE18" s="58"/>
-      <c r="AF18" s="58"/>
-      <c r="AG18" s="58"/>
-      <c r="AH18" s="58"/>
-      <c r="AI18" s="58"/>
-      <c r="AJ18" s="58"/>
-      <c r="AK18" s="58"/>
-      <c r="AL18" s="58"/>
-      <c r="AM18" s="58"/>
-      <c r="AN18" s="58"/>
-      <c r="AO18" s="58"/>
-      <c r="AP18" s="58"/>
-      <c r="AQ18" s="58"/>
-      <c r="AR18" s="58"/>
-      <c r="AS18" s="58"/>
-      <c r="AT18" s="58"/>
-      <c r="AU18" s="58"/>
-      <c r="AV18" s="58"/>
-      <c r="AW18" s="58"/>
-      <c r="AX18" s="58"/>
-      <c r="AY18" s="58"/>
-      <c r="AZ18" s="58"/>
-      <c r="BA18" s="58"/>
-      <c r="BB18" s="58"/>
-      <c r="BC18" s="58"/>
-      <c r="BD18" s="58"/>
-      <c r="BE18" s="58"/>
-      <c r="BF18" s="58"/>
-      <c r="BG18" s="58"/>
-      <c r="BH18" s="58"/>
-      <c r="BI18" s="58"/>
-      <c r="BJ18" s="58"/>
-      <c r="BK18" s="58"/>
-      <c r="BL18" s="58"/>
-      <c r="BM18" s="58"/>
-      <c r="BN18" s="58"/>
-      <c r="BO18" s="58"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="51"/>
+      <c r="AB18" s="51"/>
+      <c r="AC18" s="51"/>
+      <c r="AD18" s="51"/>
+      <c r="AE18" s="51"/>
+      <c r="AF18" s="51"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="51"/>
+      <c r="AI18" s="51"/>
+      <c r="AJ18" s="51"/>
+      <c r="AK18" s="51"/>
+      <c r="AL18" s="51"/>
+      <c r="AM18" s="51"/>
+      <c r="AN18" s="51"/>
+      <c r="AO18" s="51"/>
+      <c r="AP18" s="51"/>
+      <c r="AQ18" s="51"/>
+      <c r="AR18" s="51"/>
+      <c r="AS18" s="51"/>
+      <c r="AT18" s="51"/>
+      <c r="AU18" s="51"/>
+      <c r="AV18" s="51"/>
+      <c r="AW18" s="51"/>
+      <c r="AX18" s="51"/>
+      <c r="AY18" s="51"/>
+      <c r="AZ18" s="51"/>
+      <c r="BA18" s="51"/>
+      <c r="BB18" s="51"/>
+      <c r="BC18" s="51"/>
+      <c r="BD18" s="51"/>
+      <c r="BE18" s="51"/>
+      <c r="BF18" s="51"/>
+      <c r="BG18" s="51"/>
+      <c r="BH18" s="51"/>
+      <c r="BI18" s="51"/>
+      <c r="BJ18" s="51"/>
+      <c r="BK18" s="51"/>
+      <c r="BL18" s="51"/>
+      <c r="BM18" s="51"/>
+      <c r="BN18" s="51"/>
+      <c r="BO18" s="51"/>
       <c r="BP18"/>
       <c r="BQ18" s="4"/>
     </row>
     <row r="19" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="58"/>
-      <c r="Y19" s="58"/>
-      <c r="Z19" s="58"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="58"/>
-      <c r="AC19" s="58"/>
-      <c r="AD19" s="58"/>
-      <c r="AE19" s="58"/>
-      <c r="AF19" s="58"/>
-      <c r="AG19" s="58"/>
-      <c r="AH19" s="58"/>
-      <c r="AI19" s="58"/>
-      <c r="AJ19" s="58"/>
-      <c r="AK19" s="58"/>
-      <c r="AL19" s="58"/>
-      <c r="AM19" s="58"/>
-      <c r="AN19" s="58"/>
-      <c r="AO19" s="58"/>
-      <c r="AP19" s="58"/>
-      <c r="AQ19" s="58"/>
-      <c r="AR19" s="58"/>
-      <c r="AS19" s="58"/>
-      <c r="AT19" s="58"/>
-      <c r="AU19" s="58"/>
-      <c r="AV19" s="58"/>
-      <c r="AW19" s="58"/>
-      <c r="AX19" s="58"/>
-      <c r="AY19" s="58"/>
-      <c r="AZ19" s="58"/>
-      <c r="BA19" s="58"/>
-      <c r="BB19" s="58"/>
-      <c r="BC19" s="58"/>
-      <c r="BD19" s="58"/>
-      <c r="BE19" s="58"/>
-      <c r="BF19" s="58"/>
-      <c r="BG19" s="58"/>
-      <c r="BH19" s="58"/>
-      <c r="BI19" s="58"/>
-      <c r="BJ19" s="58"/>
-      <c r="BK19" s="58"/>
-      <c r="BL19" s="58"/>
-      <c r="BM19" s="58"/>
-      <c r="BN19" s="58"/>
-      <c r="BO19" s="58"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="51"/>
+      <c r="AB19" s="51"/>
+      <c r="AC19" s="51"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="51"/>
+      <c r="AI19" s="51"/>
+      <c r="AJ19" s="51"/>
+      <c r="AK19" s="51"/>
+      <c r="AL19" s="51"/>
+      <c r="AM19" s="51"/>
+      <c r="AN19" s="51"/>
+      <c r="AO19" s="51"/>
+      <c r="AP19" s="51"/>
+      <c r="AQ19" s="51"/>
+      <c r="AR19" s="51"/>
+      <c r="AS19" s="51"/>
+      <c r="AT19" s="51"/>
+      <c r="AU19" s="51"/>
+      <c r="AV19" s="51"/>
+      <c r="AW19" s="51"/>
+      <c r="AX19" s="51"/>
+      <c r="AY19" s="51"/>
+      <c r="AZ19" s="51"/>
+      <c r="BA19" s="51"/>
+      <c r="BB19" s="51"/>
+      <c r="BC19" s="51"/>
+      <c r="BD19" s="51"/>
+      <c r="BE19" s="51"/>
+      <c r="BF19" s="51"/>
+      <c r="BG19" s="51"/>
+      <c r="BH19" s="51"/>
+      <c r="BI19" s="51"/>
+      <c r="BJ19" s="51"/>
+      <c r="BK19" s="51"/>
+      <c r="BL19" s="51"/>
+      <c r="BM19" s="51"/>
+      <c r="BN19" s="51"/>
+      <c r="BO19" s="51"/>
       <c r="BP19"/>
       <c r="BQ19" s="4"/>
     </row>
     <row r="20" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="58"/>
-      <c r="Y20" s="58"/>
-      <c r="Z20" s="58"/>
-      <c r="AA20" s="58"/>
-      <c r="AB20" s="58"/>
-      <c r="AC20" s="58"/>
-      <c r="AD20" s="58"/>
-      <c r="AE20" s="58"/>
-      <c r="AF20" s="58"/>
-      <c r="AG20" s="58"/>
-      <c r="AH20" s="58"/>
-      <c r="AI20" s="58"/>
-      <c r="AJ20" s="58"/>
-      <c r="AK20" s="58"/>
-      <c r="AL20" s="58"/>
-      <c r="AM20" s="58"/>
-      <c r="AN20" s="58"/>
-      <c r="AO20" s="58"/>
-      <c r="AP20" s="58"/>
-      <c r="AQ20" s="58"/>
-      <c r="AR20" s="58"/>
-      <c r="AS20" s="58"/>
-      <c r="AT20" s="58"/>
-      <c r="AU20" s="58"/>
-      <c r="AV20" s="58"/>
-      <c r="AW20" s="58"/>
-      <c r="AX20" s="58"/>
-      <c r="AY20" s="58"/>
-      <c r="AZ20" s="58"/>
-      <c r="BA20" s="58"/>
-      <c r="BB20" s="58"/>
-      <c r="BC20" s="58"/>
-      <c r="BD20" s="58"/>
-      <c r="BE20" s="58"/>
-      <c r="BF20" s="58"/>
-      <c r="BG20" s="58"/>
-      <c r="BH20" s="58"/>
-      <c r="BI20" s="58"/>
-      <c r="BJ20" s="58"/>
-      <c r="BK20" s="58"/>
-      <c r="BL20" s="58"/>
-      <c r="BM20" s="58"/>
-      <c r="BN20" s="58"/>
-      <c r="BO20" s="58"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="51"/>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="51"/>
+      <c r="AF20" s="51"/>
+      <c r="AG20" s="51"/>
+      <c r="AH20" s="51"/>
+      <c r="AI20" s="51"/>
+      <c r="AJ20" s="51"/>
+      <c r="AK20" s="51"/>
+      <c r="AL20" s="51"/>
+      <c r="AM20" s="51"/>
+      <c r="AN20" s="51"/>
+      <c r="AO20" s="51"/>
+      <c r="AP20" s="51"/>
+      <c r="AQ20" s="51"/>
+      <c r="AR20" s="51"/>
+      <c r="AS20" s="51"/>
+      <c r="AT20" s="51"/>
+      <c r="AU20" s="51"/>
+      <c r="AV20" s="51"/>
+      <c r="AW20" s="51"/>
+      <c r="AX20" s="51"/>
+      <c r="AY20" s="51"/>
+      <c r="AZ20" s="51"/>
+      <c r="BA20" s="51"/>
+      <c r="BB20" s="51"/>
+      <c r="BC20" s="51"/>
+      <c r="BD20" s="51"/>
+      <c r="BE20" s="51"/>
+      <c r="BF20" s="51"/>
+      <c r="BG20" s="51"/>
+      <c r="BH20" s="51"/>
+      <c r="BI20" s="51"/>
+      <c r="BJ20" s="51"/>
+      <c r="BK20" s="51"/>
+      <c r="BL20" s="51"/>
+      <c r="BM20" s="51"/>
+      <c r="BN20" s="51"/>
+      <c r="BO20" s="51"/>
       <c r="BP20"/>
       <c r="BQ20" s="4"/>
     </row>
     <row r="21" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="58"/>
-      <c r="W21" s="58"/>
-      <c r="X21" s="58"/>
-      <c r="Y21" s="58"/>
-      <c r="Z21" s="58"/>
-      <c r="AA21" s="58"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="58"/>
-      <c r="AD21" s="58"/>
-      <c r="AE21" s="58"/>
-      <c r="AF21" s="58"/>
-      <c r="AG21" s="58"/>
-      <c r="AH21" s="58"/>
-      <c r="AI21" s="58"/>
-      <c r="AJ21" s="58"/>
-      <c r="AK21" s="58"/>
-      <c r="AL21" s="58"/>
-      <c r="AM21" s="58"/>
-      <c r="AN21" s="58"/>
-      <c r="AO21" s="58"/>
-      <c r="AP21" s="58"/>
-      <c r="AQ21" s="58"/>
-      <c r="AR21" s="58"/>
-      <c r="AS21" s="58"/>
-      <c r="AT21" s="58"/>
-      <c r="AU21" s="58"/>
-      <c r="AV21" s="58"/>
-      <c r="AW21" s="58"/>
-      <c r="AX21" s="58"/>
-      <c r="AY21" s="58"/>
-      <c r="AZ21" s="58"/>
-      <c r="BA21" s="58"/>
-      <c r="BB21" s="58"/>
-      <c r="BC21" s="58"/>
-      <c r="BD21" s="58"/>
-      <c r="BE21" s="58"/>
-      <c r="BF21" s="58"/>
-      <c r="BG21" s="58"/>
-      <c r="BH21" s="58"/>
-      <c r="BI21" s="58"/>
-      <c r="BJ21" s="58"/>
-      <c r="BK21" s="58"/>
-      <c r="BL21" s="58"/>
-      <c r="BM21" s="58"/>
-      <c r="BN21" s="58"/>
-      <c r="BO21" s="58"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="51"/>
+      <c r="AA21" s="51"/>
+      <c r="AB21" s="51"/>
+      <c r="AC21" s="51"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="51"/>
+      <c r="AF21" s="51"/>
+      <c r="AG21" s="51"/>
+      <c r="AH21" s="51"/>
+      <c r="AI21" s="51"/>
+      <c r="AJ21" s="51"/>
+      <c r="AK21" s="51"/>
+      <c r="AL21" s="51"/>
+      <c r="AM21" s="51"/>
+      <c r="AN21" s="51"/>
+      <c r="AO21" s="51"/>
+      <c r="AP21" s="51"/>
+      <c r="AQ21" s="51"/>
+      <c r="AR21" s="51"/>
+      <c r="AS21" s="51"/>
+      <c r="AT21" s="51"/>
+      <c r="AU21" s="51"/>
+      <c r="AV21" s="51"/>
+      <c r="AW21" s="51"/>
+      <c r="AX21" s="51"/>
+      <c r="AY21" s="51"/>
+      <c r="AZ21" s="51"/>
+      <c r="BA21" s="51"/>
+      <c r="BB21" s="51"/>
+      <c r="BC21" s="51"/>
+      <c r="BD21" s="51"/>
+      <c r="BE21" s="51"/>
+      <c r="BF21" s="51"/>
+      <c r="BG21" s="51"/>
+      <c r="BH21" s="51"/>
+      <c r="BI21" s="51"/>
+      <c r="BJ21" s="51"/>
+      <c r="BK21" s="51"/>
+      <c r="BL21" s="51"/>
+      <c r="BM21" s="51"/>
+      <c r="BN21" s="51"/>
+      <c r="BO21" s="51"/>
       <c r="BP21"/>
       <c r="BQ21" s="4"/>
     </row>
@@ -2765,85 +2765,85 @@
     </row>
     <row r="25" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54" t="s">
+      <c r="D25" s="50"/>
+      <c r="E25" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54" t="s">
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="58" t="s">
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
-      <c r="X25" s="58"/>
-      <c r="Y25" s="58"/>
-      <c r="Z25" s="58"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="58"/>
-      <c r="AC25" s="58"/>
-      <c r="AD25" s="58"/>
-      <c r="AE25" s="56" t="s">
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="51"/>
+      <c r="AB25" s="51"/>
+      <c r="AC25" s="51"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="AF25" s="56"/>
-      <c r="AG25" s="56"/>
-      <c r="AH25" s="56"/>
-      <c r="AI25" s="56"/>
-      <c r="AJ25" s="56"/>
-      <c r="AK25" s="56"/>
-      <c r="AL25" s="56"/>
-      <c r="AM25" s="56"/>
-      <c r="AN25" s="56"/>
-      <c r="AO25" s="56"/>
-      <c r="AP25" s="56"/>
-      <c r="AQ25" s="56"/>
-      <c r="AR25" s="56"/>
-      <c r="AS25" s="56"/>
-      <c r="AT25" s="56"/>
-      <c r="AU25" s="56"/>
-      <c r="AV25" s="56"/>
-      <c r="AW25" s="56"/>
-      <c r="AX25" s="56"/>
-      <c r="AY25" s="56"/>
-      <c r="AZ25" s="56"/>
-      <c r="BA25" s="56"/>
-      <c r="BB25" s="56"/>
-      <c r="BC25" s="56"/>
-      <c r="BD25" s="56" t="s">
+      <c r="AF25" s="49"/>
+      <c r="AG25" s="49"/>
+      <c r="AH25" s="49"/>
+      <c r="AI25" s="49"/>
+      <c r="AJ25" s="49"/>
+      <c r="AK25" s="49"/>
+      <c r="AL25" s="49"/>
+      <c r="AM25" s="49"/>
+      <c r="AN25" s="49"/>
+      <c r="AO25" s="49"/>
+      <c r="AP25" s="49"/>
+      <c r="AQ25" s="49"/>
+      <c r="AR25" s="49"/>
+      <c r="AS25" s="49"/>
+      <c r="AT25" s="49"/>
+      <c r="AU25" s="49"/>
+      <c r="AV25" s="49"/>
+      <c r="AW25" s="49"/>
+      <c r="AX25" s="49"/>
+      <c r="AY25" s="49"/>
+      <c r="AZ25" s="49"/>
+      <c r="BA25" s="49"/>
+      <c r="BB25" s="49"/>
+      <c r="BC25" s="49"/>
+      <c r="BD25" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="BE25" s="56"/>
-      <c r="BF25" s="56"/>
-      <c r="BG25" s="56"/>
-      <c r="BH25" s="56"/>
-      <c r="BI25" s="56"/>
-      <c r="BJ25" s="56"/>
-      <c r="BK25" s="56" t="s">
+      <c r="BE25" s="49"/>
+      <c r="BF25" s="49"/>
+      <c r="BG25" s="49"/>
+      <c r="BH25" s="49"/>
+      <c r="BI25" s="49"/>
+      <c r="BJ25" s="49"/>
+      <c r="BK25" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="BL25" s="56"/>
-      <c r="BM25" s="56"/>
-      <c r="BN25" s="56"/>
-      <c r="BO25" s="56"/>
+      <c r="BL25" s="49"/>
+      <c r="BM25" s="49"/>
+      <c r="BN25" s="49"/>
+      <c r="BO25" s="49"/>
       <c r="BP25"/>
       <c r="BQ25" s="4"/>
       <c r="AMM25"/>
@@ -2860,81 +2860,81 @@
     </row>
     <row r="26" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
-      <c r="C26" s="54">
+      <c r="C26" s="50">
         <v>1</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="56" t="s">
+      <c r="D26" s="50"/>
+      <c r="E26" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="58" t="s">
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="58"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="58"/>
-      <c r="X26" s="58"/>
-      <c r="Y26" s="58"/>
-      <c r="Z26" s="58"/>
-      <c r="AA26" s="58"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="58"/>
-      <c r="AD26" s="58"/>
-      <c r="AE26" s="56" t="s">
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="AF26" s="56"/>
-      <c r="AG26" s="56"/>
-      <c r="AH26" s="56"/>
-      <c r="AI26" s="56"/>
-      <c r="AJ26" s="56"/>
-      <c r="AK26" s="56"/>
-      <c r="AL26" s="56"/>
-      <c r="AM26" s="56"/>
-      <c r="AN26" s="56"/>
-      <c r="AO26" s="56"/>
-      <c r="AP26" s="56"/>
-      <c r="AQ26" s="56"/>
-      <c r="AR26" s="56"/>
-      <c r="AS26" s="56"/>
-      <c r="AT26" s="56"/>
-      <c r="AU26" s="56"/>
-      <c r="AV26" s="56"/>
-      <c r="AW26" s="56"/>
-      <c r="AX26" s="56"/>
-      <c r="AY26" s="56"/>
-      <c r="AZ26" s="56"/>
-      <c r="BA26" s="56"/>
-      <c r="BB26" s="56"/>
-      <c r="BC26" s="56"/>
-      <c r="BD26" s="56" t="s">
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="49"/>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="49"/>
+      <c r="AK26" s="49"/>
+      <c r="AL26" s="49"/>
+      <c r="AM26" s="49"/>
+      <c r="AN26" s="49"/>
+      <c r="AO26" s="49"/>
+      <c r="AP26" s="49"/>
+      <c r="AQ26" s="49"/>
+      <c r="AR26" s="49"/>
+      <c r="AS26" s="49"/>
+      <c r="AT26" s="49"/>
+      <c r="AU26" s="49"/>
+      <c r="AV26" s="49"/>
+      <c r="AW26" s="49"/>
+      <c r="AX26" s="49"/>
+      <c r="AY26" s="49"/>
+      <c r="AZ26" s="49"/>
+      <c r="BA26" s="49"/>
+      <c r="BB26" s="49"/>
+      <c r="BC26" s="49"/>
+      <c r="BD26" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="BE26" s="56"/>
-      <c r="BF26" s="56"/>
-      <c r="BG26" s="56"/>
-      <c r="BH26" s="56"/>
-      <c r="BI26" s="56"/>
-      <c r="BJ26" s="56"/>
-      <c r="BK26" s="56"/>
-      <c r="BL26" s="56"/>
-      <c r="BM26" s="56"/>
-      <c r="BN26" s="56"/>
-      <c r="BO26" s="56"/>
+      <c r="BE26" s="49"/>
+      <c r="BF26" s="49"/>
+      <c r="BG26" s="49"/>
+      <c r="BH26" s="49"/>
+      <c r="BI26" s="49"/>
+      <c r="BJ26" s="49"/>
+      <c r="BK26" s="49"/>
+      <c r="BL26" s="49"/>
+      <c r="BM26" s="49"/>
+      <c r="BN26" s="49"/>
+      <c r="BO26" s="49"/>
       <c r="BQ26" s="4"/>
       <c r="AMM26"/>
       <c r="AMN26"/>
@@ -2950,73 +2950,73 @@
     </row>
     <row r="27" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="C27" s="54">
+      <c r="C27" s="50">
         <v>2</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="57"/>
-      <c r="AB27" s="57"/>
-      <c r="AC27" s="57"/>
-      <c r="AD27" s="57"/>
-      <c r="AE27" s="56"/>
-      <c r="AF27" s="56"/>
-      <c r="AG27" s="56"/>
-      <c r="AH27" s="56"/>
-      <c r="AI27" s="56"/>
-      <c r="AJ27" s="56"/>
-      <c r="AK27" s="56"/>
-      <c r="AL27" s="56"/>
-      <c r="AM27" s="56"/>
-      <c r="AN27" s="56"/>
-      <c r="AO27" s="56"/>
-      <c r="AP27" s="56"/>
-      <c r="AQ27" s="56"/>
-      <c r="AR27" s="56"/>
-      <c r="AS27" s="56"/>
-      <c r="AT27" s="56"/>
-      <c r="AU27" s="56"/>
-      <c r="AV27" s="56"/>
-      <c r="AW27" s="56"/>
-      <c r="AX27" s="56"/>
-      <c r="AY27" s="56"/>
-      <c r="AZ27" s="56"/>
-      <c r="BA27" s="56"/>
-      <c r="BB27" s="56"/>
-      <c r="BC27" s="56"/>
-      <c r="BD27" s="56"/>
-      <c r="BE27" s="56"/>
-      <c r="BF27" s="56"/>
-      <c r="BG27" s="56"/>
-      <c r="BH27" s="56"/>
-      <c r="BI27" s="56"/>
-      <c r="BJ27" s="56"/>
-      <c r="BK27" s="56"/>
-      <c r="BL27" s="56"/>
-      <c r="BM27" s="56"/>
-      <c r="BN27" s="56"/>
-      <c r="BO27" s="56"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
+      <c r="AB27" s="53"/>
+      <c r="AC27" s="53"/>
+      <c r="AD27" s="53"/>
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="49"/>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="49"/>
+      <c r="AI27" s="49"/>
+      <c r="AJ27" s="49"/>
+      <c r="AK27" s="49"/>
+      <c r="AL27" s="49"/>
+      <c r="AM27" s="49"/>
+      <c r="AN27" s="49"/>
+      <c r="AO27" s="49"/>
+      <c r="AP27" s="49"/>
+      <c r="AQ27" s="49"/>
+      <c r="AR27" s="49"/>
+      <c r="AS27" s="49"/>
+      <c r="AT27" s="49"/>
+      <c r="AU27" s="49"/>
+      <c r="AV27" s="49"/>
+      <c r="AW27" s="49"/>
+      <c r="AX27" s="49"/>
+      <c r="AY27" s="49"/>
+      <c r="AZ27" s="49"/>
+      <c r="BA27" s="49"/>
+      <c r="BB27" s="49"/>
+      <c r="BC27" s="49"/>
+      <c r="BD27" s="49"/>
+      <c r="BE27" s="49"/>
+      <c r="BF27" s="49"/>
+      <c r="BG27" s="49"/>
+      <c r="BH27" s="49"/>
+      <c r="BI27" s="49"/>
+      <c r="BJ27" s="49"/>
+      <c r="BK27" s="49"/>
+      <c r="BL27" s="49"/>
+      <c r="BM27" s="49"/>
+      <c r="BN27" s="49"/>
+      <c r="BO27" s="49"/>
       <c r="BQ27" s="4"/>
       <c r="AMM27"/>
       <c r="AMN27"/>
@@ -3032,73 +3032,73 @@
     </row>
     <row r="28" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="C28" s="54">
+      <c r="C28" s="50">
         <v>3</v>
       </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="58"/>
-      <c r="W28" s="58"/>
-      <c r="X28" s="58"/>
-      <c r="Y28" s="58"/>
-      <c r="Z28" s="58"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="58"/>
-      <c r="AE28" s="56"/>
-      <c r="AF28" s="56"/>
-      <c r="AG28" s="56"/>
-      <c r="AH28" s="56"/>
-      <c r="AI28" s="56"/>
-      <c r="AJ28" s="56"/>
-      <c r="AK28" s="56"/>
-      <c r="AL28" s="56"/>
-      <c r="AM28" s="56"/>
-      <c r="AN28" s="56"/>
-      <c r="AO28" s="56"/>
-      <c r="AP28" s="56"/>
-      <c r="AQ28" s="56"/>
-      <c r="AR28" s="56"/>
-      <c r="AS28" s="56"/>
-      <c r="AT28" s="56"/>
-      <c r="AU28" s="56"/>
-      <c r="AV28" s="56"/>
-      <c r="AW28" s="56"/>
-      <c r="AX28" s="56"/>
-      <c r="AY28" s="56"/>
-      <c r="AZ28" s="56"/>
-      <c r="BA28" s="56"/>
-      <c r="BB28" s="56"/>
-      <c r="BC28" s="56"/>
-      <c r="BD28" s="56"/>
-      <c r="BE28" s="56"/>
-      <c r="BF28" s="56"/>
-      <c r="BG28" s="56"/>
-      <c r="BH28" s="56"/>
-      <c r="BI28" s="56"/>
-      <c r="BJ28" s="56"/>
-      <c r="BK28" s="56"/>
-      <c r="BL28" s="56"/>
-      <c r="BM28" s="56"/>
-      <c r="BN28" s="56"/>
-      <c r="BO28" s="56"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="51"/>
+      <c r="AB28" s="51"/>
+      <c r="AC28" s="51"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="49"/>
+      <c r="AF28" s="49"/>
+      <c r="AG28" s="49"/>
+      <c r="AH28" s="49"/>
+      <c r="AI28" s="49"/>
+      <c r="AJ28" s="49"/>
+      <c r="AK28" s="49"/>
+      <c r="AL28" s="49"/>
+      <c r="AM28" s="49"/>
+      <c r="AN28" s="49"/>
+      <c r="AO28" s="49"/>
+      <c r="AP28" s="49"/>
+      <c r="AQ28" s="49"/>
+      <c r="AR28" s="49"/>
+      <c r="AS28" s="49"/>
+      <c r="AT28" s="49"/>
+      <c r="AU28" s="49"/>
+      <c r="AV28" s="49"/>
+      <c r="AW28" s="49"/>
+      <c r="AX28" s="49"/>
+      <c r="AY28" s="49"/>
+      <c r="AZ28" s="49"/>
+      <c r="BA28" s="49"/>
+      <c r="BB28" s="49"/>
+      <c r="BC28" s="49"/>
+      <c r="BD28" s="49"/>
+      <c r="BE28" s="49"/>
+      <c r="BF28" s="49"/>
+      <c r="BG28" s="49"/>
+      <c r="BH28" s="49"/>
+      <c r="BI28" s="49"/>
+      <c r="BJ28" s="49"/>
+      <c r="BK28" s="49"/>
+      <c r="BL28" s="49"/>
+      <c r="BM28" s="49"/>
+      <c r="BN28" s="49"/>
+      <c r="BO28" s="49"/>
       <c r="BP28"/>
       <c r="BQ28" s="4"/>
       <c r="AMM28"/>
@@ -3115,73 +3115,73 @@
     </row>
     <row r="29" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="C29" s="54">
+      <c r="C29" s="50">
         <v>4</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="58"/>
-      <c r="Z29" s="58"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="56"/>
-      <c r="AF29" s="56"/>
-      <c r="AG29" s="56"/>
-      <c r="AH29" s="56"/>
-      <c r="AI29" s="56"/>
-      <c r="AJ29" s="56"/>
-      <c r="AK29" s="56"/>
-      <c r="AL29" s="56"/>
-      <c r="AM29" s="56"/>
-      <c r="AN29" s="56"/>
-      <c r="AO29" s="56"/>
-      <c r="AP29" s="56"/>
-      <c r="AQ29" s="56"/>
-      <c r="AR29" s="56"/>
-      <c r="AS29" s="56"/>
-      <c r="AT29" s="56"/>
-      <c r="AU29" s="56"/>
-      <c r="AV29" s="56"/>
-      <c r="AW29" s="56"/>
-      <c r="AX29" s="56"/>
-      <c r="AY29" s="56"/>
-      <c r="AZ29" s="56"/>
-      <c r="BA29" s="56"/>
-      <c r="BB29" s="56"/>
-      <c r="BC29" s="56"/>
-      <c r="BD29" s="56"/>
-      <c r="BE29" s="56"/>
-      <c r="BF29" s="56"/>
-      <c r="BG29" s="56"/>
-      <c r="BH29" s="56"/>
-      <c r="BI29" s="56"/>
-      <c r="BJ29" s="56"/>
-      <c r="BK29" s="56"/>
-      <c r="BL29" s="56"/>
-      <c r="BM29" s="56"/>
-      <c r="BN29" s="56"/>
-      <c r="BO29" s="56"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="49"/>
+      <c r="AF29" s="49"/>
+      <c r="AG29" s="49"/>
+      <c r="AH29" s="49"/>
+      <c r="AI29" s="49"/>
+      <c r="AJ29" s="49"/>
+      <c r="AK29" s="49"/>
+      <c r="AL29" s="49"/>
+      <c r="AM29" s="49"/>
+      <c r="AN29" s="49"/>
+      <c r="AO29" s="49"/>
+      <c r="AP29" s="49"/>
+      <c r="AQ29" s="49"/>
+      <c r="AR29" s="49"/>
+      <c r="AS29" s="49"/>
+      <c r="AT29" s="49"/>
+      <c r="AU29" s="49"/>
+      <c r="AV29" s="49"/>
+      <c r="AW29" s="49"/>
+      <c r="AX29" s="49"/>
+      <c r="AY29" s="49"/>
+      <c r="AZ29" s="49"/>
+      <c r="BA29" s="49"/>
+      <c r="BB29" s="49"/>
+      <c r="BC29" s="49"/>
+      <c r="BD29" s="49"/>
+      <c r="BE29" s="49"/>
+      <c r="BF29" s="49"/>
+      <c r="BG29" s="49"/>
+      <c r="BH29" s="49"/>
+      <c r="BI29" s="49"/>
+      <c r="BJ29" s="49"/>
+      <c r="BK29" s="49"/>
+      <c r="BL29" s="49"/>
+      <c r="BM29" s="49"/>
+      <c r="BN29" s="49"/>
+      <c r="BO29" s="49"/>
       <c r="BP29"/>
       <c r="BQ29" s="4"/>
       <c r="AMM29"/>
@@ -3198,73 +3198,73 @@
     </row>
     <row r="30" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="C30" s="54">
+      <c r="C30" s="50">
         <v>5</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
-      <c r="Y30" s="58"/>
-      <c r="Z30" s="58"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="56"/>
-      <c r="AF30" s="56"/>
-      <c r="AG30" s="56"/>
-      <c r="AH30" s="56"/>
-      <c r="AI30" s="56"/>
-      <c r="AJ30" s="56"/>
-      <c r="AK30" s="56"/>
-      <c r="AL30" s="56"/>
-      <c r="AM30" s="56"/>
-      <c r="AN30" s="56"/>
-      <c r="AO30" s="56"/>
-      <c r="AP30" s="56"/>
-      <c r="AQ30" s="56"/>
-      <c r="AR30" s="56"/>
-      <c r="AS30" s="56"/>
-      <c r="AT30" s="56"/>
-      <c r="AU30" s="56"/>
-      <c r="AV30" s="56"/>
-      <c r="AW30" s="56"/>
-      <c r="AX30" s="56"/>
-      <c r="AY30" s="56"/>
-      <c r="AZ30" s="56"/>
-      <c r="BA30" s="56"/>
-      <c r="BB30" s="56"/>
-      <c r="BC30" s="56"/>
-      <c r="BD30" s="56"/>
-      <c r="BE30" s="56"/>
-      <c r="BF30" s="56"/>
-      <c r="BG30" s="56"/>
-      <c r="BH30" s="56"/>
-      <c r="BI30" s="56"/>
-      <c r="BJ30" s="56"/>
-      <c r="BK30" s="56"/>
-      <c r="BL30" s="56"/>
-      <c r="BM30" s="56"/>
-      <c r="BN30" s="56"/>
-      <c r="BO30" s="56"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="49"/>
+      <c r="AF30" s="49"/>
+      <c r="AG30" s="49"/>
+      <c r="AH30" s="49"/>
+      <c r="AI30" s="49"/>
+      <c r="AJ30" s="49"/>
+      <c r="AK30" s="49"/>
+      <c r="AL30" s="49"/>
+      <c r="AM30" s="49"/>
+      <c r="AN30" s="49"/>
+      <c r="AO30" s="49"/>
+      <c r="AP30" s="49"/>
+      <c r="AQ30" s="49"/>
+      <c r="AR30" s="49"/>
+      <c r="AS30" s="49"/>
+      <c r="AT30" s="49"/>
+      <c r="AU30" s="49"/>
+      <c r="AV30" s="49"/>
+      <c r="AW30" s="49"/>
+      <c r="AX30" s="49"/>
+      <c r="AY30" s="49"/>
+      <c r="AZ30" s="49"/>
+      <c r="BA30" s="49"/>
+      <c r="BB30" s="49"/>
+      <c r="BC30" s="49"/>
+      <c r="BD30" s="49"/>
+      <c r="BE30" s="49"/>
+      <c r="BF30" s="49"/>
+      <c r="BG30" s="49"/>
+      <c r="BH30" s="49"/>
+      <c r="BI30" s="49"/>
+      <c r="BJ30" s="49"/>
+      <c r="BK30" s="49"/>
+      <c r="BL30" s="49"/>
+      <c r="BM30" s="49"/>
+      <c r="BN30" s="49"/>
+      <c r="BO30" s="49"/>
       <c r="BP30"/>
       <c r="BQ30" s="4"/>
       <c r="AMM30"/>
@@ -3281,73 +3281,73 @@
     </row>
     <row r="31" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="C31" s="54">
+      <c r="C31" s="50">
         <v>6</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="58"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="58"/>
-      <c r="AD31" s="58"/>
-      <c r="AE31" s="56"/>
-      <c r="AF31" s="56"/>
-      <c r="AG31" s="56"/>
-      <c r="AH31" s="56"/>
-      <c r="AI31" s="56"/>
-      <c r="AJ31" s="56"/>
-      <c r="AK31" s="56"/>
-      <c r="AL31" s="56"/>
-      <c r="AM31" s="56"/>
-      <c r="AN31" s="56"/>
-      <c r="AO31" s="56"/>
-      <c r="AP31" s="56"/>
-      <c r="AQ31" s="56"/>
-      <c r="AR31" s="56"/>
-      <c r="AS31" s="56"/>
-      <c r="AT31" s="56"/>
-      <c r="AU31" s="56"/>
-      <c r="AV31" s="56"/>
-      <c r="AW31" s="56"/>
-      <c r="AX31" s="56"/>
-      <c r="AY31" s="56"/>
-      <c r="AZ31" s="56"/>
-      <c r="BA31" s="56"/>
-      <c r="BB31" s="56"/>
-      <c r="BC31" s="56"/>
-      <c r="BD31" s="56"/>
-      <c r="BE31" s="56"/>
-      <c r="BF31" s="56"/>
-      <c r="BG31" s="56"/>
-      <c r="BH31" s="56"/>
-      <c r="BI31" s="56"/>
-      <c r="BJ31" s="56"/>
-      <c r="BK31" s="56"/>
-      <c r="BL31" s="56"/>
-      <c r="BM31" s="56"/>
-      <c r="BN31" s="56"/>
-      <c r="BO31" s="56"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="49"/>
+      <c r="AF31" s="49"/>
+      <c r="AG31" s="49"/>
+      <c r="AH31" s="49"/>
+      <c r="AI31" s="49"/>
+      <c r="AJ31" s="49"/>
+      <c r="AK31" s="49"/>
+      <c r="AL31" s="49"/>
+      <c r="AM31" s="49"/>
+      <c r="AN31" s="49"/>
+      <c r="AO31" s="49"/>
+      <c r="AP31" s="49"/>
+      <c r="AQ31" s="49"/>
+      <c r="AR31" s="49"/>
+      <c r="AS31" s="49"/>
+      <c r="AT31" s="49"/>
+      <c r="AU31" s="49"/>
+      <c r="AV31" s="49"/>
+      <c r="AW31" s="49"/>
+      <c r="AX31" s="49"/>
+      <c r="AY31" s="49"/>
+      <c r="AZ31" s="49"/>
+      <c r="BA31" s="49"/>
+      <c r="BB31" s="49"/>
+      <c r="BC31" s="49"/>
+      <c r="BD31" s="49"/>
+      <c r="BE31" s="49"/>
+      <c r="BF31" s="49"/>
+      <c r="BG31" s="49"/>
+      <c r="BH31" s="49"/>
+      <c r="BI31" s="49"/>
+      <c r="BJ31" s="49"/>
+      <c r="BK31" s="49"/>
+      <c r="BL31" s="49"/>
+      <c r="BM31" s="49"/>
+      <c r="BN31" s="49"/>
+      <c r="BO31" s="49"/>
       <c r="BP31"/>
       <c r="BQ31" s="4"/>
       <c r="AMM31"/>
@@ -3364,73 +3364,73 @@
     </row>
     <row r="32" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="C32" s="54">
+      <c r="C32" s="50">
         <v>7</v>
       </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="58"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="58"/>
-      <c r="Y32" s="58"/>
-      <c r="Z32" s="58"/>
-      <c r="AA32" s="58"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="58"/>
-      <c r="AD32" s="58"/>
-      <c r="AE32" s="56"/>
-      <c r="AF32" s="56"/>
-      <c r="AG32" s="56"/>
-      <c r="AH32" s="56"/>
-      <c r="AI32" s="56"/>
-      <c r="AJ32" s="56"/>
-      <c r="AK32" s="56"/>
-      <c r="AL32" s="56"/>
-      <c r="AM32" s="56"/>
-      <c r="AN32" s="56"/>
-      <c r="AO32" s="56"/>
-      <c r="AP32" s="56"/>
-      <c r="AQ32" s="56"/>
-      <c r="AR32" s="56"/>
-      <c r="AS32" s="56"/>
-      <c r="AT32" s="56"/>
-      <c r="AU32" s="56"/>
-      <c r="AV32" s="56"/>
-      <c r="AW32" s="56"/>
-      <c r="AX32" s="56"/>
-      <c r="AY32" s="56"/>
-      <c r="AZ32" s="56"/>
-      <c r="BA32" s="56"/>
-      <c r="BB32" s="56"/>
-      <c r="BC32" s="56"/>
-      <c r="BD32" s="56"/>
-      <c r="BE32" s="56"/>
-      <c r="BF32" s="56"/>
-      <c r="BG32" s="56"/>
-      <c r="BH32" s="56"/>
-      <c r="BI32" s="56"/>
-      <c r="BJ32" s="56"/>
-      <c r="BK32" s="56"/>
-      <c r="BL32" s="56"/>
-      <c r="BM32" s="56"/>
-      <c r="BN32" s="56"/>
-      <c r="BO32" s="56"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="49"/>
+      <c r="AF32" s="49"/>
+      <c r="AG32" s="49"/>
+      <c r="AH32" s="49"/>
+      <c r="AI32" s="49"/>
+      <c r="AJ32" s="49"/>
+      <c r="AK32" s="49"/>
+      <c r="AL32" s="49"/>
+      <c r="AM32" s="49"/>
+      <c r="AN32" s="49"/>
+      <c r="AO32" s="49"/>
+      <c r="AP32" s="49"/>
+      <c r="AQ32" s="49"/>
+      <c r="AR32" s="49"/>
+      <c r="AS32" s="49"/>
+      <c r="AT32" s="49"/>
+      <c r="AU32" s="49"/>
+      <c r="AV32" s="49"/>
+      <c r="AW32" s="49"/>
+      <c r="AX32" s="49"/>
+      <c r="AY32" s="49"/>
+      <c r="AZ32" s="49"/>
+      <c r="BA32" s="49"/>
+      <c r="BB32" s="49"/>
+      <c r="BC32" s="49"/>
+      <c r="BD32" s="49"/>
+      <c r="BE32" s="49"/>
+      <c r="BF32" s="49"/>
+      <c r="BG32" s="49"/>
+      <c r="BH32" s="49"/>
+      <c r="BI32" s="49"/>
+      <c r="BJ32" s="49"/>
+      <c r="BK32" s="49"/>
+      <c r="BL32" s="49"/>
+      <c r="BM32" s="49"/>
+      <c r="BN32" s="49"/>
+      <c r="BO32" s="49"/>
       <c r="BP32"/>
       <c r="BQ32" s="4"/>
       <c r="AMM32"/>
@@ -3447,73 +3447,73 @@
     </row>
     <row r="33" spans="1:69 1027:1037" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="C33" s="54">
+      <c r="C33" s="50">
         <v>8</v>
       </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="58"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="58"/>
-      <c r="W33" s="58"/>
-      <c r="X33" s="58"/>
-      <c r="Y33" s="58"/>
-      <c r="Z33" s="58"/>
-      <c r="AA33" s="58"/>
-      <c r="AB33" s="58"/>
-      <c r="AC33" s="58"/>
-      <c r="AD33" s="58"/>
-      <c r="AE33" s="56"/>
-      <c r="AF33" s="56"/>
-      <c r="AG33" s="56"/>
-      <c r="AH33" s="56"/>
-      <c r="AI33" s="56"/>
-      <c r="AJ33" s="56"/>
-      <c r="AK33" s="56"/>
-      <c r="AL33" s="56"/>
-      <c r="AM33" s="56"/>
-      <c r="AN33" s="56"/>
-      <c r="AO33" s="56"/>
-      <c r="AP33" s="56"/>
-      <c r="AQ33" s="56"/>
-      <c r="AR33" s="56"/>
-      <c r="AS33" s="56"/>
-      <c r="AT33" s="56"/>
-      <c r="AU33" s="56"/>
-      <c r="AV33" s="56"/>
-      <c r="AW33" s="56"/>
-      <c r="AX33" s="56"/>
-      <c r="AY33" s="56"/>
-      <c r="AZ33" s="56"/>
-      <c r="BA33" s="56"/>
-      <c r="BB33" s="56"/>
-      <c r="BC33" s="56"/>
-      <c r="BD33" s="56"/>
-      <c r="BE33" s="56"/>
-      <c r="BF33" s="56"/>
-      <c r="BG33" s="56"/>
-      <c r="BH33" s="56"/>
-      <c r="BI33" s="56"/>
-      <c r="BJ33" s="56"/>
-      <c r="BK33" s="56"/>
-      <c r="BL33" s="56"/>
-      <c r="BM33" s="56"/>
-      <c r="BN33" s="56"/>
-      <c r="BO33" s="56"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="49"/>
+      <c r="AF33" s="49"/>
+      <c r="AG33" s="49"/>
+      <c r="AH33" s="49"/>
+      <c r="AI33" s="49"/>
+      <c r="AJ33" s="49"/>
+      <c r="AK33" s="49"/>
+      <c r="AL33" s="49"/>
+      <c r="AM33" s="49"/>
+      <c r="AN33" s="49"/>
+      <c r="AO33" s="49"/>
+      <c r="AP33" s="49"/>
+      <c r="AQ33" s="49"/>
+      <c r="AR33" s="49"/>
+      <c r="AS33" s="49"/>
+      <c r="AT33" s="49"/>
+      <c r="AU33" s="49"/>
+      <c r="AV33" s="49"/>
+      <c r="AW33" s="49"/>
+      <c r="AX33" s="49"/>
+      <c r="AY33" s="49"/>
+      <c r="AZ33" s="49"/>
+      <c r="BA33" s="49"/>
+      <c r="BB33" s="49"/>
+      <c r="BC33" s="49"/>
+      <c r="BD33" s="49"/>
+      <c r="BE33" s="49"/>
+      <c r="BF33" s="49"/>
+      <c r="BG33" s="49"/>
+      <c r="BH33" s="49"/>
+      <c r="BI33" s="49"/>
+      <c r="BJ33" s="49"/>
+      <c r="BK33" s="49"/>
+      <c r="BL33" s="49"/>
+      <c r="BM33" s="49"/>
+      <c r="BN33" s="49"/>
+      <c r="BO33" s="49"/>
       <c r="BP33"/>
       <c r="BQ33" s="4"/>
       <c r="AMM33"/>
@@ -3530,73 +3530,73 @@
     </row>
     <row r="34" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="C34" s="54">
+      <c r="C34" s="50">
         <v>9</v>
       </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58"/>
-      <c r="Y34" s="58"/>
-      <c r="Z34" s="58"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="58"/>
-      <c r="AC34" s="58"/>
-      <c r="AD34" s="58"/>
-      <c r="AE34" s="56"/>
-      <c r="AF34" s="56"/>
-      <c r="AG34" s="56"/>
-      <c r="AH34" s="56"/>
-      <c r="AI34" s="56"/>
-      <c r="AJ34" s="56"/>
-      <c r="AK34" s="56"/>
-      <c r="AL34" s="56"/>
-      <c r="AM34" s="56"/>
-      <c r="AN34" s="56"/>
-      <c r="AO34" s="56"/>
-      <c r="AP34" s="56"/>
-      <c r="AQ34" s="56"/>
-      <c r="AR34" s="56"/>
-      <c r="AS34" s="56"/>
-      <c r="AT34" s="56"/>
-      <c r="AU34" s="56"/>
-      <c r="AV34" s="56"/>
-      <c r="AW34" s="56"/>
-      <c r="AX34" s="56"/>
-      <c r="AY34" s="56"/>
-      <c r="AZ34" s="56"/>
-      <c r="BA34" s="56"/>
-      <c r="BB34" s="56"/>
-      <c r="BC34" s="56"/>
-      <c r="BD34" s="56"/>
-      <c r="BE34" s="56"/>
-      <c r="BF34" s="56"/>
-      <c r="BG34" s="56"/>
-      <c r="BH34" s="56"/>
-      <c r="BI34" s="56"/>
-      <c r="BJ34" s="56"/>
-      <c r="BK34" s="56"/>
-      <c r="BL34" s="56"/>
-      <c r="BM34" s="56"/>
-      <c r="BN34" s="56"/>
-      <c r="BO34" s="56"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="51"/>
+      <c r="AB34" s="51"/>
+      <c r="AC34" s="51"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="49"/>
+      <c r="AF34" s="49"/>
+      <c r="AG34" s="49"/>
+      <c r="AH34" s="49"/>
+      <c r="AI34" s="49"/>
+      <c r="AJ34" s="49"/>
+      <c r="AK34" s="49"/>
+      <c r="AL34" s="49"/>
+      <c r="AM34" s="49"/>
+      <c r="AN34" s="49"/>
+      <c r="AO34" s="49"/>
+      <c r="AP34" s="49"/>
+      <c r="AQ34" s="49"/>
+      <c r="AR34" s="49"/>
+      <c r="AS34" s="49"/>
+      <c r="AT34" s="49"/>
+      <c r="AU34" s="49"/>
+      <c r="AV34" s="49"/>
+      <c r="AW34" s="49"/>
+      <c r="AX34" s="49"/>
+      <c r="AY34" s="49"/>
+      <c r="AZ34" s="49"/>
+      <c r="BA34" s="49"/>
+      <c r="BB34" s="49"/>
+      <c r="BC34" s="49"/>
+      <c r="BD34" s="49"/>
+      <c r="BE34" s="49"/>
+      <c r="BF34" s="49"/>
+      <c r="BG34" s="49"/>
+      <c r="BH34" s="49"/>
+      <c r="BI34" s="49"/>
+      <c r="BJ34" s="49"/>
+      <c r="BK34" s="49"/>
+      <c r="BL34" s="49"/>
+      <c r="BM34" s="49"/>
+      <c r="BN34" s="49"/>
+      <c r="BO34" s="49"/>
       <c r="BP34"/>
       <c r="BQ34" s="4"/>
       <c r="AMM34"/>
@@ -3614,73 +3614,73 @@
     <row r="35" spans="1:69 1027:1037" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="54">
+      <c r="C35" s="50">
         <v>10</v>
       </c>
-      <c r="D35" s="54"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="58"/>
-      <c r="T35" s="58"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="58"/>
-      <c r="W35" s="58"/>
-      <c r="X35" s="58"/>
-      <c r="Y35" s="58"/>
-      <c r="Z35" s="58"/>
-      <c r="AA35" s="58"/>
-      <c r="AB35" s="58"/>
-      <c r="AC35" s="58"/>
-      <c r="AD35" s="58"/>
-      <c r="AE35" s="56"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="56"/>
-      <c r="AH35" s="56"/>
-      <c r="AI35" s="56"/>
-      <c r="AJ35" s="56"/>
-      <c r="AK35" s="56"/>
-      <c r="AL35" s="56"/>
-      <c r="AM35" s="56"/>
-      <c r="AN35" s="56"/>
-      <c r="AO35" s="56"/>
-      <c r="AP35" s="56"/>
-      <c r="AQ35" s="56"/>
-      <c r="AR35" s="56"/>
-      <c r="AS35" s="56"/>
-      <c r="AT35" s="56"/>
-      <c r="AU35" s="56"/>
-      <c r="AV35" s="56"/>
-      <c r="AW35" s="56"/>
-      <c r="AX35" s="56"/>
-      <c r="AY35" s="56"/>
-      <c r="AZ35" s="56"/>
-      <c r="BA35" s="56"/>
-      <c r="BB35" s="56"/>
-      <c r="BC35" s="56"/>
-      <c r="BD35" s="56"/>
-      <c r="BE35" s="56"/>
-      <c r="BF35" s="56"/>
-      <c r="BG35" s="56"/>
-      <c r="BH35" s="56"/>
-      <c r="BI35" s="56"/>
-      <c r="BJ35" s="56"/>
-      <c r="BK35" s="56"/>
-      <c r="BL35" s="56"/>
-      <c r="BM35" s="56"/>
-      <c r="BN35" s="56"/>
-      <c r="BO35" s="56"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="51"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="49"/>
+      <c r="AF35" s="49"/>
+      <c r="AG35" s="49"/>
+      <c r="AH35" s="49"/>
+      <c r="AI35" s="49"/>
+      <c r="AJ35" s="49"/>
+      <c r="AK35" s="49"/>
+      <c r="AL35" s="49"/>
+      <c r="AM35" s="49"/>
+      <c r="AN35" s="49"/>
+      <c r="AO35" s="49"/>
+      <c r="AP35" s="49"/>
+      <c r="AQ35" s="49"/>
+      <c r="AR35" s="49"/>
+      <c r="AS35" s="49"/>
+      <c r="AT35" s="49"/>
+      <c r="AU35" s="49"/>
+      <c r="AV35" s="49"/>
+      <c r="AW35" s="49"/>
+      <c r="AX35" s="49"/>
+      <c r="AY35" s="49"/>
+      <c r="AZ35" s="49"/>
+      <c r="BA35" s="49"/>
+      <c r="BB35" s="49"/>
+      <c r="BC35" s="49"/>
+      <c r="BD35" s="49"/>
+      <c r="BE35" s="49"/>
+      <c r="BF35" s="49"/>
+      <c r="BG35" s="49"/>
+      <c r="BH35" s="49"/>
+      <c r="BI35" s="49"/>
+      <c r="BJ35" s="49"/>
+      <c r="BK35" s="49"/>
+      <c r="BL35" s="49"/>
+      <c r="BM35" s="49"/>
+      <c r="BN35" s="49"/>
+      <c r="BO35" s="49"/>
       <c r="BP35"/>
       <c r="BQ35" s="4"/>
       <c r="AMM35"/>
@@ -4289,48 +4289,51 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="BK34:BO34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:I35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="O35:AD35"/>
-    <mergeCell ref="AE35:BC35"/>
-    <mergeCell ref="BD35:BJ35"/>
-    <mergeCell ref="BK35:BO35"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="O34:AD34"/>
-    <mergeCell ref="AE34:BC34"/>
-    <mergeCell ref="BD34:BJ34"/>
-    <mergeCell ref="BK32:BO32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="O33:AD33"/>
-    <mergeCell ref="AE33:BC33"/>
-    <mergeCell ref="BD33:BJ33"/>
-    <mergeCell ref="BK33:BO33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:N32"/>
-    <mergeCell ref="O32:AD32"/>
-    <mergeCell ref="AE32:BC32"/>
-    <mergeCell ref="BD32:BJ32"/>
-    <mergeCell ref="BK30:BO30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:N31"/>
-    <mergeCell ref="O31:AD31"/>
-    <mergeCell ref="AE31:BC31"/>
-    <mergeCell ref="BD31:BJ31"/>
-    <mergeCell ref="BK31:BO31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="O30:AD30"/>
-    <mergeCell ref="AE30:BC30"/>
-    <mergeCell ref="BD30:BJ30"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="AK1:AS1"/>
+    <mergeCell ref="AT1:BQ1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:AJ3"/>
+    <mergeCell ref="AK2:AS2"/>
+    <mergeCell ref="AT2:BA2"/>
+    <mergeCell ref="BB2:BI2"/>
+    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="C8:BO8"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:X11"/>
+    <mergeCell ref="Y11:AH11"/>
+    <mergeCell ref="AI11:BO11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M12:BO12"/>
+    <mergeCell ref="AK3:AS3"/>
+    <mergeCell ref="AT3:BA3"/>
+    <mergeCell ref="BB3:BI3"/>
+    <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:BO6"/>
+    <mergeCell ref="C7:BO7"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="M13:BO13"/>
+    <mergeCell ref="C14:G21"/>
+    <mergeCell ref="H14:BO14"/>
+    <mergeCell ref="H15:BO15"/>
+    <mergeCell ref="H16:BO16"/>
+    <mergeCell ref="H17:BO17"/>
+    <mergeCell ref="H18:BO18"/>
+    <mergeCell ref="H19:BO19"/>
+    <mergeCell ref="H20:BO20"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:AD26"/>
+    <mergeCell ref="AE26:BC26"/>
+    <mergeCell ref="BD26:BJ26"/>
+    <mergeCell ref="H21:BO21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:N25"/>
+    <mergeCell ref="O25:AD25"/>
+    <mergeCell ref="AE25:BC25"/>
+    <mergeCell ref="BD25:BJ25"/>
+    <mergeCell ref="BK25:BO25"/>
     <mergeCell ref="BK27:BO27"/>
     <mergeCell ref="BK26:BO26"/>
     <mergeCell ref="BK28:BO28"/>
@@ -4355,51 +4358,48 @@
     <mergeCell ref="BD27:BJ27"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:AD26"/>
-    <mergeCell ref="AE26:BC26"/>
-    <mergeCell ref="BD26:BJ26"/>
-    <mergeCell ref="H21:BO21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:N25"/>
-    <mergeCell ref="O25:AD25"/>
-    <mergeCell ref="AE25:BC25"/>
-    <mergeCell ref="BD25:BJ25"/>
-    <mergeCell ref="BK25:BO25"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="M13:BO13"/>
-    <mergeCell ref="C14:G21"/>
-    <mergeCell ref="H14:BO14"/>
-    <mergeCell ref="H15:BO15"/>
-    <mergeCell ref="H16:BO16"/>
-    <mergeCell ref="H17:BO17"/>
-    <mergeCell ref="H18:BO18"/>
-    <mergeCell ref="H19:BO19"/>
-    <mergeCell ref="H20:BO20"/>
-    <mergeCell ref="C8:BO8"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:X11"/>
-    <mergeCell ref="Y11:AH11"/>
-    <mergeCell ref="AI11:BO11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="M12:BO12"/>
-    <mergeCell ref="AK3:AS3"/>
-    <mergeCell ref="AT3:BA3"/>
-    <mergeCell ref="BB3:BI3"/>
-    <mergeCell ref="BJ3:BQ3"/>
-    <mergeCell ref="C6:BO6"/>
-    <mergeCell ref="C7:BO7"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:AJ1"/>
-    <mergeCell ref="AK1:AS1"/>
-    <mergeCell ref="AT1:BQ1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:AJ3"/>
-    <mergeCell ref="AK2:AS2"/>
-    <mergeCell ref="AT2:BA2"/>
-    <mergeCell ref="BB2:BI2"/>
-    <mergeCell ref="BJ2:BQ2"/>
+    <mergeCell ref="BK30:BO30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="O31:AD31"/>
+    <mergeCell ref="AE31:BC31"/>
+    <mergeCell ref="BD31:BJ31"/>
+    <mergeCell ref="BK31:BO31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="O30:AD30"/>
+    <mergeCell ref="AE30:BC30"/>
+    <mergeCell ref="BD30:BJ30"/>
+    <mergeCell ref="BK32:BO32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="O33:AD33"/>
+    <mergeCell ref="AE33:BC33"/>
+    <mergeCell ref="BD33:BJ33"/>
+    <mergeCell ref="BK33:BO33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:N32"/>
+    <mergeCell ref="O32:AD32"/>
+    <mergeCell ref="AE32:BC32"/>
+    <mergeCell ref="BD32:BJ32"/>
+    <mergeCell ref="BK34:BO34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="O35:AD35"/>
+    <mergeCell ref="AE35:BC35"/>
+    <mergeCell ref="BD35:BJ35"/>
+    <mergeCell ref="BK35:BO35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="O34:AD34"/>
+    <mergeCell ref="AE34:BC34"/>
+    <mergeCell ref="BD34:BJ34"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -4470,247 +4470,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65" t="s">
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="66" t="s">
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="74"/>
+      <c r="AP1" s="74"/>
+      <c r="AQ1" s="74"/>
+      <c r="AR1" s="74"/>
+      <c r="AS1" s="74"/>
+      <c r="AT1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="66"/>
-      <c r="AV1" s="66"/>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="66"/>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="66"/>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="66"/>
-      <c r="BC1" s="66"/>
-      <c r="BD1" s="66"/>
-      <c r="BE1" s="66"/>
-      <c r="BF1" s="66"/>
-      <c r="BG1" s="66"/>
-      <c r="BH1" s="66"/>
-      <c r="BI1" s="66"/>
-      <c r="BJ1" s="66"/>
-      <c r="BK1" s="66"/>
-      <c r="BL1" s="66"/>
-      <c r="BM1" s="66"/>
-      <c r="BN1" s="66"/>
-      <c r="BO1" s="66"/>
-      <c r="BP1" s="66"/>
-      <c r="BQ1" s="66"/>
+      <c r="AU1" s="75"/>
+      <c r="AV1" s="75"/>
+      <c r="AW1" s="75"/>
+      <c r="AX1" s="75"/>
+      <c r="AY1" s="75"/>
+      <c r="AZ1" s="75"/>
+      <c r="BA1" s="75"/>
+      <c r="BB1" s="75"/>
+      <c r="BC1" s="75"/>
+      <c r="BD1" s="75"/>
+      <c r="BE1" s="75"/>
+      <c r="BF1" s="75"/>
+      <c r="BG1" s="75"/>
+      <c r="BH1" s="75"/>
+      <c r="BI1" s="75"/>
+      <c r="BJ1" s="75"/>
+      <c r="BK1" s="75"/>
+      <c r="BL1" s="75"/>
+      <c r="BM1" s="75"/>
+      <c r="BN1" s="75"/>
+      <c r="BO1" s="75"/>
+      <c r="BP1" s="75"/>
+      <c r="BQ1" s="75"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="59" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="67" t="s">
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="67"/>
-      <c r="AP2" s="67"/>
-      <c r="AQ2" s="67"/>
-      <c r="AR2" s="67"/>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="67" t="s">
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="65"/>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="65"/>
+      <c r="AR2" s="65"/>
+      <c r="AS2" s="65"/>
+      <c r="AT2" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
-      <c r="BA2" s="67"/>
-      <c r="BB2" s="67" t="s">
+      <c r="AU2" s="65"/>
+      <c r="AV2" s="65"/>
+      <c r="AW2" s="65"/>
+      <c r="AX2" s="65"/>
+      <c r="AY2" s="65"/>
+      <c r="AZ2" s="65"/>
+      <c r="BA2" s="65"/>
+      <c r="BB2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="67"/>
-      <c r="BD2" s="67"/>
-      <c r="BE2" s="67"/>
-      <c r="BF2" s="67"/>
-      <c r="BG2" s="67"/>
-      <c r="BH2" s="67"/>
-      <c r="BI2" s="67"/>
-      <c r="BJ2" s="68" t="s">
+      <c r="BC2" s="65"/>
+      <c r="BD2" s="65"/>
+      <c r="BE2" s="65"/>
+      <c r="BF2" s="65"/>
+      <c r="BG2" s="65"/>
+      <c r="BH2" s="65"/>
+      <c r="BI2" s="65"/>
+      <c r="BJ2" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="BK2" s="68"/>
-      <c r="BL2" s="68"/>
-      <c r="BM2" s="68"/>
-      <c r="BN2" s="68"/>
-      <c r="BO2" s="68"/>
-      <c r="BP2" s="68"/>
-      <c r="BQ2" s="68"/>
+      <c r="BK2" s="76"/>
+      <c r="BL2" s="76"/>
+      <c r="BM2" s="76"/>
+      <c r="BN2" s="76"/>
+      <c r="BO2" s="76"/>
+      <c r="BP2" s="76"/>
+      <c r="BQ2" s="76"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="69" t="s">
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="69"/>
-      <c r="AS3" s="69"/>
-      <c r="AT3" s="70">
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="77"/>
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="77"/>
+      <c r="AQ3" s="77"/>
+      <c r="AR3" s="77"/>
+      <c r="AS3" s="77"/>
+      <c r="AT3" s="78">
         <v>45510</v>
       </c>
-      <c r="AU3" s="70"/>
-      <c r="AV3" s="70"/>
-      <c r="AW3" s="70"/>
-      <c r="AX3" s="70"/>
-      <c r="AY3" s="70"/>
-      <c r="AZ3" s="70"/>
-      <c r="BA3" s="70"/>
-      <c r="BB3" s="69" t="s">
+      <c r="AU3" s="78"/>
+      <c r="AV3" s="78"/>
+      <c r="AW3" s="78"/>
+      <c r="AX3" s="78"/>
+      <c r="AY3" s="78"/>
+      <c r="AZ3" s="78"/>
+      <c r="BA3" s="78"/>
+      <c r="BB3" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="69"/>
-      <c r="BD3" s="69"/>
-      <c r="BE3" s="69"/>
-      <c r="BF3" s="69"/>
-      <c r="BG3" s="69"/>
-      <c r="BH3" s="69"/>
-      <c r="BI3" s="69"/>
-      <c r="BJ3" s="71">
+      <c r="BC3" s="77"/>
+      <c r="BD3" s="77"/>
+      <c r="BE3" s="77"/>
+      <c r="BF3" s="77"/>
+      <c r="BG3" s="77"/>
+      <c r="BH3" s="77"/>
+      <c r="BI3" s="77"/>
+      <c r="BJ3" s="79">
         <v>45548</v>
       </c>
-      <c r="BK3" s="71"/>
-      <c r="BL3" s="71"/>
-      <c r="BM3" s="71"/>
-      <c r="BN3" s="71"/>
-      <c r="BO3" s="71"/>
-      <c r="BP3" s="71"/>
-      <c r="BQ3" s="71"/>
+      <c r="BK3" s="79"/>
+      <c r="BL3" s="79"/>
+      <c r="BM3" s="79"/>
+      <c r="BN3" s="79"/>
+      <c r="BO3" s="79"/>
+      <c r="BP3" s="79"/>
+      <c r="BQ3" s="79"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -4735,20 +4735,20 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54" t="s">
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
       <c r="M6" s="72" t="s">
         <v>28</v>
       </c>
@@ -4779,52 +4779,52 @@
       <c r="AL6" s="72"/>
       <c r="AM6" s="72"/>
       <c r="AN6" s="72"/>
-      <c r="AO6" s="56" t="s">
+      <c r="AO6" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="56"/>
-      <c r="AQ6" s="56"/>
-      <c r="AR6" s="56"/>
-      <c r="AS6" s="56"/>
-      <c r="AT6" s="56"/>
-      <c r="AU6" s="56"/>
-      <c r="AV6" s="56" t="s">
+      <c r="AP6" s="49"/>
+      <c r="AQ6" s="49"/>
+      <c r="AR6" s="49"/>
+      <c r="AS6" s="49"/>
+      <c r="AT6" s="49"/>
+      <c r="AU6" s="49"/>
+      <c r="AV6" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="56"/>
-      <c r="AX6" s="56"/>
-      <c r="AY6" s="56"/>
-      <c r="AZ6" s="56"/>
-      <c r="BA6" s="56"/>
-      <c r="BB6" s="56"/>
-      <c r="BC6" s="56"/>
-      <c r="BD6" s="56"/>
-      <c r="BE6" s="56"/>
-      <c r="BF6" s="56"/>
-      <c r="BG6" s="56"/>
-      <c r="BH6" s="56"/>
-      <c r="BI6" s="56"/>
-      <c r="BJ6" s="56"/>
-      <c r="BK6" s="56"/>
-      <c r="BL6" s="56"/>
-      <c r="BM6" s="56"/>
-      <c r="BN6" s="56"/>
-      <c r="BO6" s="56"/>
-      <c r="BP6" s="56"/>
+      <c r="AW6" s="49"/>
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="49"/>
+      <c r="AZ6" s="49"/>
+      <c r="BA6" s="49"/>
+      <c r="BB6" s="49"/>
+      <c r="BC6" s="49"/>
+      <c r="BD6" s="49"/>
+      <c r="BE6" s="49"/>
+      <c r="BF6" s="49"/>
+      <c r="BG6" s="49"/>
+      <c r="BH6" s="49"/>
+      <c r="BI6" s="49"/>
+      <c r="BJ6" s="49"/>
+      <c r="BK6" s="49"/>
+      <c r="BL6" s="49"/>
+      <c r="BM6" s="49"/>
+      <c r="BN6" s="49"/>
+      <c r="BO6" s="49"/>
+      <c r="BP6" s="49"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
       <c r="M7" s="17" t="s">
         <v>58</v>
       </c>
@@ -4855,38 +4855,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="56" t="s">
+      <c r="AO7" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="56"/>
-      <c r="AQ7" s="56"/>
-      <c r="AR7" s="56"/>
-      <c r="AS7" s="56"/>
-      <c r="AT7" s="56"/>
-      <c r="AU7" s="56"/>
-      <c r="AV7" s="56" t="s">
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="49"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="AW7" s="56"/>
-      <c r="AX7" s="56"/>
-      <c r="AY7" s="56"/>
-      <c r="AZ7" s="56"/>
-      <c r="BA7" s="56"/>
-      <c r="BB7" s="56"/>
-      <c r="BC7" s="56"/>
-      <c r="BD7" s="56"/>
-      <c r="BE7" s="56"/>
-      <c r="BF7" s="56"/>
-      <c r="BG7" s="56"/>
-      <c r="BH7" s="56"/>
-      <c r="BI7" s="56"/>
-      <c r="BJ7" s="56"/>
-      <c r="BK7" s="56"/>
-      <c r="BL7" s="56"/>
-      <c r="BM7" s="56"/>
-      <c r="BN7" s="56"/>
-      <c r="BO7" s="56"/>
-      <c r="BP7" s="56"/>
+      <c r="AW7" s="49"/>
+      <c r="AX7" s="49"/>
+      <c r="AY7" s="49"/>
+      <c r="AZ7" s="49"/>
+      <c r="BA7" s="49"/>
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="49"/>
+      <c r="BD7" s="49"/>
+      <c r="BE7" s="49"/>
+      <c r="BF7" s="49"/>
+      <c r="BG7" s="49"/>
+      <c r="BH7" s="49"/>
+      <c r="BI7" s="49"/>
+      <c r="BJ7" s="49"/>
+      <c r="BK7" s="49"/>
+      <c r="BL7" s="49"/>
+      <c r="BM7" s="49"/>
+      <c r="BN7" s="49"/>
+      <c r="BO7" s="49"/>
+      <c r="BP7" s="49"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -4900,89 +4900,89 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="67" t="s">
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67" t="s">
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="74" t="s">
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="75"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="75"/>
-      <c r="AG10" s="75"/>
-      <c r="AH10" s="75"/>
-      <c r="AI10" s="75"/>
-      <c r="AJ10" s="75"/>
-      <c r="AK10" s="75"/>
-      <c r="AL10" s="75"/>
-      <c r="AM10" s="75"/>
-      <c r="AN10" s="75"/>
-      <c r="AO10" s="75"/>
-      <c r="AP10" s="75"/>
-      <c r="AQ10" s="75"/>
-      <c r="AR10" s="75"/>
-      <c r="AS10" s="75"/>
-      <c r="AT10" s="75"/>
-      <c r="AU10" s="75"/>
-      <c r="AV10" s="75"/>
-      <c r="AW10" s="75"/>
-      <c r="AX10" s="75"/>
-      <c r="AY10" s="75"/>
-      <c r="AZ10" s="75"/>
-      <c r="BA10" s="75"/>
-      <c r="BB10" s="75"/>
-      <c r="BC10" s="75"/>
-      <c r="BD10" s="75"/>
-      <c r="BE10" s="75"/>
-      <c r="BF10" s="75"/>
-      <c r="BG10" s="75"/>
-      <c r="BH10" s="75"/>
-      <c r="BI10" s="76"/>
-      <c r="BJ10" s="54" t="s">
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="70"/>
+      <c r="AD10" s="70"/>
+      <c r="AE10" s="70"/>
+      <c r="AF10" s="70"/>
+      <c r="AG10" s="70"/>
+      <c r="AH10" s="70"/>
+      <c r="AI10" s="70"/>
+      <c r="AJ10" s="70"/>
+      <c r="AK10" s="70"/>
+      <c r="AL10" s="70"/>
+      <c r="AM10" s="70"/>
+      <c r="AN10" s="70"/>
+      <c r="AO10" s="70"/>
+      <c r="AP10" s="70"/>
+      <c r="AQ10" s="70"/>
+      <c r="AR10" s="70"/>
+      <c r="AS10" s="70"/>
+      <c r="AT10" s="70"/>
+      <c r="AU10" s="70"/>
+      <c r="AV10" s="70"/>
+      <c r="AW10" s="70"/>
+      <c r="AX10" s="70"/>
+      <c r="AY10" s="70"/>
+      <c r="AZ10" s="70"/>
+      <c r="BA10" s="70"/>
+      <c r="BB10" s="70"/>
+      <c r="BC10" s="70"/>
+      <c r="BD10" s="70"/>
+      <c r="BE10" s="70"/>
+      <c r="BF10" s="70"/>
+      <c r="BG10" s="70"/>
+      <c r="BH10" s="70"/>
+      <c r="BI10" s="71"/>
+      <c r="BJ10" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="54"/>
-      <c r="BL10" s="54"/>
-      <c r="BM10" s="54"/>
-      <c r="BN10" s="54"/>
-      <c r="BO10" s="54"/>
-      <c r="BP10" s="54"/>
+      <c r="BK10" s="50"/>
+      <c r="BL10" s="50"/>
+      <c r="BM10" s="50"/>
+      <c r="BN10" s="50"/>
+      <c r="BO10" s="50"/>
+      <c r="BP10" s="50"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="17" t="s">
         <v>66</v>
       </c>
@@ -4998,11 +4998,11 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="67" t="s">
+      <c r="T11" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="67"/>
-      <c r="V11" s="78"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="68"/>
       <c r="W11" s="38" t="s">
         <v>65</v>
       </c>
@@ -5054,10 +5054,10 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -5070,9 +5070,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
       <c r="W12" s="38"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -5121,10 +5121,10 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -5138,9 +5138,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
       <c r="W13" s="38"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -5189,10 +5189,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -5206,9 +5206,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
       <c r="W14" s="38"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -5257,10 +5257,10 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -5274,9 +5274,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
       <c r="W15" s="38"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -5336,88 +5336,88 @@
       <c r="AG17" s="16"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="67" t="s">
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67" t="s">
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="54" t="s">
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="54"/>
-      <c r="AF18" s="54"/>
-      <c r="AG18" s="54"/>
-      <c r="AH18" s="54"/>
-      <c r="AI18" s="54"/>
-      <c r="AJ18" s="54"/>
-      <c r="AK18" s="54"/>
-      <c r="AL18" s="54"/>
-      <c r="AM18" s="54"/>
-      <c r="AN18" s="54"/>
-      <c r="AO18" s="54"/>
-      <c r="AP18" s="54"/>
-      <c r="AQ18" s="54"/>
-      <c r="AR18" s="54"/>
-      <c r="AS18" s="54"/>
-      <c r="AT18" s="54"/>
-      <c r="AU18" s="54"/>
-      <c r="AV18" s="54"/>
-      <c r="AW18" s="54"/>
-      <c r="AX18" s="54"/>
-      <c r="AY18" s="54"/>
-      <c r="AZ18" s="54"/>
-      <c r="BA18" s="54"/>
-      <c r="BB18" s="54"/>
-      <c r="BC18" s="54"/>
-      <c r="BD18" s="54"/>
-      <c r="BE18" s="54"/>
-      <c r="BF18" s="54"/>
-      <c r="BG18" s="54"/>
-      <c r="BH18" s="54"/>
-      <c r="BI18" s="54"/>
-      <c r="BJ18" s="54" t="s">
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="50"/>
+      <c r="AI18" s="50"/>
+      <c r="AJ18" s="50"/>
+      <c r="AK18" s="50"/>
+      <c r="AL18" s="50"/>
+      <c r="AM18" s="50"/>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="50"/>
+      <c r="AU18" s="50"/>
+      <c r="AV18" s="50"/>
+      <c r="AW18" s="50"/>
+      <c r="AX18" s="50"/>
+      <c r="AY18" s="50"/>
+      <c r="AZ18" s="50"/>
+      <c r="BA18" s="50"/>
+      <c r="BB18" s="50"/>
+      <c r="BC18" s="50"/>
+      <c r="BD18" s="50"/>
+      <c r="BE18" s="50"/>
+      <c r="BF18" s="50"/>
+      <c r="BG18" s="50"/>
+      <c r="BH18" s="50"/>
+      <c r="BI18" s="50"/>
+      <c r="BJ18" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="BK18" s="54"/>
-      <c r="BL18" s="54"/>
-      <c r="BM18" s="54"/>
-      <c r="BN18" s="54"/>
-      <c r="BO18" s="54"/>
-      <c r="BP18" s="54"/>
+      <c r="BK18" s="50"/>
+      <c r="BL18" s="50"/>
+      <c r="BM18" s="50"/>
+      <c r="BN18" s="50"/>
+      <c r="BO18" s="50"/>
+      <c r="BP18" s="50"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
       <c r="G19" s="17" t="s">
         <v>63</v>
       </c>
@@ -5433,11 +5433,11 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="67" t="s">
+      <c r="T19" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
       <c r="W19" s="21" t="s">
         <v>67</v>
       </c>
@@ -5724,7 +5724,7 @@
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C26" s="29"/>
       <c r="I26" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD26" s="13"/>
       <c r="AG26" s="16"/>
@@ -5748,7 +5748,7 @@
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C29" s="29"/>
       <c r="I29" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD29" s="13"/>
       <c r="AG29" s="16"/>
@@ -5773,7 +5773,7 @@
       <c r="A32" s="12"/>
       <c r="C32" s="29"/>
       <c r="I32" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AG32" s="16"/>
       <c r="BP32" s="30"/>
@@ -5821,7 +5821,7 @@
     <row r="39" spans="3:68" x14ac:dyDescent="0.2">
       <c r="C39" s="29"/>
       <c r="I39" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD39" s="13"/>
       <c r="AG39" s="16"/>
@@ -5995,37 +5995,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -6040,6 +6009,37 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -6110,243 +6110,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65" t="s">
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="65"/>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="66" t="s">
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="74"/>
+      <c r="AP1" s="74"/>
+      <c r="AQ1" s="74"/>
+      <c r="AR1" s="74"/>
+      <c r="AS1" s="74"/>
+      <c r="AT1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="AU1" s="66"/>
-      <c r="AV1" s="66"/>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="66"/>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="66"/>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="66"/>
-      <c r="BC1" s="66"/>
-      <c r="BD1" s="66"/>
-      <c r="BE1" s="66"/>
-      <c r="BF1" s="66"/>
-      <c r="BG1" s="66"/>
-      <c r="BH1" s="66"/>
-      <c r="BI1" s="66"/>
-      <c r="BJ1" s="66"/>
-      <c r="BK1" s="66"/>
-      <c r="BL1" s="66"/>
-      <c r="BM1" s="66"/>
-      <c r="BN1" s="66"/>
-      <c r="BO1" s="66"/>
-      <c r="BP1" s="66"/>
-      <c r="BQ1" s="66"/>
+      <c r="AU1" s="75"/>
+      <c r="AV1" s="75"/>
+      <c r="AW1" s="75"/>
+      <c r="AX1" s="75"/>
+      <c r="AY1" s="75"/>
+      <c r="AZ1" s="75"/>
+      <c r="BA1" s="75"/>
+      <c r="BB1" s="75"/>
+      <c r="BC1" s="75"/>
+      <c r="BD1" s="75"/>
+      <c r="BE1" s="75"/>
+      <c r="BF1" s="75"/>
+      <c r="BG1" s="75"/>
+      <c r="BH1" s="75"/>
+      <c r="BI1" s="75"/>
+      <c r="BJ1" s="75"/>
+      <c r="BK1" s="75"/>
+      <c r="BL1" s="75"/>
+      <c r="BM1" s="75"/>
+      <c r="BN1" s="75"/>
+      <c r="BO1" s="75"/>
+      <c r="BP1" s="75"/>
+      <c r="BQ1" s="75"/>
     </row>
     <row r="2" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="67" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="67"/>
-      <c r="AP2" s="67"/>
-      <c r="AQ2" s="67"/>
-      <c r="AR2" s="67"/>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="67" t="s">
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="65"/>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="65"/>
+      <c r="AR2" s="65"/>
+      <c r="AS2" s="65"/>
+      <c r="AT2" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
-      <c r="BA2" s="67"/>
-      <c r="BB2" s="67" t="s">
+      <c r="AU2" s="65"/>
+      <c r="AV2" s="65"/>
+      <c r="AW2" s="65"/>
+      <c r="AX2" s="65"/>
+      <c r="AY2" s="65"/>
+      <c r="AZ2" s="65"/>
+      <c r="BA2" s="65"/>
+      <c r="BB2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="BC2" s="67"/>
-      <c r="BD2" s="67"/>
-      <c r="BE2" s="67"/>
-      <c r="BF2" s="67"/>
-      <c r="BG2" s="67"/>
-      <c r="BH2" s="67"/>
-      <c r="BI2" s="67"/>
-      <c r="BJ2" s="68"/>
-      <c r="BK2" s="68"/>
-      <c r="BL2" s="68"/>
-      <c r="BM2" s="68"/>
-      <c r="BN2" s="68"/>
-      <c r="BO2" s="68"/>
-      <c r="BP2" s="68"/>
-      <c r="BQ2" s="68"/>
+      <c r="BC2" s="65"/>
+      <c r="BD2" s="65"/>
+      <c r="BE2" s="65"/>
+      <c r="BF2" s="65"/>
+      <c r="BG2" s="65"/>
+      <c r="BH2" s="65"/>
+      <c r="BI2" s="65"/>
+      <c r="BJ2" s="76"/>
+      <c r="BK2" s="76"/>
+      <c r="BL2" s="76"/>
+      <c r="BM2" s="76"/>
+      <c r="BN2" s="76"/>
+      <c r="BO2" s="76"/>
+      <c r="BP2" s="76"/>
+      <c r="BQ2" s="76"/>
     </row>
     <row r="3" spans="1:69" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="69" t="s">
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="69"/>
-      <c r="AS3" s="69"/>
-      <c r="AT3" s="70">
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="77"/>
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="77"/>
+      <c r="AQ3" s="77"/>
+      <c r="AR3" s="77"/>
+      <c r="AS3" s="77"/>
+      <c r="AT3" s="78">
         <v>45554</v>
       </c>
-      <c r="AU3" s="70"/>
-      <c r="AV3" s="70"/>
-      <c r="AW3" s="70"/>
-      <c r="AX3" s="70"/>
-      <c r="AY3" s="70"/>
-      <c r="AZ3" s="70"/>
-      <c r="BA3" s="70"/>
-      <c r="BB3" s="69" t="s">
+      <c r="AU3" s="78"/>
+      <c r="AV3" s="78"/>
+      <c r="AW3" s="78"/>
+      <c r="AX3" s="78"/>
+      <c r="AY3" s="78"/>
+      <c r="AZ3" s="78"/>
+      <c r="BA3" s="78"/>
+      <c r="BB3" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="BC3" s="69"/>
-      <c r="BD3" s="69"/>
-      <c r="BE3" s="69"/>
-      <c r="BF3" s="69"/>
-      <c r="BG3" s="69"/>
-      <c r="BH3" s="69"/>
-      <c r="BI3" s="69"/>
-      <c r="BJ3" s="71"/>
-      <c r="BK3" s="71"/>
-      <c r="BL3" s="71"/>
-      <c r="BM3" s="71"/>
-      <c r="BN3" s="71"/>
-      <c r="BO3" s="71"/>
-      <c r="BP3" s="71"/>
-      <c r="BQ3" s="71"/>
+      <c r="BC3" s="77"/>
+      <c r="BD3" s="77"/>
+      <c r="BE3" s="77"/>
+      <c r="BF3" s="77"/>
+      <c r="BG3" s="77"/>
+      <c r="BH3" s="77"/>
+      <c r="BI3" s="77"/>
+      <c r="BJ3" s="79"/>
+      <c r="BK3" s="79"/>
+      <c r="BL3" s="79"/>
+      <c r="BM3" s="79"/>
+      <c r="BN3" s="79"/>
+      <c r="BO3" s="79"/>
+      <c r="BP3" s="79"/>
+      <c r="BQ3" s="79"/>
     </row>
     <row r="4" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD4" s="13"/>
@@ -6371,20 +6371,20 @@
       <c r="AG5" s="16"/>
     </row>
     <row r="6" spans="1:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54" t="s">
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
       <c r="M6" s="72" t="s">
         <v>28</v>
       </c>
@@ -6415,54 +6415,54 @@
       <c r="AL6" s="72"/>
       <c r="AM6" s="72"/>
       <c r="AN6" s="72"/>
-      <c r="AO6" s="56" t="s">
+      <c r="AO6" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="AP6" s="56"/>
-      <c r="AQ6" s="56"/>
-      <c r="AR6" s="56"/>
-      <c r="AS6" s="56"/>
-      <c r="AT6" s="56"/>
-      <c r="AU6" s="56"/>
-      <c r="AV6" s="56" t="s">
+      <c r="AP6" s="49"/>
+      <c r="AQ6" s="49"/>
+      <c r="AR6" s="49"/>
+      <c r="AS6" s="49"/>
+      <c r="AT6" s="49"/>
+      <c r="AU6" s="49"/>
+      <c r="AV6" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="AW6" s="56"/>
-      <c r="AX6" s="56"/>
-      <c r="AY6" s="56"/>
-      <c r="AZ6" s="56"/>
-      <c r="BA6" s="56"/>
-      <c r="BB6" s="56"/>
-      <c r="BC6" s="56"/>
-      <c r="BD6" s="56"/>
-      <c r="BE6" s="56"/>
-      <c r="BF6" s="56"/>
-      <c r="BG6" s="56"/>
-      <c r="BH6" s="56"/>
-      <c r="BI6" s="56"/>
-      <c r="BJ6" s="56"/>
-      <c r="BK6" s="56"/>
-      <c r="BL6" s="56"/>
-      <c r="BM6" s="56"/>
-      <c r="BN6" s="56"/>
-      <c r="BO6" s="56"/>
-      <c r="BP6" s="56"/>
+      <c r="AW6" s="49"/>
+      <c r="AX6" s="49"/>
+      <c r="AY6" s="49"/>
+      <c r="AZ6" s="49"/>
+      <c r="BA6" s="49"/>
+      <c r="BB6" s="49"/>
+      <c r="BC6" s="49"/>
+      <c r="BD6" s="49"/>
+      <c r="BE6" s="49"/>
+      <c r="BF6" s="49"/>
+      <c r="BG6" s="49"/>
+      <c r="BH6" s="49"/>
+      <c r="BI6" s="49"/>
+      <c r="BJ6" s="49"/>
+      <c r="BK6" s="49"/>
+      <c r="BL6" s="49"/>
+      <c r="BM6" s="49"/>
+      <c r="BN6" s="49"/>
+      <c r="BO6" s="49"/>
+      <c r="BP6" s="49"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
       <c r="M7" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
@@ -6491,38 +6491,38 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AN7" s="20"/>
-      <c r="AO7" s="56" t="s">
+      <c r="AO7" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AP7" s="56"/>
-      <c r="AQ7" s="56"/>
-      <c r="AR7" s="56"/>
-      <c r="AS7" s="56"/>
-      <c r="AT7" s="56"/>
-      <c r="AU7" s="56"/>
-      <c r="AV7" s="56" t="s">
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="49"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="AW7" s="56"/>
-      <c r="AX7" s="56"/>
-      <c r="AY7" s="56"/>
-      <c r="AZ7" s="56"/>
-      <c r="BA7" s="56"/>
-      <c r="BB7" s="56"/>
-      <c r="BC7" s="56"/>
-      <c r="BD7" s="56"/>
-      <c r="BE7" s="56"/>
-      <c r="BF7" s="56"/>
-      <c r="BG7" s="56"/>
-      <c r="BH7" s="56"/>
-      <c r="BI7" s="56"/>
-      <c r="BJ7" s="56"/>
-      <c r="BK7" s="56"/>
-      <c r="BL7" s="56"/>
-      <c r="BM7" s="56"/>
-      <c r="BN7" s="56"/>
-      <c r="BO7" s="56"/>
-      <c r="BP7" s="56"/>
+      <c r="AW7" s="49"/>
+      <c r="AX7" s="49"/>
+      <c r="AY7" s="49"/>
+      <c r="AZ7" s="49"/>
+      <c r="BA7" s="49"/>
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="49"/>
+      <c r="BD7" s="49"/>
+      <c r="BE7" s="49"/>
+      <c r="BF7" s="49"/>
+      <c r="BG7" s="49"/>
+      <c r="BH7" s="49"/>
+      <c r="BI7" s="49"/>
+      <c r="BJ7" s="49"/>
+      <c r="BK7" s="49"/>
+      <c r="BL7" s="49"/>
+      <c r="BM7" s="49"/>
+      <c r="BN7" s="49"/>
+      <c r="BO7" s="49"/>
+      <c r="BP7" s="49"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.2">
       <c r="AD8" s="13"/>
@@ -6536,91 +6536,91 @@
       <c r="AG9" s="16"/>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="67" t="s">
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67" t="s">
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="74" t="s">
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="75"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="75"/>
-      <c r="AG10" s="75"/>
-      <c r="AH10" s="75"/>
-      <c r="AI10" s="75"/>
-      <c r="AJ10" s="75"/>
-      <c r="AK10" s="75"/>
-      <c r="AL10" s="75"/>
-      <c r="AM10" s="75"/>
-      <c r="AN10" s="75"/>
-      <c r="AO10" s="75"/>
-      <c r="AP10" s="75"/>
-      <c r="AQ10" s="75"/>
-      <c r="AR10" s="75"/>
-      <c r="AS10" s="75"/>
-      <c r="AT10" s="75"/>
-      <c r="AU10" s="75"/>
-      <c r="AV10" s="75"/>
-      <c r="AW10" s="75"/>
-      <c r="AX10" s="75"/>
-      <c r="AY10" s="75"/>
-      <c r="AZ10" s="75"/>
-      <c r="BA10" s="75"/>
-      <c r="BB10" s="75"/>
-      <c r="BC10" s="75"/>
-      <c r="BD10" s="75"/>
-      <c r="BE10" s="75"/>
-      <c r="BF10" s="75"/>
-      <c r="BG10" s="75"/>
-      <c r="BH10" s="75"/>
-      <c r="BI10" s="76"/>
-      <c r="BJ10" s="54" t="s">
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="70"/>
+      <c r="AD10" s="70"/>
+      <c r="AE10" s="70"/>
+      <c r="AF10" s="70"/>
+      <c r="AG10" s="70"/>
+      <c r="AH10" s="70"/>
+      <c r="AI10" s="70"/>
+      <c r="AJ10" s="70"/>
+      <c r="AK10" s="70"/>
+      <c r="AL10" s="70"/>
+      <c r="AM10" s="70"/>
+      <c r="AN10" s="70"/>
+      <c r="AO10" s="70"/>
+      <c r="AP10" s="70"/>
+      <c r="AQ10" s="70"/>
+      <c r="AR10" s="70"/>
+      <c r="AS10" s="70"/>
+      <c r="AT10" s="70"/>
+      <c r="AU10" s="70"/>
+      <c r="AV10" s="70"/>
+      <c r="AW10" s="70"/>
+      <c r="AX10" s="70"/>
+      <c r="AY10" s="70"/>
+      <c r="AZ10" s="70"/>
+      <c r="BA10" s="70"/>
+      <c r="BB10" s="70"/>
+      <c r="BC10" s="70"/>
+      <c r="BD10" s="70"/>
+      <c r="BE10" s="70"/>
+      <c r="BF10" s="70"/>
+      <c r="BG10" s="70"/>
+      <c r="BH10" s="70"/>
+      <c r="BI10" s="71"/>
+      <c r="BJ10" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="BK10" s="54"/>
-      <c r="BL10" s="54"/>
-      <c r="BM10" s="54"/>
-      <c r="BN10" s="54"/>
-      <c r="BO10" s="54"/>
-      <c r="BP10" s="54"/>
+      <c r="BK10" s="50"/>
+      <c r="BL10" s="50"/>
+      <c r="BM10" s="50"/>
+      <c r="BN10" s="50"/>
+      <c r="BO10" s="50"/>
+      <c r="BP10" s="50"/>
     </row>
     <row r="11" spans="1:69" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -6634,9 +6634,9 @@
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="20"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="78"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="68"/>
       <c r="W11" s="38"/>
       <c r="X11" s="39"/>
       <c r="Y11" s="39"/>
@@ -6686,10 +6686,10 @@
       <c r="BQ11" s="15"/>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -6702,9 +6702,9 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="20"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
       <c r="W12" s="38"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
@@ -6753,10 +6753,10 @@
       <c r="BP12" s="24"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
       <c r="G13" s="17"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -6770,9 +6770,9 @@
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="20"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
       <c r="W13" s="38"/>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
@@ -6821,10 +6821,10 @@
       <c r="BP13" s="24"/>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -6838,9 +6838,9 @@
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="20"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
       <c r="W14" s="38"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -6889,10 +6889,10 @@
       <c r="BP14" s="24"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="17"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -6906,9 +6906,9 @@
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="20"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
       <c r="W15" s="38"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -6968,88 +6968,88 @@
       <c r="AG17" s="16"/>
     </row>
     <row r="18" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="67" t="s">
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67" t="s">
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="54" t="s">
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="54"/>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="54"/>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="54"/>
-      <c r="AF18" s="54"/>
-      <c r="AG18" s="54"/>
-      <c r="AH18" s="54"/>
-      <c r="AI18" s="54"/>
-      <c r="AJ18" s="54"/>
-      <c r="AK18" s="54"/>
-      <c r="AL18" s="54"/>
-      <c r="AM18" s="54"/>
-      <c r="AN18" s="54"/>
-      <c r="AO18" s="54"/>
-      <c r="AP18" s="54"/>
-      <c r="AQ18" s="54"/>
-      <c r="AR18" s="54"/>
-      <c r="AS18" s="54"/>
-      <c r="AT18" s="54"/>
-      <c r="AU18" s="54"/>
-      <c r="AV18" s="54"/>
-      <c r="AW18" s="54"/>
-      <c r="AX18" s="54"/>
-      <c r="AY18" s="54"/>
-      <c r="AZ18" s="54"/>
-      <c r="BA18" s="54"/>
-      <c r="BB18" s="54"/>
-      <c r="BC18" s="54"/>
-      <c r="BD18" s="54"/>
-      <c r="BE18" s="54"/>
-      <c r="BF18" s="54"/>
-      <c r="BG18" s="54"/>
-      <c r="BH18" s="54"/>
-      <c r="BI18" s="54"/>
-      <c r="BJ18" s="54" t="s">
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="50"/>
+      <c r="AI18" s="50"/>
+      <c r="AJ18" s="50"/>
+      <c r="AK18" s="50"/>
+      <c r="AL18" s="50"/>
+      <c r="AM18" s="50"/>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="50"/>
+      <c r="AU18" s="50"/>
+      <c r="AV18" s="50"/>
+      <c r="AW18" s="50"/>
+      <c r="AX18" s="50"/>
+      <c r="AY18" s="50"/>
+      <c r="AZ18" s="50"/>
+      <c r="BA18" s="50"/>
+      <c r="BB18" s="50"/>
+      <c r="BC18" s="50"/>
+      <c r="BD18" s="50"/>
+      <c r="BE18" s="50"/>
+      <c r="BF18" s="50"/>
+      <c r="BG18" s="50"/>
+      <c r="BH18" s="50"/>
+      <c r="BI18" s="50"/>
+      <c r="BJ18" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="BK18" s="54"/>
-      <c r="BL18" s="54"/>
-      <c r="BM18" s="54"/>
-      <c r="BN18" s="54"/>
-      <c r="BO18" s="54"/>
-      <c r="BP18" s="54"/>
+      <c r="BK18" s="50"/>
+      <c r="BL18" s="50"/>
+      <c r="BM18" s="50"/>
+      <c r="BN18" s="50"/>
+      <c r="BO18" s="50"/>
+      <c r="BP18" s="50"/>
     </row>
     <row r="19" spans="1:69" x14ac:dyDescent="0.2">
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
       <c r="G19" s="17" t="s">
         <v>63</v>
       </c>
@@ -7065,13 +7065,13 @@
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
       <c r="S19" s="20"/>
-      <c r="T19" s="67" t="s">
+      <c r="T19" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
       <c r="W19" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X19" s="18"/>
       <c r="Y19" s="18"/>
@@ -7356,7 +7356,7 @@
     <row r="26" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C26" s="29"/>
       <c r="I26" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD26" s="13"/>
       <c r="AG26" s="16"/>
@@ -7380,7 +7380,7 @@
     <row r="29" spans="1:69" x14ac:dyDescent="0.2">
       <c r="C29" s="29"/>
       <c r="I29" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD29" s="13"/>
       <c r="AG29" s="16"/>
@@ -7405,7 +7405,7 @@
       <c r="A32" s="12"/>
       <c r="C32" s="29"/>
       <c r="I32" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG32" s="16"/>
       <c r="BP32" s="30"/>
@@ -7618,37 +7618,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="W18:BI18"/>
-    <mergeCell ref="BJ18:BP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="AO7:AU7"/>
-    <mergeCell ref="AV7:BP7"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:BI10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:AN6"/>
-    <mergeCell ref="AO6:AU6"/>
-    <mergeCell ref="AV6:BP6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="AK1:AS1"/>
@@ -7663,6 +7632,37 @@
     <mergeCell ref="AT3:BA3"/>
     <mergeCell ref="BB3:BI3"/>
     <mergeCell ref="BJ3:BQ3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:AN6"/>
+    <mergeCell ref="AO6:AU6"/>
+    <mergeCell ref="AV6:BP6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="AO7:AU7"/>
+    <mergeCell ref="AV7:BP7"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:BI10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W18:BI18"/>
+    <mergeCell ref="BJ18:BP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="T18:V18"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -7726,12 +7726,12 @@
   <sheetData>
     <row r="2" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="40" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="80" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="81"/>
       <c r="D3" s="81"/>
@@ -7743,14 +7743,14 @@
       <c r="J3" s="81"/>
       <c r="K3" s="82"/>
       <c r="L3" s="80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M3" s="81"/>
       <c r="N3" s="81"/>
       <c r="O3" s="81"/>
       <c r="P3" s="82"/>
       <c r="Q3" s="80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R3" s="81"/>
       <c r="S3" s="81"/>
@@ -7787,10 +7787,10 @@
     </row>
     <row r="4" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>73</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>74</v>
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="43"/>
@@ -7801,14 +7801,14 @@
       <c r="J4" s="43"/>
       <c r="K4" s="43"/>
       <c r="L4" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M4" s="43"/>
       <c r="N4" s="43"/>
       <c r="O4" s="43"/>
       <c r="P4" s="45"/>
       <c r="Q4" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R4" s="43"/>
       <c r="S4" s="43"/>
@@ -7895,10 +7895,10 @@
     </row>
     <row r="6" spans="2:49" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
@@ -7909,14 +7909,14 @@
       <c r="J6" s="43"/>
       <c r="K6" s="43"/>
       <c r="L6" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M6" s="43"/>
       <c r="N6" s="43"/>
       <c r="O6" s="43"/>
       <c r="P6" s="45"/>
       <c r="Q6" s="43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R6" s="43"/>
       <c r="S6" s="43"/>
